--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E133B55-FA4D-4EDB-9551-D0C167E6B82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC21D87-3A9D-4348-9890-A43C37BEA424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>ETH Zurich</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Università della Svizzera italiana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Bern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Basel (UB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Geneva (UNIGE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Lausanne (UNIL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Fribourg (UNIFR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +575,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +897,7 @@
   <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -886,7 +913,7 @@
     <col min="9" max="9" width="14.35546875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.78515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.78515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.78515625" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.78515625" style="10" customWidth="1"/>
@@ -935,7 +962,7 @@
       <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="23" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="18" t="s">
@@ -1014,7 +1041,7 @@
       <c r="K2" s="2">
         <v>1851</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="20">
         <v>0.37</v>
       </c>
       <c r="M2" s="8">
@@ -1025,35 +1052,35 @@
       </c>
       <c r="P2" s="7">
         <f>LOG((E2+F2)/(G2+F2)+1,Z$3)</f>
-        <v>78.188784431545827</v>
+        <v>74.275103663816225</v>
       </c>
       <c r="Q2" s="7">
         <f>LOG(J2*I2/K2^2,AA$3)</f>
-        <v>51.448562533042931</v>
+        <v>50.76819150950643</v>
       </c>
       <c r="R2" s="2">
         <f>LOG(L2/K2+1,AB$3)</f>
-        <v>2.9484990285826593</v>
+        <v>2.7094936525756346</v>
       </c>
       <c r="S2" s="2">
         <f>LOG(M2*N2/K2+1,AC$3)</f>
-        <v>592.80363493025345</v>
+        <v>639.5382519954934</v>
       </c>
       <c r="U2" s="7">
-        <f t="shared" ref="U2:U33" si="0">(P2+Q2)/2</f>
-        <v>64.818673482294372</v>
+        <f>(P2+Q2)/2</f>
+        <v>62.521647586661331</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" ref="V2:V33" si="1">(P2+Q2+R2)/3</f>
-        <v>44.195281997723804</v>
+        <f>(P2+Q2+R2)/3</f>
+        <v>42.584262941966095</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W33" si="2">(P2+Q2+S2)/3</f>
-        <v>240.81366063161408</v>
+        <f>(P2+Q2+S2)/3</f>
+        <v>254.86051572293869</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" ref="X2:X33" si="3">(P2*2+Q2*2+R2+S2)/6</f>
-        <v>142.50447131466893</v>
+        <f>(P2*2+Q2*2+R2+S2)/6</f>
+        <v>148.72238933245239</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>81</v>
@@ -1094,7 +1121,7 @@
       <c r="K3" s="2">
         <v>12720</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="20">
         <v>188.78</v>
       </c>
       <c r="M3" s="8">
@@ -1104,48 +1131,48 @@
         <v>61</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" ref="P3:P55" si="4">LOG((E3+F3)/(G3+F3)+1,Z$3)</f>
-        <v>79.83565349240375</v>
+        <f>LOG((E3+F3)/(G3+F3)+1,Z$3)</f>
+        <v>75.83953993310044</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q55" si="5">LOG(J3*I3/K3^2,AA$3)</f>
-        <v>63.551887252063864</v>
+        <f>LOG(J3*I3/K3^2,AA$3)</f>
+        <v>62.711458278959064</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R55" si="6">LOG(L3/K3+1,AB$3)</f>
-        <v>217.32765059996461</v>
+        <f>LOG(L3/K3+1,AB$3)</f>
+        <v>199.71106794389482</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S55" si="7">LOG(M3*N3/K3+1,AC$3)</f>
-        <v>346.67675879056873</v>
+        <f>LOG(M3*N3/K3+1,AC$3)</f>
+        <v>374.00757225530401</v>
       </c>
       <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>71.693770372233814</v>
+        <f>(P3+Q3)/2</f>
+        <v>69.275499106029756</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="1"/>
-        <v>120.23839711481075</v>
+        <f>(P3+Q3+R3)/3</f>
+        <v>112.75402205198479</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="2"/>
-        <v>163.35476651167878</v>
+        <f>(P3+Q3+S3)/3</f>
+        <v>170.85285682245453</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="3"/>
-        <v>141.79658181324476</v>
+        <f>(P3*2+Q3*2+R3+S3)/6</f>
+        <v>141.80343943721962</v>
       </c>
       <c r="Z3" s="21">
-        <v>1.0087280000000001</v>
+        <v>1.00919</v>
       </c>
       <c r="AA3" s="21">
-        <v>1.1755</v>
+        <v>1.17805</v>
       </c>
       <c r="AB3" s="21">
-        <v>1.0000677899999999</v>
+        <v>1.00007377</v>
       </c>
       <c r="AC3" s="21">
-        <v>1.0000818300000001</v>
+        <v>1.00007585</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1180,7 +1207,7 @@
       <c r="K4" s="2">
         <v>25022</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="20">
         <v>346.55</v>
       </c>
       <c r="M4" s="8">
@@ -1190,36 +1217,36 @@
         <v>47</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" si="4"/>
-        <v>83.596673637384427</v>
+        <f>LOG((E4+F4)/(G4+F4)+1,Z$3)</f>
+        <v>79.412305044888456</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="5"/>
-        <v>62.306212696760568</v>
+        <f>LOG(J4*I4/K4^2,AA$3)</f>
+        <v>61.482256892787383</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="6"/>
-        <v>202.90966479723835</v>
+        <f>LOG(L4/K4+1,AB$3)</f>
+        <v>186.46180428916296</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="7"/>
-        <v>227.42271713892637</v>
+        <f>LOG(M4*N4/K4+1,AC$3)</f>
+        <v>245.35194862664255</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" si="0"/>
-        <v>72.951443167072497</v>
+        <f>(P4+Q4)/2</f>
+        <v>70.447280968837916</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="1"/>
-        <v>116.27085037712777</v>
+        <f>(P4+Q4+R4)/3</f>
+        <v>109.11878874227959</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="2"/>
-        <v>124.44186782435713</v>
+        <f>(P4+Q4+S4)/3</f>
+        <v>128.7488368547728</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="3"/>
-        <v>120.35635910074245</v>
+        <f>(P4*2+Q4*2+R4+S4)/6</f>
+        <v>118.9338127985262</v>
       </c>
       <c r="Z4" s="22" t="s">
         <v>82</v>
@@ -1230,92 +1257,90 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E5" s="3">
-        <v>132400000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>207600000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>390100000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2518300000</v>
+        <v>2022</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>100305000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>18649000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>944209000</v>
       </c>
       <c r="I5" s="4">
-        <f>H5*1.17</f>
-        <v>2946411000</v>
+        <f>H5*1.02</f>
+        <v>963093180</v>
       </c>
       <c r="J5" s="2">
-        <v>5515</v>
+        <v>3195</v>
       </c>
       <c r="K5" s="2">
-        <v>22610</v>
-      </c>
-      <c r="L5" s="2">
-        <v>366.52</v>
+        <v>4731</v>
+      </c>
+      <c r="L5" s="20">
+        <v>92.49</v>
       </c>
       <c r="M5" s="8">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N5" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="4"/>
-        <v>51.822130474144437</v>
+        <f>LOG((E5+F5)/(G5+F5)+1,Z$3)</f>
+        <v>66.846839091610633</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="5"/>
-        <v>64.113769270903632</v>
+        <f>LOG(J5*I5/K5^2,AA$3)</f>
+        <v>72.202985075790721</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="6"/>
-        <v>237.21911307756977</v>
+        <f>LOG(L5/K5+1,AB$3)</f>
+        <v>262.46238200703385</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="7"/>
-        <v>82.74177811127494</v>
+        <f>LOG(M5*N5/K5+1,AC$3)</f>
+        <v>3.0651387481081591</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>57.967949872524031</v>
+        <f>(P5+Q5)/2</f>
+        <v>69.524912083700684</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="1"/>
-        <v>117.71833760753928</v>
+        <f>(P5+Q5+R5)/3</f>
+        <v>133.83740205814507</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="2"/>
-        <v>66.225892618774324</v>
+        <f>(P5+Q5+S5)/3</f>
+        <v>47.371654305169841</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="3"/>
-        <v>91.972115113156804</v>
+        <f>(P5*2+Q5*2+R5+S5)/6</f>
+        <v>90.604528181657471</v>
       </c>
       <c r="Z5" s="20">
         <f>AVERAGE(P:P)</f>
-        <v>50.000124999844942</v>
+        <v>49.995962342061823</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" ref="AA5:AB5" si="8">AVERAGE(Q:Q)</f>
-        <v>49.997772168410698</v>
+        <f t="shared" ref="AA5:AB5" si="0">AVERAGE(Q:Q)</f>
+        <v>49.995560908768269</v>
       </c>
       <c r="AB5" s="20">
-        <f t="shared" si="8"/>
-        <v>49.996440724926892</v>
+        <f t="shared" si="0"/>
+        <v>50.003759047767026</v>
       </c>
       <c r="AC5" s="20">
         <f>AVERAGE(S:S)</f>
-        <v>49.996231026626596</v>
+        <v>50.002451715088434</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1323,73 +1348,73 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>2023</v>
       </c>
       <c r="E6" s="3">
-        <v>183700000</v>
+        <v>132400000</v>
       </c>
       <c r="F6" s="3">
-        <v>229200000</v>
+        <v>207600000</v>
       </c>
       <c r="G6" s="3">
-        <v>504200000</v>
+        <v>390100000</v>
       </c>
       <c r="H6" s="3">
-        <v>2924700000</v>
+        <v>2518300000</v>
       </c>
       <c r="I6" s="4">
         <f>H6*1.17</f>
-        <v>3421899000</v>
+        <v>2946411000</v>
       </c>
       <c r="J6" s="2">
-        <v>6580</v>
+        <v>5515</v>
       </c>
       <c r="K6" s="2">
-        <v>27290</v>
-      </c>
-      <c r="L6" s="2">
-        <v>378.45</v>
+        <v>22610</v>
+      </c>
+      <c r="L6" s="20">
+        <v>366.52</v>
       </c>
       <c r="M6" s="8">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N6" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="4"/>
-        <v>51.392019003097033</v>
+        <f>LOG((E6+F6)/(G6+F6)+1,Z$3)</f>
+        <v>49.228212729368686</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="5"/>
-        <v>63.804015718398688</v>
+        <f>LOG(J6*I6/K6^2,AA$3)</f>
+        <v>63.26590980362284</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="6"/>
-        <v>203.1701869575906</v>
+        <f>LOG(L6/K6+1,AB$3)</f>
+        <v>217.99012817116756</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="7"/>
-        <v>80.342592756189632</v>
+        <f>LOG(M6*N6/K6+1,AC$3)</f>
+        <v>89.264857740809347</v>
       </c>
       <c r="U6" s="7">
-        <f t="shared" si="0"/>
-        <v>57.59801736074786</v>
+        <f>(P6+Q6)/2</f>
+        <v>56.247061266495763</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="1"/>
-        <v>106.12207389302877</v>
+        <f>(P6+Q6+R6)/3</f>
+        <v>110.16141690138636</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="2"/>
-        <v>65.179542492561779</v>
+        <f>(P6+Q6+S6)/3</f>
+        <v>67.252993424600291</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="3"/>
-        <v>85.650808192795282</v>
+        <f>(P6*2+Q6*2+R6+S6)/6</f>
+        <v>88.707205162993318</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1397,1085 +1422,1075 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>2023</v>
       </c>
       <c r="E7" s="3">
-        <v>52000000</v>
+        <v>183700000</v>
       </c>
       <c r="F7" s="3">
-        <v>183000000</v>
+        <v>229200000</v>
       </c>
       <c r="G7" s="3">
-        <v>452000000</v>
+        <v>504200000</v>
       </c>
       <c r="H7" s="3">
-        <v>1269000000</v>
+        <v>2924700000</v>
       </c>
       <c r="I7" s="4">
         <f>H7*1.17</f>
-        <v>1484730000</v>
+        <v>3421899000</v>
       </c>
       <c r="J7" s="2">
-        <v>4005</v>
+        <v>6580</v>
       </c>
       <c r="K7" s="2">
-        <v>21470</v>
-      </c>
-      <c r="L7" s="2">
-        <v>216.29</v>
+        <v>27290</v>
+      </c>
+      <c r="L7" s="20">
+        <v>378.45</v>
       </c>
       <c r="M7" s="8">
         <v>3.6</v>
       </c>
       <c r="N7" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="4"/>
-        <v>36.232849160853171</v>
+        <f>LOG((E7+F7)/(G7+F7)+1,Z$3)</f>
+        <v>48.819630164346059</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="5"/>
-        <v>58.536481940313401</v>
+        <f>LOG(J7*I7/K7^2,AA$3)</f>
+        <v>62.960252523806304</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="6"/>
-        <v>147.86829179194655</v>
+        <f>LOG(L7/K7+1,AB$3)</f>
+        <v>186.70120851924304</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="7"/>
-        <v>108.12569271143444</v>
+        <f>LOG(M7*N7/K7+1,AC$3)</f>
+        <v>86.676528793762714</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="0"/>
-        <v>47.384665550583286</v>
+        <f>(P7+Q7)/2</f>
+        <v>55.889941344076178</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="1"/>
-        <v>80.879207631037715</v>
+        <f>(P7+Q7+R7)/3</f>
+        <v>99.493697069131784</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="2"/>
-        <v>67.631674604200342</v>
+        <f>(P7+Q7+S7)/3</f>
+        <v>66.152137160638361</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="3"/>
-        <v>74.255441117619014</v>
+        <f>(P7*2+Q7*2+R7+S7)/6</f>
+        <v>82.822917114885072</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="3">
+        <v>52000000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>183000000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>452000000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1269000000</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8*1.17</f>
+        <v>1484730000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4005</v>
+      </c>
+      <c r="K8" s="2">
+        <v>21470</v>
+      </c>
+      <c r="L8" s="20">
+        <v>216.29</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="N8" s="2">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>2802082000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>85816000</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5801215000</v>
-      </c>
-      <c r="I8" s="4">
-        <f>H8*0.13</f>
-        <v>754157950</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3382</v>
-      </c>
-      <c r="K8" s="2">
-        <v>9957</v>
-      </c>
-      <c r="L8" s="2">
-        <v>77.959999999999994</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="N8" s="2">
-        <v>22</v>
-      </c>
       <c r="P8" s="7">
-        <f t="shared" si="4"/>
-        <v>78.039999186740332</v>
+        <f>LOG((E8+F8)/(G8+F8)+1,Z$3)</f>
+        <v>34.419241161293755</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="5"/>
-        <v>62.805660870086676</v>
+        <f>LOG(J8*I8/K8^2,AA$3)</f>
+        <v>57.762378171984039</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="6"/>
-        <v>115.05294491274363</v>
+        <f>LOG(L8/K8+1,AB$3)</f>
+        <v>135.88208581505694</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="7"/>
-        <v>43.12735690509848</v>
+        <f>LOG(M8*N8/K8+1,AC$3)</f>
+        <v>116.6499536066586</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="0"/>
-        <v>70.4228300284135</v>
+        <f>(P8+Q8)/2</f>
+        <v>46.090809666638897</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="1"/>
-        <v>85.299534989856866</v>
+        <f>(P8+Q8+R8)/3</f>
+        <v>76.021235049444911</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="2"/>
-        <v>61.324338987308494</v>
+        <f>(P8+Q8+S8)/3</f>
+        <v>69.610524313312126</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="3"/>
-        <v>73.311936988582673</v>
+        <f>(P8*2+Q8*2+R8+S8)/6</f>
+        <v>72.815879681378519</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>2022</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>575900000</v>
-      </c>
-      <c r="G9" s="4">
-        <v>71400000</v>
-      </c>
-      <c r="H9" s="4">
-        <v>913700000</v>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>2802082000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>85816000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5801215000</v>
       </c>
       <c r="I9" s="4">
-        <f>H9</f>
-        <v>913700000</v>
+        <f>H9*0.13</f>
+        <v>754157950</v>
       </c>
       <c r="J9" s="2">
-        <v>6351</v>
+        <v>3382</v>
       </c>
       <c r="K9" s="2">
-        <v>26978</v>
-      </c>
-      <c r="L9" s="2">
-        <v>80.08</v>
+        <v>9957</v>
+      </c>
+      <c r="L9" s="20">
+        <v>77.959999999999994</v>
       </c>
       <c r="M9" s="8">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="N9" s="2">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="4"/>
-        <v>73.234313133389634</v>
+        <f>LOG((E9+F9)/(G9+F9)+1,Z$3)</f>
+        <v>74.133765752478709</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="5"/>
-        <v>55.560807743740604</v>
+        <f>LOG(J9*I9/K9^2,AA$3)</f>
+        <v>61.975100215595631</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="6"/>
-        <v>43.723974080405597</v>
+        <f>LOG(L9/K9+1,AB$3)</f>
+        <v>105.72675145192902</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="7"/>
-        <v>119.90707280317767</v>
+        <f>LOG(M9*N9/K9+1,AC$3)</f>
+        <v>46.527370655406962</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="0"/>
-        <v>64.397560438565122</v>
+        <f>(P9+Q9)/2</f>
+        <v>68.054432984037163</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="1"/>
-        <v>57.506364985845288</v>
+        <f>(P9+Q9+R9)/3</f>
+        <v>80.611872473334458</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="2"/>
-        <v>82.90073122676931</v>
+        <f>(P9+Q9+S9)/3</f>
+        <v>60.878745541160434</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="3"/>
-        <v>70.203548106307281</v>
+        <f>(P9*2+Q9*2+R9+S9)/6</f>
+        <v>70.745309007247442</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>2022</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>5392321000</v>
-      </c>
-      <c r="G10" s="6">
-        <v>91601000</v>
-      </c>
-      <c r="H10" s="6">
-        <v>9640000000</v>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>575900000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>71400000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>913700000</v>
       </c>
       <c r="I10" s="4">
-        <f>H10*0.13</f>
-        <v>1253200000</v>
+        <f>H10</f>
+        <v>913700000</v>
       </c>
       <c r="J10" s="2">
-        <v>5809</v>
+        <v>6351</v>
       </c>
       <c r="K10" s="2">
-        <v>27380</v>
-      </c>
-      <c r="L10" s="2">
-        <v>207.48</v>
+        <v>26978</v>
+      </c>
+      <c r="L10" s="20">
+        <v>80.08</v>
       </c>
       <c r="M10" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N10" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="4"/>
-        <v>78.797467560461584</v>
+        <f>LOG((E10+F10)/(G10+F10)+1,Z$3)</f>
+        <v>69.568624698253956</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="5"/>
-        <v>56.780195765611055</v>
+        <f>LOG(J10*I10/K10^2,AA$3)</f>
+        <v>54.826055172007514</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="6"/>
-        <v>111.36572701626952</v>
+        <f>LOG(L10/K10+1,AB$3)</f>
+        <v>40.179708077838121</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="7"/>
-        <v>38.32560867379361</v>
+        <f>LOG(M10*N10/K10+1,AC$3)</f>
+        <v>129.36013752929003</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="0"/>
-        <v>67.788831663036319</v>
+        <f>(P10+Q10)/2</f>
+        <v>62.197339935130735</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="1"/>
-        <v>82.31446344744738</v>
+        <f>(P10+Q10+R10)/3</f>
+        <v>54.8581293160332</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="2"/>
-        <v>57.967757333288752</v>
+        <f>(P10+Q10+S10)/3</f>
+        <v>84.584939133183823</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="3"/>
-        <v>70.14111039036807</v>
+        <f>(P10*2+Q10*2+R10+S10)/6</f>
+        <v>69.721534224608504</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>2022</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>47868762</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3208628</v>
-      </c>
-      <c r="H11" s="4">
-        <v>76603690</v>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>5392321000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>91601000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>9640000000</v>
       </c>
       <c r="I11" s="4">
-        <f>H11</f>
-        <v>76603690</v>
+        <f>H11*0.13</f>
+        <v>1253200000</v>
       </c>
       <c r="J11" s="2">
-        <v>393</v>
+        <v>5809</v>
       </c>
       <c r="K11" s="2">
-        <v>819</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2.85</v>
+        <v>27380</v>
+      </c>
+      <c r="L11" s="20">
+        <v>207.48</v>
       </c>
       <c r="M11" s="8">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="4"/>
-        <v>76.090203315818243</v>
+        <f>LOG((E11+F11)/(G11+F11)+1,Z$3)</f>
+        <v>74.85331961674764</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="5"/>
-        <v>66.247507501183605</v>
+        <f>LOG(J11*I11/K11^2,AA$3)</f>
+        <v>56.029317645647247</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="6"/>
-        <v>51.245471943127654</v>
+        <f>LOG(L11/K11+1,AB$3)</f>
+        <v>102.33841949410494</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="7"/>
-        <v>71.415584022432398</v>
+        <f>LOG(M11*N11/K11+1,AC$3)</f>
+        <v>41.347068967930838</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="0"/>
-        <v>71.168855408500917</v>
+        <f>(P11+Q11)/2</f>
+        <v>65.441318631197447</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="1"/>
-        <v>64.52772758670983</v>
+        <f>(P11+Q11+R11)/3</f>
+        <v>77.740352252166602</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="2"/>
-        <v>71.251098279811416</v>
+        <f>(P11+Q11+S11)/3</f>
+        <v>57.409902076775246</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="3"/>
-        <v>67.88941293326063</v>
+        <f>(P11*2+Q11*2+R11+S11)/6</f>
+        <v>67.575127164470928</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1">
         <v>2022</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <v>4234471000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>64976000</v>
-      </c>
-      <c r="H12" s="6">
-        <v>7316000000</v>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>47868762</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3208628</v>
+      </c>
+      <c r="H12" s="4">
+        <v>76603690</v>
       </c>
       <c r="I12" s="4">
-        <f>H12*0.13</f>
-        <v>951080000</v>
+        <f>H12</f>
+        <v>76603690</v>
       </c>
       <c r="J12" s="2">
-        <v>4846</v>
+        <v>393</v>
       </c>
       <c r="K12" s="2">
-        <v>26090</v>
-      </c>
-      <c r="L12" s="2">
-        <v>125.28</v>
+        <v>819</v>
+      </c>
+      <c r="L12" s="20">
+        <v>2.85</v>
       </c>
       <c r="M12" s="8">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="N12" s="2">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="4"/>
-        <v>78.889737217820525</v>
+        <f>LOG((E12+F12)/(G12+F12)+1,Z$3)</f>
+        <v>72.281565446655961</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="5"/>
-        <v>54.550108873971496</v>
+        <f>LOG(J12*I12/K12^2,AA$3)</f>
+        <v>65.371430847800454</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="6"/>
-        <v>70.666913906247586</v>
+        <f>LOG(L12/K12+1,AB$3)</f>
+        <v>47.091513209652256</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="7"/>
-        <v>43.205118053391224</v>
+        <f>LOG(M12*N12/K12+1,AC$3)</f>
+        <v>77.04574513332291</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" si="0"/>
-        <v>66.71992304589601</v>
+        <f>(P12+Q12)/2</f>
+        <v>68.826498147228207</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="1"/>
-        <v>68.035586666013202</v>
+        <f>(P12+Q12+R12)/3</f>
+        <v>61.581503168036221</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="2"/>
-        <v>58.881654715061082</v>
+        <f>(P12+Q12+S12)/3</f>
+        <v>71.566247142593113</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="3"/>
-        <v>63.458620690537145</v>
+        <f>(P12*2+Q12*2+R12+S12)/6</f>
+        <v>66.573875155314667</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1">
         <v>2022</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>314100000</v>
-      </c>
-      <c r="G13" s="4">
-        <v>28100000</v>
-      </c>
-      <c r="H13" s="4">
-        <v>477800000</v>
+      <c r="E13" s="5">
+        <v>14372360</v>
+      </c>
+      <c r="F13" s="5">
+        <v>509643762</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>751869907</v>
       </c>
       <c r="I13" s="4">
-        <f>H13</f>
-        <v>477800000</v>
+        <f>H13*1.02</f>
+        <v>766907305.13999999</v>
       </c>
       <c r="J13" s="2">
-        <v>2395.6</v>
+        <v>5417</v>
       </c>
       <c r="K13" s="2">
-        <v>12876</v>
-      </c>
-      <c r="L13" s="2">
-        <v>59.86</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="N13" s="2">
-        <v>26</v>
+        <v>12896</v>
+      </c>
+      <c r="L13" s="20">
+        <v>100.26</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="4"/>
-        <v>74.938182801971877</v>
+        <f>LOG((E13+F13)/(G13+F13)+1,Z$3)</f>
+        <v>77.300706070374602</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="5"/>
-        <v>54.6703865205128</v>
+        <f>LOG(J13*I13/K13^2,AA$3)</f>
+        <v>61.795412579846939</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="6"/>
-        <v>68.422237474728362</v>
+        <f>LOG(L13/K13+1,AB$3)</f>
+        <v>104.98473157499849</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="7"/>
-        <v>39.42003082865071</v>
+        <f>LOG(M13*N13/K13+1,AC$3)</f>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="0"/>
-        <v>64.804284661242335</v>
+        <f>(P13+Q13)/2</f>
+        <v>69.548059325110771</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="1"/>
-        <v>66.010268932404344</v>
+        <f>(P13+Q13+R13)/3</f>
+        <v>81.360283408406687</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="2"/>
-        <v>56.342866717045126</v>
+        <f>(P13+Q13+S13)/3</f>
+        <v>46.365372883407183</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="3"/>
-        <v>61.176567824724735</v>
+        <f>(P13*2+Q13*2+R13+S13)/6</f>
+        <v>63.862828145906924</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3581000</v>
-      </c>
-      <c r="F14" s="5">
-        <v>987439000</v>
-      </c>
-      <c r="G14" s="5">
-        <v>33702000</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1570476000</v>
+        <v>2022</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>4234471000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>64976000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7316000000</v>
       </c>
       <c r="I14" s="4">
-        <f>H14*1.02</f>
-        <v>1601885520</v>
+        <f>H14*0.13</f>
+        <v>951080000</v>
       </c>
       <c r="J14" s="2">
-        <v>4540</v>
+        <v>4846</v>
       </c>
       <c r="K14" s="2">
-        <v>27895</v>
-      </c>
-      <c r="L14" s="2">
-        <v>142.5</v>
+        <v>26090</v>
+      </c>
+      <c r="L14" s="20">
+        <v>125.28</v>
       </c>
       <c r="M14" s="8">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="N14" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="4"/>
-        <v>78.052750204920855</v>
+        <f>LOG((E14+F14)/(G14+F14)+1,Z$3)</f>
+        <v>74.940970785840307</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="5"/>
-        <v>56.543515976721473</v>
+        <f>LOG(J14*I14/K14^2,AA$3)</f>
+        <v>53.828722083334242</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="6"/>
-        <v>75.167594878016715</v>
+        <f>LOG(L14/K14+1,AB$3)</f>
+        <v>64.938652792477555</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9847288067271798</v>
+        <f>LOG(M14*N14/K14+1,AC$3)</f>
+        <v>46.611262227458731</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="0"/>
-        <v>67.298133090821167</v>
+        <f>(P14+Q14)/2</f>
+        <v>64.384846434587274</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="1"/>
-        <v>69.92128701988635</v>
+        <f>(P14+Q14+R14)/3</f>
+        <v>64.569448553884044</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="2"/>
-        <v>48.193664996123175</v>
+        <f>(P14+Q14+S14)/3</f>
+        <v>58.460318365544424</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="3"/>
-        <v>59.057476008004755</v>
+        <f>(P14*2+Q14*2+R14+S14)/6</f>
+        <v>61.514883459714234</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>2022</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19">
-        <v>2660597000</v>
-      </c>
-      <c r="G15" s="19">
-        <v>703808000</v>
-      </c>
-      <c r="H15" s="19">
-        <v>5425973000</v>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>314100000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>28100000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>477800000</v>
       </c>
       <c r="I15" s="4">
-        <f>H15*0.08</f>
-        <v>434077840</v>
+        <f>H15</f>
+        <v>477800000</v>
       </c>
       <c r="J15" s="2">
-        <v>843</v>
+        <v>2395.6</v>
       </c>
       <c r="K15" s="2">
-        <v>13583</v>
-      </c>
-      <c r="L15" s="2">
-        <v>54.93</v>
+        <v>12876</v>
+      </c>
+      <c r="L15" s="20">
+        <v>59.86</v>
       </c>
       <c r="M15" s="8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N15" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="4"/>
-        <v>67.049239077766984</v>
+        <f>LOG((E15+F15)/(G15+F15)+1,Z$3)</f>
+        <v>71.187208452735746</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="5"/>
-        <v>46.956424532531237</v>
+        <f>LOG(J15*I15/K15^2,AA$3)</f>
+        <v>53.947409142666558</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="6"/>
-        <v>59.53691284584135</v>
+        <f>LOG(L15/K15+1,AB$3)</f>
+        <v>62.875929866565293</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="7"/>
-        <v>53.864586009857184</v>
+        <f>LOG(M15*N15/K15+1,AC$3)</f>
+        <v>42.527771633400839</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="0"/>
-        <v>57.002831805149114</v>
+        <f>(P15+Q15)/2</f>
+        <v>62.567308797701152</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="1"/>
-        <v>57.847525485379862</v>
+        <f>(P15+Q15+R15)/3</f>
+        <v>62.670182487322535</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="2"/>
-        <v>55.956749873385142</v>
+        <f>(P15+Q15+S15)/3</f>
+        <v>55.887463076267714</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="3"/>
-        <v>56.902137679382498</v>
+        <f>(P15*2+Q15*2+R15+S15)/6</f>
+        <v>59.278822781795128</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>445684557</v>
-      </c>
-      <c r="G16" s="4">
-        <v>103976679</v>
-      </c>
-      <c r="H16" s="4">
-        <v>715010067</v>
+        <v>2023</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3581000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>987439000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>33702000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1570476000</v>
       </c>
       <c r="I16" s="4">
-        <f>H16</f>
-        <v>715010067</v>
+        <f>H16*1.02</f>
+        <v>1601885520</v>
       </c>
       <c r="J16" s="2">
-        <v>2268</v>
+        <v>4540</v>
       </c>
       <c r="K16" s="2">
-        <v>12739</v>
-      </c>
-      <c r="L16" s="2">
-        <v>62.3</v>
+        <v>27895</v>
+      </c>
+      <c r="L16" s="20">
+        <v>142.5</v>
       </c>
       <c r="M16" s="8">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="N16" s="2">
         <v>12</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="4"/>
-        <v>68.329009106555446</v>
+        <f>LOG((E16+F16)/(G16+F16)+1,Z$3)</f>
+        <v>74.145878528039347</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="5"/>
-        <v>56.957199329790122</v>
+        <f>LOG(J16*I16/K16^2,AA$3)</f>
+        <v>55.795767780360748</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="6"/>
-        <v>71.968424519980772</v>
+        <f>LOG(L16/K16+1,AB$3)</f>
+        <v>69.074508496367102</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="7"/>
-        <v>14.956456019744376</v>
+        <f>LOG(M16*N16/K16+1,AC$3)</f>
+        <v>10.771890777043989</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="0"/>
-        <v>62.64310421817278</v>
+        <f>(P16+Q16)/2</f>
+        <v>64.970823154200048</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="1"/>
-        <v>65.751544318775444</v>
+        <f>(P16+Q16+R16)/3</f>
+        <v>66.338718268255732</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="2"/>
-        <v>46.747554818696642</v>
+        <f>(P16+Q16+S16)/3</f>
+        <v>46.904512361814689</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="3"/>
-        <v>56.24954956873605</v>
+        <f>(P16*2+Q16*2+R16+S16)/6</f>
+        <v>56.621615315035221</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1">
         <v>2023</v>
       </c>
-      <c r="E17" s="3">
-        <v>55100000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>210900000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>513700000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1385000000</v>
+      <c r="E17" s="5">
+        <v>3158729</v>
+      </c>
+      <c r="F17" s="5">
+        <v>679383671</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>825582486</v>
       </c>
       <c r="I17" s="4">
-        <f>H17*1.17</f>
-        <v>1620450000</v>
+        <f>H17*1.02</f>
+        <v>842094135.72000003</v>
       </c>
       <c r="J17" s="2">
-        <v>5015</v>
+        <v>3038.9</v>
       </c>
       <c r="K17" s="2">
-        <v>41250</v>
-      </c>
-      <c r="L17" s="2">
-        <v>127.71</v>
-      </c>
-      <c r="M17" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N17" s="2">
-        <v>78</v>
+        <v>18261</v>
+      </c>
+      <c r="L17" s="20">
+        <v>104.12</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="4"/>
-        <v>35.982315421595956</v>
+        <f>LOG((E17+F17)/(G17+F17)+1,Z$3)</f>
+        <v>76.023938308066732</v>
       </c>
       <c r="Q17" s="7">
         <f>LOG(J17*I17/K17^2,AA$3)</f>
-        <v>52.391351412029188</v>
+        <v>54.592814175408094</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="6"/>
-        <v>45.601446181743121</v>
+        <f>LOG(L17/K17+1,AB$3)</f>
+        <v>77.074487576347281</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="7"/>
-        <v>112.71136356147407</v>
+        <f>LOG(M17*N17/K17+1,AC$3)</f>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="0"/>
-        <v>44.186833416812576</v>
+        <f>(P17+Q17)/2</f>
+        <v>65.30837624173742</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="1"/>
-        <v>44.658371005122753</v>
+        <f>(P17+Q17+R17)/3</f>
+        <v>69.230413353274045</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="2"/>
-        <v>67.028343465033075</v>
+        <f>(P17+Q17+S17)/3</f>
+        <v>43.538917494491614</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="3"/>
-        <v>55.843357235077917</v>
+        <f>(P17*2+Q17*2+R17+S17)/6</f>
+        <v>56.384665423882829</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1">
         <v>2022</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>402124000</v>
-      </c>
-      <c r="G18" s="4">
-        <v>35660000</v>
-      </c>
-      <c r="H18" s="4">
-        <v>714862000</v>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>75144893.329999998</v>
+      </c>
+      <c r="G18" s="5">
+        <v>15984457.52</v>
+      </c>
+      <c r="H18" s="5">
+        <v>107678803.23</v>
       </c>
       <c r="I18" s="4">
-        <f>H18</f>
-        <v>714862000</v>
+        <f>H18*1.02</f>
+        <v>109832379.29460001</v>
       </c>
       <c r="J18" s="2">
-        <v>3467</v>
+        <v>485.4</v>
       </c>
       <c r="K18" s="2">
-        <v>24402</v>
-      </c>
-      <c r="L18" s="2">
-        <v>88.36</v>
+        <v>3922</v>
+      </c>
+      <c r="L18" s="20">
+        <v>5.91</v>
       </c>
       <c r="M18" s="8">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N18" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="4"/>
-        <v>74.977777596073309</v>
+        <f>LOG((E18+F18)/(G18+F18)+1,Z$3)</f>
+        <v>65.736408376842817</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="5"/>
-        <v>51.540721695250625</v>
+        <f>LOG(J18*I18/K18^2,AA$3)</f>
+        <v>49.741846062640469</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="6"/>
-        <v>53.320505850859512</v>
+        <f>LOG(L18/K18+1,AB$3)</f>
+        <v>20.412167152686543</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="7"/>
-        <v>26.114769472283253</v>
+        <f>LOG(M18*N18/K18+1,AC$3)</f>
+        <v>84.442741139859294</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="0"/>
-        <v>63.259249645661967</v>
+        <f>(P18+Q18)/2</f>
+        <v>57.739127219741647</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="1"/>
-        <v>59.946335047394484</v>
+        <f>(P18+Q18+R18)/3</f>
+        <v>45.296807197389946</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="2"/>
-        <v>50.877756254535733</v>
+        <f>(P18+Q18+S18)/3</f>
+        <v>66.640331859780858</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="3"/>
-        <v>55.412045650965098</v>
+        <f>(P18*2+Q18*2+R18+S18)/6</f>
+        <v>55.968569528585398</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>2186629000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>77679000</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3027319000</v>
+        <v>2023</v>
+      </c>
+      <c r="E19" s="3">
+        <v>55100000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>210900000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>513700000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1385000000</v>
       </c>
       <c r="I19" s="4">
-        <f>H19*0.13</f>
-        <v>393551470</v>
+        <f>H19*1.17</f>
+        <v>1620450000</v>
       </c>
       <c r="J19" s="2">
-        <v>1914</v>
+        <v>5015</v>
       </c>
       <c r="K19" s="2">
-        <v>14955</v>
-      </c>
-      <c r="L19" s="2">
-        <v>17.79</v>
+        <v>41250</v>
+      </c>
+      <c r="L19" s="20">
+        <v>127.71</v>
       </c>
       <c r="M19" s="8">
-        <v>1.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N19" s="2">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="4"/>
-        <v>77.771604041254292</v>
+        <f>LOG((E19+F19)/(G19+F19)+1,Z$3)</f>
+        <v>34.181247699828646</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="5"/>
-        <v>50.23124972358837</v>
+        <f>LOG(J19*I19/K19^2,AA$3)</f>
+        <v>51.698512669221365</v>
       </c>
       <c r="R19" s="2">
         <f>LOG(L19/K19+1,AB$3)</f>
-        <v>17.538014838306829</v>
+        <v>41.904992262146358</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="7"/>
-        <v>30.605969009992364</v>
+        <f>LOG(M19*N19/K19+1,AC$3)</f>
+        <v>121.59714310897346</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="0"/>
-        <v>64.001426882421327</v>
+        <f>(P19+Q19)/2</f>
+        <v>42.939880184525009</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="1"/>
-        <v>48.513622867716492</v>
+        <f>(P19+Q19+R19)/3</f>
+        <v>42.594917543732123</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="2"/>
-        <v>52.869607591611668</v>
+        <f>(P19+Q19+S19)/3</f>
+        <v>69.158967826007824</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="3"/>
-        <v>50.69161522966408</v>
+        <f>(P19*2+Q19*2+R19+S19)/6</f>
+        <v>55.876942684869981</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
         <v>2022</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <v>644000000</v>
-      </c>
-      <c r="G20" s="4">
-        <v>64000000</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1066000000</v>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
+        <v>2660597000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>703808000</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5425973000</v>
       </c>
       <c r="I20" s="4">
-        <f>H20</f>
-        <v>1066000000</v>
+        <f>H20*0.08</f>
+        <v>434077840</v>
       </c>
       <c r="J20" s="2">
-        <v>5244</v>
+        <v>843</v>
       </c>
       <c r="K20" s="2">
-        <v>39959</v>
-      </c>
-      <c r="L20" s="2">
-        <v>121.86</v>
+        <v>13583</v>
+      </c>
+      <c r="L20" s="20">
+        <v>54.93</v>
       </c>
       <c r="M20" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="4"/>
-        <v>74.440321835826097</v>
+        <f>LOG((E20+F20)/(G20+F20)+1,Z$3)</f>
+        <v>63.69313987022273</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="5"/>
-        <v>50.470774031904121</v>
+        <f>LOG(J20*I20/K20^2,AA$3)</f>
+        <v>46.335458871920324</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="6"/>
-        <v>44.919433524893286</v>
+        <f>LOG(L20/K20+1,AB$3)</f>
+        <v>54.710849786950682</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="7"/>
-        <v>9.1716798007709279</v>
+        <f>LOG(M20*N20/K20+1,AC$3)</f>
+        <v>58.111086287886913</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="0"/>
-        <v>62.455547933865105</v>
+        <f>(P20+Q20)/2</f>
+        <v>55.01429937107153</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="1"/>
-        <v>56.610176464207832</v>
+        <f>(P20+Q20+R20)/3</f>
+        <v>54.913149509697917</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="2"/>
-        <v>44.69425855616705</v>
+        <f>(P20+Q20+S20)/3</f>
+        <v>56.046561676676653</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="3"/>
-        <v>50.652217510187434</v>
+        <f>(P20*2+Q20*2+R20+S20)/6</f>
+        <v>55.479855593187288</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>2022</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <v>530802700</v>
+        <v>445684557</v>
       </c>
       <c r="G21" s="4">
-        <v>67751100</v>
+        <v>103976679</v>
       </c>
       <c r="H21" s="4">
-        <v>834083100</v>
+        <v>715010067</v>
       </c>
       <c r="I21" s="4">
         <f>H21</f>
-        <v>834083100</v>
+        <v>715010067</v>
       </c>
       <c r="J21" s="2">
-        <v>3750</v>
+        <v>2268</v>
       </c>
       <c r="K21" s="2">
-        <v>37000</v>
-      </c>
-      <c r="L21" s="2">
-        <v>120.01</v>
+        <v>12739</v>
+      </c>
+      <c r="L21" s="20">
+        <v>62.3</v>
       </c>
       <c r="M21" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N21" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="4"/>
-        <v>73.058375519606088</v>
+        <f>LOG((E21+F21)/(G21+F21)+1,Z$3)</f>
+        <v>64.908851973246001</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="5"/>
-        <v>47.831261457465935</v>
+        <f>LOG(J21*I21/K21^2,AA$3)</f>
+        <v>56.20398046228739</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="6"/>
-        <v>47.770680484386418</v>
+        <f>LOG(L21/K21+1,AB$3)</f>
+        <v>66.134662936108171</v>
       </c>
       <c r="S21" s="2">
         <f>LOG(M21*N21/K21+1,AC$3)</f>
-        <v>5.5477157015331384</v>
+        <v>16.135572009507317</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="0"/>
-        <v>60.444818488536015</v>
+        <f>(P21+Q21)/2</f>
+        <v>60.556416217766696</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="1"/>
-        <v>56.220105820486147</v>
+        <f>(P21+Q21+R21)/3</f>
+        <v>62.41583179054718</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="2"/>
-        <v>42.145784226201719</v>
+        <f>(P21+Q21+S21)/3</f>
+        <v>45.749468148346899</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="3"/>
-        <v>49.182945023343933</v>
+        <f>(P21*2+Q21*2+R21+S21)/6</f>
+        <v>54.08264996944704</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2483,209 +2498,209 @@
         <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>2022</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <v>556300000</v>
+        <v>402124000</v>
       </c>
       <c r="G22" s="4">
-        <v>92100000</v>
+        <v>35660000</v>
       </c>
       <c r="H22" s="4">
-        <v>993400000</v>
+        <v>714862000</v>
       </c>
       <c r="I22" s="4">
         <f>H22</f>
-        <v>993400000</v>
+        <v>714862000</v>
       </c>
       <c r="J22" s="2">
-        <v>3408</v>
+        <v>3467</v>
       </c>
       <c r="K22" s="2">
-        <v>42143</v>
-      </c>
-      <c r="L22" s="2">
-        <v>101</v>
+        <v>24402</v>
+      </c>
+      <c r="L22" s="20">
+        <v>88.36</v>
       </c>
       <c r="M22" s="8">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N22" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="4"/>
-        <v>71.285237075372066</v>
+        <f>LOG((E22+F22)/(G22+F22)+1,Z$3)</f>
+        <v>71.224821359213493</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="5"/>
-        <v>46.711048614907916</v>
+        <f>LOG(J22*I22/K22^2,AA$3)</f>
+        <v>50.859131931667115</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="6"/>
-        <v>35.312227610051771</v>
+        <f>LOG(L22/K22+1,AB$3)</f>
+        <v>48.998344837330052</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="7"/>
-        <v>23.640127377846387</v>
+        <f>LOG(M22*N22/K22+1,AC$3)</f>
+        <v>28.173568843811683</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="0"/>
-        <v>58.998142845139995</v>
+        <f>(P22+Q22)/2</f>
+        <v>61.0419766454403</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="1"/>
-        <v>51.102837766777249</v>
+        <f>(P22+Q22+R22)/3</f>
+        <v>57.027432709403548</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="2"/>
-        <v>47.21213768937546</v>
+        <f>(P22+Q22+S22)/3</f>
+        <v>50.085840711564096</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="3"/>
-        <v>49.157487728076354</v>
+        <f>(P22*2+Q22*2+R22+S22)/6</f>
+        <v>53.556636710483822</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>2022</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>2219200000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>87905000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>3337000000</v>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>341050000</v>
+      </c>
+      <c r="G23" s="5">
+        <v>16490000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>738450000</v>
       </c>
       <c r="I23" s="4">
-        <f>H23*0.13</f>
-        <v>433810000</v>
+        <f>H23*1.02</f>
+        <v>753219000</v>
       </c>
       <c r="J23" s="2">
-        <v>2267</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="K23" s="2">
-        <v>16588</v>
-      </c>
-      <c r="L23" s="2">
-        <v>42.02</v>
+        <v>16908</v>
+      </c>
+      <c r="L23" s="20">
+        <v>67.900000000000006</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="4"/>
-        <v>77.549167725450118</v>
+        <f>LOG((E23+F23)/(G23+F23)+1,Z$3)</f>
+        <v>73.219792097601911</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="5"/>
-        <v>50.598544238299553</v>
+        <f>LOG(J23*I23/K23^2,AA$3)</f>
+        <v>53.77458682757792</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="6"/>
-        <v>37.321717327136803</v>
+        <f>LOG(L23/K23+1,AB$3)</f>
+        <v>54.330436583346469</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="7"/>
+        <f>LOG(M23*N23/K23+1,AC$3)</f>
         <v>0</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="0"/>
-        <v>64.073855981874829</v>
+        <f>(P23+Q23)/2</f>
+        <v>63.497189462589915</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="1"/>
-        <v>55.156476430295491</v>
+        <f>(P23+Q23+R23)/3</f>
+        <v>60.441605169508762</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="2"/>
-        <v>42.715903987916555</v>
+        <f>(P23+Q23+S23)/3</f>
+        <v>42.33145964172661</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="3"/>
-        <v>48.936190209106023</v>
+        <f>(P23*2+Q23*2+R23+S23)/6</f>
+        <v>51.386532405617686</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1">
         <v>2022</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>498700000</v>
-      </c>
-      <c r="G24" s="4">
-        <v>66000000</v>
-      </c>
-      <c r="H24" s="4">
-        <v>812600000</v>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>2186629000</v>
+      </c>
+      <c r="G24" s="6">
+        <v>77679000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3027319000</v>
       </c>
       <c r="I24" s="4">
-        <f>H24</f>
-        <v>812600000</v>
+        <f>H24*0.13</f>
+        <v>393551470</v>
       </c>
       <c r="J24" s="2">
-        <v>1903</v>
+        <v>1914</v>
       </c>
       <c r="K24" s="2">
-        <v>33474</v>
-      </c>
-      <c r="L24" s="2">
-        <v>102.46</v>
+        <v>14955</v>
+      </c>
+      <c r="L24" s="20">
+        <v>17.79</v>
       </c>
       <c r="M24" s="8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N24" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="4"/>
-        <v>72.833421064674667</v>
+        <f>LOG((E24+F24)/(G24+F24)+1,Z$3)</f>
+        <v>73.878804924032877</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="5"/>
-        <v>44.713509419083309</v>
+        <f>LOG(J24*I24/K24^2,AA$3)</f>
+        <v>49.566976805059191</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="6"/>
-        <v>45.084993319010373</v>
+        <f>LOG(L24/K24+1,AB$3)</f>
+        <v>16.116383089334796</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="7"/>
-        <v>6.642796621959417</v>
+        <f>LOG(M24*N24/K24+1,AC$3)</f>
+        <v>33.018839237687381</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="0"/>
-        <v>58.773465241878988</v>
+        <f>(P24+Q24)/2</f>
+        <v>61.722890864546031</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="1"/>
-        <v>54.210641267589445</v>
+        <f>(P24+Q24+R24)/3</f>
+        <v>46.520721606142281</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="2"/>
-        <v>41.396575701905796</v>
+        <f>(P24+Q24+S24)/3</f>
+        <v>52.15487365559315</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="3"/>
-        <v>47.80360848474762</v>
+        <f>(P24*2+Q24*2+R24+S24)/6</f>
+        <v>49.337797630867719</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2693,71 +2708,71 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>2022</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
-        <v>473310000</v>
+        <v>644000000</v>
       </c>
       <c r="G25" s="4">
-        <v>60361000</v>
+        <v>64000000</v>
       </c>
       <c r="H25" s="4">
-        <v>690144000</v>
+        <v>1066000000</v>
       </c>
       <c r="I25" s="4">
         <f>H25</f>
-        <v>690144000</v>
+        <v>1066000000</v>
       </c>
       <c r="J25" s="2">
-        <v>2797</v>
+        <v>5244</v>
       </c>
       <c r="K25" s="2">
-        <v>31761</v>
-      </c>
-      <c r="L25" s="2">
-        <v>63.65</v>
+        <v>39959</v>
+      </c>
+      <c r="L25" s="20">
+        <v>121.86</v>
       </c>
       <c r="M25" s="8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N25" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="4"/>
-        <v>73.063624264044222</v>
+        <f>LOG((E25+F25)/(G25+F25)+1,Z$3)</f>
+        <v>70.714267542610457</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="5"/>
-        <v>46.734844389575002</v>
+        <f>LOG(J25*I25/K25^2,AA$3)</f>
+        <v>49.803333573004771</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="6"/>
-        <v>29.533744920267129</v>
+        <f>LOG(L25/K25+1,AB$3)</f>
+        <v>41.278263561611851</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="7"/>
-        <v>15.91946601118838</v>
+        <f>LOG(M25*N25/K25+1,AC$3)</f>
+        <v>9.8947437600269428</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="0"/>
-        <v>59.899234326809612</v>
+        <f>(P25+Q25)/2</f>
+        <v>60.258800557807618</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="1"/>
-        <v>49.777404524628786</v>
+        <f>(P25+Q25+R25)/3</f>
+        <v>53.931954892409031</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="2"/>
-        <v>45.239311554935874</v>
+        <f>(P25+Q25+S25)/3</f>
+        <v>43.470781625214066</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="3"/>
-        <v>47.50835803978233</v>
+        <f>(P25*2+Q25*2+R25+S25)/6</f>
+        <v>48.701368258811534</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2765,361 +2780,353 @@
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>2022</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <v>285000000</v>
+        <v>556300000</v>
       </c>
       <c r="G26" s="4">
-        <v>28500000</v>
+        <v>92100000</v>
       </c>
       <c r="H26" s="4">
-        <v>432200000</v>
+        <v>993400000</v>
       </c>
       <c r="I26" s="4">
         <f>H26</f>
-        <v>432200000</v>
+        <v>993400000</v>
       </c>
       <c r="J26" s="2">
-        <v>2068.83</v>
+        <v>3408</v>
       </c>
       <c r="K26" s="2">
-        <v>12493</v>
-      </c>
-      <c r="L26" s="2">
-        <v>21.01</v>
+        <v>42143</v>
+      </c>
+      <c r="L26" s="20">
+        <v>101</v>
       </c>
       <c r="M26" s="8">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="N26" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="4"/>
-        <v>74.409367414296824</v>
+        <f>LOG((E26+F26)/(G26+F26)+1,Z$3)</f>
+        <v>67.717108175642451</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="5"/>
-        <v>53.51659290804453</v>
+        <f>LOG(J26*I26/K26^2,AA$3)</f>
+        <v>46.093327878081169</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="6"/>
-        <v>24.788113073919419</v>
+        <f>LOG(L26/K26+1,AB$3)</f>
+        <v>32.449817904038376</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9562921505298412</v>
+        <f>LOG(M26*N26/K26+1,AC$3)</f>
+        <v>25.503834405397143</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="0"/>
-        <v>63.962980161170677</v>
+        <f>(P26+Q26)/2</f>
+        <v>56.90521802686181</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="1"/>
-        <v>50.904691132086924</v>
+        <f>(P26+Q26+R26)/3</f>
+        <v>48.753417985920663</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="2"/>
-        <v>43.294084157623729</v>
+        <f>(P26+Q26+S26)/3</f>
+        <v>46.438090153040257</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="3"/>
-        <v>47.099387644855334</v>
+        <f>(P26*2+Q26*2+R26+S26)/6</f>
+        <v>47.595754069480456</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <v>147241458</v>
+        <v>530802700</v>
       </c>
       <c r="G27" s="4">
-        <v>20629278</v>
+        <v>67751100</v>
       </c>
       <c r="H27" s="4">
-        <v>209455095</v>
+        <v>834083100</v>
       </c>
       <c r="I27" s="4">
         <f>H27</f>
-        <v>209455095</v>
+        <v>834083100</v>
       </c>
       <c r="J27" s="2">
-        <v>824</v>
+        <v>3750</v>
       </c>
       <c r="K27" s="2">
-        <v>16410</v>
-      </c>
-      <c r="L27" s="2">
-        <v>20.56</v>
+        <v>37000</v>
+      </c>
+      <c r="L27" s="20">
+        <v>120.01</v>
       </c>
       <c r="M27" s="8">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="N27" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="4"/>
-        <v>72.465475846193115</v>
+        <f>LOG((E27+F27)/(G27+F27)+1,Z$3)</f>
+        <v>69.401493509335452</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="5"/>
-        <v>39.970033026465963</v>
+        <f>LOG(J27*I27/K27^2,AA$3)</f>
+        <v>47.198726694342916</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="6"/>
-        <v>18.471054710582774</v>
+        <f>LOG(L27/K27+1,AB$3)</f>
+        <v>43.898388399294369</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="7"/>
-        <v>29.678509397350489</v>
+        <f>LOG(M27*N27/K27+1,AC$3)</f>
+        <v>5.9850786892423402</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="0"/>
-        <v>56.217754436329543</v>
+        <f>(P27+Q27)/2</f>
+        <v>58.300110101839181</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="1"/>
-        <v>43.635521194413947</v>
+        <f>(P27+Q27+R27)/3</f>
+        <v>53.49953620099091</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="2"/>
-        <v>47.371339423336529</v>
+        <f>(P27+Q27+S27)/3</f>
+        <v>40.861766297640237</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="3"/>
-        <v>45.503430308875238</v>
+        <f>(P27*2+Q27*2+R27+S27)/6</f>
+        <v>47.180651249315581</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>2022</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
-        <v>350370000</v>
-      </c>
-      <c r="G28" s="4">
-        <v>41223000</v>
-      </c>
-      <c r="H28" s="4">
-        <v>558679000</v>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>2219200000</v>
+      </c>
+      <c r="G28" s="6">
+        <v>87905000</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3337000000</v>
       </c>
       <c r="I28" s="4">
-        <f>H28</f>
-        <v>558679000</v>
+        <f>H28*0.13</f>
+        <v>433810000</v>
       </c>
       <c r="J28" s="2">
-        <v>2430</v>
+        <v>2267</v>
       </c>
       <c r="K28" s="2">
-        <v>22406</v>
-      </c>
-      <c r="L28" s="2">
-        <v>33.03</v>
-      </c>
-      <c r="M28" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N28" s="2">
-        <v>7</v>
+        <v>16588</v>
+      </c>
+      <c r="L28" s="20">
+        <v>42.02</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="4"/>
-        <v>73.540471056497779</v>
+        <f>LOG((E28+F28)/(G28+F28)+1,Z$3)</f>
+        <v>73.66750249063314</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="5"/>
-        <v>48.87370051921144</v>
+        <f>LOG(J28*I28/K28^2,AA$3)</f>
+        <v>49.929414108361343</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="6"/>
-        <v>21.730684930958542</v>
+        <f>LOG(L28/K28+1,AB$3)</f>
+        <v>34.296418354157957</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="7"/>
-        <v>4.199107540676712</v>
+        <f>LOG(M28*N28/K28+1,AC$3)</f>
+        <v>0</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="0"/>
-        <v>61.207085787854609</v>
+        <f>(P28+Q28)/2</f>
+        <v>61.798458299497241</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="1"/>
-        <v>48.048285502222591</v>
+        <f>(P28+Q28+R28)/3</f>
+        <v>52.631111651050816</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="2"/>
-        <v>42.204426372128644</v>
+        <f>(P28+Q28+S28)/3</f>
+        <v>41.19897219966483</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="3"/>
-        <v>45.126355937175617</v>
+        <f>(P28*2+Q28*2+R28+S28)/6</f>
+        <v>46.915041925357819</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E29" s="3">
-        <v>600000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>127700000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>416400000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>934200000</v>
+        <v>2022</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>473310000</v>
+      </c>
+      <c r="G29" s="4">
+        <v>60361000</v>
+      </c>
+      <c r="H29" s="4">
+        <v>690144000</v>
       </c>
       <c r="I29" s="4">
-        <f>H29*1.17</f>
-        <v>1093014000</v>
+        <f>H29</f>
+        <v>690144000</v>
       </c>
       <c r="J29" s="2">
-        <v>3335</v>
+        <v>2797</v>
       </c>
       <c r="K29" s="2">
-        <v>31485</v>
-      </c>
-      <c r="L29" s="2">
-        <v>112.44</v>
+        <v>31761</v>
+      </c>
+      <c r="L29" s="20">
+        <v>63.65</v>
       </c>
       <c r="M29" s="8">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="N29" s="2">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="P29" s="7">
         <f>LOG((E29+F29)/(G29+F29)+1,Z$3)</f>
-        <v>24.363308597480856</v>
+        <v>69.406479531820409</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="5"/>
-        <v>50.774429723668185</v>
+        <f>LOG(J29*I29/K29^2,AA$3)</f>
+        <v>46.116808970378735</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="6"/>
-        <v>52.588634634777961</v>
+        <f>LOG(L29/K29+1,AB$3)</f>
+        <v>27.139739108789168</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="7"/>
-        <v>40.069128658859434</v>
+        <f>LOG(M29*N29/K29+1,AC$3)</f>
+        <v>17.174502424727791</v>
       </c>
       <c r="U29" s="7">
-        <f t="shared" si="0"/>
-        <v>37.568869160574522</v>
+        <f>(P29+Q29)/2</f>
+        <v>57.761644251099568</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="1"/>
-        <v>42.575457651975668</v>
+        <f>(P29+Q29+R29)/3</f>
+        <v>47.554342536996103</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="2"/>
-        <v>38.402288993336157</v>
+        <f>(P29+Q29+S29)/3</f>
+        <v>44.232596975642309</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="3"/>
-        <v>40.488873322655913</v>
+        <f>(P29*2+Q29*2+R29+S29)/6</f>
+        <v>45.893469756319206</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>2022</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <v>318235849.14999998</v>
+        <v>498700000</v>
       </c>
       <c r="G30" s="4">
-        <v>86177594.299999997</v>
+        <v>66000000</v>
       </c>
       <c r="H30" s="4">
-        <v>582806127.85000002</v>
+        <v>812600000</v>
       </c>
       <c r="I30" s="4">
         <f>H30</f>
-        <v>582806127.85000002</v>
+        <v>812600000</v>
       </c>
       <c r="J30" s="2">
-        <v>1627</v>
+        <v>1903</v>
       </c>
       <c r="K30" s="2">
-        <v>47959</v>
-      </c>
-      <c r="L30" s="2">
-        <v>18.43</v>
+        <v>33474</v>
+      </c>
+      <c r="L30" s="20">
+        <v>102.46</v>
       </c>
       <c r="M30" s="8">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="N30" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="4"/>
-        <v>66.798335889655931</v>
+        <f>LOG((E30+F30)/(G30+F30)+1,Z$3)</f>
+        <v>69.187798980367589</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="5"/>
-        <v>37.241147127934191</v>
+        <f>LOG(J30*I30/K30^2,AA$3)</f>
+        <v>44.122204732002253</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="6"/>
-        <v>5.667882898477214</v>
+        <f>LOG(L30/K30+1,AB$3)</f>
+        <v>41.430403076305055</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="7"/>
-        <v>20.317811372445075</v>
+        <f>LOG(M30*N30/K30+1,AC$3)</f>
+        <v>7.1664920551125366</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="0"/>
-        <v>52.019741508795065</v>
+        <f>(P30+Q30)/2</f>
+        <v>56.655001856184924</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="1"/>
-        <v>36.569121972022451</v>
+        <f>(P30+Q30+R30)/3</f>
+        <v>51.58013559622497</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="2"/>
-        <v>41.452431463345071</v>
+        <f>(P30+Q30+S30)/3</f>
+        <v>40.15883192249413</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="3"/>
-        <v>39.010776717683761</v>
+        <f>(P30*2+Q30*2+R30+S30)/6</f>
+        <v>45.869483759359554</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3127,71 +3134,71 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>2022</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
-        <v>196693950</v>
+        <v>285000000</v>
       </c>
       <c r="G31" s="4">
-        <v>33135497</v>
+        <v>28500000</v>
       </c>
       <c r="H31" s="4">
-        <v>291296473</v>
+        <v>432200000</v>
       </c>
       <c r="I31" s="4">
         <f>H31</f>
-        <v>291296473</v>
+        <v>432200000</v>
       </c>
       <c r="J31" s="2">
-        <v>1294.4680000000001</v>
+        <v>2068.83</v>
       </c>
       <c r="K31" s="2">
-        <v>19497</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1.74</v>
+        <v>12493</v>
+      </c>
+      <c r="L31" s="20">
+        <v>21.01</v>
       </c>
       <c r="M31" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="4"/>
-        <v>71.153094317285237</v>
+        <f>LOG((E31+F31)/(G31+F31)+1,Z$3)</f>
+        <v>70.684862521357658</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="5"/>
-        <v>42.671298612473947</v>
+        <f>LOG(J31*I31/K31^2,AA$3)</f>
+        <v>52.808873638538259</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3164705985204641</v>
+        <f>LOG(L31/K31+1,AB$3)</f>
+        <v>22.778788251932056</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="7"/>
-        <v>2.7576624269977654</v>
+        <f>LOG(M31*N31/K31+1,AC$3)</f>
+        <v>2.1105195525488987</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="0"/>
-        <v>56.912196464879592</v>
+        <f>(P31+Q31)/2</f>
+        <v>61.746868079947959</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="1"/>
-        <v>38.380287842759884</v>
+        <f>(P31+Q31+R31)/3</f>
+        <v>48.757508137275998</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="2"/>
-        <v>38.860685118918987</v>
+        <f>(P31+Q31+S31)/3</f>
+        <v>41.868085237481601</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="3"/>
-        <v>38.620486480839432</v>
+        <f>(P31*2+Q31*2+R31+S31)/6</f>
+        <v>45.3127966873788</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3199,217 +3206,204 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>644619668.87</v>
+        <v>147241458</v>
       </c>
       <c r="G32" s="4">
-        <v>116819770.81999999</v>
+        <v>20629278</v>
       </c>
       <c r="H32" s="4">
-        <v>880317964.64999998</v>
+        <v>209455095</v>
       </c>
       <c r="I32" s="4">
-        <f>H32*1.17</f>
-        <v>1029972018.6404999</v>
+        <f>H32</f>
+        <v>209455095</v>
       </c>
       <c r="J32" s="2">
-        <v>3576</v>
+        <v>824</v>
       </c>
       <c r="K32" s="2">
-        <v>122143</v>
-      </c>
-      <c r="L32" s="2">
-        <v>53.85</v>
+        <v>16410</v>
+      </c>
+      <c r="L32" s="20">
+        <v>20.56</v>
       </c>
       <c r="M32" s="8">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N32" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="4"/>
-        <v>70.578390184790877</v>
+        <f>LOG((E32+F32)/(G32+F32)+1,Z$3)</f>
+        <v>68.838270982918687</v>
       </c>
       <c r="Q32" s="7">
         <f>LOG(J32*I32/K32^2,AA$3)</f>
-        <v>34.070009243875418</v>
+        <v>39.441457475622556</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="6"/>
-        <v>6.5023522617468048</v>
+        <f>LOG(L32/K32+1,AB$3)</f>
+        <v>16.973790735403071</v>
       </c>
       <c r="S32" s="2">
         <f>LOG(M32*N32/K32+1,AC$3)</f>
-        <v>9.601459485731084</v>
+        <v>32.018261871903874</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="0"/>
-        <v>52.324199714333147</v>
+        <f>(P32+Q32)/2</f>
+        <v>54.139864229270621</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="1"/>
-        <v>37.050250563471032</v>
+        <f>(P32+Q32+R32)/3</f>
+        <v>41.751173064648107</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="2"/>
-        <v>38.083286304799124</v>
+        <f>(P32+Q32+S32)/3</f>
+        <v>46.765996776815037</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="3"/>
-        <v>37.566768434135078</v>
+        <f>(P32*2+Q32*2+R32+S32)/6</f>
+        <v>44.258584920731572</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <v>271160973</v>
+        <v>350370000</v>
       </c>
       <c r="G33" s="4">
-        <v>64849737</v>
+        <v>41223000</v>
       </c>
       <c r="H33" s="4">
-        <v>405512751</v>
+        <v>558679000</v>
       </c>
       <c r="I33" s="4">
         <f>H33</f>
-        <v>405512751</v>
+        <v>558679000</v>
       </c>
       <c r="J33" s="2">
-        <v>1518</v>
+        <v>2430</v>
       </c>
       <c r="K33" s="2">
-        <v>52583</v>
-      </c>
-      <c r="L33" s="2">
-        <v>40.5</v>
+        <v>22406</v>
+      </c>
+      <c r="L33" s="20">
+        <v>33.03</v>
       </c>
       <c r="M33" s="8">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N33" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" si="4"/>
-        <v>68.085111941951396</v>
+        <f>LOG((E33+F33)/(G33+F33)+1,Z$3)</f>
+        <v>69.859458116904491</v>
       </c>
       <c r="Q33" s="7">
-        <f t="shared" si="5"/>
-        <v>33.430611333858181</v>
+        <f>LOG(J33*I33/K33^2,AA$3)</f>
+        <v>48.227380233296429</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="6"/>
-        <v>11.357730349865431</v>
+        <f>LOG(L33/K33+1,AB$3)</f>
+        <v>19.96919528064295</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="7"/>
-        <v>6.5058236240213736</v>
+        <f>LOG(M33*N33/K33+1,AC$3)</f>
+        <v>4.5301508598567253</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" si="0"/>
-        <v>50.757861637904789</v>
+        <f>(P33+Q33)/2</f>
+        <v>59.04341917510046</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="1"/>
-        <v>37.624484541891668</v>
+        <f>(P33+Q33+R33)/3</f>
+        <v>46.018677876947955</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="2"/>
-        <v>36.007182299943651</v>
+        <f>(P33+Q33+S33)/3</f>
+        <v>40.872329736685884</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="3"/>
-        <v>36.815833420917656</v>
+        <f>(P33*2+Q33*2+R33+S33)/6</f>
+        <v>43.445503806816923</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E34" s="3">
-        <v>29000000</v>
-      </c>
-      <c r="F34" s="3">
-        <v>236700000</v>
-      </c>
-      <c r="G34" s="3">
-        <v>929300000</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1968300000</v>
+        <v>2022</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>110565000</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <v>236734000</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:I53" si="9">H34*1.17</f>
-        <v>2302911000</v>
+        <f>H34*1.02</f>
+        <v>241468680</v>
       </c>
       <c r="J34" s="2">
-        <v>7380</v>
+        <v>549.79</v>
       </c>
       <c r="K34" s="2">
-        <v>46830</v>
-      </c>
-      <c r="L34" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="M34" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="N34" s="2">
-        <v>58</v>
+        <v>10363</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="4"/>
-        <v>23.622596352439043</v>
+        <f>LOG((E34+F34)/(G34+F34)+1,Z$3)</f>
+        <v>75.770112705712236</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="5"/>
-        <v>55.385066164520019</v>
+        <f>LOG(J34*I34/K34^2,AA$3)</f>
+        <v>43.450321190144507</v>
       </c>
       <c r="R34" s="2">
         <f>LOG(L34/K34+1,AB$3)</f>
-        <v>2.8946617994839907</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="7"/>
-        <v>54.36822539877744</v>
+        <f>LOG(M34*N34/K34+1,AC$3)</f>
+        <v>0</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" ref="U34:U55" si="10">(P34+Q34)/2</f>
-        <v>39.503831258479529</v>
+        <f>(P34+Q34)/2</f>
+        <v>59.610216947928372</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V55" si="11">(P34+Q34+R34)/3</f>
-        <v>27.30077477214768</v>
+        <f>(P34+Q34+R34)/3</f>
+        <v>39.740144631952248</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" ref="W34:W55" si="12">(P34+Q34+S34)/3</f>
-        <v>44.458629305245495</v>
+        <f>(P34+Q34+S34)/3</f>
+        <v>39.740144631952248</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" ref="X34:X55" si="13">(P34*2+Q34*2+R34+S34)/6</f>
-        <v>35.879702038696593</v>
+        <f>(P34*2+Q34*2+R34+S34)/6</f>
+        <v>39.740144631952248</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3417,295 +3411,289 @@
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
         <v>2023</v>
       </c>
       <c r="E35" s="3">
-        <v>28900000</v>
+        <v>600000</v>
       </c>
       <c r="F35" s="3">
-        <v>148300000</v>
+        <v>127700000</v>
       </c>
       <c r="G35" s="3">
-        <v>607800000</v>
+        <v>416400000</v>
       </c>
       <c r="H35" s="3">
-        <v>1230000000</v>
+        <v>934200000</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="9"/>
-        <v>1439100000</v>
+        <f>H35*1.17</f>
+        <v>1093014000</v>
       </c>
       <c r="J35" s="2">
-        <v>4525</v>
+        <v>3335</v>
       </c>
       <c r="K35" s="2">
-        <v>41490</v>
-      </c>
-      <c r="L35" s="2">
-        <v>112.24</v>
+        <v>31485</v>
+      </c>
+      <c r="L35" s="20">
+        <v>112.44</v>
       </c>
       <c r="M35" s="8">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N35" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="4"/>
-        <v>24.22898403908388</v>
+        <f>LOG((E35+F35)/(G35+F35)+1,Z$3)</f>
+        <v>23.14382151900222</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" si="5"/>
-        <v>50.949708245533202</v>
+        <f>LOG(J35*I35/K35^2,AA$3)</f>
+        <v>50.102973631996278</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="6"/>
-        <v>39.85350635164761</v>
+        <f>LOG(L35/K35+1,AB$3)</f>
+        <v>48.325799113131865</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="7"/>
-        <v>24.364591078944557</v>
+        <f>LOG(M35*N35/K35+1,AC$3)</f>
+        <v>43.22804212306238</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="10"/>
-        <v>37.589346142308543</v>
+        <f>(P35+Q35)/2</f>
+        <v>36.623397575499247</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="11"/>
-        <v>38.344066212088229</v>
+        <f>(P35+Q35+R35)/3</f>
+        <v>40.524198088043455</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="12"/>
-        <v>33.181094454520547</v>
+        <f>(P35+Q35+S35)/3</f>
+        <v>38.824945758020291</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="13"/>
-        <v>35.762580333304392</v>
+        <f>(P35*2+Q35*2+R35+S35)/6</f>
+        <v>39.67457192303187</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3448000</v>
-      </c>
-      <c r="F36" s="3">
-        <v>91494000</v>
-      </c>
-      <c r="G36" s="3">
-        <v>361632000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>730044000</v>
+        <v>2022</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>318235849.14999998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>86177594.299999997</v>
+      </c>
+      <c r="H36" s="4">
+        <v>582806127.85000002</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="9"/>
-        <v>854151480</v>
+        <f>H36</f>
+        <v>582806127.85000002</v>
       </c>
       <c r="J36" s="2">
-        <v>2445</v>
+        <v>1627</v>
       </c>
       <c r="K36" s="2">
-        <v>23795</v>
-      </c>
-      <c r="L36" s="2">
-        <v>63.86</v>
+        <v>47959</v>
+      </c>
+      <c r="L36" s="20">
+        <v>18.43</v>
       </c>
       <c r="M36" s="8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N36" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="4"/>
-        <v>21.89024884455393</v>
+        <f>LOG((E36+F36)/(G36+F36)+1,Z$3)</f>
+        <v>63.454795452388147</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="5"/>
-        <v>50.793343500918681</v>
+        <f>LOG(J36*I36/K36^2,AA$3)</f>
+        <v>36.748659172166079</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="6"/>
-        <v>39.537587980494962</v>
+        <f>LOG(L36/K36+1,AB$3)</f>
+        <v>5.2084442247037606</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="7"/>
-        <v>29.649707365080243</v>
+        <f>LOG(M36*N36/K36+1,AC$3)</f>
+        <v>21.91959833552049</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="10"/>
-        <v>36.341796172736309</v>
+        <f>(P36+Q36)/2</f>
+        <v>50.101727312277113</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="11"/>
-        <v>37.407060108655863</v>
+        <f>(P36+Q36+R36)/3</f>
+        <v>35.137299616419327</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="12"/>
-        <v>34.111099903517619</v>
+        <f>(P36+Q36+S36)/3</f>
+        <v>40.707684320024903</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="13"/>
-        <v>35.759080006086741</v>
+        <f>(P36*2+Q36*2+R36+S36)/6</f>
+        <v>37.922491968222118</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2600000</v>
-      </c>
-      <c r="F37" s="3">
-        <v>94600000</v>
-      </c>
-      <c r="G37" s="3">
-        <v>342500000</v>
-      </c>
-      <c r="H37" s="3">
-        <v>675100000</v>
+        <v>2022</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>196693950</v>
+      </c>
+      <c r="G37" s="4">
+        <v>33135497</v>
+      </c>
+      <c r="H37" s="4">
+        <v>291296473</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="9"/>
-        <v>789867000</v>
+        <f>H37</f>
+        <v>291296473</v>
       </c>
       <c r="J37" s="2">
-        <v>2745</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="K37" s="2">
-        <v>28680</v>
-      </c>
-      <c r="L37" s="2">
-        <v>58.62</v>
+        <v>19497</v>
+      </c>
+      <c r="L37" s="20">
+        <v>1.74</v>
       </c>
       <c r="M37" s="8">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N37" s="2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="4"/>
-        <v>23.106150252722845</v>
+        <f>LOG((E37+F37)/(G37+F37)+1,Z$3)</f>
+        <v>67.591579723874347</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="5"/>
-        <v>48.71560429916822</v>
+        <f>LOG(J37*I37/K37^2,AA$3)</f>
+        <v>42.107000725745728</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="6"/>
-        <v>30.121201840780731</v>
+        <f>LOG(L37/K37+1,AB$3)</f>
+        <v>1.2097574718239883</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="7"/>
-        <v>39.309668662889678</v>
+        <f>LOG(M37*N37/K37+1,AC$3)</f>
+        <v>2.9750671288702568</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="10"/>
-        <v>35.910877275945531</v>
+        <f>(P37+Q37)/2</f>
+        <v>54.849290224810034</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="11"/>
-        <v>33.980985464223927</v>
+        <f>(P37+Q37+R37)/3</f>
+        <v>36.969445973814686</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="12"/>
-        <v>37.043807738260249</v>
+        <f>(P37+Q37+S37)/3</f>
+        <v>37.557882526163439</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="13"/>
-        <v>35.512396601242095</v>
+        <f>(P37*2+Q37*2+R37+S37)/6</f>
+        <v>37.263664249989063</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2099000</v>
-      </c>
-      <c r="F38" s="3">
-        <v>48390000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>150726000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>316331000</v>
+        <v>2022</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>644619668.87</v>
+      </c>
+      <c r="G38" s="4">
+        <v>116819770.81999999</v>
+      </c>
+      <c r="H38" s="4">
+        <v>880317964.64999998</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="9"/>
-        <v>370107270</v>
+        <f>H38*1.17</f>
+        <v>1029972018.6404999</v>
       </c>
       <c r="J38" s="2">
-        <v>1300</v>
+        <v>3576</v>
       </c>
       <c r="K38" s="2">
-        <v>15575</v>
-      </c>
-      <c r="L38" s="2">
-        <v>18.079999999999998</v>
+        <v>122143</v>
+      </c>
+      <c r="L38" s="20">
+        <v>53.85</v>
       </c>
       <c r="M38" s="8">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="N38" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P38" s="7">
         <f>LOG((E38+F38)/(G38+F38)+1,Z$3)</f>
-        <v>26.005602656726545</v>
+        <v>67.045641974267639</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="5"/>
-        <v>46.956582160693657</v>
+        <f>LOG(J38*I38/K38^2,AA$3)</f>
+        <v>33.619457354378682</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="6"/>
-        <v>17.114629688425524</v>
+        <f>LOG(L38/K38+1,AB$3)</f>
+        <v>5.9752714887217655</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="7"/>
-        <v>38.700473868344829</v>
+        <f>LOG(M38*N38/K38+1,AC$3)</f>
+        <v>10.358405809762738</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="10"/>
-        <v>36.481092408710097</v>
+        <f>(P38+Q38)/2</f>
+        <v>50.33254966432316</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="11"/>
-        <v>30.025604835281907</v>
+        <f>(P38+Q38+R38)/3</f>
+        <v>35.546790272456029</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="12"/>
-        <v>37.220886228588341</v>
+        <f>(P38+Q38+S38)/3</f>
+        <v>37.007835046136357</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="13"/>
-        <v>33.623245531935119</v>
+        <f>(P38*2+Q38*2+R38+S38)/6</f>
+        <v>36.277312659296193</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3713,147 +3701,145 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>2023</v>
       </c>
       <c r="E39" s="3">
-        <v>8000000</v>
+        <v>29000000</v>
       </c>
       <c r="F39" s="3">
-        <v>185900000</v>
+        <v>236700000</v>
       </c>
       <c r="G39" s="3">
-        <v>410800000</v>
+        <v>929300000</v>
       </c>
       <c r="H39" s="3">
-        <v>952200000</v>
+        <v>1968300000</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="9"/>
-        <v>1114074000</v>
+        <f>H39*1.17</f>
+        <v>2302911000</v>
       </c>
       <c r="J39" s="2">
-        <v>3810</v>
+        <v>7380</v>
       </c>
       <c r="K39" s="2">
-        <v>42980</v>
-      </c>
-      <c r="L39" s="2">
-        <v>77.62</v>
+        <v>46830</v>
+      </c>
+      <c r="L39" s="20">
+        <v>9.19</v>
       </c>
       <c r="M39" s="8">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N39" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="4"/>
-        <v>32.378990608885516</v>
+        <f>LOG((E39+F39)/(G39+F39)+1,Z$3)</f>
+        <v>22.440185068000659</v>
       </c>
       <c r="Q39" s="7">
-        <f t="shared" si="5"/>
-        <v>47.86642178718941</v>
+        <f>LOG(J39*I39/K39^2,AA$3)</f>
+        <v>54.652637651463117</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="6"/>
-        <v>26.617327591371531</v>
+        <f>LOG(L39/K39+1,AB$3)</f>
+        <v>2.6600204700848047</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="7"/>
-        <v>13.527121194264684</v>
+        <f>LOG(M39*N39/K39+1,AC$3)</f>
+        <v>58.654430888774925</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="10"/>
-        <v>40.122706198037463</v>
+        <f>(P39+Q39)/2</f>
+        <v>38.546411359731891</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="11"/>
-        <v>35.62091332914882</v>
+        <f>(P39+Q39+R39)/3</f>
+        <v>26.584281063182861</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="12"/>
-        <v>31.25751119677987</v>
+        <f>(P39+Q39+S39)/3</f>
+        <v>45.249084536079572</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="13"/>
-        <v>33.43921226296434</v>
+        <f>(P39*2+Q39*2+R39+S39)/6</f>
+        <v>35.916682799631218</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <v>2023</v>
       </c>
-      <c r="E40" s="3">
-        <v>18564000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>184180000</v>
-      </c>
-      <c r="G40" s="3">
-        <v>659945000</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1344665000</v>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>271160973</v>
+      </c>
+      <c r="G40" s="4">
+        <v>64849737</v>
+      </c>
+      <c r="H40" s="4">
+        <v>405512751</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="9"/>
-        <v>1573258050</v>
+        <f>H40</f>
+        <v>405512751</v>
       </c>
       <c r="J40" s="2">
-        <v>4820</v>
+        <v>1518</v>
       </c>
       <c r="K40" s="2">
-        <v>46410</v>
-      </c>
-      <c r="L40" s="2">
-        <v>131.31</v>
+        <v>52583</v>
+      </c>
+      <c r="L40" s="20">
+        <v>40.5</v>
       </c>
       <c r="M40" s="8">
         <v>1.4</v>
       </c>
       <c r="N40" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="4"/>
-        <v>24.770454086654006</v>
+        <f>LOG((E40+F40)/(G40+F40)+1,Z$3)</f>
+        <v>64.6771628976838</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="5"/>
-        <v>50.505423810158177</v>
+        <f>LOG(J40*I40/K40^2,AA$3)</f>
+        <v>32.988515031632829</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="6"/>
-        <v>41.679419073203121</v>
+        <f>LOG(L40/K40+1,AB$3)</f>
+        <v>10.437072555326196</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="7"/>
-        <v>6.6340128499236206</v>
+        <f>LOG(M40*N40/K40+1,AC$3)</f>
+        <v>7.0187205731070579</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" si="10"/>
-        <v>37.637938948406088</v>
+        <f>(P40+Q40)/2</f>
+        <v>48.832838964658315</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="11"/>
-        <v>38.985098990005099</v>
+        <f>(P40+Q40+R40)/3</f>
+        <v>36.034250161547611</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="12"/>
-        <v>27.303296915578599</v>
+        <f>(P40+Q40+S40)/3</f>
+        <v>34.894799500807899</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="13"/>
-        <v>33.144197952791849</v>
+        <f>(P40*2+Q40*2+R40+S40)/6</f>
+        <v>35.464524831177748</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3861,73 +3847,73 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
         <v>2023</v>
       </c>
       <c r="E41" s="3">
-        <v>4000000</v>
+        <v>3448000</v>
       </c>
       <c r="F41" s="3">
-        <v>74400000</v>
+        <v>91494000</v>
       </c>
       <c r="G41" s="3">
-        <v>453800000</v>
+        <v>361632000</v>
       </c>
       <c r="H41" s="3">
-        <v>839400000</v>
+        <v>730044000</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="9"/>
-        <v>982097999.99999988</v>
+        <f>H41*1.17</f>
+        <v>854151480</v>
       </c>
       <c r="J41" s="2">
-        <v>2745</v>
+        <v>2445</v>
       </c>
       <c r="K41" s="2">
-        <v>28825</v>
-      </c>
-      <c r="L41" s="2">
-        <v>58.98</v>
+        <v>23795</v>
+      </c>
+      <c r="L41" s="20">
+        <v>63.86</v>
       </c>
       <c r="M41" s="8">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="N41" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="4"/>
-        <v>15.925489764768621</v>
+        <f>LOG((E41+F41)/(G41+F41)+1,Z$3)</f>
+        <v>20.794548911032763</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="5"/>
-        <v>50.000382646235806</v>
+        <f>LOG(J41*I41/K41^2,AA$3)</f>
+        <v>50.121637287856537</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="6"/>
-        <v>30.153699527898144</v>
+        <f>LOG(L41/K41+1,AB$3)</f>
+        <v>36.332670498724084</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="7"/>
-        <v>35.561752713548742</v>
+        <f>LOG(M41*N41/K41+1,AC$3)</f>
+        <v>31.98718918562691</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="10"/>
-        <v>32.962936205502217</v>
+        <f>(P41+Q41)/2</f>
+        <v>35.458093099444653</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="11"/>
-        <v>32.026523979634192</v>
+        <f>(P41+Q41+R41)/3</f>
+        <v>35.749618899204464</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="12"/>
-        <v>33.829208374851056</v>
+        <f>(P41+Q41+S41)/3</f>
+        <v>34.301125128172067</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="13"/>
-        <v>32.927866177242628</v>
+        <f>(P41*2+Q41*2+R41+S41)/6</f>
+        <v>35.025372013688269</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3935,73 +3921,73 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
         <v>2023</v>
       </c>
       <c r="E42" s="3">
-        <v>3135000</v>
+        <v>2600000</v>
       </c>
       <c r="F42" s="3">
-        <v>108240000</v>
+        <v>94600000</v>
       </c>
       <c r="G42" s="3">
-        <v>160937000</v>
+        <v>342500000</v>
       </c>
       <c r="H42" s="3">
-        <v>460525000</v>
+        <v>675100000</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="9"/>
-        <v>538814250</v>
+        <f>H42*1.17</f>
+        <v>789867000</v>
       </c>
       <c r="J42" s="2">
-        <v>1915</v>
+        <v>2745</v>
       </c>
       <c r="K42" s="2">
-        <v>25295</v>
-      </c>
-      <c r="L42" s="2">
-        <v>24.1</v>
+        <v>28680</v>
+      </c>
+      <c r="L42" s="20">
+        <v>58.62</v>
       </c>
       <c r="M42" s="8">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N42" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="4"/>
-        <v>39.844470321444135</v>
+        <f>LOG((E42+F42)/(G42+F42)+1,Z$3)</f>
+        <v>21.949589289180523</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="5"/>
-        <v>45.67670458515726</v>
+        <f>LOG(J42*I42/K42^2,AA$3)</f>
+        <v>48.071374724475298</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="6"/>
-        <v>14.048327992574546</v>
+        <f>LOG(L42/K42+1,AB$3)</f>
+        <v>27.679576762409955</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="7"/>
-        <v>12.313794424290988</v>
+        <f>LOG(M42*N42/K42+1,AC$3)</f>
+        <v>42.408708890835918</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="10"/>
-        <v>42.760587453300701</v>
+        <f>(P42+Q42)/2</f>
+        <v>35.010482006827914</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="11"/>
-        <v>33.189834299725312</v>
+        <f>(P42+Q42+R42)/3</f>
+        <v>32.566846925355257</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="12"/>
-        <v>32.6116564436308</v>
+        <f>(P42+Q42+S42)/3</f>
+        <v>37.476557634830584</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="13"/>
-        <v>32.900745371678056</v>
+        <f>(P42*2+Q42*2+R42+S42)/6</f>
+        <v>35.021702280092924</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4009,73 +3995,73 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>2023</v>
       </c>
       <c r="E43" s="3">
-        <v>9000000</v>
+        <v>28900000</v>
       </c>
       <c r="F43" s="3">
-        <v>113000000</v>
+        <v>148300000</v>
       </c>
       <c r="G43" s="3">
-        <v>445000000</v>
+        <v>607800000</v>
       </c>
       <c r="H43" s="3">
-        <v>929000000</v>
+        <v>1230000000</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="9"/>
-        <v>1086930000</v>
+        <f>H43*1.17</f>
+        <v>1439100000</v>
       </c>
       <c r="J43" s="2">
-        <v>3665</v>
+        <v>4525</v>
       </c>
       <c r="K43" s="2">
-        <v>37990</v>
-      </c>
-      <c r="L43" s="2">
-        <v>72.36</v>
+        <v>41490</v>
+      </c>
+      <c r="L43" s="20">
+        <v>112.24</v>
       </c>
       <c r="M43" s="8">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N43" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="4"/>
-        <v>22.753837814957059</v>
+        <f>LOG((E43+F43)/(G43+F43)+1,Z$3)</f>
+        <v>23.016220475296691</v>
       </c>
       <c r="Q43" s="7">
-        <f t="shared" si="5"/>
-        <v>49.000397706824465</v>
+        <f>LOG(J43*I43/K43^2,AA$3)</f>
+        <v>50.275934218792685</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="6"/>
-        <v>28.071464832138414</v>
+        <f>LOG(L43/K43+1,AB$3)</f>
+        <v>36.622980521916318</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="7"/>
-        <v>25.643841542795958</v>
+        <f>LOG(M43*N43/K43+1,AC$3)</f>
+        <v>26.285412354204798</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" si="10"/>
-        <v>35.877117760890762</v>
+        <f>(P43+Q43)/2</f>
+        <v>36.646077347044688</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="11"/>
-        <v>33.275233451306647</v>
+        <f>(P43+Q43+R43)/3</f>
+        <v>36.638378405335231</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="12"/>
-        <v>32.466025688192495</v>
+        <f>(P43+Q43+S43)/3</f>
+        <v>33.192522349431393</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="13"/>
-        <v>32.870629569749575</v>
+        <f>(P43*2+Q43*2+R43+S43)/6</f>
+        <v>34.915450377383316</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4083,73 +4069,73 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1">
         <v>2023</v>
       </c>
       <c r="E44" s="3">
-        <v>11700000</v>
+        <v>2099000</v>
       </c>
       <c r="F44" s="3">
-        <v>111500000</v>
+        <v>48390000</v>
       </c>
       <c r="G44" s="3">
-        <v>397500000</v>
+        <v>150726000</v>
       </c>
       <c r="H44" s="3">
-        <v>887000000</v>
+        <v>316331000</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="9"/>
-        <v>1037789999.9999999</v>
+        <f>H44*1.17</f>
+        <v>370107270</v>
       </c>
       <c r="J44" s="2">
-        <v>3345</v>
+        <v>1300</v>
       </c>
       <c r="K44" s="2">
-        <v>30860</v>
-      </c>
-      <c r="L44" s="2">
-        <v>48.8</v>
+        <v>15575</v>
+      </c>
+      <c r="L44" s="20">
+        <v>18.079999999999998</v>
       </c>
       <c r="M44" s="8">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="N44" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="4"/>
-        <v>24.942981685919424</v>
+        <f>LOG((E44+F44)/(G44+F44)+1,Z$3)</f>
+        <v>24.703911784937198</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="5"/>
-        <v>50.720310314304641</v>
+        <f>LOG(J44*I44/K44^2,AA$3)</f>
+        <v>46.335614415561253</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="6"/>
-        <v>23.309332117412204</v>
+        <f>LOG(L44/K44+1,AB$3)</f>
+        <v>15.727317546128692</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="7"/>
-        <v>17.728511104337457</v>
+        <f>LOG(M44*N44/K44+1,AC$3)</f>
+        <v>41.751487256097114</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="10"/>
-        <v>37.83164600011203</v>
+        <f>(P44+Q44)/2</f>
+        <v>35.519763100249222</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="11"/>
-        <v>32.990874705878753</v>
+        <f>(P44+Q44+R44)/3</f>
+        <v>28.922281248875709</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="12"/>
-        <v>31.130601034853839</v>
+        <f>(P44+Q44+S44)/3</f>
+        <v>37.597004485531848</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="13"/>
-        <v>32.060737870366296</v>
+        <f>(P44*2+Q44*2+R44+S44)/6</f>
+        <v>33.25964286720378</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4157,73 +4143,73 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
         <v>2023</v>
       </c>
       <c r="E45" s="3">
-        <v>9373000</v>
+        <v>8000000</v>
       </c>
       <c r="F45" s="3">
-        <v>46778000</v>
+        <v>185900000</v>
       </c>
       <c r="G45" s="3">
-        <v>289887000</v>
+        <v>410800000</v>
       </c>
       <c r="H45" s="3">
-        <v>484223000</v>
+        <v>952200000</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="9"/>
-        <v>566540910</v>
+        <f>H45*1.17</f>
+        <v>1114074000</v>
       </c>
       <c r="J45" s="2">
-        <v>2020</v>
+        <v>3810</v>
       </c>
       <c r="K45" s="2">
-        <v>22230</v>
-      </c>
-      <c r="L45" s="2">
-        <v>72.89</v>
+        <v>42980</v>
+      </c>
+      <c r="L45" s="20">
+        <v>77.62</v>
       </c>
       <c r="M45" s="8">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="N45" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="4"/>
-        <v>17.750357818211764</v>
+        <f>LOG((E45+F45)/(G45+F45)+1,Z$3)</f>
+        <v>30.758284599119673</v>
       </c>
       <c r="Q45" s="7">
         <f>LOG(J45*I45/K45^2,AA$3)</f>
-        <v>47.914804017106711</v>
+        <v>47.233422053456053</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="6"/>
-        <v>48.291037925551237</v>
+        <f>LOG(L45/K45+1,AB$3)</f>
+        <v>24.459726612837049</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="7"/>
-        <v>11.539314173289329</v>
+        <f>LOG(M45*N45/K45+1,AC$3)</f>
+        <v>14.593553300544583</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="10"/>
-        <v>32.832580917659236</v>
+        <f>(P45+Q45)/2</f>
+        <v>38.995853326287865</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" si="11"/>
-        <v>37.9853999202899</v>
+        <f>(P45+Q45+R45)/3</f>
+        <v>34.150477755137594</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" si="12"/>
-        <v>25.734825336202601</v>
+        <f>(P45+Q45+S45)/3</f>
+        <v>30.861753317706771</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" si="13"/>
-        <v>31.860112628246256</v>
+        <f>(P45*2+Q45*2+R45+S45)/6</f>
+        <v>32.506115536422179</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4231,73 +4217,73 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1">
         <v>2023</v>
       </c>
       <c r="E46" s="3">
-        <v>2900000</v>
+        <v>4000000</v>
       </c>
       <c r="F46" s="3">
-        <v>80000000</v>
+        <v>74400000</v>
       </c>
       <c r="G46" s="3">
-        <v>382900000</v>
+        <v>453800000</v>
       </c>
       <c r="H46" s="3">
-        <v>679800000</v>
+        <v>839400000</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="9"/>
-        <v>795366000</v>
+        <f>H46*1.17</f>
+        <v>982097999.99999988</v>
       </c>
       <c r="J46" s="2">
-        <v>2505</v>
+        <v>2745</v>
       </c>
       <c r="K46" s="2">
-        <v>26045</v>
-      </c>
-      <c r="L46" s="2">
-        <v>61.42</v>
+        <v>28825</v>
+      </c>
+      <c r="L46" s="20">
+        <v>58.98</v>
       </c>
       <c r="M46" s="8">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N46" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="4"/>
-        <v>18.95731566659628</v>
+        <f>LOG((E46+F46)/(G46+F46)+1,Z$3)</f>
+        <v>15.128351358510152</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="5"/>
-        <v>49.384733350780778</v>
+        <f>LOG(J46*I46/K46^2,AA$3)</f>
+        <v>49.339162782291353</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="6"/>
-        <v>34.747451433510342</v>
+        <f>LOG(L46/K46+1,AB$3)</f>
+        <v>27.709440186516403</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="7"/>
-        <v>16.880425251381766</v>
+        <f>LOG(M46*N46/K46+1,AC$3)</f>
+        <v>38.365320028772771</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="10"/>
-        <v>34.171024508688532</v>
+        <f>(P46+Q46)/2</f>
+        <v>32.233757070400756</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="11"/>
-        <v>34.363166816962469</v>
+        <f>(P46+Q46+R46)/3</f>
+        <v>30.725651442439304</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="12"/>
-        <v>28.407491422919609</v>
+        <f>(P46+Q46+S46)/3</f>
+        <v>34.277611389858095</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="13"/>
-        <v>31.385329119941037</v>
+        <f>(P46*2+Q46*2+R46+S46)/6</f>
+        <v>32.501631416148705</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4305,73 +4291,73 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>2023</v>
       </c>
       <c r="E47" s="3">
-        <v>655000</v>
+        <v>9000000</v>
       </c>
       <c r="F47" s="3">
-        <v>22578000</v>
+        <v>113000000</v>
       </c>
       <c r="G47" s="3">
-        <v>136722000</v>
+        <v>445000000</v>
       </c>
       <c r="H47" s="3">
-        <v>216104000</v>
+        <v>929000000</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="9"/>
-        <v>252841679.99999997</v>
+        <f>H47*1.17</f>
+        <v>1086930000</v>
       </c>
       <c r="J47" s="2">
-        <v>880</v>
+        <v>3665</v>
       </c>
       <c r="K47" s="2">
-        <v>12480</v>
-      </c>
-      <c r="L47" s="2">
-        <v>8.6999999999999993</v>
+        <v>37990</v>
+      </c>
+      <c r="L47" s="20">
+        <v>72.36</v>
       </c>
       <c r="M47" s="8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N47" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="4"/>
-        <v>15.666249292673918</v>
+        <f>LOG((E47+F47)/(G47+F47)+1,Z$3)</f>
+        <v>21.614911585372305</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="5"/>
-        <v>44.927141197789958</v>
+        <f>LOG(J47*I47/K47^2,AA$3)</f>
+        <v>48.352401939788678</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="6"/>
-        <v>10.280220279986416</v>
+        <f>LOG(L47/K47+1,AB$3)</f>
+        <v>25.795991466797563</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="7"/>
-        <v>49.254475616353552</v>
+        <f>LOG(M47*N47/K47+1,AC$3)</f>
+        <v>27.665514562269372</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="10"/>
-        <v>30.296695245231938</v>
+        <f>(P47+Q47)/2</f>
+        <v>34.983656762580495</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="11"/>
-        <v>23.624536923483429</v>
+        <f>(P47+Q47+R47)/3</f>
+        <v>31.921101663986182</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="12"/>
-        <v>36.615955368939147</v>
+        <f>(P47+Q47+S47)/3</f>
+        <v>32.544276029143454</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="13"/>
-        <v>30.120246146211286</v>
+        <f>(P47*2+Q47*2+R47+S47)/6</f>
+        <v>32.23268884656482</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4379,73 +4365,73 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
         <v>2023</v>
       </c>
       <c r="E48" s="3">
-        <v>3954000</v>
+        <v>18564000</v>
       </c>
       <c r="F48" s="3">
-        <v>50464000</v>
+        <v>184180000</v>
       </c>
       <c r="G48" s="3">
-        <v>199319000</v>
+        <v>659945000</v>
       </c>
       <c r="H48" s="3">
-        <v>381775000</v>
+        <v>1344665000</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="9"/>
-        <v>446676750</v>
+        <f>H48*1.17</f>
+        <v>1573258050</v>
       </c>
       <c r="J48" s="2">
-        <v>1495</v>
+        <v>4820</v>
       </c>
       <c r="K48" s="2">
-        <v>17770</v>
-      </c>
-      <c r="L48" s="2">
-        <v>18.32</v>
+        <v>46410</v>
+      </c>
+      <c r="L48" s="20">
+        <v>131.31</v>
       </c>
       <c r="M48" s="8">
         <v>1.4</v>
       </c>
       <c r="N48" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="4"/>
-        <v>22.680454620167694</v>
+        <f>LOG((E48+F48)/(G48+F48)+1,Z$3)</f>
+        <v>23.53058764709143</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="5"/>
-        <v>47.353104273267704</v>
+        <f>LOG(J48*I48/K48^2,AA$3)</f>
+        <v>49.837525132332281</v>
       </c>
       <c r="R48" s="2">
         <f>LOG(L48/K48+1,AB$3)</f>
-        <v>15.200691867796216</v>
+        <v>38.300884730550202</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="7"/>
-        <v>24.046866301922773</v>
+        <f>LOG(M48*N48/K48+1,AC$3)</f>
+        <v>7.157015800442875</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="10"/>
-        <v>35.016779446717699</v>
+        <f>(P48+Q48)/2</f>
+        <v>36.684056389711856</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="11"/>
-        <v>28.411416920410534</v>
+        <f>(P48+Q48+R48)/3</f>
+        <v>37.222999169991304</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="12"/>
-        <v>31.360141731786058</v>
+        <f>(P48+Q48+S48)/3</f>
+        <v>26.841709526622196</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="13"/>
-        <v>29.885779326098298</v>
+        <f>(P48*2+Q48*2+R48+S48)/6</f>
+        <v>32.032354348306747</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4453,73 +4439,73 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>2023</v>
       </c>
       <c r="E49" s="3">
-        <v>15058000</v>
+        <v>3135000</v>
       </c>
       <c r="F49" s="3">
-        <v>107002000</v>
+        <v>108240000</v>
       </c>
       <c r="G49" s="3">
-        <v>507211000</v>
+        <v>160937000</v>
       </c>
       <c r="H49" s="3">
-        <v>985279000</v>
+        <v>460525000</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="9"/>
-        <v>1152776430</v>
+        <f>H49*1.17</f>
+        <v>538814250</v>
       </c>
       <c r="J49" s="2">
-        <v>3530</v>
+        <v>1915</v>
       </c>
       <c r="K49" s="2">
-        <v>37190</v>
-      </c>
-      <c r="L49" s="2">
-        <v>74.2</v>
+        <v>25295</v>
+      </c>
+      <c r="L49" s="20">
+        <v>24.1</v>
       </c>
       <c r="M49" s="8">
         <v>1.5</v>
       </c>
       <c r="N49" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="4"/>
-        <v>20.858051079363157</v>
+        <f>LOG((E49+F49)/(G49+F49)+1,Z$3)</f>
+        <v>37.850085342433076</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="5"/>
-        <v>49.395291317073685</v>
+        <f>LOG(J49*I49/K49^2,AA$3)</f>
+        <v>45.072662320022665</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="6"/>
-        <v>29.403154724387889</v>
+        <f>LOG(L49/K49+1,AB$3)</f>
+        <v>12.90957031228143</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="7"/>
-        <v>8.8692153833875054</v>
+        <f>LOG(M49*N49/K49+1,AC$3)</f>
+        <v>13.284571985577424</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="10"/>
-        <v>35.126671198218418</v>
+        <f>(P49+Q49)/2</f>
+        <v>41.461373831227874</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="11"/>
-        <v>33.218832373608244</v>
+        <f>(P49+Q49+R49)/3</f>
+        <v>31.944105991579061</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" si="12"/>
-        <v>26.374185926608117</v>
+        <f>(P49+Q49+S49)/3</f>
+        <v>32.06910654934439</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" si="13"/>
-        <v>29.796509150108179</v>
+        <f>(P49*2+Q49*2+R49+S49)/6</f>
+        <v>32.006606270461724</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4527,73 +4513,73 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
         <v>2023</v>
       </c>
       <c r="E50" s="3">
-        <v>3189000</v>
+        <v>11700000</v>
       </c>
       <c r="F50" s="3">
-        <v>59459000</v>
+        <v>111500000</v>
       </c>
       <c r="G50" s="3">
-        <v>256284000</v>
+        <v>397500000</v>
       </c>
       <c r="H50" s="3">
-        <v>518675000</v>
+        <v>887000000</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="9"/>
-        <v>606849750</v>
+        <f>H50*1.17</f>
+        <v>1037789999.9999999</v>
       </c>
       <c r="J50" s="2">
-        <v>2160</v>
+        <v>3345</v>
       </c>
       <c r="K50" s="2">
-        <v>23420</v>
-      </c>
-      <c r="L50" s="2">
-        <v>35.11</v>
+        <v>30860</v>
+      </c>
+      <c r="L50" s="20">
+        <v>48.8</v>
       </c>
       <c r="M50" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="N50" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="4"/>
-        <v>20.828162077532319</v>
+        <f>LOG((E50+F50)/(G50+F50)+1,Z$3)</f>
+        <v>23.694479507202484</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="5"/>
-        <v>48.109291556542622</v>
+        <f>LOG(J50*I50/K50^2,AA$3)</f>
+        <v>50.049569913725534</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="6"/>
-        <v>22.098749172119511</v>
+        <f>LOG(L50/K50+1,AB$3)</f>
+        <v>21.419877302203147</v>
       </c>
       <c r="S50" s="2">
         <f>LOG(M50*N50/K50+1,AC$3)</f>
-        <v>17.98944389603313</v>
+        <v>19.126166464017473</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="10"/>
-        <v>34.468726817037471</v>
+        <f>(P50+Q50)/2</f>
+        <v>36.872024710464011</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="11"/>
-        <v>30.34540093539815</v>
+        <f>(P50+Q50+R50)/3</f>
+        <v>31.721308907710391</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="12"/>
-        <v>28.975632510036025</v>
+        <f>(P50+Q50+S50)/3</f>
+        <v>30.956738628315165</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="13"/>
-        <v>29.660516722717087</v>
+        <f>(P50*2+Q50*2+R50+S50)/6</f>
+        <v>31.33902376801278</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4601,73 +4587,73 @@
         <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
         <v>2023</v>
       </c>
       <c r="E51" s="3">
-        <v>1397000</v>
+        <v>9373000</v>
       </c>
       <c r="F51" s="3">
-        <v>90199000</v>
+        <v>46778000</v>
       </c>
       <c r="G51" s="3">
-        <v>310617000</v>
+        <v>289887000</v>
       </c>
       <c r="H51" s="3">
-        <v>636381000</v>
+        <v>484223000</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="9"/>
-        <v>744565770</v>
+        <f>H51*1.17</f>
+        <v>566540910</v>
       </c>
       <c r="J51" s="2">
-        <v>2940</v>
+        <v>2020</v>
       </c>
       <c r="K51" s="2">
-        <v>33985</v>
-      </c>
-      <c r="L51" s="2">
-        <v>41.21</v>
+        <v>22230</v>
+      </c>
+      <c r="L51" s="20">
+        <v>72.89</v>
       </c>
       <c r="M51" s="8">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N51" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="4"/>
-        <v>23.68356595607824</v>
+        <f>LOG((E51+F51)/(G51+F51)+1,Z$3)</f>
+        <v>16.861877014749805</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="5"/>
-        <v>46.675490320276438</v>
+        <f>LOG(J51*I51/K51^2,AA$3)</f>
+        <v>47.281164462440195</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="6"/>
-        <v>17.877271999088023</v>
+        <f>LOG(L51/K51+1,AB$3)</f>
+        <v>44.37656565838077</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="7"/>
-        <v>15.883929448056682</v>
+        <f>LOG(M51*N51/K51+1,AC$3)</f>
+        <v>12.449034352632735</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="10"/>
-        <v>35.179528138177339</v>
+        <f>(P51+Q51)/2</f>
+        <v>32.071520738594998</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="11"/>
-        <v>29.412109425147566</v>
+        <f>(P51+Q51+R51)/3</f>
+        <v>36.173202378523591</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="12"/>
-        <v>28.747661908137118</v>
+        <f>(P51+Q51+S51)/3</f>
+        <v>25.530691943274245</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="13"/>
-        <v>29.079885666642344</v>
+        <f>(P51*2+Q51*2+R51+S51)/6</f>
+        <v>30.851947160898916</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4675,73 +4661,73 @@
         <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
         <v>2023</v>
       </c>
       <c r="E52" s="3">
-        <v>1500000</v>
+        <v>2900000</v>
       </c>
       <c r="F52" s="3">
-        <v>46700000</v>
+        <v>80000000</v>
       </c>
       <c r="G52" s="3">
-        <v>205900000</v>
+        <v>382900000</v>
       </c>
       <c r="H52" s="3">
-        <v>363000000</v>
+        <v>679800000</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="9"/>
-        <v>424710000</v>
+        <f>H52*1.17</f>
+        <v>795366000</v>
       </c>
       <c r="J52" s="2">
-        <v>1290</v>
+        <v>2505</v>
       </c>
       <c r="K52" s="2">
-        <v>18890</v>
-      </c>
-      <c r="L52" s="2">
-        <v>34.130000000000003</v>
+        <v>26045</v>
+      </c>
+      <c r="L52" s="20">
+        <v>61.42</v>
       </c>
       <c r="M52" s="8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="N52" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="4"/>
-        <v>20.096173262741683</v>
+        <f>LOG((E52+F52)/(G52+F52)+1,Z$3)</f>
+        <v>18.008421496268149</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="5"/>
-        <v>45.373095883812233</v>
+        <f>LOG(J52*I52/K52^2,AA$3)</f>
+        <v>48.731655015397386</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="6"/>
-        <v>26.629399619623761</v>
+        <f>LOG(L52/K52+1,AB$3)</f>
+        <v>31.930822492939143</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="7"/>
-        <v>16.550804536769956</v>
+        <f>LOG(M52*N52/K52+1,AC$3)</f>
+        <v>18.211220414462289</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="10"/>
-        <v>32.734634573276956</v>
+        <f>(P52+Q52)/2</f>
+        <v>33.370038255832768</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="11"/>
-        <v>30.699556255392555</v>
+        <f>(P52+Q52+R52)/3</f>
+        <v>32.890299668201557</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="12"/>
-        <v>27.340024561107956</v>
+        <f>(P52+Q52+S52)/3</f>
+        <v>28.317098975375941</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="13"/>
-        <v>29.019790408250259</v>
+        <f>(P52*2+Q52*2+R52+S52)/6</f>
+        <v>30.603699321788753</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4749,147 +4735,147 @@
         <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E53" s="3">
-        <v>4300000</v>
+        <v>655000</v>
       </c>
       <c r="F53" s="3">
-        <v>108500000</v>
+        <v>22578000</v>
       </c>
       <c r="G53" s="3">
-        <v>433700000</v>
+        <v>136722000</v>
       </c>
       <c r="H53" s="3">
-        <v>801800000</v>
+        <v>216104000</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="9"/>
-        <v>938106000</v>
+        <f>H53*1.17</f>
+        <v>252841679.99999997</v>
       </c>
       <c r="J53" s="2">
-        <v>3320</v>
+        <v>880</v>
       </c>
       <c r="K53" s="2">
-        <v>37260</v>
-      </c>
-      <c r="L53" s="2">
-        <v>57.68</v>
+        <v>12480</v>
+      </c>
+      <c r="L53" s="20">
+        <v>8.6999999999999993</v>
       </c>
       <c r="M53" s="8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N53" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="4"/>
-        <v>21.748842950926839</v>
+        <f>LOG((E53+F53)/(G53+F53)+1,Z$3)</f>
+        <v>14.882086973167924</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" si="5"/>
-        <v>47.718294388763745</v>
+        <f>LOG(J53*I53/K53^2,AA$3)</f>
+        <v>44.333011380816394</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="6"/>
-        <v>22.818944447626308</v>
+        <f>LOG(L53/K53+1,AB$3)</f>
+        <v>9.4469054680652178</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="7"/>
-        <v>10.097960000274087</v>
+        <f>LOG(M53*N53/K53+1,AC$3)</f>
+        <v>53.137530511842364</v>
       </c>
       <c r="U53" s="7">
-        <f t="shared" si="10"/>
-        <v>34.73356866984529</v>
+        <f>(P53+Q53)/2</f>
+        <v>29.607549176992158</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="11"/>
-        <v>30.762027262438963</v>
+        <f>(P53+Q53+R53)/3</f>
+        <v>22.887334607349846</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" si="12"/>
-        <v>26.521699113321556</v>
+        <f>(P53+Q53+S53)/3</f>
+        <v>37.450876288608896</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="13"/>
-        <v>28.641863187880261</v>
+        <f>(P53*2+Q53*2+R53+S53)/6</f>
+        <v>30.169105447979366</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1">
         <v>2023</v>
       </c>
-      <c r="E54" s="4">
-        <v>5500000</v>
-      </c>
-      <c r="F54" s="4">
-        <v>12600000</v>
-      </c>
-      <c r="G54" s="4">
-        <v>219892056</v>
-      </c>
-      <c r="H54" s="4">
-        <v>291098453</v>
+      <c r="E54" s="3">
+        <v>3954000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>50464000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>199319000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>381775000</v>
       </c>
       <c r="I54" s="4">
-        <f>H54</f>
-        <v>291098453</v>
+        <f>H54*1.17</f>
+        <v>446676750</v>
       </c>
       <c r="J54" s="2">
-        <v>689</v>
+        <v>1495</v>
       </c>
       <c r="K54" s="2">
-        <v>15107</v>
-      </c>
-      <c r="L54" s="2">
-        <v>1.68</v>
+        <v>17770</v>
+      </c>
+      <c r="L54" s="20">
+        <v>18.32</v>
       </c>
       <c r="M54" s="8">
         <v>1.4</v>
       </c>
       <c r="N54" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="4"/>
-        <v>8.6270602434172545</v>
+        <f>LOG((E54+F54)/(G54+F54)+1,Z$3)</f>
+        <v>21.54520153117733</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="5"/>
-        <v>41.922418967318173</v>
+        <f>LOG(J54*I54/K54^2,AA$3)</f>
+        <v>46.726892802318595</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6404235351747343</v>
+        <f>LOG(L54/K54+1,AB$3)</f>
+        <v>13.968523554287914</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="7"/>
-        <v>11.320193910889124</v>
+        <f>LOG(M54*N54/K54+1,AC$3)</f>
+        <v>25.942639239232122</v>
       </c>
       <c r="U54" s="7">
-        <f t="shared" si="10"/>
-        <v>25.274739605367714</v>
+        <f>(P54+Q54)/2</f>
+        <v>34.136047166747964</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="11"/>
-        <v>17.396634248636719</v>
+        <f>(P54+Q54+R54)/3</f>
+        <v>27.413539295927947</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="12"/>
-        <v>20.623224373874852</v>
+        <f>(P54+Q54+S54)/3</f>
+        <v>31.404911190909349</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="13"/>
-        <v>19.009929311255785</v>
+        <f>(P54*2+Q54*2+R54+S54)/6</f>
+        <v>29.40922524341865</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4897,104 +4883,518 @@
         <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E55" s="3">
-        <v>5800000</v>
+        <v>3189000</v>
       </c>
       <c r="F55" s="3">
-        <v>113800000</v>
+        <v>59459000</v>
       </c>
       <c r="G55" s="3">
-        <v>432100000</v>
+        <v>256284000</v>
       </c>
       <c r="H55" s="3">
-        <v>554000000</v>
+        <v>518675000</v>
       </c>
       <c r="I55" s="4">
         <f>H55*1.17</f>
+        <v>606849750</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2160</v>
+      </c>
+      <c r="K55" s="2">
+        <v>23420</v>
+      </c>
+      <c r="L55" s="20">
+        <v>35.11</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>23</v>
+      </c>
+      <c r="P55" s="7">
+        <f>LOG((E55+F55)/(G55+F55)+1,Z$3)</f>
+        <v>19.785624097915061</v>
+      </c>
+      <c r="Q55" s="7">
+        <f>LOG(J55*I55/K55^2,AA$3)</f>
+        <v>47.473080041071832</v>
+      </c>
+      <c r="R55" s="2">
+        <f>LOG(L55/K55+1,AB$3)</f>
+        <v>20.307424228829206</v>
+      </c>
+      <c r="S55" s="2">
+        <f>LOG(M55*N55/K55+1,AC$3)</f>
+        <v>19.407670307206608</v>
+      </c>
+      <c r="U55" s="7">
+        <f>(P55+Q55)/2</f>
+        <v>33.62935206949345</v>
+      </c>
+      <c r="V55" s="2">
+        <f>(P55+Q55+R55)/3</f>
+        <v>29.188709455938703</v>
+      </c>
+      <c r="W55" s="2">
+        <f>(P55+Q55+S55)/3</f>
+        <v>28.888791482064505</v>
+      </c>
+      <c r="X55" s="2">
+        <f>(P55*2+Q55*2+R55+S55)/6</f>
+        <v>29.038750469001602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E56" s="3">
+        <v>15058000</v>
+      </c>
+      <c r="F56" s="3">
+        <v>107002000</v>
+      </c>
+      <c r="G56" s="3">
+        <v>507211000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>985279000</v>
+      </c>
+      <c r="I56" s="4">
+        <f>H56*1.17</f>
+        <v>1152776430</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3530</v>
+      </c>
+      <c r="K56" s="2">
+        <v>37190</v>
+      </c>
+      <c r="L56" s="20">
+        <v>74.2</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N56" s="2">
+        <v>18</v>
+      </c>
+      <c r="P56" s="7">
+        <f>LOG((E56+F56)/(G56+F56)+1,Z$3)</f>
+        <v>19.814017028250706</v>
+      </c>
+      <c r="Q56" s="7">
+        <f>LOG(J56*I56/K56^2,AA$3)</f>
+        <v>48.74207336001809</v>
+      </c>
+      <c r="R56" s="2">
+        <f>LOG(L56/K56+1,AB$3)</f>
+        <v>27.019734556169901</v>
+      </c>
+      <c r="S56" s="2">
+        <f>LOG(M56*N56/K56+1,AC$3)</f>
+        <v>9.568434079407341</v>
+      </c>
+      <c r="U56" s="7">
+        <f>(P56+Q56)/2</f>
+        <v>34.2780451941344</v>
+      </c>
+      <c r="V56" s="2">
+        <f>(P56+Q56+R56)/3</f>
+        <v>31.858608314812898</v>
+      </c>
+      <c r="W56" s="2">
+        <f>(P56+Q56+S56)/3</f>
+        <v>26.041508155892046</v>
+      </c>
+      <c r="X56" s="2">
+        <f>(P56*2+Q56*2+R56+S56)/6</f>
+        <v>28.950058235352476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>90199000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>310617000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>636381000</v>
+      </c>
+      <c r="I57" s="4">
+        <f>H57*1.17</f>
+        <v>744565770</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2940</v>
+      </c>
+      <c r="K57" s="2">
+        <v>33985</v>
+      </c>
+      <c r="L57" s="20">
+        <v>41.21</v>
+      </c>
+      <c r="M57" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="N57" s="2">
+        <v>26</v>
+      </c>
+      <c r="P57" s="7">
+        <f>LOG((E57+F57)/(G57+F57)+1,Z$3)</f>
+        <v>22.49810288400927</v>
+      </c>
+      <c r="Q57" s="7">
+        <f>LOG(J57*I57/K57^2,AA$3)</f>
+        <v>46.058239816865793</v>
+      </c>
+      <c r="R57" s="2">
+        <f>LOG(L57/K57+1,AB$3)</f>
+        <v>16.428140059514075</v>
+      </c>
+      <c r="S57" s="2">
+        <f>LOG(M57*N57/K57+1,AC$3)</f>
+        <v>17.136164280141603</v>
+      </c>
+      <c r="U57" s="7">
+        <f>(P57+Q57)/2</f>
+        <v>34.278171350437532</v>
+      </c>
+      <c r="V57" s="2">
+        <f>(P57+Q57+R57)/3</f>
+        <v>28.328160920129715</v>
+      </c>
+      <c r="W57" s="2">
+        <f>(P57+Q57+S57)/3</f>
+        <v>28.564168993672222</v>
+      </c>
+      <c r="X57" s="2">
+        <f>(P57*2+Q57*2+R57+S57)/6</f>
+        <v>28.446164956900969</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>46700000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>205900000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>363000000</v>
+      </c>
+      <c r="I58" s="4">
+        <f>H58*1.17</f>
+        <v>424710000</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1290</v>
+      </c>
+      <c r="K58" s="2">
+        <v>18890</v>
+      </c>
+      <c r="L58" s="20">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="M58" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="N58" s="2">
+        <v>16</v>
+      </c>
+      <c r="P58" s="7">
+        <f>LOG((E58+F58)/(G58+F58)+1,Z$3)</f>
+        <v>19.090274432427833</v>
+      </c>
+      <c r="Q58" s="7">
+        <f>LOG(J58*I58/K58^2,AA$3)</f>
+        <v>44.77306863003497</v>
+      </c>
+      <c r="R58" s="2">
+        <f>LOG(L58/K58+1,AB$3)</f>
+        <v>24.470820082295933</v>
+      </c>
+      <c r="S58" s="2">
+        <f>LOG(M58*N58/K58+1,AC$3)</f>
+        <v>17.855613526746183</v>
+      </c>
+      <c r="U58" s="7">
+        <f>(P58+Q58)/2</f>
+        <v>31.931671531231402</v>
+      </c>
+      <c r="V58" s="2">
+        <f>(P58+Q58+R58)/3</f>
+        <v>29.444721048252912</v>
+      </c>
+      <c r="W58" s="2">
+        <f>(P58+Q58+S58)/3</f>
+        <v>27.239652196402997</v>
+      </c>
+      <c r="X58" s="2">
+        <f>(P58*2+Q58*2+R58+S58)/6</f>
+        <v>28.342186622327954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>108500000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>433700000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>801800000</v>
+      </c>
+      <c r="I59" s="4">
+        <f>H59*1.17</f>
+        <v>938106000</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3320</v>
+      </c>
+      <c r="K59" s="2">
+        <v>37260</v>
+      </c>
+      <c r="L59" s="20">
+        <v>57.68</v>
+      </c>
+      <c r="M59" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="N59" s="2">
+        <v>22</v>
+      </c>
+      <c r="P59" s="7">
+        <f>LOG((E59+F59)/(G59+F59)+1,Z$3)</f>
+        <v>20.660220983003367</v>
+      </c>
+      <c r="Q59" s="7">
+        <f>LOG(J59*I59/K59^2,AA$3)</f>
+        <v>47.087253535603892</v>
+      </c>
+      <c r="R59" s="2">
+        <f>LOG(L59/K59+1,AB$3)</f>
+        <v>20.969240464372835</v>
+      </c>
+      <c r="S59" s="2">
+        <f>LOG(M59*N59/K59+1,AC$3)</f>
+        <v>10.894048731761782</v>
+      </c>
+      <c r="U59" s="7">
+        <f>(P59+Q59)/2</f>
+        <v>33.873737259303631</v>
+      </c>
+      <c r="V59" s="2">
+        <f>(P59+Q59+R59)/3</f>
+        <v>29.572238327660031</v>
+      </c>
+      <c r="W59" s="2">
+        <f>(P59+Q59+S59)/3</f>
+        <v>26.213841083456348</v>
+      </c>
+      <c r="X59" s="2">
+        <f>(P59*2+Q59*2+R59+S59)/6</f>
+        <v>27.893039705558191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5500000</v>
+      </c>
+      <c r="F60" s="4">
+        <v>12600000</v>
+      </c>
+      <c r="G60" s="4">
+        <v>219892056</v>
+      </c>
+      <c r="H60" s="4">
+        <v>291098453</v>
+      </c>
+      <c r="I60" s="4">
+        <f>H60</f>
+        <v>291098453</v>
+      </c>
+      <c r="J60" s="2">
+        <v>689</v>
+      </c>
+      <c r="K60" s="2">
+        <v>15107</v>
+      </c>
+      <c r="L60" s="20">
+        <v>1.68</v>
+      </c>
+      <c r="M60" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="N60" s="2">
+        <v>10</v>
+      </c>
+      <c r="P60" s="7">
+        <f>LOG((E60+F60)/(G60+F60)+1,Z$3)</f>
+        <v>8.1952392347882412</v>
+      </c>
+      <c r="Q60" s="7">
+        <f>LOG(J60*I60/K60^2,AA$3)</f>
+        <v>41.368024486741547</v>
+      </c>
+      <c r="R60" s="2">
+        <f>LOG(L60/K60+1,AB$3)</f>
+        <v>1.507450778516348</v>
+      </c>
+      <c r="S60" s="2">
+        <f>LOG(M60*N60/K60+1,AC$3)</f>
+        <v>12.212639395964311</v>
+      </c>
+      <c r="U60" s="7">
+        <f>(P60+Q60)/2</f>
+        <v>24.781631860764893</v>
+      </c>
+      <c r="V60" s="2">
+        <f>(P60+Q60+R60)/3</f>
+        <v>17.023571500015379</v>
+      </c>
+      <c r="W60" s="2">
+        <f>(P60+Q60+S60)/3</f>
+        <v>20.591967705831365</v>
+      </c>
+      <c r="X60" s="2">
+        <f>(P60*2+Q60*2+R60+S60)/6</f>
+        <v>18.807769602923372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>113800000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>432100000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>554000000</v>
+      </c>
+      <c r="I61" s="4">
+        <f>H61*1.17</f>
         <v>648180000</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J61" s="2">
         <v>3255</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K61" s="2">
         <v>151840</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L61" s="20">
         <v>0</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M61" s="8">
         <v>1.4</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N61" s="2">
         <v>16</v>
       </c>
-      <c r="P55" s="7">
-        <f t="shared" si="4"/>
-        <v>22.796298998839923</v>
-      </c>
-      <c r="Q55" s="7">
-        <f t="shared" si="5"/>
-        <v>27.932222597474823</v>
-      </c>
-      <c r="R55" s="2">
-        <f t="shared" si="6"/>
+      <c r="P61" s="7">
+        <f>LOG((E61+F61)/(G61+F61)+1,Z$3)</f>
+        <v>21.655247406647916</v>
+      </c>
+      <c r="Q61" s="7">
+        <f>LOG(J61*I61/K61^2,AA$3)</f>
+        <v>27.562838615831257</v>
+      </c>
+      <c r="R61" s="2">
+        <f>LOG(L61/K61+1,AB$3)</f>
         <v>0</v>
       </c>
-      <c r="S55" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8027479410991685</v>
-      </c>
-      <c r="U55" s="7">
-        <f t="shared" si="10"/>
-        <v>25.364260798157375</v>
-      </c>
-      <c r="V55" s="2">
-        <f t="shared" si="11"/>
-        <v>16.909507198771582</v>
-      </c>
-      <c r="W55" s="2">
-        <f t="shared" si="12"/>
-        <v>17.510423179137973</v>
-      </c>
-      <c r="X55" s="2">
-        <f t="shared" si="13"/>
-        <v>17.209965188954779</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="S61" s="2">
+        <f>LOG(M61*N61/K61+1,AC$3)</f>
+        <v>1.9448704412460036</v>
+      </c>
+      <c r="U61" s="7">
+        <f>(P61+Q61)/2</f>
+        <v>24.609043011239585</v>
+      </c>
+      <c r="V61" s="2">
+        <f>(P61+Q61+R61)/3</f>
+        <v>16.406028674159725</v>
+      </c>
+      <c r="W61" s="2">
+        <f>(P61+Q61+S61)/3</f>
+        <v>17.054318821241726</v>
+      </c>
+      <c r="X61" s="2">
+        <f>(P61*2+Q61*2+R61+S61)/6</f>
+        <v>16.730173747700725</v>
+      </c>
     </row>
     <row r="62" spans="1:24">
       <c r="E62" s="4"/>
@@ -5033,8 +5433,8 @@
       <c r="H67" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X55">
-    <sortCondition descending="1" ref="X1:X55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X67">
+    <sortCondition descending="1" ref="X1:X67"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="Z2:AC2"/>

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC21D87-3A9D-4348-9890-A43C37BEA424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7557A-5006-46C9-B7D0-F1025C92FEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -315,6 +315,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CS Rankings Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS Rankings Faculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTH Royal Institute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scuola Superiore Sant'Anna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Padova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Università della Svizzera italiana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Bern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Basel (UB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Geneva (UNIGE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Lausanne (UNIL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Fribourg (UNIFR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Total income, </t>
     </r>
@@ -322,7 +398,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -330,82 +406,6 @@
       </rPr>
       <t>€</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS Rankings Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS Rankings Faculty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KTH Royal Institute of Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scuola Superiore Sant'Anna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Padova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Università della Svizzera italiana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Bern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Basel (UB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Geneva (UNIGE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Lausanne (UNIL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Fribourg (UNIFR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,12 +454,9 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -468,13 +465,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -493,12 +493,61 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -507,32 +556,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,43 +569,85 @@
     <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,4541 +966,4542 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.2109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.78515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.2109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.78515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.2109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.78515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.35546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.78515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.78515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.78515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.78515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.78515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.78515625" style="10" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.35546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.78515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.78515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.2109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.78515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.78515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.2109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.78515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.35546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.78515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.78515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.78515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.78515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.78515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.78515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.35546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.78515625" style="3" customWidth="1"/>
     <col min="26" max="29" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" s="21" customFormat="1" ht="14.6" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="11" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>2022</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
         <v>302021000</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>8434000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>392998000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="9">
         <f>H2*0.13</f>
         <v>51089740</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="14">
         <v>275</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="16">
         <v>1851</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>0.37</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="18">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="15">
         <v>46</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="19">
         <f>LOG((E2+F2)/(G2+F2)+1,Z$3)</f>
         <v>74.275103663816225</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="20">
         <f>LOG(J2*I2/K2^2,AA$3)</f>
         <v>50.76819150950643</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="14">
         <f>LOG(L2/K2+1,AB$3)</f>
         <v>2.7094936525756346</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="15">
         <f>LOG(M2*N2/K2+1,AC$3)</f>
         <v>639.5382519954934</v>
       </c>
-      <c r="U2" s="7">
-        <f>(P2+Q2)/2</f>
+      <c r="U2" s="20">
+        <f t="shared" ref="U2:U33" si="0">(P2+Q2)/2</f>
         <v>62.521647586661331</v>
       </c>
-      <c r="V2" s="2">
-        <f>(P2+Q2+R2)/3</f>
+      <c r="V2" s="14">
+        <f t="shared" ref="V2:V33" si="1">(P2+Q2+R2)/3</f>
         <v>42.584262941966095</v>
       </c>
-      <c r="W2" s="2">
-        <f>(P2+Q2+S2)/3</f>
+      <c r="W2" s="15">
+        <f t="shared" ref="W2:W33" si="2">(P2+Q2+S2)/3</f>
         <v>254.86051572293869</v>
       </c>
-      <c r="X2" s="2">
-        <f>(P2*2+Q2*2+R2+S2)/6</f>
+      <c r="X2" s="15">
+        <f t="shared" ref="X2:X33" si="3">(P2*2+Q2*2+R2+S2)/6</f>
         <v>148.72238933245239</v>
       </c>
-      <c r="Z2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
+      <c r="Z2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>2023</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>23000000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>765000000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>22000000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <v>1158000000</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="9">
         <f>H3*1.02</f>
         <v>1181160000</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="14">
         <v>3976</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="16">
         <v>12720</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <v>188.78</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="18">
         <v>6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="15">
         <v>61</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="19">
         <f>LOG((E3+F3)/(G3+F3)+1,Z$3)</f>
         <v>75.83953993310044</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="20">
         <f>LOG(J3*I3/K3^2,AA$3)</f>
         <v>62.711458278959064</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="14">
         <f>LOG(L3/K3+1,AB$3)</f>
         <v>199.71106794389482</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="15">
         <f>LOG(M3*N3/K3+1,AC$3)</f>
         <v>374.00757225530401</v>
       </c>
-      <c r="U3" s="7">
-        <f>(P3+Q3)/2</f>
+      <c r="U3" s="20">
+        <f t="shared" si="0"/>
         <v>69.275499106029756</v>
       </c>
-      <c r="V3" s="2">
-        <f>(P3+Q3+R3)/3</f>
+      <c r="V3" s="14">
+        <f t="shared" si="1"/>
         <v>112.75402205198479</v>
       </c>
-      <c r="W3" s="2">
-        <f>(P3+Q3+S3)/3</f>
+      <c r="W3" s="15">
+        <f t="shared" si="2"/>
         <v>170.85285682245453</v>
       </c>
-      <c r="X3" s="2">
-        <f>(P3*2+Q3*2+R3+S3)/6</f>
+      <c r="X3" s="15">
+        <f t="shared" si="3"/>
         <v>141.80343943721962</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="5">
         <v>1.00919</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="5">
         <v>1.17805</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="5">
         <v>1.00007377</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="5">
         <v>1.00007585</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>2023</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>132000000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>1365000000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10">
         <v>37000000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="10">
         <v>1956000000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="9">
         <f>H4*1.02</f>
         <v>1995120000</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="14">
         <v>7447</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="16">
         <v>25022</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="17">
         <v>346.55</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="18">
         <v>10</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="15">
         <v>47</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="19">
         <f>LOG((E4+F4)/(G4+F4)+1,Z$3)</f>
         <v>79.412305044888456</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="20">
         <f>LOG(J4*I4/K4^2,AA$3)</f>
         <v>61.482256892787383</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="14">
         <f>LOG(L4/K4+1,AB$3)</f>
         <v>186.46180428916296</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="15">
         <f>LOG(M4*N4/K4+1,AC$3)</f>
         <v>245.35194862664255</v>
       </c>
-      <c r="U4" s="7">
-        <f>(P4+Q4)/2</f>
+      <c r="U4" s="20">
+        <f t="shared" si="0"/>
         <v>70.447280968837916</v>
       </c>
-      <c r="V4" s="2">
-        <f>(P4+Q4+R4)/3</f>
+      <c r="V4" s="14">
+        <f t="shared" si="1"/>
         <v>109.11878874227959</v>
       </c>
-      <c r="W4" s="2">
-        <f>(P4+Q4+S4)/3</f>
+      <c r="W4" s="15">
+        <f t="shared" si="2"/>
         <v>128.7488368547728</v>
       </c>
-      <c r="X4" s="2">
-        <f>(P4*2+Q4*2+R4+S4)/6</f>
+      <c r="X4" s="15">
+        <f t="shared" si="3"/>
         <v>118.9338127985262</v>
       </c>
-      <c r="Z4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
+      <c r="Z4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6">
         <v>2022</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
         <v>100305000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>18649000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="10">
         <v>944209000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="9">
         <f>H5*1.02</f>
         <v>963093180</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="14">
         <v>3195</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="16">
         <v>4731</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="17">
         <v>92.49</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="15">
         <v>1</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="19">
         <f>LOG((E5+F5)/(G5+F5)+1,Z$3)</f>
         <v>66.846839091610633</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="20">
         <f>LOG(J5*I5/K5^2,AA$3)</f>
         <v>72.202985075790721</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="14">
         <f>LOG(L5/K5+1,AB$3)</f>
         <v>262.46238200703385</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="15">
         <f>LOG(M5*N5/K5+1,AC$3)</f>
         <v>3.0651387481081591</v>
       </c>
-      <c r="U5" s="7">
-        <f>(P5+Q5)/2</f>
+      <c r="U5" s="20">
+        <f t="shared" si="0"/>
         <v>69.524912083700684</v>
       </c>
-      <c r="V5" s="2">
-        <f>(P5+Q5+R5)/3</f>
+      <c r="V5" s="14">
+        <f t="shared" si="1"/>
         <v>133.83740205814507</v>
       </c>
-      <c r="W5" s="2">
-        <f>(P5+Q5+S5)/3</f>
+      <c r="W5" s="15">
+        <f t="shared" si="2"/>
         <v>47.371654305169841</v>
       </c>
-      <c r="X5" s="2">
-        <f>(P5*2+Q5*2+R5+S5)/6</f>
+      <c r="X5" s="15">
+        <f t="shared" si="3"/>
         <v>90.604528181657471</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="4">
         <f>AVERAGE(P:P)</f>
         <v>49.995962342061823</v>
       </c>
-      <c r="AA5" s="20">
-        <f t="shared" ref="AA5:AB5" si="0">AVERAGE(Q:Q)</f>
+      <c r="AA5" s="4">
+        <f t="shared" ref="AA5:AB5" si="4">AVERAGE(Q:Q)</f>
         <v>49.995560908768269</v>
       </c>
-      <c r="AB5" s="20">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="4">
+        <f t="shared" si="4"/>
         <v>50.003759047767026</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="4">
         <f>AVERAGE(S:S)</f>
         <v>50.002451715088434</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>2023</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>132400000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <v>207600000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>390100000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="11">
         <v>2518300000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="9">
         <f>H6*1.17</f>
         <v>2946411000</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="14">
         <v>5515</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="16">
         <v>22610</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <v>366.52</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="18">
         <v>3.2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="15">
         <v>48</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="19">
         <f>LOG((E6+F6)/(G6+F6)+1,Z$3)</f>
         <v>49.228212729368686</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="20">
         <f>LOG(J6*I6/K6^2,AA$3)</f>
         <v>63.26590980362284</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="14">
         <f>LOG(L6/K6+1,AB$3)</f>
         <v>217.99012817116756</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="15">
         <f>LOG(M6*N6/K6+1,AC$3)</f>
         <v>89.264857740809347</v>
       </c>
-      <c r="U6" s="7">
-        <f>(P6+Q6)/2</f>
+      <c r="U6" s="20">
+        <f t="shared" si="0"/>
         <v>56.247061266495763</v>
       </c>
-      <c r="V6" s="2">
-        <f>(P6+Q6+R6)/3</f>
+      <c r="V6" s="14">
+        <f t="shared" si="1"/>
         <v>110.16141690138636</v>
       </c>
-      <c r="W6" s="2">
-        <f>(P6+Q6+S6)/3</f>
+      <c r="W6" s="15">
+        <f t="shared" si="2"/>
         <v>67.252993424600291</v>
       </c>
-      <c r="X6" s="2">
-        <f>(P6*2+Q6*2+R6+S6)/6</f>
+      <c r="X6" s="15">
+        <f t="shared" si="3"/>
         <v>88.707205162993318</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>2023</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>183700000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <v>229200000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <v>504200000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
         <v>2924700000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="9">
         <f>H7*1.17</f>
         <v>3421899000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="14">
         <v>6580</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="16">
         <v>27290</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <v>378.45</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="18">
         <v>3.6</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="15">
         <v>50</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="19">
         <f>LOG((E7+F7)/(G7+F7)+1,Z$3)</f>
         <v>48.819630164346059</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="20">
         <f>LOG(J7*I7/K7^2,AA$3)</f>
         <v>62.960252523806304</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="14">
         <f>LOG(L7/K7+1,AB$3)</f>
         <v>186.70120851924304</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="15">
         <f>LOG(M7*N7/K7+1,AC$3)</f>
         <v>86.676528793762714</v>
       </c>
-      <c r="U7" s="7">
-        <f>(P7+Q7)/2</f>
+      <c r="U7" s="20">
+        <f t="shared" si="0"/>
         <v>55.889941344076178</v>
       </c>
-      <c r="V7" s="2">
-        <f>(P7+Q7+R7)/3</f>
+      <c r="V7" s="14">
+        <f t="shared" si="1"/>
         <v>99.493697069131784</v>
       </c>
-      <c r="W7" s="2">
-        <f>(P7+Q7+S7)/3</f>
+      <c r="W7" s="15">
+        <f t="shared" si="2"/>
         <v>66.152137160638361</v>
       </c>
-      <c r="X7" s="2">
-        <f>(P7*2+Q7*2+R7+S7)/6</f>
+      <c r="X7" s="15">
+        <f t="shared" si="3"/>
         <v>82.822917114885072</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>2023</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>52000000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <v>183000000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="11">
         <v>452000000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="11">
         <v>1269000000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="9">
         <f>H8*1.17</f>
         <v>1484730000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="14">
         <v>4005</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="16">
         <v>21470</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <v>216.29</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="18">
         <v>3.6</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="15">
         <v>53</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="19">
         <f>LOG((E8+F8)/(G8+F8)+1,Z$3)</f>
         <v>34.419241161293755</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="20">
         <f>LOG(J8*I8/K8^2,AA$3)</f>
         <v>57.762378171984039</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="14">
         <f>LOG(L8/K8+1,AB$3)</f>
         <v>135.88208581505694</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="15">
         <f>LOG(M8*N8/K8+1,AC$3)</f>
         <v>116.6499536066586</v>
       </c>
-      <c r="U8" s="7">
-        <f>(P8+Q8)/2</f>
+      <c r="U8" s="20">
+        <f t="shared" si="0"/>
         <v>46.090809666638897</v>
       </c>
-      <c r="V8" s="2">
-        <f>(P8+Q8+R8)/3</f>
+      <c r="V8" s="14">
+        <f t="shared" si="1"/>
         <v>76.021235049444911</v>
       </c>
-      <c r="W8" s="2">
-        <f>(P8+Q8+S8)/3</f>
+      <c r="W8" s="15">
+        <f t="shared" si="2"/>
         <v>69.610524313312126</v>
       </c>
-      <c r="X8" s="2">
-        <f>(P8*2+Q8*2+R8+S8)/6</f>
+      <c r="X8" s="15">
+        <f t="shared" si="3"/>
         <v>72.815879681378519</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>2022</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>2802082000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>85816000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <v>5801215000</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="9">
         <f>H9*0.13</f>
         <v>754157950</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="14">
         <v>3382</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="16">
         <v>9957</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="17">
         <v>77.959999999999994</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="18">
         <v>1.6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="15">
         <v>22</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="19">
         <f>LOG((E9+F9)/(G9+F9)+1,Z$3)</f>
         <v>74.133765752478709</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="20">
         <f>LOG(J9*I9/K9^2,AA$3)</f>
         <v>61.975100215595631</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="14">
         <f>LOG(L9/K9+1,AB$3)</f>
         <v>105.72675145192902</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="15">
         <f>LOG(M9*N9/K9+1,AC$3)</f>
         <v>46.527370655406962</v>
       </c>
-      <c r="U9" s="7">
-        <f>(P9+Q9)/2</f>
+      <c r="U9" s="20">
+        <f t="shared" si="0"/>
         <v>68.054432984037163</v>
       </c>
-      <c r="V9" s="2">
-        <f>(P9+Q9+R9)/3</f>
+      <c r="V9" s="14">
+        <f t="shared" si="1"/>
         <v>80.611872473334458</v>
       </c>
-      <c r="W9" s="2">
-        <f>(P9+Q9+S9)/3</f>
+      <c r="W9" s="15">
+        <f t="shared" si="2"/>
         <v>60.878745541160434</v>
       </c>
-      <c r="X9" s="2">
-        <f>(P9*2+Q9*2+R9+S9)/6</f>
+      <c r="X9" s="15">
+        <f t="shared" si="3"/>
         <v>70.745309007247442</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>2022</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>575900000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>71400000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <v>913700000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="9">
         <f>H10</f>
         <v>913700000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="14">
         <v>6351</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="16">
         <v>26978</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <v>80.08</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="18">
         <v>3.5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="15">
         <v>76</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="19">
         <f>LOG((E10+F10)/(G10+F10)+1,Z$3)</f>
         <v>69.568624698253956</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="20">
         <f>LOG(J10*I10/K10^2,AA$3)</f>
         <v>54.826055172007514</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="14">
         <f>LOG(L10/K10+1,AB$3)</f>
         <v>40.179708077838121</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="15">
         <f>LOG(M10*N10/K10+1,AC$3)</f>
         <v>129.36013752929003</v>
       </c>
-      <c r="U10" s="7">
-        <f>(P10+Q10)/2</f>
+      <c r="U10" s="20">
+        <f t="shared" si="0"/>
         <v>62.197339935130735</v>
       </c>
-      <c r="V10" s="2">
-        <f>(P10+Q10+R10)/3</f>
+      <c r="V10" s="14">
+        <f t="shared" si="1"/>
         <v>54.8581293160332</v>
       </c>
-      <c r="W10" s="2">
-        <f>(P10+Q10+S10)/3</f>
+      <c r="W10" s="15">
+        <f t="shared" si="2"/>
         <v>84.584939133183823</v>
       </c>
-      <c r="X10" s="2">
-        <f>(P10*2+Q10*2+R10+S10)/6</f>
+      <c r="X10" s="15">
+        <f t="shared" si="3"/>
         <v>69.721534224608504</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>2022</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>5392321000</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>91601000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>9640000000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="9">
         <f>H11*0.13</f>
         <v>1253200000</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="14">
         <v>5809</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="16">
         <v>27380</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <v>207.48</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="18">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="15">
         <v>43</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="19">
         <f>LOG((E11+F11)/(G11+F11)+1,Z$3)</f>
         <v>74.85331961674764</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="20">
         <f>LOG(J11*I11/K11^2,AA$3)</f>
         <v>56.029317645647247</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="14">
         <f>LOG(L11/K11+1,AB$3)</f>
         <v>102.33841949410494</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="15">
         <f>LOG(M11*N11/K11+1,AC$3)</f>
         <v>41.347068967930838</v>
       </c>
-      <c r="U11" s="7">
-        <f>(P11+Q11)/2</f>
+      <c r="U11" s="20">
+        <f t="shared" si="0"/>
         <v>65.441318631197447</v>
       </c>
-      <c r="V11" s="2">
-        <f>(P11+Q11+R11)/3</f>
+      <c r="V11" s="14">
+        <f t="shared" si="1"/>
         <v>77.740352252166602</v>
       </c>
-      <c r="W11" s="2">
-        <f>(P11+Q11+S11)/3</f>
+      <c r="W11" s="15">
+        <f t="shared" si="2"/>
         <v>57.409902076775246</v>
       </c>
-      <c r="X11" s="2">
-        <f>(P11*2+Q11*2+R11+S11)/6</f>
+      <c r="X11" s="15">
+        <f t="shared" si="3"/>
         <v>67.575127164470928</v>
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6">
         <v>2022</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>47868762</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>3208628</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>76603690</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="9">
         <f>H12</f>
         <v>76603690</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="14">
         <v>393</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="16">
         <v>819</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>2.85</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="18">
         <v>1.2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="15">
         <v>4</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="19">
         <f>LOG((E12+F12)/(G12+F12)+1,Z$3)</f>
         <v>72.281565446655961</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="20">
         <f>LOG(J12*I12/K12^2,AA$3)</f>
         <v>65.371430847800454</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="14">
         <f>LOG(L12/K12+1,AB$3)</f>
         <v>47.091513209652256</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="15">
         <f>LOG(M12*N12/K12+1,AC$3)</f>
         <v>77.04574513332291</v>
       </c>
-      <c r="U12" s="7">
-        <f>(P12+Q12)/2</f>
+      <c r="U12" s="20">
+        <f t="shared" si="0"/>
         <v>68.826498147228207</v>
       </c>
-      <c r="V12" s="2">
-        <f>(P12+Q12+R12)/3</f>
+      <c r="V12" s="14">
+        <f t="shared" si="1"/>
         <v>61.581503168036221</v>
       </c>
-      <c r="W12" s="2">
-        <f>(P12+Q12+S12)/3</f>
+      <c r="W12" s="15">
+        <f t="shared" si="2"/>
         <v>71.566247142593113</v>
       </c>
-      <c r="X12" s="2">
-        <f>(P12*2+Q12*2+R12+S12)/6</f>
+      <c r="X12" s="15">
+        <f t="shared" si="3"/>
         <v>66.573875155314667</v>
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6">
         <v>2022</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>14372360</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="10">
         <v>509643762</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>751869907</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="9">
         <f>H13*1.02</f>
         <v>766907305.13999999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="14">
         <v>5417</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="16">
         <v>12896</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="17">
         <v>100.26</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="19">
         <f>LOG((E13+F13)/(G13+F13)+1,Z$3)</f>
         <v>77.300706070374602</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="20">
         <f>LOG(J13*I13/K13^2,AA$3)</f>
         <v>61.795412579846939</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="14">
         <f>LOG(L13/K13+1,AB$3)</f>
         <v>104.98473157499849</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="15">
         <f>LOG(M13*N13/K13+1,AC$3)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="7">
-        <f>(P13+Q13)/2</f>
+      <c r="U13" s="20">
+        <f t="shared" si="0"/>
         <v>69.548059325110771</v>
       </c>
-      <c r="V13" s="2">
-        <f>(P13+Q13+R13)/3</f>
+      <c r="V13" s="14">
+        <f t="shared" si="1"/>
         <v>81.360283408406687</v>
       </c>
-      <c r="W13" s="2">
-        <f>(P13+Q13+S13)/3</f>
+      <c r="W13" s="15">
+        <f t="shared" si="2"/>
         <v>46.365372883407183</v>
       </c>
-      <c r="X13" s="2">
-        <f>(P13*2+Q13*2+R13+S13)/6</f>
+      <c r="X13" s="15">
+        <f t="shared" si="3"/>
         <v>63.862828145906924</v>
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>2022</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>4234471000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>64976000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>7316000000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="9">
         <f>H14*0.13</f>
         <v>951080000</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="14">
         <v>4846</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="16">
         <v>26090</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="17">
         <v>125.28</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="18">
         <v>2.8</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="15">
         <v>33</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="19">
         <f>LOG((E14+F14)/(G14+F14)+1,Z$3)</f>
         <v>74.940970785840307</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="20">
         <f>LOG(J14*I14/K14^2,AA$3)</f>
         <v>53.828722083334242</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="14">
         <f>LOG(L14/K14+1,AB$3)</f>
         <v>64.938652792477555</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="15">
         <f>LOG(M14*N14/K14+1,AC$3)</f>
         <v>46.611262227458731</v>
       </c>
-      <c r="U14" s="7">
-        <f>(P14+Q14)/2</f>
+      <c r="U14" s="20">
+        <f t="shared" si="0"/>
         <v>64.384846434587274</v>
       </c>
-      <c r="V14" s="2">
-        <f>(P14+Q14+R14)/3</f>
+      <c r="V14" s="14">
+        <f t="shared" si="1"/>
         <v>64.569448553884044</v>
       </c>
-      <c r="W14" s="2">
-        <f>(P14+Q14+S14)/3</f>
+      <c r="W14" s="15">
+        <f t="shared" si="2"/>
         <v>58.460318365544424</v>
       </c>
-      <c r="X14" s="2">
-        <f>(P14*2+Q14*2+R14+S14)/6</f>
+      <c r="X14" s="15">
+        <f t="shared" si="3"/>
         <v>61.514883459714234</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>2022</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
         <v>314100000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="12">
         <v>28100000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <v>477800000</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="9">
         <f>H15</f>
         <v>477800000</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="14">
         <v>2395.6</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="16">
         <v>12876</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="17">
         <v>59.86</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="18">
         <v>1.6</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="15">
         <v>26</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="19">
         <f>LOG((E15+F15)/(G15+F15)+1,Z$3)</f>
         <v>71.187208452735746</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="20">
         <f>LOG(J15*I15/K15^2,AA$3)</f>
         <v>53.947409142666558</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="14">
         <f>LOG(L15/K15+1,AB$3)</f>
         <v>62.875929866565293</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="15">
         <f>LOG(M15*N15/K15+1,AC$3)</f>
         <v>42.527771633400839</v>
       </c>
-      <c r="U15" s="7">
-        <f>(P15+Q15)/2</f>
+      <c r="U15" s="20">
+        <f t="shared" si="0"/>
         <v>62.567308797701152</v>
       </c>
-      <c r="V15" s="2">
-        <f>(P15+Q15+R15)/3</f>
+      <c r="V15" s="14">
+        <f t="shared" si="1"/>
         <v>62.670182487322535</v>
       </c>
-      <c r="W15" s="2">
-        <f>(P15+Q15+S15)/3</f>
+      <c r="W15" s="15">
+        <f t="shared" si="2"/>
         <v>55.887463076267714</v>
       </c>
-      <c r="X15" s="2">
-        <f>(P15*2+Q15*2+R15+S15)/6</f>
+      <c r="X15" s="15">
+        <f t="shared" si="3"/>
         <v>59.278822781795128</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>2023</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>3581000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>987439000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="10">
         <v>33702000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="10">
         <v>1570476000</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="9">
         <f>H16*1.02</f>
         <v>1601885520</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="14">
         <v>4540</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="16">
         <v>27895</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="17">
         <v>142.5</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="18">
         <v>1.9</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="15">
         <v>12</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="19">
         <f>LOG((E16+F16)/(G16+F16)+1,Z$3)</f>
         <v>74.145878528039347</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="20">
         <f>LOG(J16*I16/K16^2,AA$3)</f>
         <v>55.795767780360748</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="14">
         <f>LOG(L16/K16+1,AB$3)</f>
         <v>69.074508496367102</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="15">
         <f>LOG(M16*N16/K16+1,AC$3)</f>
         <v>10.771890777043989</v>
       </c>
-      <c r="U16" s="7">
-        <f>(P16+Q16)/2</f>
+      <c r="U16" s="20">
+        <f t="shared" si="0"/>
         <v>64.970823154200048</v>
       </c>
-      <c r="V16" s="2">
-        <f>(P16+Q16+R16)/3</f>
+      <c r="V16" s="14">
+        <f t="shared" si="1"/>
         <v>66.338718268255732</v>
       </c>
-      <c r="W16" s="2">
-        <f>(P16+Q16+S16)/3</f>
+      <c r="W16" s="15">
+        <f t="shared" si="2"/>
         <v>46.904512361814689</v>
       </c>
-      <c r="X16" s="2">
-        <f>(P16*2+Q16*2+R16+S16)/6</f>
+      <c r="X16" s="15">
+        <f t="shared" si="3"/>
         <v>56.621615315035221</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="6">
         <v>2023</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>3158729</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>679383671</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>825582486</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="9">
         <f>H17*1.02</f>
         <v>842094135.72000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="14">
         <v>3038.9</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="16">
         <v>18261</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="17">
         <v>104.12</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="19">
         <f>LOG((E17+F17)/(G17+F17)+1,Z$3)</f>
         <v>76.023938308066732</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="20">
         <f>LOG(J17*I17/K17^2,AA$3)</f>
         <v>54.592814175408094</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="14">
         <f>LOG(L17/K17+1,AB$3)</f>
         <v>77.074487576347281</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="15">
         <f>LOG(M17*N17/K17+1,AC$3)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="7">
-        <f>(P17+Q17)/2</f>
+      <c r="U17" s="20">
+        <f t="shared" si="0"/>
         <v>65.30837624173742</v>
       </c>
-      <c r="V17" s="2">
-        <f>(P17+Q17+R17)/3</f>
+      <c r="V17" s="14">
+        <f t="shared" si="1"/>
         <v>69.230413353274045</v>
       </c>
-      <c r="W17" s="2">
-        <f>(P17+Q17+S17)/3</f>
+      <c r="W17" s="15">
+        <f t="shared" si="2"/>
         <v>43.538917494491614</v>
       </c>
-      <c r="X17" s="2">
-        <f>(P17*2+Q17*2+R17+S17)/6</f>
+      <c r="X17" s="15">
+        <f t="shared" si="3"/>
         <v>56.384665423882829</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6">
         <v>2022</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <v>75144893.329999998</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>15984457.52</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="10">
         <v>107678803.23</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="9">
         <f>H18*1.02</f>
         <v>109832379.29460001</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="14">
         <v>485.4</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="16">
         <v>3922</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="17">
         <v>5.91</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="18">
         <v>1.4</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="15">
         <v>18</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="19">
         <f>LOG((E18+F18)/(G18+F18)+1,Z$3)</f>
         <v>65.736408376842817</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="20">
         <f>LOG(J18*I18/K18^2,AA$3)</f>
         <v>49.741846062640469</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="14">
         <f>LOG(L18/K18+1,AB$3)</f>
         <v>20.412167152686543</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="15">
         <f>LOG(M18*N18/K18+1,AC$3)</f>
         <v>84.442741139859294</v>
       </c>
-      <c r="U18" s="7">
-        <f>(P18+Q18)/2</f>
+      <c r="U18" s="20">
+        <f t="shared" si="0"/>
         <v>57.739127219741647</v>
       </c>
-      <c r="V18" s="2">
-        <f>(P18+Q18+R18)/3</f>
+      <c r="V18" s="14">
+        <f t="shared" si="1"/>
         <v>45.296807197389946</v>
       </c>
-      <c r="W18" s="2">
-        <f>(P18+Q18+S18)/3</f>
+      <c r="W18" s="15">
+        <f t="shared" si="2"/>
         <v>66.640331859780858</v>
       </c>
-      <c r="X18" s="2">
-        <f>(P18*2+Q18*2+R18+S18)/6</f>
+      <c r="X18" s="15">
+        <f t="shared" si="3"/>
         <v>55.968569528585398</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>2023</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="11">
         <v>55100000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="11">
         <v>210900000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="11">
         <v>513700000</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="11">
         <v>1385000000</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="9">
         <f>H19*1.17</f>
         <v>1620450000</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="14">
         <v>5015</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="16">
         <v>41250</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="17">
         <v>127.71</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="15">
         <v>78</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="19">
         <f>LOG((E19+F19)/(G19+F19)+1,Z$3)</f>
         <v>34.181247699828646</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="20">
         <f>LOG(J19*I19/K19^2,AA$3)</f>
         <v>51.698512669221365</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="14">
         <f>LOG(L19/K19+1,AB$3)</f>
         <v>41.904992262146358</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="15">
         <f>LOG(M19*N19/K19+1,AC$3)</f>
         <v>121.59714310897346</v>
       </c>
-      <c r="U19" s="7">
-        <f>(P19+Q19)/2</f>
+      <c r="U19" s="20">
+        <f t="shared" si="0"/>
         <v>42.939880184525009</v>
       </c>
-      <c r="V19" s="2">
-        <f>(P19+Q19+R19)/3</f>
+      <c r="V19" s="14">
+        <f t="shared" si="1"/>
         <v>42.594917543732123</v>
       </c>
-      <c r="W19" s="2">
-        <f>(P19+Q19+S19)/3</f>
+      <c r="W19" s="15">
+        <f t="shared" si="2"/>
         <v>69.158967826007824</v>
       </c>
-      <c r="X19" s="2">
-        <f>(P19*2+Q19*2+R19+S19)/6</f>
+      <c r="X19" s="15">
+        <f t="shared" si="3"/>
         <v>55.876942684869981</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>2022</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>2660597000</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <v>703808000</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <v>5425973000</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="9">
         <f>H20*0.08</f>
         <v>434077840</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="14">
         <v>843</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="16">
         <v>13583</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="17">
         <v>54.93</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="18">
         <v>2</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="15">
         <v>30</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="19">
         <f>LOG((E20+F20)/(G20+F20)+1,Z$3)</f>
         <v>63.69313987022273</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="20">
         <f>LOG(J20*I20/K20^2,AA$3)</f>
         <v>46.335458871920324</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="14">
         <f>LOG(L20/K20+1,AB$3)</f>
         <v>54.710849786950682</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="15">
         <f>LOG(M20*N20/K20+1,AC$3)</f>
         <v>58.111086287886913</v>
       </c>
-      <c r="U20" s="7">
-        <f>(P20+Q20)/2</f>
+      <c r="U20" s="20">
+        <f t="shared" si="0"/>
         <v>55.01429937107153</v>
       </c>
-      <c r="V20" s="2">
-        <f>(P20+Q20+R20)/3</f>
+      <c r="V20" s="14">
+        <f t="shared" si="1"/>
         <v>54.913149509697917</v>
       </c>
-      <c r="W20" s="2">
-        <f>(P20+Q20+S20)/3</f>
+      <c r="W20" s="15">
+        <f t="shared" si="2"/>
         <v>56.046561676676653</v>
       </c>
-      <c r="X20" s="2">
-        <f>(P20*2+Q20*2+R20+S20)/6</f>
+      <c r="X20" s="15">
+        <f t="shared" si="3"/>
         <v>55.479855593187288</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6">
         <v>2022</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
         <v>445684557</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="12">
         <v>103976679</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="12">
         <v>715010067</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="9">
         <f>H21</f>
         <v>715010067</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="14">
         <v>2268</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="16">
         <v>12739</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="17">
         <v>62.3</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="18">
         <v>1.3</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="15">
         <v>12</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="19">
         <f>LOG((E21+F21)/(G21+F21)+1,Z$3)</f>
         <v>64.908851973246001</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="20">
         <f>LOG(J21*I21/K21^2,AA$3)</f>
         <v>56.20398046228739</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="14">
         <f>LOG(L21/K21+1,AB$3)</f>
         <v>66.134662936108171</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="15">
         <f>LOG(M21*N21/K21+1,AC$3)</f>
         <v>16.135572009507317</v>
       </c>
-      <c r="U21" s="7">
-        <f>(P21+Q21)/2</f>
+      <c r="U21" s="20">
+        <f t="shared" si="0"/>
         <v>60.556416217766696</v>
       </c>
-      <c r="V21" s="2">
-        <f>(P21+Q21+R21)/3</f>
+      <c r="V21" s="14">
+        <f t="shared" si="1"/>
         <v>62.41583179054718</v>
       </c>
-      <c r="W21" s="2">
-        <f>(P21+Q21+S21)/3</f>
+      <c r="W21" s="15">
+        <f t="shared" si="2"/>
         <v>45.749468148346899</v>
       </c>
-      <c r="X21" s="2">
-        <f>(P21*2+Q21*2+R21+S21)/6</f>
+      <c r="X21" s="15">
+        <f t="shared" si="3"/>
         <v>54.08264996944704</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>2022</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
         <v>402124000</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>35660000</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="12">
         <v>714862000</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="9">
         <f>H22</f>
         <v>714862000</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="14">
         <v>3467</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="16">
         <v>24402</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="17">
         <v>88.36</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="18">
         <v>1.8</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="15">
         <v>29</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="19">
         <f>LOG((E22+F22)/(G22+F22)+1,Z$3)</f>
         <v>71.224821359213493</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="20">
         <f>LOG(J22*I22/K22^2,AA$3)</f>
         <v>50.859131931667115</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="14">
         <f>LOG(L22/K22+1,AB$3)</f>
         <v>48.998344837330052</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="15">
         <f>LOG(M22*N22/K22+1,AC$3)</f>
         <v>28.173568843811683</v>
       </c>
-      <c r="U22" s="7">
-        <f>(P22+Q22)/2</f>
+      <c r="U22" s="20">
+        <f t="shared" si="0"/>
         <v>61.0419766454403</v>
       </c>
-      <c r="V22" s="2">
-        <f>(P22+Q22+R22)/3</f>
+      <c r="V22" s="14">
+        <f t="shared" si="1"/>
         <v>57.027432709403548</v>
       </c>
-      <c r="W22" s="2">
-        <f>(P22+Q22+S22)/3</f>
+      <c r="W22" s="15">
+        <f t="shared" si="2"/>
         <v>50.085840711564096</v>
       </c>
-      <c r="X22" s="2">
-        <f>(P22*2+Q22*2+R22+S22)/6</f>
+      <c r="X22" s="15">
+        <f t="shared" si="3"/>
         <v>53.556636710483822</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6">
         <v>2022</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <v>341050000</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="10">
         <v>16490000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="10">
         <v>738450000</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="9">
         <f>H23*1.02</f>
         <v>753219000</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="14">
         <v>2547.1999999999998</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="16">
         <v>16908</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="17">
         <v>67.900000000000006</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="19">
         <f>LOG((E23+F23)/(G23+F23)+1,Z$3)</f>
         <v>73.219792097601911</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="20">
         <f>LOG(J23*I23/K23^2,AA$3)</f>
         <v>53.77458682757792</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="14">
         <f>LOG(L23/K23+1,AB$3)</f>
         <v>54.330436583346469</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="15">
         <f>LOG(M23*N23/K23+1,AC$3)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="7">
-        <f>(P23+Q23)/2</f>
+      <c r="U23" s="20">
+        <f t="shared" si="0"/>
         <v>63.497189462589915</v>
       </c>
-      <c r="V23" s="2">
-        <f>(P23+Q23+R23)/3</f>
+      <c r="V23" s="14">
+        <f t="shared" si="1"/>
         <v>60.441605169508762</v>
       </c>
-      <c r="W23" s="2">
-        <f>(P23+Q23+S23)/3</f>
+      <c r="W23" s="15">
+        <f t="shared" si="2"/>
         <v>42.33145964172661</v>
       </c>
-      <c r="X23" s="2">
-        <f>(P23*2+Q23*2+R23+S23)/6</f>
+      <c r="X23" s="15">
+        <f t="shared" si="3"/>
         <v>51.386532405617686</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>2022</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
         <v>2186629000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>77679000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="8">
         <v>3027319000</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="9">
         <f>H24*0.13</f>
         <v>393551470</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="14">
         <v>1914</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="16">
         <v>14955</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="17">
         <v>17.79</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="18">
         <v>1.5</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="15">
         <v>25</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="19">
         <f>LOG((E24+F24)/(G24+F24)+1,Z$3)</f>
         <v>73.878804924032877</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="20">
         <f>LOG(J24*I24/K24^2,AA$3)</f>
         <v>49.566976805059191</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="14">
         <f>LOG(L24/K24+1,AB$3)</f>
         <v>16.116383089334796</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="15">
         <f>LOG(M24*N24/K24+1,AC$3)</f>
         <v>33.018839237687381</v>
       </c>
-      <c r="U24" s="7">
-        <f>(P24+Q24)/2</f>
+      <c r="U24" s="20">
+        <f t="shared" si="0"/>
         <v>61.722890864546031</v>
       </c>
-      <c r="V24" s="2">
-        <f>(P24+Q24+R24)/3</f>
+      <c r="V24" s="14">
+        <f t="shared" si="1"/>
         <v>46.520721606142281</v>
       </c>
-      <c r="W24" s="2">
-        <f>(P24+Q24+S24)/3</f>
+      <c r="W24" s="15">
+        <f t="shared" si="2"/>
         <v>52.15487365559315</v>
       </c>
-      <c r="X24" s="2">
-        <f>(P24*2+Q24*2+R24+S24)/6</f>
+      <c r="X24" s="15">
+        <f t="shared" si="3"/>
         <v>49.337797630867719</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>2022</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
         <v>644000000</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="12">
         <v>64000000</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="12">
         <v>1066000000</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="9">
         <f>H25</f>
         <v>1066000000</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="14">
         <v>5244</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="16">
         <v>39959</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="17">
         <v>121.86</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="18">
         <v>1.5</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="15">
         <v>20</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="19">
         <f>LOG((E25+F25)/(G25+F25)+1,Z$3)</f>
         <v>70.714267542610457</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="20">
         <f>LOG(J25*I25/K25^2,AA$3)</f>
         <v>49.803333573004771</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="14">
         <f>LOG(L25/K25+1,AB$3)</f>
         <v>41.278263561611851</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="15">
         <f>LOG(M25*N25/K25+1,AC$3)</f>
         <v>9.8947437600269428</v>
       </c>
-      <c r="U25" s="7">
-        <f>(P25+Q25)/2</f>
+      <c r="U25" s="20">
+        <f t="shared" si="0"/>
         <v>60.258800557807618</v>
       </c>
-      <c r="V25" s="2">
-        <f>(P25+Q25+R25)/3</f>
+      <c r="V25" s="14">
+        <f t="shared" si="1"/>
         <v>53.931954892409031</v>
       </c>
-      <c r="W25" s="2">
-        <f>(P25+Q25+S25)/3</f>
+      <c r="W25" s="15">
+        <f t="shared" si="2"/>
         <v>43.470781625214066</v>
       </c>
-      <c r="X25" s="2">
-        <f>(P25*2+Q25*2+R25+S25)/6</f>
+      <c r="X25" s="15">
+        <f t="shared" si="3"/>
         <v>48.701368258811534</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>2022</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12">
         <v>556300000</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="12">
         <v>92100000</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="12">
         <v>993400000</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="9">
         <f>H26</f>
         <v>993400000</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="14">
         <v>3408</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="16">
         <v>42143</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="17">
         <v>101</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="18">
         <v>2.4</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="15">
         <v>34</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="19">
         <f>LOG((E26+F26)/(G26+F26)+1,Z$3)</f>
         <v>67.717108175642451</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="20">
         <f>LOG(J26*I26/K26^2,AA$3)</f>
         <v>46.093327878081169</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="14">
         <f>LOG(L26/K26+1,AB$3)</f>
         <v>32.449817904038376</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="15">
         <f>LOG(M26*N26/K26+1,AC$3)</f>
         <v>25.503834405397143</v>
       </c>
-      <c r="U26" s="7">
-        <f>(P26+Q26)/2</f>
+      <c r="U26" s="20">
+        <f t="shared" si="0"/>
         <v>56.90521802686181</v>
       </c>
-      <c r="V26" s="2">
-        <f>(P26+Q26+R26)/3</f>
+      <c r="V26" s="14">
+        <f t="shared" si="1"/>
         <v>48.753417985920663</v>
       </c>
-      <c r="W26" s="2">
-        <f>(P26+Q26+S26)/3</f>
+      <c r="W26" s="15">
+        <f t="shared" si="2"/>
         <v>46.438090153040257</v>
       </c>
-      <c r="X26" s="2">
-        <f>(P26*2+Q26*2+R26+S26)/6</f>
+      <c r="X26" s="15">
+        <f t="shared" si="3"/>
         <v>47.595754069480456</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>2022</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12">
         <v>530802700</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="12">
         <v>67751100</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="12">
         <v>834083100</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="9">
         <f>H27</f>
         <v>834083100</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="14">
         <v>3750</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="16">
         <v>37000</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="17">
         <v>120.01</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="18">
         <v>1.2</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="15">
         <v>14</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="19">
         <f>LOG((E27+F27)/(G27+F27)+1,Z$3)</f>
         <v>69.401493509335452</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="20">
         <f>LOG(J27*I27/K27^2,AA$3)</f>
         <v>47.198726694342916</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="14">
         <f>LOG(L27/K27+1,AB$3)</f>
         <v>43.898388399294369</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="15">
         <f>LOG(M27*N27/K27+1,AC$3)</f>
         <v>5.9850786892423402</v>
       </c>
-      <c r="U27" s="7">
-        <f>(P27+Q27)/2</f>
+      <c r="U27" s="20">
+        <f t="shared" si="0"/>
         <v>58.300110101839181</v>
       </c>
-      <c r="V27" s="2">
-        <f>(P27+Q27+R27)/3</f>
+      <c r="V27" s="14">
+        <f t="shared" si="1"/>
         <v>53.49953620099091</v>
       </c>
-      <c r="W27" s="2">
-        <f>(P27+Q27+S27)/3</f>
+      <c r="W27" s="15">
+        <f t="shared" si="2"/>
         <v>40.861766297640237</v>
       </c>
-      <c r="X27" s="2">
-        <f>(P27*2+Q27*2+R27+S27)/6</f>
+      <c r="X27" s="15">
+        <f t="shared" si="3"/>
         <v>47.180651249315581</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>2022</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
         <v>2219200000</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <v>87905000</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="8">
         <v>3337000000</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="9">
         <f>H28*0.13</f>
         <v>433810000</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="14">
         <v>2267</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="16">
         <v>16588</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="17">
         <v>42.02</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="19">
         <f>LOG((E28+F28)/(G28+F28)+1,Z$3)</f>
         <v>73.66750249063314</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="20">
         <f>LOG(J28*I28/K28^2,AA$3)</f>
         <v>49.929414108361343</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="14">
         <f>LOG(L28/K28+1,AB$3)</f>
         <v>34.296418354157957</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="15">
         <f>LOG(M28*N28/K28+1,AC$3)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="7">
-        <f>(P28+Q28)/2</f>
+      <c r="U28" s="20">
+        <f t="shared" si="0"/>
         <v>61.798458299497241</v>
       </c>
-      <c r="V28" s="2">
-        <f>(P28+Q28+R28)/3</f>
+      <c r="V28" s="14">
+        <f t="shared" si="1"/>
         <v>52.631111651050816</v>
       </c>
-      <c r="W28" s="2">
-        <f>(P28+Q28+S28)/3</f>
+      <c r="W28" s="15">
+        <f t="shared" si="2"/>
         <v>41.19897219966483</v>
       </c>
-      <c r="X28" s="2">
-        <f>(P28*2+Q28*2+R28+S28)/6</f>
+      <c r="X28" s="15">
+        <f t="shared" si="3"/>
         <v>46.915041925357819</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>2022</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12">
         <v>473310000</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="12">
         <v>60361000</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="12">
         <v>690144000</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="9">
         <f>H29</f>
         <v>690144000</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="14">
         <v>2797</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="16">
         <v>31761</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="17">
         <v>63.65</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="18">
         <v>1.8</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="15">
         <v>23</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="19">
         <f>LOG((E29+F29)/(G29+F29)+1,Z$3)</f>
         <v>69.406479531820409</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="20">
         <f>LOG(J29*I29/K29^2,AA$3)</f>
         <v>46.116808970378735</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="14">
         <f>LOG(L29/K29+1,AB$3)</f>
         <v>27.139739108789168</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="15">
         <f>LOG(M29*N29/K29+1,AC$3)</f>
         <v>17.174502424727791</v>
       </c>
-      <c r="U29" s="7">
-        <f>(P29+Q29)/2</f>
+      <c r="U29" s="20">
+        <f t="shared" si="0"/>
         <v>57.761644251099568</v>
       </c>
-      <c r="V29" s="2">
-        <f>(P29+Q29+R29)/3</f>
+      <c r="V29" s="14">
+        <f t="shared" si="1"/>
         <v>47.554342536996103</v>
       </c>
-      <c r="W29" s="2">
-        <f>(P29+Q29+S29)/3</f>
+      <c r="W29" s="15">
+        <f t="shared" si="2"/>
         <v>44.232596975642309</v>
       </c>
-      <c r="X29" s="2">
-        <f>(P29*2+Q29*2+R29+S29)/6</f>
+      <c r="X29" s="15">
+        <f t="shared" si="3"/>
         <v>45.893469756319206</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>2022</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12">
         <v>498700000</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="12">
         <v>66000000</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="12">
         <v>812600000</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="9">
         <f>H30</f>
         <v>812600000</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="14">
         <v>1903</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="16">
         <v>33474</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="17">
         <v>102.46</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="18">
         <v>1.3</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="15">
         <v>14</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="19">
         <f>LOG((E30+F30)/(G30+F30)+1,Z$3)</f>
         <v>69.187798980367589</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="20">
         <f>LOG(J30*I30/K30^2,AA$3)</f>
         <v>44.122204732002253</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="14">
         <f>LOG(L30/K30+1,AB$3)</f>
         <v>41.430403076305055</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="15">
         <f>LOG(M30*N30/K30+1,AC$3)</f>
         <v>7.1664920551125366</v>
       </c>
-      <c r="U30" s="7">
-        <f>(P30+Q30)/2</f>
+      <c r="U30" s="20">
+        <f t="shared" si="0"/>
         <v>56.655001856184924</v>
       </c>
-      <c r="V30" s="2">
-        <f>(P30+Q30+R30)/3</f>
+      <c r="V30" s="14">
+        <f t="shared" si="1"/>
         <v>51.58013559622497</v>
       </c>
-      <c r="W30" s="2">
-        <f>(P30+Q30+S30)/3</f>
+      <c r="W30" s="15">
+        <f t="shared" si="2"/>
         <v>40.15883192249413</v>
       </c>
-      <c r="X30" s="2">
-        <f>(P30*2+Q30*2+R30+S30)/6</f>
+      <c r="X30" s="15">
+        <f t="shared" si="3"/>
         <v>45.869483759359554</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>2022</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12">
         <v>285000000</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="12">
         <v>28500000</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="12">
         <v>432200000</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="9">
         <f>H31</f>
         <v>432200000</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="14">
         <v>2068.83</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="16">
         <v>12493</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="17">
         <v>21.01</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="18">
         <v>1</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="15">
         <v>2</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="19">
         <f>LOG((E31+F31)/(G31+F31)+1,Z$3)</f>
         <v>70.684862521357658</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="20">
         <f>LOG(J31*I31/K31^2,AA$3)</f>
         <v>52.808873638538259</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="14">
         <f>LOG(L31/K31+1,AB$3)</f>
         <v>22.778788251932056</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="15">
         <f>LOG(M31*N31/K31+1,AC$3)</f>
         <v>2.1105195525488987</v>
       </c>
-      <c r="U31" s="7">
-        <f>(P31+Q31)/2</f>
+      <c r="U31" s="20">
+        <f t="shared" si="0"/>
         <v>61.746868079947959</v>
       </c>
-      <c r="V31" s="2">
-        <f>(P31+Q31+R31)/3</f>
+      <c r="V31" s="14">
+        <f t="shared" si="1"/>
         <v>48.757508137275998</v>
       </c>
-      <c r="W31" s="2">
-        <f>(P31+Q31+S31)/3</f>
+      <c r="W31" s="15">
+        <f t="shared" si="2"/>
         <v>41.868085237481601</v>
       </c>
-      <c r="X31" s="2">
-        <f>(P31*2+Q31*2+R31+S31)/6</f>
+      <c r="X31" s="15">
+        <f t="shared" si="3"/>
         <v>45.3127966873788</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>2023</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12">
         <v>147241458</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="12">
         <v>20629278</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="12">
         <v>209455095</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="9">
         <f>H32</f>
         <v>209455095</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="14">
         <v>824</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="16">
         <v>16410</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="17">
         <v>20.56</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="18">
         <v>1.9</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="15">
         <v>21</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="19">
         <f>LOG((E32+F32)/(G32+F32)+1,Z$3)</f>
         <v>68.838270982918687</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="20">
         <f>LOG(J32*I32/K32^2,AA$3)</f>
         <v>39.441457475622556</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="14">
         <f>LOG(L32/K32+1,AB$3)</f>
         <v>16.973790735403071</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="15">
         <f>LOG(M32*N32/K32+1,AC$3)</f>
         <v>32.018261871903874</v>
       </c>
-      <c r="U32" s="7">
-        <f>(P32+Q32)/2</f>
+      <c r="U32" s="20">
+        <f t="shared" si="0"/>
         <v>54.139864229270621</v>
       </c>
-      <c r="V32" s="2">
-        <f>(P32+Q32+R32)/3</f>
+      <c r="V32" s="14">
+        <f t="shared" si="1"/>
         <v>41.751173064648107</v>
       </c>
-      <c r="W32" s="2">
-        <f>(P32+Q32+S32)/3</f>
+      <c r="W32" s="15">
+        <f t="shared" si="2"/>
         <v>46.765996776815037</v>
       </c>
-      <c r="X32" s="2">
-        <f>(P32*2+Q32*2+R32+S32)/6</f>
+      <c r="X32" s="15">
+        <f t="shared" si="3"/>
         <v>44.258584920731572</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="6">
         <v>2022</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12">
         <v>350370000</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="12">
         <v>41223000</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="12">
         <v>558679000</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="9">
         <f>H33</f>
         <v>558679000</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="14">
         <v>2430</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="16">
         <v>22406</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="17">
         <v>33.03</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="15">
         <v>7</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="19">
         <f>LOG((E33+F33)/(G33+F33)+1,Z$3)</f>
         <v>69.859458116904491</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="20">
         <f>LOG(J33*I33/K33^2,AA$3)</f>
         <v>48.227380233296429</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="14">
         <f>LOG(L33/K33+1,AB$3)</f>
         <v>19.96919528064295</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="15">
         <f>LOG(M33*N33/K33+1,AC$3)</f>
         <v>4.5301508598567253</v>
       </c>
-      <c r="U33" s="7">
-        <f>(P33+Q33)/2</f>
+      <c r="U33" s="20">
+        <f t="shared" si="0"/>
         <v>59.04341917510046</v>
       </c>
-      <c r="V33" s="2">
-        <f>(P33+Q33+R33)/3</f>
+      <c r="V33" s="14">
+        <f t="shared" si="1"/>
         <v>46.018677876947955</v>
       </c>
-      <c r="W33" s="2">
-        <f>(P33+Q33+S33)/3</f>
+      <c r="W33" s="15">
+        <f t="shared" si="2"/>
         <v>40.872329736685884</v>
       </c>
-      <c r="X33" s="2">
-        <f>(P33*2+Q33*2+R33+S33)/6</f>
+      <c r="X33" s="15">
+        <f t="shared" si="3"/>
         <v>43.445503806816923</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6">
         <v>2022</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>110565000</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
         <v>236734000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="9">
         <f>H34*1.02</f>
         <v>241468680</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="14">
         <v>549.79</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="16">
         <v>10363</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="19">
         <f>LOG((E34+F34)/(G34+F34)+1,Z$3)</f>
         <v>75.770112705712236</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="20">
         <f>LOG(J34*I34/K34^2,AA$3)</f>
         <v>43.450321190144507</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="14">
         <f>LOG(L34/K34+1,AB$3)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="15">
         <f>LOG(M34*N34/K34+1,AC$3)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="7">
-        <f>(P34+Q34)/2</f>
+      <c r="U34" s="20">
+        <f t="shared" ref="U34:U61" si="5">(P34+Q34)/2</f>
         <v>59.610216947928372</v>
       </c>
-      <c r="V34" s="2">
-        <f>(P34+Q34+R34)/3</f>
+      <c r="V34" s="14">
+        <f t="shared" ref="V34:V61" si="6">(P34+Q34+R34)/3</f>
         <v>39.740144631952248</v>
       </c>
-      <c r="W34" s="2">
-        <f>(P34+Q34+S34)/3</f>
+      <c r="W34" s="15">
+        <f t="shared" ref="W34:W61" si="7">(P34+Q34+S34)/3</f>
         <v>39.740144631952248</v>
       </c>
-      <c r="X34" s="2">
-        <f>(P34*2+Q34*2+R34+S34)/6</f>
+      <c r="X34" s="15">
+        <f t="shared" ref="X34:X61" si="8">(P34*2+Q34*2+R34+S34)/6</f>
         <v>39.740144631952248</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6">
         <v>2023</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="11">
         <v>600000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="11">
         <v>127700000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="11">
         <v>416400000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="11">
         <v>934200000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="9">
         <f>H35*1.17</f>
         <v>1093014000</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="14">
         <v>3335</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="16">
         <v>31485</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="17">
         <v>112.44</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="15">
         <v>47</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="19">
         <f>LOG((E35+F35)/(G35+F35)+1,Z$3)</f>
         <v>23.14382151900222</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="20">
         <f>LOG(J35*I35/K35^2,AA$3)</f>
         <v>50.102973631996278</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="14">
         <f>LOG(L35/K35+1,AB$3)</f>
         <v>48.325799113131865</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="15">
         <f>LOG(M35*N35/K35+1,AC$3)</f>
         <v>43.22804212306238</v>
       </c>
-      <c r="U35" s="7">
-        <f>(P35+Q35)/2</f>
+      <c r="U35" s="20">
+        <f t="shared" si="5"/>
         <v>36.623397575499247</v>
       </c>
-      <c r="V35" s="2">
-        <f>(P35+Q35+R35)/3</f>
+      <c r="V35" s="14">
+        <f t="shared" si="6"/>
         <v>40.524198088043455</v>
       </c>
-      <c r="W35" s="2">
-        <f>(P35+Q35+S35)/3</f>
+      <c r="W35" s="15">
+        <f t="shared" si="7"/>
         <v>38.824945758020291</v>
       </c>
-      <c r="X35" s="2">
-        <f>(P35*2+Q35*2+R35+S35)/6</f>
+      <c r="X35" s="15">
+        <f t="shared" si="8"/>
         <v>39.67457192303187</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <v>2022</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12">
         <v>318235849.14999998</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="12">
         <v>86177594.299999997</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="12">
         <v>582806127.85000002</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="9">
         <f>H36</f>
         <v>582806127.85000002</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="14">
         <v>1627</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="16">
         <v>47959</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="17">
         <v>18.43</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="18">
         <v>2.1</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="15">
         <v>38</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="19">
         <f>LOG((E36+F36)/(G36+F36)+1,Z$3)</f>
         <v>63.454795452388147</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="20">
         <f>LOG(J36*I36/K36^2,AA$3)</f>
         <v>36.748659172166079</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="14">
         <f>LOG(L36/K36+1,AB$3)</f>
         <v>5.2084442247037606</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="15">
         <f>LOG(M36*N36/K36+1,AC$3)</f>
         <v>21.91959833552049</v>
       </c>
-      <c r="U36" s="7">
-        <f>(P36+Q36)/2</f>
+      <c r="U36" s="20">
+        <f t="shared" si="5"/>
         <v>50.101727312277113</v>
       </c>
-      <c r="V36" s="2">
-        <f>(P36+Q36+R36)/3</f>
+      <c r="V36" s="14">
+        <f t="shared" si="6"/>
         <v>35.137299616419327</v>
       </c>
-      <c r="W36" s="2">
-        <f>(P36+Q36+S36)/3</f>
+      <c r="W36" s="15">
+        <f t="shared" si="7"/>
         <v>40.707684320024903</v>
       </c>
-      <c r="X36" s="2">
-        <f>(P36*2+Q36*2+R36+S36)/6</f>
+      <c r="X36" s="15">
+        <f t="shared" si="8"/>
         <v>37.922491968222118</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <v>2022</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12">
         <v>196693950</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="12">
         <v>33135497</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="12">
         <v>291296473</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="9">
         <f>H37</f>
         <v>291296473</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="14">
         <v>1294.4680000000001</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="16">
         <v>19497</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="17">
         <v>1.74</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="15">
         <v>4</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="19">
         <f>LOG((E37+F37)/(G37+F37)+1,Z$3)</f>
         <v>67.591579723874347</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="20">
         <f>LOG(J37*I37/K37^2,AA$3)</f>
         <v>42.107000725745728</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="14">
         <f>LOG(L37/K37+1,AB$3)</f>
         <v>1.2097574718239883</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="15">
         <f>LOG(M37*N37/K37+1,AC$3)</f>
         <v>2.9750671288702568</v>
       </c>
-      <c r="U37" s="7">
-        <f>(P37+Q37)/2</f>
+      <c r="U37" s="20">
+        <f t="shared" si="5"/>
         <v>54.849290224810034</v>
       </c>
-      <c r="V37" s="2">
-        <f>(P37+Q37+R37)/3</f>
+      <c r="V37" s="14">
+        <f t="shared" si="6"/>
         <v>36.969445973814686</v>
       </c>
-      <c r="W37" s="2">
-        <f>(P37+Q37+S37)/3</f>
+      <c r="W37" s="15">
+        <f t="shared" si="7"/>
         <v>37.557882526163439</v>
       </c>
-      <c r="X37" s="2">
-        <f>(P37*2+Q37*2+R37+S37)/6</f>
+      <c r="X37" s="15">
+        <f t="shared" si="8"/>
         <v>37.263664249989063</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <v>2022</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12">
         <v>644619668.87</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="12">
         <v>116819770.81999999</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="12">
         <v>880317964.64999998</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="9">
         <f>H38*1.17</f>
         <v>1029972018.6404999</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="14">
         <v>3576</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="16">
         <v>122143</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="17">
         <v>53.85</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="18">
         <v>2.4</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="15">
         <v>40</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="19">
         <f>LOG((E38+F38)/(G38+F38)+1,Z$3)</f>
         <v>67.045641974267639</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="20">
         <f>LOG(J38*I38/K38^2,AA$3)</f>
         <v>33.619457354378682</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="14">
         <f>LOG(L38/K38+1,AB$3)</f>
         <v>5.9752714887217655</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="15">
         <f>LOG(M38*N38/K38+1,AC$3)</f>
         <v>10.358405809762738</v>
       </c>
-      <c r="U38" s="7">
-        <f>(P38+Q38)/2</f>
+      <c r="U38" s="20">
+        <f t="shared" si="5"/>
         <v>50.33254966432316</v>
       </c>
-      <c r="V38" s="2">
-        <f>(P38+Q38+R38)/3</f>
+      <c r="V38" s="14">
+        <f t="shared" si="6"/>
         <v>35.546790272456029</v>
       </c>
-      <c r="W38" s="2">
-        <f>(P38+Q38+S38)/3</f>
+      <c r="W38" s="15">
+        <f t="shared" si="7"/>
         <v>37.007835046136357</v>
       </c>
-      <c r="X38" s="2">
-        <f>(P38*2+Q38*2+R38+S38)/6</f>
+      <c r="X38" s="15">
+        <f t="shared" si="8"/>
         <v>36.277312659296193</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <v>2023</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="11">
         <v>29000000</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="11">
         <v>236700000</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="11">
         <v>929300000</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="11">
         <v>1968300000</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="9">
         <f>H39*1.17</f>
         <v>2302911000</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="14">
         <v>7380</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="16">
         <v>46830</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="17">
         <v>9.19</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="18">
         <v>3.6</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="15">
         <v>58</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="19">
         <f>LOG((E39+F39)/(G39+F39)+1,Z$3)</f>
         <v>22.440185068000659</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="20">
         <f>LOG(J39*I39/K39^2,AA$3)</f>
         <v>54.652637651463117</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="14">
         <f>LOG(L39/K39+1,AB$3)</f>
         <v>2.6600204700848047</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="15">
         <f>LOG(M39*N39/K39+1,AC$3)</f>
         <v>58.654430888774925</v>
       </c>
-      <c r="U39" s="7">
-        <f>(P39+Q39)/2</f>
+      <c r="U39" s="20">
+        <f t="shared" si="5"/>
         <v>38.546411359731891</v>
       </c>
-      <c r="V39" s="2">
-        <f>(P39+Q39+R39)/3</f>
+      <c r="V39" s="14">
+        <f t="shared" si="6"/>
         <v>26.584281063182861</v>
       </c>
-      <c r="W39" s="2">
-        <f>(P39+Q39+S39)/3</f>
+      <c r="W39" s="15">
+        <f t="shared" si="7"/>
         <v>45.249084536079572</v>
       </c>
-      <c r="X39" s="2">
-        <f>(P39*2+Q39*2+R39+S39)/6</f>
+      <c r="X39" s="15">
+        <f t="shared" si="8"/>
         <v>35.916682799631218</v>
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <v>2023</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12">
         <v>271160973</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="12">
         <v>64849737</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="12">
         <v>405512751</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="9">
         <f>H40</f>
         <v>405512751</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="14">
         <v>1518</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="16">
         <v>52583</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="17">
         <v>40.5</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="18">
         <v>1.4</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="15">
         <v>20</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="19">
         <f>LOG((E40+F40)/(G40+F40)+1,Z$3)</f>
         <v>64.6771628976838</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="20">
         <f>LOG(J40*I40/K40^2,AA$3)</f>
         <v>32.988515031632829</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="14">
         <f>LOG(L40/K40+1,AB$3)</f>
         <v>10.437072555326196</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="15">
         <f>LOG(M40*N40/K40+1,AC$3)</f>
         <v>7.0187205731070579</v>
       </c>
-      <c r="U40" s="7">
-        <f>(P40+Q40)/2</f>
+      <c r="U40" s="20">
+        <f t="shared" si="5"/>
         <v>48.832838964658315</v>
       </c>
-      <c r="V40" s="2">
-        <f>(P40+Q40+R40)/3</f>
+      <c r="V40" s="14">
+        <f t="shared" si="6"/>
         <v>36.034250161547611</v>
       </c>
-      <c r="W40" s="2">
-        <f>(P40+Q40+S40)/3</f>
+      <c r="W40" s="15">
+        <f t="shared" si="7"/>
         <v>34.894799500807899</v>
       </c>
-      <c r="X40" s="2">
-        <f>(P40*2+Q40*2+R40+S40)/6</f>
+      <c r="X40" s="15">
+        <f t="shared" si="8"/>
         <v>35.464524831177748</v>
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <v>2023</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="11">
         <v>3448000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="11">
         <v>91494000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="11">
         <v>361632000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="11">
         <v>730044000</v>
       </c>
-      <c r="I41" s="4">
-        <f>H41*1.17</f>
+      <c r="I41" s="9">
+        <f t="shared" ref="I41:I59" si="9">H41*1.17</f>
         <v>854151480</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="14">
         <v>2445</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="16">
         <v>23795</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="17">
         <v>63.86</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="18">
         <v>1.7</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="15">
         <v>34</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="19">
         <f>LOG((E41+F41)/(G41+F41)+1,Z$3)</f>
         <v>20.794548911032763</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="20">
         <f>LOG(J41*I41/K41^2,AA$3)</f>
         <v>50.121637287856537</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="14">
         <f>LOG(L41/K41+1,AB$3)</f>
         <v>36.332670498724084</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="15">
         <f>LOG(M41*N41/K41+1,AC$3)</f>
         <v>31.98718918562691</v>
       </c>
-      <c r="U41" s="7">
-        <f>(P41+Q41)/2</f>
+      <c r="U41" s="20">
+        <f t="shared" si="5"/>
         <v>35.458093099444653</v>
       </c>
-      <c r="V41" s="2">
-        <f>(P41+Q41+R41)/3</f>
+      <c r="V41" s="14">
+        <f t="shared" si="6"/>
         <v>35.749618899204464</v>
       </c>
-      <c r="W41" s="2">
-        <f>(P41+Q41+S41)/3</f>
+      <c r="W41" s="15">
+        <f t="shared" si="7"/>
         <v>34.301125128172067</v>
       </c>
-      <c r="X41" s="2">
-        <f>(P41*2+Q41*2+R41+S41)/6</f>
+      <c r="X41" s="15">
+        <f t="shared" si="8"/>
         <v>35.025372013688269</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>2023</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="11">
         <v>2600000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="11">
         <v>94600000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="11">
         <v>342500000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="11">
         <v>675100000</v>
       </c>
-      <c r="I42" s="4">
-        <f>H42*1.17</f>
+      <c r="I42" s="9">
+        <f t="shared" si="9"/>
         <v>789867000</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="14">
         <v>2745</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="16">
         <v>28680</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="17">
         <v>58.62</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="15">
         <v>42</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="19">
         <f>LOG((E42+F42)/(G42+F42)+1,Z$3)</f>
         <v>21.949589289180523</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="20">
         <f>LOG(J42*I42/K42^2,AA$3)</f>
         <v>48.071374724475298</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="14">
         <f>LOG(L42/K42+1,AB$3)</f>
         <v>27.679576762409955</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="15">
         <f>LOG(M42*N42/K42+1,AC$3)</f>
         <v>42.408708890835918</v>
       </c>
-      <c r="U42" s="7">
-        <f>(P42+Q42)/2</f>
+      <c r="U42" s="20">
+        <f t="shared" si="5"/>
         <v>35.010482006827914</v>
       </c>
-      <c r="V42" s="2">
-        <f>(P42+Q42+R42)/3</f>
+      <c r="V42" s="14">
+        <f t="shared" si="6"/>
         <v>32.566846925355257</v>
       </c>
-      <c r="W42" s="2">
-        <f>(P42+Q42+S42)/3</f>
+      <c r="W42" s="15">
+        <f t="shared" si="7"/>
         <v>37.476557634830584</v>
       </c>
-      <c r="X42" s="2">
-        <f>(P42*2+Q42*2+R42+S42)/6</f>
+      <c r="X42" s="15">
+        <f t="shared" si="8"/>
         <v>35.021702280092924</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6">
         <v>2023</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="11">
         <v>28900000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="11">
         <v>148300000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="11">
         <v>607800000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="11">
         <v>1230000000</v>
       </c>
-      <c r="I43" s="4">
-        <f>H43*1.17</f>
+      <c r="I43" s="9">
+        <f t="shared" si="9"/>
         <v>1439100000</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="14">
         <v>4525</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="16">
         <v>41490</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="17">
         <v>112.24</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="15">
         <v>36</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="19">
         <f>LOG((E43+F43)/(G43+F43)+1,Z$3)</f>
         <v>23.016220475296691</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="20">
         <f>LOG(J43*I43/K43^2,AA$3)</f>
         <v>50.275934218792685</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="14">
         <f>LOG(L43/K43+1,AB$3)</f>
         <v>36.622980521916318</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="15">
         <f>LOG(M43*N43/K43+1,AC$3)</f>
         <v>26.285412354204798</v>
       </c>
-      <c r="U43" s="7">
-        <f>(P43+Q43)/2</f>
+      <c r="U43" s="20">
+        <f t="shared" si="5"/>
         <v>36.646077347044688</v>
       </c>
-      <c r="V43" s="2">
-        <f>(P43+Q43+R43)/3</f>
+      <c r="V43" s="14">
+        <f t="shared" si="6"/>
         <v>36.638378405335231</v>
       </c>
-      <c r="W43" s="2">
-        <f>(P43+Q43+S43)/3</f>
+      <c r="W43" s="15">
+        <f t="shared" si="7"/>
         <v>33.192522349431393</v>
       </c>
-      <c r="X43" s="2">
-        <f>(P43*2+Q43*2+R43+S43)/6</f>
+      <c r="X43" s="15">
+        <f t="shared" si="8"/>
         <v>34.915450377383316</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6">
         <v>2023</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="11">
         <v>2099000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="11">
         <v>48390000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="11">
         <v>150726000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="11">
         <v>316331000</v>
       </c>
-      <c r="I44" s="4">
-        <f>H44*1.17</f>
+      <c r="I44" s="9">
+        <f t="shared" si="9"/>
         <v>370107270</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="14">
         <v>1300</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="16">
         <v>15575</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="17">
         <v>18.079999999999998</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="18">
         <v>1.9</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="15">
         <v>26</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="19">
         <f>LOG((E44+F44)/(G44+F44)+1,Z$3)</f>
         <v>24.703911784937198</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="20">
         <f>LOG(J44*I44/K44^2,AA$3)</f>
         <v>46.335614415561253</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="14">
         <f>LOG(L44/K44+1,AB$3)</f>
         <v>15.727317546128692</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="15">
         <f>LOG(M44*N44/K44+1,AC$3)</f>
         <v>41.751487256097114</v>
       </c>
-      <c r="U44" s="7">
-        <f>(P44+Q44)/2</f>
+      <c r="U44" s="20">
+        <f t="shared" si="5"/>
         <v>35.519763100249222</v>
       </c>
-      <c r="V44" s="2">
-        <f>(P44+Q44+R44)/3</f>
+      <c r="V44" s="14">
+        <f t="shared" si="6"/>
         <v>28.922281248875709</v>
       </c>
-      <c r="W44" s="2">
-        <f>(P44+Q44+S44)/3</f>
+      <c r="W44" s="15">
+        <f t="shared" si="7"/>
         <v>37.597004485531848</v>
       </c>
-      <c r="X44" s="2">
-        <f>(P44*2+Q44*2+R44+S44)/6</f>
+      <c r="X44" s="15">
+        <f t="shared" si="8"/>
         <v>33.25964286720378</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <v>2023</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="11">
         <v>8000000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="11">
         <v>185900000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="11">
         <v>410800000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="11">
         <v>952200000</v>
       </c>
-      <c r="I45" s="4">
-        <f>H45*1.17</f>
+      <c r="I45" s="9">
+        <f t="shared" si="9"/>
         <v>1114074000</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="14">
         <v>3810</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="16">
         <v>42980</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="17">
         <v>77.62</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="18">
         <v>1.7</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="15">
         <v>28</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="19">
         <f>LOG((E45+F45)/(G45+F45)+1,Z$3)</f>
         <v>30.758284599119673</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="20">
         <f>LOG(J45*I45/K45^2,AA$3)</f>
         <v>47.233422053456053</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="14">
         <f>LOG(L45/K45+1,AB$3)</f>
         <v>24.459726612837049</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="15">
         <f>LOG(M45*N45/K45+1,AC$3)</f>
         <v>14.593553300544583</v>
       </c>
-      <c r="U45" s="7">
-        <f>(P45+Q45)/2</f>
+      <c r="U45" s="20">
+        <f t="shared" si="5"/>
         <v>38.995853326287865</v>
       </c>
-      <c r="V45" s="2">
-        <f>(P45+Q45+R45)/3</f>
+      <c r="V45" s="14">
+        <f t="shared" si="6"/>
         <v>34.150477755137594</v>
       </c>
-      <c r="W45" s="2">
-        <f>(P45+Q45+S45)/3</f>
+      <c r="W45" s="15">
+        <f t="shared" si="7"/>
         <v>30.861753317706771</v>
       </c>
-      <c r="X45" s="2">
-        <f>(P45*2+Q45*2+R45+S45)/6</f>
+      <c r="X45" s="15">
+        <f t="shared" si="8"/>
         <v>32.506115536422179</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="6">
         <v>2023</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="11">
         <v>4000000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="11">
         <v>74400000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="11">
         <v>453800000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="11">
         <v>839400000</v>
       </c>
-      <c r="I46" s="4">
-        <f>H46*1.17</f>
+      <c r="I46" s="9">
+        <f t="shared" si="9"/>
         <v>982097999.99999988</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="14">
         <v>2745</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="16">
         <v>28825</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="17">
         <v>58.98</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="18">
         <v>2.4</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="15">
         <v>35</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="19">
         <f>LOG((E46+F46)/(G46+F46)+1,Z$3)</f>
         <v>15.128351358510152</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="20">
         <f>LOG(J46*I46/K46^2,AA$3)</f>
         <v>49.339162782291353</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="14">
         <f>LOG(L46/K46+1,AB$3)</f>
         <v>27.709440186516403</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="15">
         <f>LOG(M46*N46/K46+1,AC$3)</f>
         <v>38.365320028772771</v>
       </c>
-      <c r="U46" s="7">
-        <f>(P46+Q46)/2</f>
+      <c r="U46" s="20">
+        <f t="shared" si="5"/>
         <v>32.233757070400756</v>
       </c>
-      <c r="V46" s="2">
-        <f>(P46+Q46+R46)/3</f>
+      <c r="V46" s="14">
+        <f t="shared" si="6"/>
         <v>30.725651442439304</v>
       </c>
-      <c r="W46" s="2">
-        <f>(P46+Q46+S46)/3</f>
+      <c r="W46" s="15">
+        <f t="shared" si="7"/>
         <v>34.277611389858095</v>
       </c>
-      <c r="X46" s="2">
-        <f>(P46*2+Q46*2+R46+S46)/6</f>
+      <c r="X46" s="15">
+        <f t="shared" si="8"/>
         <v>32.501631416148705</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>2023</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="11">
         <v>9000000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="11">
         <v>113000000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="11">
         <v>445000000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="11">
         <v>929000000</v>
       </c>
-      <c r="I47" s="4">
-        <f>H47*1.17</f>
+      <c r="I47" s="9">
+        <f t="shared" si="9"/>
         <v>1086930000</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="14">
         <v>3665</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="16">
         <v>37990</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="17">
         <v>72.36</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="18">
         <v>2.1</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="15">
         <v>38</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="19">
         <f>LOG((E47+F47)/(G47+F47)+1,Z$3)</f>
         <v>21.614911585372305</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="20">
         <f>LOG(J47*I47/K47^2,AA$3)</f>
         <v>48.352401939788678</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="14">
         <f>LOG(L47/K47+1,AB$3)</f>
         <v>25.795991466797563</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="15">
         <f>LOG(M47*N47/K47+1,AC$3)</f>
         <v>27.665514562269372</v>
       </c>
-      <c r="U47" s="7">
-        <f>(P47+Q47)/2</f>
+      <c r="U47" s="20">
+        <f t="shared" si="5"/>
         <v>34.983656762580495</v>
       </c>
-      <c r="V47" s="2">
-        <f>(P47+Q47+R47)/3</f>
+      <c r="V47" s="14">
+        <f t="shared" si="6"/>
         <v>31.921101663986182</v>
       </c>
-      <c r="W47" s="2">
-        <f>(P47+Q47+S47)/3</f>
+      <c r="W47" s="15">
+        <f t="shared" si="7"/>
         <v>32.544276029143454</v>
       </c>
-      <c r="X47" s="2">
-        <f>(P47*2+Q47*2+R47+S47)/6</f>
+      <c r="X47" s="15">
+        <f t="shared" si="8"/>
         <v>32.23268884656482</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>2023</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="11">
         <v>18564000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="11">
         <v>184180000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="11">
         <v>659945000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="11">
         <v>1344665000</v>
       </c>
-      <c r="I48" s="4">
-        <f>H48*1.17</f>
+      <c r="I48" s="9">
+        <f t="shared" si="9"/>
         <v>1573258050</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="14">
         <v>4820</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="16">
         <v>46410</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="17">
         <v>131.31</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="18">
         <v>1.4</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="15">
         <v>18</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="19">
         <f>LOG((E48+F48)/(G48+F48)+1,Z$3)</f>
         <v>23.53058764709143</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="20">
         <f>LOG(J48*I48/K48^2,AA$3)</f>
         <v>49.837525132332281</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="14">
         <f>LOG(L48/K48+1,AB$3)</f>
         <v>38.300884730550202</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="15">
         <f>LOG(M48*N48/K48+1,AC$3)</f>
         <v>7.157015800442875</v>
       </c>
-      <c r="U48" s="7">
-        <f>(P48+Q48)/2</f>
+      <c r="U48" s="20">
+        <f t="shared" si="5"/>
         <v>36.684056389711856</v>
       </c>
-      <c r="V48" s="2">
-        <f>(P48+Q48+R48)/3</f>
+      <c r="V48" s="14">
+        <f t="shared" si="6"/>
         <v>37.222999169991304</v>
       </c>
-      <c r="W48" s="2">
-        <f>(P48+Q48+S48)/3</f>
+      <c r="W48" s="15">
+        <f t="shared" si="7"/>
         <v>26.841709526622196</v>
       </c>
-      <c r="X48" s="2">
-        <f>(P48*2+Q48*2+R48+S48)/6</f>
+      <c r="X48" s="15">
+        <f t="shared" si="8"/>
         <v>32.032354348306747</v>
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>2023</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="11">
         <v>3135000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="11">
         <v>108240000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="11">
         <v>160937000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="11">
         <v>460525000</v>
       </c>
-      <c r="I49" s="4">
-        <f>H49*1.17</f>
+      <c r="I49" s="9">
+        <f t="shared" si="9"/>
         <v>538814250</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="14">
         <v>1915</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="16">
         <v>25295</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="17">
         <v>24.1</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="18">
         <v>1.5</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="15">
         <v>17</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="19">
         <f>LOG((E49+F49)/(G49+F49)+1,Z$3)</f>
         <v>37.850085342433076</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="20">
         <f>LOG(J49*I49/K49^2,AA$3)</f>
         <v>45.072662320022665</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="14">
         <f>LOG(L49/K49+1,AB$3)</f>
         <v>12.90957031228143</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="15">
         <f>LOG(M49*N49/K49+1,AC$3)</f>
         <v>13.284571985577424</v>
       </c>
-      <c r="U49" s="7">
-        <f>(P49+Q49)/2</f>
+      <c r="U49" s="20">
+        <f t="shared" si="5"/>
         <v>41.461373831227874</v>
       </c>
-      <c r="V49" s="2">
-        <f>(P49+Q49+R49)/3</f>
+      <c r="V49" s="14">
+        <f t="shared" si="6"/>
         <v>31.944105991579061</v>
       </c>
-      <c r="W49" s="2">
-        <f>(P49+Q49+S49)/3</f>
+      <c r="W49" s="15">
+        <f t="shared" si="7"/>
         <v>32.06910654934439</v>
       </c>
-      <c r="X49" s="2">
-        <f>(P49*2+Q49*2+R49+S49)/6</f>
+      <c r="X49" s="15">
+        <f t="shared" si="8"/>
         <v>32.006606270461724</v>
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>2023</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="11">
         <v>11700000</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="11">
         <v>111500000</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="11">
         <v>397500000</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="11">
         <v>887000000</v>
       </c>
-      <c r="I50" s="4">
-        <f>H50*1.17</f>
+      <c r="I50" s="9">
+        <f t="shared" si="9"/>
         <v>1037789999.9999999</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="14">
         <v>3345</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="16">
         <v>30860</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="17">
         <v>48.8</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="18">
         <v>1.6</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="15">
         <v>28</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="19">
         <f>LOG((E50+F50)/(G50+F50)+1,Z$3)</f>
         <v>23.694479507202484</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="20">
         <f>LOG(J50*I50/K50^2,AA$3)</f>
         <v>50.049569913725534</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="14">
         <f>LOG(L50/K50+1,AB$3)</f>
         <v>21.419877302203147</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="15">
         <f>LOG(M50*N50/K50+1,AC$3)</f>
         <v>19.126166464017473</v>
       </c>
-      <c r="U50" s="7">
-        <f>(P50+Q50)/2</f>
+      <c r="U50" s="20">
+        <f t="shared" si="5"/>
         <v>36.872024710464011</v>
       </c>
-      <c r="V50" s="2">
-        <f>(P50+Q50+R50)/3</f>
+      <c r="V50" s="14">
+        <f t="shared" si="6"/>
         <v>31.721308907710391</v>
       </c>
-      <c r="W50" s="2">
-        <f>(P50+Q50+S50)/3</f>
+      <c r="W50" s="15">
+        <f t="shared" si="7"/>
         <v>30.956738628315165</v>
       </c>
-      <c r="X50" s="2">
-        <f>(P50*2+Q50*2+R50+S50)/6</f>
+      <c r="X50" s="15">
+        <f t="shared" si="8"/>
         <v>31.33902376801278</v>
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6">
         <v>2023</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="11">
         <v>9373000</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="11">
         <v>46778000</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="11">
         <v>289887000</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="11">
         <v>484223000</v>
       </c>
-      <c r="I51" s="4">
-        <f>H51*1.17</f>
+      <c r="I51" s="9">
+        <f t="shared" si="9"/>
         <v>566540910</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="14">
         <v>2020</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="16">
         <v>22230</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="17">
         <v>72.89</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="18">
         <v>1.4</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="15">
         <v>15</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="19">
         <f>LOG((E51+F51)/(G51+F51)+1,Z$3)</f>
         <v>16.861877014749805</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="20">
         <f>LOG(J51*I51/K51^2,AA$3)</f>
         <v>47.281164462440195</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="14">
         <f>LOG(L51/K51+1,AB$3)</f>
         <v>44.37656565838077</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="15">
         <f>LOG(M51*N51/K51+1,AC$3)</f>
         <v>12.449034352632735</v>
       </c>
-      <c r="U51" s="7">
-        <f>(P51+Q51)/2</f>
+      <c r="U51" s="20">
+        <f t="shared" si="5"/>
         <v>32.071520738594998</v>
       </c>
-      <c r="V51" s="2">
-        <f>(P51+Q51+R51)/3</f>
+      <c r="V51" s="14">
+        <f t="shared" si="6"/>
         <v>36.173202378523591</v>
       </c>
-      <c r="W51" s="2">
-        <f>(P51+Q51+S51)/3</f>
+      <c r="W51" s="15">
+        <f t="shared" si="7"/>
         <v>25.530691943274245</v>
       </c>
-      <c r="X51" s="2">
-        <f>(P51*2+Q51*2+R51+S51)/6</f>
+      <c r="X51" s="15">
+        <f t="shared" si="8"/>
         <v>30.851947160898916</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="6">
         <v>2023</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="11">
         <v>2900000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="11">
         <v>80000000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="11">
         <v>382900000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="11">
         <v>679800000</v>
       </c>
-      <c r="I52" s="4">
-        <f>H52*1.17</f>
+      <c r="I52" s="9">
+        <f t="shared" si="9"/>
         <v>795366000</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="14">
         <v>2505</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="16">
         <v>26045</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="17">
         <v>61.42</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="18">
         <v>1.8</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="15">
         <v>20</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="19">
         <f>LOG((E52+F52)/(G52+F52)+1,Z$3)</f>
         <v>18.008421496268149</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="20">
         <f>LOG(J52*I52/K52^2,AA$3)</f>
         <v>48.731655015397386</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="14">
         <f>LOG(L52/K52+1,AB$3)</f>
         <v>31.930822492939143</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="15">
         <f>LOG(M52*N52/K52+1,AC$3)</f>
         <v>18.211220414462289</v>
       </c>
-      <c r="U52" s="7">
-        <f>(P52+Q52)/2</f>
+      <c r="U52" s="20">
+        <f t="shared" si="5"/>
         <v>33.370038255832768</v>
       </c>
-      <c r="V52" s="2">
-        <f>(P52+Q52+R52)/3</f>
+      <c r="V52" s="14">
+        <f t="shared" si="6"/>
         <v>32.890299668201557</v>
       </c>
-      <c r="W52" s="2">
-        <f>(P52+Q52+S52)/3</f>
+      <c r="W52" s="15">
+        <f t="shared" si="7"/>
         <v>28.317098975375941</v>
       </c>
-      <c r="X52" s="2">
-        <f>(P52*2+Q52*2+R52+S52)/6</f>
+      <c r="X52" s="15">
+        <f t="shared" si="8"/>
         <v>30.603699321788753</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="6">
         <v>2023</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="11">
         <v>655000</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="11">
         <v>22578000</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="11">
         <v>136722000</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="11">
         <v>216104000</v>
       </c>
-      <c r="I53" s="4">
-        <f>H53*1.17</f>
+      <c r="I53" s="9">
+        <f t="shared" si="9"/>
         <v>252841679.99999997</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="14">
         <v>880</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="16">
         <v>12480</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="17">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="18">
         <v>1.8</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="15">
         <v>28</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="19">
         <f>LOG((E53+F53)/(G53+F53)+1,Z$3)</f>
         <v>14.882086973167924</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="20">
         <f>LOG(J53*I53/K53^2,AA$3)</f>
         <v>44.333011380816394</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="14">
         <f>LOG(L53/K53+1,AB$3)</f>
         <v>9.4469054680652178</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="15">
         <f>LOG(M53*N53/K53+1,AC$3)</f>
         <v>53.137530511842364</v>
       </c>
-      <c r="U53" s="7">
-        <f>(P53+Q53)/2</f>
+      <c r="U53" s="20">
+        <f t="shared" si="5"/>
         <v>29.607549176992158</v>
       </c>
-      <c r="V53" s="2">
-        <f>(P53+Q53+R53)/3</f>
+      <c r="V53" s="14">
+        <f t="shared" si="6"/>
         <v>22.887334607349846</v>
       </c>
-      <c r="W53" s="2">
-        <f>(P53+Q53+S53)/3</f>
+      <c r="W53" s="15">
+        <f t="shared" si="7"/>
         <v>37.450876288608896</v>
       </c>
-      <c r="X53" s="2">
-        <f>(P53*2+Q53*2+R53+S53)/6</f>
+      <c r="X53" s="15">
+        <f t="shared" si="8"/>
         <v>30.169105447979366</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="6">
         <v>2023</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="11">
         <v>3954000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="11">
         <v>50464000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="11">
         <v>199319000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="11">
         <v>381775000</v>
       </c>
-      <c r="I54" s="4">
-        <f>H54*1.17</f>
+      <c r="I54" s="9">
+        <f t="shared" si="9"/>
         <v>446676750</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="14">
         <v>1495</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="16">
         <v>17770</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="17">
         <v>18.32</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="18">
         <v>1.4</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="15">
         <v>25</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="19">
         <f>LOG((E54+F54)/(G54+F54)+1,Z$3)</f>
         <v>21.54520153117733</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="20">
         <f>LOG(J54*I54/K54^2,AA$3)</f>
         <v>46.726892802318595</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="14">
         <f>LOG(L54/K54+1,AB$3)</f>
         <v>13.968523554287914</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="15">
         <f>LOG(M54*N54/K54+1,AC$3)</f>
         <v>25.942639239232122</v>
       </c>
-      <c r="U54" s="7">
-        <f>(P54+Q54)/2</f>
+      <c r="U54" s="20">
+        <f t="shared" si="5"/>
         <v>34.136047166747964</v>
       </c>
-      <c r="V54" s="2">
-        <f>(P54+Q54+R54)/3</f>
+      <c r="V54" s="14">
+        <f t="shared" si="6"/>
         <v>27.413539295927947</v>
       </c>
-      <c r="W54" s="2">
-        <f>(P54+Q54+S54)/3</f>
+      <c r="W54" s="15">
+        <f t="shared" si="7"/>
         <v>31.404911190909349</v>
       </c>
-      <c r="X54" s="2">
-        <f>(P54*2+Q54*2+R54+S54)/6</f>
+      <c r="X54" s="15">
+        <f t="shared" si="8"/>
         <v>29.40922524341865</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="6">
         <v>2023</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="11">
         <v>3189000</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="11">
         <v>59459000</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="11">
         <v>256284000</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="11">
         <v>518675000</v>
       </c>
-      <c r="I55" s="4">
-        <f>H55*1.17</f>
+      <c r="I55" s="9">
+        <f t="shared" si="9"/>
         <v>606849750</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="14">
         <v>2160</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="16">
         <v>23420</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="17">
         <v>35.11</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="18">
         <v>1.5</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="15">
         <v>23</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="19">
         <f>LOG((E55+F55)/(G55+F55)+1,Z$3)</f>
         <v>19.785624097915061</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="20">
         <f>LOG(J55*I55/K55^2,AA$3)</f>
         <v>47.473080041071832</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="14">
         <f>LOG(L55/K55+1,AB$3)</f>
         <v>20.307424228829206</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="15">
         <f>LOG(M55*N55/K55+1,AC$3)</f>
         <v>19.407670307206608</v>
       </c>
-      <c r="U55" s="7">
-        <f>(P55+Q55)/2</f>
+      <c r="U55" s="20">
+        <f t="shared" si="5"/>
         <v>33.62935206949345</v>
       </c>
-      <c r="V55" s="2">
-        <f>(P55+Q55+R55)/3</f>
+      <c r="V55" s="14">
+        <f t="shared" si="6"/>
         <v>29.188709455938703</v>
       </c>
-      <c r="W55" s="2">
-        <f>(P55+Q55+S55)/3</f>
+      <c r="W55" s="15">
+        <f t="shared" si="7"/>
         <v>28.888791482064505</v>
       </c>
-      <c r="X55" s="2">
-        <f>(P55*2+Q55*2+R55+S55)/6</f>
+      <c r="X55" s="15">
+        <f t="shared" si="8"/>
         <v>29.038750469001602</v>
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="6">
         <v>2023</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="11">
         <v>15058000</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="11">
         <v>107002000</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="11">
         <v>507211000</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="11">
         <v>985279000</v>
       </c>
-      <c r="I56" s="4">
-        <f>H56*1.17</f>
+      <c r="I56" s="9">
+        <f t="shared" si="9"/>
         <v>1152776430</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="14">
         <v>3530</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="16">
         <v>37190</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="17">
         <v>74.2</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="18">
         <v>1.5</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="15">
         <v>18</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="19">
         <f>LOG((E56+F56)/(G56+F56)+1,Z$3)</f>
         <v>19.814017028250706</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="20">
         <f>LOG(J56*I56/K56^2,AA$3)</f>
         <v>48.74207336001809</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56" s="14">
         <f>LOG(L56/K56+1,AB$3)</f>
         <v>27.019734556169901</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="15">
         <f>LOG(M56*N56/K56+1,AC$3)</f>
         <v>9.568434079407341</v>
       </c>
-      <c r="U56" s="7">
-        <f>(P56+Q56)/2</f>
+      <c r="U56" s="20">
+        <f t="shared" si="5"/>
         <v>34.2780451941344</v>
       </c>
-      <c r="V56" s="2">
-        <f>(P56+Q56+R56)/3</f>
+      <c r="V56" s="14">
+        <f t="shared" si="6"/>
         <v>31.858608314812898</v>
       </c>
-      <c r="W56" s="2">
-        <f>(P56+Q56+S56)/3</f>
+      <c r="W56" s="15">
+        <f t="shared" si="7"/>
         <v>26.041508155892046</v>
       </c>
-      <c r="X56" s="2">
-        <f>(P56*2+Q56*2+R56+S56)/6</f>
+      <c r="X56" s="15">
+        <f t="shared" si="8"/>
         <v>28.950058235352476</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="6">
         <v>2023</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="11">
         <v>1397000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="11">
         <v>90199000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="11">
         <v>310617000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="11">
         <v>636381000</v>
       </c>
-      <c r="I57" s="4">
-        <f>H57*1.17</f>
+      <c r="I57" s="9">
+        <f t="shared" si="9"/>
         <v>744565770</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="14">
         <v>2940</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="16">
         <v>33985</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="17">
         <v>41.21</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="18">
         <v>1.7</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="15">
         <v>26</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="19">
         <f>LOG((E57+F57)/(G57+F57)+1,Z$3)</f>
         <v>22.49810288400927</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="20">
         <f>LOG(J57*I57/K57^2,AA$3)</f>
         <v>46.058239816865793</v>
       </c>
-      <c r="R57" s="2">
+      <c r="R57" s="14">
         <f>LOG(L57/K57+1,AB$3)</f>
         <v>16.428140059514075</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="15">
         <f>LOG(M57*N57/K57+1,AC$3)</f>
         <v>17.136164280141603</v>
       </c>
-      <c r="U57" s="7">
-        <f>(P57+Q57)/2</f>
+      <c r="U57" s="20">
+        <f t="shared" si="5"/>
         <v>34.278171350437532</v>
       </c>
-      <c r="V57" s="2">
-        <f>(P57+Q57+R57)/3</f>
+      <c r="V57" s="14">
+        <f t="shared" si="6"/>
         <v>28.328160920129715</v>
       </c>
-      <c r="W57" s="2">
-        <f>(P57+Q57+S57)/3</f>
+      <c r="W57" s="15">
+        <f t="shared" si="7"/>
         <v>28.564168993672222</v>
       </c>
-      <c r="X57" s="2">
-        <f>(P57*2+Q57*2+R57+S57)/6</f>
+      <c r="X57" s="15">
+        <f t="shared" si="8"/>
         <v>28.446164956900969</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="6">
         <v>2023</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="11">
         <v>1500000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="11">
         <v>46700000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="11">
         <v>205900000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="11">
         <v>363000000</v>
       </c>
-      <c r="I58" s="4">
-        <f>H58*1.17</f>
+      <c r="I58" s="9">
+        <f t="shared" si="9"/>
         <v>424710000</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="14">
         <v>1290</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="16">
         <v>18890</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="17">
         <v>34.130000000000003</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="18">
         <v>1.6</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="15">
         <v>16</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="19">
         <f>LOG((E58+F58)/(G58+F58)+1,Z$3)</f>
         <v>19.090274432427833</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="20">
         <f>LOG(J58*I58/K58^2,AA$3)</f>
         <v>44.77306863003497</v>
       </c>
-      <c r="R58" s="2">
+      <c r="R58" s="14">
         <f>LOG(L58/K58+1,AB$3)</f>
         <v>24.470820082295933</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="15">
         <f>LOG(M58*N58/K58+1,AC$3)</f>
         <v>17.855613526746183</v>
       </c>
-      <c r="U58" s="7">
-        <f>(P58+Q58)/2</f>
+      <c r="U58" s="20">
+        <f t="shared" si="5"/>
         <v>31.931671531231402</v>
       </c>
-      <c r="V58" s="2">
-        <f>(P58+Q58+R58)/3</f>
+      <c r="V58" s="14">
+        <f t="shared" si="6"/>
         <v>29.444721048252912</v>
       </c>
-      <c r="W58" s="2">
-        <f>(P58+Q58+S58)/3</f>
+      <c r="W58" s="15">
+        <f t="shared" si="7"/>
         <v>27.239652196402997</v>
       </c>
-      <c r="X58" s="2">
-        <f>(P58*2+Q58*2+R58+S58)/6</f>
+      <c r="X58" s="15">
+        <f t="shared" si="8"/>
         <v>28.342186622327954</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="6">
         <v>2022</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="11">
         <v>4300000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="11">
         <v>108500000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="11">
         <v>433700000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="11">
         <v>801800000</v>
       </c>
-      <c r="I59" s="4">
-        <f>H59*1.17</f>
+      <c r="I59" s="9">
+        <f t="shared" si="9"/>
         <v>938106000</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="14">
         <v>3320</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="16">
         <v>37260</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="17">
         <v>57.68</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="18">
         <v>1.4</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="15">
         <v>22</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="19">
         <f>LOG((E59+F59)/(G59+F59)+1,Z$3)</f>
         <v>20.660220983003367</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="20">
         <f>LOG(J59*I59/K59^2,AA$3)</f>
         <v>47.087253535603892</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R59" s="14">
         <f>LOG(L59/K59+1,AB$3)</f>
         <v>20.969240464372835</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="15">
         <f>LOG(M59*N59/K59+1,AC$3)</f>
         <v>10.894048731761782</v>
       </c>
-      <c r="U59" s="7">
-        <f>(P59+Q59)/2</f>
+      <c r="U59" s="20">
+        <f t="shared" si="5"/>
         <v>33.873737259303631</v>
       </c>
-      <c r="V59" s="2">
-        <f>(P59+Q59+R59)/3</f>
+      <c r="V59" s="14">
+        <f t="shared" si="6"/>
         <v>29.572238327660031</v>
       </c>
-      <c r="W59" s="2">
-        <f>(P59+Q59+S59)/3</f>
+      <c r="W59" s="15">
+        <f t="shared" si="7"/>
         <v>26.213841083456348</v>
       </c>
-      <c r="X59" s="2">
-        <f>(P59*2+Q59*2+R59+S59)/6</f>
+      <c r="X59" s="15">
+        <f t="shared" si="8"/>
         <v>27.893039705558191</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="6">
         <v>2023</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="12">
         <v>5500000</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="12">
         <v>12600000</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="12">
         <v>219892056</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="12">
         <v>291098453</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="9">
         <f>H60</f>
         <v>291098453</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="14">
         <v>689</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="16">
         <v>15107</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="17">
         <v>1.68</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="18">
         <v>1.4</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="15">
         <v>10</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="19">
         <f>LOG((E60+F60)/(G60+F60)+1,Z$3)</f>
         <v>8.1952392347882412</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="20">
         <f>LOG(J60*I60/K60^2,AA$3)</f>
         <v>41.368024486741547</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R60" s="14">
         <f>LOG(L60/K60+1,AB$3)</f>
         <v>1.507450778516348</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="15">
         <f>LOG(M60*N60/K60+1,AC$3)</f>
         <v>12.212639395964311</v>
       </c>
-      <c r="U60" s="7">
-        <f>(P60+Q60)/2</f>
+      <c r="U60" s="20">
+        <f t="shared" si="5"/>
         <v>24.781631860764893</v>
       </c>
-      <c r="V60" s="2">
-        <f>(P60+Q60+R60)/3</f>
+      <c r="V60" s="14">
+        <f t="shared" si="6"/>
         <v>17.023571500015379</v>
       </c>
-      <c r="W60" s="2">
-        <f>(P60+Q60+S60)/3</f>
+      <c r="W60" s="15">
+        <f t="shared" si="7"/>
         <v>20.591967705831365</v>
       </c>
-      <c r="X60" s="2">
-        <f>(P60*2+Q60*2+R60+S60)/6</f>
+      <c r="X60" s="15">
+        <f t="shared" si="8"/>
         <v>18.807769602923372</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="6">
         <v>2022</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="11">
         <v>5800000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="11">
         <v>113800000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="11">
         <v>432100000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="11">
         <v>554000000</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="9">
         <f>H61*1.17</f>
         <v>648180000</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="14">
         <v>3255</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="16">
         <v>151840</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="17">
         <v>0</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="18">
         <v>1.4</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="15">
         <v>16</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="19">
         <f>LOG((E61+F61)/(G61+F61)+1,Z$3)</f>
         <v>21.655247406647916</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="20">
         <f>LOG(J61*I61/K61^2,AA$3)</f>
         <v>27.562838615831257</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R61" s="14">
         <f>LOG(L61/K61+1,AB$3)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="15">
         <f>LOG(M61*N61/K61+1,AC$3)</f>
         <v>1.9448704412460036</v>
       </c>
-      <c r="U61" s="7">
-        <f>(P61+Q61)/2</f>
+      <c r="U61" s="20">
+        <f t="shared" si="5"/>
         <v>24.609043011239585</v>
       </c>
-      <c r="V61" s="2">
-        <f>(P61+Q61+R61)/3</f>
+      <c r="V61" s="14">
+        <f t="shared" si="6"/>
         <v>16.406028674159725</v>
       </c>
-      <c r="W61" s="2">
-        <f>(P61+Q61+S61)/3</f>
+      <c r="W61" s="15">
+        <f t="shared" si="7"/>
         <v>17.054318821241726</v>
       </c>
-      <c r="X61" s="2">
-        <f>(P61*2+Q61*2+R61+S61)/6</f>
+      <c r="X61" s="15">
+        <f t="shared" si="8"/>
         <v>16.730173747700725</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:24">
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:24">
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="5:8">
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="5:8">
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="5:8">
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X67">

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2F309-21E5-4873-BCA3-C935B9AD8661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B49259-97C3-4F42-BF14-F5599CFDA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -64,40 +64,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
-  <si>
-    <t>ETH Zurich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Total income</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Trento</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tuition fees</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Edinburgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University College London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Oxford</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,18 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TU Delft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Cambridge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aarhus University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,26 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Warwick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King's College London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Bristol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Liverpool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Birmingham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Public Grants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Queen Mary University of London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Royal Holloway University of London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cardiff University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,22 +118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Southampton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Bath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Sheffield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen's University Belfast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Leeds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,18 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Open University UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Manchester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Nottingham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sapienza University of Rome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,70 +154,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Politecnico di Milano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bocconi University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Pisa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Zurich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Amsterdam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radboud University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VU Amsterdam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TU Eindhoven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utrecht University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Copenhagen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT University of Copenhagen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aalborg University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Southern Denmark (SDU)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,22 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Groningen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maastricht University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tilburg University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Twente</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nature Index share</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,14 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scuola Superiore Sant'Anna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Padova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NSR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,14 +247,6 @@
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Università della Svizzera italiana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Bern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KU Leuven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Tartu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +305,214 @@
   </si>
   <si>
     <t>LT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erasmus University Rotterdam (EUR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wageningen University &amp; Research (WUR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Iceland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Helsinki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aalto University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tampere University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Turku (UTU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Jyväskylä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Oulu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Eastern Finland (UEF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT University of Copenhagen (ITU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swiss Federal Institute of Technology Lausanne (EPFL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swiss Federal Institute of Technology Zurich (ETH Zurich)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Bern (UniBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imperial College London (ICL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delft University of Technology (TU Delft)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical University of Denmark (DTU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Copenhagen (UCPH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sant'Anna School of Advanced Studies of Pisa (SSSA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aarhus University (AU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eindhoven University of Technology (TU/e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Edinburgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Università della Svizzera Italiana (USI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Zurich (UZH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Padova (UNIPD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radboud University Nijmegen (RU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Aalborg (AAU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utrecht University (UU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Amsterdam (UvA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Groningen (RUG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Twente (UTwente)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Trento (UNITN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catholic University of Leuven (KU Leuven)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maastricht University (UM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Tartu (UT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Bristol (UoB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polytechnic University of Milan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Southampton (Soton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King's College London (KCL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pisa (UNIPI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Warwick (Warwick)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Birmingham (UB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Manchester (UoM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Sheffield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of London - Royal Holloway (RHUL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's University Belfast (QUB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen Mary University of London (QMUL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Nottingham (UoN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Open University (OU)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="[$£-809]#,##0"/>
     <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0"/>
@@ -483,6 +531,7 @@
     <numFmt numFmtId="183" formatCode="#,##0\ [$kr-41D]"/>
     <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="185" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="187" formatCode="#,##0\ [$kr-40F]"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -615,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +756,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,39 +1078,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC18" sqref="AC18"/>
+      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.2109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.78515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.0703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.0703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.2109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.78515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.2109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.78515625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.35546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.0703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.78515625" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.78515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.78515625" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.78515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.78515625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="1.78515625" style="3" customWidth="1"/>
     <col min="21" max="21" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.35546875" style="14" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="1.78515625" style="3" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1064,90 +1119,90 @@
   <sheetData>
     <row r="1" spans="1:29" s="20" customFormat="1" ht="14.6" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="26" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="28" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="29" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="21"/>
       <c r="Z1" s="20" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6">
         <v>2022</v>
@@ -1183,49 +1238,49 @@
       </c>
       <c r="P2" s="18">
         <f>LOG((E2+F2)/(G2+F2)+1,Z$3)</f>
-        <v>71.621224819744498</v>
+        <v>67.580245544722359</v>
       </c>
       <c r="Q2" s="19">
         <f>LOG(J2*I2/K2^2,AA$3)</f>
-        <v>51.19521031611341</v>
+        <v>51.274147480856534</v>
       </c>
       <c r="R2" s="13">
         <f>LOG(L2/K2+1,AB$3)</f>
-        <v>2.8574617477466067</v>
+        <v>2.9410749944963928</v>
       </c>
       <c r="S2" s="14">
         <f>LOG(M2*N2/K2+1,AC$3)</f>
-        <v>688.31045475310361</v>
+        <v>766.31471333683919</v>
       </c>
       <c r="U2" s="19">
         <f>(P2+Q2)/2</f>
-        <v>61.408217567928958</v>
+        <v>59.42719651278945</v>
       </c>
       <c r="V2" s="13">
         <f>(P2+Q2+R2)/3</f>
-        <v>41.891298961201507</v>
+        <v>40.598489340025097</v>
       </c>
       <c r="W2" s="14">
         <f>(P2+Q2+S2)/3</f>
-        <v>270.37562996298715</v>
+        <v>295.05636878747271</v>
       </c>
       <c r="X2" s="14">
         <f>(P2*2+Q2*2+R2+S2)/6</f>
-        <v>156.13346446209434</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+        <v>167.82742906374889</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6">
         <v>2023</v>
@@ -1263,55 +1318,55 @@
       </c>
       <c r="P3" s="18">
         <f>LOG((E3+F3)/(G3+F3)+1,Z$3)</f>
-        <v>73.129763162090185</v>
+        <v>69.003669841722711</v>
       </c>
       <c r="Q3" s="19">
         <f>LOG(J3*I3/K3^2,AA$3)</f>
-        <v>63.23893367799608</v>
+        <v>63.336440888047491</v>
       </c>
       <c r="R3" s="13">
         <f>LOG(L3/K3+1,AB$3)</f>
-        <v>210.61748445464315</v>
+        <v>216.78044069068477</v>
       </c>
       <c r="S3" s="14">
         <f>LOG(M3*N3/K3+1,AC$3)</f>
-        <v>402.52998368261262</v>
+        <v>448.14755743593912</v>
       </c>
       <c r="U3" s="19">
         <f>(P3+Q3)/2</f>
-        <v>68.184348420043136</v>
+        <v>66.170055364885101</v>
       </c>
       <c r="V3" s="13">
         <f>(P3+Q3+R3)/3</f>
-        <v>115.66206043157648</v>
+        <v>116.37351714015165</v>
       </c>
       <c r="W3" s="14">
         <f>(P3+Q3+S3)/3</f>
-        <v>179.63289350756631</v>
+        <v>193.49588938856979</v>
       </c>
       <c r="X3" s="14">
         <f>(P3*2+Q3*2+R3+S3)/6</f>
-        <v>147.64747696957139</v>
+        <v>154.93470326436071</v>
       </c>
       <c r="Z3" s="5">
-        <v>1.0095321475419805</v>
+        <v>1.0101049953428047</v>
       </c>
       <c r="AA3" s="5">
-        <v>1.1764409890731882</v>
+        <v>1.1761467261013918</v>
       </c>
       <c r="AB3" s="5">
-        <v>1.0000699498305252</v>
+        <v>1.0000679611253105</v>
       </c>
       <c r="AC3" s="5">
-        <v>1.0000704752422762</v>
+        <v>1.0000633012406319</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6">
         <v>2023</v>
@@ -1349,211 +1404,211 @@
       </c>
       <c r="P4" s="18">
         <f>LOG((E4+F4)/(G4+F4)+1,Z$3)</f>
-        <v>76.574871962714667</v>
+        <v>72.254400323649662</v>
       </c>
       <c r="Q4" s="19">
         <f>LOG(J4*I4/K4^2,AA$3)</f>
-        <v>61.999393296217193</v>
+        <v>62.094989276629775</v>
       </c>
       <c r="R4" s="13">
         <f>LOG(L4/K4+1,AB$3)</f>
-        <v>196.64466556901232</v>
+        <v>202.39875797539963</v>
       </c>
       <c r="S4" s="14">
         <f>LOG(M4*N4/K4+1,AC$3)</f>
-        <v>264.06287787607499</v>
+        <v>293.98836987749934</v>
       </c>
       <c r="U4" s="19">
         <f>(P4+Q4)/2</f>
-        <v>69.28713262946593</v>
+        <v>67.174694800139719</v>
       </c>
       <c r="V4" s="13">
         <f>(P4+Q4+R4)/3</f>
-        <v>111.73964360931473</v>
+        <v>112.24938252522635</v>
       </c>
       <c r="W4" s="14">
         <f>(P4+Q4+S4)/3</f>
-        <v>134.21238104500227</v>
+        <v>142.77925315925958</v>
       </c>
       <c r="X4" s="14">
         <f>(P4*2+Q4*2+R4+S4)/6</f>
-        <v>122.97601232715851</v>
-      </c>
-      <c r="Z4" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+        <v>127.51431784224297</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>100305000</v>
-      </c>
-      <c r="G5" s="9">
-        <v>18649000</v>
-      </c>
-      <c r="H5" s="9">
-        <v>944209000</v>
+        <v>2023</v>
+      </c>
+      <c r="E5" s="10">
+        <v>132400000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>207600000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>390100000</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2518300000</v>
       </c>
       <c r="I5" s="8">
-        <f>H5*1.02</f>
-        <v>963093180</v>
+        <f>H5*1.17</f>
+        <v>2946411000</v>
       </c>
       <c r="J5" s="13">
-        <v>3195</v>
+        <v>5515</v>
       </c>
       <c r="K5" s="15">
-        <v>4731</v>
+        <v>22610</v>
       </c>
       <c r="L5" s="16">
-        <v>92.49</v>
+        <v>366.52</v>
       </c>
       <c r="M5" s="17">
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="N5" s="14">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P5" s="18">
         <f>LOG((E5+F5)/(G5+F5)+1,Z$3)</f>
-        <v>64.458375080018612</v>
+        <v>44.79098028643034</v>
       </c>
       <c r="Q5" s="19">
         <f>LOG(J5*I5/K5^2,AA$3)</f>
-        <v>72.810295117842387</v>
+        <v>63.896418078514735</v>
       </c>
       <c r="R5" s="13">
         <f>LOG(L5/K5+1,AB$3)</f>
-        <v>276.79570907820056</v>
+        <v>236.6218183983687</v>
       </c>
       <c r="S5" s="14">
         <f>LOG(M5*N5/K5+1,AC$3)</f>
-        <v>3.2988910968323948</v>
+        <v>106.95994126584954</v>
       </c>
       <c r="U5" s="19">
         <f>(P5+Q5)/2</f>
-        <v>68.634335098930507</v>
+        <v>54.343699182472534</v>
       </c>
       <c r="V5" s="13">
         <f>(P5+Q5+R5)/3</f>
-        <v>138.0214597586872</v>
+        <v>115.10307225443792</v>
       </c>
       <c r="W5" s="14">
         <f>(P5+Q5+S5)/3</f>
-        <v>46.855853764897802</v>
+        <v>71.882446543598192</v>
       </c>
       <c r="X5" s="14">
         <f>(P5*2+Q5*2+R5+S5)/6</f>
-        <v>92.438656761792501</v>
+        <v>93.492759399018055</v>
       </c>
       <c r="Z5" s="4">
         <f>AVERAGE(P:P)</f>
-        <v>49.999994316926788</v>
+        <v>49.999985979723654</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" ref="AA5:AB5" si="0">AVERAGE(Q:Q)</f>
-        <v>49.999961695758039</v>
+        <v>49.999999760498312</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>49.999989085604753</v>
+        <v>49.99996249965475</v>
       </c>
       <c r="AC5" s="4">
         <f>AVERAGE(S:S)</f>
-        <v>50.000014953861196</v>
+        <v>50.000023617624421</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E6" s="10">
-        <v>132400000</v>
-      </c>
-      <c r="F6" s="10">
-        <v>207600000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>390100000</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2518300000</v>
+        <v>2022</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>100305000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>18649000</v>
+      </c>
+      <c r="H6" s="9">
+        <v>944209000</v>
       </c>
       <c r="I6" s="8">
-        <f>H6*1.17</f>
-        <v>2946411000</v>
+        <f>H6*1.02</f>
+        <v>963093180</v>
       </c>
       <c r="J6" s="13">
-        <v>5515</v>
+        <v>3195</v>
       </c>
       <c r="K6" s="15">
-        <v>22610</v>
+        <v>4731</v>
       </c>
       <c r="L6" s="16">
-        <v>366.52</v>
+        <v>92.49</v>
       </c>
       <c r="M6" s="17">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N6" s="14">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="P6" s="18">
         <f>LOG((E6+F6)/(G6+F6)+1,Z$3)</f>
-        <v>47.469269209272611</v>
+        <v>60.821534765495649</v>
       </c>
       <c r="Q6" s="19">
         <f>LOG(J6*I6/K6^2,AA$3)</f>
-        <v>63.79804877686535</v>
+        <v>72.922560273610358</v>
       </c>
       <c r="R6" s="13">
         <f>LOG(L6/K6+1,AB$3)</f>
-        <v>229.89478201706297</v>
+        <v>284.89513086072793</v>
       </c>
       <c r="S6" s="14">
         <f>LOG(M6*N6/K6+1,AC$3)</f>
-        <v>96.07233755500296</v>
+        <v>3.6727450058932423</v>
       </c>
       <c r="U6" s="19">
         <f>(P6+Q6)/2</f>
-        <v>55.633658993068977</v>
+        <v>66.872047519553007</v>
       </c>
       <c r="V6" s="13">
         <f>(P6+Q6+R6)/3</f>
-        <v>113.72070000106697</v>
+        <v>139.54640863327799</v>
       </c>
       <c r="W6" s="14">
         <f>(P6+Q6+S6)/3</f>
-        <v>69.113218513713647</v>
+        <v>45.805613348333083</v>
       </c>
       <c r="X6" s="14">
         <f>(P6*2+Q6*2+R6+S6)/6</f>
-        <v>91.416959257390303</v>
+        <v>92.676010990805537</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
         <v>2023</v>
@@ -1591,43 +1646,43 @@
       </c>
       <c r="P7" s="18">
         <f>LOG((E7+F7)/(G7+F7)+1,Z$3)</f>
-        <v>47.075285460971635</v>
+        <v>44.419225705050017</v>
       </c>
       <c r="Q7" s="19">
         <f>LOG(J7*I7/K7^2,AA$3)</f>
-        <v>63.489820568225525</v>
+        <v>63.587714617195338</v>
       </c>
       <c r="R7" s="13">
         <f>LOG(L7/K7+1,AB$3)</f>
-        <v>196.8971438979622</v>
+        <v>202.65862416626371</v>
       </c>
       <c r="S7" s="14">
         <f>LOG(M7*N7/K7+1,AC$3)</f>
-        <v>93.286618531889943</v>
+        <v>103.85852465958926</v>
       </c>
       <c r="U7" s="19">
         <f>(P7+Q7)/2</f>
-        <v>55.282553014598577</v>
+        <v>54.003470161122678</v>
       </c>
       <c r="V7" s="13">
         <f>(P7+Q7+R7)/3</f>
-        <v>102.48741664238645</v>
+        <v>103.55518816283636</v>
       </c>
       <c r="W7" s="14">
         <f>(P7+Q7+S7)/3</f>
-        <v>67.950574853695699</v>
+        <v>70.621821660611545</v>
       </c>
       <c r="X7" s="14">
         <f>(P7*2+Q7*2+R7+S7)/6</f>
-        <v>85.218995748041067</v>
+        <v>87.088504911723945</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C8" s="6">
         <v>2023</v>
@@ -1665,187 +1720,187 @@
       </c>
       <c r="P8" s="18">
         <f>LOG((E8+F8)/(G8+F8)+1,Z$3)</f>
-        <v>33.189428055136361</v>
+        <v>31.31682965629313</v>
       </c>
       <c r="Q8" s="19">
         <f>LOG(J8*I8/K8^2,AA$3)</f>
-        <v>58.24822612245049</v>
+        <v>58.338038231689453</v>
       </c>
       <c r="R8" s="13">
         <f>LOG(L8/K8+1,AB$3)</f>
-        <v>143.30273925958508</v>
+        <v>147.49597379967332</v>
       </c>
       <c r="S8" s="14">
         <f>LOG(M8*N8/K8+1,AC$3)</f>
-        <v>125.54586432226951</v>
+        <v>139.77361866928968</v>
       </c>
       <c r="U8" s="19">
         <f>(P8+Q8)/2</f>
-        <v>45.718827088793425</v>
+        <v>44.827433943991295</v>
       </c>
       <c r="V8" s="13">
         <f>(P8+Q8+R8)/3</f>
-        <v>78.246797812390639</v>
+        <v>79.050280562551976</v>
       </c>
       <c r="W8" s="14">
         <f>(P8+Q8+S8)/3</f>
-        <v>72.32783949995212</v>
+        <v>76.476162185757417</v>
       </c>
       <c r="X8" s="14">
         <f>(P8*2+Q8*2+R8+S8)/6</f>
-        <v>75.287318656171379</v>
+        <v>77.763221374154696</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C9" s="6">
         <v>2022</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>2802082000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>85816000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5801215000</v>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>575900000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>71400000</v>
+      </c>
+      <c r="H9" s="11">
+        <v>913700000</v>
       </c>
       <c r="I9" s="8">
-        <f>H9*0.13</f>
-        <v>754157950</v>
+        <f>H9</f>
+        <v>913700000</v>
       </c>
       <c r="J9" s="13">
-        <v>3382</v>
+        <v>6351</v>
       </c>
       <c r="K9" s="15">
-        <v>9957</v>
+        <v>26978</v>
       </c>
       <c r="L9" s="16">
-        <v>77.959999999999994</v>
+        <v>80.08</v>
       </c>
       <c r="M9" s="17">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="N9" s="14">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="P9" s="18">
         <f>LOG((E9+F9)/(G9+F9)+1,Z$3)</f>
-        <v>71.48493696790554</v>
+        <v>63.29798960088155</v>
       </c>
       <c r="Q9" s="19">
         <f>LOG(J9*I9/K9^2,AA$3)</f>
-        <v>62.496381997485699</v>
+        <v>55.372451826587053</v>
       </c>
       <c r="R9" s="13">
         <f>LOG(L9/K9+1,AB$3)</f>
-        <v>111.50059262925949</v>
+        <v>43.613881361766985</v>
       </c>
       <c r="S9" s="14">
         <f>LOG(M9*N9/K9+1,AC$3)</f>
-        <v>50.075621832413937</v>
+        <v>155.0033581238711</v>
       </c>
       <c r="U9" s="19">
         <f>(P9+Q9)/2</f>
-        <v>66.990659482695619</v>
+        <v>59.335220713734302</v>
       </c>
       <c r="V9" s="13">
         <f>(P9+Q9+R9)/3</f>
-        <v>81.827303864883575</v>
+        <v>54.094774263078534</v>
       </c>
       <c r="W9" s="14">
         <f>(P9+Q9+S9)/3</f>
-        <v>61.352313599268392</v>
+        <v>91.224599850446566</v>
       </c>
       <c r="X9" s="14">
         <f>(P9*2+Q9*2+R9+S9)/6</f>
-        <v>71.58980873207598</v>
+        <v>72.65968705676255</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6">
         <v>2022</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>575900000</v>
-      </c>
-      <c r="G10" s="11">
-        <v>71400000</v>
-      </c>
-      <c r="H10" s="11">
-        <v>913700000</v>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>2802082000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>85816000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5801215000</v>
       </c>
       <c r="I10" s="8">
-        <f>H10</f>
-        <v>913700000</v>
+        <f>H10*0.13</f>
+        <v>754157950</v>
       </c>
       <c r="J10" s="13">
-        <v>6351</v>
+        <v>3382</v>
       </c>
       <c r="K10" s="15">
-        <v>26978</v>
+        <v>9957</v>
       </c>
       <c r="L10" s="16">
-        <v>80.08</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="M10" s="17">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="N10" s="14">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="P10" s="18">
         <f>LOG((E10+F10)/(G10+F10)+1,Z$3)</f>
-        <v>67.082910209944146</v>
+        <v>67.451647262366521</v>
       </c>
       <c r="Q10" s="19">
         <f>LOG(J10*I10/K10^2,AA$3)</f>
-        <v>55.287205273171452</v>
+        <v>62.592744277689718</v>
       </c>
       <c r="R10" s="13">
         <f>LOG(L10/K10+1,AB$3)</f>
-        <v>42.373961186034862</v>
+        <v>114.7632527756673</v>
       </c>
       <c r="S10" s="14">
         <f>LOG(M10*N10/K10+1,AC$3)</f>
-        <v>139.22534705607737</v>
+        <v>55.750549079535432</v>
       </c>
       <c r="U10" s="19">
         <f>(P10+Q10)/2</f>
-        <v>61.185057741557799</v>
+        <v>65.022195770028119</v>
       </c>
       <c r="V10" s="13">
         <f>(P10+Q10+R10)/3</f>
-        <v>54.914692223050146</v>
+        <v>81.602548105241183</v>
       </c>
       <c r="W10" s="14">
         <f>(P10+Q10+S10)/3</f>
-        <v>87.198487513064322</v>
+        <v>61.931646873197224</v>
       </c>
       <c r="X10" s="14">
         <f>(P10*2+Q10*2+R10+S10)/6</f>
-        <v>71.056589868057245</v>
+        <v>71.767097489219211</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6">
         <v>2022</v>
@@ -1881,43 +1936,43 @@
       </c>
       <c r="P11" s="18">
         <f>LOG((E11+F11)/(G11+F11)+1,Z$3)</f>
-        <v>72.178780887881473</v>
+        <v>68.106343444953453</v>
       </c>
       <c r="Q11" s="19">
         <f>LOG(J11*I11/K11^2,AA$3)</f>
-        <v>56.500588566368691</v>
+        <v>56.58770601818123</v>
       </c>
       <c r="R11" s="13">
         <f>LOG(L11/K11+1,AB$3)</f>
-        <v>107.92722055328287</v>
+        <v>111.085318935617</v>
       </c>
       <c r="S11" s="14">
         <f>LOG(M11*N11/K11+1,AC$3)</f>
-        <v>44.500262111334912</v>
+        <v>49.543349759947922</v>
       </c>
       <c r="U11" s="19">
         <f>(P11+Q11)/2</f>
-        <v>64.339684727125075</v>
+        <v>62.347024731567345</v>
       </c>
       <c r="V11" s="13">
         <f>(P11+Q11+R11)/3</f>
-        <v>78.868863335844338</v>
+        <v>78.593122799583895</v>
       </c>
       <c r="W11" s="14">
         <f>(P11+Q11+S11)/3</f>
-        <v>57.726543855195018</v>
+        <v>58.079133074360868</v>
       </c>
       <c r="X11" s="14">
         <f>(P11*2+Q11*2+R11+S11)/6</f>
-        <v>68.297703595519678</v>
+        <v>68.336127936972389</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6">
         <v>2022</v>
@@ -1953,253 +2008,253 @@
       </c>
       <c r="P12" s="18">
         <f>LOG((E12+F12)/(G12+F12)+1,Z$3)</f>
-        <v>69.698916511913154</v>
+        <v>65.766396817856005</v>
       </c>
       <c r="Q12" s="19">
         <f>LOG(J12*I12/K12^2,AA$3)</f>
-        <v>65.921279671578063</v>
+        <v>66.022922752666744</v>
       </c>
       <c r="R12" s="13">
         <f>LOG(L12/K12+1,AB$3)</f>
-        <v>49.663226747983344</v>
+        <v>51.116440823637852</v>
       </c>
       <c r="S12" s="14">
         <f>LOG(M12*N12/K12+1,AC$3)</f>
-        <v>82.921376014710845</v>
+        <v>92.318618802619426</v>
       </c>
       <c r="U12" s="19">
         <f>(P12+Q12)/2</f>
-        <v>67.810098091745601</v>
+        <v>65.894659785261382</v>
       </c>
       <c r="V12" s="13">
         <f>(P12+Q12+R12)/3</f>
-        <v>61.761140977158185</v>
+        <v>60.968586798053536</v>
       </c>
       <c r="W12" s="14">
         <f>(P12+Q12+S12)/3</f>
-        <v>72.84719073273402</v>
+        <v>74.702646124380735</v>
       </c>
       <c r="X12" s="14">
         <f>(P12*2+Q12*2+R12+S12)/6</f>
-        <v>67.304165854946106</v>
+        <v>67.835616461217128</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="9">
-        <v>14372360</v>
-      </c>
-      <c r="F13" s="9">
-        <v>509643762</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <v>751869907</v>
+        <v>2023</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4630000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>239000000</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>384000000</v>
       </c>
       <c r="I13" s="8">
-        <f>H13*1.02</f>
-        <v>766907305.13999999</v>
+        <f>H13</f>
+        <v>384000000</v>
       </c>
       <c r="J13" s="13">
-        <v>5417</v>
+        <v>3611</v>
       </c>
       <c r="K13" s="15">
-        <v>12896</v>
+        <v>13941</v>
       </c>
       <c r="L13" s="16">
-        <v>100.26</v>
+        <v>49.92</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N13" s="14">
+        <v>35</v>
       </c>
       <c r="P13" s="18">
         <f>LOG((E13+F13)/(G13+F13)+1,Z$3)</f>
-        <v>74.538721255105827</v>
+        <v>69.899254474448526</v>
       </c>
       <c r="Q13" s="19">
         <f>LOG(J13*I13/K13^2,AA$3)</f>
-        <v>62.315182982318163</v>
+        <v>54.68760441583094</v>
       </c>
       <c r="R13" s="13">
         <f>LOG(L13/K13+1,AB$3)</f>
-        <v>110.71805032199809</v>
+        <v>52.596693257006741</v>
       </c>
       <c r="S13" s="14">
         <f>LOG(M13*N13/K13+1,AC$3)</f>
-        <v>0</v>
+        <v>90.960450426690286</v>
       </c>
       <c r="U13" s="19">
         <f>(P13+Q13)/2</f>
-        <v>68.426952118711995</v>
+        <v>62.293429445139736</v>
       </c>
       <c r="V13" s="13">
         <f>(P13+Q13+R13)/3</f>
-        <v>82.523984853140689</v>
+        <v>59.061184049095402</v>
       </c>
       <c r="W13" s="14">
         <f>(P13+Q13+S13)/3</f>
-        <v>45.617968079141328</v>
+        <v>71.849103105656582</v>
       </c>
       <c r="X13" s="14">
         <f>(P13*2+Q13*2+R13+S13)/6</f>
-        <v>64.070976466141005</v>
+        <v>65.455143577375992</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6">
         <v>2022</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>4234471000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>64976000</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7316000000</v>
+      <c r="E14" s="9">
+        <v>14372360</v>
+      </c>
+      <c r="F14" s="9">
+        <v>509643762</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>751869907</v>
       </c>
       <c r="I14" s="8">
-        <f>H14*0.13</f>
-        <v>951080000</v>
+        <f>H14*1.02</f>
+        <v>766907305.13999999</v>
       </c>
       <c r="J14" s="13">
-        <v>4846</v>
+        <v>5417</v>
       </c>
       <c r="K14" s="15">
-        <v>26090</v>
+        <v>12896</v>
       </c>
       <c r="L14" s="16">
-        <v>125.28</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="N14" s="14">
-        <v>33</v>
+        <v>100.26</v>
       </c>
       <c r="P14" s="18">
         <f>LOG((E14+F14)/(G14+F14)+1,Z$3)</f>
-        <v>72.263300246019483</v>
+        <v>70.333132359682494</v>
       </c>
       <c r="Q14" s="19">
         <f>LOG(J14*I14/K14^2,AA$3)</f>
-        <v>54.281483467613612</v>
+        <v>62.411265874344586</v>
       </c>
       <c r="R14" s="13">
         <f>LOG(L14/K14+1,AB$3)</f>
-        <v>68.485016057635193</v>
+        <v>113.95781220805971</v>
       </c>
       <c r="S14" s="14">
         <f>LOG(M14*N14/K14+1,AC$3)</f>
-        <v>50.165911108979856</v>
+        <v>0</v>
       </c>
       <c r="U14" s="19">
         <f>(P14+Q14)/2</f>
-        <v>63.272391856816547</v>
+        <v>66.372199117013537</v>
       </c>
       <c r="V14" s="13">
         <f>(P14+Q14+R14)/3</f>
-        <v>65.009933257089429</v>
+        <v>82.23407014736226</v>
       </c>
       <c r="W14" s="14">
         <f>(P14+Q14+S14)/3</f>
-        <v>58.903564940870979</v>
+        <v>44.248132744675694</v>
       </c>
       <c r="X14" s="14">
         <f>(P14*2+Q14*2+R14+S14)/6</f>
-        <v>61.956749098980204</v>
+        <v>63.241101446018973</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6">
         <v>2022</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <v>314100000</v>
-      </c>
-      <c r="G15" s="11">
-        <v>28100000</v>
-      </c>
-      <c r="H15" s="11">
-        <v>477800000</v>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>4234471000</v>
+      </c>
+      <c r="G15" s="7">
+        <v>64976000</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7316000000</v>
       </c>
       <c r="I15" s="8">
-        <f>H15</f>
-        <v>477800000</v>
+        <f>H15*0.13</f>
+        <v>951080000</v>
       </c>
       <c r="J15" s="13">
-        <v>2395.6</v>
+        <v>4846</v>
       </c>
       <c r="K15" s="15">
-        <v>12876</v>
+        <v>26090</v>
       </c>
       <c r="L15" s="16">
-        <v>59.86</v>
+        <v>125.28</v>
       </c>
       <c r="M15" s="17">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="N15" s="14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P15" s="18">
         <f>LOG((E15+F15)/(G15+F15)+1,Z$3)</f>
-        <v>68.643661326415483</v>
+        <v>68.186094091366215</v>
       </c>
       <c r="Q15" s="19">
         <f>LOG(J15*I15/K15^2,AA$3)</f>
-        <v>54.401168821447442</v>
+        <v>54.365179312918805</v>
       </c>
       <c r="R15" s="13">
         <f>LOG(L15/K15+1,AB$3)</f>
-        <v>66.309645817741369</v>
+        <v>70.488981482826219</v>
       </c>
       <c r="S15" s="14">
         <f>LOG(M15*N15/K15+1,AC$3)</f>
-        <v>45.771007037165532</v>
+        <v>55.851070582022018</v>
       </c>
       <c r="U15" s="19">
         <f>(P15+Q15)/2</f>
-        <v>61.522415073931462</v>
+        <v>61.275636702142506</v>
       </c>
       <c r="V15" s="13">
         <f>(P15+Q15+R15)/3</f>
-        <v>63.118158655201434</v>
+        <v>64.346751629037087</v>
       </c>
       <c r="W15" s="14">
         <f>(P15+Q15+S15)/3</f>
-        <v>56.271945728342814</v>
+        <v>59.46744799543567</v>
       </c>
       <c r="X15" s="14">
         <f>(P15*2+Q15*2+R15+S15)/6</f>
-        <v>59.695052191772128</v>
+        <v>61.907099812236375</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6">
         <v>2023</v>
@@ -2237,117 +2292,115 @@
       </c>
       <c r="P16" s="18">
         <f>LOG((E16+F16)/(G16+F16)+1,Z$3)</f>
-        <v>32.959938194221827</v>
+        <v>31.100287965060378</v>
       </c>
       <c r="Q16" s="19">
         <f>LOG(J16*I16/K16^2,AA$3)</f>
-        <v>52.13335654541563</v>
+        <v>52.213740224451762</v>
       </c>
       <c r="R16" s="13">
         <f>LOG(L16/K16+1,AB$3)</f>
-        <v>44.193464825014274</v>
+        <v>45.486626170763138</v>
       </c>
       <c r="S16" s="14">
         <f>LOG(M16*N16/K16+1,AC$3)</f>
-        <v>130.87033435273784</v>
+        <v>145.70149568596599</v>
       </c>
       <c r="U16" s="19">
         <f>(P16+Q16)/2</f>
-        <v>42.546647369818729</v>
+        <v>41.657014094756072</v>
       </c>
       <c r="V16" s="13">
         <f>(P16+Q16+R16)/3</f>
-        <v>43.09558652155058</v>
+        <v>42.933551453425089</v>
       </c>
       <c r="W16" s="14">
         <f>(P16+Q16+S16)/3</f>
-        <v>71.9878763641251</v>
+        <v>76.338507958492713</v>
       </c>
       <c r="X16" s="14">
         <f>(P16*2+Q16*2+R16+S16)/6</f>
-        <v>57.541731442837836</v>
+        <v>59.636029705958912</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3581000</v>
-      </c>
-      <c r="F17" s="9">
-        <v>987439000</v>
-      </c>
-      <c r="G17" s="9">
-        <v>33702000</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1570476000</v>
+        <v>2022</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>314100000</v>
+      </c>
+      <c r="G17" s="11">
+        <v>28100000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>477800000</v>
       </c>
       <c r="I17" s="8">
-        <f>H17*1.02</f>
-        <v>1601885520</v>
+        <f>H17</f>
+        <v>477800000</v>
       </c>
       <c r="J17" s="13">
-        <v>4540</v>
+        <v>2395.6</v>
       </c>
       <c r="K17" s="15">
-        <v>27895</v>
+        <v>12876</v>
       </c>
       <c r="L17" s="16">
-        <v>142.5</v>
+        <v>59.86</v>
       </c>
       <c r="M17" s="17">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N17" s="14">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P17" s="18">
         <f>LOG((E17+F17)/(G17+F17)+1,Z$3)</f>
-        <v>71.496616949202448</v>
+        <v>64.770680747267193</v>
       </c>
       <c r="Q17" s="19">
         <f>LOG(J17*I17/K17^2,AA$3)</f>
-        <v>56.265074278442889</v>
+        <v>54.485049207892999</v>
       </c>
       <c r="R17" s="13">
         <f>LOG(L17/K17+1,AB$3)</f>
-        <v>72.846734881678131</v>
+        <v>68.249956928475228</v>
       </c>
       <c r="S17" s="14">
         <f>LOG(M17*N17/K17+1,AC$3)</f>
-        <v>11.593372274705089</v>
+        <v>50.958104580011543</v>
       </c>
       <c r="U17" s="19">
         <f>(P17+Q17)/2</f>
-        <v>63.880845613822672</v>
+        <v>59.627864977580096</v>
       </c>
       <c r="V17" s="13">
         <f>(P17+Q17+R17)/3</f>
-        <v>66.869475369774491</v>
+        <v>62.501895627878469</v>
       </c>
       <c r="W17" s="14">
         <f>(P17+Q17+S17)/3</f>
-        <v>46.451687834116818</v>
+        <v>56.73794484505725</v>
       </c>
       <c r="X17" s="14">
         <f>(P17*2+Q17*2+R17+S17)/6</f>
-        <v>56.660581601945644</v>
+        <v>59.619920236467863</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6">
         <v>2022</v>
@@ -2383,1145 +2436,1137 @@
       </c>
       <c r="P18" s="18">
         <f>LOG((E18+F18)/(G18+F18)+1,Z$3)</f>
-        <v>63.387620494079478</v>
+        <v>59.811193794393532</v>
       </c>
       <c r="Q18" s="19">
         <f>LOG(J18*I18/K18^2,AA$3)</f>
-        <v>50.160232125104784</v>
+        <v>50.237573471733974</v>
       </c>
       <c r="R18" s="13">
         <f>LOG(L18/K18+1,AB$3)</f>
-        <v>21.526895540783478</v>
+        <v>22.156802005857884</v>
       </c>
       <c r="S18" s="14">
         <f>LOG(M18*N18/K18+1,AC$3)</f>
-        <v>90.882478683987671</v>
+        <v>101.18193050698738</v>
       </c>
       <c r="U18" s="19">
         <f>(P18+Q18)/2</f>
-        <v>56.773926309592127</v>
+        <v>55.024383633063749</v>
       </c>
       <c r="V18" s="13">
         <f>(P18+Q18+R18)/3</f>
-        <v>45.024916053322578</v>
+        <v>44.068523090661792</v>
       </c>
       <c r="W18" s="14">
         <f>(P18+Q18+S18)/3</f>
-        <v>68.14344376772398</v>
+        <v>70.410232591038294</v>
       </c>
       <c r="X18" s="14">
         <f>(P18*2+Q18*2+R18+S18)/6</f>
-        <v>56.584179910523268</v>
+        <v>57.239377840850047</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3158729</v>
-      </c>
-      <c r="F19" s="9">
-        <v>679383671</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <v>825582486</v>
+        <v>2022</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>2660597000</v>
+      </c>
+      <c r="G19" s="12">
+        <v>703808000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>5425973000</v>
       </c>
       <c r="I19" s="8">
-        <f>H19*1.02</f>
-        <v>842094135.72000003</v>
+        <f>H19*0.08</f>
+        <v>434077840</v>
       </c>
       <c r="J19" s="13">
-        <v>3038.9</v>
+        <v>843</v>
       </c>
       <c r="K19" s="15">
-        <v>18261</v>
+        <v>13583</v>
       </c>
       <c r="L19" s="16">
-        <v>104.12</v>
+        <v>54.93</v>
+      </c>
+      <c r="M19" s="17">
+        <v>2</v>
+      </c>
+      <c r="N19" s="14">
+        <v>30</v>
       </c>
       <c r="P19" s="18">
         <f>LOG((E19+F19)/(G19+F19)+1,Z$3)</f>
-        <v>73.307572910153723</v>
+        <v>57.952097265680727</v>
       </c>
       <c r="Q19" s="19">
         <f>LOG(J19*I19/K19^2,AA$3)</f>
-        <v>55.052002451873179</v>
+        <v>46.797238214544834</v>
       </c>
       <c r="R19" s="13">
         <f>LOG(L19/K19+1,AB$3)</f>
-        <v>81.283600634098761</v>
+        <v>59.387004683731121</v>
       </c>
       <c r="S19" s="14">
         <f>LOG(M19*N19/K19+1,AC$3)</f>
-        <v>0</v>
+        <v>69.630519036894427</v>
       </c>
       <c r="U19" s="19">
         <f>(P19+Q19)/2</f>
-        <v>64.179787681013451</v>
+        <v>52.374667740112784</v>
       </c>
       <c r="V19" s="13">
         <f>(P19+Q19+R19)/3</f>
-        <v>69.881058665375221</v>
+        <v>54.712113387985561</v>
       </c>
       <c r="W19" s="14">
         <f>(P19+Q19+S19)/3</f>
-        <v>42.786525120675634</v>
+        <v>58.126618172373334</v>
       </c>
       <c r="X19" s="14">
         <f>(P19*2+Q19*2+R19+S19)/6</f>
-        <v>56.333791893025428</v>
+        <v>56.419365780179447</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
-        <v>2660597000</v>
-      </c>
-      <c r="G20" s="12">
-        <v>703808000</v>
-      </c>
-      <c r="H20" s="12">
-        <v>5425973000</v>
+        <v>2023</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3581000</v>
+      </c>
+      <c r="F20" s="9">
+        <v>987439000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>33702000</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1570476000</v>
       </c>
       <c r="I20" s="8">
-        <f>H20*0.08</f>
-        <v>434077840</v>
+        <f>H20*1.02</f>
+        <v>1601885520</v>
       </c>
       <c r="J20" s="13">
-        <v>843</v>
+        <v>4540</v>
       </c>
       <c r="K20" s="15">
-        <v>13583</v>
+        <v>27895</v>
       </c>
       <c r="L20" s="16">
-        <v>54.93</v>
+        <v>142.5</v>
       </c>
       <c r="M20" s="17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N20" s="14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P20" s="18">
         <f>LOG((E20+F20)/(G20+F20)+1,Z$3)</f>
-        <v>61.417358779708657</v>
+        <v>67.462668241217273</v>
       </c>
       <c r="Q20" s="19">
         <f>LOG(J20*I20/K20^2,AA$3)</f>
-        <v>46.725193305288293</v>
+        <v>56.351828594133309</v>
       </c>
       <c r="R20" s="13">
         <f>LOG(L20/K20+1,AB$3)</f>
-        <v>57.698662738815237</v>
+        <v>74.978330177181675</v>
       </c>
       <c r="S20" s="14">
         <f>LOG(M20*N20/K20+1,AC$3)</f>
-        <v>62.542730015301949</v>
+        <v>12.907216053379047</v>
       </c>
       <c r="U20" s="19">
         <f>(P20+Q20)/2</f>
-        <v>54.071276042498475</v>
+        <v>61.907248417675291</v>
       </c>
       <c r="V20" s="13">
         <f>(P20+Q20+R20)/3</f>
-        <v>55.280404941270724</v>
+        <v>66.264275670844086</v>
       </c>
       <c r="W20" s="14">
         <f>(P20+Q20+S20)/3</f>
-        <v>56.895094033432969</v>
+        <v>45.573904296243207</v>
       </c>
       <c r="X20" s="14">
         <f>(P20*2+Q20*2+R20+S20)/6</f>
-        <v>56.08774948735185</v>
+        <v>55.91908998354365</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
-        <v>445684557</v>
-      </c>
-      <c r="G21" s="11">
-        <v>103976679</v>
-      </c>
-      <c r="H21" s="11">
-        <v>715010067</v>
+        <v>2023</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3158729</v>
+      </c>
+      <c r="F21" s="9">
+        <v>679383671</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <v>825582486</v>
       </c>
       <c r="I21" s="8">
-        <f>H21</f>
-        <v>715010067</v>
+        <f>H21*1.02</f>
+        <v>842094135.72000003</v>
       </c>
       <c r="J21" s="13">
-        <v>2268</v>
+        <v>3038.9</v>
       </c>
       <c r="K21" s="15">
-        <v>12739</v>
+        <v>18261</v>
       </c>
       <c r="L21" s="16">
-        <v>62.3</v>
-      </c>
-      <c r="M21" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="N21" s="14">
-        <v>12</v>
+        <v>104.12</v>
       </c>
       <c r="P21" s="18">
         <f>LOG((E21+F21)/(G21+F21)+1,Z$3)</f>
-        <v>62.589633008241726</v>
+        <v>69.17144729127935</v>
       </c>
       <c r="Q21" s="19">
         <f>LOG(J21*I21/K21^2,AA$3)</f>
-        <v>56.676720497927107</v>
+        <v>55.136886349412606</v>
       </c>
       <c r="R21" s="13">
         <f>LOG(L21/K21+1,AB$3)</f>
-        <v>69.746341483547411</v>
+        <v>83.662070183827495</v>
       </c>
       <c r="S21" s="14">
         <f>LOG(M21*N21/K21+1,AC$3)</f>
-        <v>17.366096356099892</v>
+        <v>0</v>
       </c>
       <c r="U21" s="19">
         <f>(P21+Q21)/2</f>
-        <v>59.633176753084413</v>
+        <v>62.154166820345978</v>
       </c>
       <c r="V21" s="13">
         <f>(P21+Q21+R21)/3</f>
-        <v>63.004231663238748</v>
+        <v>69.323467941506479</v>
       </c>
       <c r="W21" s="14">
         <f>(P21+Q21+S21)/3</f>
-        <v>45.544149954089569</v>
+        <v>41.436111213563983</v>
       </c>
       <c r="X21" s="14">
         <f>(P21*2+Q21*2+R21+S21)/6</f>
-        <v>54.274190808664152</v>
+        <v>55.379789577535234</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C22" s="6">
         <v>2022</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11">
-        <v>402124000</v>
+        <v>445684557</v>
       </c>
       <c r="G22" s="11">
-        <v>35660000</v>
+        <v>103976679</v>
       </c>
       <c r="H22" s="11">
-        <v>714862000</v>
+        <v>715010067</v>
       </c>
       <c r="I22" s="8">
         <f>H22</f>
-        <v>714862000</v>
+        <v>715010067</v>
       </c>
       <c r="J22" s="13">
-        <v>3467</v>
+        <v>2268</v>
       </c>
       <c r="K22" s="15">
-        <v>24402</v>
+        <v>12739</v>
       </c>
       <c r="L22" s="16">
-        <v>88.36</v>
+        <v>62.3</v>
       </c>
       <c r="M22" s="17">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="N22" s="14">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P22" s="18">
         <f>LOG((E22+F22)/(G22+F22)+1,Z$3)</f>
-        <v>68.6799303088616</v>
+        <v>59.058229985546966</v>
       </c>
       <c r="Q22" s="19">
         <f>LOG(J22*I22/K22^2,AA$3)</f>
-        <v>51.286915651685206</v>
+        <v>56.764109525053279</v>
       </c>
       <c r="R22" s="13">
         <f>LOG(L22/K22+1,AB$3)</f>
-        <v>51.67419231356169</v>
+        <v>71.787215019285057</v>
       </c>
       <c r="S22" s="14">
         <f>LOG(M22*N22/K22+1,AC$3)</f>
-        <v>30.322129946714341</v>
+        <v>19.33414647272523</v>
       </c>
       <c r="U22" s="19">
         <f>(P22+Q22)/2</f>
-        <v>59.983422980273403</v>
+        <v>57.911169755300122</v>
       </c>
       <c r="V22" s="13">
         <f>(P22+Q22+R22)/3</f>
-        <v>57.213679424702832</v>
+        <v>62.536518176628441</v>
       </c>
       <c r="W22" s="14">
         <f>(P22+Q22+S22)/3</f>
-        <v>50.096325302420382</v>
+        <v>45.052161994441825</v>
       </c>
       <c r="X22" s="14">
         <f>(P22*2+Q22*2+R22+S22)/6</f>
-        <v>53.655002363561607</v>
+        <v>53.794340085535133</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="6">
         <v>2022</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <v>341050000</v>
-      </c>
-      <c r="G23" s="9">
-        <v>16490000</v>
-      </c>
-      <c r="H23" s="9">
-        <v>738450000</v>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11">
+        <v>402124000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>35660000</v>
+      </c>
+      <c r="H23" s="11">
+        <v>714862000</v>
       </c>
       <c r="I23" s="8">
-        <f>H23*1.02</f>
-        <v>753219000</v>
+        <f>H23</f>
+        <v>714862000</v>
       </c>
       <c r="J23" s="13">
-        <v>2547.1999999999998</v>
+        <v>3467</v>
       </c>
       <c r="K23" s="15">
-        <v>16908</v>
+        <v>24402</v>
       </c>
       <c r="L23" s="16">
-        <v>67.900000000000006</v>
+        <v>88.36</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="N23" s="14">
+        <v>29</v>
       </c>
       <c r="P23" s="18">
         <f>LOG((E23+F23)/(G23+F23)+1,Z$3)</f>
-        <v>70.603619953370782</v>
+        <v>64.804903378135819</v>
       </c>
       <c r="Q23" s="19">
         <f>LOG(J23*I23/K23^2,AA$3)</f>
-        <v>54.226892872172712</v>
+        <v>51.36599421557753</v>
       </c>
       <c r="R23" s="13">
         <f>LOG(L23/K23+1,AB$3)</f>
-        <v>57.297474798550653</v>
+        <v>53.186249997594381</v>
       </c>
       <c r="S23" s="14">
         <f>LOG(M23*N23/K23+1,AC$3)</f>
-        <v>0</v>
+        <v>33.758450358295995</v>
       </c>
       <c r="U23" s="19">
         <f>(P23+Q23)/2</f>
-        <v>62.415256412771747</v>
+        <v>58.085448796856674</v>
       </c>
       <c r="V23" s="13">
         <f>(P23+Q23+R23)/3</f>
-        <v>60.709329208031384</v>
+        <v>56.452382530435905</v>
       </c>
       <c r="W23" s="14">
         <f>(P23+Q23+S23)/3</f>
-        <v>41.610170941847834</v>
+        <v>49.976449317336453</v>
       </c>
       <c r="X23" s="14">
         <f>(P23*2+Q23*2+R23+S23)/6</f>
-        <v>51.159750074939609</v>
+        <v>53.214415923886179</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6">
         <v>2022</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>2186629000</v>
-      </c>
-      <c r="G24" s="7">
-        <v>77679000</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3027319000</v>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11">
+        <v>422400000</v>
+      </c>
+      <c r="G24" s="11">
+        <v>32800000</v>
+      </c>
+      <c r="H24" s="11">
+        <v>852200000</v>
       </c>
       <c r="I24" s="8">
-        <f>H24*0.13</f>
-        <v>393551470</v>
+        <f>H24</f>
+        <v>852200000</v>
       </c>
       <c r="J24" s="13">
-        <v>1914</v>
+        <v>3717.1350000000002</v>
       </c>
       <c r="K24" s="15">
-        <v>14955</v>
+        <v>13678</v>
       </c>
       <c r="L24" s="16">
-        <v>17.79</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="N24" s="14">
-        <v>25</v>
+        <v>55.2</v>
       </c>
       <c r="P24" s="18">
         <f>LOG((E24+F24)/(G24+F24)+1,Z$3)</f>
-        <v>71.239085990746375</v>
+        <v>65.290995029809324</v>
       </c>
       <c r="Q24" s="19">
         <f>LOG(J24*I24/K24^2,AA$3)</f>
-        <v>49.983892016199789</v>
+        <v>60.014396855324108</v>
       </c>
       <c r="R24" s="13">
         <f>LOG(L24/K24+1,AB$3)</f>
-        <v>16.996514513340031</v>
+        <v>59.264661453852419</v>
       </c>
       <c r="S24" s="14">
         <f>LOG(M24*N24/K24+1,AC$3)</f>
-        <v>35.536908355674676</v>
+        <v>0</v>
       </c>
       <c r="U24" s="19">
         <f>(P24+Q24)/2</f>
-        <v>60.611489003473082</v>
+        <v>62.652695942566716</v>
       </c>
       <c r="V24" s="13">
         <f>(P24+Q24+R24)/3</f>
-        <v>46.073164173428729</v>
+        <v>61.523351112995279</v>
       </c>
       <c r="W24" s="14">
         <f>(P24+Q24+S24)/3</f>
-        <v>52.253295454206949</v>
+        <v>41.768463961711142</v>
       </c>
       <c r="X24" s="14">
         <f>(P24*2+Q24*2+R24+S24)/6</f>
-        <v>49.163229813817829</v>
+        <v>51.645907537353217</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6">
         <v>2022</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
-        <v>644000000</v>
-      </c>
-      <c r="G25" s="11">
-        <v>64000000</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1066000000</v>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>341050000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>16490000</v>
+      </c>
+      <c r="H25" s="9">
+        <v>738450000</v>
       </c>
       <c r="I25" s="8">
-        <f>H25</f>
-        <v>1066000000</v>
+        <f>H25*1.02</f>
+        <v>753219000</v>
       </c>
       <c r="J25" s="13">
-        <v>5244</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="K25" s="15">
-        <v>39959</v>
+        <v>16908</v>
       </c>
       <c r="L25" s="16">
-        <v>121.86</v>
-      </c>
-      <c r="M25" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="N25" s="14">
-        <v>20</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="P25" s="18">
         <f>LOG((E25+F25)/(G25+F25)+1,Z$3)</f>
-        <v>68.187618782148533</v>
+        <v>66.620055504547523</v>
       </c>
       <c r="Q25" s="19">
         <f>LOG(J25*I25/K25^2,AA$3)</f>
-        <v>50.222236816060246</v>
+        <v>54.310504545017253</v>
       </c>
       <c r="R25" s="13">
         <f>LOG(L25/K25+1,AB$3)</f>
-        <v>43.532509857915564</v>
+        <v>58.974077434526066</v>
       </c>
       <c r="S25" s="14">
         <f>LOG(M25*N25/K25+1,AC$3)</f>
-        <v>10.649332633159794</v>
+        <v>0</v>
       </c>
       <c r="U25" s="19">
         <f>(P25+Q25)/2</f>
-        <v>59.204927799104389</v>
+        <v>60.465280024782388</v>
       </c>
       <c r="V25" s="13">
         <f>(P25+Q25+R25)/3</f>
-        <v>53.980788485374781</v>
+        <v>59.968212494696949</v>
       </c>
       <c r="W25" s="14">
         <f>(P25+Q25+S25)/3</f>
-        <v>43.019729410456193</v>
+        <v>40.310186683188256</v>
       </c>
       <c r="X25" s="14">
         <f>(P25*2+Q25*2+R25+S25)/6</f>
-        <v>48.500258947915491</v>
+        <v>50.139199588942603</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6">
         <v>2022</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
-        <v>556300000</v>
-      </c>
-      <c r="G26" s="11">
-        <v>92100000</v>
-      </c>
-      <c r="H26" s="11">
-        <v>993400000</v>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>2186629000</v>
+      </c>
+      <c r="G26" s="7">
+        <v>77679000</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3027319000</v>
       </c>
       <c r="I26" s="8">
-        <f>H26</f>
-        <v>993400000</v>
+        <f>H26*0.13</f>
+        <v>393551470</v>
       </c>
       <c r="J26" s="13">
-        <v>3408</v>
+        <v>1914</v>
       </c>
       <c r="K26" s="15">
-        <v>42143</v>
+        <v>14955</v>
       </c>
       <c r="L26" s="16">
-        <v>101</v>
+        <v>17.79</v>
       </c>
       <c r="M26" s="17">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N26" s="14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P26" s="18">
         <f>LOG((E26+F26)/(G26+F26)+1,Z$3)</f>
-        <v>65.297549105318282</v>
+        <v>67.219667574143628</v>
       </c>
       <c r="Q26" s="19">
         <f>LOG(J26*I26/K26^2,AA$3)</f>
-        <v>46.481025711661808</v>
+        <v>50.060961466529662</v>
       </c>
       <c r="R26" s="13">
         <f>LOG(L26/K26+1,AB$3)</f>
-        <v>34.221934158801012</v>
+        <v>17.493855820887166</v>
       </c>
       <c r="S26" s="14">
         <f>LOG(M26*N26/K26+1,AC$3)</f>
-        <v>27.448797320180404</v>
+        <v>39.564204715188623</v>
       </c>
       <c r="U26" s="19">
         <f>(P26+Q26)/2</f>
-        <v>55.889287408490048</v>
+        <v>58.640314520336645</v>
       </c>
       <c r="V26" s="13">
         <f>(P26+Q26+R26)/3</f>
-        <v>48.66683632526037</v>
+        <v>44.92482828718682</v>
       </c>
       <c r="W26" s="14">
         <f>(P26+Q26+S26)/3</f>
-        <v>46.409124045720169</v>
+        <v>52.281611251953969</v>
       </c>
       <c r="X26" s="14">
         <f>(P26*2+Q26*2+R26+S26)/6</f>
-        <v>47.537980185490262</v>
+        <v>48.603219769570394</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="6">
         <v>2022</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11">
+        <v>1355549.79</v>
+      </c>
       <c r="F27" s="11">
-        <v>530802700</v>
-      </c>
-      <c r="G27" s="11">
-        <v>67751100</v>
-      </c>
+        <v>413330999.95999998</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="11">
-        <v>834083100</v>
+        <v>1051105117.5700001</v>
       </c>
       <c r="I27" s="8">
         <f>H27</f>
-        <v>834083100</v>
+        <v>1051105117.5700001</v>
       </c>
       <c r="J27" s="13">
-        <v>3750</v>
+        <v>4206</v>
       </c>
       <c r="K27" s="15">
-        <v>37000</v>
+        <v>31252</v>
       </c>
       <c r="L27" s="16">
-        <v>120.01</v>
+        <v>73.16</v>
       </c>
       <c r="M27" s="17">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N27" s="14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P27" s="18">
         <f>LOG((E27+F27)/(G27+F27)+1,Z$3)</f>
-        <v>66.921750684538381</v>
+        <v>69.103460362776431</v>
       </c>
       <c r="Q27" s="19">
         <f>LOG(J27*I27/K27^2,AA$3)</f>
-        <v>47.595722201709243</v>
+        <v>51.883079115023286</v>
       </c>
       <c r="R27" s="13">
         <f>LOG(L27/K27+1,AB$3)</f>
-        <v>46.295722272486664</v>
+        <v>34.406637896991697</v>
       </c>
       <c r="S27" s="14">
         <f>LOG(M27*N27/K27+1,AC$3)</f>
-        <v>6.4415102950785403</v>
+        <v>14.551781411346155</v>
       </c>
       <c r="U27" s="19">
         <f>(P27+Q27)/2</f>
-        <v>57.258736443123809</v>
+        <v>60.493269738899855</v>
       </c>
       <c r="V27" s="13">
         <f>(P27+Q27+R27)/3</f>
-        <v>53.60439838624476</v>
+        <v>51.797725791597138</v>
       </c>
       <c r="W27" s="14">
         <f>(P27+Q27+S27)/3</f>
-        <v>40.319661060442051</v>
+        <v>45.179440296381955</v>
       </c>
       <c r="X27" s="14">
         <f>(P27*2+Q27*2+R27+S27)/6</f>
-        <v>46.962029723343413</v>
+        <v>48.488583043989543</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="10">
+        <v>29000000</v>
+      </c>
+      <c r="F28" s="10">
+        <v>236700000</v>
+      </c>
+      <c r="G28" s="10">
+        <v>929300000</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1968300000</v>
+      </c>
+      <c r="I28" s="8">
+        <f>H28*1.17</f>
+        <v>2302911000</v>
+      </c>
+      <c r="J28" s="13">
+        <v>7380</v>
+      </c>
+      <c r="K28" s="15">
+        <v>46830</v>
+      </c>
+      <c r="L28" s="16">
+        <v>219.78</v>
+      </c>
+      <c r="M28" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="N28" s="14">
         <v>58</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <v>2219200000</v>
-      </c>
-      <c r="G28" s="7">
-        <v>87905000</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3337000000</v>
-      </c>
-      <c r="I28" s="8">
-        <f>H28*0.13</f>
-        <v>433810000</v>
-      </c>
-      <c r="J28" s="13">
-        <v>2267</v>
-      </c>
-      <c r="K28" s="15">
-        <v>16588</v>
-      </c>
-      <c r="L28" s="16">
-        <v>42.02</v>
       </c>
       <c r="P28" s="18">
         <f>LOG((E28+F28)/(G28+F28)+1,Z$3)</f>
-        <v>71.035333476902991</v>
+        <v>20.417517339706919</v>
       </c>
       <c r="Q28" s="19">
         <f>LOG(J28*I28/K28^2,AA$3)</f>
-        <v>50.349377833544381</v>
+        <v>55.197306026435925</v>
       </c>
       <c r="R28" s="13">
         <f>LOG(L28/K28+1,AB$3)</f>
-        <v>36.169379263377088</v>
+        <v>68.897123579883498</v>
       </c>
       <c r="S28" s="14">
         <f>LOG(M28*N28/K28+1,AC$3)</f>
-        <v>0</v>
+        <v>70.281571512291237</v>
       </c>
       <c r="U28" s="19">
         <f>(P28+Q28)/2</f>
-        <v>60.692355655223686</v>
+        <v>37.807411683071422</v>
       </c>
       <c r="V28" s="13">
         <f>(P28+Q28+R28)/3</f>
-        <v>52.518030191274818</v>
+        <v>48.170648982008778</v>
       </c>
       <c r="W28" s="14">
         <f>(P28+Q28+S28)/3</f>
-        <v>40.461570436815791</v>
+        <v>48.632131626144691</v>
       </c>
       <c r="X28" s="14">
         <f>(P28*2+Q28*2+R28+S28)/6</f>
-        <v>46.489800314045304</v>
+        <v>48.401390304076735</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>2022</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11">
-        <v>473310000</v>
+        <v>644000000</v>
       </c>
       <c r="G29" s="11">
-        <v>60361000</v>
+        <v>64000000</v>
       </c>
       <c r="H29" s="11">
-        <v>690144000</v>
+        <v>1066000000</v>
       </c>
       <c r="I29" s="8">
         <f>H29</f>
-        <v>690144000</v>
+        <v>1066000000</v>
       </c>
       <c r="J29" s="13">
-        <v>2797</v>
+        <v>5244</v>
       </c>
       <c r="K29" s="15">
-        <v>31761</v>
+        <v>39959</v>
       </c>
       <c r="L29" s="16">
-        <v>63.65</v>
+        <v>121.86</v>
       </c>
       <c r="M29" s="17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N29" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P29" s="18">
         <f>LOG((E29+F29)/(G29+F29)+1,Z$3)</f>
-        <v>66.926558554467022</v>
+        <v>64.340368822304072</v>
       </c>
       <c r="Q29" s="19">
         <f>LOG(J29*I29/K29^2,AA$3)</f>
-        <v>46.504704306917674</v>
+        <v>50.299673766838232</v>
       </c>
       <c r="R29" s="13">
         <f>LOG(L29/K29+1,AB$3)</f>
-        <v>28.621866773324292</v>
+        <v>44.806330755520861</v>
       </c>
       <c r="S29" s="14">
         <f>LOG(M29*N29/K29+1,AC$3)</f>
-        <v>18.484257254726288</v>
+        <v>11.856191094664901</v>
       </c>
       <c r="U29" s="19">
         <f>(P29+Q29)/2</f>
-        <v>56.715631430692348</v>
+        <v>57.320021294571148</v>
       </c>
       <c r="V29" s="13">
         <f>(P29+Q29+R29)/3</f>
-        <v>47.351043211569667</v>
+        <v>53.148791114887722</v>
       </c>
       <c r="W29" s="14">
         <f>(P29+Q29+S29)/3</f>
-        <v>43.971840038703668</v>
+        <v>42.165411227935728</v>
       </c>
       <c r="X29" s="14">
         <f>(P29*2+Q29*2+R29+S29)/6</f>
-        <v>45.661441625136661</v>
+        <v>47.657101171411732</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11">
-        <v>498700000</v>
-      </c>
-      <c r="G30" s="11">
-        <v>66000000</v>
-      </c>
+        <v>195000000</v>
+      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="11">
-        <v>812600000</v>
+        <v>345200000</v>
       </c>
       <c r="I30" s="8">
         <f>H30</f>
-        <v>812600000</v>
+        <v>345200000</v>
       </c>
       <c r="J30" s="13">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="K30" s="15">
-        <v>33474</v>
+        <v>15438</v>
       </c>
       <c r="L30" s="16">
-        <v>102.46</v>
+        <v>23.26</v>
       </c>
       <c r="M30" s="17">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="N30" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P30" s="18">
         <f>LOG((E30+F30)/(G30+F30)+1,Z$3)</f>
-        <v>66.715691545648042</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q30" s="19">
         <f>LOG(J30*I30/K30^2,AA$3)</f>
-        <v>44.493323155749941</v>
+        <v>49.44743746928183</v>
       </c>
       <c r="R30" s="13">
         <f>LOG(L30/K30+1,AB$3)</f>
-        <v>43.692957860125617</v>
+        <v>22.153681373227272</v>
       </c>
       <c r="S30" s="14">
         <f>LOG(M30*N30/K30+1,AC$3)</f>
-        <v>7.7130201204505493</v>
+        <v>26.175236678782003</v>
       </c>
       <c r="U30" s="19">
         <f>(P30+Q30)/2</f>
-        <v>55.604507350698995</v>
+        <v>59.193968986865386</v>
       </c>
       <c r="V30" s="13">
         <f>(P30+Q30+R30)/3</f>
-        <v>51.633990853841205</v>
+        <v>46.847206448986014</v>
       </c>
       <c r="W30" s="14">
         <f>(P30+Q30+S30)/3</f>
-        <v>39.640678273949511</v>
+        <v>48.187724884170926</v>
       </c>
       <c r="X30" s="14">
         <f>(P30*2+Q30*2+R30+S30)/6</f>
-        <v>45.637334563895358</v>
+        <v>47.517465666578467</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6">
         <v>2022</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11">
-        <v>285000000</v>
+        <v>556300000</v>
       </c>
       <c r="G31" s="11">
-        <v>28500000</v>
+        <v>92100000</v>
       </c>
       <c r="H31" s="11">
-        <v>432200000</v>
+        <v>993400000</v>
       </c>
       <c r="I31" s="8">
         <f>H31</f>
-        <v>432200000</v>
+        <v>993400000</v>
       </c>
       <c r="J31" s="13">
-        <v>2068.83</v>
+        <v>3408</v>
       </c>
       <c r="K31" s="15">
-        <v>12493</v>
+        <v>42143</v>
       </c>
       <c r="L31" s="16">
-        <v>21.01</v>
+        <v>101</v>
       </c>
       <c r="M31" s="17">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="N31" s="14">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="P31" s="18">
         <f>LOG((E31+F31)/(G31+F31)+1,Z$3)</f>
-        <v>68.159264413940463</v>
+        <v>61.613361306122904</v>
       </c>
       <c r="Q31" s="19">
         <f>LOG(J31*I31/K31^2,AA$3)</f>
-        <v>53.2530569259253</v>
+        <v>46.552694142387558</v>
       </c>
       <c r="R31" s="13">
         <f>LOG(L31/K31+1,AB$3)</f>
-        <v>24.022760130123132</v>
+        <v>35.223314851764357</v>
       </c>
       <c r="S31" s="14">
         <f>LOG(M31*N31/K31+1,AC$3)</f>
-        <v>2.2714711253745081</v>
+        <v>30.559491149092128</v>
       </c>
       <c r="U31" s="19">
         <f>(P31+Q31)/2</f>
-        <v>60.706160669932885</v>
+        <v>54.083027724255231</v>
       </c>
       <c r="V31" s="13">
         <f>(P31+Q31+R31)/3</f>
-        <v>48.478360489996305</v>
+        <v>47.796456766758276</v>
       </c>
       <c r="W31" s="14">
         <f>(P31+Q31+S31)/3</f>
-        <v>41.22793082174676</v>
+        <v>46.241848865867532</v>
       </c>
       <c r="X31" s="14">
         <f>(P31*2+Q31*2+R31+S31)/6</f>
-        <v>44.853145655871522</v>
+        <v>47.019152816312904</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="6" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6">
         <v>2022</v>
       </c>
-      <c r="E32" s="11">
-        <v>16962080</v>
-      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11">
-        <v>447679492</v>
+        <v>530802700</v>
       </c>
       <c r="G32" s="11">
-        <v>54750430</v>
+        <v>67751100</v>
       </c>
       <c r="H32" s="11">
-        <v>1199200318</v>
+        <v>834083100</v>
       </c>
       <c r="I32" s="8">
         <f>H32</f>
-        <v>1199200318</v>
+        <v>834083100</v>
       </c>
       <c r="J32" s="13">
-        <v>4353</v>
+        <v>3750</v>
       </c>
       <c r="K32" s="15">
-        <v>65651</v>
+        <v>37000</v>
       </c>
       <c r="L32" s="16">
-        <v>124.13</v>
+        <v>120.01</v>
       </c>
       <c r="M32" s="17">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N32" s="14">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P32" s="18">
         <f>LOG((E32+F32)/(G32+F32)+1,Z$3)</f>
-        <v>69.022454809230453</v>
+        <v>63.145922942901286</v>
       </c>
       <c r="Q32" s="19">
         <f>LOG(J32*I32/K32^2,AA$3)</f>
-        <v>43.689829415125033</v>
+        <v>47.669109367057438</v>
       </c>
       <c r="R32" s="13">
         <f>LOG(L32/K32+1,AB$3)</f>
-        <v>27.005590801161478</v>
+        <v>47.65039855218896</v>
       </c>
       <c r="S32" s="14">
         <f>LOG(M32*N32/K32+1,AC$3)</f>
-        <v>12.703409312565714</v>
+        <v>7.1715082651185789</v>
       </c>
       <c r="U32" s="19">
         <f>(P32+Q32)/2</f>
-        <v>56.356142112177743</v>
+        <v>55.407516154979362</v>
       </c>
       <c r="V32" s="13">
         <f>(P32+Q32+R32)/3</f>
-        <v>46.572625008505661</v>
+        <v>52.821810287382561</v>
       </c>
       <c r="W32" s="14">
         <f>(P32+Q32+S32)/3</f>
-        <v>41.805231178973735</v>
+        <v>39.3288468583591</v>
       </c>
       <c r="X32" s="14">
         <f>(P32*2+Q32*2+R32+S32)/6</f>
-        <v>44.18892809373969</v>
+        <v>46.075328572870831</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11">
-        <v>147241458</v>
-      </c>
-      <c r="G33" s="11">
-        <v>20629278</v>
-      </c>
-      <c r="H33" s="11">
-        <v>209455095</v>
+        <v>2022</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>110565000</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
+        <v>236734000</v>
       </c>
       <c r="I33" s="8">
-        <f>H33</f>
-        <v>209455095</v>
+        <f>H33*1.02</f>
+        <v>241468680</v>
       </c>
       <c r="J33" s="13">
-        <v>824</v>
+        <v>549.79</v>
       </c>
       <c r="K33" s="15">
-        <v>16410</v>
+        <v>10363</v>
       </c>
       <c r="L33" s="16">
-        <v>20.56</v>
-      </c>
-      <c r="M33" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="N33" s="14">
-        <v>21</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="P33" s="18">
         <f>LOG((E33+F33)/(G33+F33)+1,Z$3)</f>
-        <v>66.378652321853892</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q33" s="19">
         <f>LOG(J33*I33/K33^2,AA$3)</f>
-        <v>39.773205438299669</v>
+        <v>43.88334724070053</v>
       </c>
       <c r="R33" s="13">
         <f>LOG(L33/K33+1,AB$3)</f>
-        <v>17.900746028529809</v>
+        <v>46.556960633540278</v>
       </c>
       <c r="S33" s="14">
         <f>LOG(M33*N33/K33+1,AC$3)</f>
-        <v>34.460025370944365</v>
+        <v>0</v>
       </c>
       <c r="U33" s="19">
         <f>(P33+Q33)/2</f>
-        <v>53.075928880076781</v>
+        <v>56.411923872574739</v>
       </c>
       <c r="V33" s="13">
         <f>(P33+Q33+R33)/3</f>
-        <v>41.350867929561126</v>
+        <v>53.126936126229914</v>
       </c>
       <c r="W33" s="14">
         <f>(P33+Q33+S33)/3</f>
-        <v>46.870627710365973</v>
+        <v>37.607949248383157</v>
       </c>
       <c r="X33" s="14">
         <f>(P33*2+Q33*2+R33+S33)/6</f>
-        <v>44.110747819963557</v>
+        <v>45.367442687306543</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E34" s="11">
-        <v>5160000</v>
-      </c>
-      <c r="F34" s="11">
-        <v>103200000</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
-        <v>516000000</v>
+        <v>2022</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
+        <v>2219200000</v>
+      </c>
+      <c r="G34" s="7">
+        <v>87905000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3337000000</v>
       </c>
       <c r="I34" s="8">
-        <f>H34</f>
-        <v>516000000</v>
+        <f>H34*0.13</f>
+        <v>433810000</v>
       </c>
       <c r="J34" s="13">
-        <v>3567.69</v>
+        <v>2267</v>
       </c>
       <c r="K34" s="15">
-        <v>27678</v>
+        <v>16588</v>
       </c>
       <c r="L34" s="16">
-        <v>28.06</v>
+        <v>42.02</v>
       </c>
       <c r="P34" s="18">
         <f>LOG((E34+F34)/(G34+F34)+1,Z$3)</f>
-        <v>75.665599780132538</v>
+        <v>67.027411089413775</v>
       </c>
       <c r="Q34" s="19">
         <f>LOG(J34*I34/K34^2,AA$3)</f>
-        <v>47.906480534571308</v>
+        <v>50.427010821244195</v>
       </c>
       <c r="R34" s="13">
         <f>LOG(L34/K34+1,AB$3)</f>
-        <v>14.486432020561903</v>
+        <v>37.227744868978021</v>
       </c>
       <c r="S34" s="14">
         <f>LOG(M34*N34/K34+1,AC$3)</f>
@@ -3529,2357 +3574,3036 @@
       </c>
       <c r="U34" s="19">
         <f>(P34+Q34)/2</f>
-        <v>61.78604015735192</v>
+        <v>58.727210955328985</v>
       </c>
       <c r="V34" s="13">
         <f>(P34+Q34+R34)/3</f>
-        <v>46.019504111755246</v>
+        <v>51.560722259878666</v>
       </c>
       <c r="W34" s="14">
         <f>(P34+Q34+S34)/3</f>
-        <v>41.190693438234611</v>
+        <v>39.151473970219321</v>
       </c>
       <c r="X34" s="14">
         <f>(P34*2+Q34*2+R34+S34)/6</f>
-        <v>43.605098774994929</v>
+        <v>45.356098115048987</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6">
         <v>2022</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11">
-        <v>350370000</v>
+        <v>473310000</v>
       </c>
       <c r="G35" s="11">
-        <v>41223000</v>
+        <v>60361000</v>
       </c>
       <c r="H35" s="11">
-        <v>558679000</v>
+        <v>690144000</v>
       </c>
       <c r="I35" s="8">
         <f>H35</f>
-        <v>558679000</v>
+        <v>690144000</v>
       </c>
       <c r="J35" s="13">
-        <v>2430</v>
+        <v>2797</v>
       </c>
       <c r="K35" s="15">
-        <v>22406</v>
+        <v>31761</v>
       </c>
       <c r="L35" s="16">
-        <v>33.03</v>
+        <v>63.65</v>
       </c>
       <c r="M35" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="N35" s="14">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="P35" s="18">
         <f>LOG((E35+F35)/(G35+F35)+1,Z$3)</f>
-        <v>67.363352035465439</v>
+        <v>63.150459545439737</v>
       </c>
       <c r="Q35" s="19">
         <f>LOG(J35*I35/K35^2,AA$3)</f>
-        <v>48.633027898511116</v>
+        <v>46.576409247331796</v>
       </c>
       <c r="R35" s="13">
         <f>LOG(L35/K35+1,AB$3)</f>
-        <v>21.059732542084795</v>
+        <v>29.459381819971799</v>
       </c>
       <c r="S35" s="14">
         <f>LOG(M35*N35/K35+1,AC$3)</f>
-        <v>4.8756273588309433</v>
+        <v>20.579025353437139</v>
       </c>
       <c r="U35" s="19">
         <f>(P35+Q35)/2</f>
-        <v>57.998189966988278</v>
+        <v>54.86343439638577</v>
       </c>
       <c r="V35" s="13">
         <f>(P35+Q35+R35)/3</f>
-        <v>45.685370825353779</v>
+        <v>46.395416870914453</v>
       </c>
       <c r="W35" s="14">
         <f>(P35+Q35+S35)/3</f>
-        <v>40.290669097602496</v>
+        <v>43.435298048736229</v>
       </c>
       <c r="X35" s="14">
         <f>(P35*2+Q35*2+R35+S35)/6</f>
-        <v>42.988019961478138</v>
+        <v>44.915357459825337</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="6" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C36" s="6">
         <v>2022</v>
       </c>
-      <c r="E36" s="11">
-        <v>1545561</v>
-      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="11">
-        <v>146972266.58000001</v>
-      </c>
-      <c r="G36" s="11"/>
+        <v>498700000</v>
+      </c>
+      <c r="G36" s="11">
+        <v>66000000</v>
+      </c>
       <c r="H36" s="11">
-        <v>331968251.18000001</v>
+        <v>812600000</v>
       </c>
       <c r="I36" s="8">
         <f>H36</f>
-        <v>331968251.18000001</v>
+        <v>812600000</v>
       </c>
       <c r="J36" s="13">
-        <v>2453</v>
+        <v>1903</v>
       </c>
       <c r="K36" s="15">
-        <v>21617</v>
+        <v>33474</v>
       </c>
       <c r="L36" s="16">
-        <v>27.2</v>
-      </c>
-      <c r="P36" s="14">
+        <v>102.46</v>
+      </c>
+      <c r="M36" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="N36" s="14">
+        <v>14</v>
+      </c>
+      <c r="P36" s="18">
         <f>LOG((E36+F36)/(G36+F36)+1,Z$3)</f>
-        <v>73.615596754328493</v>
+        <v>62.951489976444897</v>
       </c>
       <c r="Q36" s="19">
         <f>LOG(J36*I36/K36^2,AA$3)</f>
-        <v>45.92881499497873</v>
+        <v>44.561926776249358</v>
       </c>
       <c r="R36" s="13">
         <f>LOG(L36/K36+1,AB$3)</f>
-        <v>17.977484266377129</v>
+        <v>44.971473686161673</v>
       </c>
       <c r="S36" s="14">
         <f>LOG(M36*N36/K36+1,AC$3)</f>
-        <v>0</v>
+        <v>8.5871146686046824</v>
       </c>
       <c r="U36" s="19">
         <f>(P36+Q36)/2</f>
-        <v>59.772205874653608</v>
+        <v>53.756708376347127</v>
       </c>
       <c r="V36" s="13">
         <f>(P36+Q36+R36)/3</f>
-        <v>45.840632005228116</v>
+        <v>50.828296812951976</v>
       </c>
       <c r="W36" s="14">
         <f>(P36+Q36+S36)/3</f>
-        <v>39.848137249769074</v>
+        <v>38.700177140432977</v>
       </c>
       <c r="X36" s="14">
         <f>(P36*2+Q36*2+R36+S36)/6</f>
-        <v>42.844384627498592</v>
+        <v>44.764236976692473</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="6" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="6">
         <v>2022</v>
       </c>
-      <c r="E37" s="11">
-        <v>2272000</v>
-      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="11">
-        <v>44663000</v>
+        <v>285000000</v>
       </c>
       <c r="G37" s="11">
-        <v>9198000</v>
+        <v>28500000</v>
       </c>
       <c r="H37" s="11">
-        <v>244230000</v>
+        <v>432200000</v>
       </c>
       <c r="I37" s="8">
         <f>H37</f>
-        <v>244230000</v>
+        <v>432200000</v>
       </c>
       <c r="J37" s="13">
-        <v>1847</v>
+        <v>2068.83</v>
       </c>
       <c r="K37" s="15">
-        <v>14263</v>
+        <v>12493</v>
       </c>
       <c r="L37" s="16">
-        <v>19.46</v>
+        <v>21.01</v>
       </c>
       <c r="M37" s="17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="14">
-        <v>7</v>
-      </c>
-      <c r="P37" s="14">
+        <v>2</v>
+      </c>
+      <c r="P37" s="18">
         <f>LOG((E37+F37)/(G37+F37)+1,Z$3)</f>
-        <v>66.057953188895283</v>
+        <v>64.313614251007792</v>
       </c>
       <c r="Q37" s="19">
         <f>LOG(J37*I37/K37^2,AA$3)</f>
-        <v>47.411607512218644</v>
+        <v>53.335167055011219</v>
       </c>
       <c r="R37" s="13">
         <f>LOG(L37/K37+1,AB$3)</f>
-        <v>19.49235783013566</v>
+        <v>24.725699013541224</v>
       </c>
       <c r="S37" s="14">
         <f>LOG(M37*N37/K37+1,AC$3)</f>
-        <v>8.3544771362623198</v>
+        <v>2.5288904625437483</v>
       </c>
       <c r="U37" s="19">
         <f>(P37+Q37)/2</f>
-        <v>56.73478035055696</v>
+        <v>58.824390653009502</v>
       </c>
       <c r="V37" s="13">
         <f>(P37+Q37+R37)/3</f>
-        <v>44.320639510416527</v>
+        <v>47.458160106520076</v>
       </c>
       <c r="W37" s="14">
         <f>(P37+Q37+S37)/3</f>
-        <v>40.608012612458744</v>
+        <v>40.059223922854251</v>
       </c>
       <c r="X37" s="14">
         <f>(P37*2+Q37*2+R37+S37)/6</f>
-        <v>42.464326061437639</v>
+        <v>43.758692014687163</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C38" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E38" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F38" s="10">
-        <v>127700000</v>
-      </c>
-      <c r="G38" s="10">
-        <v>416400000</v>
-      </c>
-      <c r="H38" s="10">
-        <v>934200000</v>
+        <v>2022</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4010236</v>
+      </c>
+      <c r="F38" s="11">
+        <v>204568000</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <v>316932680.41000003</v>
       </c>
       <c r="I38" s="8">
-        <f>H38*1.17</f>
-        <v>1093014000</v>
+        <f>H38</f>
+        <v>316932680.41000003</v>
       </c>
       <c r="J38" s="13">
-        <v>3335</v>
+        <v>2280</v>
       </c>
       <c r="K38" s="15">
-        <v>31485</v>
+        <v>14200</v>
       </c>
       <c r="L38" s="16">
-        <v>112.44</v>
-      </c>
-      <c r="M38" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N38" s="14">
-        <v>47</v>
+        <v>20.5</v>
       </c>
       <c r="P38" s="18">
         <f>LOG((E38+F38)/(G38+F38)+1,Z$3)</f>
-        <v>22.316883618272318</v>
+        <v>69.910633851311047</v>
       </c>
       <c r="Q38" s="19">
         <f>LOG(J38*I38/K38^2,AA$3)</f>
-        <v>50.524397192136092</v>
+        <v>50.443504311973875</v>
       </c>
       <c r="R38" s="13">
         <f>LOG(L38/K38+1,AB$3)</f>
-        <v>50.964918210380077</v>
+        <v>21.227869722080815</v>
       </c>
       <c r="S38" s="14">
         <f>LOG(M38*N38/K38+1,AC$3)</f>
-        <v>46.524681266478886</v>
+        <v>0</v>
       </c>
       <c r="U38" s="19">
         <f>(P38+Q38)/2</f>
-        <v>36.420640405204203</v>
+        <v>60.177069081642458</v>
       </c>
       <c r="V38" s="13">
         <f>(P38+Q38+R38)/3</f>
-        <v>41.268733006929494</v>
+        <v>47.194002628455245</v>
       </c>
       <c r="W38" s="14">
         <f>(P38+Q38+S38)/3</f>
-        <v>39.788654025629093</v>
+        <v>40.118046054428305</v>
       </c>
       <c r="X38" s="14">
         <f>(P38*2+Q38*2+R38+S38)/6</f>
-        <v>40.528693516279297</v>
+        <v>43.656024341441771</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="6" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11">
-        <v>117080000</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>147241458</v>
+      </c>
+      <c r="G39" s="11">
+        <v>20629278</v>
+      </c>
       <c r="H39" s="11">
-        <v>192860000</v>
+        <v>209455095</v>
       </c>
       <c r="I39" s="8">
         <f>H39</f>
-        <v>192860000</v>
+        <v>209455095</v>
       </c>
       <c r="J39" s="13">
-        <v>2214</v>
+        <v>824</v>
       </c>
       <c r="K39" s="15">
-        <v>23245</v>
+        <v>16410</v>
       </c>
       <c r="L39" s="16">
-        <v>11.33</v>
-      </c>
-      <c r="P39" s="14">
+        <v>20.56</v>
+      </c>
+      <c r="M39" s="17">
+        <v>1.9</v>
+      </c>
+      <c r="N39" s="14">
+        <v>21</v>
+      </c>
+      <c r="P39" s="18">
         <f>LOG((E39+F39)/(G39+F39)+1,Z$3)</f>
-        <v>73.06281659700845</v>
+        <v>62.633467022222355</v>
       </c>
       <c r="Q39" s="19">
         <f>LOG(J39*I39/K39^2,AA$3)</f>
-        <v>41.06213145549809</v>
+        <v>39.834531176599391</v>
       </c>
       <c r="R39" s="13">
         <f>LOG(L39/K39+1,AB$3)</f>
-        <v>6.9666350751273463</v>
+        <v>18.424546389416196</v>
       </c>
       <c r="S39" s="14">
         <f>LOG(M39*N39/K39+1,AC$3)</f>
-        <v>0</v>
+        <v>38.365281656498574</v>
       </c>
       <c r="U39" s="19">
         <f>(P39+Q39)/2</f>
-        <v>57.06247402625327</v>
+        <v>51.233999099410873</v>
       </c>
       <c r="V39" s="13">
         <f>(P39+Q39+R39)/3</f>
-        <v>40.363861042544627</v>
+        <v>40.297514862745977</v>
       </c>
       <c r="W39" s="14">
         <f>(P39+Q39+S39)/3</f>
-        <v>38.041649350835513</v>
+        <v>46.944426618440104</v>
       </c>
       <c r="X39" s="14">
         <f>(P39*2+Q39*2+R39+S39)/6</f>
-        <v>39.20275519669007</v>
+        <v>43.620970740593044</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6">
         <v>2022</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9">
-        <v>110565000</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9">
-        <v>236734000</v>
+      <c r="E40" s="11">
+        <v>16962080</v>
+      </c>
+      <c r="F40" s="11">
+        <v>447679492</v>
+      </c>
+      <c r="G40" s="11">
+        <v>54750430</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1199200318</v>
       </c>
       <c r="I40" s="8">
-        <f>H40*1.02</f>
-        <v>241468680</v>
+        <f>H40</f>
+        <v>1199200318</v>
       </c>
       <c r="J40" s="13">
-        <v>549.79</v>
+        <v>4353</v>
       </c>
       <c r="K40" s="15">
-        <v>10363</v>
+        <v>65651</v>
+      </c>
+      <c r="L40" s="16">
+        <v>124.13</v>
+      </c>
+      <c r="M40" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="N40" s="14">
+        <v>28</v>
       </c>
       <c r="P40" s="18">
         <f>LOG((E40+F40)/(G40+F40)+1,Z$3)</f>
-        <v>73.06281659700845</v>
+        <v>65.128102121221673</v>
       </c>
       <c r="Q40" s="19">
         <f>LOG(J40*I40/K40^2,AA$3)</f>
-        <v>43.815788301531192</v>
+        <v>43.757194140083598</v>
       </c>
       <c r="R40" s="13">
         <f>LOG(L40/K40+1,AB$3)</f>
-        <v>0</v>
+        <v>27.795811397836811</v>
       </c>
       <c r="S40" s="14">
         <f>LOG(M40*N40/K40+1,AC$3)</f>
-        <v>0</v>
+        <v>14.143050419379723</v>
       </c>
       <c r="U40" s="19">
         <f>(P40+Q40)/2</f>
-        <v>58.439302449269817</v>
+        <v>54.442648130652636</v>
       </c>
       <c r="V40" s="13">
         <f>(P40+Q40+R40)/3</f>
-        <v>38.959534966179881</v>
+        <v>45.560369219714026</v>
       </c>
       <c r="W40" s="14">
         <f>(P40+Q40+S40)/3</f>
-        <v>38.959534966179881</v>
+        <v>41.009448893561661</v>
       </c>
       <c r="X40" s="14">
         <f>(P40*2+Q40*2+R40+S40)/6</f>
-        <v>38.959534966179881</v>
+        <v>43.284909056637844</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C41" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>2023</v>
+      </c>
+      <c r="E41" s="11">
+        <v>5160000</v>
+      </c>
       <c r="F41" s="11">
-        <v>318235849.14999998</v>
-      </c>
-      <c r="G41" s="11">
-        <v>86177594.299999997</v>
-      </c>
+        <v>103200000</v>
+      </c>
+      <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <v>582806127.85000002</v>
+        <v>516000000</v>
       </c>
       <c r="I41" s="8">
         <f>H41</f>
-        <v>582806127.85000002</v>
+        <v>516000000</v>
       </c>
       <c r="J41" s="13">
-        <v>1627</v>
+        <v>3567.69</v>
       </c>
       <c r="K41" s="15">
-        <v>47959</v>
+        <v>27678</v>
       </c>
       <c r="L41" s="16">
-        <v>18.43</v>
-      </c>
-      <c r="M41" s="17">
-        <v>2.1</v>
-      </c>
-      <c r="N41" s="14">
-        <v>38</v>
+        <v>28.06</v>
       </c>
       <c r="P41" s="18">
         <f>LOG((E41+F41)/(G41+F41)+1,Z$3)</f>
-        <v>61.187530502234601</v>
+        <v>71.396430671210183</v>
       </c>
       <c r="Q41" s="19">
         <f>LOG(J41*I41/K41^2,AA$3)</f>
-        <v>37.057757607968476</v>
+        <v>47.980346853761532</v>
       </c>
       <c r="R41" s="13">
         <f>LOG(L41/K41+1,AB$3)</f>
-        <v>5.4928824517507424</v>
+        <v>14.910324874425806</v>
       </c>
       <c r="S41" s="14">
         <f>LOG(M41*N41/K41+1,AC$3)</f>
-        <v>23.59122171543509</v>
+        <v>0</v>
       </c>
       <c r="U41" s="19">
         <f>(P41+Q41)/2</f>
-        <v>49.122644055101539</v>
+        <v>59.688388762485857</v>
       </c>
       <c r="V41" s="13">
         <f>(P41+Q41+R41)/3</f>
-        <v>34.579390187317941</v>
+        <v>44.76236746646584</v>
       </c>
       <c r="W41" s="14">
         <f>(P41+Q41+S41)/3</f>
-        <v>40.612169941879387</v>
+        <v>39.792259174990569</v>
       </c>
       <c r="X41" s="14">
         <f>(P41*2+Q41*2+R41+S41)/6</f>
-        <v>37.595780064598664</v>
+        <v>42.277313320728204</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C42" s="6">
         <v>2022</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11">
-        <v>196693950</v>
-      </c>
-      <c r="G42" s="11">
-        <v>33135497</v>
-      </c>
+        <v>145400000</v>
+      </c>
+      <c r="G42" s="11"/>
       <c r="H42" s="11">
-        <v>291296473</v>
+        <v>222200000</v>
       </c>
       <c r="I42" s="8">
         <f>H42</f>
-        <v>291296473</v>
+        <v>222200000</v>
       </c>
       <c r="J42" s="13">
-        <v>1294.4680000000001</v>
+        <v>1746</v>
       </c>
       <c r="K42" s="15">
-        <v>19497</v>
+        <v>14340</v>
       </c>
       <c r="L42" s="16">
-        <v>1.74</v>
-      </c>
-      <c r="M42" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N42" s="14">
-        <v>4</v>
+        <v>21.48</v>
       </c>
       <c r="P42" s="18">
         <f>LOG((E42+F42)/(G42+F42)+1,Z$3)</f>
-        <v>65.17650583480264</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q42" s="19">
         <f>LOG(J42*I42/K42^2,AA$3)</f>
-        <v>42.461168968991906</v>
+        <v>46.489072818755886</v>
       </c>
       <c r="R42" s="13">
         <f>LOG(L42/K42+1,AB$3)</f>
-        <v>1.2758235091274839</v>
+        <v>22.024915846771567</v>
       </c>
       <c r="S42" s="14">
         <f>LOG(M42*N42/K42+1,AC$3)</f>
-        <v>3.2019504728673001</v>
+        <v>0</v>
       </c>
       <c r="U42" s="19">
         <f>(P42+Q42)/2</f>
-        <v>53.81883740189727</v>
+        <v>57.714786661602417</v>
       </c>
       <c r="V42" s="13">
         <f>(P42+Q42+R42)/3</f>
-        <v>36.304499437640672</v>
+        <v>45.818163056658797</v>
       </c>
       <c r="W42" s="14">
         <f>(P42+Q42+S42)/3</f>
-        <v>36.946541758887278</v>
+        <v>38.476524441068278</v>
       </c>
       <c r="X42" s="14">
         <f>(P42*2+Q42*2+R42+S42)/6</f>
-        <v>36.625520598263982</v>
+        <v>42.147343748863541</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11">
+        <v>350370000</v>
+      </c>
+      <c r="G43" s="11">
+        <v>41223000</v>
+      </c>
+      <c r="H43" s="11">
+        <v>558679000</v>
+      </c>
+      <c r="I43" s="8">
+        <f>H43</f>
+        <v>558679000</v>
+      </c>
+      <c r="J43" s="13">
+        <v>2430</v>
+      </c>
+      <c r="K43" s="15">
+        <v>22406</v>
+      </c>
+      <c r="L43" s="16">
+        <v>33.03</v>
+      </c>
+      <c r="M43" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N43" s="14">
         <v>7</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E43" s="10">
-        <v>29000000</v>
-      </c>
-      <c r="F43" s="10">
-        <v>236700000</v>
-      </c>
-      <c r="G43" s="10">
-        <v>929300000</v>
-      </c>
-      <c r="H43" s="10">
-        <v>1968300000</v>
-      </c>
-      <c r="I43" s="8">
-        <f>H43*1.17</f>
-        <v>2302911000</v>
-      </c>
-      <c r="J43" s="13">
-        <v>7380</v>
-      </c>
-      <c r="K43" s="15">
-        <v>46830</v>
-      </c>
-      <c r="L43" s="16">
-        <v>9.19</v>
-      </c>
-      <c r="M43" s="17">
-        <v>3.6</v>
-      </c>
-      <c r="N43" s="14">
-        <v>58</v>
       </c>
       <c r="P43" s="18">
         <f>LOG((E43+F43)/(G43+F43)+1,Z$3)</f>
-        <v>21.638388376089299</v>
+        <v>63.562608468786131</v>
       </c>
       <c r="Q43" s="19">
         <f>LOG(J43*I43/K43^2,AA$3)</f>
-        <v>55.112329112079387</v>
+        <v>48.708014470721238</v>
       </c>
       <c r="R43" s="13">
         <f>LOG(L43/K43+1,AB$3)</f>
-        <v>2.8052867864314366</v>
+        <v>21.675969177593377</v>
       </c>
       <c r="S43" s="14">
         <f>LOG(M43*N43/K43+1,AC$3)</f>
-        <v>63.127510938347513</v>
+        <v>5.4281682865909398</v>
       </c>
       <c r="U43" s="19">
         <f>(P43+Q43)/2</f>
-        <v>38.375358744084345</v>
+        <v>56.135311469753688</v>
       </c>
       <c r="V43" s="13">
         <f>(P43+Q43+R43)/3</f>
-        <v>26.518668091533375</v>
+        <v>44.648864039033583</v>
       </c>
       <c r="W43" s="14">
         <f>(P43+Q43+S43)/3</f>
-        <v>46.626076142172074</v>
+        <v>39.232930408699438</v>
       </c>
       <c r="X43" s="14">
         <f>(P43*2+Q43*2+R43+S43)/6</f>
-        <v>36.572372116852719</v>
+        <v>41.940897223866507</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C44" s="6">
         <v>2022</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11">
-        <v>644619668.87</v>
+        <v>406000000</v>
       </c>
       <c r="G44" s="11">
-        <v>116819770.81999999</v>
+        <v>59000000</v>
       </c>
       <c r="H44" s="11">
-        <v>880317964.64999998</v>
+        <v>810000000</v>
       </c>
       <c r="I44" s="8">
-        <f>H44*1.17</f>
-        <v>1029972018.6404999</v>
+        <f>H44</f>
+        <v>810000000</v>
       </c>
       <c r="J44" s="13">
-        <v>3576</v>
+        <v>3049</v>
       </c>
       <c r="K44" s="15">
-        <v>122143</v>
+        <v>33334</v>
       </c>
       <c r="L44" s="16">
-        <v>53.85</v>
-      </c>
-      <c r="M44" s="17">
-        <v>2.4</v>
-      </c>
-      <c r="N44" s="14">
-        <v>40</v>
+        <v>71.78</v>
       </c>
       <c r="P44" s="18">
         <f>LOG((E44+F44)/(G44+F44)+1,Z$3)</f>
-        <v>64.650074657013306</v>
+        <v>62.421624837233843</v>
       </c>
       <c r="Q44" s="19">
         <f>LOG(J44*I44/K44^2,AA$3)</f>
-        <v>33.902235608466235</v>
+        <v>47.499235612706805</v>
       </c>
       <c r="R44" s="13">
         <f>LOG(L44/K44+1,AB$3)</f>
-        <v>6.3015869017418735</v>
+        <v>31.6521373909418</v>
       </c>
       <c r="S44" s="14">
         <f>LOG(M44*N44/K44+1,AC$3)</f>
-        <v>11.148354287157201</v>
+        <v>0</v>
       </c>
       <c r="U44" s="19">
         <f>(P44+Q44)/2</f>
-        <v>49.276155132739774</v>
+        <v>54.960430224970324</v>
       </c>
       <c r="V44" s="13">
         <f>(P44+Q44+R44)/3</f>
-        <v>34.951299055740471</v>
+        <v>47.190999280294143</v>
       </c>
       <c r="W44" s="14">
         <f>(P44+Q44+S44)/3</f>
-        <v>36.566888184212253</v>
+        <v>36.640286816646885</v>
       </c>
       <c r="X44" s="14">
         <f>(P44*2+Q44*2+R44+S44)/6</f>
-        <v>35.759093619976362</v>
+        <v>41.915643048470514</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C45" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E45" s="10">
-        <v>2600000</v>
-      </c>
-      <c r="F45" s="10">
-        <v>94600000</v>
-      </c>
-      <c r="G45" s="10">
-        <v>342500000</v>
-      </c>
-      <c r="H45" s="10">
-        <v>675100000</v>
+        <v>2022</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1545561</v>
+      </c>
+      <c r="F45" s="11">
+        <v>146972266.58000001</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11">
+        <v>331968251.18000001</v>
       </c>
       <c r="I45" s="8">
-        <f>H45*1.17</f>
-        <v>789867000</v>
+        <f>H45</f>
+        <v>331968251.18000001</v>
       </c>
       <c r="J45" s="13">
-        <v>2745</v>
+        <v>2453</v>
       </c>
       <c r="K45" s="15">
-        <v>28680</v>
+        <v>21617</v>
       </c>
       <c r="L45" s="16">
-        <v>58.62</v>
-      </c>
-      <c r="M45" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N45" s="14">
-        <v>42</v>
-      </c>
-      <c r="P45" s="18">
+        <v>27.2</v>
+      </c>
+      <c r="P45" s="14">
         <f>LOG((E45+F45)/(G45+F45)+1,Z$3)</f>
-        <v>21.165321778571887</v>
+        <v>69.462091958071227</v>
       </c>
       <c r="Q45" s="19">
         <f>LOG(J45*I45/K45^2,AA$3)</f>
-        <v>48.475710204161601</v>
+        <v>45.999631979874948</v>
       </c>
       <c r="R45" s="13">
         <f>LOG(L45/K45+1,AB$3)</f>
-        <v>29.191185488556684</v>
+        <v>18.503530093268907</v>
       </c>
       <c r="S45" s="14">
         <f>LOG(M45*N45/K45+1,AC$3)</f>
-        <v>45.642864380767257</v>
+        <v>0</v>
       </c>
       <c r="U45" s="19">
         <f>(P45+Q45)/2</f>
-        <v>34.820515991366747</v>
+        <v>57.730861968973088</v>
       </c>
       <c r="V45" s="13">
         <f>(P45+Q45+R45)/3</f>
-        <v>32.944072490430059</v>
+        <v>44.655084677071692</v>
       </c>
       <c r="W45" s="14">
         <f>(P45+Q45+S45)/3</f>
-        <v>38.427965454500253</v>
+        <v>38.487241312648727</v>
       </c>
       <c r="X45" s="14">
         <f>(P45*2+Q45*2+R45+S45)/6</f>
-        <v>35.686018972465156</v>
+        <v>41.571162994860209</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C46" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3448000</v>
-      </c>
-      <c r="F46" s="10">
-        <v>91494000</v>
-      </c>
-      <c r="G46" s="10">
-        <v>361632000</v>
-      </c>
-      <c r="H46" s="10">
-        <v>730044000</v>
+        <v>2022</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2272000</v>
+      </c>
+      <c r="F46" s="11">
+        <v>44663000</v>
+      </c>
+      <c r="G46" s="11">
+        <v>9198000</v>
+      </c>
+      <c r="H46" s="11">
+        <v>244230000</v>
       </c>
       <c r="I46" s="8">
-        <f>H46*1.17</f>
-        <v>854151480</v>
+        <f>H46</f>
+        <v>244230000</v>
       </c>
       <c r="J46" s="13">
-        <v>2445</v>
+        <v>1847</v>
       </c>
       <c r="K46" s="15">
-        <v>23795</v>
+        <v>14263</v>
       </c>
       <c r="L46" s="16">
-        <v>63.86</v>
+        <v>19.46</v>
       </c>
       <c r="M46" s="17">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="N46" s="14">
-        <v>34</v>
-      </c>
-      <c r="P46" s="18">
+        <v>7</v>
+      </c>
+      <c r="P46" s="14">
         <f>LOG((E46+F46)/(G46+F46)+1,Z$3)</f>
-        <v>20.051551450177129</v>
+        <v>62.330862225866696</v>
       </c>
       <c r="Q46" s="19">
         <f>LOG(J46*I46/K46^2,AA$3)</f>
-        <v>50.543217830780556</v>
+        <v>47.484710793752591</v>
       </c>
       <c r="R46" s="13">
         <f>LOG(L46/K46+1,AB$3)</f>
-        <v>38.316833126697134</v>
+        <v>20.06273093356269</v>
       </c>
       <c r="S46" s="14">
         <f>LOG(M46*N46/K46+1,AC$3)</f>
-        <v>34.426583032264915</v>
+        <v>9.3012661765401869</v>
       </c>
       <c r="U46" s="19">
         <f>(P46+Q46)/2</f>
-        <v>35.297384640478839</v>
+        <v>54.90778650980964</v>
       </c>
       <c r="V46" s="13">
         <f>(P46+Q46+R46)/3</f>
-        <v>36.303867469218268</v>
+        <v>43.292767984393983</v>
       </c>
       <c r="W46" s="14">
         <f>(P46+Q46+S46)/3</f>
-        <v>35.007117437740867</v>
+        <v>39.705613065386487</v>
       </c>
       <c r="X46" s="14">
         <f>(P46*2+Q46*2+R46+S46)/6</f>
-        <v>35.655492453479567</v>
+        <v>41.499190524890246</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C47" s="6">
         <v>2023</v>
       </c>
       <c r="E47" s="10">
-        <v>28900000</v>
+        <v>600000</v>
       </c>
       <c r="F47" s="10">
-        <v>148300000</v>
+        <v>127700000</v>
       </c>
       <c r="G47" s="10">
-        <v>607800000</v>
+        <v>416400000</v>
       </c>
       <c r="H47" s="10">
-        <v>1230000000</v>
+        <v>934200000</v>
       </c>
       <c r="I47" s="8">
         <f>H47*1.17</f>
-        <v>1439100000</v>
+        <v>1093014000</v>
       </c>
       <c r="J47" s="13">
-        <v>4525</v>
+        <v>3335</v>
       </c>
       <c r="K47" s="15">
-        <v>41490</v>
+        <v>31485</v>
       </c>
       <c r="L47" s="16">
-        <v>112.24</v>
+        <v>112.44</v>
       </c>
       <c r="M47" s="17">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N47" s="14">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P47" s="18">
         <f>LOG((E47+F47)/(G47+F47)+1,Z$3)</f>
-        <v>22.193841810349269</v>
+        <v>21.057730840426242</v>
       </c>
       <c r="Q47" s="19">
         <f>LOG(J47*I47/K47^2,AA$3)</f>
-        <v>50.69881257614248</v>
+        <v>50.602300039689148</v>
       </c>
       <c r="R47" s="13">
         <f>LOG(L47/K47+1,AB$3)</f>
-        <v>38.622997263848987</v>
+        <v>52.45622156212842</v>
       </c>
       <c r="S47" s="14">
         <f>LOG(M47*N47/K47+1,AC$3)</f>
-        <v>28.289979644599967</v>
+        <v>51.797190557853902</v>
       </c>
       <c r="U47" s="19">
         <f>(P47+Q47)/2</f>
-        <v>36.446327193245878</v>
+        <v>35.830015440057693</v>
       </c>
       <c r="V47" s="13">
         <f>(P47+Q47+R47)/3</f>
-        <v>37.171883883446917</v>
+        <v>41.372084147414604</v>
       </c>
       <c r="W47" s="14">
         <f>(P47+Q47+S47)/3</f>
-        <v>33.727544677030572</v>
+        <v>41.152407145989763</v>
       </c>
       <c r="X47" s="14">
         <f>(P47*2+Q47*2+R47+S47)/6</f>
-        <v>35.449714280238744</v>
+        <v>41.262245646702176</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C48" s="6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11">
-        <v>271160973</v>
-      </c>
-      <c r="G48" s="11">
-        <v>64849737</v>
-      </c>
+        <v>170900000</v>
+      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="11">
-        <v>405512751</v>
+        <v>289107937</v>
       </c>
       <c r="I48" s="8">
         <f>H48</f>
-        <v>405512751</v>
+        <v>289107937</v>
       </c>
       <c r="J48" s="13">
-        <v>1518</v>
+        <v>3439.4</v>
       </c>
       <c r="K48" s="15">
-        <v>52583</v>
+        <v>22287</v>
       </c>
       <c r="L48" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="M48" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="N48" s="14">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P48" s="18">
         <f>LOG((E48+F48)/(G48+F48)+1,Z$3)</f>
-        <v>62.366222275027191</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q48" s="19">
         <f>LOG(J48*I48/K48^2,AA$3)</f>
-        <v>33.265986336040164</v>
+        <v>46.854513275050934</v>
       </c>
       <c r="R48" s="13">
         <f>LOG(L48/K48+1,AB$3)</f>
-        <v>11.007051283161484</v>
+        <v>15.177715953502739</v>
       </c>
       <c r="S48" s="14">
         <f>LOG(M48*N48/K48+1,AC$3)</f>
-        <v>7.5539793505491923</v>
+        <v>0</v>
       </c>
       <c r="U48" s="19">
         <f>(P48+Q48)/2</f>
-        <v>47.816104305533678</v>
+        <v>57.897506889749941</v>
       </c>
       <c r="V48" s="13">
         <f>(P48+Q48+R48)/3</f>
-        <v>35.546419964742945</v>
+        <v>43.657576577667534</v>
       </c>
       <c r="W48" s="14">
         <f>(P48+Q48+S48)/3</f>
-        <v>34.395395987205518</v>
+        <v>38.598337926499958</v>
       </c>
       <c r="X48" s="14">
         <f>(P48*2+Q48*2+R48+S48)/6</f>
-        <v>34.970907975974228</v>
+        <v>41.127957252083753</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C49" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2099000</v>
-      </c>
-      <c r="F49" s="10">
-        <v>48390000</v>
-      </c>
-      <c r="G49" s="10">
-        <v>150726000</v>
-      </c>
-      <c r="H49" s="10">
-        <v>316331000</v>
+        <v>2022</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1644641233</v>
+      </c>
+      <c r="F49" s="32">
+        <v>21390200000</v>
+      </c>
+      <c r="G49" s="32">
+        <v>727601475</v>
+      </c>
+      <c r="H49" s="32">
+        <v>31234324081</v>
       </c>
       <c r="I49" s="8">
-        <f>H49*1.17</f>
-        <v>370107270</v>
+        <f>H49/150</f>
+        <v>208228827.20666668</v>
       </c>
       <c r="J49" s="13">
-        <v>1300</v>
+        <v>876</v>
       </c>
       <c r="K49" s="15">
-        <v>15575</v>
+        <v>14167</v>
       </c>
       <c r="L49" s="16">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="M49" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="N49" s="14">
-        <v>26</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="P49" s="18">
         <f>LOG((E49+F49)/(G49+F49)+1,Z$3)</f>
-        <v>23.821231241688118</v>
+        <v>70.9813075952041</v>
       </c>
       <c r="Q49" s="19">
         <f>LOG(J49*I49/K49^2,AA$3)</f>
-        <v>46.725350157229919</v>
+        <v>41.98731225770802</v>
       </c>
       <c r="R49" s="13">
         <f>LOG(L49/K49+1,AB$3)</f>
-        <v>16.586201720755749</v>
+        <v>20.043001829561252</v>
       </c>
       <c r="S49" s="14">
         <f>LOG(M49*N49/K49+1,AC$3)</f>
-        <v>44.935521980419587</v>
+        <v>0</v>
       </c>
       <c r="U49" s="19">
         <f>(P49+Q49)/2</f>
-        <v>35.273290699459018</v>
+        <v>56.484309926456064</v>
       </c>
       <c r="V49" s="13">
         <f>(P49+Q49+R49)/3</f>
-        <v>29.044261039891264</v>
+        <v>44.337207227491128</v>
       </c>
       <c r="W49" s="14">
         <f>(P49+Q49+S49)/3</f>
-        <v>38.494034459779208</v>
+        <v>37.656206617637373</v>
       </c>
       <c r="X49" s="14">
         <f>(P49*2+Q49*2+R49+S49)/6</f>
-        <v>33.769147749835234</v>
+        <v>40.99670692256425</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C50" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E50" s="10">
-        <v>4000000</v>
-      </c>
-      <c r="F50" s="10">
-        <v>74400000</v>
-      </c>
-      <c r="G50" s="10">
-        <v>453800000</v>
-      </c>
-      <c r="H50" s="10">
-        <v>839400000</v>
+        <v>2022</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11">
+        <v>155350916.22</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11">
+        <v>256352554.86000001</v>
       </c>
       <c r="I50" s="8">
-        <f>H50*1.17</f>
-        <v>982097999.99999988</v>
+        <f>H50</f>
+        <v>256352554.86000001</v>
       </c>
       <c r="J50" s="13">
-        <v>2745</v>
+        <v>1689</v>
       </c>
       <c r="K50" s="15">
-        <v>28825</v>
+        <v>16170</v>
       </c>
       <c r="L50" s="16">
-        <v>58.98</v>
-      </c>
-      <c r="M50" s="17">
-        <v>2.4</v>
-      </c>
-      <c r="N50" s="14">
-        <v>35</v>
+        <v>14.69</v>
       </c>
       <c r="P50" s="18">
         <f>LOG((E50+F50)/(G50+F50)+1,Z$3)</f>
-        <v>14.587809378282763</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q50" s="19">
         <f>LOG(J50*I50/K50^2,AA$3)</f>
-        <v>49.754161815816836</v>
+        <v>45.685190865367446</v>
       </c>
       <c r="R50" s="13">
         <f>LOG(L50/K50+1,AB$3)</f>
-        <v>29.222679783426059</v>
+        <v>13.361917131726688</v>
       </c>
       <c r="S50" s="14">
         <f>LOG(M50*N50/K50+1,AC$3)</f>
-        <v>41.291120262715772</v>
+        <v>0</v>
       </c>
       <c r="U50" s="19">
         <f>(P50+Q50)/2</f>
-        <v>32.1709855970498</v>
+        <v>57.312845684908197</v>
       </c>
       <c r="V50" s="13">
         <f>(P50+Q50+R50)/3</f>
-        <v>31.188216992508554</v>
+        <v>42.662536167181024</v>
       </c>
       <c r="W50" s="14">
         <f>(P50+Q50+S50)/3</f>
-        <v>35.211030485605129</v>
+        <v>38.2085637899388</v>
       </c>
       <c r="X50" s="14">
         <f>(P50*2+Q50*2+R50+S50)/6</f>
-        <v>33.19962373905684</v>
+        <v>40.435549978559912</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E51" s="10">
-        <v>9000000</v>
-      </c>
-      <c r="F51" s="10">
-        <v>113000000</v>
-      </c>
-      <c r="G51" s="10">
-        <v>445000000</v>
-      </c>
-      <c r="H51" s="10">
-        <v>929000000</v>
+        <v>2022</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11">
+        <v>117080000</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11">
+        <v>192860000</v>
       </c>
       <c r="I51" s="8">
-        <f>H51*1.17</f>
-        <v>1086930000</v>
+        <f>H51</f>
+        <v>192860000</v>
       </c>
       <c r="J51" s="13">
-        <v>3665</v>
+        <v>2214</v>
       </c>
       <c r="K51" s="15">
-        <v>37990</v>
+        <v>23245</v>
       </c>
       <c r="L51" s="16">
-        <v>72.36</v>
-      </c>
-      <c r="M51" s="17">
-        <v>2.1</v>
-      </c>
-      <c r="N51" s="14">
-        <v>38</v>
-      </c>
-      <c r="P51" s="18">
+        <v>11.33</v>
+      </c>
+      <c r="P51" s="14">
         <f>LOG((E51+F51)/(G51+F51)+1,Z$3)</f>
-        <v>20.842602241550473</v>
+        <v>68.940500504448949</v>
       </c>
       <c r="Q51" s="19">
         <f>LOG(J51*I51/K51^2,AA$3)</f>
-        <v>48.759101181163921</v>
+        <v>41.125444570443655</v>
       </c>
       <c r="R51" s="13">
         <f>LOG(L51/K51+1,AB$3)</f>
-        <v>27.20473575994631</v>
+        <v>7.1704883648561406</v>
       </c>
       <c r="S51" s="14">
         <f>LOG(M51*N51/K51+1,AC$3)</f>
-        <v>29.775330638812871</v>
+        <v>0</v>
       </c>
       <c r="U51" s="19">
         <f>(P51+Q51)/2</f>
-        <v>34.800851711357197</v>
+        <v>55.032972537446298</v>
       </c>
       <c r="V51" s="13">
         <f>(P51+Q51+R51)/3</f>
-        <v>32.268813060886906</v>
+        <v>39.078811146582915</v>
       </c>
       <c r="W51" s="14">
         <f>(P51+Q51+S51)/3</f>
-        <v>33.125678020509092</v>
+        <v>36.688648358297534</v>
       </c>
       <c r="X51" s="14">
         <f>(P51*2+Q51*2+R51+S51)/6</f>
-        <v>32.697245540697999</v>
+        <v>37.883729752440225</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C52" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E52" s="10">
-        <v>8000000</v>
-      </c>
-      <c r="F52" s="10">
-        <v>185900000</v>
-      </c>
-      <c r="G52" s="10">
-        <v>410800000</v>
-      </c>
-      <c r="H52" s="10">
-        <v>952200000</v>
+        <v>2022</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11">
+        <v>318235849.14999998</v>
+      </c>
+      <c r="G52" s="11">
+        <v>86177594.299999997</v>
+      </c>
+      <c r="H52" s="11">
+        <v>582806127.85000002</v>
       </c>
       <c r="I52" s="8">
-        <f>H52*1.17</f>
-        <v>1114074000</v>
+        <f>H52</f>
+        <v>582806127.85000002</v>
       </c>
       <c r="J52" s="13">
-        <v>3810</v>
+        <v>1627</v>
       </c>
       <c r="K52" s="15">
-        <v>42980</v>
+        <v>47959</v>
       </c>
       <c r="L52" s="16">
-        <v>77.62</v>
+        <v>18.43</v>
       </c>
       <c r="M52" s="17">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N52" s="14">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P52" s="18">
         <f>LOG((E52+F52)/(G52+F52)+1,Z$3)</f>
-        <v>29.659278919544874</v>
+        <v>57.735236251869431</v>
       </c>
       <c r="Q52" s="19">
         <f>LOG(J52*I52/K52^2,AA$3)</f>
-        <v>47.63070938864611</v>
+        <v>37.114896435980874</v>
       </c>
       <c r="R52" s="13">
         <f>LOG(L52/K52+1,AB$3)</f>
-        <v>25.795496176963461</v>
+        <v>5.6536117200140854</v>
       </c>
       <c r="S52" s="14">
         <f>LOG(M52*N52/K52+1,AC$3)</f>
-        <v>15.706480851488273</v>
+        <v>26.264747515151619</v>
       </c>
       <c r="U52" s="19">
         <f>(P52+Q52)/2</f>
-        <v>38.644994154095492</v>
+        <v>47.425066343925153</v>
       </c>
       <c r="V52" s="13">
         <f>(P52+Q52+R52)/3</f>
-        <v>34.361828161718144</v>
+        <v>33.501248135954796</v>
       </c>
       <c r="W52" s="14">
         <f>(P52+Q52+S52)/3</f>
-        <v>30.99882305322642</v>
+        <v>40.371626734333972</v>
       </c>
       <c r="X52" s="14">
         <f>(P52*2+Q52*2+R52+S52)/6</f>
-        <v>32.680325607472284</v>
+        <v>36.936437435144384</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C53" s="6">
         <v>2023</v>
       </c>
       <c r="E53" s="10">
-        <v>18564000</v>
+        <v>2600000</v>
       </c>
       <c r="F53" s="10">
-        <v>184180000</v>
+        <v>94600000</v>
       </c>
       <c r="G53" s="10">
-        <v>659945000</v>
+        <v>342500000</v>
       </c>
       <c r="H53" s="10">
-        <v>1344665000</v>
+        <v>675100000</v>
       </c>
       <c r="I53" s="8">
         <f>H53*1.17</f>
-        <v>1573258050</v>
+        <v>789867000</v>
       </c>
       <c r="J53" s="13">
-        <v>4820</v>
+        <v>2745</v>
       </c>
       <c r="K53" s="15">
-        <v>46410</v>
+        <v>28680</v>
       </c>
       <c r="L53" s="16">
-        <v>131.31</v>
+        <v>58.62</v>
       </c>
       <c r="M53" s="17">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N53" s="14">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P53" s="18">
         <f>LOG((E53+F53)/(G53+F53)+1,Z$3)</f>
-        <v>22.689830439564123</v>
+        <v>19.971141884669745</v>
       </c>
       <c r="Q53" s="19">
         <f>LOG(J53*I53/K53^2,AA$3)</f>
-        <v>50.256715965676605</v>
+        <v>48.550454210462156</v>
       </c>
       <c r="R53" s="13">
         <f>LOG(L53/K53+1,AB$3)</f>
-        <v>40.392533460398731</v>
+        <v>30.045359581035179</v>
       </c>
       <c r="S53" s="14">
         <f>LOG(M53*N53/K53+1,AC$3)</f>
-        <v>7.7028211915503952</v>
+        <v>50.815439882234593</v>
       </c>
       <c r="U53" s="19">
         <f>(P53+Q53)/2</f>
-        <v>36.473273202620362</v>
+        <v>34.260798047565949</v>
       </c>
       <c r="V53" s="13">
         <f>(P53+Q53+R53)/3</f>
-        <v>37.77969328854649</v>
+        <v>32.855651892055697</v>
       </c>
       <c r="W53" s="14">
         <f>(P53+Q53+S53)/3</f>
-        <v>26.883122532263709</v>
+        <v>39.779011992455501</v>
       </c>
       <c r="X53" s="14">
         <f>(P53*2+Q53*2+R53+S53)/6</f>
-        <v>32.331407910405098</v>
+        <v>36.317331942255592</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C54" s="6">
         <v>2023</v>
       </c>
       <c r="E54" s="10">
-        <v>3135000</v>
+        <v>3448000</v>
       </c>
       <c r="F54" s="10">
-        <v>108240000</v>
+        <v>91494000</v>
       </c>
       <c r="G54" s="10">
-        <v>160937000</v>
+        <v>361632000</v>
       </c>
       <c r="H54" s="10">
-        <v>460525000</v>
+        <v>730044000</v>
       </c>
       <c r="I54" s="8">
         <f>H54*1.17</f>
-        <v>538814250</v>
+        <v>854151480</v>
       </c>
       <c r="J54" s="13">
-        <v>1915</v>
+        <v>2445</v>
       </c>
       <c r="K54" s="15">
-        <v>25295</v>
+        <v>23795</v>
       </c>
       <c r="L54" s="16">
-        <v>24.1</v>
+        <v>63.86</v>
       </c>
       <c r="M54" s="17">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="N54" s="14">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P54" s="18">
         <f>LOG((E54+F54)/(G54+F54)+1,Z$3)</f>
-        <v>36.497686816121394</v>
+        <v>18.920212185229676</v>
       </c>
       <c r="Q54" s="19">
         <f>LOG(J54*I54/K54^2,AA$3)</f>
-        <v>45.45177518384984</v>
+        <v>50.621149697607954</v>
       </c>
       <c r="R54" s="13">
         <f>LOG(L54/K54+1,AB$3)</f>
-        <v>13.614574557915363</v>
+        <v>39.438036175318665</v>
       </c>
       <c r="S54" s="14">
         <f>LOG(M54*N54/K54+1,AC$3)</f>
-        <v>14.297674542628565</v>
+        <v>38.328049393060638</v>
       </c>
       <c r="U54" s="19">
         <f>(P54+Q54)/2</f>
-        <v>40.974730999985617</v>
+        <v>34.770680941418817</v>
       </c>
       <c r="V54" s="13">
         <f>(P54+Q54+R54)/3</f>
-        <v>31.854678852628865</v>
+        <v>36.326466019385435</v>
       </c>
       <c r="W54" s="14">
         <f>(P54+Q54+S54)/3</f>
-        <v>32.082378847533271</v>
+        <v>35.956470425299422</v>
       </c>
       <c r="X54" s="14">
         <f>(P54*2+Q54*2+R54+S54)/6</f>
-        <v>31.968528850081068</v>
+        <v>36.141468222342432</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C55" s="6">
         <v>2023</v>
       </c>
       <c r="E55" s="10">
-        <v>11700000</v>
+        <v>28900000</v>
       </c>
       <c r="F55" s="10">
-        <v>111500000</v>
+        <v>148300000</v>
       </c>
       <c r="G55" s="10">
-        <v>397500000</v>
+        <v>607800000</v>
       </c>
       <c r="H55" s="10">
-        <v>887000000</v>
+        <v>1230000000</v>
       </c>
       <c r="I55" s="8">
         <f>H55*1.17</f>
-        <v>1037789999.9999999</v>
+        <v>1439100000</v>
       </c>
       <c r="J55" s="13">
-        <v>3345</v>
+        <v>4525</v>
       </c>
       <c r="K55" s="15">
-        <v>30860</v>
+        <v>41490</v>
       </c>
       <c r="L55" s="16">
-        <v>48.8</v>
+        <v>112.24</v>
       </c>
       <c r="M55" s="17">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N55" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P55" s="18">
         <f>LOG((E55+F55)/(G55+F55)+1,Z$3)</f>
-        <v>22.847866378662491</v>
+        <v>20.941631239886963</v>
       </c>
       <c r="Q55" s="19">
         <f>LOG(J55*I55/K55^2,AA$3)</f>
-        <v>50.470544287251322</v>
+        <v>50.77698435228897</v>
       </c>
       <c r="R55" s="13">
         <f>LOG(L55/K55+1,AB$3)</f>
-        <v>22.58963772595984</v>
+        <v>39.753159094706469</v>
       </c>
       <c r="S55" s="14">
         <f>LOG(M55*N55/K55+1,AC$3)</f>
-        <v>20.58475829311957</v>
+        <v>31.496002264607313</v>
       </c>
       <c r="U55" s="19">
         <f>(P55+Q55)/2</f>
-        <v>36.659205332956908</v>
+        <v>35.859307796087968</v>
       </c>
       <c r="V55" s="13">
         <f>(P55+Q55+R55)/3</f>
-        <v>31.969349463957883</v>
+        <v>37.157258228960806</v>
       </c>
       <c r="W55" s="14">
         <f>(P55+Q55+S55)/3</f>
-        <v>31.301056319677798</v>
+        <v>34.404872618927747</v>
       </c>
       <c r="X55" s="14">
         <f>(P55*2+Q55*2+R55+S55)/6</f>
-        <v>31.635202891817841</v>
+        <v>35.781065423944277</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C56" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E56" s="10">
-        <v>9373000</v>
-      </c>
-      <c r="F56" s="10">
-        <v>46778000</v>
-      </c>
-      <c r="G56" s="10">
-        <v>289887000</v>
-      </c>
-      <c r="H56" s="10">
-        <v>484223000</v>
+        <v>2022</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11">
+        <v>196693950</v>
+      </c>
+      <c r="G56" s="11">
+        <v>33135497</v>
+      </c>
+      <c r="H56" s="11">
+        <v>291296473</v>
       </c>
       <c r="I56" s="8">
-        <f>H56*1.17</f>
-        <v>566540910</v>
+        <f>H56</f>
+        <v>291296473</v>
       </c>
       <c r="J56" s="13">
-        <v>2020</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="K56" s="15">
-        <v>22230</v>
+        <v>19497</v>
       </c>
       <c r="L56" s="16">
-        <v>72.89</v>
+        <v>1.74</v>
       </c>
       <c r="M56" s="17">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N56" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P56" s="18">
         <f>LOG((E56+F56)/(G56+F56)+1,Z$3)</f>
-        <v>16.259395476880421</v>
+        <v>61.499147482447427</v>
       </c>
       <c r="Q56" s="19">
         <f>LOG(J56*I56/K56^2,AA$3)</f>
-        <v>47.678853366130191</v>
+        <v>42.52663923992926</v>
       </c>
       <c r="R56" s="13">
         <f>LOG(L56/K56+1,AB$3)</f>
-        <v>46.8000132588054</v>
+        <v>1.3131558534578949</v>
       </c>
       <c r="S56" s="14">
         <f>LOG(M56*N56/K56+1,AC$3)</f>
-        <v>13.398417482865478</v>
+        <v>3.5648183777975637</v>
       </c>
       <c r="U56" s="19">
         <f>(P56+Q56)/2</f>
-        <v>31.969124421505306</v>
+        <v>52.012893361188347</v>
       </c>
       <c r="V56" s="13">
         <f>(P56+Q56+R56)/3</f>
-        <v>36.912754033938675</v>
+        <v>35.112980858611529</v>
       </c>
       <c r="W56" s="14">
         <f>(P56+Q56+S56)/3</f>
-        <v>25.778888775292032</v>
+        <v>35.863535033391422</v>
       </c>
       <c r="X56" s="14">
         <f>(P56*2+Q56*2+R56+S56)/6</f>
-        <v>31.34582140461535</v>
+        <v>35.488257946001475</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C57" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E57" s="10">
-        <v>2900000</v>
-      </c>
-      <c r="F57" s="10">
-        <v>80000000</v>
-      </c>
-      <c r="G57" s="10">
-        <v>382900000</v>
-      </c>
-      <c r="H57" s="10">
-        <v>679800000</v>
+        <v>2022</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11">
+        <v>644619668.87</v>
+      </c>
+      <c r="G57" s="11">
+        <v>116819770.81999999</v>
+      </c>
+      <c r="H57" s="11">
+        <v>880317964.64999998</v>
       </c>
       <c r="I57" s="8">
         <f>H57*1.17</f>
-        <v>795366000</v>
+        <v>1029972018.6404999</v>
       </c>
       <c r="J57" s="13">
-        <v>2505</v>
+        <v>3576</v>
       </c>
       <c r="K57" s="15">
-        <v>26045</v>
+        <v>122143</v>
       </c>
       <c r="L57" s="16">
-        <v>61.42</v>
+        <v>53.85</v>
       </c>
       <c r="M57" s="17">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N57" s="14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P57" s="18">
         <f>LOG((E57+F57)/(G57+F57)+1,Z$3)</f>
-        <v>17.364973470394105</v>
+        <v>61.002418358546812</v>
       </c>
       <c r="Q57" s="19">
         <f>LOG(J57*I57/K57^2,AA$3)</f>
-        <v>49.141544210775983</v>
+        <v>33.954508982105324</v>
       </c>
       <c r="R57" s="13">
         <f>LOG(L57/K57+1,AB$3)</f>
-        <v>33.674595901314291</v>
+        <v>6.4859799705016119</v>
       </c>
       <c r="S57" s="14">
         <f>LOG(M57*N57/K57+1,AC$3)</f>
-        <v>19.600037004785559</v>
+        <v>12.411765447910875</v>
       </c>
       <c r="U57" s="19">
         <f>(P57+Q57)/2</f>
-        <v>33.253258840585048</v>
+        <v>47.478463670326065</v>
       </c>
       <c r="V57" s="13">
         <f>(P57+Q57+R57)/3</f>
-        <v>33.393704527494798</v>
+        <v>33.814302437051246</v>
       </c>
       <c r="W57" s="14">
         <f>(P57+Q57+S57)/3</f>
-        <v>28.702184895318553</v>
+        <v>35.789564262854334</v>
       </c>
       <c r="X57" s="14">
         <f>(P57*2+Q57*2+R57+S57)/6</f>
-        <v>31.047944711406672</v>
+        <v>34.80193334995279</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C58" s="6">
         <v>2023</v>
       </c>
       <c r="E58" s="10">
-        <v>655000</v>
+        <v>2099000</v>
       </c>
       <c r="F58" s="10">
-        <v>22578000</v>
+        <v>48390000</v>
       </c>
       <c r="G58" s="10">
-        <v>136722000</v>
+        <v>150726000</v>
       </c>
       <c r="H58" s="10">
-        <v>216104000</v>
+        <v>316331000</v>
       </c>
       <c r="I58" s="8">
         <f>H58*1.17</f>
-        <v>252841679.99999997</v>
+        <v>370107270</v>
       </c>
       <c r="J58" s="13">
-        <v>880</v>
+        <v>1300</v>
       </c>
       <c r="K58" s="15">
-        <v>12480</v>
+        <v>15575</v>
       </c>
       <c r="L58" s="16">
-        <v>8.6999999999999993</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="M58" s="17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="N58" s="14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P58" s="18">
         <f>LOG((E58+F58)/(G58+F58)+1,Z$3)</f>
-        <v>14.350344116873988</v>
+        <v>22.477200865281674</v>
       </c>
       <c r="Q58" s="19">
         <f>LOG(J58*I58/K58^2,AA$3)</f>
-        <v>44.705902930628348</v>
+        <v>46.797395308334224</v>
       </c>
       <c r="R58" s="13">
         <f>LOG(L58/K58+1,AB$3)</f>
-        <v>9.9628102040076953</v>
+        <v>17.071536713678373</v>
       </c>
       <c r="S58" s="14">
         <f>LOG(M58*N58/K58+1,AC$3)</f>
-        <v>57.189882977196596</v>
+        <v>50.027936387248673</v>
       </c>
       <c r="U58" s="19">
         <f>(P58+Q58)/2</f>
-        <v>29.528123523751169</v>
+        <v>34.637298086807945</v>
       </c>
       <c r="V58" s="13">
         <f>(P58+Q58+R58)/3</f>
-        <v>23.00635241717001</v>
+        <v>28.782044295764752</v>
       </c>
       <c r="W58" s="14">
         <f>(P58+Q58+S58)/3</f>
-        <v>38.748710008232983</v>
+        <v>39.767510853621523</v>
       </c>
       <c r="X58" s="14">
         <f>(P58*2+Q58*2+R58+S58)/6</f>
-        <v>30.877531212701495</v>
+        <v>34.27477757469314</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C59" s="6">
         <v>2023</v>
       </c>
-      <c r="E59" s="10">
-        <v>3954000</v>
-      </c>
-      <c r="F59" s="10">
-        <v>50464000</v>
-      </c>
-      <c r="G59" s="10">
-        <v>199319000</v>
-      </c>
-      <c r="H59" s="10">
-        <v>381775000</v>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11">
+        <v>271160973</v>
+      </c>
+      <c r="G59" s="11">
+        <v>64849737</v>
+      </c>
+      <c r="H59" s="11">
+        <v>405512751</v>
       </c>
       <c r="I59" s="8">
-        <f>H59*1.17</f>
-        <v>446676750</v>
+        <f>H59</f>
+        <v>405512751</v>
       </c>
       <c r="J59" s="13">
-        <v>1495</v>
+        <v>1518</v>
       </c>
       <c r="K59" s="15">
-        <v>17770</v>
+        <v>52583</v>
       </c>
       <c r="L59" s="16">
-        <v>18.32</v>
+        <v>40.5</v>
       </c>
       <c r="M59" s="17">
         <v>1.4</v>
       </c>
       <c r="N59" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P59" s="18">
         <f>LOG((E59+F59)/(G59+F59)+1,Z$3)</f>
-        <v>20.77538295517569</v>
+        <v>58.847424428312166</v>
       </c>
       <c r="Q59" s="19">
         <f>LOG(J59*I59/K59^2,AA$3)</f>
-        <v>47.119919644670503</v>
+        <v>33.317278685999007</v>
       </c>
       <c r="R59" s="13">
         <f>LOG(L59/K59+1,AB$3)</f>
-        <v>14.731358270919952</v>
+        <v>11.329132688328956</v>
       </c>
       <c r="S59" s="14">
         <f>LOG(M59*N59/K59+1,AC$3)</f>
-        <v>27.921066107516271</v>
+        <v>8.4100502623411675</v>
       </c>
       <c r="U59" s="19">
         <f>(P59+Q59)/2</f>
-        <v>33.947651299923095</v>
+        <v>46.08235155715559</v>
       </c>
       <c r="V59" s="13">
         <f>(P59+Q59+R59)/3</f>
-        <v>27.542220290255383</v>
+        <v>34.497945267546712</v>
       </c>
       <c r="W59" s="14">
         <f>(P59+Q59+S59)/3</f>
-        <v>31.938789569120818</v>
+        <v>33.524917792217451</v>
       </c>
       <c r="X59" s="14">
         <f>(P59*2+Q59*2+R59+S59)/6</f>
-        <v>29.7405049296881</v>
+        <v>34.011431529882081</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C60" s="6">
         <v>2023</v>
       </c>
       <c r="E60" s="10">
-        <v>3189000</v>
+        <v>4000000</v>
       </c>
       <c r="F60" s="10">
-        <v>59459000</v>
+        <v>74400000</v>
       </c>
       <c r="G60" s="10">
-        <v>256284000</v>
+        <v>453800000</v>
       </c>
       <c r="H60" s="10">
-        <v>518675000</v>
+        <v>839400000</v>
       </c>
       <c r="I60" s="8">
         <f>H60*1.17</f>
-        <v>606849750</v>
+        <v>982097999.99999988</v>
       </c>
       <c r="J60" s="13">
-        <v>2160</v>
+        <v>2745</v>
       </c>
       <c r="K60" s="15">
-        <v>23420</v>
+        <v>28825</v>
       </c>
       <c r="L60" s="16">
-        <v>35.11</v>
+        <v>58.98</v>
       </c>
       <c r="M60" s="17">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N60" s="14">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P60" s="18">
         <f>LOG((E60+F60)/(G60+F60)+1,Z$3)</f>
-        <v>19.078675919856948</v>
+        <v>13.764742815068065</v>
       </c>
       <c r="Q60" s="19">
         <f>LOG(J60*I60/K60^2,AA$3)</f>
-        <v>47.872383175226219</v>
+        <v>49.830877048426693</v>
       </c>
       <c r="R60" s="13">
         <f>LOG(L60/K60+1,AB$3)</f>
-        <v>21.416432503534814</v>
+        <v>30.077775442133809</v>
       </c>
       <c r="S60" s="14">
         <f>LOG(M60*N60/K60+1,AC$3)</f>
-        <v>20.88773006645085</v>
+        <v>45.970525028317269</v>
       </c>
       <c r="U60" s="19">
         <f>(P60+Q60)/2</f>
-        <v>33.475529547541583</v>
+        <v>31.797809931747381</v>
       </c>
       <c r="V60" s="13">
         <f>(P60+Q60+R60)/3</f>
-        <v>29.455830532872664</v>
+        <v>31.224465101876191</v>
       </c>
       <c r="W60" s="14">
         <f>(P60+Q60+S60)/3</f>
-        <v>29.279596387178003</v>
+        <v>36.522048297270679</v>
       </c>
       <c r="X60" s="14">
         <f>(P60*2+Q60*2+R60+S60)/6</f>
-        <v>29.367713460025332</v>
+        <v>33.873256699573432</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C61" s="6">
         <v>2023</v>
       </c>
       <c r="E61" s="10">
-        <v>15058000</v>
+        <v>9000000</v>
       </c>
       <c r="F61" s="10">
-        <v>107002000</v>
+        <v>113000000</v>
       </c>
       <c r="G61" s="10">
-        <v>507211000</v>
+        <v>445000000</v>
       </c>
       <c r="H61" s="10">
-        <v>985279000</v>
+        <v>929000000</v>
       </c>
       <c r="I61" s="8">
         <f>H61*1.17</f>
-        <v>1152776430</v>
+        <v>1086930000</v>
       </c>
       <c r="J61" s="13">
-        <v>3530</v>
+        <v>3665</v>
       </c>
       <c r="K61" s="15">
-        <v>37190</v>
+        <v>37990</v>
       </c>
       <c r="L61" s="16">
-        <v>74.2</v>
+        <v>72.36</v>
       </c>
       <c r="M61" s="17">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N61" s="14">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P61" s="18">
         <f>LOG((E61+F61)/(G61+F61)+1,Z$3)</f>
-        <v>19.106054359556804</v>
+        <v>19.666630678545079</v>
       </c>
       <c r="Q61" s="19">
         <f>LOG(J61*I61/K61^2,AA$3)</f>
-        <v>49.15205018564221</v>
+        <v>48.834282143970768</v>
       </c>
       <c r="R61" s="13">
         <f>LOG(L61/K61+1,AB$3)</f>
-        <v>28.495308654858491</v>
+        <v>28.000783611034056</v>
       </c>
       <c r="S61" s="14">
         <f>LOG(M61*N61/K61+1,AC$3)</f>
-        <v>10.29813805807877</v>
+        <v>33.149683846043033</v>
       </c>
       <c r="U61" s="19">
         <f>(P61+Q61)/2</f>
-        <v>34.129052272599509</v>
+        <v>34.250456411257922</v>
       </c>
       <c r="V61" s="13">
         <f>(P61+Q61+R61)/3</f>
-        <v>32.2511377333525</v>
+        <v>32.167232144516632</v>
       </c>
       <c r="W61" s="14">
         <f>(P61+Q61+S61)/3</f>
-        <v>26.185414201092595</v>
+        <v>33.883532222852956</v>
       </c>
       <c r="X61" s="14">
         <f>(P61*2+Q61*2+R61+S61)/6</f>
-        <v>29.218275967222549</v>
+        <v>33.025382183684798</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C62" s="6">
         <v>2023</v>
       </c>
       <c r="E62" s="10">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="F62" s="10">
-        <v>46700000</v>
+        <v>185900000</v>
       </c>
       <c r="G62" s="10">
-        <v>205900000</v>
+        <v>410800000</v>
       </c>
       <c r="H62" s="10">
-        <v>363000000</v>
+        <v>952200000</v>
       </c>
       <c r="I62" s="8">
         <f>H62*1.17</f>
-        <v>424710000</v>
+        <v>1114074000</v>
       </c>
       <c r="J62" s="13">
-        <v>1290</v>
+        <v>3810</v>
       </c>
       <c r="K62" s="15">
-        <v>18890</v>
+        <v>42980</v>
       </c>
       <c r="L62" s="16">
-        <v>34.130000000000003</v>
+        <v>77.62</v>
       </c>
       <c r="M62" s="17">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N62" s="14">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P62" s="18">
         <f>LOG((E62+F62)/(G62+F62)+1,Z$3)</f>
-        <v>18.408171373062803</v>
+        <v>27.985856945435582</v>
       </c>
       <c r="Q62" s="19">
         <f>LOG(J62*I62/K62^2,AA$3)</f>
-        <v>45.1496615667944</v>
+        <v>47.704150500238931</v>
       </c>
       <c r="R62" s="13">
         <f>LOG(L62/K62+1,AB$3)</f>
-        <v>25.80719547162629</v>
+        <v>26.550307746559621</v>
       </c>
       <c r="S62" s="14">
         <f>LOG(M62*N62/K62+1,AC$3)</f>
-        <v>19.217310971067512</v>
+        <v>17.486451481484661</v>
       </c>
       <c r="U62" s="19">
         <f>(P62+Q62)/2</f>
-        <v>31.778916469928603</v>
+        <v>37.845003722837255</v>
       </c>
       <c r="V62" s="13">
         <f>(P62+Q62+R62)/3</f>
-        <v>29.788342803827831</v>
+        <v>34.080105064078047</v>
       </c>
       <c r="W62" s="14">
         <f>(P62+Q62+S62)/3</f>
-        <v>27.59171463697491</v>
+        <v>31.058819642386393</v>
       </c>
       <c r="X62" s="14">
         <f>(P62*2+Q62*2+R62+S62)/6</f>
-        <v>28.690028720401372</v>
+        <v>32.569462353232218</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C63" s="6">
         <v>2023</v>
       </c>
       <c r="E63" s="10">
-        <v>1397000</v>
+        <v>18564000</v>
       </c>
       <c r="F63" s="10">
-        <v>90199000</v>
+        <v>184180000</v>
       </c>
       <c r="G63" s="10">
-        <v>310617000</v>
+        <v>659945000</v>
       </c>
       <c r="H63" s="10">
-        <v>636381000</v>
+        <v>1344665000</v>
       </c>
       <c r="I63" s="8">
         <f>H63*1.17</f>
-        <v>744565770</v>
+        <v>1573258050</v>
       </c>
       <c r="J63" s="13">
-        <v>2940</v>
+        <v>4820</v>
       </c>
       <c r="K63" s="15">
-        <v>33985</v>
+        <v>46410</v>
       </c>
       <c r="L63" s="16">
-        <v>41.21</v>
+        <v>131.31</v>
       </c>
       <c r="M63" s="17">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N63" s="14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P63" s="18">
         <f>LOG((E63+F63)/(G63+F63)+1,Z$3)</f>
-        <v>21.694236765614232</v>
+        <v>21.40963543046162</v>
       </c>
       <c r="Q63" s="19">
         <f>LOG(J63*I63/K63^2,AA$3)</f>
-        <v>46.445642519546929</v>
+        <v>50.33420607936371</v>
       </c>
       <c r="R63" s="13">
         <f>LOG(L63/K63+1,AB$3)</f>
-        <v>17.325296836204618</v>
+        <v>41.574474345429543</v>
       </c>
       <c r="S63" s="14">
         <f>LOG(M63*N63/K63+1,AC$3)</f>
-        <v>18.442995382348563</v>
+        <v>8.5757599242121003</v>
       </c>
       <c r="U63" s="19">
         <f>(P63+Q63)/2</f>
-        <v>34.069939642580579</v>
+        <v>35.871920754912665</v>
       </c>
       <c r="V63" s="13">
         <f>(P63+Q63+R63)/3</f>
-        <v>28.488392040455256</v>
+        <v>37.772771951751622</v>
       </c>
       <c r="W63" s="14">
         <f>(P63+Q63+S63)/3</f>
-        <v>28.860958222503239</v>
+        <v>26.773200478012473</v>
       </c>
       <c r="X63" s="14">
         <f>(P63*2+Q63*2+R63+S63)/6</f>
-        <v>28.674675131479248</v>
+        <v>32.272986214882046</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C64" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E64" s="10">
-        <v>4300000</v>
+        <v>655000</v>
       </c>
       <c r="F64" s="10">
-        <v>108500000</v>
+        <v>22578000</v>
       </c>
       <c r="G64" s="10">
-        <v>433700000</v>
+        <v>136722000</v>
       </c>
       <c r="H64" s="10">
-        <v>801800000</v>
+        <v>216104000</v>
       </c>
       <c r="I64" s="8">
         <f>H64*1.17</f>
-        <v>938106000</v>
+        <v>252841679.99999997</v>
       </c>
       <c r="J64" s="13">
-        <v>3320</v>
+        <v>880</v>
       </c>
       <c r="K64" s="15">
-        <v>37260</v>
+        <v>12480</v>
       </c>
       <c r="L64" s="16">
-        <v>57.68</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M64" s="17">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N64" s="14">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P64" s="18">
         <f>LOG((E64+F64)/(G64+F64)+1,Z$3)</f>
-        <v>19.922023112168887</v>
+        <v>13.540675707660505</v>
       </c>
       <c r="Q64" s="19">
         <f>LOG(J64*I64/K64^2,AA$3)</f>
-        <v>47.483311425659103</v>
+        <v>44.774834324851263</v>
       </c>
       <c r="R64" s="13">
         <f>LOG(L64/K64+1,AB$3)</f>
-        <v>22.114391170205206</v>
+        <v>10.254335684118113</v>
       </c>
       <c r="S64" s="14">
         <f>LOG(M64*N64/K64+1,AC$3)</f>
-        <v>11.724846189050568</v>
+        <v>63.671049127327215</v>
       </c>
       <c r="U64" s="19">
         <f>(P64+Q64)/2</f>
-        <v>33.702667268913999</v>
+        <v>29.157755016255884</v>
       </c>
       <c r="V64" s="13">
         <f>(P64+Q64+R64)/3</f>
-        <v>29.839908569344402</v>
+        <v>22.856615238876628</v>
       </c>
       <c r="W64" s="14">
         <f>(P64+Q64+S64)/3</f>
-        <v>26.376726908959522</v>
+        <v>40.662186386612994</v>
       </c>
       <c r="X64" s="14">
         <f>(P64*2+Q64*2+R64+S64)/6</f>
-        <v>28.108317739151961</v>
+        <v>31.759400812744811</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C65" s="6">
         <v>2023</v>
       </c>
-      <c r="E65" s="11">
-        <v>5500000</v>
-      </c>
-      <c r="F65" s="11">
-        <v>12600000</v>
-      </c>
-      <c r="G65" s="11">
-        <v>219892056</v>
-      </c>
-      <c r="H65" s="11">
-        <v>291098453</v>
+      <c r="E65" s="10">
+        <v>11700000</v>
+      </c>
+      <c r="F65" s="10">
+        <v>111500000</v>
+      </c>
+      <c r="G65" s="10">
+        <v>397500000</v>
+      </c>
+      <c r="H65" s="10">
+        <v>887000000</v>
       </c>
       <c r="I65" s="8">
-        <f>H65</f>
-        <v>291098453</v>
+        <f>H65*1.17</f>
+        <v>1037789999.9999999</v>
       </c>
       <c r="J65" s="13">
-        <v>689</v>
+        <v>3345</v>
       </c>
       <c r="K65" s="15">
-        <v>15107</v>
+        <v>30860</v>
       </c>
       <c r="L65" s="16">
-        <v>1.68</v>
+        <v>48.8</v>
       </c>
       <c r="M65" s="17">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="N65" s="14">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P65" s="18">
         <f>LOG((E65+F65)/(G65+F65)+1,Z$3)</f>
-        <v>7.9024200941277023</v>
+        <v>21.558754739661346</v>
       </c>
       <c r="Q65" s="19">
         <f>LOG(J65*I65/K65^2,AA$3)</f>
-        <v>41.715977090976203</v>
+        <v>50.548364099778276</v>
       </c>
       <c r="R65" s="13">
         <f>LOG(L65/K65+1,AB$3)</f>
-        <v>1.589774138103859</v>
+        <v>23.250641483808376</v>
       </c>
       <c r="S65" s="14">
         <f>LOG(M65*N65/K65+1,AC$3)</f>
-        <v>13.14399467137909</v>
+        <v>22.917570177193245</v>
       </c>
       <c r="U65" s="19">
         <f>(P65+Q65)/2</f>
-        <v>24.809198592551951</v>
+        <v>36.053559419719811</v>
       </c>
       <c r="V65" s="13">
         <f>(P65+Q65+R65)/3</f>
-        <v>17.069390441069253</v>
+        <v>31.785920107749334</v>
       </c>
       <c r="W65" s="14">
         <f>(P65+Q65+S65)/3</f>
-        <v>20.920797285494331</v>
+        <v>31.67489633887762</v>
       </c>
       <c r="X65" s="14">
         <f>(P65*2+Q65*2+R65+S65)/6</f>
-        <v>18.995093863281792</v>
+        <v>31.730408223313479</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C66" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E66" s="10">
-        <v>5800000</v>
+        <v>3135000</v>
       </c>
       <c r="F66" s="10">
-        <v>113800000</v>
+        <v>108240000</v>
       </c>
       <c r="G66" s="10">
-        <v>432100000</v>
+        <v>160937000</v>
       </c>
       <c r="H66" s="10">
-        <v>554000000</v>
+        <v>460525000</v>
       </c>
       <c r="I66" s="8">
-        <f>H66</f>
-        <v>554000000</v>
+        <f>H66*1.17</f>
+        <v>538814250</v>
       </c>
       <c r="J66" s="13">
-        <v>3255</v>
+        <v>1915</v>
       </c>
       <c r="K66" s="15">
-        <v>151840</v>
+        <v>25295</v>
       </c>
       <c r="L66" s="16">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="M66" s="17">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N66" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P66" s="18">
         <f>LOG((E66+F66)/(G66+F66)+1,Z$3)</f>
-        <v>20.881496847971292</v>
+        <v>34.43843138756111</v>
       </c>
       <c r="Q66" s="19">
         <f>LOG(J66*I66/K66^2,AA$3)</f>
-        <v>26.828459789716007</v>
+        <v>45.521856627863869</v>
       </c>
       <c r="R66" s="13">
         <f>LOG(L66/K66+1,AB$3)</f>
-        <v>0</v>
+        <v>14.012955667584476</v>
       </c>
       <c r="S66" s="14">
         <f>LOG(M66*N66/K66+1,AC$3)</f>
-        <v>2.093189349773779</v>
+        <v>15.917989176044008</v>
       </c>
       <c r="U66" s="19">
         <f>(P66+Q66)/2</f>
-        <v>23.854978318843649</v>
+        <v>39.980144007712489</v>
       </c>
       <c r="V66" s="13">
         <f>(P66+Q66+R66)/3</f>
-        <v>15.903318879229099</v>
+        <v>31.324414561003152</v>
       </c>
       <c r="W66" s="14">
         <f>(P66+Q66+S66)/3</f>
-        <v>16.601048662487027</v>
+        <v>31.959425730489659</v>
       </c>
       <c r="X66" s="14">
         <f>(P66*2+Q66*2+R66+S66)/6</f>
-        <v>16.252183770858064</v>
+        <v>31.641920145746408</v>
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="A67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E67" s="10">
+        <v>9373000</v>
+      </c>
+      <c r="F67" s="10">
+        <v>46778000</v>
+      </c>
+      <c r="G67" s="10">
+        <v>289887000</v>
+      </c>
+      <c r="H67" s="10">
+        <v>484223000</v>
+      </c>
+      <c r="I67" s="8">
+        <f>H67*1.17</f>
+        <v>566540910</v>
+      </c>
+      <c r="J67" s="13">
+        <v>2020</v>
+      </c>
+      <c r="K67" s="15">
+        <v>22230</v>
+      </c>
+      <c r="L67" s="16">
+        <v>72.89</v>
+      </c>
+      <c r="M67" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N67" s="14">
+        <v>15</v>
+      </c>
+      <c r="P67" s="18">
+        <f>LOG((E67+F67)/(G67+F67)+1,Z$3)</f>
+        <v>15.342015464016562</v>
+      </c>
+      <c r="Q67" s="19">
+        <f>LOG(J67*I67/K67^2,AA$3)</f>
+        <v>47.752368710235359</v>
+      </c>
+      <c r="R67" s="13">
+        <f>LOG(L67/K67+1,AB$3)</f>
+        <v>48.169445783873364</v>
+      </c>
+      <c r="S67" s="14">
+        <f>LOG(M67*N67/K67+1,AC$3)</f>
+        <v>14.91682188124291</v>
+      </c>
+      <c r="U67" s="19">
+        <f>(P67+Q67)/2</f>
+        <v>31.547192087125961</v>
+      </c>
+      <c r="V67" s="13">
+        <f>(P67+Q67+R67)/3</f>
+        <v>37.087943319375093</v>
+      </c>
+      <c r="W67" s="14">
+        <f>(P67+Q67+S67)/3</f>
+        <v>26.003735351831608</v>
+      </c>
+      <c r="X67" s="14">
+        <f>(P67*2+Q67*2+R67+S67)/6</f>
+        <v>31.545839335603358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2900000</v>
+      </c>
+      <c r="F68" s="10">
+        <v>80000000</v>
+      </c>
+      <c r="G68" s="10">
+        <v>382900000</v>
+      </c>
+      <c r="H68" s="10">
+        <v>679800000</v>
+      </c>
+      <c r="I68" s="8">
+        <f>H68*1.17</f>
+        <v>795366000</v>
+      </c>
+      <c r="J68" s="13">
+        <v>2505</v>
+      </c>
+      <c r="K68" s="15">
+        <v>26045</v>
+      </c>
+      <c r="L68" s="16">
+        <v>61.42</v>
+      </c>
+      <c r="M68" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="N68" s="14">
+        <v>20</v>
+      </c>
+      <c r="P68" s="18">
+        <f>LOG((E68+F68)/(G68+F68)+1,Z$3)</f>
+        <v>16.385215052665579</v>
+      </c>
+      <c r="Q68" s="19">
+        <f>LOG(J68*I68/K68^2,AA$3)</f>
+        <v>49.217314857036548</v>
+      </c>
+      <c r="R68" s="13">
+        <f>LOG(L68/K68+1,AB$3)</f>
+        <v>34.65996072676343</v>
+      </c>
+      <c r="S68" s="14">
+        <f>LOG(M68*N68/K68+1,AC$3)</f>
+        <v>21.82125323681343</v>
+      </c>
+      <c r="U68" s="19">
+        <f>(P68+Q68)/2</f>
+        <v>32.801264954851064</v>
+      </c>
+      <c r="V68" s="13">
+        <f>(P68+Q68+R68)/3</f>
+        <v>33.420830212155188</v>
+      </c>
+      <c r="W68" s="14">
+        <f>(P68+Q68+S68)/3</f>
+        <v>29.141261048838519</v>
+      </c>
+      <c r="X68" s="14">
+        <f>(P68*2+Q68*2+R68+S68)/6</f>
+        <v>31.281045630496848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E69" s="10">
+        <v>3954000</v>
+      </c>
+      <c r="F69" s="10">
+        <v>50464000</v>
+      </c>
+      <c r="G69" s="10">
+        <v>199319000</v>
+      </c>
+      <c r="H69" s="10">
+        <v>381775000</v>
+      </c>
+      <c r="I69" s="8">
+        <f>H69*1.17</f>
+        <v>446676750</v>
+      </c>
+      <c r="J69" s="13">
+        <v>1495</v>
+      </c>
+      <c r="K69" s="15">
+        <v>17770</v>
+      </c>
+      <c r="L69" s="16">
+        <v>18.32</v>
+      </c>
+      <c r="M69" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N69" s="14">
+        <v>25</v>
+      </c>
+      <c r="P69" s="18">
+        <f>LOG((E69+F69)/(G69+F69)+1,Z$3)</f>
+        <v>19.603204007331598</v>
+      </c>
+      <c r="Q69" s="19">
+        <f>LOG(J69*I69/K69^2,AA$3)</f>
+        <v>47.192573176840945</v>
+      </c>
+      <c r="R69" s="13">
+        <f>LOG(L69/K69+1,AB$3)</f>
+        <v>15.162418002528705</v>
+      </c>
+      <c r="S69" s="14">
+        <f>LOG(M69*N69/K69+1,AC$3)</f>
+        <v>31.085280809682185</v>
+      </c>
+      <c r="U69" s="19">
+        <f>(P69+Q69)/2</f>
+        <v>33.397888592086275</v>
+      </c>
+      <c r="V69" s="13">
+        <f>(P69+Q69+R69)/3</f>
+        <v>27.319398395567088</v>
+      </c>
+      <c r="W69" s="14">
+        <f>(P69+Q69+S69)/3</f>
+        <v>32.627019331284913</v>
+      </c>
+      <c r="X69" s="14">
+        <f>(P69*2+Q69*2+R69+S69)/6</f>
+        <v>29.973208863425999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E70" s="10">
+        <v>3189000</v>
+      </c>
+      <c r="F70" s="10">
+        <v>59459000</v>
+      </c>
+      <c r="G70" s="10">
+        <v>256284000</v>
+      </c>
+      <c r="H70" s="10">
+        <v>518675000</v>
+      </c>
+      <c r="I70" s="8">
+        <f>H70*1.17</f>
+        <v>606849750</v>
+      </c>
+      <c r="J70" s="13">
+        <v>2160</v>
+      </c>
+      <c r="K70" s="15">
+        <v>23420</v>
+      </c>
+      <c r="L70" s="16">
+        <v>35.11</v>
+      </c>
+      <c r="M70" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="N70" s="14">
+        <v>23</v>
+      </c>
+      <c r="P70" s="18">
+        <f>LOG((E70+F70)/(G70+F70)+1,Z$3)</f>
+        <v>18.00222778341357</v>
+      </c>
+      <c r="Q70" s="19">
+        <f>LOG(J70*I70/K70^2,AA$3)</f>
+        <v>47.946196920184299</v>
+      </c>
+      <c r="R70" s="13">
+        <f>LOG(L70/K70+1,AB$3)</f>
+        <v>22.043106668755168</v>
+      </c>
+      <c r="S70" s="14">
+        <f>LOG(M70*N70/K70+1,AC$3)</f>
+        <v>23.254876876555809</v>
+      </c>
+      <c r="U70" s="19">
+        <f>(P70+Q70)/2</f>
+        <v>32.974212351798933</v>
+      </c>
+      <c r="V70" s="13">
+        <f>(P70+Q70+R70)/3</f>
+        <v>29.330510457451012</v>
+      </c>
+      <c r="W70" s="14">
+        <f>(P70+Q70+S70)/3</f>
+        <v>29.734433860051226</v>
+      </c>
+      <c r="X70" s="14">
+        <f>(P70*2+Q70*2+R70+S70)/6</f>
+        <v>29.532472158751119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="10">
+        <v>15058000</v>
+      </c>
+      <c r="F71" s="10">
+        <v>107002000</v>
+      </c>
+      <c r="G71" s="10">
+        <v>507211000</v>
+      </c>
+      <c r="H71" s="10">
+        <v>985279000</v>
+      </c>
+      <c r="I71" s="8">
+        <f>H71*1.17</f>
+        <v>1152776430</v>
+      </c>
+      <c r="J71" s="13">
+        <v>3530</v>
+      </c>
+      <c r="K71" s="15">
+        <v>37190</v>
+      </c>
+      <c r="L71" s="16">
+        <v>74.2</v>
+      </c>
+      <c r="M71" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="N71" s="14">
+        <v>18</v>
+      </c>
+      <c r="P71" s="18">
+        <f>LOG((E71+F71)/(G71+F71)+1,Z$3)</f>
+        <v>18.028061489583834</v>
+      </c>
+      <c r="Q71" s="19">
+        <f>LOG(J71*I71/K71^2,AA$3)</f>
+        <v>49.227837030915609</v>
+      </c>
+      <c r="R71" s="13">
+        <f>LOG(L71/K71+1,AB$3)</f>
+        <v>29.329120437518014</v>
+      </c>
+      <c r="S71" s="14">
+        <f>LOG(M71*N71/K71+1,AC$3)</f>
+        <v>11.465196641115298</v>
+      </c>
+      <c r="U71" s="19">
+        <f>(P71+Q71)/2</f>
+        <v>33.627949260249721</v>
+      </c>
+      <c r="V71" s="13">
+        <f>(P71+Q71+R71)/3</f>
+        <v>32.19500631933915</v>
+      </c>
+      <c r="W71" s="14">
+        <f>(P71+Q71+S71)/3</f>
+        <v>26.240365053871582</v>
+      </c>
+      <c r="X71" s="14">
+        <f>(P71*2+Q71*2+R71+S71)/6</f>
+        <v>29.217685686605364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1500000</v>
+      </c>
+      <c r="F72" s="10">
+        <v>46700000</v>
+      </c>
+      <c r="G72" s="10">
+        <v>205900000</v>
+      </c>
+      <c r="H72" s="10">
+        <v>363000000</v>
+      </c>
+      <c r="I72" s="8">
+        <f>H72*1.17</f>
+        <v>424710000</v>
+      </c>
+      <c r="J72" s="13">
+        <v>1290</v>
+      </c>
+      <c r="K72" s="15">
+        <v>18890</v>
+      </c>
+      <c r="L72" s="16">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="M72" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="N72" s="14">
+        <v>16</v>
+      </c>
+      <c r="P72" s="18">
+        <f>LOG((E72+F72)/(G72+F72)+1,Z$3)</f>
+        <v>17.369554130802296</v>
+      </c>
+      <c r="Q72" s="19">
+        <f>LOG(J72*I72/K72^2,AA$3)</f>
+        <v>45.219277186130427</v>
+      </c>
+      <c r="R72" s="13">
+        <f>LOG(L72/K72+1,AB$3)</f>
+        <v>26.562349378617597</v>
+      </c>
+      <c r="S72" s="14">
+        <f>LOG(M72*N72/K72+1,AC$3)</f>
+        <v>21.395153954447608</v>
+      </c>
+      <c r="U72" s="19">
+        <f>(P72+Q72)/2</f>
+        <v>31.294415658466363</v>
+      </c>
+      <c r="V72" s="13">
+        <f>(P72+Q72+R72)/3</f>
+        <v>29.717060231850109</v>
+      </c>
+      <c r="W72" s="14">
+        <f>(P72+Q72+S72)/3</f>
+        <v>27.994661757126778</v>
+      </c>
+      <c r="X72" s="14">
+        <f>(P72*2+Q72*2+R72+S72)/6</f>
+        <v>28.855860994488442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="30">
+        <v>2023</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1397000</v>
+      </c>
+      <c r="F73" s="10">
+        <v>90199000</v>
+      </c>
+      <c r="G73" s="10">
+        <v>310617000</v>
+      </c>
+      <c r="H73" s="10">
+        <v>636381000</v>
+      </c>
+      <c r="I73" s="8">
+        <f>H73*1.17</f>
+        <v>744565770</v>
+      </c>
+      <c r="J73" s="13">
+        <v>2940</v>
+      </c>
+      <c r="K73" s="15">
+        <v>33985</v>
+      </c>
+      <c r="L73" s="16">
+        <v>41.21</v>
+      </c>
+      <c r="M73" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="N73" s="14">
+        <v>26</v>
+      </c>
+      <c r="P73" s="18">
+        <f>LOG((E73+F73)/(G73+F73)+1,Z$3)</f>
+        <v>20.47021467749849</v>
+      </c>
+      <c r="Q73" s="19">
+        <f>LOG(J73*I73/K73^2,AA$3)</f>
+        <v>46.517256393433328</v>
+      </c>
+      <c r="R73" s="13">
+        <f>LOG(L73/K73+1,AB$3)</f>
+        <v>17.832258765098764</v>
+      </c>
+      <c r="S73" s="14">
+        <f>LOG(M73*N73/K73+1,AC$3)</f>
+        <v>20.533087390873114</v>
+      </c>
+      <c r="U73" s="19">
+        <f>(P73+Q73)/2</f>
+        <v>33.493735535465909</v>
+      </c>
+      <c r="V73" s="13">
+        <f>(P73+Q73+R73)/3</f>
+        <v>28.273243278676858</v>
+      </c>
+      <c r="W73" s="14">
+        <f>(P73+Q73+S73)/3</f>
+        <v>29.173519487268312</v>
+      </c>
+      <c r="X73" s="14">
+        <f>(P73*2+Q73*2+R73+S73)/6</f>
+        <v>28.723381382972587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E74" s="10">
+        <v>4300000</v>
+      </c>
+      <c r="F74" s="10">
+        <v>108500000</v>
+      </c>
+      <c r="G74" s="10">
+        <v>433700000</v>
+      </c>
+      <c r="H74" s="10">
+        <v>801800000</v>
+      </c>
+      <c r="I74" s="8">
+        <f>H74*1.17</f>
+        <v>938106000</v>
+      </c>
+      <c r="J74" s="13">
+        <v>3320</v>
+      </c>
+      <c r="K74" s="15">
+        <v>37260</v>
+      </c>
+      <c r="L74" s="16">
+        <v>57.68</v>
+      </c>
+      <c r="M74" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N74" s="14">
+        <v>22</v>
+      </c>
+      <c r="P74" s="18">
+        <f>LOG((E74+F74)/(G74+F74)+1,Z$3)</f>
+        <v>18.797992034574229</v>
+      </c>
+      <c r="Q74" s="19">
+        <f>LOG(J74*I74/K74^2,AA$3)</f>
+        <v>47.556525266434683</v>
+      </c>
+      <c r="R74" s="13">
+        <f>LOG(L74/K74+1,AB$3)</f>
+        <v>22.761488562530342</v>
+      </c>
+      <c r="S74" s="14">
+        <f>LOG(M74*N74/K74+1,AC$3)</f>
+        <v>13.053589531055</v>
+      </c>
+      <c r="U74" s="19">
+        <f>(P74+Q74)/2</f>
+        <v>33.177258650504456</v>
+      </c>
+      <c r="V74" s="13">
+        <f>(P74+Q74+R74)/3</f>
+        <v>29.70533528784642</v>
+      </c>
+      <c r="W74" s="14">
+        <f>(P74+Q74+S74)/3</f>
+        <v>26.469368944021301</v>
+      </c>
+      <c r="X74" s="14">
+        <f>(P74*2+Q74*2+R74+S74)/6</f>
+        <v>28.087352115933857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="30">
+        <v>2023</v>
+      </c>
+      <c r="E75" s="11">
+        <v>5500000</v>
+      </c>
+      <c r="F75" s="11">
+        <v>12600000</v>
+      </c>
+      <c r="G75" s="11">
+        <v>219892056</v>
+      </c>
+      <c r="H75" s="11">
+        <v>291098453</v>
+      </c>
+      <c r="I75" s="8">
+        <f>H75</f>
+        <v>291098453</v>
+      </c>
+      <c r="J75" s="13">
+        <v>689</v>
+      </c>
+      <c r="K75" s="15">
+        <v>15107</v>
+      </c>
+      <c r="L75" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="M75" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N75" s="14">
+        <v>10</v>
+      </c>
+      <c r="P75" s="18">
+        <f>LOG((E75+F75)/(G75+F75)+1,Z$3)</f>
+        <v>7.4565534407263048</v>
+      </c>
+      <c r="Q75" s="19">
+        <f>LOG(J75*I75/K75^2,AA$3)</f>
+        <v>41.780298361183284</v>
+      </c>
+      <c r="R75" s="13">
+        <f>LOG(L75/K75+1,AB$3)</f>
+        <v>1.6362931080920076</v>
+      </c>
+      <c r="S75" s="14">
+        <f>LOG(M75*N75/K75+1,AC$3)</f>
+        <v>14.633566058954873</v>
+      </c>
+      <c r="U75" s="19">
+        <f>(P75+Q75)/2</f>
+        <v>24.618425900954794</v>
+      </c>
+      <c r="V75" s="13">
+        <f>(P75+Q75+R75)/3</f>
+        <v>16.957714970000531</v>
+      </c>
+      <c r="W75" s="14">
+        <f>(P75+Q75+S75)/3</f>
+        <v>21.290139286954822</v>
+      </c>
+      <c r="X75" s="14">
+        <f>(P75*2+Q75*2+R75+S75)/6</f>
+        <v>19.123927128477675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="30">
+        <v>2022</v>
+      </c>
+      <c r="E76" s="10">
+        <v>5800000</v>
+      </c>
+      <c r="F76" s="10">
+        <v>113800000</v>
+      </c>
+      <c r="G76" s="10">
+        <v>432100000</v>
+      </c>
+      <c r="H76" s="10">
+        <v>554000000</v>
+      </c>
+      <c r="I76" s="8">
+        <f>H76</f>
+        <v>554000000</v>
+      </c>
+      <c r="J76" s="13">
+        <v>3255</v>
+      </c>
+      <c r="K76" s="15">
+        <v>151840</v>
+      </c>
+      <c r="L76" s="16">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M76" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="N76" s="14">
+        <v>16</v>
+      </c>
+      <c r="P76" s="18">
+        <f>LOG((E76+F76)/(G76+F76)+1,Z$3)</f>
+        <v>19.703330791659589</v>
+      </c>
+      <c r="Q76" s="19">
+        <f>LOG(J76*I76/K76^2,AA$3)</f>
+        <v>26.869826209292146</v>
+      </c>
+      <c r="R76" s="13">
+        <f>LOG(L76/K76+1,AB$3)</f>
+        <v>0.42252095699804121</v>
+      </c>
+      <c r="S76" s="14">
+        <f>LOG(M76*N76/K76+1,AC$3)</f>
+        <v>2.3304045223415746</v>
+      </c>
+      <c r="U76" s="19">
+        <f>(P76+Q76)/2</f>
+        <v>23.286578500475869</v>
+      </c>
+      <c r="V76" s="13">
+        <f>(P76+Q76+R76)/3</f>
+        <v>15.665225985983261</v>
+      </c>
+      <c r="W76" s="14">
+        <f>(P76+Q76+S76)/3</f>
+        <v>16.301187174431103</v>
+      </c>
+      <c r="X76" s="14">
+        <f>(P76*2+Q76*2+R76+S76)/6</f>
+        <v>15.983206580207183</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X67">
-    <sortCondition descending="1" ref="X1:X67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X76">
+    <sortCondition descending="1" ref="X1:X76"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="Z2:AC2"/>

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github Desktop\EU.UniRanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5B023-44E5-4BE2-96ED-3774BEC772C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9C871-24B7-4EF4-8D25-125FFA0F4B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="290">
   <si>
     <t>University of Oxford</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,6 +1104,10 @@
   </si>
   <si>
     <t>University of Roma Tre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scuola Normale Superiore (SNS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,9 +1393,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,6 +1436,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1783,7 +1790,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}" name="表1" displayName="表1" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:U1048576" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
     <sortCondition descending="1" ref="U1:U1048576"/>
   </sortState>
   <tableColumns count="21">
@@ -2121,16 +2128,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
-  <dimension ref="A1:Z90"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="12.78515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.78515625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.640625" style="25" bestFit="1" customWidth="1"/>
@@ -2159,7 +2166,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="31" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -2168,58 +2175,58 @@
       <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="V1" s="31" t="s">
@@ -2237,171 +2244,171 @@
       <c r="Z1" s="30"/>
     </row>
     <row r="2" spans="1:26" ht="14.6" thickTop="1">
-      <c r="A2" s="39" t="s">
-        <v>17</v>
+      <c r="A2" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="24">
-        <v>23000000</v>
-      </c>
-      <c r="E2" s="7">
-        <v>765000000</v>
-      </c>
-      <c r="F2" s="7">
-        <v>22000000</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1158000000</v>
+        <v>2022</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="5">
+        <v>302021000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8434000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>392998000</v>
       </c>
       <c r="H2" s="6" cm="1">
-        <f t="array" aca="1" ref="H2" ca="1">G2/INDIRECT("EUR!$B$30")</f>
-        <v>1183060776.4270542</v>
+        <f t="array" aca="1" ref="H2" ca="1">G2/INDIRECT("EUR!$B$39")</f>
+        <v>52681699.839326702</v>
       </c>
       <c r="I2" s="11">
-        <v>3976</v>
+        <v>275</v>
       </c>
       <c r="J2" s="13">
-        <v>12720</v>
+        <v>1851</v>
       </c>
       <c r="K2" s="14">
-        <v>188.78</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" s="12">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N2" s="35">
         <f>LOG((D2+E2)/(F2+E2)+1,V$3)</f>
-        <v>66.896046305360116</v>
+        <v>65.271626889854019</v>
       </c>
       <c r="O2" s="16">
         <f ca="1">LOG(I2*H2/J2^2,W$3)</f>
-        <v>66.271331041344709</v>
+        <v>53.633898260257446</v>
       </c>
       <c r="P2" s="11">
         <f>LOG(K2/J2+1,X$3)</f>
-        <v>250.42938082155592</v>
+        <v>3.1853366202243931</v>
       </c>
       <c r="Q2" s="29">
         <f>LOG(L2*M2/J2+1,Y$3)</f>
-        <v>363.73702250180071</v>
+        <v>632.17232098667785</v>
       </c>
       <c r="R2" s="16">
         <f ca="1">(N2+O2)/2</f>
-        <v>66.583688673352412</v>
+        <v>59.452762575055729</v>
       </c>
       <c r="S2" s="11">
         <f ca="1">(N2+O2+P2)/3</f>
-        <v>127.86558605608691</v>
+        <v>40.696953923445285</v>
       </c>
       <c r="T2" s="12">
         <f ca="1">(N2+O2+Q2)/3</f>
-        <v>165.63479994950185</v>
+        <v>250.35928204559642</v>
       </c>
       <c r="U2" s="29">
         <f ca="1">(N2*2+O2*2+P2+Q2)/6</f>
-        <v>146.75019300279439</v>
-      </c>
-      <c r="V2" s="54" t="s">
+        <v>145.52811798452086</v>
+      </c>
+      <c r="V2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="39" t="s">
-        <v>20</v>
+      <c r="A3" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="5">
-        <v>302021000</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8434000</v>
-      </c>
-      <c r="G3" s="5">
-        <v>392998000</v>
+        <v>2023</v>
+      </c>
+      <c r="D3" s="24">
+        <v>23000000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>765000000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22000000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1158000000</v>
       </c>
       <c r="H3" s="6" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">G3/INDIRECT("EUR!$B$39")</f>
-        <v>52681699.839326702</v>
+        <f t="array" aca="1" ref="H3" ca="1">G3/INDIRECT("EUR!$B$30")</f>
+        <v>1183060776.4270542</v>
       </c>
       <c r="I3" s="11">
-        <v>275</v>
+        <v>3976</v>
       </c>
       <c r="J3" s="13">
-        <v>1851</v>
+        <v>12720</v>
       </c>
       <c r="K3" s="14">
-        <v>0.37</v>
+        <v>188.78</v>
       </c>
       <c r="L3" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" s="12">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N3" s="35">
         <f>LOG((D3+E3)/(F3+E3)+1,V$3)</f>
-        <v>65.516098573555055</v>
+        <v>66.646425381201254</v>
       </c>
       <c r="O3" s="16">
         <f ca="1">LOG(I3*H3/J3^2,W$3)</f>
-        <v>53.839558742069464</v>
+        <v>66.018182720839675</v>
       </c>
       <c r="P3" s="11">
         <f>LOG(K3/J3+1,X$3)</f>
-        <v>3.3975924556423416</v>
+        <v>234.7844504382179</v>
       </c>
       <c r="Q3" s="29">
         <f>LOG(L3*M3/J3+1,Y$3)</f>
-        <v>621.9760154964298</v>
+        <v>369.69991127425834</v>
       </c>
       <c r="R3" s="16">
         <f ca="1">(N3+O3)/2</f>
-        <v>59.677828657812256</v>
+        <v>66.332304051020458</v>
       </c>
       <c r="S3" s="11">
         <f ca="1">(N3+O3+P3)/3</f>
-        <v>40.917749923755615</v>
+        <v>122.48301951341961</v>
       </c>
       <c r="T3" s="12">
         <f ca="1">(N3+O3+Q3)/3</f>
-        <v>247.11055760401811</v>
+        <v>167.45483979209976</v>
       </c>
       <c r="U3" s="29">
         <f ca="1">(N3*2+O3*2+P3+Q3)/6</f>
-        <v>144.01415376388687</v>
+        <v>144.96892965275967</v>
       </c>
       <c r="V3" s="3">
-        <v>1.0104250166717204</v>
+        <v>1.0104642666497388</v>
       </c>
       <c r="W3" s="3">
-        <v>1.1677545962950713</v>
+        <v>1.1684492297867872</v>
       </c>
       <c r="X3" s="3">
-        <v>1.0000588292610946</v>
+        <v>1.0000627494890684</v>
       </c>
       <c r="Y3" s="32">
-        <v>1.0000779917989604</v>
+        <v>1.0000767338212047</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2443,506 +2450,500 @@
       </c>
       <c r="N4" s="35">
         <f>LOG((D4+E4)/(F4+E4)+1,V$3)</f>
-        <v>70.047487632234947</v>
+        <v>69.78610718356164</v>
       </c>
       <c r="O4" s="16">
         <f ca="1">LOG(I4*H4/J4^2,W$3)</f>
-        <v>64.972556153527051</v>
+        <v>64.724368993095297</v>
       </c>
       <c r="P4" s="11">
         <f>LOG(K4/J4+1,X$3)</f>
-        <v>233.81535473098302</v>
+        <v>219.2083428247872</v>
       </c>
       <c r="Q4" s="29">
         <f>LOG(L4*M4/J4+1,Y$3)</f>
-        <v>238.61438612144067</v>
+        <v>242.52608868656341</v>
       </c>
       <c r="R4" s="16">
         <f ca="1">(N4+O4)/2</f>
-        <v>67.510021892880999</v>
+        <v>67.255238088328468</v>
       </c>
       <c r="S4" s="11">
         <f ca="1">(N4+O4+P4)/3</f>
-        <v>122.94513283891501</v>
+        <v>117.90627300048136</v>
       </c>
       <c r="T4" s="12">
         <f ca="1">(N4+O4+Q4)/3</f>
-        <v>124.54480996906756</v>
+        <v>125.67885495440679</v>
       </c>
       <c r="U4" s="29">
         <f ca="1">(N4*2+O4*2+P4+Q4)/6</f>
-        <v>123.74497140399127</v>
-      </c>
-      <c r="V4" s="54" t="s">
+        <v>121.79256397744409</v>
+      </c>
+      <c r="V4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
+      <c r="A5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>289</v>
       </c>
       <c r="C5" s="22">
         <v>2022</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="7">
-        <v>100305000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>18649000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>944209000</v>
-      </c>
-      <c r="H5" s="6" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">G5/INDIRECT("EUR!$B$30")</f>
-        <v>964643033.37600386</v>
+      <c r="D5" s="26">
+        <v>21241.46</v>
+      </c>
+      <c r="E5" s="9">
+        <v>49358458.060000002</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
+        <v>64021569.549999997</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5</f>
+        <v>64021569.549999997</v>
       </c>
       <c r="I5" s="11">
-        <v>3195</v>
+        <v>218</v>
       </c>
       <c r="J5" s="13">
-        <v>4731</v>
+        <v>642</v>
       </c>
       <c r="K5" s="14">
-        <v>92.49</v>
-      </c>
-      <c r="L5" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1</v>
+        <v>13.35</v>
       </c>
       <c r="N5" s="35">
         <f>LOG((D5+E5)/(F5+E5)+1,V$3)</f>
-        <v>58.96382345124978</v>
+        <v>66.606082040579608</v>
       </c>
       <c r="O5" s="16">
-        <f ca="1">LOG(I5*H5/J5^2,W$3)</f>
-        <v>76.300083684690108</v>
+        <f>LOG(I5*H5/J5^2,W$3)</f>
+        <v>66.997826203019628</v>
       </c>
       <c r="P5" s="11">
         <f>LOG(K5/J5+1,X$3)</f>
-        <v>329.11692121859426</v>
+        <v>327.99926186548885</v>
       </c>
       <c r="Q5" s="29">
         <f>LOG(L5*M5/J5+1,Y$3)</f>
-        <v>2.9809675645569702</v>
+        <v>0</v>
       </c>
       <c r="R5" s="16">
-        <f ca="1">(N5+O5)/2</f>
-        <v>67.631953567969944</v>
+        <f>(N5+O5)/2</f>
+        <v>66.801954121799611</v>
       </c>
       <c r="S5" s="11">
-        <f ca="1">(N5+O5+P5)/3</f>
-        <v>154.7936094515114</v>
+        <f>(N5+O5+P5)/3</f>
+        <v>153.86772336969602</v>
       </c>
       <c r="T5" s="12">
-        <f ca="1">(N5+O5+Q5)/3</f>
-        <v>46.081624900165622</v>
+        <f>(N5+O5+Q5)/3</f>
+        <v>44.534636081199743</v>
       </c>
       <c r="U5" s="29">
-        <f ca="1">(N5*2+O5*2+P5+Q5)/6</f>
-        <v>100.4376171758385</v>
+        <f>(N5*2+O5*2+P5+Q5)/6</f>
+        <v>99.201179725447886</v>
       </c>
       <c r="V5" s="2">
         <f>AVERAGE(N:N)</f>
-        <v>49.999987227343652</v>
+        <v>49.999998730901979</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" ref="W5:X5" ca="1" si="0">AVERAGE(O:O)</f>
-        <v>50.000001831255148</v>
+        <v>49.999994852943146</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>50.000025361730486</v>
+        <v>49.999989918028291</v>
       </c>
       <c r="Y5" s="19">
         <f>AVERAGE(Q:Q)</f>
-        <v>49.99999649957428</v>
+        <v>49.999994709505259</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="39" t="s">
-        <v>15</v>
+      <c r="A6" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="7">
+        <v>100305000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>18649000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>944209000</v>
+      </c>
+      <c r="H6" s="6" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">G6/INDIRECT("EUR!$B$30")</f>
+        <v>964643033.37600386</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3195</v>
+      </c>
+      <c r="J6" s="13">
+        <v>4731</v>
+      </c>
+      <c r="K6" s="14">
+        <v>92.49</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6" s="12">
         <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="25">
-        <v>132400000</v>
-      </c>
-      <c r="E6" s="8">
-        <v>207600000</v>
-      </c>
-      <c r="F6" s="8">
-        <v>390100000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2518300000</v>
-      </c>
-      <c r="H6" s="6" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">G6/INDIRECT("EUR!$B$48")</f>
-        <v>2939923206.8663197</v>
-      </c>
-      <c r="I6" s="11">
-        <v>5515</v>
-      </c>
-      <c r="J6" s="13">
-        <v>22610</v>
-      </c>
-      <c r="K6" s="14">
-        <v>366.52</v>
-      </c>
-      <c r="L6" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>48</v>
       </c>
       <c r="N6" s="35">
         <f>LOG((D6+E6)/(F6+E6)+1,V$3)</f>
-        <v>43.422900523644252</v>
+        <v>58.743801418338379</v>
       </c>
       <c r="O6" s="16">
         <f ca="1">LOG(I6*H6/J6^2,W$3)</f>
-        <v>66.832582411592952</v>
+        <v>76.008626764545824</v>
       </c>
       <c r="P6" s="11">
         <f>LOG(K6/J6+1,X$3)</f>
-        <v>273.3505628163457</v>
+        <v>308.55618947237639</v>
       </c>
       <c r="Q6" s="29">
         <f>LOG(L6*M6/J6+1,Y$3)</f>
-        <v>86.813572711637391</v>
+        <v>3.0298357768150974</v>
       </c>
       <c r="R6" s="16">
         <f ca="1">(N6+O6)/2</f>
-        <v>55.127741467618605</v>
+        <v>67.376214091442108</v>
       </c>
       <c r="S6" s="11">
         <f ca="1">(N6+O6+P6)/3</f>
-        <v>127.86868191719429</v>
+        <v>147.76953921842019</v>
       </c>
       <c r="T6" s="12">
         <f ca="1">(N6+O6+Q6)/3</f>
-        <v>65.689685215624863</v>
+        <v>45.927421319899771</v>
       </c>
       <c r="U6" s="29">
         <f ca="1">(N6*2+O6*2+P6+Q6)/6</f>
-        <v>96.779183566409586</v>
-      </c>
-      <c r="V6" s="55"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="56"/>
+        <v>96.848480269159964</v>
+      </c>
+      <c r="V6" s="56"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="57"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="22">
         <v>2023</v>
       </c>
       <c r="D7" s="25">
-        <v>183700000</v>
+        <v>132400000</v>
       </c>
       <c r="E7" s="8">
-        <v>229200000</v>
+        <v>207600000</v>
       </c>
       <c r="F7" s="8">
-        <v>504200000</v>
+        <v>390100000</v>
       </c>
       <c r="G7" s="8">
-        <v>2924700000</v>
+        <v>2518300000</v>
       </c>
       <c r="H7" s="6" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">G7/INDIRECT("EUR!$B$48")</f>
-        <v>3414364215.193553</v>
+        <v>2939923206.8663197</v>
       </c>
       <c r="I7" s="11">
-        <v>6580</v>
+        <v>5515</v>
       </c>
       <c r="J7" s="13">
-        <v>27290</v>
+        <v>22610</v>
       </c>
       <c r="K7" s="14">
-        <v>378.45</v>
+        <v>366.52</v>
       </c>
       <c r="L7" s="15">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M7" s="12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N7" s="35">
         <f>LOG((D7+E7)/(F7+E7)+1,V$3)</f>
-        <v>43.062500681906982</v>
+        <v>43.260869056061061</v>
       </c>
       <c r="O7" s="16">
         <f ca="1">LOG(I7*H7/J7^2,W$3)</f>
-        <v>66.5096247548816</v>
+        <v>66.577290179995046</v>
       </c>
       <c r="P7" s="11">
         <f>LOG(K7/J7+1,X$3)</f>
-        <v>234.11555768779593</v>
+        <v>256.27369063993257</v>
       </c>
       <c r="Q7" s="29">
         <f>LOG(L7*M7/J7+1,Y$3)</f>
-        <v>84.296321366225314</v>
+        <v>88.236742875781431</v>
       </c>
       <c r="R7" s="16">
         <f ca="1">(N7+O7)/2</f>
-        <v>54.786062718394291</v>
+        <v>54.91907961802805</v>
       </c>
       <c r="S7" s="11">
         <f ca="1">(N7+O7+P7)/3</f>
-        <v>114.56256104152817</v>
+        <v>122.03728329199623</v>
       </c>
       <c r="T7" s="12">
         <f ca="1">(N7+O7+Q7)/3</f>
-        <v>64.622815601004632</v>
+        <v>66.024967370612515</v>
       </c>
       <c r="U7" s="29">
         <f ca="1">(N7*2+O7*2+P7+Q7)/6</f>
-        <v>89.592688321266408</v>
+        <v>94.031125331304381</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22">
         <v>2023</v>
       </c>
       <c r="D8" s="25">
-        <v>52000000</v>
+        <v>183700000</v>
       </c>
       <c r="E8" s="8">
-        <v>183000000</v>
+        <v>229200000</v>
       </c>
       <c r="F8" s="8">
-        <v>452000000</v>
+        <v>504200000</v>
       </c>
       <c r="G8" s="8">
-        <v>1269000000</v>
+        <v>2924700000</v>
       </c>
       <c r="H8" s="6" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">G8/INDIRECT("EUR!$B$48")</f>
-        <v>1481460727.2816422</v>
+        <v>3414364215.193553</v>
       </c>
       <c r="I8" s="11">
-        <v>4005</v>
+        <v>6580</v>
       </c>
       <c r="J8" s="13">
-        <v>21470</v>
+        <v>27290</v>
       </c>
       <c r="K8" s="14">
-        <v>216.29</v>
+        <v>378.45</v>
       </c>
       <c r="L8" s="15">
         <v>3.6</v>
       </c>
       <c r="M8" s="12">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" s="35">
         <f>LOG((D8+E8)/(F8+E8)+1,V$3)</f>
-        <v>30.360299555513585</v>
+        <v>42.901814037322012</v>
       </c>
       <c r="O8" s="16">
         <f ca="1">LOG(I8*H8/J8^2,W$3)</f>
-        <v>61.017547741200765</v>
+        <v>66.255566181746659</v>
       </c>
       <c r="P8" s="11">
         <f>LOG(K8/J8+1,X$3)</f>
-        <v>170.39048944931798</v>
+        <v>219.4897913752888</v>
       </c>
       <c r="Q8" s="29">
         <f>LOG(L8*M8/J8+1,Y$3)</f>
-        <v>113.44665174558499</v>
+        <v>85.678225206469293</v>
       </c>
       <c r="R8" s="16">
         <f ca="1">(N8+O8)/2</f>
-        <v>45.688923648357175</v>
+        <v>54.578690109534335</v>
       </c>
       <c r="S8" s="11">
         <f ca="1">(N8+O8+P8)/3</f>
-        <v>87.256112248677439</v>
+        <v>109.54905719811916</v>
       </c>
       <c r="T8" s="12">
         <f ca="1">(N8+O8+Q8)/3</f>
-        <v>68.274833014099784</v>
+        <v>64.94520180851265</v>
       </c>
       <c r="U8" s="29">
         <f ca="1">(N8*2+O8*2+P8+Q8)/6</f>
-        <v>77.765472631388604</v>
+        <v>87.247129503315918</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="39" t="s">
-        <v>20</v>
+      <c r="A9" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="5">
-        <v>2802082000</v>
-      </c>
-      <c r="F9" s="5">
-        <v>85816000</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5801215000</v>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="25">
+        <v>52000000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>183000000</v>
+      </c>
+      <c r="F9" s="8">
+        <v>452000000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1269000000</v>
       </c>
       <c r="H9" s="6" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">G9/INDIRECT("EUR!$B$39")</f>
-        <v>777657563.99116445</v>
+        <f t="array" aca="1" ref="H9" ca="1">G9/INDIRECT("EUR!$B$48")</f>
+        <v>1481460727.2816422</v>
       </c>
       <c r="I9" s="11">
-        <v>3382</v>
+        <v>4005</v>
       </c>
       <c r="J9" s="13">
-        <v>9957</v>
+        <v>21470</v>
       </c>
       <c r="K9" s="14">
-        <v>77.959999999999994</v>
+        <v>216.29</v>
       </c>
       <c r="L9" s="15">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="M9" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N9" s="35">
         <f>LOG((D9+E9)/(F9+E9)+1,V$3)</f>
-        <v>65.391428151373191</v>
+        <v>30.247010856833349</v>
       </c>
       <c r="O9" s="16">
         <f ca="1">LOG(I9*H9/J9^2,W$3)</f>
-        <v>65.68078489205412</v>
+        <v>60.784468225680186</v>
       </c>
       <c r="P9" s="11">
         <f>LOG(K9/J9+1,X$3)</f>
-        <v>132.57695317026383</v>
+        <v>159.74578259953762</v>
       </c>
       <c r="Q9" s="29">
         <f>LOG(L9*M9/J9+1,Y$3)</f>
-        <v>45.249691510210802</v>
+        <v>115.30642879361234</v>
       </c>
       <c r="R9" s="16">
         <f ca="1">(N9+O9)/2</f>
-        <v>65.536106521713663</v>
+        <v>45.515739541256764</v>
       </c>
       <c r="S9" s="11">
         <f ca="1">(N9+O9+P9)/3</f>
-        <v>87.88305540456372</v>
+        <v>83.592420560683721</v>
       </c>
       <c r="T9" s="12">
         <f ca="1">(N9+O9+Q9)/3</f>
-        <v>58.773968184546042</v>
+        <v>68.779302625375294</v>
       </c>
       <c r="U9" s="29">
         <f ca="1">(N9*2+O9*2+P9+Q9)/6</f>
-        <v>73.328511794554885</v>
+        <v>76.1858615930295</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="22">
         <v>2022</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="5">
-        <v>5392321000</v>
+        <v>2802082000</v>
       </c>
       <c r="F10" s="5">
-        <v>91601000</v>
+        <v>85816000</v>
       </c>
       <c r="G10" s="5">
-        <v>9640000000</v>
+        <v>5801215000</v>
       </c>
       <c r="H10" s="6" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">G10/INDIRECT("EUR!$B$39")</f>
-        <v>1292249798.8567612</v>
+        <v>777657563.99116445</v>
       </c>
       <c r="I10" s="11">
-        <v>5809</v>
+        <v>3382</v>
       </c>
       <c r="J10" s="13">
-        <v>27380</v>
+        <v>9957</v>
       </c>
       <c r="K10" s="14">
-        <v>207.48</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="L10" s="15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M10" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N10" s="35">
         <f>LOG((D10+E10)/(F10+E10)+1,V$3)</f>
-        <v>66.02612752673592</v>
+        <v>65.147421672235353</v>
       </c>
       <c r="O10" s="16">
         <f ca="1">LOG(I10*H10/J10^2,W$3)</f>
-        <v>59.398467627245708</v>
+        <v>65.429892385089033</v>
       </c>
       <c r="P10" s="11">
         <f>LOG(K10/J10+1,X$3)</f>
-        <v>128.3281256868809</v>
+        <v>124.29454958016036</v>
       </c>
       <c r="Q10" s="29">
         <f>LOG(L10*M10/J10+1,Y$3)</f>
-        <v>40.211645087510611</v>
+        <v>45.991488085130726</v>
       </c>
       <c r="R10" s="16">
         <f ca="1">(N10+O10)/2</f>
-        <v>62.712297576990814</v>
+        <v>65.288657028662186</v>
       </c>
       <c r="S10" s="11">
         <f ca="1">(N10+O10+P10)/3</f>
-        <v>84.584240280287517</v>
+        <v>84.957287879161584</v>
       </c>
       <c r="T10" s="12">
         <f ca="1">(N10+O10+Q10)/3</f>
-        <v>55.212080080497408</v>
+        <v>58.856267380818366</v>
       </c>
       <c r="U10" s="29">
         <f ca="1">(N10*2+O10*2+P10+Q10)/6</f>
-        <v>69.898160180392452</v>
+        <v>71.906777629989975</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="22">
@@ -2979,451 +2980,461 @@
       </c>
       <c r="N11" s="35">
         <f>LOG((D11+E11)/(F11+E11)+1,V$3)</f>
-        <v>61.364638331401849</v>
+        <v>61.135657717793727</v>
       </c>
       <c r="O11" s="16">
         <f>LOG(I11*H11/J11^2,W$3)</f>
-        <v>57.929241259057711</v>
+        <v>57.707958693845427</v>
       </c>
       <c r="P11" s="11">
         <f>LOG(K11/J11+1,X$3)</f>
-        <v>50.383684385237252</v>
+        <v>47.236093507213319</v>
       </c>
       <c r="Q11" s="29">
         <f>LOG(L11*M11/J11+1,Y$3)</f>
-        <v>125.80780376074354</v>
+        <v>127.87022219528377</v>
       </c>
       <c r="R11" s="16">
         <f>(N11+O11)/2</f>
-        <v>59.646939795229784</v>
+        <v>59.421808205819573</v>
       </c>
       <c r="S11" s="11">
         <f>(N11+O11+P11)/3</f>
-        <v>56.559187991898938</v>
+        <v>55.35990330628416</v>
       </c>
       <c r="T11" s="12">
         <f>(N11+O11+Q11)/3</f>
-        <v>81.700561117067707</v>
+        <v>82.23794620230764</v>
       </c>
       <c r="U11" s="29">
         <f>(N11*2+O11*2+P11+Q11)/6</f>
-        <v>69.129874554483322</v>
+        <v>68.798924754295896</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="39" t="s">
-        <v>14</v>
+      <c r="A12" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="22">
         <v>2022</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="9">
-        <v>47868762</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3208628</v>
-      </c>
-      <c r="G12" s="9">
-        <v>76603690</v>
-      </c>
-      <c r="H12" s="6">
-        <f>G12</f>
-        <v>76603690</v>
+      <c r="D12" s="23"/>
+      <c r="E12" s="5">
+        <v>5392321000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>91601000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9640000000</v>
+      </c>
+      <c r="H12" s="6" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">G12/INDIRECT("EUR!$B$39")</f>
+        <v>1292249798.8567612</v>
       </c>
       <c r="I12" s="11">
-        <v>393</v>
+        <v>5809</v>
       </c>
       <c r="J12" s="13">
-        <v>819</v>
+        <v>27380</v>
       </c>
       <c r="K12" s="14">
-        <v>2.85</v>
+        <v>207.48</v>
       </c>
       <c r="L12" s="15">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M12" s="12">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="N12" s="35">
         <f>LOG((D12+E12)/(F12+E12)+1,V$3)</f>
-        <v>63.757651396735447</v>
+        <v>65.779752682748551</v>
       </c>
       <c r="O12" s="16">
-        <f>LOG(I12*H12/J12^2,W$3)</f>
-        <v>69.071491230788425</v>
+        <f ca="1">LOG(I12*H12/J12^2,W$3)</f>
+        <v>59.17157279830333</v>
       </c>
       <c r="P12" s="11">
         <f>LOG(K12/J12+1,X$3)</f>
-        <v>59.050800821697031</v>
+        <v>120.31115664750895</v>
       </c>
       <c r="Q12" s="29">
         <f>LOG(L12*M12/J12+1,Y$3)</f>
-        <v>74.930006797021591</v>
+        <v>40.870850920794133</v>
       </c>
       <c r="R12" s="16">
-        <f>(N12+O12)/2</f>
-        <v>66.41457131376194</v>
+        <f ca="1">(N12+O12)/2</f>
+        <v>62.475662740525941</v>
       </c>
       <c r="S12" s="11">
-        <f>(N12+O12+P12)/3</f>
-        <v>63.959981149740308</v>
+        <f ca="1">(N12+O12+P12)/3</f>
+        <v>81.754160709520278</v>
       </c>
       <c r="T12" s="12">
-        <f>(N12+O12+Q12)/3</f>
-        <v>69.253049808181814</v>
+        <f ca="1">(N12+O12+Q12)/3</f>
+        <v>55.274058800615336</v>
       </c>
       <c r="U12" s="29">
-        <f>(N12*2+O12*2+P12+Q12)/6</f>
-        <v>66.606515478961057</v>
+        <f ca="1">(N12*2+O12*2+P12+Q12)/6</f>
+        <v>68.514109755067807</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>35</v>
+      <c r="A13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="22">
         <v>2022</v>
       </c>
-      <c r="D13" s="24">
-        <v>14372360</v>
-      </c>
-      <c r="E13" s="7">
-        <v>509643762</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>751869907</v>
-      </c>
-      <c r="H13" s="6" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">G13/INDIRECT("EUR!$B$30")</f>
-        <v>768141447.27768314</v>
+      <c r="D13" s="26"/>
+      <c r="E13" s="9">
+        <v>47868762</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3208628</v>
+      </c>
+      <c r="G13" s="9">
+        <v>76603690</v>
+      </c>
+      <c r="H13" s="6">
+        <f>G13</f>
+        <v>76603690</v>
       </c>
       <c r="I13" s="11">
-        <v>5417</v>
+        <v>393</v>
       </c>
       <c r="J13" s="13">
-        <v>12896</v>
+        <v>819</v>
       </c>
       <c r="K13" s="14">
-        <v>100.26</v>
+        <v>2.85</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="M13" s="12">
+        <v>4</v>
       </c>
       <c r="N13" s="35">
         <f>LOG((D13+E13)/(F13+E13)+1,V$3)</f>
-        <v>68.184902193266879</v>
+        <v>63.519741314707531</v>
       </c>
       <c r="O13" s="16">
-        <f ca="1">LOG(I13*H13/J13^2,W$3)</f>
-        <v>65.303436631621025</v>
+        <f>LOG(I13*H13/J13^2,W$3)</f>
+        <v>68.807646643316005</v>
       </c>
       <c r="P13" s="11">
         <f>LOG(K13/J13+1,X$3)</f>
-        <v>131.6464910769501</v>
+        <v>55.361754173476072</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>LOG(L13*M13/J13+1,Y$3)</f>
+        <v>76.158364837610989</v>
       </c>
       <c r="R13" s="16">
-        <f ca="1">(N13+O13)/2</f>
-        <v>66.744169412443952</v>
+        <f>(N13+O13)/2</f>
+        <v>66.163693979011768</v>
       </c>
       <c r="S13" s="11">
-        <f ca="1">(N13+O13+P13)/3</f>
-        <v>88.378276633945987</v>
+        <f>(N13+O13+P13)/3</f>
+        <v>62.563047377166534</v>
       </c>
       <c r="T13" s="12">
-        <f ca="1">(N13+O13+Q13)/3</f>
-        <v>44.496112941629299</v>
+        <f>(N13+O13+Q13)/3</f>
+        <v>69.495250931878175</v>
       </c>
       <c r="U13" s="29">
-        <f ca="1">(N13*2+O13*2+P13+Q13)/6</f>
-        <v>66.437194787787647</v>
+        <f>(N13*2+O13*2+P13+Q13)/6</f>
+        <v>66.029149154522358</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>51</v>
+      <c r="A14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D14" s="26">
-        <v>4630000</v>
-      </c>
-      <c r="E14" s="9">
-        <v>239000000</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
-        <v>384000000</v>
-      </c>
-      <c r="H14" s="6">
-        <f>G14</f>
-        <v>384000000</v>
+        <v>2022</v>
+      </c>
+      <c r="D14" s="24">
+        <v>14372360</v>
+      </c>
+      <c r="E14" s="7">
+        <v>509643762</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>751869907</v>
+      </c>
+      <c r="H14" s="6" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">G14/INDIRECT("EUR!$B$30")</f>
+        <v>768141447.27768314</v>
       </c>
       <c r="I14" s="11">
-        <v>3611</v>
+        <v>5417</v>
       </c>
       <c r="J14" s="13">
-        <v>13941</v>
+        <v>12896</v>
       </c>
       <c r="K14" s="14">
-        <v>49.92</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M14" s="12">
-        <v>35</v>
+        <v>100.26</v>
       </c>
       <c r="N14" s="35">
         <f>LOG((D14+E14)/(F14+E14)+1,V$3)</f>
-        <v>67.764276519761992</v>
+        <v>67.930471935588088</v>
       </c>
       <c r="O14" s="16">
-        <f>LOG(I14*H14/J14^2,W$3)</f>
-        <v>57.212771433817231</v>
+        <f ca="1">LOG(I14*H14/J14^2,W$3)</f>
+        <v>65.053985548524651</v>
       </c>
       <c r="P14" s="11">
         <f>LOG(K14/J14+1,X$3)</f>
-        <v>60.760819950577329</v>
-      </c>
-      <c r="Q14" s="29">
-        <f>LOG(L14*M14/J14+1,Y$3)</f>
-        <v>73.827655321665873</v>
+        <v>123.42221570896845</v>
       </c>
       <c r="R14" s="16">
-        <f>(N14+O14)/2</f>
-        <v>62.488523976789608</v>
+        <f ca="1">(N14+O14)/2</f>
+        <v>66.492228742056369</v>
       </c>
       <c r="S14" s="11">
-        <f>(N14+O14+P14)/3</f>
-        <v>61.912622634718844</v>
+        <f ca="1">(N14+O14+P14)/3</f>
+        <v>85.468891064360392</v>
       </c>
       <c r="T14" s="12">
-        <f>(N14+O14+Q14)/3</f>
-        <v>66.268234425081701</v>
+        <f ca="1">(N14+O14+Q14)/3</f>
+        <v>44.328152494704248</v>
       </c>
       <c r="U14" s="29">
-        <f>(N14*2+O14*2+P14+Q14)/6</f>
-        <v>64.090428529900279</v>
+        <f ca="1">(N14*2+O14*2+P14+Q14)/6</f>
+        <v>64.898521779532317</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="39" t="s">
-        <v>20</v>
+      <c r="A15" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C15" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="5">
-        <v>4234471000</v>
-      </c>
-      <c r="F15" s="5">
-        <v>64976000</v>
-      </c>
-      <c r="G15" s="5">
-        <v>7316000000</v>
-      </c>
-      <c r="H15" s="6" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">G15/INDIRECT("EUR!$B$39")</f>
-        <v>980715718.71743405</v>
+        <v>2023</v>
+      </c>
+      <c r="D15" s="26">
+        <v>4630000</v>
+      </c>
+      <c r="E15" s="9">
+        <v>239000000</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>384000000</v>
+      </c>
+      <c r="H15" s="6">
+        <f>G15</f>
+        <v>384000000</v>
       </c>
       <c r="I15" s="11">
-        <v>4846</v>
+        <v>3611</v>
       </c>
       <c r="J15" s="13">
-        <v>26090</v>
+        <v>13941</v>
       </c>
       <c r="K15" s="14">
-        <v>125.28</v>
+        <v>49.92</v>
       </c>
       <c r="L15" s="15">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M15" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N15" s="35">
         <f>LOG((D15+E15)/(F15+E15)+1,V$3)</f>
-        <v>66.103442297784298</v>
+        <v>67.511415816266819</v>
       </c>
       <c r="O15" s="16">
-        <f ca="1">LOG(I15*H15/J15^2,W$3)</f>
-        <v>57.073317097212175</v>
+        <f>LOG(I15*H15/J15^2,W$3)</f>
+        <v>56.994225695074284</v>
       </c>
       <c r="P15" s="11">
         <f>LOG(K15/J15+1,X$3)</f>
-        <v>81.43037227548561</v>
+        <v>56.96494426281739</v>
       </c>
       <c r="Q15" s="29">
         <f>LOG(L15*M15/J15+1,Y$3)</f>
-        <v>45.331279351994596</v>
+        <v>75.037942066706378</v>
       </c>
       <c r="R15" s="16">
-        <f ca="1">(N15+O15)/2</f>
-        <v>61.58837969749824</v>
+        <f>(N15+O15)/2</f>
+        <v>62.252820755670555</v>
       </c>
       <c r="S15" s="11">
-        <f ca="1">(N15+O15+P15)/3</f>
-        <v>68.202377223494025</v>
+        <f>(N15+O15+P15)/3</f>
+        <v>60.490195258052836</v>
       </c>
       <c r="T15" s="12">
-        <f ca="1">(N15+O15+Q15)/3</f>
-        <v>56.169346248997023</v>
+        <f>(N15+O15+Q15)/3</f>
+        <v>66.514527859349172</v>
       </c>
       <c r="U15" s="29">
-        <f ca="1">(N15*2+O15*2+P15+Q15)/6</f>
-        <v>62.185861736245521</v>
+        <f>(N15*2+O15*2+P15+Q15)/6</f>
+        <v>63.50236155870099</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="39" t="s">
-        <v>18</v>
+      <c r="A16" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="22">
         <v>2022</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="9">
-        <v>314100000</v>
-      </c>
-      <c r="F16" s="9">
-        <v>28100000</v>
-      </c>
-      <c r="G16" s="9">
-        <v>477800000</v>
-      </c>
-      <c r="H16" s="6">
-        <f>G16</f>
-        <v>477800000</v>
+      <c r="D16" s="23"/>
+      <c r="E16" s="5">
+        <v>4234471000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>64976000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7316000000</v>
+      </c>
+      <c r="H16" s="6" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">G16/INDIRECT("EUR!$B$39")</f>
+        <v>980715718.71743405</v>
       </c>
       <c r="I16" s="11">
-        <v>2395.6</v>
+        <v>4846</v>
       </c>
       <c r="J16" s="13">
-        <v>12876</v>
+        <v>26090</v>
       </c>
       <c r="K16" s="14">
-        <v>59.86</v>
+        <v>125.28</v>
       </c>
       <c r="L16" s="15">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="M16" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N16" s="35">
         <f>LOG((D16+E16)/(F16+E16)+1,V$3)</f>
-        <v>62.792348123476408</v>
+        <v>65.856778955661909</v>
       </c>
       <c r="O16" s="16">
-        <f>LOG(I16*H16/J16^2,W$3)</f>
-        <v>57.000863361809451</v>
+        <f ca="1">LOG(I16*H16/J16^2,W$3)</f>
+        <v>56.855304056855452</v>
       </c>
       <c r="P16" s="11">
         <f>LOG(K16/J16+1,X$3)</f>
-        <v>78.843803436507926</v>
+        <v>76.34321955738244</v>
       </c>
       <c r="Q16" s="29">
         <f>LOG(L16*M16/J16+1,Y$3)</f>
-        <v>41.359924704974709</v>
+        <v>46.074413429548692</v>
       </c>
       <c r="R16" s="16">
-        <f>(N16+O16)/2</f>
-        <v>59.896605742642933</v>
+        <f ca="1">(N16+O16)/2</f>
+        <v>61.356041506258677</v>
       </c>
       <c r="S16" s="11">
-        <f>(N16+O16+P16)/3</f>
-        <v>66.212338307264602</v>
+        <f ca="1">(N16+O16+P16)/3</f>
+        <v>66.351767523299927</v>
       </c>
       <c r="T16" s="12">
-        <f>(N16+O16+Q16)/3</f>
-        <v>53.717712063420187</v>
+        <f ca="1">(N16+O16+Q16)/3</f>
+        <v>56.26216548068868</v>
       </c>
       <c r="U16" s="29">
-        <f>(N16*2+O16*2+P16+Q16)/6</f>
-        <v>59.965025185342398</v>
+        <f ca="1">(N16*2+O16*2+P16+Q16)/6</f>
+        <v>61.30696650199431</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>36</v>
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D17" s="24">
-        <v>3158729</v>
-      </c>
-      <c r="E17" s="7">
-        <v>679383671</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>825582486</v>
-      </c>
-      <c r="H17" s="6" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">G17/INDIRECT("EUR!$B$30")</f>
-        <v>843449271.92723453</v>
+        <v>2022</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="9">
+        <v>314100000</v>
+      </c>
+      <c r="F17" s="9">
+        <v>28100000</v>
+      </c>
+      <c r="G17" s="9">
+        <v>477800000</v>
+      </c>
+      <c r="H17" s="6">
+        <f>G17</f>
+        <v>477800000</v>
       </c>
       <c r="I17" s="11">
-        <v>3038.9</v>
+        <v>2395.6</v>
       </c>
       <c r="J17" s="13">
-        <v>18261</v>
+        <v>12876</v>
       </c>
       <c r="K17" s="14">
-        <v>104.12</v>
+        <v>59.86</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="M17" s="12">
+        <v>26</v>
       </c>
       <c r="N17" s="35">
         <f>LOG((D17+E17)/(F17+E17)+1,V$3)</f>
-        <v>67.058699220201902</v>
+        <v>62.558040046476776</v>
       </c>
       <c r="O17" s="16">
-        <f ca="1">LOG(I17*H17/J17^2,W$3)</f>
-        <v>57.693167037103983</v>
+        <f>LOG(I17*H17/J17^2,W$3)</f>
+        <v>56.783127085796274</v>
       </c>
       <c r="P17" s="11">
         <f>LOG(K17/J17+1,X$3)</f>
-        <v>96.64820482711464</v>
+        <v>73.918239942819085</v>
+      </c>
+      <c r="Q17" s="29">
+        <f>LOG(L17*M17/J17+1,Y$3)</f>
+        <v>42.037954752498301</v>
       </c>
       <c r="R17" s="16">
-        <f ca="1">(N17+O17)/2</f>
-        <v>62.375933128652946</v>
+        <f>(N17+O17)/2</f>
+        <v>59.670583566136528</v>
       </c>
       <c r="S17" s="11">
-        <f ca="1">(N17+O17+P17)/3</f>
-        <v>73.800023694806839</v>
+        <f>(N17+O17+P17)/3</f>
+        <v>64.419802358364052</v>
       </c>
       <c r="T17" s="12">
-        <f ca="1">(N17+O17+Q17)/3</f>
-        <v>41.583955419101962</v>
+        <f>(N17+O17+Q17)/3</f>
+        <v>53.793040628257124</v>
       </c>
       <c r="U17" s="29">
-        <f ca="1">(N17*2+O17*2+P17+Q17)/6</f>
-        <v>57.691989556954404</v>
+        <f>(N17*2+O17*2+P17+Q17)/6</f>
+        <v>59.106421493310584</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3465,257 +3476,247 @@
       </c>
       <c r="N18" s="35">
         <f>LOG((D18+E18)/(F18+E18)+1,V$3)</f>
-        <v>65.402112509367782</v>
+        <v>65.158066161815228</v>
       </c>
       <c r="O18" s="16">
         <f ca="1">LOG(I18*H18/J18^2,W$3)</f>
-        <v>58.964208504270047</v>
+        <v>58.738972491680343</v>
       </c>
       <c r="P18" s="11">
         <f>LOG(K18/J18+1,X$3)</f>
-        <v>86.616563475381113</v>
+        <v>81.205416823295977</v>
       </c>
       <c r="Q18" s="29">
         <f>LOG(L18*M18/J18+1,Y$3)</f>
-        <v>10.476085963526968</v>
+        <v>10.647824696476285</v>
       </c>
       <c r="R18" s="16">
         <f ca="1">(N18+O18)/2</f>
-        <v>62.183160506818915</v>
+        <v>61.948519326747785</v>
       </c>
       <c r="S18" s="11">
         <f ca="1">(N18+O18+P18)/3</f>
-        <v>70.32762816300631</v>
+        <v>68.367485158930506</v>
       </c>
       <c r="T18" s="12">
         <f ca="1">(N18+O18+Q18)/3</f>
-        <v>44.947468992388259</v>
+        <v>44.848287783323947</v>
       </c>
       <c r="U18" s="29">
         <f ca="1">(N18*2+O18*2+P18+Q18)/6</f>
-        <v>57.637548577697288</v>
+        <v>56.607886471127237</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>68</v>
+      <c r="A19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="22">
         <v>2023</v>
       </c>
-      <c r="D19" s="25">
-        <v>55100000</v>
-      </c>
-      <c r="E19" s="8">
-        <v>210900000</v>
-      </c>
-      <c r="F19" s="8">
-        <v>513700000</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1385000000</v>
+      <c r="D19" s="24">
+        <v>3158729</v>
+      </c>
+      <c r="E19" s="7">
+        <v>679383671</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>825582486</v>
       </c>
       <c r="H19" s="6" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">G19/INDIRECT("EUR!$B$48")</f>
-        <v>1616881881.2333131</v>
+        <f t="array" aca="1" ref="H19" ca="1">G19/INDIRECT("EUR!$B$30")</f>
+        <v>843449271.92723453</v>
       </c>
       <c r="I19" s="11">
-        <v>5015</v>
+        <v>3038.9</v>
       </c>
       <c r="J19" s="13">
-        <v>41250</v>
+        <v>18261</v>
       </c>
       <c r="K19" s="14">
-        <v>127.71</v>
-      </c>
-      <c r="L19" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M19" s="12">
-        <v>78</v>
+        <v>104.12</v>
       </c>
       <c r="N19" s="35">
         <f>LOG((D19+E19)/(F19+E19)+1,V$3)</f>
-        <v>30.15037183664046</v>
+        <v>66.80847136075819</v>
       </c>
       <c r="O19" s="16">
         <f ca="1">LOG(I19*H19/J19^2,W$3)</f>
-        <v>54.610463982029131</v>
+        <v>57.472786246337193</v>
       </c>
       <c r="P19" s="11">
         <f>LOG(K19/J19+1,X$3)</f>
-        <v>52.547119063474085</v>
-      </c>
-      <c r="Q19" s="29">
-        <f>LOG(L19*M19/J19+1,Y$3)</f>
-        <v>118.25798743184701</v>
+        <v>90.610357226188682</v>
       </c>
       <c r="R19" s="16">
         <f ca="1">(N19+O19)/2</f>
-        <v>42.380417909334795</v>
+        <v>62.140628803547692</v>
       </c>
       <c r="S19" s="11">
         <f ca="1">(N19+O19+P19)/3</f>
-        <v>45.769318294047899</v>
+        <v>71.630538277761346</v>
       </c>
       <c r="T19" s="12">
         <f ca="1">(N19+O19+Q19)/3</f>
-        <v>67.672941083505535</v>
+        <v>41.427085869031792</v>
       </c>
       <c r="U19" s="29">
         <f ca="1">(N19*2+O19*2+P19+Q19)/6</f>
-        <v>56.72112968877672</v>
+        <v>56.52881207339658</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="39" t="s">
-        <v>26</v>
+      <c r="A20" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C20" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="10">
-        <v>2660597000</v>
-      </c>
-      <c r="F20" s="10">
-        <v>703808000</v>
-      </c>
-      <c r="G20" s="10">
-        <v>5425973000</v>
+        <v>2023</v>
+      </c>
+      <c r="D20" s="25">
+        <v>55100000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>210900000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>513700000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1385000000</v>
       </c>
       <c r="H20" s="6" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">G20/INDIRECT("EUR!$B$125")</f>
-        <v>470202806.94967717</v>
+        <f t="array" aca="1" ref="H20" ca="1">G20/INDIRECT("EUR!$B$48")</f>
+        <v>1616881881.2333131</v>
       </c>
       <c r="I20" s="11">
-        <v>843</v>
+        <v>5015</v>
       </c>
       <c r="J20" s="13">
-        <v>13583</v>
+        <v>41250</v>
       </c>
       <c r="K20" s="14">
-        <v>54.93</v>
+        <v>127.71</v>
       </c>
       <c r="L20" s="15">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M20" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="N20" s="35">
         <f>LOG((D20+E20)/(F20+E20)+1,V$3)</f>
-        <v>56.18202902932628</v>
+        <v>30.037866477994289</v>
       </c>
       <c r="O20" s="16">
         <f ca="1">LOG(I20*H20/J20^2,W$3)</f>
-        <v>49.47354057452921</v>
+        <v>54.401858737169533</v>
       </c>
       <c r="P20" s="11">
         <f>LOG(K20/J20+1,X$3)</f>
-        <v>68.605132291497824</v>
+        <v>49.264373177603716</v>
       </c>
       <c r="Q20" s="29">
         <f>LOG(L20*M20/J20+1,Y$3)</f>
-        <v>56.515308963511089</v>
+        <v>120.19663866031058</v>
       </c>
       <c r="R20" s="16">
         <f ca="1">(N20+O20)/2</f>
-        <v>52.827784801927749</v>
+        <v>42.219862607581909</v>
       </c>
       <c r="S20" s="11">
         <f ca="1">(N20+O20+P20)/3</f>
-        <v>58.086900631784438</v>
+        <v>44.568032797589183</v>
       </c>
       <c r="T20" s="12">
         <f ca="1">(N20+O20+Q20)/3</f>
-        <v>54.056959522455521</v>
+        <v>68.212121291824801</v>
       </c>
       <c r="U20" s="29">
         <f ca="1">(N20*2+O20*2+P20+Q20)/6</f>
-        <v>56.071930077119987</v>
+        <v>56.390077044706992</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>71</v>
+      <c r="A21" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="22">
         <v>2022</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="9">
-        <v>445684557</v>
-      </c>
-      <c r="F21" s="9">
-        <v>103976679</v>
-      </c>
-      <c r="G21" s="9">
-        <v>715010067</v>
-      </c>
-      <c r="H21" s="6">
-        <f>G21</f>
-        <v>715010067</v>
+      <c r="D21" s="27"/>
+      <c r="E21" s="10">
+        <v>2660597000</v>
+      </c>
+      <c r="F21" s="10">
+        <v>703808000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5425973000</v>
+      </c>
+      <c r="H21" s="6" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">G21/INDIRECT("EUR!$B$125")</f>
+        <v>470202806.94967717</v>
       </c>
       <c r="I21" s="11">
-        <v>2268</v>
+        <v>843</v>
       </c>
       <c r="J21" s="13">
-        <v>12739</v>
+        <v>13583</v>
       </c>
       <c r="K21" s="14">
-        <v>62.3</v>
+        <v>54.93</v>
       </c>
       <c r="L21" s="15">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="M21" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N21" s="35">
         <f>LOG((D21+E21)/(F21+E21)+1,V$3)</f>
-        <v>57.254376425019487</v>
+        <v>55.97238719274592</v>
       </c>
       <c r="O21" s="16">
-        <f>LOG(I21*H21/J21^2,W$3)</f>
-        <v>59.385157909036472</v>
+        <f ca="1">LOG(I21*H21/J21^2,W$3)</f>
+        <v>49.284557744260326</v>
       </c>
       <c r="P21" s="11">
         <f>LOG(K21/J21+1,X$3)</f>
-        <v>82.930119299070014</v>
+        <v>64.319203399612022</v>
       </c>
       <c r="Q21" s="29">
         <f>LOG(L21*M21/J21+1,Y$3)</f>
-        <v>15.692476180924052</v>
+        <v>57.44178738182724</v>
       </c>
       <c r="R21" s="16">
-        <f>(N21+O21)/2</f>
-        <v>58.319767167027976</v>
+        <f ca="1">(N21+O21)/2</f>
+        <v>52.628472468503119</v>
       </c>
       <c r="S21" s="11">
-        <f>(N21+O21+P21)/3</f>
-        <v>66.52321787770866</v>
+        <f ca="1">(N21+O21+P21)/3</f>
+        <v>56.525382778872746</v>
       </c>
       <c r="T21" s="12">
-        <f>(N21+O21+Q21)/3</f>
-        <v>44.110670171659997</v>
+        <f ca="1">(N21+O21+Q21)/3</f>
+        <v>54.2329107729445</v>
       </c>
       <c r="U21" s="29">
-        <f>(N21*2+O21*2+P21+Q21)/6</f>
-        <v>55.316944024684339</v>
+        <f ca="1">(N21*2+O21*2+P21+Q21)/6</f>
+        <v>55.379146775908623</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3755,384 +3756,382 @@
       </c>
       <c r="N22" s="35">
         <f>LOG((D22+E22)/(F22+E22)+1,V$3)</f>
-        <v>57.984341975234386</v>
+        <v>57.76797485296035</v>
       </c>
       <c r="O22" s="16">
         <f ca="1">LOG(I22*H22/J22^2,W$3)</f>
-        <v>52.567631354062762</v>
+        <v>52.366829478182119</v>
       </c>
       <c r="P22" s="11">
         <f>LOG(K22/J22+1,X$3)</f>
-        <v>25.596009444551477</v>
+        <v>23.996964697734764</v>
       </c>
       <c r="Q22" s="29">
         <f>LOG(L22*M22/J22+1,Y$3)</f>
-        <v>82.123875323936431</v>
+        <v>83.470165373686285</v>
       </c>
       <c r="R22" s="16">
         <f ca="1">(N22+O22)/2</f>
-        <v>55.27598666464857</v>
+        <v>55.067402165571238</v>
       </c>
       <c r="S22" s="11">
         <f ca="1">(N22+O22+P22)/3</f>
-        <v>45.382660924616204</v>
+        <v>44.710589676292415</v>
       </c>
       <c r="T22" s="12">
         <f ca="1">(N22+O22+Q22)/3</f>
-        <v>64.225282884411186</v>
+        <v>64.534989901609592</v>
       </c>
       <c r="U22" s="29">
         <f ca="1">(N22*2+O22*2+P22+Q22)/6</f>
-        <v>54.803971904513695</v>
+        <v>54.622789788951003</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="39" t="s">
-        <v>18</v>
+      <c r="A23" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="22">
         <v>2022</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="9">
-        <v>402124000</v>
+        <v>445684557</v>
       </c>
       <c r="F23" s="9">
-        <v>35660000</v>
+        <v>103976679</v>
       </c>
       <c r="G23" s="9">
-        <v>714862000</v>
+        <v>715010067</v>
       </c>
       <c r="H23" s="6">
         <f>G23</f>
-        <v>714862000</v>
+        <v>715010067</v>
       </c>
       <c r="I23" s="11">
-        <v>3467</v>
+        <v>2268</v>
       </c>
       <c r="J23" s="13">
-        <v>24402</v>
+        <v>12739</v>
       </c>
       <c r="K23" s="14">
-        <v>88.36</v>
+        <v>62.3</v>
       </c>
       <c r="L23" s="15">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="M23" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N23" s="35">
         <f>LOG((D23+E23)/(F23+E23)+1,V$3)</f>
-        <v>62.825525470486077</v>
+        <v>57.040733150944448</v>
       </c>
       <c r="O23" s="16">
         <f>LOG(I23*H23/J23^2,W$3)</f>
-        <v>53.737787893958206</v>
+        <v>59.158313921578007</v>
       </c>
       <c r="P23" s="11">
         <f>LOG(K23/J23+1,X$3)</f>
-        <v>61.441888450272842</v>
+        <v>77.749273749480295</v>
       </c>
       <c r="Q23" s="29">
         <f>LOG(L23*M23/J23+1,Y$3)</f>
-        <v>27.399899907647477</v>
+        <v>15.949729317785662</v>
       </c>
       <c r="R23" s="16">
         <f>(N23+O23)/2</f>
-        <v>58.281656682222142</v>
+        <v>58.099523536261231</v>
       </c>
       <c r="S23" s="11">
         <f>(N23+O23+P23)/3</f>
-        <v>59.33506727157237</v>
+        <v>64.649440274000924</v>
       </c>
       <c r="T23" s="12">
         <f>(N23+O23+Q23)/3</f>
-        <v>47.987737757363924</v>
+        <v>44.049592130102702</v>
       </c>
       <c r="U23" s="29">
         <f>(N23*2+O23*2+P23+Q23)/6</f>
-        <v>53.661402514468143</v>
+        <v>54.349516202051824</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>46</v>
+      <c r="B24" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="22">
         <v>2022</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="9">
-        <v>422400000</v>
+        <v>402124000</v>
       </c>
       <c r="F24" s="9">
-        <v>32800000</v>
+        <v>35660000</v>
       </c>
       <c r="G24" s="9">
-        <v>852200000</v>
+        <v>714862000</v>
       </c>
       <c r="H24" s="6">
         <f>G24</f>
-        <v>852200000</v>
+        <v>714862000</v>
       </c>
       <c r="I24" s="11">
-        <v>3717.1350000000002</v>
+        <v>3467</v>
       </c>
       <c r="J24" s="13">
-        <v>13678</v>
+        <v>24402</v>
       </c>
       <c r="K24" s="14">
-        <v>55.2</v>
+        <v>88.36</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="M24" s="12">
+        <v>29</v>
       </c>
       <c r="N24" s="35">
         <f>LOG((D24+E24)/(F24+E24)+1,V$3)</f>
-        <v>63.29677011172889</v>
+        <v>62.591093593045628</v>
       </c>
       <c r="O24" s="16">
         <f>LOG(I24*H24/J24^2,W$3)</f>
-        <v>62.785525288580821</v>
+        <v>53.532516164248655</v>
       </c>
       <c r="P24" s="11">
         <f>LOG(K24/J24+1,X$3)</f>
-        <v>68.463798787383638</v>
+        <v>57.603464762637394</v>
+      </c>
+      <c r="Q24" s="29">
+        <f>LOG(L24*M24/J24+1,Y$3)</f>
+        <v>27.849077597622564</v>
       </c>
       <c r="R24" s="16">
         <f>(N24+O24)/2</f>
-        <v>63.041147700154852</v>
+        <v>58.061804878647138</v>
       </c>
       <c r="S24" s="11">
         <f>(N24+O24+P24)/3</f>
-        <v>64.848698062564452</v>
+        <v>57.909024839977228</v>
       </c>
       <c r="T24" s="12">
         <f>(N24+O24+Q24)/3</f>
-        <v>42.027431800103237</v>
+        <v>47.990895784972281</v>
       </c>
       <c r="U24" s="29">
         <f>(N24*2+O24*2+P24+Q24)/6</f>
-        <v>53.438064931333848</v>
+        <v>52.949960312474751</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>37</v>
+      <c r="A25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="22">
         <v>2022</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="7">
-        <v>341050000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>16490000</v>
-      </c>
-      <c r="G25" s="7">
-        <v>738450000</v>
-      </c>
-      <c r="H25" s="6" cm="1">
-        <f t="array" aca="1" ref="H25" ca="1">G25/INDIRECT("EUR!$B$30")</f>
-        <v>754431114.2940917</v>
+      <c r="D25" s="26"/>
+      <c r="E25" s="9">
+        <v>422400000</v>
+      </c>
+      <c r="F25" s="9">
+        <v>32800000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>852200000</v>
+      </c>
+      <c r="H25" s="6">
+        <f>G25</f>
+        <v>852200000</v>
       </c>
       <c r="I25" s="11">
-        <v>2547.1999999999998</v>
+        <v>3717.1350000000002</v>
       </c>
       <c r="J25" s="13">
-        <v>16908</v>
+        <v>13678</v>
       </c>
       <c r="K25" s="14">
-        <v>67.900000000000006</v>
+        <v>55.2</v>
       </c>
       <c r="N25" s="35">
         <f>LOG((D25+E25)/(F25+E25)+1,V$3)</f>
-        <v>64.585236236279158</v>
+        <v>63.060579796692366</v>
       </c>
       <c r="O25" s="16">
-        <f ca="1">LOG(I25*H25/J25^2,W$3)</f>
-        <v>56.828627553303697</v>
+        <f>LOG(I25*H25/J25^2,W$3)</f>
+        <v>62.545692316629271</v>
       </c>
       <c r="P25" s="11">
         <f>LOG(K25/J25+1,X$3)</f>
-        <v>68.12810994108051</v>
+        <v>64.186699342048584</v>
       </c>
       <c r="R25" s="16">
-        <f ca="1">(N25+O25)/2</f>
-        <v>60.706931894791424</v>
+        <f>(N25+O25)/2</f>
+        <v>62.803136056660819</v>
       </c>
       <c r="S25" s="11">
-        <f ca="1">(N25+O25+P25)/3</f>
-        <v>63.180657910221122</v>
+        <f>(N25+O25+P25)/3</f>
+        <v>63.264323818456738</v>
       </c>
       <c r="T25" s="12">
-        <f ca="1">(N25+O25+Q25)/3</f>
-        <v>40.471287929860949</v>
+        <f>(N25+O25+Q25)/3</f>
+        <v>41.868757371107215</v>
       </c>
       <c r="U25" s="29">
-        <f ca="1">(N25*2+O25*2+P25+Q25)/6</f>
-        <v>51.825972920041032</v>
+        <f>(N25*2+O25*2+P25+Q25)/6</f>
+        <v>52.566540594781976</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="39" t="s">
-        <v>50</v>
+      <c r="A26" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C26" s="22">
         <v>2022</v>
       </c>
-      <c r="D26" s="26">
-        <v>1355549.79</v>
-      </c>
-      <c r="E26" s="9">
-        <v>413330999.95999998</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
-        <v>1051105117.5700001</v>
-      </c>
-      <c r="H26" s="6">
-        <f>G26</f>
-        <v>1051105117.5700001</v>
+      <c r="D26" s="24"/>
+      <c r="E26" s="7">
+        <v>341050000</v>
+      </c>
+      <c r="F26" s="7">
+        <v>16490000</v>
+      </c>
+      <c r="G26" s="7">
+        <v>738450000</v>
+      </c>
+      <c r="H26" s="6" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">G26/INDIRECT("EUR!$B$30")</f>
+        <v>754431114.2940917</v>
       </c>
       <c r="I26" s="11">
-        <v>4206</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="J26" s="13">
-        <v>31252</v>
+        <v>16908</v>
       </c>
       <c r="K26" s="14">
-        <v>73.16</v>
-      </c>
-      <c r="L26" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M26" s="12">
-        <v>18</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="N26" s="35">
         <f>LOG((D26+E26)/(F26+E26)+1,V$3)</f>
-        <v>66.992788860249689</v>
+        <v>64.344238042114924</v>
       </c>
       <c r="O26" s="16">
-        <f>LOG(I26*H26/J26^2,W$3)</f>
-        <v>54.278748875516662</v>
+        <f ca="1">LOG(I26*H26/J26^2,W$3)</f>
+        <v>56.611549196861006</v>
       </c>
       <c r="P26" s="11">
         <f>LOG(K26/J26+1,X$3)</f>
-        <v>39.747280692124583</v>
-      </c>
-      <c r="Q26" s="29">
-        <f>LOG(L26*M26/J26+1,Y$3)</f>
-        <v>11.810890307968972</v>
+        <v>63.871981791580019</v>
       </c>
       <c r="R26" s="16">
-        <f>(N26+O26)/2</f>
-        <v>60.635768867883172</v>
+        <f ca="1">(N26+O26)/2</f>
+        <v>60.477893619487965</v>
       </c>
       <c r="S26" s="11">
-        <f>(N26+O26+P26)/3</f>
-        <v>53.672939475963638</v>
+        <f ca="1">(N26+O26+P26)/3</f>
+        <v>61.609256343518645</v>
       </c>
       <c r="T26" s="12">
-        <f>(N26+O26+Q26)/3</f>
-        <v>44.360809347911776</v>
+        <f ca="1">(N26+O26+Q26)/3</f>
+        <v>40.318595746325308</v>
       </c>
       <c r="U26" s="29">
-        <f>(N26*2+O26*2+P26+Q26)/6</f>
-        <v>49.016874411937714</v>
+        <f ca="1">(N26*2+O26*2+P26+Q26)/6</f>
+        <v>50.963926044921976</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="39" t="s">
-        <v>15</v>
+      <c r="A27" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C27" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D27" s="25">
-        <v>29000000</v>
-      </c>
-      <c r="E27" s="8">
-        <v>236700000</v>
-      </c>
-      <c r="F27" s="8">
-        <v>929300000</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1968300000</v>
-      </c>
-      <c r="H27" s="6" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">G27/INDIRECT("EUR!$B$48")</f>
-        <v>2297840149.3368449</v>
+        <v>2022</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1355549.79</v>
+      </c>
+      <c r="E27" s="9">
+        <v>413330999.95999998</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>1051105117.5700001</v>
+      </c>
+      <c r="H27" s="6">
+        <f>G27</f>
+        <v>1051105117.5700001</v>
       </c>
       <c r="I27" s="11">
-        <v>7380</v>
+        <v>4206</v>
       </c>
       <c r="J27" s="13">
-        <v>46830</v>
+        <v>31252</v>
       </c>
       <c r="K27" s="14">
-        <v>219.78</v>
+        <v>73.16</v>
       </c>
       <c r="L27" s="15">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="M27" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N27" s="35">
         <f>LOG((D27+E27)/(F27+E27)+1,V$3)</f>
-        <v>19.793891955753232</v>
+        <v>66.742806943666153</v>
       </c>
       <c r="O27" s="16">
-        <f ca="1">LOG(I27*H27/J27^2,W$3)</f>
-        <v>57.731794128230618</v>
+        <f>LOG(I27*H27/J27^2,W$3)</f>
+        <v>54.07141074149942</v>
       </c>
       <c r="P27" s="11">
         <f>LOG(K27/J27+1,X$3)</f>
-        <v>79.591424131826017</v>
+        <v>37.264171732164407</v>
       </c>
       <c r="Q27" s="29">
         <f>LOG(L27*M27/J27+1,Y$3)</f>
-        <v>57.043732883186507</v>
+        <v>12.004511030780515</v>
       </c>
       <c r="R27" s="16">
-        <f ca="1">(N27+O27)/2</f>
-        <v>38.762843041991928</v>
+        <f>(N27+O27)/2</f>
+        <v>60.407108842582787</v>
       </c>
       <c r="S27" s="11">
-        <f ca="1">(N27+O27+P27)/3</f>
-        <v>52.372370071936622</v>
+        <f>(N27+O27+P27)/3</f>
+        <v>52.692796472443327</v>
       </c>
       <c r="T27" s="12">
-        <f ca="1">(N27+O27+Q27)/3</f>
-        <v>44.856472989056783</v>
+        <f>(N27+O27+Q27)/3</f>
+        <v>44.272909571982034</v>
       </c>
       <c r="U27" s="29">
-        <f ca="1">(N27*2+O27*2+P27+Q27)/6</f>
-        <v>48.614421530496706</v>
+        <f>(N27*2+O27*2+P27+Q27)/6</f>
+        <v>48.48285302221268</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="22">
@@ -4169,253 +4168,255 @@
       </c>
       <c r="N28" s="35">
         <f>LOG((D28+E28)/(F28+E28)+1,V$3)</f>
-        <v>62.375179492820827</v>
+        <v>62.14242807013585</v>
       </c>
       <c r="O28" s="16">
         <f>LOG(I28*H28/J28^2,W$3)</f>
-        <v>52.622230744205517</v>
+        <v>52.421220305380722</v>
       </c>
       <c r="P28" s="11">
         <f>LOG(K28/J28+1,X$3)</f>
-        <v>51.761227314790197</v>
+        <v>48.527577991218799</v>
       </c>
       <c r="Q28" s="29">
         <f>LOG(L28*M28/J28+1,Y$3)</f>
-        <v>9.6230261114437408</v>
+        <v>9.7807802876953769</v>
       </c>
       <c r="R28" s="16">
         <f>(N28+O28)/2</f>
-        <v>57.498705118513172</v>
+        <v>57.281824187758289</v>
       </c>
       <c r="S28" s="11">
         <f>(N28+O28+P28)/3</f>
-        <v>55.58621251727218</v>
+        <v>54.363742122245128</v>
       </c>
       <c r="T28" s="12">
         <f>(N28+O28+Q28)/3</f>
-        <v>41.540145449490026</v>
+        <v>41.448142887737319</v>
       </c>
       <c r="U28" s="29">
         <f>(N28*2+O28*2+P28+Q28)/6</f>
-        <v>48.5631789833811</v>
+        <v>47.905942504991224</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>73</v>
+      <c r="A29" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="5">
-        <v>2186629000</v>
-      </c>
-      <c r="F29" s="5">
-        <v>77679000</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3027319000</v>
+        <v>2023</v>
+      </c>
+      <c r="D29" s="25">
+        <v>29000000</v>
+      </c>
+      <c r="E29" s="8">
+        <v>236700000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>929300000</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1968300000</v>
       </c>
       <c r="H29" s="6" cm="1">
-        <f t="array" aca="1" ref="H29" ca="1">G29/INDIRECT("EUR!$B$39")</f>
-        <v>405814561.08145761</v>
+        <f t="array" aca="1" ref="H29" ca="1">G29/INDIRECT("EUR!$B$48")</f>
+        <v>2297840149.3368449</v>
       </c>
       <c r="I29" s="11">
-        <v>1914</v>
+        <v>7380</v>
       </c>
       <c r="J29" s="13">
-        <v>14955</v>
+        <v>46830</v>
       </c>
       <c r="K29" s="14">
-        <v>17.79</v>
+        <v>219.78</v>
       </c>
       <c r="L29" s="15">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" s="12">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N29" s="35">
         <f>LOG((D29+E29)/(F29+E29)+1,V$3)</f>
-        <v>65.166533968196305</v>
+        <v>19.72003154283523</v>
       </c>
       <c r="O29" s="16">
         <f ca="1">LOG(I29*H29/J29^2,W$3)</f>
-        <v>52.570354598172216</v>
+        <v>57.511265786734256</v>
       </c>
       <c r="P29" s="11">
         <f>LOG(K29/J29+1,X$3)</f>
-        <v>20.209274727222191</v>
+        <v>74.619154961299174</v>
       </c>
       <c r="Q29" s="29">
         <f>LOG(L29*M29/J29+1,Y$3)</f>
-        <v>32.112115266435524</v>
+        <v>57.978873969482009</v>
       </c>
       <c r="R29" s="16">
         <f ca="1">(N29+O29)/2</f>
-        <v>58.86844428318426</v>
+        <v>38.615648664784743</v>
       </c>
       <c r="S29" s="11">
         <f ca="1">(N29+O29+P29)/3</f>
-        <v>45.9820544311969</v>
+        <v>50.616817430289551</v>
       </c>
       <c r="T29" s="12">
         <f ca="1">(N29+O29+Q29)/3</f>
-        <v>49.949667944268015</v>
+        <v>45.070057099683829</v>
       </c>
       <c r="U29" s="29">
         <f ca="1">(N29*2+O29*2+P29+Q29)/6</f>
-        <v>47.965861187732457</v>
+        <v>47.843437264986697</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="39" t="s">
-        <v>50</v>
+      <c r="A30" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C30" s="22">
         <v>2022</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="9">
-        <v>195000000</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
-        <v>345200000</v>
-      </c>
-      <c r="H30" s="6">
-        <f>G30</f>
-        <v>345200000</v>
+      <c r="D30" s="23"/>
+      <c r="E30" s="5">
+        <v>2186629000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>77679000</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3027319000</v>
+      </c>
+      <c r="H30" s="6" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">G30/INDIRECT("EUR!$B$39")</f>
+        <v>405814561.08145761</v>
       </c>
       <c r="I30" s="11">
-        <v>2105</v>
+        <v>1914</v>
       </c>
       <c r="J30" s="13">
-        <v>15438</v>
+        <v>14955</v>
       </c>
       <c r="K30" s="14">
-        <v>23.26</v>
+        <v>17.79</v>
       </c>
       <c r="L30" s="15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N30" s="35">
         <f>LOG((D30+E30)/(F30+E30)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>64.923366676079866</v>
       </c>
       <c r="O30" s="16">
-        <f>LOG(I30*H30/J30^2,W$3)</f>
-        <v>51.730642951678583</v>
+        <f ca="1">LOG(I30*H30/J30^2,W$3)</f>
+        <v>52.369542319834565</v>
       </c>
       <c r="P30" s="11">
         <f>LOG(K30/J30+1,X$3)</f>
-        <v>25.592404423291413</v>
+        <v>18.946752353977043</v>
       </c>
       <c r="Q30" s="29">
         <f>LOG(L30*M30/J30+1,Y$3)</f>
-        <v>21.245017394033354</v>
+        <v>32.638542217052425</v>
       </c>
       <c r="R30" s="16">
-        <f>(N30+O30)/2</f>
-        <v>59.282724670761752</v>
+        <f ca="1">(N30+O30)/2</f>
+        <v>58.646454497957215</v>
       </c>
       <c r="S30" s="11">
-        <f>(N30+O30+P30)/3</f>
-        <v>48.05261792160497</v>
+        <f ca="1">(N30+O30+P30)/3</f>
+        <v>45.413220449963823</v>
       </c>
       <c r="T30" s="12">
-        <f>(N30+O30+Q30)/3</f>
-        <v>46.603488911852288</v>
+        <f ca="1">(N30+O30+Q30)/3</f>
+        <v>49.977150404322288</v>
       </c>
       <c r="U30" s="29">
-        <f>(N30*2+O30*2+P30+Q30)/6</f>
-        <v>47.328053416728636</v>
+        <f ca="1">(N30*2+O30*2+P30+Q30)/6</f>
+        <v>47.695185427143059</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="39" t="s">
-        <v>18</v>
+      <c r="A31" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C31" s="22">
         <v>2022</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="9">
-        <v>530802700</v>
-      </c>
-      <c r="F31" s="9">
-        <v>67751100</v>
-      </c>
+        <v>195000000</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <v>834083100</v>
+        <v>345200000</v>
       </c>
       <c r="H31" s="6">
         <f>G31</f>
-        <v>834083100</v>
+        <v>345200000</v>
       </c>
       <c r="I31" s="11">
-        <v>3750</v>
+        <v>2105</v>
       </c>
       <c r="J31" s="13">
-        <v>37000</v>
+        <v>15438</v>
       </c>
       <c r="K31" s="14">
-        <v>120.01</v>
+        <v>23.26</v>
       </c>
       <c r="L31" s="15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M31" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N31" s="35">
         <f>LOG((D31+E31)/(F31+E31)+1,V$3)</f>
-        <v>61.217216343309296</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O31" s="16">
         <f>LOG(I31*H31/J31^2,W$3)</f>
-        <v>49.870201626195218</v>
+        <v>51.533038268385091</v>
       </c>
       <c r="P31" s="11">
         <f>LOG(K31/J31+1,X$3)</f>
-        <v>55.046754990003208</v>
+        <v>23.993584890890276</v>
       </c>
       <c r="Q31" s="29">
         <f>LOG(L31*M31/J31+1,Y$3)</f>
-        <v>5.8207235985530659</v>
+        <v>21.593295594636157</v>
       </c>
       <c r="R31" s="16">
         <f>(N31+O31)/2</f>
-        <v>55.543708984752257</v>
+        <v>59.05922612464235</v>
       </c>
       <c r="S31" s="11">
         <f>(N31+O31+P31)/3</f>
-        <v>55.378057653169243</v>
+        <v>47.370679046724995</v>
       </c>
       <c r="T31" s="12">
         <f>(N31+O31+Q31)/3</f>
-        <v>38.96938052268586</v>
+        <v>46.57058261464028</v>
       </c>
       <c r="U31" s="29">
         <f>(N31*2+O31*2+P31+Q31)/6</f>
-        <v>47.173719087927545</v>
+        <v>46.970630830682637</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4455,99 +4456,111 @@
       </c>
       <c r="N32" s="35">
         <f>LOG((D32+E32)/(F32+E32)+1,V$3)</f>
-        <v>59.731464723795348</v>
+        <v>59.50857825666909</v>
       </c>
       <c r="O32" s="16">
         <f>LOG(I32*H32/J32^2,W$3)</f>
-        <v>48.7022366045681</v>
+        <v>48.516200060446273</v>
       </c>
       <c r="P32" s="11">
         <f>LOG(K32/J32+1,X$3)</f>
-        <v>40.690723299138988</v>
+        <v>38.148675192905344</v>
       </c>
       <c r="Q32" s="29">
         <f>LOG(L32*M32/J32+1,Y$3)</f>
-        <v>24.803478531353672</v>
+        <v>25.210092030950818</v>
       </c>
       <c r="R32" s="16">
         <f>(N32+O32)/2</f>
-        <v>54.21685066418172</v>
+        <v>54.012389158557681</v>
       </c>
       <c r="S32" s="11">
         <f>(N32+O32+P32)/3</f>
-        <v>49.708141542500812</v>
+        <v>48.724484503340229</v>
       </c>
       <c r="T32" s="12">
         <f>(N32+O32+Q32)/3</f>
-        <v>44.412393286572375</v>
+        <v>44.411623449355396</v>
       </c>
       <c r="U32" s="29">
         <f>(N32*2+O32*2+P32+Q32)/6</f>
-        <v>47.06026741453659</v>
+        <v>46.568053976347812</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>38</v>
+      <c r="A33" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="22">
         <v>2022</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="7">
-        <v>110565000</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>236734000</v>
-      </c>
-      <c r="H33" s="6" cm="1">
-        <f t="array" aca="1" ref="H33" ca="1">G33/INDIRECT("EUR!$B$30")</f>
-        <v>241857262.3891902</v>
+      <c r="D33" s="26"/>
+      <c r="E33" s="9">
+        <v>530802700</v>
+      </c>
+      <c r="F33" s="9">
+        <v>67751100</v>
+      </c>
+      <c r="G33" s="9">
+        <v>834083100</v>
+      </c>
+      <c r="H33" s="6">
+        <f>G33</f>
+        <v>834083100</v>
       </c>
       <c r="I33" s="11">
-        <v>549.79</v>
+        <v>3750</v>
       </c>
       <c r="J33" s="13">
-        <v>10363</v>
+        <v>37000</v>
       </c>
       <c r="K33" s="14">
-        <v>32.840000000000003</v>
+        <v>120.01</v>
+      </c>
+      <c r="L33" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="M33" s="12">
+        <v>14</v>
       </c>
       <c r="N33" s="35">
         <f>LOG((D33+E33)/(F33+E33)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>60.988785831163689</v>
       </c>
       <c r="O33" s="16">
-        <f ca="1">LOG(I33*H33/J33^2,W$3)</f>
-        <v>45.920002574593966</v>
+        <f>LOG(I33*H33/J33^2,W$3)</f>
+        <v>49.679703599574289</v>
       </c>
       <c r="P33" s="11">
         <f>LOG(K33/J33+1,X$3)</f>
-        <v>53.783592224665377</v>
+        <v>51.607850789457672</v>
+      </c>
+      <c r="Q33" s="29">
+        <f>LOG(L33*M33/J33+1,Y$3)</f>
+        <v>5.9161450850838175</v>
       </c>
       <c r="R33" s="16">
-        <f ca="1">(N33+O33)/2</f>
-        <v>56.377404482219447</v>
+        <f>(N33+O33)/2</f>
+        <v>55.334244715368989</v>
       </c>
       <c r="S33" s="11">
-        <f ca="1">(N33+O33+P33)/3</f>
-        <v>55.512800396368085</v>
+        <f>(N33+O33+P33)/3</f>
+        <v>54.09211340673189</v>
       </c>
       <c r="T33" s="12">
-        <f ca="1">(N33+O33+Q33)/3</f>
-        <v>37.584936321479631</v>
+        <f>(N33+O33+Q33)/3</f>
+        <v>38.861544838607266</v>
       </c>
       <c r="U33" s="29">
-        <f ca="1">(N33*2+O33*2+P33+Q33)/6</f>
-        <v>46.548868358923862</v>
+        <f>(N33*2+O33*2+P33+Q33)/6</f>
+        <v>46.476829122669578</v>
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4581,925 +4594,911 @@
       </c>
       <c r="N34" s="35">
         <f>LOG((D34+E34)/(F34+E34)+1,V$3)</f>
-        <v>64.980149697120666</v>
+        <v>64.737677893251487</v>
       </c>
       <c r="O34" s="16">
         <f ca="1">LOG(I34*H34/J34^2,W$3)</f>
-        <v>52.953306060180608</v>
+        <v>52.751030954434491</v>
       </c>
       <c r="P34" s="11">
         <f>LOG(K34/J34+1,X$3)</f>
-        <v>43.006283533778408</v>
+        <v>40.319576767484534</v>
       </c>
       <c r="R34" s="16">
         <f ca="1">(N34+O34)/2</f>
-        <v>58.966727878650637</v>
+        <v>58.744354423842992</v>
       </c>
       <c r="S34" s="11">
         <f ca="1">(N34+O34+P34)/3</f>
-        <v>53.646579763693232</v>
+        <v>52.602761871723509</v>
       </c>
       <c r="T34" s="12">
         <f ca="1">(N34+O34+Q34)/3</f>
-        <v>39.311151919100425</v>
+        <v>39.162902949228659</v>
       </c>
       <c r="U34" s="29">
         <f ca="1">(N34*2+O34*2+P34+Q34)/6</f>
-        <v>46.478865841396832</v>
+        <v>45.882832410476084</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>22</v>
+      <c r="A35" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="22">
         <v>2022</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="9">
-        <v>498700000</v>
-      </c>
-      <c r="F35" s="9">
-        <v>66000000</v>
-      </c>
-      <c r="G35" s="9">
-        <v>812600000</v>
-      </c>
-      <c r="H35" s="6">
-        <f>G35</f>
-        <v>812600000</v>
+      <c r="D35" s="24"/>
+      <c r="E35" s="7">
+        <v>110565000</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>236734000</v>
+      </c>
+      <c r="H35" s="6" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">G35/INDIRECT("EUR!$B$30")</f>
+        <v>241857262.3891902</v>
       </c>
       <c r="I35" s="11">
-        <v>1903</v>
+        <v>549.79</v>
       </c>
       <c r="J35" s="13">
-        <v>33474</v>
+        <v>10363</v>
       </c>
       <c r="K35" s="14">
-        <v>102.46</v>
-      </c>
-      <c r="L35" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="M35" s="12">
-        <v>14</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="N35" s="35">
         <f>LOG((D35+E35)/(F35+E35)+1,V$3)</f>
-        <v>61.028722068190454</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O35" s="16">
-        <f>LOG(I35*H35/J35^2,W$3)</f>
-        <v>46.619546760801668</v>
+        <f ca="1">LOG(I35*H35/J35^2,W$3)</f>
+        <v>45.744593821718709</v>
       </c>
       <c r="P35" s="11">
         <f>LOG(K35/J35+1,X$3)</f>
-        <v>51.952003944525188</v>
-      </c>
-      <c r="Q35" s="29">
-        <f>LOG(L35*M35/J35+1,Y$3)</f>
-        <v>6.9696944000108472</v>
+        <v>50.423600863586621</v>
       </c>
       <c r="R35" s="16">
-        <f>(N35+O35)/2</f>
-        <v>53.824134414496058</v>
+        <f ca="1">(N35+O35)/2</f>
+        <v>56.165003901309163</v>
       </c>
       <c r="S35" s="11">
-        <f>(N35+O35+P35)/3</f>
-        <v>53.200090924505766</v>
+        <f ca="1">(N35+O35+P35)/3</f>
+        <v>54.25120288873498</v>
       </c>
       <c r="T35" s="12">
-        <f>(N35+O35+Q35)/3</f>
-        <v>38.205987743000989</v>
+        <f ca="1">(N35+O35+Q35)/3</f>
+        <v>37.443335934206111</v>
       </c>
       <c r="U35" s="29">
-        <f>(N35*2+O35*2+P35+Q35)/6</f>
-        <v>45.703039333753374</v>
+        <f ca="1">(N35*2+O35*2+P35+Q35)/6</f>
+        <v>45.847269411470542</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>19</v>
+      <c r="B36" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="22">
         <v>2022</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="9">
-        <v>473310000</v>
+        <v>498700000</v>
       </c>
       <c r="F36" s="9">
-        <v>60361000</v>
+        <v>66000000</v>
       </c>
       <c r="G36" s="9">
-        <v>690144000</v>
+        <v>812600000</v>
       </c>
       <c r="H36" s="6">
         <f>G36</f>
-        <v>690144000</v>
+        <v>812600000</v>
       </c>
       <c r="I36" s="11">
-        <v>2797</v>
+        <v>1903</v>
       </c>
       <c r="J36" s="13">
-        <v>31761</v>
+        <v>33474</v>
       </c>
       <c r="K36" s="14">
-        <v>63.65</v>
+        <v>102.46</v>
       </c>
       <c r="L36" s="15">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="M36" s="12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N36" s="35">
         <f>LOG((D36+E36)/(F36+E36)+1,V$3)</f>
-        <v>61.221614381474183</v>
+        <v>60.80099491771945</v>
       </c>
       <c r="O36" s="16">
         <f>LOG(I36*H36/J36^2,W$3)</f>
-        <v>48.727046740122525</v>
+        <v>46.441465835313089</v>
       </c>
       <c r="P36" s="11">
         <f>LOG(K36/J36+1,X$3)</f>
-        <v>34.032105133912829</v>
+        <v>48.706436342510663</v>
       </c>
       <c r="Q36" s="29">
         <f>LOG(L36*M36/J36+1,Y$3)</f>
-        <v>16.702876728538886</v>
+        <v>7.0839514316416592</v>
       </c>
       <c r="R36" s="16">
         <f>(N36+O36)/2</f>
-        <v>54.97433056079835</v>
+        <v>53.621230376516266</v>
       </c>
       <c r="S36" s="11">
         <f>(N36+O36+P36)/3</f>
-        <v>47.993588751836512</v>
+        <v>51.982965698514398</v>
       </c>
       <c r="T36" s="12">
         <f>(N36+O36+Q36)/3</f>
-        <v>42.217179283378528</v>
+        <v>38.108804061558068</v>
       </c>
       <c r="U36" s="29">
         <f>(N36*2+O36*2+P36+Q36)/6</f>
-        <v>45.10538401760752</v>
+        <v>45.045884880036226</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>77</v>
+      <c r="B37" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="C37" s="22">
         <v>2022</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="9">
-        <v>285000000</v>
+        <v>473310000</v>
       </c>
       <c r="F37" s="9">
-        <v>28500000</v>
+        <v>60361000</v>
       </c>
       <c r="G37" s="9">
-        <v>432200000</v>
+        <v>690144000</v>
       </c>
       <c r="H37" s="6">
         <f>G37</f>
-        <v>432200000</v>
+        <v>690144000</v>
       </c>
       <c r="I37" s="11">
-        <v>2068.83</v>
+        <v>2797</v>
       </c>
       <c r="J37" s="13">
-        <v>12493</v>
+        <v>31761</v>
       </c>
       <c r="K37" s="14">
-        <v>21.01</v>
+        <v>63.65</v>
       </c>
       <c r="L37" s="15">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="M37" s="12">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N37" s="35">
         <f>LOG((D37+E37)/(F37+E37)+1,V$3)</f>
-        <v>62.349242103629486</v>
+        <v>60.993167458159128</v>
       </c>
       <c r="O37" s="16">
         <f>LOG(I37*H37/J37^2,W$3)</f>
-        <v>55.797886096826041</v>
+        <v>48.540915424339289</v>
       </c>
       <c r="P37" s="11">
         <f>LOG(K37/J37+1,X$3)</f>
-        <v>28.563653965333792</v>
+        <v>31.906037042893228</v>
       </c>
       <c r="Q37" s="29">
         <f>LOG(L37*M37/J37+1,Y$3)</f>
-        <v>2.0525629824733644</v>
+        <v>16.976693772037272</v>
       </c>
       <c r="R37" s="16">
         <f>(N37+O37)/2</f>
-        <v>59.073564100227763</v>
+        <v>54.767041441249205</v>
       </c>
       <c r="S37" s="11">
         <f>(N37+O37+P37)/3</f>
-        <v>48.903594055263106</v>
+        <v>47.146706641797209</v>
       </c>
       <c r="T37" s="12">
         <f>(N37+O37+Q37)/3</f>
-        <v>40.066563727642965</v>
+        <v>42.170258884845225</v>
       </c>
       <c r="U37" s="29">
         <f>(N37*2+O37*2+P37+Q37)/6</f>
-        <v>44.485078891453036</v>
+        <v>44.658482763321217</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="39" t="s">
-        <v>50</v>
+      <c r="A38" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C38" s="22">
         <v>2022</v>
       </c>
-      <c r="D38" s="26">
-        <v>4010236</v>
-      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="9">
-        <v>204568000</v>
-      </c>
-      <c r="F38" s="9"/>
+        <v>285000000</v>
+      </c>
+      <c r="F38" s="9">
+        <v>28500000</v>
+      </c>
       <c r="G38" s="9">
-        <v>316932680.41000003</v>
+        <v>432200000</v>
       </c>
       <c r="H38" s="6">
         <f>G38</f>
-        <v>316932680.41000003</v>
+        <v>432200000</v>
       </c>
       <c r="I38" s="11">
-        <v>2280</v>
+        <v>2068.83</v>
       </c>
       <c r="J38" s="13">
-        <v>14200</v>
+        <v>12493</v>
       </c>
       <c r="K38" s="14">
-        <v>20.5</v>
+        <v>21.01</v>
+      </c>
+      <c r="L38" s="15">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12">
+        <v>2</v>
       </c>
       <c r="N38" s="35">
         <f>LOG((D38+E38)/(F38+E38)+1,V$3)</f>
-        <v>67.775308328987023</v>
+        <v>62.116587465663748</v>
       </c>
       <c r="O38" s="16">
         <f>LOG(I38*H38/J38^2,W$3)</f>
-        <v>52.772702577666642</v>
+        <v>55.584745045768379</v>
       </c>
       <c r="P38" s="11">
         <f>LOG(K38/J38+1,X$3)</f>
-        <v>24.522887091306615</v>
+        <v>26.779213272650743</v>
+      </c>
+      <c r="Q38" s="29">
+        <f>LOG(L38*M38/J38+1,Y$3)</f>
+        <v>2.0862114812672754</v>
       </c>
       <c r="R38" s="16">
         <f>(N38+O38)/2</f>
-        <v>60.274005453326836</v>
+        <v>58.850666255716064</v>
       </c>
       <c r="S38" s="11">
         <f>(N38+O38+P38)/3</f>
-        <v>48.356965999320096</v>
+        <v>48.160181928027619</v>
       </c>
       <c r="T38" s="12">
         <f>(N38+O38+Q38)/3</f>
-        <v>40.182670302217893</v>
+        <v>39.929181330899802</v>
       </c>
       <c r="U38" s="29">
         <f>(N38*2+O38*2+P38+Q38)/6</f>
-        <v>44.269818150768991</v>
+        <v>44.044681629463717</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>79</v>
+      <c r="A39" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="C39" s="22">
         <v>2022</v>
       </c>
       <c r="D39" s="26">
-        <v>16962080</v>
+        <v>4010236</v>
       </c>
       <c r="E39" s="9">
-        <v>447679492</v>
-      </c>
-      <c r="F39" s="9">
-        <v>54750430</v>
-      </c>
+        <v>204568000</v>
+      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="9">
-        <v>1199200318</v>
+        <v>316932680.41000003</v>
       </c>
       <c r="H39" s="6">
         <f>G39</f>
-        <v>1199200318</v>
+        <v>316932680.41000003</v>
       </c>
       <c r="I39" s="11">
-        <v>4353</v>
+        <v>2280</v>
       </c>
       <c r="J39" s="13">
-        <v>65651</v>
+        <v>14200</v>
       </c>
       <c r="K39" s="14">
-        <v>124.13</v>
-      </c>
-      <c r="L39" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="M39" s="12">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="N39" s="35">
         <f>LOG((D39+E39)/(F39+E39)+1,V$3)</f>
-        <v>63.138852546174924</v>
+        <v>67.52240646057156</v>
       </c>
       <c r="O39" s="16">
         <f>LOG(I39*H39/J39^2,W$3)</f>
-        <v>45.777656082464389</v>
+        <v>52.571117354974895</v>
       </c>
       <c r="P39" s="11">
         <f>LOG(K39/J39+1,X$3)</f>
-        <v>32.110313161163965</v>
-      </c>
-      <c r="Q39" s="29">
-        <f>LOG(L39*M39/J39+1,Y$3)</f>
-        <v>11.47914556997979</v>
+        <v>22.990882898814011</v>
       </c>
       <c r="R39" s="16">
         <f>(N39+O39)/2</f>
-        <v>54.45825431431966</v>
+        <v>60.046761907773231</v>
       </c>
       <c r="S39" s="11">
         <f>(N39+O39+P39)/3</f>
-        <v>47.008940596601093</v>
+        <v>47.694802238120161</v>
       </c>
       <c r="T39" s="12">
         <f>(N39+O39+Q39)/3</f>
-        <v>40.13188473287304</v>
+        <v>40.031174605182152</v>
       </c>
       <c r="U39" s="29">
         <f>(N39*2+O39*2+P39+Q39)/6</f>
-        <v>43.570412664737063</v>
+        <v>43.862988421651153</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>78</v>
+      <c r="A40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D40" s="26"/>
+        <v>2022</v>
+      </c>
+      <c r="D40" s="26">
+        <v>16962080</v>
+      </c>
       <c r="E40" s="9">
-        <v>147241458</v>
+        <v>447679492</v>
       </c>
       <c r="F40" s="9">
-        <v>20629278</v>
+        <v>54750430</v>
       </c>
       <c r="G40" s="9">
-        <v>209455095</v>
+        <v>1199200318</v>
       </c>
       <c r="H40" s="6">
         <f>G40</f>
-        <v>209455095</v>
+        <v>1199200318</v>
       </c>
       <c r="I40" s="11">
-        <v>824</v>
+        <v>4353</v>
       </c>
       <c r="J40" s="13">
-        <v>16410</v>
+        <v>65651</v>
       </c>
       <c r="K40" s="14">
-        <v>20.56</v>
+        <v>124.13</v>
       </c>
       <c r="L40" s="15">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="M40" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N40" s="35">
         <f>LOG((D40+E40)/(F40+E40)+1,V$3)</f>
-        <v>60.720412693911712</v>
+        <v>62.903251496585789</v>
       </c>
       <c r="O40" s="16">
         <f>LOG(I40*H40/J40^2,W$3)</f>
-        <v>41.67386653199808</v>
+        <v>45.602791075653172</v>
       </c>
       <c r="P40" s="11">
         <f>LOG(K40/J40+1,X$3)</f>
-        <v>21.284428288450293</v>
+        <v>30.104304072511731</v>
       </c>
       <c r="Q40" s="29">
         <f>LOG(L40*M40/J40+1,Y$3)</f>
-        <v>31.139014562569688</v>
+        <v>11.667327866535265</v>
       </c>
       <c r="R40" s="16">
         <f>(N40+O40)/2</f>
-        <v>51.197139612954899</v>
+        <v>54.253021286119477</v>
       </c>
       <c r="S40" s="11">
         <f>(N40+O40+P40)/3</f>
-        <v>41.226235838120033</v>
+        <v>46.203448881583562</v>
       </c>
       <c r="T40" s="12">
         <f>(N40+O40+Q40)/3</f>
-        <v>44.511097929493161</v>
+        <v>40.057790146258071</v>
       </c>
       <c r="U40" s="29">
         <f>(N40*2+O40*2+P40+Q40)/6</f>
-        <v>42.868666883806604</v>
+        <v>43.130619513920813</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="39" t="s">
-        <v>18</v>
+      <c r="A41" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C41" s="22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="9">
-        <v>406000000</v>
+        <v>147241458</v>
       </c>
       <c r="F41" s="9">
-        <v>59000000</v>
+        <v>20629278</v>
       </c>
       <c r="G41" s="9">
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="H41" s="6">
         <f>G41</f>
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="I41" s="11">
-        <v>3049</v>
+        <v>824</v>
       </c>
       <c r="J41" s="13">
-        <v>33334</v>
+        <v>16410</v>
       </c>
       <c r="K41" s="14">
-        <v>71.78</v>
+        <v>20.56</v>
+      </c>
+      <c r="L41" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="M41" s="12">
+        <v>21</v>
       </c>
       <c r="N41" s="35">
         <f>LOG((D41+E41)/(F41+E41)+1,V$3)</f>
-        <v>60.515040941236443</v>
+        <v>60.49383599216204</v>
       </c>
       <c r="O41" s="16">
         <f>LOG(I41*H41/J41^2,W$3)</f>
-        <v>49.692484054103993</v>
+        <v>41.514677495717152</v>
       </c>
       <c r="P41" s="11">
         <f>LOG(K41/J41+1,X$3)</f>
-        <v>36.565223058119685</v>
+        <v>19.954738466395305</v>
+      </c>
+      <c r="Q41" s="29">
+        <f>LOG(L41*M41/J41+1,Y$3)</f>
+        <v>31.649489078040883</v>
       </c>
       <c r="R41" s="16">
         <f>(N41+O41)/2</f>
-        <v>55.103762497670218</v>
+        <v>51.004256743939592</v>
       </c>
       <c r="S41" s="11">
         <f>(N41+O41+P41)/3</f>
-        <v>48.924249351153378</v>
+        <v>40.654417318091497</v>
       </c>
       <c r="T41" s="12">
         <f>(N41+O41+Q41)/3</f>
-        <v>36.735841665113476</v>
+        <v>44.552667521973355</v>
       </c>
       <c r="U41" s="29">
         <f>(N41*2+O41*2+P41+Q41)/6</f>
-        <v>42.830045508133423</v>
+        <v>42.603542420032426</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>54</v>
+      <c r="A42" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="C42" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="26"/>
+        <v>2023</v>
+      </c>
+      <c r="D42" s="26">
+        <v>5160000</v>
+      </c>
       <c r="E42" s="9">
-        <v>145400000</v>
+        <v>103200000</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
-        <v>222200000</v>
+        <v>516000000</v>
       </c>
       <c r="H42" s="6">
         <f>G42</f>
-        <v>222200000</v>
+        <v>516000000</v>
       </c>
       <c r="I42" s="11">
-        <v>1746</v>
+        <v>3567.69</v>
       </c>
       <c r="J42" s="13">
-        <v>14340</v>
+        <v>27678</v>
       </c>
       <c r="K42" s="14">
-        <v>21.48</v>
+        <v>28.06</v>
       </c>
       <c r="N42" s="35">
         <f>LOG((D42+E42)/(F42+E42)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>68.957446757937888</v>
       </c>
       <c r="O42" s="16">
         <f>LOG(I42*H42/J42^2,W$3)</f>
-        <v>48.635677604843437</v>
+        <v>50.004068503677601</v>
       </c>
       <c r="P42" s="11">
         <f>LOG(K42/J42+1,X$3)</f>
-        <v>25.443651745426553</v>
+        <v>16.14865446506024</v>
       </c>
       <c r="R42" s="16">
         <f>(N42+O42)/2</f>
-        <v>57.735241997344183</v>
+        <v>59.480757630807744</v>
       </c>
       <c r="S42" s="11">
         <f>(N42+O42+P42)/3</f>
-        <v>46.971378580038305</v>
+        <v>45.036723242225243</v>
       </c>
       <c r="T42" s="12">
         <f>(N42+O42+Q42)/3</f>
-        <v>38.490161331562788</v>
+        <v>39.653838420538499</v>
       </c>
       <c r="U42" s="29">
         <f>(N42*2+O42*2+P42+Q42)/6</f>
-        <v>42.730769955800547</v>
+        <v>42.345280831381871</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>40</v>
+      <c r="A43" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D43" s="26">
-        <v>5160000</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D43" s="26"/>
       <c r="E43" s="9">
-        <v>103200000</v>
+        <v>145400000</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9">
-        <v>516000000</v>
+        <v>222200000</v>
       </c>
       <c r="H43" s="6">
         <f>G43</f>
-        <v>516000000</v>
+        <v>222200000</v>
       </c>
       <c r="I43" s="11">
-        <v>3567.69</v>
+        <v>1746</v>
       </c>
       <c r="J43" s="13">
-        <v>27678</v>
+        <v>14340</v>
       </c>
       <c r="K43" s="14">
-        <v>28.06</v>
+        <v>21.48</v>
       </c>
       <c r="N43" s="35">
         <f>LOG((D43+E43)/(F43+E43)+1,V$3)</f>
-        <v>69.215723499547011</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O43" s="16">
         <f>LOG(I43*H43/J43^2,W$3)</f>
-        <v>50.195810315378949</v>
+        <v>48.449895307901052</v>
       </c>
       <c r="P43" s="11">
         <f>LOG(K43/J43+1,X$3)</f>
-        <v>17.224724768774539</v>
+        <v>23.854125153342149</v>
       </c>
       <c r="R43" s="16">
         <f>(N43+O43)/2</f>
-        <v>59.70576690746298</v>
+        <v>57.517654644400338</v>
       </c>
       <c r="S43" s="11">
         <f>(N43+O43+P43)/3</f>
-        <v>45.545419527900172</v>
+        <v>46.296478147380945</v>
       </c>
       <c r="T43" s="12">
         <f>(N43+O43+Q43)/3</f>
-        <v>39.803844604975318</v>
+        <v>38.34510309626689</v>
       </c>
       <c r="U43" s="29">
         <f>(N43*2+O43*2+P43+Q43)/6</f>
-        <v>42.674632066437745</v>
+        <v>42.320790621823917</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>80</v>
+      <c r="B44" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="22">
         <v>2022</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="9">
-        <v>350370000</v>
+        <v>406000000</v>
       </c>
       <c r="F44" s="9">
-        <v>41223000</v>
+        <v>59000000</v>
       </c>
       <c r="G44" s="9">
-        <v>558679000</v>
+        <v>810000000</v>
       </c>
       <c r="H44" s="6">
         <f>G44</f>
-        <v>558679000</v>
+        <v>810000000</v>
       </c>
       <c r="I44" s="11">
-        <v>2430</v>
+        <v>3049</v>
       </c>
       <c r="J44" s="13">
-        <v>22406</v>
+        <v>33334</v>
       </c>
       <c r="K44" s="14">
-        <v>33.03</v>
-      </c>
-      <c r="L44" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M44" s="12">
-        <v>7</v>
+        <v>71.78</v>
       </c>
       <c r="N44" s="35">
         <f>LOG((D44+E44)/(F44+E44)+1,V$3)</f>
-        <v>61.621174774771028</v>
+        <v>60.289230579046887</v>
       </c>
       <c r="O44" s="16">
         <f>LOG(I44*H44/J44^2,W$3)</f>
-        <v>50.957077543914828</v>
+        <v>49.502664886715131</v>
       </c>
       <c r="P44" s="11">
         <f>LOG(K44/J44+1,X$3)</f>
-        <v>25.040541123344521</v>
-      </c>
-      <c r="Q44" s="29">
-        <f>LOG(L44*M44/J44+1,Y$3)</f>
-        <v>4.4057492614707057</v>
+        <v>34.280904950879979</v>
       </c>
       <c r="R44" s="16">
         <f>(N44+O44)/2</f>
-        <v>56.289126159342928</v>
+        <v>54.895947732881012</v>
       </c>
       <c r="S44" s="11">
         <f>(N44+O44+P44)/3</f>
-        <v>45.872931147343458</v>
+        <v>48.024266805547335</v>
       </c>
       <c r="T44" s="12">
         <f>(N44+O44+Q44)/3</f>
-        <v>38.994667193385517</v>
+        <v>36.597298488587342</v>
       </c>
       <c r="U44" s="29">
         <f>(N44*2+O44*2+P44+Q44)/6</f>
-        <v>42.433799170364487</v>
+        <v>42.310782647067334</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="39" t="s">
-        <v>39</v>
+      <c r="A45" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C45" s="22">
         <v>2022</v>
       </c>
-      <c r="D45" s="26">
-        <v>1545561</v>
-      </c>
+      <c r="D45" s="26"/>
       <c r="E45" s="9">
-        <v>146972266.58000001</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>350370000</v>
+      </c>
+      <c r="F45" s="9">
+        <v>41223000</v>
+      </c>
       <c r="G45" s="9">
-        <v>331968251.18000001</v>
+        <v>558679000</v>
       </c>
       <c r="H45" s="6">
         <f>G45</f>
-        <v>331968251.18000001</v>
+        <v>558679000</v>
       </c>
       <c r="I45" s="11">
-        <v>2453</v>
+        <v>2430</v>
       </c>
       <c r="J45" s="13">
-        <v>21617</v>
+        <v>22406</v>
       </c>
       <c r="K45" s="14">
-        <v>27.2</v>
-      </c>
-      <c r="N45" s="36">
+        <v>33.03</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M45" s="12">
+        <v>7</v>
+      </c>
+      <c r="N45" s="35">
         <f>LOG((D45+E45)/(F45+E45)+1,V$3)</f>
-        <v>67.340466539718562</v>
+        <v>61.391236901838759</v>
       </c>
       <c r="O45" s="16">
         <f>LOG(I45*H45/J45^2,W$3)</f>
-        <v>48.1236371316066</v>
+        <v>50.762427785182219</v>
       </c>
       <c r="P45" s="11">
         <f>LOG(K45/J45+1,X$3)</f>
-        <v>21.375671944878921</v>
+        <v>23.476197828837133</v>
+      </c>
+      <c r="Q45" s="29">
+        <f>LOG(L45*M45/J45+1,Y$3)</f>
+        <v>4.4779744988820482</v>
       </c>
       <c r="R45" s="16">
         <f>(N45+O45)/2</f>
-        <v>57.732051835662581</v>
+        <v>56.076832343510489</v>
       </c>
       <c r="S45" s="11">
         <f>(N45+O45+P45)/3</f>
-        <v>45.613258538734698</v>
+        <v>45.20995417195271</v>
       </c>
       <c r="T45" s="12">
         <f>(N45+O45+Q45)/3</f>
-        <v>38.488034557108385</v>
+        <v>38.877213061967673</v>
       </c>
       <c r="U45" s="29">
         <f>(N45*2+O45*2+P45+Q45)/6</f>
-        <v>42.050646547921538</v>
+        <v>42.043583616960191</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>81</v>
+      <c r="A46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C46" s="22">
         <v>2022</v>
       </c>
       <c r="D46" s="26">
-        <v>2272000</v>
+        <v>1545561</v>
       </c>
       <c r="E46" s="9">
-        <v>44663000</v>
-      </c>
-      <c r="F46" s="9">
-        <v>9198000</v>
-      </c>
+        <v>146972266.58000001</v>
+      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="9">
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="H46" s="6">
         <f>G46</f>
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="I46" s="11">
-        <v>1847</v>
+        <v>2453</v>
       </c>
       <c r="J46" s="13">
-        <v>14263</v>
+        <v>21617</v>
       </c>
       <c r="K46" s="14">
-        <v>19.46</v>
-      </c>
-      <c r="L46" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="M46" s="12">
-        <v>7</v>
+        <v>27.2</v>
       </c>
       <c r="N46" s="36">
         <f>LOG((D46+E46)/(F46+E46)+1,V$3)</f>
-        <v>60.427050550772584</v>
+        <v>67.089187272567216</v>
       </c>
       <c r="O46" s="16">
         <f>LOG(I46*H46/J46^2,W$3)</f>
-        <v>49.677288560430028</v>
+        <v>47.939810766192878</v>
       </c>
       <c r="P46" s="11">
         <f>LOG(K46/J46+1,X$3)</f>
-        <v>23.176893954425285</v>
-      </c>
-      <c r="Q46" s="29">
-        <f>LOG(L46*M46/J46+1,Y$3)</f>
-        <v>7.5493323759441724</v>
+        <v>20.040281910460415</v>
       </c>
       <c r="R46" s="16">
         <f>(N46+O46)/2</f>
-        <v>55.05216955560131</v>
+        <v>57.514499019380047</v>
       </c>
       <c r="S46" s="11">
         <f>(N46+O46+P46)/3</f>
-        <v>44.427077688542632</v>
+        <v>45.023093316406836</v>
       </c>
       <c r="T46" s="12">
         <f>(N46+O46+Q46)/3</f>
-        <v>39.217890495715601</v>
+        <v>38.342999346253364</v>
       </c>
       <c r="U46" s="29">
         <f>(N46*2+O46*2+P46+Q46)/6</f>
-        <v>41.822484092129116</v>
+        <v>41.683046331330097</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="39" t="s">
-        <v>15</v>
+      <c r="A47" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="25">
-        <v>600000</v>
-      </c>
-      <c r="E47" s="8">
-        <v>127700000</v>
-      </c>
-      <c r="F47" s="8">
-        <v>416400000</v>
-      </c>
-      <c r="G47" s="8">
-        <v>934200000</v>
-      </c>
-      <c r="H47" s="6" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">G47/INDIRECT("EUR!$B$48")</f>
-        <v>1090607258.8073366</v>
+        <v>2022</v>
+      </c>
+      <c r="D47" s="26">
+        <v>2272000</v>
+      </c>
+      <c r="E47" s="9">
+        <v>44663000</v>
+      </c>
+      <c r="F47" s="9">
+        <v>9198000</v>
+      </c>
+      <c r="G47" s="9">
+        <v>244230000</v>
+      </c>
+      <c r="H47" s="6">
+        <f>G47</f>
+        <v>244230000</v>
       </c>
       <c r="I47" s="11">
-        <v>3335</v>
+        <v>1847</v>
       </c>
       <c r="J47" s="13">
-        <v>31485</v>
+        <v>14263</v>
       </c>
       <c r="K47" s="14">
-        <v>112.44</v>
+        <v>19.46</v>
       </c>
       <c r="L47" s="15">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="M47" s="12">
-        <v>47</v>
-      </c>
-      <c r="N47" s="35">
+        <v>7</v>
+      </c>
+      <c r="N47" s="36">
         <f>LOG((D47+E47)/(F47+E47)+1,V$3)</f>
-        <v>20.414551003129592</v>
+        <v>60.201568522524987</v>
       </c>
       <c r="O47" s="16">
-        <f ca="1">LOG(I47*H47/J47^2,W$3)</f>
-        <v>52.924616522537875</v>
+        <f>LOG(I47*H47/J47^2,W$3)</f>
+        <v>49.487527437955045</v>
       </c>
       <c r="P47" s="11">
         <f>LOG(K47/J47+1,X$3)</f>
-        <v>60.598544057700408</v>
+        <v>21.728977215464997</v>
       </c>
       <c r="Q47" s="29">
         <f>LOG(L47*M47/J47+1,Y$3)</f>
-        <v>42.040965201880731</v>
+        <v>7.6730916483834957</v>
       </c>
       <c r="R47" s="16">
-        <f ca="1">(N47+O47)/2</f>
-        <v>36.669583762833732</v>
+        <f>(N47+O47)/2</f>
+        <v>54.844547980240016</v>
       </c>
       <c r="S47" s="11">
-        <f ca="1">(N47+O47+P47)/3</f>
-        <v>44.645903861122626</v>
+        <f>(N47+O47+P47)/3</f>
+        <v>43.80602439198168</v>
       </c>
       <c r="T47" s="12">
-        <f ca="1">(N47+O47+Q47)/3</f>
-        <v>38.460044242516062</v>
+        <f>(N47+O47+Q47)/3</f>
+        <v>39.120729202954507</v>
       </c>
       <c r="U47" s="29">
-        <f ca="1">(N47*2+O47*2+P47+Q47)/6</f>
-        <v>41.552974051819348</v>
+        <f>(N47*2+O47*2+P47+Q47)/6</f>
+        <v>41.463376797468094</v>
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5531,38 +5530,38 @@
       </c>
       <c r="N48" s="35">
         <f>LOG((D48+E48)/(F48+E48)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O48" s="16">
         <f>LOG(I48*H48/J48^2,W$3)</f>
-        <v>49.017992052916533</v>
+        <v>48.830749361880443</v>
       </c>
       <c r="P48" s="11">
         <f>LOG(K48/J48+1,X$3)</f>
-        <v>17.533620636672467</v>
+        <v>16.438252859422473</v>
       </c>
       <c r="R48" s="16">
         <f>(N48+O48)/2</f>
-        <v>57.926399221380734</v>
+        <v>57.708081671390033</v>
       </c>
       <c r="S48" s="11">
         <f>(N48+O48+P48)/3</f>
-        <v>44.46213969314465</v>
+        <v>43.95147206740085</v>
       </c>
       <c r="T48" s="12">
         <f>(N48+O48+Q48)/3</f>
-        <v>38.617599480920489</v>
+        <v>38.472054447593358</v>
       </c>
       <c r="U48" s="29">
         <f>(N48*2+O48*2+P48+Q48)/6</f>
-        <v>41.53986958703257</v>
+        <v>41.211763257497104</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="22">
@@ -5595,1210 +5594,1210 @@
       </c>
       <c r="N49" s="35">
         <f>LOG((D49+E49)/(F49+E49)+1,V$3)</f>
-        <v>68.813279795050931</v>
+        <v>68.556504762062687</v>
       </c>
       <c r="O49" s="16">
         <f ca="1">LOG(I49*H49/J49^2,W$3)</f>
-        <v>43.920970487195021</v>
+        <v>43.753197790629628</v>
       </c>
       <c r="P49" s="11">
         <f>LOG(K49/J49+1,X$3)</f>
-        <v>23.15410247340651</v>
+        <v>21.707609573504968</v>
       </c>
       <c r="R49" s="16">
         <f ca="1">(N49+O49)/2</f>
-        <v>56.367125141122976</v>
+        <v>56.154851276346157</v>
       </c>
       <c r="S49" s="11">
         <f ca="1">(N49+O49+P49)/3</f>
-        <v>45.296117585217495</v>
+        <v>44.672437375399092</v>
       </c>
       <c r="T49" s="12">
         <f ca="1">(N49+O49+Q49)/3</f>
-        <v>37.578083427415315</v>
+        <v>37.436567517564107</v>
       </c>
       <c r="U49" s="29">
         <f ca="1">(N49*2+O49*2+P49+Q49)/6</f>
-        <v>41.437100506316405</v>
+        <v>41.0545024464816</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>56</v>
+      <c r="A50" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="C50" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="9">
-        <v>155350916.22</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9">
-        <v>256352554.86000001</v>
-      </c>
-      <c r="H50" s="6">
-        <f>G50</f>
-        <v>256352554.86000001</v>
+        <v>2023</v>
+      </c>
+      <c r="D50" s="25">
+        <v>600000</v>
+      </c>
+      <c r="E50" s="8">
+        <v>127700000</v>
+      </c>
+      <c r="F50" s="8">
+        <v>416400000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>934200000</v>
+      </c>
+      <c r="H50" s="6" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">G50/INDIRECT("EUR!$B$48")</f>
+        <v>1090607258.8073366</v>
       </c>
       <c r="I50" s="11">
-        <v>1689</v>
+        <v>3335</v>
       </c>
       <c r="J50" s="13">
-        <v>16170</v>
+        <v>31485</v>
       </c>
       <c r="K50" s="14">
-        <v>14.69</v>
+        <v>112.44</v>
+      </c>
+      <c r="L50" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M50" s="12">
+        <v>47</v>
       </c>
       <c r="N50" s="35">
         <f>LOG((D50+E50)/(F50+E50)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>20.3383746164949</v>
       </c>
       <c r="O50" s="16">
-        <f>LOG(I50*H50/J50^2,W$3)</f>
-        <v>47.79467688904559</v>
+        <f ca="1">LOG(I50*H50/J50^2,W$3)</f>
+        <v>52.722451007291241</v>
       </c>
       <c r="P50" s="11">
         <f>LOG(K50/J50+1,X$3)</f>
-        <v>15.435971175378485</v>
+        <v>56.8128061382751</v>
+      </c>
+      <c r="Q50" s="29">
+        <f>LOG(L50*M50/J50+1,Y$3)</f>
+        <v>42.730159822932364</v>
       </c>
       <c r="R50" s="16">
-        <f>(N50+O50)/2</f>
-        <v>57.314741639445259</v>
+        <f ca="1">(N50+O50)/2</f>
+        <v>36.530412811893072</v>
       </c>
       <c r="S50" s="11">
-        <f>(N50+O50+P50)/3</f>
-        <v>43.355151484756334</v>
+        <f ca="1">(N50+O50+P50)/3</f>
+        <v>43.291210587353753</v>
       </c>
       <c r="T50" s="12">
-        <f>(N50+O50+Q50)/3</f>
-        <v>38.209827759630173</v>
+        <f ca="1">(N50+O50+Q50)/3</f>
+        <v>38.596995148906167</v>
       </c>
       <c r="U50" s="29">
-        <f>(N50*2+O50*2+P50+Q50)/6</f>
-        <v>40.782489622193253</v>
+        <f ca="1">(N50*2+O50*2+P50+Q50)/6</f>
+        <v>40.94410286812996</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>43</v>
+      <c r="A51" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="C51" s="22">
         <v>2022</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="9">
-        <v>117080000</v>
+        <v>155350916.22</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9">
-        <v>192860000</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="H51" s="6">
         <f>G51</f>
-        <v>192860000</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="I51" s="11">
-        <v>2214</v>
+        <v>1689</v>
       </c>
       <c r="J51" s="13">
-        <v>23245</v>
+        <v>16170</v>
       </c>
       <c r="K51" s="14">
-        <v>11.33</v>
-      </c>
-      <c r="N51" s="36">
+        <v>14.69</v>
+      </c>
+      <c r="N51" s="35">
         <f>LOG((D51+E51)/(F51+E51)+1,V$3)</f>
-        <v>66.834806389844928</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O51" s="16">
         <f>LOG(I51*H51/J51^2,W$3)</f>
-        <v>43.02438707009437</v>
+        <v>47.6121071112333</v>
       </c>
       <c r="P51" s="11">
         <f>LOG(K51/J51+1,X$3)</f>
-        <v>8.2835008346592822</v>
+        <v>14.471648644029472</v>
       </c>
       <c r="R51" s="16">
         <f>(N51+O51)/2</f>
-        <v>54.929596729969646</v>
+        <v>57.098760546066458</v>
       </c>
       <c r="S51" s="11">
         <f>(N51+O51+P51)/3</f>
-        <v>39.380898098199523</v>
+        <v>42.889723245387465</v>
       </c>
       <c r="T51" s="12">
         <f>(N51+O51+Q51)/3</f>
-        <v>36.619731153313097</v>
+        <v>38.065840364044305</v>
       </c>
       <c r="U51" s="29">
         <f>(N51*2+O51*2+P51+Q51)/6</f>
-        <v>38.00031462575631</v>
+        <v>40.477781804715882</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>85</v>
+      <c r="A52" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D52" s="25">
-        <v>3448000</v>
-      </c>
-      <c r="E52" s="8">
-        <v>91494000</v>
-      </c>
-      <c r="F52" s="8">
-        <v>361632000</v>
-      </c>
-      <c r="G52" s="8">
-        <v>730044000</v>
-      </c>
-      <c r="H52" s="6" cm="1">
-        <f t="array" aca="1" ref="H52" ca="1">G52/INDIRECT("EUR!$B$48")</f>
-        <v>852270697.54735947</v>
+        <v>2022</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="9">
+        <v>117080000</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
+        <v>192860000</v>
+      </c>
+      <c r="H52" s="6">
+        <f>G52</f>
+        <v>192860000</v>
       </c>
       <c r="I52" s="11">
-        <v>2445</v>
+        <v>2214</v>
       </c>
       <c r="J52" s="13">
-        <v>23795</v>
+        <v>23245</v>
       </c>
       <c r="K52" s="14">
-        <v>63.86</v>
-      </c>
-      <c r="L52" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="M52" s="12">
-        <v>34</v>
-      </c>
-      <c r="N52" s="35">
+        <v>11.33</v>
+      </c>
+      <c r="N52" s="36">
         <f>LOG((D52+E52)/(F52+E52)+1,V$3)</f>
-        <v>18.342319957091206</v>
+        <v>66.585413980899617</v>
       </c>
       <c r="O52" s="16">
-        <f ca="1">LOG(I52*H52/J52^2,W$3)</f>
-        <v>52.944336551996727</v>
+        <f>LOG(I52*H52/J52^2,W$3)</f>
+        <v>42.860039211730729</v>
       </c>
       <c r="P52" s="11">
         <f>LOG(K52/J52+1,X$3)</f>
-        <v>45.559659112860061</v>
-      </c>
-      <c r="Q52" s="29">
-        <f>LOG(L52*M52/J52+1,Y$3)</f>
-        <v>31.108795157333155</v>
+        <v>7.7660104608723906</v>
       </c>
       <c r="R52" s="16">
-        <f ca="1">(N52+O52)/2</f>
-        <v>35.643328254543967</v>
+        <f>(N52+O52)/2</f>
+        <v>54.722726596315169</v>
       </c>
       <c r="S52" s="11">
-        <f ca="1">(N52+O52+P52)/3</f>
-        <v>38.948771873982665</v>
+        <f>(N52+O52+P52)/3</f>
+        <v>39.070487884500913</v>
       </c>
       <c r="T52" s="12">
-        <f ca="1">(N52+O52+Q52)/3</f>
-        <v>34.131817222140363</v>
+        <f>(N52+O52+Q52)/3</f>
+        <v>36.481817730876777</v>
       </c>
       <c r="U52" s="29">
-        <f ca="1">(N52*2+O52*2+P52+Q52)/6</f>
-        <v>36.540294548061517</v>
+        <f>(N52*2+O52*2+P52+Q52)/6</f>
+        <v>37.776152807688845</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>86</v>
+      <c r="A53" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C53" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D53" s="25">
-        <v>28900000</v>
-      </c>
-      <c r="E53" s="8">
-        <v>148300000</v>
-      </c>
-      <c r="F53" s="8">
-        <v>607800000</v>
-      </c>
-      <c r="G53" s="8">
-        <v>1230000000</v>
-      </c>
-      <c r="H53" s="6" cm="1">
-        <f t="array" aca="1" ref="H53" ca="1">G53/INDIRECT("EUR!$B$48")</f>
-        <v>1435931201.3840976</v>
+        <v>2022</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="9">
+        <v>318235849.14999998</v>
+      </c>
+      <c r="F53" s="9">
+        <v>86177594.299999997</v>
+      </c>
+      <c r="G53" s="9">
+        <v>582806127.85000002</v>
+      </c>
+      <c r="H53" s="6">
+        <f>G53</f>
+        <v>582806127.85000002</v>
       </c>
       <c r="I53" s="11">
-        <v>4525</v>
+        <v>1627</v>
       </c>
       <c r="J53" s="13">
-        <v>41490</v>
+        <v>47959</v>
       </c>
       <c r="K53" s="14">
-        <v>112.24</v>
+        <v>18.43</v>
       </c>
       <c r="L53" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="M53" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N53" s="35">
         <f>LOG((D53+E53)/(F53+E53)+1,V$3)</f>
-        <v>20.301997507474592</v>
+        <v>55.762934399753632</v>
       </c>
       <c r="O53" s="16">
-        <f ca="1">LOG(I53*H53/J53^2,W$3)</f>
-        <v>53.10736677749243</v>
+        <f>LOG(I53*H53/J53^2,W$3)</f>
+        <v>38.680333628021494</v>
       </c>
       <c r="P53" s="11">
         <f>LOG(K53/J53+1,X$3)</f>
-        <v>45.923695819001701</v>
+        <v>6.1231544527052595</v>
       </c>
       <c r="Q53" s="29">
         <f>LOG(L53*M53/J53+1,Y$3)</f>
-        <v>25.563593718963563</v>
+        <v>21.667137675698179</v>
       </c>
       <c r="R53" s="16">
-        <f ca="1">(N53+O53)/2</f>
-        <v>36.704682142483513</v>
+        <f>(N53+O53)/2</f>
+        <v>47.221634013887567</v>
       </c>
       <c r="S53" s="11">
-        <f ca="1">(N53+O53+P53)/3</f>
-        <v>39.777686701322914</v>
+        <f>(N53+O53+P53)/3</f>
+        <v>33.522140826826799</v>
       </c>
       <c r="T53" s="12">
-        <f ca="1">(N53+O53+Q53)/3</f>
-        <v>32.990986001310198</v>
+        <f>(N53+O53+Q53)/3</f>
+        <v>38.703468567824437</v>
       </c>
       <c r="U53" s="29">
-        <f ca="1">(N53*2+O53*2+P53+Q53)/6</f>
-        <v>36.384336351316556</v>
+        <f>(N53*2+O53*2+P53+Q53)/6</f>
+        <v>36.112804697325615</v>
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>83</v>
+      <c r="A54" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C54" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="9">
-        <v>318235849.14999998</v>
-      </c>
-      <c r="F54" s="9">
-        <v>86177594.299999997</v>
-      </c>
-      <c r="G54" s="9">
-        <v>582806127.85000002</v>
-      </c>
-      <c r="H54" s="6">
-        <f>G54</f>
-        <v>582806127.85000002</v>
+        <v>2023</v>
+      </c>
+      <c r="D54" s="25">
+        <v>3448000</v>
+      </c>
+      <c r="E54" s="8">
+        <v>91494000</v>
+      </c>
+      <c r="F54" s="8">
+        <v>361632000</v>
+      </c>
+      <c r="G54" s="8">
+        <v>730044000</v>
+      </c>
+      <c r="H54" s="6" cm="1">
+        <f t="array" aca="1" ref="H54" ca="1">G54/INDIRECT("EUR!$B$48")</f>
+        <v>852270697.54735947</v>
       </c>
       <c r="I54" s="11">
-        <v>1627</v>
+        <v>2445</v>
       </c>
       <c r="J54" s="13">
-        <v>47959</v>
+        <v>23795</v>
       </c>
       <c r="K54" s="14">
-        <v>18.43</v>
+        <v>63.86</v>
       </c>
       <c r="L54" s="15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M54" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N54" s="35">
         <f>LOG((D54+E54)/(F54+E54)+1,V$3)</f>
-        <v>55.971791741149808</v>
+        <v>18.273876048791951</v>
       </c>
       <c r="O54" s="16">
-        <f>LOG(I54*H54/J54^2,W$3)</f>
-        <v>38.828654304098158</v>
+        <f ca="1">LOG(I54*H54/J54^2,W$3)</f>
+        <v>52.742095708666909</v>
       </c>
       <c r="P54" s="11">
         <f>LOG(K54/J54+1,X$3)</f>
-        <v>6.5311726368746079</v>
+        <v>42.713436785547763</v>
       </c>
       <c r="Q54" s="29">
         <f>LOG(L54*M54/J54+1,Y$3)</f>
-        <v>21.317668476388931</v>
+        <v>31.618774273818136</v>
       </c>
       <c r="R54" s="16">
-        <f>(N54+O54)/2</f>
-        <v>47.400223022623983</v>
+        <f ca="1">(N54+O54)/2</f>
+        <v>35.507985878729428</v>
       </c>
       <c r="S54" s="11">
-        <f>(N54+O54+P54)/3</f>
-        <v>33.777206227374194</v>
+        <f ca="1">(N54+O54+P54)/3</f>
+        <v>37.909802847668878</v>
       </c>
       <c r="T54" s="12">
-        <f>(N54+O54+Q54)/3</f>
-        <v>38.706038173878966</v>
+        <f ca="1">(N54+O54+Q54)/3</f>
+        <v>34.211582010425666</v>
       </c>
       <c r="U54" s="29">
-        <f>(N54*2+O54*2+P54+Q54)/6</f>
-        <v>36.24162220062658</v>
+        <f ca="1">(N54*2+O54*2+P54+Q54)/6</f>
+        <v>36.060692429047272</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>4</v>
+      <c r="B55" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="C55" s="22">
         <v>2023</v>
       </c>
       <c r="D55" s="25">
-        <v>2600000</v>
+        <v>28900000</v>
       </c>
       <c r="E55" s="8">
-        <v>94600000</v>
+        <v>148300000</v>
       </c>
       <c r="F55" s="8">
-        <v>342500000</v>
+        <v>607800000</v>
       </c>
       <c r="G55" s="8">
-        <v>675100000</v>
+        <v>1230000000</v>
       </c>
       <c r="H55" s="6" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">G55/INDIRECT("EUR!$B$48")</f>
-        <v>788127767.52390587</v>
+        <v>1435931201.3840976</v>
       </c>
       <c r="I55" s="11">
-        <v>2745</v>
+        <v>4525</v>
       </c>
       <c r="J55" s="13">
-        <v>28680</v>
+        <v>41490</v>
       </c>
       <c r="K55" s="14">
-        <v>58.62</v>
+        <v>112.24</v>
       </c>
       <c r="L55" s="15">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M55" s="12">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N55" s="35">
         <f>LOG((D55+E55)/(F55+E55)+1,V$3)</f>
-        <v>19.361150433769893</v>
+        <v>20.226241111394717</v>
       </c>
       <c r="O55" s="16">
         <f ca="1">LOG(I55*H55/J55^2,W$3)</f>
-        <v>50.778027954635412</v>
+        <v>52.904503178785177</v>
       </c>
       <c r="P55" s="11">
         <f>LOG(K55/J55+1,X$3)</f>
-        <v>34.709039120257522</v>
+        <v>43.054731236344274</v>
       </c>
       <c r="Q55" s="29">
         <f>LOG(L55*M55/J55+1,Y$3)</f>
-        <v>41.244131521402743</v>
+        <v>25.982668095616333</v>
       </c>
       <c r="R55" s="16">
         <f ca="1">(N55+O55)/2</f>
-        <v>35.069589194202649</v>
+        <v>36.565372145089945</v>
       </c>
       <c r="S55" s="11">
         <f ca="1">(N55+O55+P55)/3</f>
-        <v>34.94940583622094</v>
+        <v>38.728491842174719</v>
       </c>
       <c r="T55" s="12">
         <f ca="1">(N55+O55+Q55)/3</f>
-        <v>37.127769969936018</v>
+        <v>33.037804128598744</v>
       </c>
       <c r="U55" s="29">
         <f ca="1">(N55*2+O55*2+P55+Q55)/6</f>
-        <v>36.038587903078479</v>
+        <v>35.883147985386735</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>286</v>
+      <c r="A56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>4</v>
       </c>
       <c r="C56" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="9">
-        <v>243288828.80000001</v>
-      </c>
-      <c r="F56" s="9">
-        <v>47175453.299999997</v>
-      </c>
-      <c r="G56" s="9">
-        <v>360460467.07999998</v>
-      </c>
-      <c r="H56" s="6">
-        <f>G56</f>
-        <v>360460467.07999998</v>
+        <v>2023</v>
+      </c>
+      <c r="D56" s="25">
+        <v>2600000</v>
+      </c>
+      <c r="E56" s="8">
+        <v>94600000</v>
+      </c>
+      <c r="F56" s="8">
+        <v>342500000</v>
+      </c>
+      <c r="G56" s="8">
+        <v>675100000</v>
+      </c>
+      <c r="H56" s="6" cm="1">
+        <f t="array" aca="1" ref="H56" ca="1">G56/INDIRECT("EUR!$B$48")</f>
+        <v>788127767.52390587</v>
       </c>
       <c r="I56" s="11">
-        <v>1355</v>
+        <v>2745</v>
       </c>
       <c r="J56" s="13">
-        <v>26339</v>
+        <v>28680</v>
       </c>
       <c r="K56" s="14">
-        <v>10.59</v>
+        <v>58.62</v>
       </c>
       <c r="L56" s="15">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M56" s="12">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N56" s="35">
         <f>LOG((D56+E56)/(F56+E56)+1,V$3)</f>
-        <v>58.668382001449174</v>
+        <v>19.288904785021156</v>
       </c>
       <c r="O56" s="16">
-        <f>LOG(I56*H56/J56^2,W$3)</f>
-        <v>42.279604212792123</v>
+        <f ca="1">LOG(I56*H56/J56^2,W$3)</f>
+        <v>50.584062143276441</v>
       </c>
       <c r="P56" s="11">
         <f>LOG(K56/J56+1,X$3)</f>
-        <v>6.8332729043892977</v>
+        <v>32.540681322432206</v>
       </c>
       <c r="Q56" s="29">
         <f>LOG(L56*M56/J56+1,Y$3)</f>
-        <v>6.3271031256182093</v>
+        <v>41.920263324228841</v>
       </c>
       <c r="R56" s="16">
-        <f>(N56+O56)/2</f>
-        <v>50.473993107120648</v>
+        <f ca="1">(N56+O56)/2</f>
+        <v>34.9364834641488</v>
       </c>
       <c r="S56" s="11">
-        <f>(N56+O56+P56)/3</f>
-        <v>35.927086372876865</v>
+        <f ca="1">(N56+O56+P56)/3</f>
+        <v>34.137882750243271</v>
       </c>
       <c r="T56" s="12">
-        <f>(N56+O56+Q56)/3</f>
-        <v>35.758363113286499</v>
+        <f ca="1">(N56+O56+Q56)/3</f>
+        <v>37.264410084175481</v>
       </c>
       <c r="U56" s="29">
-        <f>(N56*2+O56*2+P56+Q56)/6</f>
-        <v>35.842724743081682</v>
+        <f ca="1">(N56*2+O56*2+P56+Q56)/6</f>
+        <v>35.70114641720938</v>
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>280</v>
+      <c r="B57" s="39" t="s">
+        <v>286</v>
       </c>
       <c r="C57" s="22">
         <v>2022</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="9">
-        <v>212140470</v>
+        <v>243288828.80000001</v>
       </c>
       <c r="F57" s="9">
-        <v>32808958</v>
+        <v>47175453.299999997</v>
       </c>
       <c r="G57" s="9">
-        <v>330933638</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="H57" s="6">
         <f>G57</f>
-        <v>330933638</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="I57" s="11">
-        <v>1310</v>
+        <v>1355</v>
       </c>
       <c r="J57" s="13">
-        <v>29362</v>
+        <v>26339</v>
       </c>
       <c r="K57" s="14">
-        <v>22.73</v>
+        <v>10.59</v>
+      </c>
+      <c r="L57" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="M57" s="12">
+        <v>10</v>
       </c>
       <c r="N57" s="35">
         <f>LOG((D57+E57)/(F57+E57)+1,V$3)</f>
-        <v>60.150925548527695</v>
+        <v>58.449462400920659</v>
       </c>
       <c r="O57" s="16">
         <f>LOG(I57*H57/J57^2,W$3)</f>
-        <v>40.109537533673176</v>
+        <v>42.118101333192364</v>
       </c>
       <c r="P57" s="11">
         <f>LOG(K57/J57+1,X$3)</f>
-        <v>13.154221063384362</v>
+        <v>6.406381784310633</v>
+      </c>
+      <c r="Q57" s="29">
+        <f>LOG(L57*M57/J57+1,Y$3)</f>
+        <v>6.4308258974450547</v>
       </c>
       <c r="R57" s="16">
         <f>(N57+O57)/2</f>
-        <v>50.130231541100436</v>
+        <v>50.283781867056511</v>
       </c>
       <c r="S57" s="11">
         <f>(N57+O57+P57)/3</f>
-        <v>37.804894715195076</v>
+        <v>35.657981839474552</v>
       </c>
       <c r="T57" s="12">
         <f>(N57+O57+Q57)/3</f>
-        <v>33.420154360733626</v>
+        <v>35.66612987718603</v>
       </c>
       <c r="U57" s="29">
         <f>(N57*2+O57*2+P57+Q57)/6</f>
-        <v>35.612524537964354</v>
+        <v>35.662055858330291</v>
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>23</v>
+      <c r="A58" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>280</v>
       </c>
       <c r="C58" s="22">
         <v>2022</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="9">
-        <v>196693950</v>
+        <v>212140470</v>
       </c>
       <c r="F58" s="9">
-        <v>33135497</v>
+        <v>32808958</v>
       </c>
       <c r="G58" s="9">
-        <v>291296473</v>
+        <v>330933638</v>
       </c>
       <c r="H58" s="6">
         <f>G58</f>
-        <v>291296473</v>
+        <v>330933638</v>
       </c>
       <c r="I58" s="11">
-        <v>1294.4680000000001</v>
+        <v>1310</v>
       </c>
       <c r="J58" s="13">
-        <v>19497</v>
+        <v>29362</v>
       </c>
       <c r="K58" s="14">
-        <v>1.74</v>
-      </c>
-      <c r="L58" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M58" s="12">
-        <v>4</v>
+        <v>22.73</v>
       </c>
       <c r="N58" s="35">
         <f>LOG((D58+E58)/(F58+E58)+1,V$3)</f>
-        <v>59.620739406506686</v>
+        <v>59.926473873821898</v>
       </c>
       <c r="O58" s="16">
         <f>LOG(I58*H58/J58^2,W$3)</f>
-        <v>44.490281054954252</v>
+        <v>39.956324041453612</v>
       </c>
       <c r="P58" s="11">
         <f>LOG(K58/J58+1,X$3)</f>
-        <v>1.5169856019108718</v>
-      </c>
-      <c r="Q58" s="29">
-        <f>LOG(L58*M58/J58+1,Y$3)</f>
-        <v>2.8933693846699962</v>
+        <v>12.332444991788641</v>
       </c>
       <c r="R58" s="16">
         <f>(N58+O58)/2</f>
-        <v>52.055510230730469</v>
+        <v>49.941398957637759</v>
       </c>
       <c r="S58" s="11">
         <f>(N58+O58+P58)/3</f>
-        <v>35.209335354457274</v>
+        <v>37.405080969021384</v>
       </c>
       <c r="T58" s="12">
         <f>(N58+O58+Q58)/3</f>
-        <v>35.668129948710309</v>
+        <v>33.294265971758506</v>
       </c>
       <c r="U58" s="29">
         <f>(N58*2+O58*2+P58+Q58)/6</f>
-        <v>35.438732651583791</v>
+        <v>35.349673470389945</v>
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>283</v>
+      <c r="A59" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="C59" s="22">
         <v>2022</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="9">
-        <v>128991623.3</v>
+        <v>196693950</v>
       </c>
       <c r="F59" s="9">
-        <v>20005825.18</v>
+        <v>33135497</v>
       </c>
       <c r="G59" s="9">
-        <v>173093242.25999999</v>
+        <v>291296473</v>
       </c>
       <c r="H59" s="6">
         <f>G59</f>
-        <v>173093242.25999999</v>
+        <v>291296473</v>
       </c>
       <c r="I59" s="11">
-        <v>644</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="J59" s="13">
-        <v>17201</v>
+        <v>19497</v>
       </c>
       <c r="K59" s="14">
-        <v>13.5</v>
+        <v>1.74</v>
+      </c>
+      <c r="L59" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M59" s="12">
+        <v>4</v>
       </c>
       <c r="N59" s="35">
         <f>LOG((D59+E59)/(F59+E59)+1,V$3)</f>
-        <v>60.133985055619767</v>
+        <v>59.398266108133377</v>
       </c>
       <c r="O59" s="16">
         <f>LOG(I59*H59/J59^2,W$3)</f>
-        <v>38.247928020169766</v>
+        <v>44.320333662154304</v>
       </c>
       <c r="P59" s="11">
         <f>LOG(K59/J59+1,X$3)</f>
-        <v>13.336107377342373</v>
+        <v>1.4222158346552765</v>
+      </c>
+      <c r="Q59" s="29">
+        <f>LOG(L59*M59/J59+1,Y$3)</f>
+        <v>2.9408015643798193</v>
       </c>
       <c r="R59" s="16">
         <f>(N59+O59)/2</f>
-        <v>49.190956537894763</v>
+        <v>51.859299885143841</v>
       </c>
       <c r="S59" s="11">
         <f>(N59+O59+P59)/3</f>
-        <v>37.239340151043969</v>
+        <v>35.046938534980988</v>
       </c>
       <c r="T59" s="12">
         <f>(N59+O59+Q59)/3</f>
-        <v>32.793971025263176</v>
+        <v>35.553133778222502</v>
       </c>
       <c r="U59" s="29">
         <f>(N59*2+O59*2+P59+Q59)/6</f>
-        <v>35.016655588153576</v>
+        <v>35.300036156601742</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="41" t="s">
-        <v>98</v>
+      <c r="B60" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="C60" s="22">
         <v>2022</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="9">
-        <v>486789762</v>
+        <v>128991623.3</v>
       </c>
       <c r="F60" s="9">
-        <v>69227637</v>
+        <v>20005825.18</v>
       </c>
       <c r="G60" s="9">
-        <v>681246368</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="H60" s="6">
         <f>G60</f>
-        <v>681246368</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="I60" s="11">
-        <v>2867</v>
+        <v>644</v>
       </c>
       <c r="J60" s="13">
-        <v>73553</v>
+        <v>17201</v>
       </c>
       <c r="K60" s="14">
-        <v>38.32</v>
+        <v>13.5</v>
       </c>
       <c r="N60" s="35">
         <f>LOG((D60+E60)/(F60+E60)+1,V$3)</f>
-        <v>60.637245618669496</v>
+        <v>59.909596593939689</v>
       </c>
       <c r="O60" s="16">
         <f>LOG(I60*H60/J60^2,W$3)</f>
-        <v>37.972842028757981</v>
+        <v>38.101825646957096</v>
       </c>
       <c r="P60" s="11">
         <f>LOG(K60/J60+1,X$3)</f>
-        <v>8.8538341855931524</v>
+        <v>12.502968426877489</v>
       </c>
       <c r="R60" s="16">
         <f>(N60+O60)/2</f>
-        <v>49.305043823713739</v>
+        <v>49.005711120448396</v>
       </c>
       <c r="S60" s="11">
         <f>(N60+O60+P60)/3</f>
-        <v>35.821307277673547</v>
+        <v>36.838130222591424</v>
       </c>
       <c r="T60" s="12">
         <f>(N60+O60+Q60)/3</f>
-        <v>32.870029215809161</v>
+        <v>32.670474080298931</v>
       </c>
       <c r="U60" s="29">
         <f>(N60*2+O60*2+P60+Q60)/6</f>
-        <v>34.345668246741347</v>
+        <v>34.754302151445181</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>13</v>
+      <c r="B61" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="C61" s="22">
         <v>2022</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="9">
-        <v>644619668.87</v>
+        <v>486789762</v>
       </c>
       <c r="F61" s="9">
-        <v>116819770.81999999</v>
+        <v>69227637</v>
       </c>
       <c r="G61" s="9">
-        <v>880317964.64999998</v>
+        <v>681246368</v>
       </c>
       <c r="H61" s="6">
         <f>G61</f>
-        <v>880317964.64999998</v>
+        <v>681246368</v>
       </c>
       <c r="I61" s="11">
-        <v>3576</v>
+        <v>2867</v>
       </c>
       <c r="J61" s="13">
-        <v>122143</v>
+        <v>73553</v>
       </c>
       <c r="K61" s="14">
-        <v>53.85</v>
-      </c>
-      <c r="L61" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="M61" s="12">
-        <v>40</v>
+        <v>38.32</v>
       </c>
       <c r="N61" s="35">
         <f>LOG((D61+E61)/(F61+E61)+1,V$3)</f>
-        <v>59.139182200203074</v>
+        <v>60.410979252781637</v>
       </c>
       <c r="O61" s="16">
         <f>LOG(I61*H61/J61^2,W$3)</f>
-        <v>34.50995098751973</v>
+        <v>37.827790450144214</v>
       </c>
       <c r="P61" s="11">
         <f>LOG(K61/J61+1,X$3)</f>
-        <v>7.4927421628012629</v>
-      </c>
-      <c r="Q61" s="29">
-        <f>LOG(L61*M61/J61+1,Y$3)</f>
-        <v>10.073955627124391</v>
+        <v>8.3007137050616606</v>
       </c>
       <c r="R61" s="16">
         <f>(N61+O61)/2</f>
-        <v>46.824566593861405</v>
+        <v>49.119384851462925</v>
       </c>
       <c r="S61" s="11">
         <f>(N61+O61+P61)/3</f>
-        <v>33.713958450174694</v>
+        <v>35.513161135995837</v>
       </c>
       <c r="T61" s="12">
         <f>(N61+O61+Q61)/3</f>
-        <v>34.574362938282398</v>
+        <v>32.74625656764195</v>
       </c>
       <c r="U61" s="29">
         <f>(N61*2+O61*2+P61+Q61)/6</f>
-        <v>34.144160694228539</v>
+        <v>34.129708851818897</v>
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="41" t="s">
-        <v>87</v>
+      <c r="B62" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="C62" s="22">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D62" s="26"/>
       <c r="E62" s="9">
-        <v>271160973</v>
+        <v>644619668.87</v>
       </c>
       <c r="F62" s="9">
-        <v>64849737</v>
+        <v>116819770.81999999</v>
       </c>
       <c r="G62" s="9">
-        <v>405512751</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="H62" s="6">
         <f>G62</f>
-        <v>405512751</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="I62" s="11">
-        <v>1518</v>
+        <v>3576</v>
       </c>
       <c r="J62" s="13">
-        <v>52583</v>
+        <v>122143</v>
       </c>
       <c r="K62" s="14">
-        <v>40.5</v>
+        <v>53.85</v>
       </c>
       <c r="L62" s="15">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M62" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N62" s="35">
         <f>LOG((D62+E62)/(F62+E62)+1,V$3)</f>
-        <v>57.050009637708712</v>
+        <v>58.918505820504521</v>
       </c>
       <c r="O62" s="16">
         <f>LOG(I62*H62/J62^2,W$3)</f>
-        <v>34.855683854146911</v>
+        <v>34.378127226084317</v>
       </c>
       <c r="P62" s="11">
         <f>LOG(K62/J62+1,X$3)</f>
-        <v>13.087655303882702</v>
+        <v>7.024652399799951</v>
       </c>
       <c r="Q62" s="29">
         <f>LOG(L62*M62/J62+1,Y$3)</f>
-        <v>6.8259808421509529</v>
+        <v>10.23910207410978</v>
       </c>
       <c r="R62" s="16">
         <f>(N62+O62)/2</f>
-        <v>45.952846745927815</v>
+        <v>46.648316523294419</v>
       </c>
       <c r="S62" s="11">
         <f>(N62+O62+P62)/3</f>
-        <v>34.997782931912774</v>
+        <v>33.440428482129597</v>
       </c>
       <c r="T62" s="12">
         <f>(N62+O62+Q62)/3</f>
-        <v>32.910558111335526</v>
+        <v>34.511911706899539</v>
       </c>
       <c r="U62" s="29">
         <f>(N62*2+O62*2+P62+Q62)/6</f>
-        <v>33.954170521624157</v>
+        <v>33.976170094514565</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>278</v>
+      <c r="B63" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="C63" s="22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D63" s="26"/>
       <c r="E63" s="9">
-        <v>420860592.89999998</v>
+        <v>271160973</v>
       </c>
       <c r="F63" s="9">
-        <v>89463377.120000005</v>
+        <v>64849737</v>
       </c>
       <c r="G63" s="9">
-        <v>640822754.27999997</v>
+        <v>405512751</v>
       </c>
       <c r="H63" s="6">
         <f>G63</f>
-        <v>640822754.27999997</v>
+        <v>405512751</v>
       </c>
       <c r="I63" s="11">
-        <v>2538</v>
+        <v>1518</v>
       </c>
       <c r="J63" s="13">
-        <v>59773</v>
+        <v>52583</v>
       </c>
       <c r="K63" s="14">
-        <v>30.47</v>
+        <v>40.5</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M63" s="12">
+        <v>20</v>
       </c>
       <c r="N63" s="35">
         <f>LOG((D63+E63)/(F63+E63)+1,V$3)</f>
-        <v>57.989469365807139</v>
+        <v>56.837128953190657</v>
       </c>
       <c r="O63" s="16">
         <f>LOG(I63*H63/J63^2,W$3)</f>
-        <v>39.467807936543167</v>
+        <v>34.722539435752374</v>
       </c>
       <c r="P63" s="11">
         <f>LOG(K63/J63+1,X$3)</f>
-        <v>8.6631555314191555</v>
+        <v>12.270037756617876</v>
+      </c>
+      <c r="Q63" s="29">
+        <f>LOG(L63*M63/J63+1,Y$3)</f>
+        <v>6.9378819190463386</v>
       </c>
       <c r="R63" s="16">
         <f>(N63+O63)/2</f>
-        <v>48.728638651175153</v>
+        <v>45.779834194471519</v>
       </c>
       <c r="S63" s="11">
         <f>(N63+O63+P63)/3</f>
-        <v>35.373477611256483</v>
+        <v>34.609902048520304</v>
       </c>
       <c r="T63" s="12">
         <f>(N63+O63+Q63)/3</f>
-        <v>32.485759100783433</v>
+        <v>32.832516769329793</v>
       </c>
       <c r="U63" s="29">
         <f>(N63*2+O63*2+P63+Q63)/6</f>
-        <v>33.929618356019965</v>
+        <v>33.721209408925048</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>88</v>
+      <c r="A64" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="C64" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D64" s="25">
-        <v>4000000</v>
-      </c>
-      <c r="E64" s="8">
-        <v>74400000</v>
-      </c>
-      <c r="F64" s="8">
-        <v>453800000</v>
-      </c>
-      <c r="G64" s="8">
-        <v>839400000</v>
-      </c>
-      <c r="H64" s="6" cm="1">
-        <f t="array" aca="1" ref="H64" ca="1">G64/INDIRECT("EUR!$B$48")</f>
-        <v>979935488.16407442</v>
+        <v>2022</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="9">
+        <v>420860592.89999998</v>
+      </c>
+      <c r="F64" s="9">
+        <v>89463377.120000005</v>
+      </c>
+      <c r="G64" s="9">
+        <v>640822754.27999997</v>
+      </c>
+      <c r="H64" s="6">
+        <f>G64</f>
+        <v>640822754.27999997</v>
       </c>
       <c r="I64" s="11">
-        <v>2745</v>
+        <v>2538</v>
       </c>
       <c r="J64" s="13">
-        <v>28825</v>
+        <v>59773</v>
       </c>
       <c r="K64" s="14">
-        <v>58.98</v>
-      </c>
-      <c r="L64" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="M64" s="12">
-        <v>35</v>
+        <v>30.47</v>
       </c>
       <c r="N64" s="35">
         <f>LOG((D64+E64)/(F64+E64)+1,V$3)</f>
-        <v>13.3443174087736</v>
+        <v>57.773083110803384</v>
       </c>
       <c r="O64" s="16">
-        <f ca="1">LOG(I64*H64/J64^2,W$3)</f>
-        <v>52.117573541786747</v>
+        <f>LOG(I64*H64/J64^2,W$3)</f>
+        <v>39.317045772328932</v>
       </c>
       <c r="P64" s="11">
         <f>LOG(K64/J64+1,X$3)</f>
-        <v>34.746486613204134</v>
-      </c>
-      <c r="Q64" s="29">
-        <f>LOG(L64*M64/J64+1,Y$3)</f>
-        <v>37.311777380455446</v>
+        <v>8.1219472085600337</v>
       </c>
       <c r="R64" s="16">
-        <f ca="1">(N64+O64)/2</f>
-        <v>32.730945475280173</v>
+        <f>(N64+O64)/2</f>
+        <v>48.545064441566154</v>
       </c>
       <c r="S64" s="11">
-        <f ca="1">(N64+O64+P64)/3</f>
-        <v>33.402792521254831</v>
+        <f>(N64+O64+P64)/3</f>
+        <v>35.070692030564111</v>
       </c>
       <c r="T64" s="12">
-        <f ca="1">(N64+O64+Q64)/3</f>
-        <v>34.257889443671928</v>
+        <f>(N64+O64+Q64)/3</f>
+        <v>32.363376294377439</v>
       </c>
       <c r="U64" s="29">
-        <f ca="1">(N64*2+O64*2+P64+Q64)/6</f>
-        <v>33.830340982463376</v>
+        <f>(N64*2+O64*2+P64+Q64)/6</f>
+        <v>33.717034162470775</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="41" t="s">
-        <v>5</v>
+      <c r="B65" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="C65" s="22">
         <v>2023</v>
       </c>
       <c r="D65" s="25">
-        <v>2099000</v>
+        <v>4000000</v>
       </c>
       <c r="E65" s="8">
-        <v>48390000</v>
+        <v>74400000</v>
       </c>
       <c r="F65" s="8">
-        <v>150726000</v>
+        <v>453800000</v>
       </c>
       <c r="G65" s="8">
-        <v>316331000</v>
+        <v>839400000</v>
       </c>
       <c r="H65" s="6" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">G65/INDIRECT("EUR!$B$48")</f>
-        <v>369292319.40246582</v>
+        <v>979935488.16407442</v>
       </c>
       <c r="I65" s="11">
-        <v>1300</v>
+        <v>2745</v>
       </c>
       <c r="J65" s="13">
-        <v>15575</v>
+        <v>28825</v>
       </c>
       <c r="K65" s="14">
-        <v>18.079999999999998</v>
+        <v>58.98</v>
       </c>
       <c r="L65" s="15">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="M65" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N65" s="35">
         <f>LOG((D65+E65)/(F65+E65)+1,V$3)</f>
-        <v>21.790665240670979</v>
+        <v>13.294523422016264</v>
       </c>
       <c r="O65" s="16">
         <f ca="1">LOG(I65*H65/J65^2,W$3)</f>
-        <v>48.944022619261283</v>
+        <v>51.918490831305654</v>
       </c>
       <c r="P65" s="11">
         <f>LOG(K65/J65+1,X$3)</f>
-        <v>19.721402702465511</v>
+        <v>32.575789379733301</v>
       </c>
       <c r="Q65" s="29">
         <f>LOG(L65*M65/J65+1,Y$3)</f>
-        <v>40.604957723123405</v>
+        <v>37.923444504390446</v>
       </c>
       <c r="R65" s="16">
         <f ca="1">(N65+O65)/2</f>
-        <v>35.367343929966133</v>
+        <v>32.606507126660958</v>
       </c>
       <c r="S65" s="11">
         <f ca="1">(N65+O65+P65)/3</f>
-        <v>30.152030187465925</v>
+        <v>32.596267877685072</v>
       </c>
       <c r="T65" s="12">
         <f ca="1">(N65+O65+Q65)/3</f>
-        <v>37.113215194351888</v>
+        <v>34.378819585904118</v>
       </c>
       <c r="U65" s="29">
         <f ca="1">(N65*2+O65*2+P65+Q65)/6</f>
-        <v>33.632622690908903</v>
+        <v>33.487543731794595</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="41" t="s">
-        <v>90</v>
+      <c r="B66" s="40" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="22">
         <v>2023</v>
       </c>
       <c r="D66" s="25">
-        <v>18564000</v>
+        <v>2099000</v>
       </c>
       <c r="E66" s="8">
-        <v>184180000</v>
+        <v>48390000</v>
       </c>
       <c r="F66" s="8">
-        <v>659945000</v>
+        <v>150726000</v>
       </c>
       <c r="G66" s="8">
-        <v>1344665000</v>
+        <v>316331000</v>
       </c>
       <c r="H66" s="6" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">G66/INDIRECT("EUR!$B$48")</f>
-        <v>1569793844.6415834</v>
+        <v>369292319.40246582</v>
       </c>
       <c r="I66" s="11">
-        <v>4820</v>
+        <v>1300</v>
       </c>
       <c r="J66" s="13">
-        <v>46410</v>
+        <v>15575</v>
       </c>
       <c r="K66" s="14">
-        <v>131.31</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="L66" s="15">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M66" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N66" s="35">
         <f>LOG((D66+E66)/(F66+E66)+1,V$3)</f>
-        <v>20.755707144593845</v>
+        <v>21.709353918166457</v>
       </c>
       <c r="O66" s="16">
         <f ca="1">LOG(I66*H66/J66^2,W$3)</f>
-        <v>52.644143485937903</v>
+        <v>48.75706248234934</v>
       </c>
       <c r="P66" s="11">
         <f>LOG(K66/J66+1,X$3)</f>
-        <v>48.027717976472267</v>
+        <v>18.489358877057906</v>
       </c>
       <c r="Q66" s="29">
         <f>LOG(L66*M66/J66+1,Y$3)</f>
-        <v>6.9604783709416322</v>
+        <v>41.270611290219755</v>
       </c>
       <c r="R66" s="16">
         <f ca="1">(N66+O66)/2</f>
-        <v>36.699925315265872</v>
+        <v>35.233208200257899</v>
       </c>
       <c r="S66" s="11">
         <f ca="1">(N66+O66+P66)/3</f>
-        <v>40.475856202334676</v>
+        <v>29.651925092524568</v>
       </c>
       <c r="T66" s="12">
         <f ca="1">(N66+O66+Q66)/3</f>
-        <v>26.786776333824459</v>
+        <v>37.245675896911848</v>
       </c>
       <c r="U66" s="29">
         <f ca="1">(N66*2+O66*2+P66+Q66)/6</f>
-        <v>33.631316268079566</v>
+        <v>33.448800494718206</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>279</v>
       </c>
       <c r="C67" s="22">
@@ -6829,38 +6828,38 @@
       </c>
       <c r="N67" s="35">
         <f>LOG((D67+E67)/(F67+E67)+1,V$3)</f>
-        <v>59.277170864521764</v>
+        <v>59.055979583572487</v>
       </c>
       <c r="O67" s="16">
         <f>LOG(I67*H67/J67^2,W$3)</f>
-        <v>37.154242672276069</v>
+        <v>37.012318042359475</v>
       </c>
       <c r="P67" s="11">
         <f>LOG(K67/J67+1,X$3)</f>
-        <v>8.3074045114117023</v>
+        <v>7.7884208170029625</v>
       </c>
       <c r="R67" s="16">
         <f>(N67+O67)/2</f>
-        <v>48.215706768398917</v>
+        <v>48.034148812965981</v>
       </c>
       <c r="S67" s="11">
         <f>(N67+O67+P67)/3</f>
-        <v>34.912939349403182</v>
+        <v>34.618906147644971</v>
       </c>
       <c r="T67" s="12">
         <f>(N67+O67+Q67)/3</f>
-        <v>32.143804512265945</v>
+        <v>32.022765875310654</v>
       </c>
       <c r="U67" s="29">
         <f>(N67*2+O67*2+P67+Q67)/6</f>
-        <v>33.52837193083456</v>
+        <v>33.320836011477816</v>
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>285</v>
       </c>
       <c r="C68" s="22">
@@ -6893,186 +6892,186 @@
       </c>
       <c r="N68" s="35">
         <f>LOG((D68+E68)/(F68+E68)+1,V$3)</f>
-        <v>57.234777487337361</v>
+        <v>57.021207346208243</v>
       </c>
       <c r="O68" s="16">
         <f>LOG(I68*H68/J68^2,W$3)</f>
-        <v>38.467793085903992</v>
+        <v>38.32085085522575</v>
       </c>
       <c r="P68" s="11">
         <f>LOG(K68/J68+1,X$3)</f>
-        <v>8.340640351778406</v>
+        <v>7.8195803338685534</v>
       </c>
       <c r="R68" s="16">
         <f>(N68+O68)/2</f>
-        <v>47.85128528662068</v>
+        <v>47.671029100716993</v>
       </c>
       <c r="S68" s="11">
         <f>(N68+O68+P68)/3</f>
-        <v>34.681070308339919</v>
+        <v>34.387212845100848</v>
       </c>
       <c r="T68" s="12">
         <f>(N68+O68+Q68)/3</f>
-        <v>31.900856857747119</v>
+        <v>31.780686067144661</v>
       </c>
       <c r="U68" s="29">
         <f>(N68*2+O68*2+P68+Q68)/6</f>
-        <v>33.290963583043521</v>
+        <v>33.083949456122753</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>89</v>
+      <c r="B69" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="C69" s="22">
         <v>2023</v>
       </c>
       <c r="D69" s="25">
-        <v>9000000</v>
+        <v>18564000</v>
       </c>
       <c r="E69" s="8">
-        <v>113000000</v>
+        <v>184180000</v>
       </c>
       <c r="F69" s="8">
-        <v>445000000</v>
+        <v>659945000</v>
       </c>
       <c r="G69" s="8">
-        <v>929000000</v>
+        <v>1344665000</v>
       </c>
       <c r="H69" s="6" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">G69/INDIRECT("EUR!$B$48")</f>
-        <v>1084536655.3543305</v>
+        <v>1569793844.6415834</v>
       </c>
       <c r="I69" s="11">
-        <v>3665</v>
+        <v>4820</v>
       </c>
       <c r="J69" s="13">
-        <v>37990</v>
+        <v>46410</v>
       </c>
       <c r="K69" s="14">
-        <v>72.36</v>
+        <v>131.31</v>
       </c>
       <c r="L69" s="15">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M69" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N69" s="35">
         <f>LOG((D69+E69)/(F69+E69)+1,V$3)</f>
-        <v>19.065940109563343</v>
+        <v>20.678257742347348</v>
       </c>
       <c r="O69" s="16">
         <f ca="1">LOG(I69*H69/J69^2,W$3)</f>
-        <v>51.074961471102633</v>
+        <v>52.443049343139158</v>
       </c>
       <c r="P69" s="11">
         <f>LOG(K69/J69+1,X$3)</f>
-        <v>32.347101426161785</v>
+        <v>45.027310030138267</v>
       </c>
       <c r="Q69" s="29">
         <f>LOG(L69*M69/J69+1,Y$3)</f>
-        <v>26.905797206669686</v>
+        <v>7.0745843204640417</v>
       </c>
       <c r="R69" s="16">
         <f ca="1">(N69+O69)/2</f>
-        <v>35.070450790332984</v>
+        <v>36.560653542743253</v>
       </c>
       <c r="S69" s="11">
         <f ca="1">(N69+O69+P69)/3</f>
-        <v>34.162667668942582</v>
+        <v>39.382872371874925</v>
       </c>
       <c r="T69" s="12">
         <f ca="1">(N69+O69+Q69)/3</f>
-        <v>32.348899595778555</v>
+        <v>26.731963801983515</v>
       </c>
       <c r="U69" s="29">
         <f ca="1">(N69*2+O69*2+P69+Q69)/6</f>
-        <v>33.255783632360568</v>
+        <v>33.057418086929225</v>
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>7</v>
+      <c r="B70" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="C70" s="22">
         <v>2023</v>
       </c>
       <c r="D70" s="25">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="E70" s="8">
-        <v>185900000</v>
+        <v>113000000</v>
       </c>
       <c r="F70" s="8">
-        <v>410800000</v>
+        <v>445000000</v>
       </c>
       <c r="G70" s="8">
-        <v>952200000</v>
+        <v>929000000</v>
       </c>
       <c r="H70" s="6" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">G70/INDIRECT("EUR!$B$48")</f>
-        <v>1111620886.1446648</v>
+        <v>1084536655.3543305</v>
       </c>
       <c r="I70" s="11">
-        <v>3810</v>
+        <v>3665</v>
       </c>
       <c r="J70" s="13">
-        <v>42980</v>
+        <v>37990</v>
       </c>
       <c r="K70" s="14">
-        <v>77.62</v>
+        <v>72.36</v>
       </c>
       <c r="L70" s="15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M70" s="12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N70" s="35">
         <f>LOG((D70+E70)/(F70+E70)+1,V$3)</f>
-        <v>27.131066889794042</v>
+        <v>18.994796030758117</v>
       </c>
       <c r="O70" s="16">
         <f ca="1">LOG(I70*H70/J70^2,W$3)</f>
-        <v>49.892646683069309</v>
+        <v>50.879861410290474</v>
       </c>
       <c r="P70" s="11">
         <f>LOG(K70/J70+1,X$3)</f>
-        <v>30.671480823677456</v>
+        <v>30.32629960069357</v>
       </c>
       <c r="Q70" s="29">
         <f>LOG(L70*M70/J70+1,Y$3)</f>
-        <v>14.192802550098996</v>
+        <v>27.346874870345999</v>
       </c>
       <c r="R70" s="16">
         <f ca="1">(N70+O70)/2</f>
-        <v>38.511856786431679</v>
+        <v>34.937328720524292</v>
       </c>
       <c r="S70" s="11">
         <f ca="1">(N70+O70+P70)/3</f>
-        <v>35.898398132180269</v>
+        <v>33.40031901391405</v>
       </c>
       <c r="T70" s="12">
         <f ca="1">(N70+O70+Q70)/3</f>
-        <v>30.405505374320786</v>
+        <v>32.40717743713153</v>
       </c>
       <c r="U70" s="29">
         <f ca="1">(N70*2+O70*2+P70+Q70)/6</f>
-        <v>33.151951753250529</v>
+        <v>32.90374822552279</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="39" t="s">
         <v>287</v>
       </c>
       <c r="C71" s="22">
@@ -7103,112 +7102,112 @@
       </c>
       <c r="N71" s="35">
         <f>LOG((D71+E71)/(F71+E71)+1,V$3)</f>
-        <v>53.555630158419739</v>
+        <v>53.355788663557234</v>
       </c>
       <c r="O71" s="16">
         <f>LOG(I71*H71/J71^2,W$3)</f>
-        <v>41.16260259423855</v>
+        <v>41.005366523216424</v>
       </c>
       <c r="P71" s="11">
         <f>LOG(K71/J71+1,X$3)</f>
-        <v>8.9341674317577677</v>
+        <v>8.3760283386354129</v>
       </c>
       <c r="R71" s="16">
         <f>(N71+O71)/2</f>
-        <v>47.359116376329141</v>
+        <v>47.180577593386829</v>
       </c>
       <c r="S71" s="11">
         <f>(N71+O71+P71)/3</f>
-        <v>34.550800061472017</v>
+        <v>34.245727841803024</v>
       </c>
       <c r="T71" s="12">
         <f>(N71+O71+Q71)/3</f>
-        <v>31.572744250886092</v>
+        <v>31.453718395591221</v>
       </c>
       <c r="U71" s="29">
         <f>(N71*2+O71*2+P71+Q71)/6</f>
-        <v>33.061772156179053</v>
+        <v>32.849723118697121</v>
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>11</v>
+      <c r="B72" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C72" s="22">
         <v>2023</v>
       </c>
       <c r="D72" s="25">
-        <v>9373000</v>
+        <v>8000000</v>
       </c>
       <c r="E72" s="8">
-        <v>46778000</v>
+        <v>185900000</v>
       </c>
       <c r="F72" s="8">
-        <v>289887000</v>
+        <v>410800000</v>
       </c>
       <c r="G72" s="8">
-        <v>484223000</v>
+        <v>952200000</v>
       </c>
       <c r="H72" s="6" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">G72/INDIRECT("EUR!$B$48")</f>
-        <v>565293426.12017226</v>
+        <v>1111620886.1446648</v>
       </c>
       <c r="I72" s="11">
-        <v>2020</v>
+        <v>3810</v>
       </c>
       <c r="J72" s="13">
-        <v>22230</v>
+        <v>42980</v>
       </c>
       <c r="K72" s="14">
-        <v>72.89</v>
+        <v>77.62</v>
       </c>
       <c r="L72" s="15">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M72" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N72" s="35">
         <f>LOG((D72+E72)/(F72+E72)+1,V$3)</f>
-        <v>14.873414403212562</v>
+        <v>27.029827992064096</v>
       </c>
       <c r="O72" s="16">
         <f ca="1">LOG(I72*H72/J72^2,W$3)</f>
-        <v>49.943091339713924</v>
+        <v>49.702062919096157</v>
       </c>
       <c r="P72" s="11">
         <f>LOG(K72/J72+1,X$3)</f>
-        <v>55.646369403710104</v>
+        <v>28.755359078432868</v>
       </c>
       <c r="Q72" s="29">
         <f>LOG(L72*M72/J72+1,Y$3)</f>
-        <v>12.10717382309643</v>
+        <v>14.425470927911084</v>
       </c>
       <c r="R72" s="16">
         <f ca="1">(N72+O72)/2</f>
-        <v>32.40825287146324</v>
+        <v>38.365945455580125</v>
       </c>
       <c r="S72" s="11">
         <f ca="1">(N72+O72+P72)/3</f>
-        <v>40.154291715545526</v>
+        <v>35.16241666319771</v>
       </c>
       <c r="T72" s="12">
         <f ca="1">(N72+O72+Q72)/3</f>
-        <v>25.641226522007639</v>
+        <v>30.385787279690444</v>
       </c>
       <c r="U72" s="29">
         <f ca="1">(N72*2+O72*2+P72+Q72)/6</f>
-        <v>32.897759118776584</v>
+        <v>32.774101971444075</v>
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="22">
@@ -7239,38 +7238,38 @@
       </c>
       <c r="N73" s="35">
         <f>LOG((D73+E73)/(F73+E73)+1,V$3)</f>
-        <v>56.696524185351969</v>
+        <v>56.484962522961034</v>
       </c>
       <c r="O73" s="16">
         <f>LOG(I73*H73/J73^2,W$3)</f>
-        <v>35.781310462212794</v>
+        <v>35.644630264204885</v>
       </c>
       <c r="P73" s="11">
         <f>LOG(K73/J73+1,X$3)</f>
-        <v>11.424997748338644</v>
+        <v>10.711250448336669</v>
       </c>
       <c r="R73" s="16">
         <f>(N73+O73)/2</f>
-        <v>46.238917323782381</v>
+        <v>46.064796393582959</v>
       </c>
       <c r="S73" s="11">
         <f>(N73+O73+P73)/3</f>
-        <v>34.634277465301132</v>
+        <v>34.280281078500863</v>
       </c>
       <c r="T73" s="12">
         <f>(N73+O73+Q73)/3</f>
-        <v>30.825944882521586</v>
+        <v>30.709864262388638</v>
       </c>
       <c r="U73" s="29">
         <f>(N73*2+O73*2+P73+Q73)/6</f>
-        <v>32.730111173911361</v>
+        <v>32.495072670444749</v>
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C74" s="22">
@@ -7303,250 +7302,250 @@
       </c>
       <c r="N74" s="35">
         <f>LOG((D74+E74)/(F74+E74)+1,V$3)</f>
-        <v>57.104011902820844</v>
+        <v>56.890929710200766</v>
       </c>
       <c r="O74" s="16">
         <f>LOG(I74*H74/J74^2,W$3)</f>
-        <v>37.121222048658211</v>
+        <v>36.979423553455966</v>
       </c>
       <c r="P74" s="11">
         <f>LOG(K74/J74+1,X$3)</f>
-        <v>6.5032008425618582</v>
+        <v>6.0969301241782103</v>
       </c>
       <c r="R74" s="16">
         <f>(N74+O74)/2</f>
-        <v>47.112616975739527</v>
+        <v>46.935176631828369</v>
       </c>
       <c r="S74" s="11">
         <f>(N74+O74+P74)/3</f>
-        <v>33.576144931346967</v>
+        <v>33.322427795944982</v>
       </c>
       <c r="T74" s="12">
         <f>(N74+O74+Q74)/3</f>
-        <v>31.408411317159686</v>
+        <v>31.290117754552245</v>
       </c>
       <c r="U74" s="29">
         <f>(N74*2+O74*2+P74+Q74)/6</f>
-        <v>32.492278124253325</v>
+        <v>32.306272775248615</v>
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>282</v>
+      <c r="A75" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>11</v>
       </c>
       <c r="C75" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D75" s="26">
-        <v>1422000</v>
-      </c>
-      <c r="E75" s="9">
-        <v>171231415.30000001</v>
-      </c>
-      <c r="F75" s="9">
-        <v>37795692.32</v>
-      </c>
-      <c r="G75" s="9">
-        <v>237228536.25</v>
-      </c>
-      <c r="H75" s="6">
-        <f>G75</f>
-        <v>237228536.25</v>
+        <v>2023</v>
+      </c>
+      <c r="D75" s="25">
+        <v>9373000</v>
+      </c>
+      <c r="E75" s="8">
+        <v>46778000</v>
+      </c>
+      <c r="F75" s="8">
+        <v>289887000</v>
+      </c>
+      <c r="G75" s="8">
+        <v>484223000</v>
+      </c>
+      <c r="H75" s="6" cm="1">
+        <f t="array" aca="1" ref="H75" ca="1">G75/INDIRECT("EUR!$B$48")</f>
+        <v>565293426.12017226</v>
       </c>
       <c r="I75" s="11">
-        <v>960</v>
+        <v>2020</v>
       </c>
       <c r="J75" s="13">
-        <v>32000</v>
+        <v>22230</v>
       </c>
       <c r="K75" s="14">
-        <v>14.41</v>
+        <v>72.89</v>
+      </c>
+      <c r="L75" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M75" s="12">
+        <v>15</v>
       </c>
       <c r="N75" s="35">
         <f>LOG((D75+E75)/(F75+E75)+1,V$3)</f>
-        <v>58.057760065619206</v>
+        <v>14.817914629253124</v>
       </c>
       <c r="O75" s="16">
-        <f>LOG(I75*H75/J75^2,W$3)</f>
-        <v>34.849041686785164</v>
+        <f ca="1">LOG(I75*H75/J75^2,W$3)</f>
+        <v>49.752314883366751</v>
       </c>
       <c r="P75" s="11">
         <f>LOG(K75/J75+1,X$3)</f>
-        <v>7.6530687967487925</v>
+        <v>52.170005837460295</v>
+      </c>
+      <c r="Q75" s="29">
+        <f>LOG(L75*M75/J75+1,Y$3)</f>
+        <v>12.305651641932089</v>
       </c>
       <c r="R75" s="16">
-        <f>(N75+O75)/2</f>
-        <v>46.453400876202181</v>
+        <f ca="1">(N75+O75)/2</f>
+        <v>32.285114756309937</v>
       </c>
       <c r="S75" s="11">
-        <f>(N75+O75+P75)/3</f>
-        <v>33.519956849717722</v>
+        <f ca="1">(N75+O75+P75)/3</f>
+        <v>38.913411783360054</v>
       </c>
       <c r="T75" s="12">
-        <f>(N75+O75+Q75)/3</f>
-        <v>30.968933917468121</v>
+        <f ca="1">(N75+O75+Q75)/3</f>
+        <v>25.625293718183986</v>
       </c>
       <c r="U75" s="29">
-        <f>(N75*2+O75*2+P75+Q75)/6</f>
-        <v>32.244445383592918</v>
+        <f ca="1">(N75*2+O75*2+P75+Q75)/6</f>
+        <v>32.269352750772022</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>91</v>
+      <c r="A76" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="C76" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D76" s="25">
-        <v>11700000</v>
-      </c>
-      <c r="E76" s="8">
-        <v>111500000</v>
-      </c>
-      <c r="F76" s="8">
-        <v>397500000</v>
-      </c>
-      <c r="G76" s="8">
-        <v>887000000</v>
-      </c>
-      <c r="H76" s="6" cm="1">
-        <f t="array" aca="1" ref="H76" ca="1">G76/INDIRECT("EUR!$B$48")</f>
-        <v>1035504858.233898</v>
+        <v>2022</v>
+      </c>
+      <c r="D76" s="26">
+        <v>1422000</v>
+      </c>
+      <c r="E76" s="9">
+        <v>171231415.30000001</v>
+      </c>
+      <c r="F76" s="9">
+        <v>37795692.32</v>
+      </c>
+      <c r="G76" s="9">
+        <v>237228536.25</v>
+      </c>
+      <c r="H76" s="6">
+        <f>G76</f>
+        <v>237228536.25</v>
       </c>
       <c r="I76" s="11">
-        <v>3345</v>
+        <v>960</v>
       </c>
       <c r="J76" s="13">
-        <v>30860</v>
+        <v>32000</v>
       </c>
       <c r="K76" s="14">
-        <v>48.8</v>
-      </c>
-      <c r="L76" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M76" s="12">
-        <v>28</v>
+        <v>14.41</v>
       </c>
       <c r="N76" s="35">
         <f>LOG((D76+E76)/(F76+E76)+1,V$3)</f>
-        <v>20.900271806678187</v>
+        <v>57.8411189855766</v>
       </c>
       <c r="O76" s="16">
-        <f ca="1">LOG(I76*H76/J76^2,W$3)</f>
-        <v>52.868190123262373</v>
+        <f>LOG(I76*H76/J76^2,W$3)</f>
+        <v>34.715922640651691</v>
       </c>
       <c r="P76" s="11">
         <f>LOG(K76/J76+1,X$3)</f>
-        <v>26.859636099744851</v>
-      </c>
-      <c r="Q76" s="29">
-        <f>LOG(L76*M76/J76+1,Y$3)</f>
-        <v>18.600946498341518</v>
+        <v>7.1749630403425728</v>
       </c>
       <c r="R76" s="16">
-        <f ca="1">(N76+O76)/2</f>
-        <v>36.884230964970278</v>
+        <f>(N76+O76)/2</f>
+        <v>46.278520813114142</v>
       </c>
       <c r="S76" s="11">
-        <f ca="1">(N76+O76+P76)/3</f>
-        <v>33.54269934322847</v>
+        <f>(N76+O76+P76)/3</f>
+        <v>33.244001555523617</v>
       </c>
       <c r="T76" s="12">
-        <f ca="1">(N76+O76+Q76)/3</f>
-        <v>30.789802809427357</v>
+        <f>(N76+O76+Q76)/3</f>
+        <v>30.85234720874276</v>
       </c>
       <c r="U76" s="29">
-        <f ca="1">(N76*2+O76*2+P76+Q76)/6</f>
-        <v>32.166251076327917</v>
+        <f>(N76*2+O76*2+P76+Q76)/6</f>
+        <v>32.04817438213319</v>
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="41" t="s">
-        <v>94</v>
+      <c r="B77" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="C77" s="22">
         <v>2023</v>
       </c>
       <c r="D77" s="25">
-        <v>2900000</v>
+        <v>11700000</v>
       </c>
       <c r="E77" s="8">
-        <v>80000000</v>
+        <v>111500000</v>
       </c>
       <c r="F77" s="8">
-        <v>382900000</v>
+        <v>397500000</v>
       </c>
       <c r="G77" s="8">
-        <v>679800000</v>
+        <v>887000000</v>
       </c>
       <c r="H77" s="6" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">G77/INDIRECT("EUR!$B$48")</f>
-        <v>793614659.10643053</v>
+        <v>1035504858.233898</v>
       </c>
       <c r="I77" s="11">
-        <v>2505</v>
+        <v>3345</v>
       </c>
       <c r="J77" s="13">
-        <v>26045</v>
+        <v>30860</v>
       </c>
       <c r="K77" s="14">
-        <v>61.42</v>
+        <v>48.8</v>
       </c>
       <c r="L77" s="15">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M77" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N77" s="35">
         <f>LOG((D77+E77)/(F77+E77)+1,V$3)</f>
-        <v>15.884750874853401</v>
+        <v>20.822282965009734</v>
       </c>
       <c r="O77" s="16">
         <f ca="1">LOG(I77*H77/J77^2,W$3)</f>
-        <v>51.475680487749919</v>
+        <v>52.666240149909719</v>
       </c>
       <c r="P77" s="11">
         <f>LOG(K77/J77+1,X$3)</f>
-        <v>40.039924618880953</v>
+        <v>25.181649533137765</v>
       </c>
       <c r="Q77" s="29">
         <f>LOG(L77*M77/J77+1,Y$3)</f>
-        <v>17.711125605656992</v>
+        <v>18.905879370638004</v>
       </c>
       <c r="R77" s="16">
         <f ca="1">(N77+O77)/2</f>
-        <v>33.680215681301661</v>
+        <v>36.744261557459723</v>
       </c>
       <c r="S77" s="11">
         <f ca="1">(N77+O77+P77)/3</f>
-        <v>35.800118660494753</v>
+        <v>32.890057549352406</v>
       </c>
       <c r="T77" s="12">
         <f ca="1">(N77+O77+Q77)/3</f>
-        <v>28.35718565608677</v>
+        <v>30.798134161852484</v>
       </c>
       <c r="U77" s="29">
         <f ca="1">(N77*2+O77*2+P77+Q77)/6</f>
-        <v>32.078652158290765</v>
+        <v>31.844095855602443</v>
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="39" t="s">
         <v>271</v>
       </c>
       <c r="C78" s="22">
@@ -7579,38 +7578,38 @@
       </c>
       <c r="N78" s="35">
         <f>LOG((D78+E78)/(F78+E78)+1,V$3)</f>
-        <v>57.712553210066645</v>
+        <v>57.497200260774186</v>
       </c>
       <c r="O78" s="16">
         <f>LOG(I78*H78/J78^2,W$3)</f>
-        <v>34.668003916094456</v>
+        <v>34.535576411942685</v>
       </c>
       <c r="P78" s="11">
         <f>LOG(K78/J78+1,X$3)</f>
-        <v>7.0310303160530072</v>
+        <v>6.5917848111648674</v>
       </c>
       <c r="R78" s="16">
         <f>(N78+O78)/2</f>
-        <v>46.190278563080554</v>
+        <v>46.016388336358432</v>
       </c>
       <c r="S78" s="11">
         <f>(N78+O78+P78)/3</f>
-        <v>33.137195814071369</v>
+        <v>32.874853827960578</v>
       </c>
       <c r="T78" s="12">
         <f>(N78+O78+Q78)/3</f>
-        <v>30.793519042053703</v>
+        <v>30.677592224238953</v>
       </c>
       <c r="U78" s="29">
         <f>(N78*2+O78*2+P78+Q78)/6</f>
-        <v>31.965357428062536</v>
+        <v>31.776223026099768</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C79" s="22">
@@ -7641,396 +7640,396 @@
       </c>
       <c r="N79" s="35">
         <f>LOG((D79+E79)/(F79+E79)+1,V$3)</f>
-        <v>58.922269032217024</v>
+        <v>58.702402058581242</v>
       </c>
       <c r="O79" s="16">
         <f>LOG(I79*H79/J79^2,W$3)</f>
-        <v>35.028476419034639</v>
+        <v>34.894671954328828</v>
       </c>
       <c r="P79" s="11">
         <f>LOG(K79/J79+1,X$3)</f>
-        <v>3.5278573758095972</v>
+        <v>3.3074635751068961</v>
       </c>
       <c r="R79" s="16">
         <f>(N79+O79)/2</f>
-        <v>46.975372725625832</v>
+        <v>46.798537006455035</v>
       </c>
       <c r="S79" s="11">
         <f>(N79+O79+P79)/3</f>
-        <v>32.492867609020422</v>
+        <v>32.301512529338986</v>
       </c>
       <c r="T79" s="12">
         <f>(N79+O79+Q79)/3</f>
-        <v>31.31691515041722</v>
+        <v>31.199024670970022</v>
       </c>
       <c r="U79" s="29">
         <f>(N79*2+O79*2+P79+Q79)/6</f>
-        <v>31.904891379718819</v>
+        <v>31.750268600154509</v>
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="41" t="s">
-        <v>93</v>
+      <c r="B80" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="C80" s="22">
         <v>2023</v>
       </c>
       <c r="D80" s="25">
-        <v>3135000</v>
+        <v>2900000</v>
       </c>
       <c r="E80" s="8">
-        <v>108240000</v>
+        <v>80000000</v>
       </c>
       <c r="F80" s="8">
-        <v>160937000</v>
+        <v>382900000</v>
       </c>
       <c r="G80" s="8">
-        <v>460525000</v>
+        <v>679800000</v>
       </c>
       <c r="H80" s="6" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">G80/INDIRECT("EUR!$B$48")</f>
-        <v>537627818.30683863</v>
+        <v>793614659.10643053</v>
       </c>
       <c r="I80" s="11">
-        <v>1915</v>
+        <v>2505</v>
       </c>
       <c r="J80" s="13">
-        <v>25295</v>
+        <v>26045</v>
       </c>
       <c r="K80" s="14">
-        <v>24.1</v>
+        <v>61.42</v>
       </c>
       <c r="L80" s="15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M80" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N80" s="35">
         <f>LOG((D80+E80)/(F80+E80)+1,V$3)</f>
-        <v>33.386556194338489</v>
+        <v>15.8254773241369</v>
       </c>
       <c r="O80" s="16">
         <f ca="1">LOG(I80*H80/J80^2,W$3)</f>
-        <v>47.609586712618828</v>
+        <v>51.279049729659398</v>
       </c>
       <c r="P80" s="11">
         <f>LOG(K80/J80+1,X$3)</f>
-        <v>16.188064754053656</v>
+        <v>37.538533483537876</v>
       </c>
       <c r="Q80" s="29">
         <f>LOG(L80*M80/J80+1,Y$3)</f>
-        <v>12.919766918372172</v>
+        <v>18.001471282583612</v>
       </c>
       <c r="R80" s="16">
         <f ca="1">(N80+O80)/2</f>
-        <v>40.498071453478659</v>
+        <v>33.552263526898152</v>
       </c>
       <c r="S80" s="11">
         <f ca="1">(N80+O80+P80)/3</f>
-        <v>32.394735887003655</v>
+        <v>34.881020179111395</v>
       </c>
       <c r="T80" s="12">
         <f ca="1">(N80+O80+Q80)/3</f>
-        <v>31.305303275109832</v>
+        <v>28.368666112126636</v>
       </c>
       <c r="U80" s="29">
         <f ca="1">(N80*2+O80*2+P80+Q80)/6</f>
-        <v>31.850019581056742</v>
+        <v>31.624843145619014</v>
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>288</v>
+      <c r="A81" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="C81" s="37">
-        <v>2021</v>
-      </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="9">
-        <v>147784124.19999999</v>
-      </c>
-      <c r="F81" s="9">
-        <v>29747686.010000002</v>
-      </c>
-      <c r="G81" s="9">
-        <v>201622056.19999999</v>
-      </c>
-      <c r="H81" s="6">
-        <f>G81</f>
-        <v>201622056.19999999</v>
+        <v>2023</v>
+      </c>
+      <c r="D81" s="25">
+        <v>3135000</v>
+      </c>
+      <c r="E81" s="8">
+        <v>108240000</v>
+      </c>
+      <c r="F81" s="8">
+        <v>160937000</v>
+      </c>
+      <c r="G81" s="8">
+        <v>460525000</v>
+      </c>
+      <c r="H81" s="6" cm="1">
+        <f t="array" aca="1" ref="H81" ca="1">G81/INDIRECT("EUR!$B$48")</f>
+        <v>537627818.30683863</v>
       </c>
       <c r="I81" s="11">
-        <v>893</v>
+        <v>1915</v>
       </c>
       <c r="J81" s="13">
-        <v>32549</v>
+        <v>25295</v>
       </c>
       <c r="K81" s="14">
-        <v>10.27</v>
+        <v>24.1</v>
+      </c>
+      <c r="L81" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="M81" s="12">
+        <v>17</v>
       </c>
       <c r="N81" s="35">
         <f>LOG((D81+E81)/(F81+E81)+1,V$3)</f>
-        <v>58.397843685334585</v>
+        <v>33.261975094677226</v>
       </c>
       <c r="O81" s="16">
-        <f>LOG(I81*H81/J81^2,W$3)</f>
-        <v>33.114501850465984</v>
+        <f ca="1">LOG(I81*H81/J81^2,W$3)</f>
+        <v>47.427723956478935</v>
       </c>
       <c r="P81" s="11">
         <f>LOG(K81/J81+1,X$3)</f>
-        <v>5.3627020422570695</v>
+        <v>15.176757114002431</v>
+      </c>
+      <c r="Q81" s="29">
+        <f>LOG(L81*M81/J81+1,Y$3)</f>
+        <v>13.131565905922168</v>
       </c>
       <c r="R81" s="16">
-        <f>(N81+O81)/2</f>
-        <v>45.756172767900281</v>
+        <f ca="1">(N81+O81)/2</f>
+        <v>40.344849525578084</v>
       </c>
       <c r="S81" s="11">
-        <f>(N81+O81+P81)/3</f>
-        <v>32.291682526019208</v>
+        <f ca="1">(N81+O81+P81)/3</f>
+        <v>31.955485388386197</v>
       </c>
       <c r="T81" s="12">
-        <f>(N81+O81+Q81)/3</f>
-        <v>30.504115178600188</v>
+        <f ca="1">(N81+O81+Q81)/3</f>
+        <v>31.273754985692779</v>
       </c>
       <c r="U81" s="29">
-        <f>(N81*2+O81*2+P81+Q81)/6</f>
-        <v>31.397898852309698</v>
+        <f ca="1">(N81*2+O81*2+P81+Q81)/6</f>
+        <v>31.614620187039492</v>
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>92</v>
+      <c r="A82" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="C82" s="37">
-        <v>2023</v>
-      </c>
-      <c r="D82" s="25">
-        <v>655000</v>
-      </c>
-      <c r="E82" s="8">
-        <v>22578000</v>
-      </c>
-      <c r="F82" s="8">
-        <v>136722000</v>
-      </c>
-      <c r="G82" s="8">
-        <v>216104000</v>
-      </c>
-      <c r="H82" s="6" cm="1">
-        <f t="array" aca="1" ref="H82" ca="1">G82/INDIRECT("EUR!$B$48")</f>
-        <v>252284940.11699921</v>
+        <v>2021</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="9">
+        <v>147784124.19999999</v>
+      </c>
+      <c r="F82" s="9">
+        <v>29747686.010000002</v>
+      </c>
+      <c r="G82" s="9">
+        <v>201622056.19999999</v>
+      </c>
+      <c r="H82" s="6">
+        <f>G82</f>
+        <v>201622056.19999999</v>
       </c>
       <c r="I82" s="11">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="J82" s="13">
-        <v>12480</v>
+        <v>32549</v>
       </c>
       <c r="K82" s="14">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L82" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="M82" s="12">
-        <v>28</v>
+        <v>10.27</v>
       </c>
       <c r="N82" s="35">
         <f>LOG((D82+E82)/(F82+E82)+1,V$3)</f>
-        <v>13.127094127359355</v>
+        <v>58.179933591768268</v>
       </c>
       <c r="O82" s="16">
-        <f ca="1">LOG(I82*H82/J82^2,W$3)</f>
-        <v>46.82807110712173</v>
+        <f>LOG(I82*H82/J82^2,W$3)</f>
+        <v>32.98800853282647</v>
       </c>
       <c r="P82" s="11">
         <f>LOG(K82/J82+1,X$3)</f>
-        <v>11.846026919809807</v>
-      </c>
-      <c r="Q82" s="29">
-        <f>LOG(L82*M82/J82+1,Y$3)</f>
-        <v>51.678331042673229</v>
+        <v>5.0276810481450447</v>
       </c>
       <c r="R82" s="16">
-        <f ca="1">(N82+O82)/2</f>
-        <v>29.977582617240543</v>
+        <f>(N82+O82)/2</f>
+        <v>45.583971062297366</v>
       </c>
       <c r="S82" s="11">
-        <f ca="1">(N82+O82+P82)/3</f>
-        <v>23.933730718096964</v>
+        <f>(N82+O82+P82)/3</f>
+        <v>32.065207724246591</v>
       </c>
       <c r="T82" s="12">
-        <f ca="1">(N82+O82+Q82)/3</f>
-        <v>37.2111654257181</v>
+        <f>(N82+O82+Q82)/3</f>
+        <v>30.389314041531577</v>
       </c>
       <c r="U82" s="29">
-        <f ca="1">(N82*2+O82*2+P82+Q82)/6</f>
-        <v>30.572448071907534</v>
+        <f>(N82*2+O82*2+P82+Q82)/6</f>
+        <v>31.227260882889084</v>
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="41" t="s">
-        <v>9</v>
+      <c r="B83" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="C83" s="37">
         <v>2023</v>
       </c>
       <c r="D83" s="25">
-        <v>15058000</v>
+        <v>655000</v>
       </c>
       <c r="E83" s="8">
-        <v>107002000</v>
+        <v>22578000</v>
       </c>
       <c r="F83" s="8">
-        <v>507211000</v>
+        <v>136722000</v>
       </c>
       <c r="G83" s="8">
-        <v>985279000</v>
+        <v>216104000</v>
       </c>
       <c r="H83" s="6" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">G83/INDIRECT("EUR!$B$48")</f>
-        <v>1150238096.0719693</v>
+        <v>252284940.11699921</v>
       </c>
       <c r="I83" s="11">
-        <v>3530</v>
+        <v>880</v>
       </c>
       <c r="J83" s="13">
-        <v>37190</v>
+        <v>12480</v>
       </c>
       <c r="K83" s="14">
-        <v>74.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L83" s="15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N83" s="35">
         <f>LOG((D83+E83)/(F83+E83)+1,V$3)</f>
-        <v>17.477418794817119</v>
+        <v>13.078110703845292</v>
       </c>
       <c r="O83" s="16">
         <f ca="1">LOG(I83*H83/J83^2,W$3)</f>
-        <v>51.486688516636164</v>
+        <v>46.649193644318665</v>
       </c>
       <c r="P83" s="11">
         <f>LOG(K83/J83+1,X$3)</f>
-        <v>33.881624411348902</v>
+        <v>11.10597690702145</v>
       </c>
       <c r="Q83" s="29">
         <f>LOG(L83*M83/J83+1,Y$3)</f>
-        <v>9.3056771579817319</v>
+        <v>52.525514916985003</v>
       </c>
       <c r="R83" s="16">
         <f ca="1">(N83+O83)/2</f>
-        <v>34.482053655726645</v>
+        <v>29.863652174081977</v>
       </c>
       <c r="S83" s="11">
         <f ca="1">(N83+O83+P83)/3</f>
-        <v>34.281910574267393</v>
+        <v>23.611093751728465</v>
       </c>
       <c r="T83" s="12">
         <f ca="1">(N83+O83+Q83)/3</f>
-        <v>26.08992815647834</v>
+        <v>37.417606421716322</v>
       </c>
       <c r="U83" s="29">
         <f ca="1">(N83*2+O83*2+P83+Q83)/6</f>
-        <v>30.185919365372868</v>
+        <v>30.514350086722391</v>
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="41" t="s">
-        <v>10</v>
+      <c r="B84" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="C84" s="37">
         <v>2023</v>
       </c>
       <c r="D84" s="25">
-        <v>3189000</v>
+        <v>15058000</v>
       </c>
       <c r="E84" s="8">
-        <v>59459000</v>
+        <v>107002000</v>
       </c>
       <c r="F84" s="8">
-        <v>256284000</v>
+        <v>507211000</v>
       </c>
       <c r="G84" s="8">
-        <v>518675000</v>
+        <v>985279000</v>
       </c>
       <c r="H84" s="6" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">G84/INDIRECT("EUR!$B$48")</f>
-        <v>605513508.84381855</v>
+        <v>1150238096.0719693</v>
       </c>
       <c r="I84" s="11">
-        <v>2160</v>
+        <v>3530</v>
       </c>
       <c r="J84" s="13">
-        <v>23420</v>
+        <v>37190</v>
       </c>
       <c r="K84" s="14">
-        <v>35.11</v>
+        <v>74.2</v>
       </c>
       <c r="L84" s="15">
         <v>1.5</v>
       </c>
       <c r="M84" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N84" s="35">
         <f>LOG((D84+E84)/(F84+E84)+1,V$3)</f>
-        <v>17.452374144175071</v>
+        <v>17.412202243579411</v>
       </c>
       <c r="O84" s="16">
         <f ca="1">LOG(I84*H84/J84^2,W$3)</f>
-        <v>50.145869449885168</v>
+        <v>51.290015709231398</v>
       </c>
       <c r="P84" s="11">
         <f>LOG(K84/J84+1,X$3)</f>
-        <v>25.464666170304895</v>
+        <v>31.76495721578663</v>
       </c>
       <c r="Q84" s="29">
         <f>LOG(L84*M84/J84+1,Y$3)</f>
-        <v>18.874720018826647</v>
+        <v>9.4582289039211211</v>
       </c>
       <c r="R84" s="16">
         <f ca="1">(N84+O84)/2</f>
-        <v>33.799121797030118</v>
+        <v>34.351108976405406</v>
       </c>
       <c r="S84" s="11">
         <f ca="1">(N84+O84+P84)/3</f>
-        <v>31.020969921455045</v>
+        <v>33.489058389532481</v>
       </c>
       <c r="T84" s="12">
         <f ca="1">(N84+O84+Q84)/3</f>
-        <v>28.824321204295629</v>
+        <v>26.053482285577314</v>
       </c>
       <c r="U84" s="29">
         <f ca="1">(N84*2+O84*2+P84+Q84)/6</f>
-        <v>29.922645562875335</v>
+        <v>29.771270337554895</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="37">
@@ -8069,405 +8068,479 @@
       </c>
       <c r="N85" s="35">
         <f>LOG((D85+E85)/(F85+E85)+1,V$3)</f>
-        <v>19.004450720024725</v>
+        <v>18.933536087339114</v>
       </c>
       <c r="O85" s="16">
         <f ca="1">LOG(I85*H85/J85^2,W$3)</f>
-        <v>49.357447586547529</v>
+        <v>49.168908217191053</v>
       </c>
       <c r="P85" s="11">
         <f>LOG(K85/J85+1,X$3)</f>
-        <v>17.51594811798001</v>
+        <v>16.421684385805456</v>
       </c>
       <c r="Q85" s="29">
         <f>LOG(L85*M85/J85+1,Y$3)</f>
-        <v>25.230233430341595</v>
+        <v>25.643842896360482</v>
       </c>
       <c r="R85" s="16">
         <f ca="1">(N85+O85)/2</f>
-        <v>34.180949153286129</v>
+        <v>34.051222152265083</v>
       </c>
       <c r="S85" s="11">
         <f ca="1">(N85+O85+P85)/3</f>
-        <v>28.625948808184091</v>
+        <v>28.174709563445209</v>
       </c>
       <c r="T85" s="12">
         <f ca="1">(N85+O85+Q85)/3</f>
-        <v>31.197377245637952</v>
+        <v>31.248762400296883</v>
       </c>
       <c r="U85" s="29">
         <f ca="1">(N85*2+O85*2+P85+Q85)/6</f>
-        <v>29.911663026911018</v>
+        <v>29.711735981871044</v>
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="41" t="s">
-        <v>8</v>
+      <c r="B86" s="40" t="s">
+        <v>10</v>
       </c>
       <c r="C86" s="37">
         <v>2023</v>
       </c>
       <c r="D86" s="25">
-        <v>1500000</v>
+        <v>3189000</v>
       </c>
       <c r="E86" s="8">
-        <v>46700000</v>
+        <v>59459000</v>
       </c>
       <c r="F86" s="8">
-        <v>205900000</v>
+        <v>256284000</v>
       </c>
       <c r="G86" s="8">
-        <v>363000000</v>
+        <v>518675000</v>
       </c>
       <c r="H86" s="6" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">G86/INDIRECT("EUR!$B$48")</f>
-        <v>423774817.96945322</v>
+        <v>605513508.84381855</v>
       </c>
       <c r="I86" s="11">
-        <v>1290</v>
+        <v>2160</v>
       </c>
       <c r="J86" s="13">
-        <v>18890</v>
+        <v>23420</v>
       </c>
       <c r="K86" s="14">
-        <v>34.130000000000003</v>
+        <v>35.11</v>
       </c>
       <c r="L86" s="15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N86" s="35">
         <f>LOG((D86+E86)/(F86+E86)+1,V$3)</f>
-        <v>16.839024650469238</v>
+        <v>17.387251046425032</v>
       </c>
       <c r="O86" s="16">
         <f ca="1">LOG(I86*H86/J86^2,W$3)</f>
-        <v>47.293035848389415</v>
+        <v>49.954318406137709</v>
       </c>
       <c r="P86" s="11">
         <f>LOG(K86/J86+1,X$3)</f>
-        <v>30.685391573423843</v>
+        <v>23.873826756165869</v>
       </c>
       <c r="Q86" s="29">
         <f>LOG(L86*M86/J86+1,Y$3)</f>
-        <v>17.365283970047823</v>
+        <v>19.184140971660739</v>
       </c>
       <c r="R86" s="16">
         <f ca="1">(N86+O86)/2</f>
-        <v>32.066030249429325</v>
+        <v>33.670784726281369</v>
       </c>
       <c r="S86" s="11">
         <f ca="1">(N86+O86+P86)/3</f>
-        <v>31.605817357427497</v>
+        <v>30.405132069576201</v>
       </c>
       <c r="T86" s="12">
         <f ca="1">(N86+O86+Q86)/3</f>
-        <v>27.165781489635492</v>
+        <v>28.841903474741159</v>
       </c>
       <c r="U86" s="29">
         <f ca="1">(N86*2+O86*2+P86+Q86)/6</f>
-        <v>29.385799423531495</v>
+        <v>29.623517772158682</v>
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="41" t="s">
-        <v>6</v>
+      <c r="B87" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C87" s="22">
         <v>2023</v>
       </c>
       <c r="D87" s="25">
-        <v>1397000</v>
+        <v>1500000</v>
       </c>
       <c r="E87" s="8">
-        <v>90199000</v>
+        <v>46700000</v>
       </c>
       <c r="F87" s="8">
-        <v>310617000</v>
+        <v>205900000</v>
       </c>
       <c r="G87" s="8">
-        <v>636381000</v>
+        <v>363000000</v>
       </c>
       <c r="H87" s="6" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">G87/INDIRECT("EUR!$B$48")</f>
-        <v>742926287.69757187</v>
+        <v>423774817.96945322</v>
       </c>
       <c r="I87" s="11">
-        <v>2940</v>
+        <v>1290</v>
       </c>
       <c r="J87" s="13">
-        <v>33985</v>
+        <v>18890</v>
       </c>
       <c r="K87" s="14">
-        <v>41.21</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="L87" s="15">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M87" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N87" s="35">
         <f>LOG((D87+E87)/(F87+E87)+1,V$3)</f>
-        <v>19.844979724811896</v>
+        <v>16.776190251019131</v>
       </c>
       <c r="O87" s="16">
         <f ca="1">LOG(I87*H87/J87^2,W$3)</f>
-        <v>48.65094845960212</v>
+        <v>47.112382277554467</v>
       </c>
       <c r="P87" s="11">
         <f>LOG(K87/J87+1,X$3)</f>
-        <v>20.60020501372356</v>
+        <v>28.768400789927242</v>
       </c>
       <c r="Q87" s="29">
         <f>LOG(L87*M87/J87+1,Y$3)</f>
-        <v>16.665591380341432</v>
+        <v>17.649960124549043</v>
       </c>
       <c r="R87" s="16">
         <f ca="1">(N87+O87)/2</f>
-        <v>34.247964092207006</v>
+        <v>31.944286264286799</v>
       </c>
       <c r="S87" s="11">
         <f ca="1">(N87+O87+P87)/3</f>
-        <v>29.69871106604586</v>
+        <v>30.885657772833611</v>
       </c>
       <c r="T87" s="12">
         <f ca="1">(N87+O87+Q87)/3</f>
-        <v>28.387173188251818</v>
+        <v>27.179510884374213</v>
       </c>
       <c r="U87" s="29">
         <f ca="1">(N87*2+O87*2+P87+Q87)/6</f>
-        <v>29.042942127148834</v>
+        <v>29.032584328603914</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="41" t="s">
-        <v>95</v>
+      <c r="B88" s="40" t="s">
+        <v>6</v>
       </c>
       <c r="C88" s="22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D88" s="25">
-        <v>4300000</v>
+        <v>1397000</v>
       </c>
       <c r="E88" s="8">
-        <v>108500000</v>
+        <v>90199000</v>
       </c>
       <c r="F88" s="8">
-        <v>433700000</v>
+        <v>310617000</v>
       </c>
       <c r="G88" s="8">
-        <v>801800000</v>
+        <v>636381000</v>
       </c>
       <c r="H88" s="6" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">G88/INDIRECT("EUR!$B$48")</f>
-        <v>936040355.50387764</v>
+        <v>742926287.69757187</v>
       </c>
       <c r="I88" s="11">
-        <v>3320</v>
+        <v>2940</v>
       </c>
       <c r="J88" s="13">
-        <v>37260</v>
+        <v>33985</v>
       </c>
       <c r="K88" s="14">
-        <v>57.68</v>
+        <v>41.21</v>
       </c>
       <c r="L88" s="15">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M88" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N88" s="35">
         <f>LOG((D88+E88)/(F88+E88)+1,V$3)</f>
-        <v>18.22383285522476</v>
+        <v>19.770928679161017</v>
       </c>
       <c r="O88" s="16">
         <f ca="1">LOG(I88*H88/J88^2,W$3)</f>
-        <v>49.738204943488157</v>
+        <v>48.465107829875791</v>
       </c>
       <c r="P88" s="11">
         <f>LOG(K88/J88+1,X$3)</f>
-        <v>26.294556229935466</v>
+        <v>19.313260277986487</v>
       </c>
       <c r="Q88" s="29">
         <f>LOG(L88*M88/J88+1,Y$3)</f>
-        <v>10.594889362228288</v>
+        <v>16.938797189980214</v>
       </c>
       <c r="R88" s="16">
         <f ca="1">(N88+O88)/2</f>
-        <v>33.981018899356457</v>
+        <v>34.118018254518404</v>
       </c>
       <c r="S88" s="11">
         <f ca="1">(N88+O88+P88)/3</f>
-        <v>31.418864676216128</v>
+        <v>29.183098929007766</v>
       </c>
       <c r="T88" s="12">
         <f ca="1">(N88+O88+Q88)/3</f>
-        <v>26.185642386980401</v>
+        <v>28.391611233005676</v>
       </c>
       <c r="U88" s="29">
         <f ca="1">(N88*2+O88*2+P88+Q88)/6</f>
-        <v>28.802253531598264</v>
+        <v>28.787355081006723</v>
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="43">
-        <v>2023</v>
-      </c>
-      <c r="D89" s="26">
-        <v>5500000</v>
-      </c>
-      <c r="E89" s="9">
-        <v>12600000</v>
-      </c>
-      <c r="F89" s="9">
-        <v>219892056</v>
-      </c>
-      <c r="G89" s="9">
-        <v>291098453</v>
-      </c>
-      <c r="H89" s="6">
-        <f>G89</f>
-        <v>291098453</v>
+      <c r="A89" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="42">
+        <v>2022</v>
+      </c>
+      <c r="D89" s="25">
+        <v>4300000</v>
+      </c>
+      <c r="E89" s="8">
+        <v>108500000</v>
+      </c>
+      <c r="F89" s="8">
+        <v>433700000</v>
+      </c>
+      <c r="G89" s="8">
+        <v>801800000</v>
+      </c>
+      <c r="H89" s="6" cm="1">
+        <f t="array" aca="1" ref="H89" ca="1">G89/INDIRECT("EUR!$B$48")</f>
+        <v>936040355.50387764</v>
       </c>
       <c r="I89" s="11">
-        <v>689</v>
+        <v>3320</v>
       </c>
       <c r="J89" s="13">
-        <v>15107</v>
+        <v>37260</v>
       </c>
       <c r="K89" s="14">
-        <v>1.68</v>
+        <v>57.68</v>
       </c>
       <c r="L89" s="15">
         <v>1.4</v>
       </c>
       <c r="M89" s="12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N89" s="35">
         <f>LOG((D89+E89)/(F89+E89)+1,V$3)</f>
-        <v>7.2288031258826457</v>
+        <v>18.155831078583539</v>
       </c>
       <c r="O89" s="16">
-        <f>LOG(I89*H89/J89^2,W$3)</f>
-        <v>43.709478338076657</v>
+        <f ca="1">LOG(I89*H89/J89^2,W$3)</f>
+        <v>49.54821112793428</v>
       </c>
       <c r="P89" s="11">
         <f>LOG(K89/J89+1,X$3)</f>
-        <v>1.8902806387719884</v>
+        <v>24.651871572374322</v>
       </c>
       <c r="Q89" s="29">
         <f>LOG(L89*M89/J89+1,Y$3)</f>
-        <v>11.877270462705855</v>
+        <v>10.768575687554574</v>
       </c>
       <c r="R89" s="16">
-        <f>(N89+O89)/2</f>
-        <v>25.46914073197965</v>
+        <f ca="1">(N89+O89)/2</f>
+        <v>33.852021103258906</v>
       </c>
       <c r="S89" s="11">
-        <f>(N89+O89+P89)/3</f>
-        <v>17.60952070091043</v>
+        <f ca="1">(N89+O89+P89)/3</f>
+        <v>30.785304592964042</v>
       </c>
       <c r="T89" s="12">
-        <f>(N89+O89+Q89)/3</f>
-        <v>20.938517308888382</v>
+        <f ca="1">(N89+O89+Q89)/3</f>
+        <v>26.15753929802413</v>
       </c>
       <c r="U89" s="29">
-        <f>(N89*2+O89*2+P89+Q89)/6</f>
-        <v>19.274019004899404</v>
+        <f ca="1">(N89*2+O89*2+P89+Q89)/6</f>
+        <v>28.471421945494086</v>
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>96</v>
+      <c r="A90" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="C90" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D90" s="25">
-        <v>5800000</v>
-      </c>
-      <c r="E90" s="8">
-        <v>113800000</v>
-      </c>
-      <c r="F90" s="8">
-        <v>432100000</v>
-      </c>
-      <c r="G90" s="8">
-        <v>554000000</v>
-      </c>
-      <c r="H90" s="6" cm="1">
-        <f t="array" aca="1" ref="H90" ca="1">G90/INDIRECT("EUR!$B$48")</f>
-        <v>646752752.49332523</v>
+        <v>2023</v>
+      </c>
+      <c r="D90" s="26">
+        <v>5500000</v>
+      </c>
+      <c r="E90" s="9">
+        <v>12600000</v>
+      </c>
+      <c r="F90" s="9">
+        <v>219892056</v>
+      </c>
+      <c r="G90" s="9">
+        <v>291098453</v>
+      </c>
+      <c r="H90" s="6">
+        <f>G90</f>
+        <v>291098453</v>
       </c>
       <c r="I90" s="11">
-        <v>3255</v>
+        <v>689</v>
       </c>
       <c r="J90" s="13">
-        <v>151840</v>
+        <v>15107</v>
       </c>
       <c r="K90" s="14">
-        <v>4.3600000000000003</v>
+        <v>1.68</v>
       </c>
       <c r="L90" s="15">
         <v>1.4</v>
       </c>
       <c r="M90" s="12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N90" s="35">
         <f>LOG((D90+E90)/(F90+E90)+1,V$3)</f>
-        <v>19.101519267482789</v>
+        <v>7.2018290277631767</v>
       </c>
       <c r="O90" s="16">
-        <f ca="1">LOG(I90*H90/J90^2,W$3)</f>
-        <v>29.108696969933902</v>
+        <f>LOG(I90*H90/J90^2,W$3)</f>
+        <v>43.54251351546683</v>
       </c>
       <c r="P90" s="11">
         <f>LOG(K90/J90+1,X$3)</f>
-        <v>0.48810520593105122</v>
+        <v>1.7721902258118891</v>
       </c>
       <c r="Q90" s="29">
         <f>LOG(L90*M90/J90+1,Y$3)</f>
-        <v>1.8914627294435811</v>
+        <v>12.071979382359919</v>
       </c>
       <c r="R90" s="16">
-        <f ca="1">(N90+O90)/2</f>
-        <v>24.105108118708344</v>
+        <f>(N90+O90)/2</f>
+        <v>25.372171271615002</v>
       </c>
       <c r="S90" s="11">
-        <f ca="1">(N90+O90+P90)/3</f>
-        <v>16.232773814449246</v>
+        <f>(N90+O90+P90)/3</f>
+        <v>17.505510923013965</v>
       </c>
       <c r="T90" s="12">
-        <f ca="1">(N90+O90+Q90)/3</f>
-        <v>16.70055965562009</v>
+        <f>(N90+O90+Q90)/3</f>
+        <v>20.938773975196643</v>
       </c>
       <c r="U90" s="29">
-        <f ca="1">(N90*2+O90*2+P90+Q90)/6</f>
-        <v>16.466666735034668</v>
+        <f>(N90*2+O90*2+P90+Q90)/6</f>
+        <v>19.222142449105302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="22">
+        <v>2022</v>
+      </c>
+      <c r="D91" s="25">
+        <v>5800000</v>
+      </c>
+      <c r="E91" s="8">
+        <v>113800000</v>
+      </c>
+      <c r="F91" s="8">
+        <v>432100000</v>
+      </c>
+      <c r="G91" s="8">
+        <v>554000000</v>
+      </c>
+      <c r="H91" s="6" cm="1">
+        <f t="array" aca="1" ref="H91" ca="1">G91/INDIRECT("EUR!$B$48")</f>
+        <v>646752752.49332523</v>
+      </c>
+      <c r="I91" s="11">
+        <v>3255</v>
+      </c>
+      <c r="J91" s="13">
+        <v>151840</v>
+      </c>
+      <c r="K91" s="14">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L91" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M91" s="12">
+        <v>16</v>
+      </c>
+      <c r="N91" s="35">
+        <f>LOG((D91+E91)/(F91+E91)+1,V$3)</f>
+        <v>19.030242425939388</v>
+      </c>
+      <c r="O91" s="16">
+        <f ca="1">LOG(I91*H91/J91^2,W$3)</f>
+        <v>28.997505333456409</v>
+      </c>
+      <c r="P91" s="11">
+        <f>LOG(K91/J91+1,X$3)</f>
+        <v>0.45761209070038472</v>
+      </c>
+      <c r="Q91" s="29">
+        <f>LOG(L91*M91/J91+1,Y$3)</f>
+        <v>1.9224702463450682</v>
+      </c>
+      <c r="R91" s="16">
+        <f ca="1">(N91+O91)/2</f>
+        <v>24.013873879697897</v>
+      </c>
+      <c r="S91" s="11">
+        <f ca="1">(N91+O91+P91)/3</f>
+        <v>16.161786616698727</v>
+      </c>
+      <c r="T91" s="12">
+        <f ca="1">(N91+O91+Q91)/3</f>
+        <v>16.65007266858029</v>
+      </c>
+      <c r="U91" s="29">
+        <f ca="1">(N91*2+O91*2+P91+Q91)/6</f>
+        <v>16.405929642639506</v>
       </c>
     </row>
   </sheetData>

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7614A2-8D09-417F-853E-F2A241F430C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C95394-070C-421F-8315-03027EE85E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="308">
   <si>
     <t>University of Oxford</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1143,41 @@
   </si>
   <si>
     <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Neuchâtel (UniNE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Applied Sciences and Arts of Southern Switzerland (SUPSI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghent University (UGent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catholic University of Louvain (UCLouvain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université Libre de Bruxelles (ULB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Antwerp (UA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Mons (UMONS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,7 +1198,7 @@
     <numFmt numFmtId="185" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
     <numFmt numFmtId="186" formatCode="#,##0\ [$kr-40F]"/>
     <numFmt numFmtId="187" formatCode="#,##0\ [$Kč-405]"/>
-    <numFmt numFmtId="192" formatCode="#,##0\ [$Ft-40E]"/>
+    <numFmt numFmtId="188" formatCode="#,##0\ [$Ft-40E]"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1315,7 +1350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,10 +1537,19 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,6 +1557,55 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="0_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1568,55 +1661,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1845,7 +1889,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}" name="表1" displayName="表1" ref="A1:U1048575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:U1048575" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U97">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U103">
     <sortCondition descending="1" ref="U1:U1048575"/>
   </sortState>
   <tableColumns count="21">
@@ -1862,14 +1906,14 @@
     <tableColumn id="10" xr3:uid="{3E76C4E5-9D66-466B-BF8E-A486CC92A13D}" name="NIS" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{D4243BB1-EB3E-477E-A90B-C6D13C532576}" name="CSRC" dataDxfId="10"/>
     <tableColumn id="12" xr3:uid="{45E05A20-398F-4E6E-AAFC-9BD8B4E73824}" name="CSRF" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{2A73CD19-28FD-4E82-B34C-F9B4BE6FFD4D}" name="Rept" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{41295E7A-98D2-4C01-825F-510D20E55408}" name="Tng" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{AE79D0CB-3077-4A52-8FA1-10B004A9280A}" name="NSR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{AE11B381-AD52-43F6-AEFB-CFB403AFCE98}" name="CSR" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{681D3618-BD6F-4C58-B6EC-2A457926E107}" name="Edu" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{A8F46486-5470-48F7-8B87-284C5D4AD176}" name="NST" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{BACF735A-CA49-4755-9785-0E00DBF080BE}" name="CST" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{F542F6A9-D799-4BE7-AB70-21BD3203CDEA}" name="SCST" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{2A73CD19-28FD-4E82-B34C-F9B4BE6FFD4D}" name="Rept" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{41295E7A-98D2-4C01-825F-510D20E55408}" name="Tng" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{AE79D0CB-3077-4A52-8FA1-10B004A9280A}" name="NSR" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{AE11B381-AD52-43F6-AEFB-CFB403AFCE98}" name="CSR" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{681D3618-BD6F-4C58-B6EC-2A457926E107}" name="Edu" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{A8F46486-5470-48F7-8B87-284C5D4AD176}" name="NST" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{BACF735A-CA49-4755-9785-0E00DBF080BE}" name="CST" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{F542F6A9-D799-4BE7-AB70-21BD3203CDEA}" name="SCST" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,7 +1924,7 @@
   <autoFilter ref="A1:B163" xr:uid="{038A5B3D-FAAA-422D-80C2-5D80A10B0A01}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2B1F448-73DA-4A64-8316-3FB8D3B757FE}" uniqueName="1" name="Name" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D2A435F2-9FDF-48E5-8D7C-94FA0A2AA367}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D2A435F2-9FDF-48E5-8D7C-94FA0A2AA367}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2183,17 +2227,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="12.78515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.92578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.640625" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.2109375" style="8" bestFit="1" customWidth="1"/>
@@ -2302,7 +2346,7 @@
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="21">
@@ -2341,42 +2385,42 @@
       </c>
       <c r="N2" s="34">
         <f>LOG((D2+E2)/(F2+E2)+1,V$3)</f>
-        <v>65.59291768814046</v>
+        <v>65.185550854545539</v>
       </c>
       <c r="O2" s="16">
         <f ca="1">LOG(I2*H2/J2^2,W$3)</f>
-        <v>66.95254944233703</v>
+        <v>66.992841410786198</v>
       </c>
       <c r="P2" s="11">
         <f>LOG(K2/J2+1,X$3)</f>
-        <v>245.88218353549004</v>
+        <v>257.19748336662678</v>
       </c>
       <c r="Q2" s="28">
         <f>LOG(L2*M2/J2+1,Y$3)</f>
-        <v>373.47370264673515</v>
+        <v>378.80110742927531</v>
       </c>
       <c r="R2" s="16">
         <f ca="1">(N2+O2)/2</f>
-        <v>66.272733565238752</v>
+        <v>66.089196132665876</v>
       </c>
       <c r="S2" s="11">
         <f ca="1">(N2+O2+P2)/3</f>
-        <v>126.1425502219892</v>
+        <v>129.79195854398617</v>
       </c>
       <c r="T2" s="12">
         <f ca="1">(N2+O2+Q2)/3</f>
-        <v>168.67305659240421</v>
+        <v>170.32649989820234</v>
       </c>
       <c r="U2" s="28">
         <f ca="1">(N2*2+O2*2+P2+Q2)/6</f>
-        <v>147.40780340719672</v>
-      </c>
-      <c r="V2" s="57" t="s">
+        <v>150.05922922109426</v>
+      </c>
+      <c r="V2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="37" t="s">
@@ -2419,47 +2463,47 @@
       </c>
       <c r="N3" s="34">
         <f>LOG((D3+E3)/(F3+E3)+1,V$3)</f>
-        <v>64.239851206856159</v>
+        <v>63.840887634277074</v>
       </c>
       <c r="O3" s="16">
         <f ca="1">LOG(I3*H3/J3^2,W$3)</f>
-        <v>54.39298806874956</v>
+        <v>54.425721707384319</v>
       </c>
       <c r="P3" s="11">
         <f>LOG(K3/J3+1,X$3)</f>
-        <v>3.3359003205471254</v>
+        <v>3.4894157635573655</v>
       </c>
       <c r="Q3" s="28">
         <f>LOG(L3*M3/J3+1,Y$3)</f>
-        <v>638.62535594315193</v>
+        <v>647.73500878187156</v>
       </c>
       <c r="R3" s="16">
         <f ca="1">(N3+O3)/2</f>
-        <v>59.316419637802859</v>
+        <v>59.133304670830697</v>
       </c>
       <c r="S3" s="11">
         <f ca="1">(N3+O3+P3)/3</f>
-        <v>40.65624653205095</v>
+        <v>40.585341701739587</v>
       </c>
       <c r="T3" s="12">
         <f ca="1">(N3+O3+Q3)/3</f>
-        <v>252.41939840625255</v>
+        <v>255.33387270784431</v>
       </c>
       <c r="U3" s="28">
         <f ca="1">(N3*2+O3*2+P3+Q3)/6</f>
-        <v>146.53782246915173</v>
+        <v>147.95960720479195</v>
       </c>
       <c r="V3" s="3">
-        <v>1.0106332268382574</v>
+        <v>1.0107000317695256</v>
       </c>
       <c r="W3" s="3">
-        <v>1.1659134353485443</v>
+        <v>1.1658057991298898</v>
       </c>
       <c r="X3" s="3">
-        <v>1.000059917246676</v>
+        <v>1.0000572811360122</v>
       </c>
       <c r="Y3" s="31">
-        <v>1.0000759584294487</v>
+        <v>1.0000748901209233</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2505,42 +2549,42 @@
       </c>
       <c r="N4" s="34">
         <f>LOG((D4+E4)/(F4+E4)+1,V$3)</f>
-        <v>68.682969237810923</v>
+        <v>68.256411543985934</v>
       </c>
       <c r="O4" s="16">
         <f ca="1">LOG(I4*H4/J4^2,W$3)</f>
-        <v>65.64042414585208</v>
+        <v>65.679926478783429</v>
       </c>
       <c r="P4" s="11">
         <f>LOG(K4/J4+1,X$3)</f>
-        <v>229.56982833553647</v>
+        <v>240.13444673304735</v>
       </c>
       <c r="Q4" s="28">
         <f>LOG(L4*M4/J4+1,Y$3)</f>
-        <v>245.00172590792843</v>
+        <v>248.49654591020069</v>
       </c>
       <c r="R4" s="16">
         <f ca="1">(N4+O4)/2</f>
-        <v>67.161696691831509</v>
+        <v>66.968169011384674</v>
       </c>
       <c r="S4" s="11">
         <f ca="1">(N4+O4+P4)/3</f>
-        <v>121.29774057306649</v>
+        <v>124.69026158527224</v>
       </c>
       <c r="T4" s="12">
         <f ca="1">(N4+O4+Q4)/3</f>
-        <v>126.44170643053049</v>
+        <v>127.4776279776567</v>
       </c>
       <c r="U4" s="28">
         <f ca="1">(N4*2+O4*2+P4+Q4)/6</f>
-        <v>123.86972350179849</v>
-      </c>
-      <c r="V4" s="57" t="s">
+        <v>126.08394478146447</v>
+      </c>
+      <c r="V4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="42" t="s">
@@ -2577,47 +2621,47 @@
       </c>
       <c r="N5" s="34">
         <f>LOG((D5+E5)/(F5+E5)+1,V$3)</f>
-        <v>65.553212071439731</v>
+        <v>65.146091830799051</v>
       </c>
       <c r="O5" s="16">
         <f>LOG(I5*H5/J5^2,W$3)</f>
-        <v>67.946057987609535</v>
+        <v>67.986947848376374</v>
       </c>
       <c r="P5" s="11">
         <f>LOG(K5/J5+1,X$3)</f>
-        <v>343.50304952046957</v>
+        <v>359.31078289238707</v>
       </c>
       <c r="R5" s="16">
         <f>(N5+O5)/2</f>
-        <v>66.749635029524626</v>
+        <v>66.566519839587713</v>
       </c>
       <c r="S5" s="11">
         <f>(N5+O5+P5)/3</f>
-        <v>159.00077319317293</v>
+        <v>164.14794085718748</v>
       </c>
       <c r="T5" s="12">
         <f>(N5+O5+Q5)/3</f>
-        <v>44.499756686349748</v>
+        <v>44.377679893058477</v>
       </c>
       <c r="U5" s="28">
         <f>(N5*2+O5*2+P5+Q5)/6</f>
-        <v>101.75026493976134</v>
+        <v>104.26281037512298</v>
       </c>
       <c r="V5" s="2">
-        <f>AVERAGE(N$1:N$1048575)</f>
-        <v>49.999985839205159</v>
+        <f>AVERAGE(N:N,N102,N101)</f>
+        <v>49.999990212039002</v>
       </c>
       <c r="W5" s="2">
         <f ca="1">AVERAGE(O$1:O$1048575)</f>
-        <v>50.000005771882755</v>
+        <v>50.000011387409394</v>
       </c>
       <c r="X5" s="2">
         <f>AVERAGE(P$1:P$1048575)</f>
-        <v>49.999993203179208</v>
+        <v>49.999993455809609</v>
       </c>
       <c r="Y5" s="18">
         <f>AVERAGE(Q$1:Q$1048575)</f>
-        <v>50.000029122811547</v>
+        <v>49.999996308621597</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2661,40 +2705,40 @@
       </c>
       <c r="N6" s="34">
         <f>LOG((D6+E6)/(F6+E6)+1,V$3)</f>
-        <v>57.815213780518704</v>
+        <v>57.456150616361846</v>
       </c>
       <c r="O6" s="16">
         <f ca="1">LOG(I6*H6/J6^2,W$3)</f>
-        <v>77.084389962933386</v>
+        <v>77.130779261536333</v>
       </c>
       <c r="P6" s="11">
         <f>LOG(K6/J6+1,X$3)</f>
-        <v>323.14094680994481</v>
+        <v>338.01163263311742</v>
       </c>
       <c r="Q6" s="28">
         <f>LOG(L6*M6/J6+1,Y$3)</f>
-        <v>3.0607634772712768</v>
+        <v>3.1044236489821158</v>
       </c>
       <c r="R6" s="16">
         <f ca="1">(N6+O6)/2</f>
-        <v>67.449801871726038</v>
+        <v>67.293464938949086</v>
       </c>
       <c r="S6" s="11">
         <f ca="1">(N6+O6+P6)/3</f>
-        <v>152.68018351779895</v>
+        <v>157.53285417033854</v>
       </c>
       <c r="T6" s="12">
         <f ca="1">(N6+O6+Q6)/3</f>
-        <v>45.98678907357445</v>
+        <v>45.897117842293426</v>
       </c>
       <c r="U6" s="28">
         <f ca="1">(N6*2+O6*2+P6+Q6)/6</f>
-        <v>99.333486295686711</v>
-      </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="59"/>
+        <v>101.71498600631598</v>
+      </c>
+      <c r="V6" s="65"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="37" t="s">
@@ -2739,35 +2783,35 @@
       </c>
       <c r="N7" s="34">
         <f>LOG((D7+E7)/(F7+E7)+1,V$3)</f>
-        <v>42.57702655290543</v>
+        <v>42.312600619404371</v>
       </c>
       <c r="O7" s="16">
         <f ca="1">LOG(I7*H7/J7^2,W$3)</f>
-        <v>67.519570045751237</v>
+        <v>67.560203246557535</v>
       </c>
       <c r="P7" s="11">
         <f>LOG(K7/J7+1,X$3)</f>
-        <v>268.38717180645159</v>
+        <v>280.73813305201276</v>
       </c>
       <c r="Q7" s="28">
         <f>LOG(L7*M7/J7+1,Y$3)</f>
-        <v>89.137438409768336</v>
+        <v>90.40893681065242</v>
       </c>
       <c r="R7" s="16">
         <f ca="1">(N7+O7)/2</f>
-        <v>55.048298299328337</v>
+        <v>54.936401932980957</v>
       </c>
       <c r="S7" s="11">
         <f ca="1">(N7+O7+P7)/3</f>
-        <v>126.16125613503608</v>
+        <v>130.20364563932489</v>
       </c>
       <c r="T7" s="12">
         <f ca="1">(N7+O7+Q7)/3</f>
-        <v>66.411345002808332</v>
+        <v>66.760580225538106</v>
       </c>
       <c r="U7" s="28">
         <f ca="1">(N7*2+O7*2+P7+Q7)/6</f>
-        <v>96.286300568922215</v>
+        <v>98.482112932431505</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2813,35 +2857,35 @@
       </c>
       <c r="N8" s="34">
         <f>LOG((D8+E8)/(F8+E8)+1,V$3)</f>
-        <v>42.223647265795037</v>
+        <v>41.961416005230056</v>
       </c>
       <c r="O8" s="16">
         <f ca="1">LOG(I8*H8/J8^2,W$3)</f>
-        <v>67.19329263229082</v>
+        <v>67.23372947971913</v>
       </c>
       <c r="P8" s="11">
         <f>LOG(K8/J8+1,X$3)</f>
-        <v>229.86458032622866</v>
+        <v>240.44276297269221</v>
       </c>
       <c r="Q8" s="28">
         <f>LOG(L8*M8/J8+1,Y$3)</f>
-        <v>86.552804120970123</v>
+        <v>87.787434081121489</v>
       </c>
       <c r="R8" s="16">
         <f ca="1">(N8+O8)/2</f>
-        <v>54.708469949042929</v>
+        <v>54.597572742474597</v>
       </c>
       <c r="S8" s="11">
         <f ca="1">(N8+O8+P8)/3</f>
-        <v>113.09384007477151</v>
+        <v>116.54596948588046</v>
       </c>
       <c r="T8" s="12">
         <f ca="1">(N8+O8+Q8)/3</f>
-        <v>65.323248006351989</v>
+        <v>65.66085985535689</v>
       </c>
       <c r="U8" s="28">
         <f ca="1">(N8*2+O8*2+P8+Q8)/6</f>
-        <v>89.208544040561762</v>
+        <v>91.10341467061869</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2887,35 +2931,35 @@
       </c>
       <c r="N9" s="34">
         <f>LOG((D9+E9)/(F9+E9)+1,V$3)</f>
-        <v>29.768883808795817</v>
+        <v>29.584003239913343</v>
       </c>
       <c r="O9" s="16">
         <f ca="1">LOG(I9*H9/J9^2,W$3)</f>
-        <v>61.644761283641941</v>
+        <v>61.681859031186804</v>
       </c>
       <c r="P9" s="11">
         <f>LOG(K9/J9+1,X$3)</f>
-        <v>167.29660658040868</v>
+        <v>174.99546152373895</v>
       </c>
       <c r="Q9" s="28">
         <f>LOG(L9*M9/J9+1,Y$3)</f>
-        <v>116.48344396971184</v>
+        <v>118.14501867254432</v>
       </c>
       <c r="R9" s="16">
         <f ca="1">(N9+O9)/2</f>
-        <v>45.706822546218881</v>
+        <v>45.632931135550074</v>
       </c>
       <c r="S9" s="11">
         <f ca="1">(N9+O9+P9)/3</f>
-        <v>86.23675055761548</v>
+        <v>88.753774598279691</v>
       </c>
       <c r="T9" s="12">
         <f ca="1">(N9+O9+Q9)/3</f>
-        <v>69.299029687383197</v>
+        <v>69.803626981214833</v>
       </c>
       <c r="U9" s="28">
         <f ca="1">(N9*2+O9*2+P9+Q9)/6</f>
-        <v>77.767890122499338</v>
+        <v>79.278700789747262</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2959,35 +3003,35 @@
       </c>
       <c r="N10" s="34">
         <f>LOG((D10+E10)/(F10+E10)+1,V$3)</f>
-        <v>64.117609352636663</v>
+        <v>63.719404966854583</v>
       </c>
       <c r="O10" s="16">
         <f ca="1">LOG(I10*H10/J10^2,W$3)</f>
-        <v>66.355932932044013</v>
+        <v>66.395865857352788</v>
       </c>
       <c r="P10" s="11">
         <f>LOG(K10/J10+1,X$3)</f>
-        <v>130.16967348258106</v>
+        <v>136.15997690025009</v>
       </c>
       <c r="Q10" s="28">
         <f>LOG(L10*M10/J10+1,Y$3)</f>
-        <v>46.460956093237122</v>
+        <v>47.12369705180636</v>
       </c>
       <c r="R10" s="16">
         <f ca="1">(N10+O10)/2</f>
-        <v>65.236771142340331</v>
+        <v>65.057635412103679</v>
       </c>
       <c r="S10" s="11">
         <f ca="1">(N10+O10+P10)/3</f>
-        <v>86.881071922420574</v>
+        <v>88.758415908152486</v>
       </c>
       <c r="T10" s="12">
         <f ca="1">(N10+O10+Q10)/3</f>
-        <v>58.978166125972592</v>
+        <v>59.079655958671232</v>
       </c>
       <c r="U10" s="28">
         <f ca="1">(N10*2+O10*2+P10+Q10)/6</f>
-        <v>72.929619024196583</v>
+        <v>73.919035933411848</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3031,35 +3075,35 @@
       </c>
       <c r="N11" s="34">
         <f>LOG((D11+E11)/(F11+E11)+1,V$3)</f>
-        <v>64.739944844555652</v>
+        <v>64.337875425051749</v>
       </c>
       <c r="O11" s="16">
         <f ca="1">LOG(I11*H11/J11^2,W$3)</f>
-        <v>60.009038269220333</v>
+        <v>60.045151640507115</v>
       </c>
       <c r="P11" s="11">
         <f>LOG(K11/J11+1,X$3)</f>
-        <v>125.9979945220193</v>
+        <v>131.79632063755417</v>
       </c>
       <c r="Q11" s="28">
         <f>LOG(L11*M11/J11+1,Y$3)</f>
-        <v>41.288048923517643</v>
+        <v>41.877001098029794</v>
       </c>
       <c r="R11" s="16">
         <f ca="1">(N11+O11)/2</f>
-        <v>62.374491556887989</v>
+        <v>62.191513532779432</v>
       </c>
       <c r="S11" s="11">
         <f ca="1">(N11+O11+P11)/3</f>
-        <v>83.582325878598425</v>
+        <v>85.393115901037675</v>
       </c>
       <c r="T11" s="12">
         <f ca="1">(N11+O11+Q11)/3</f>
-        <v>55.345677345764535</v>
+        <v>55.420009387862883</v>
       </c>
       <c r="U11" s="28">
         <f ca="1">(N11*2+O11*2+P11+Q11)/6</f>
-        <v>69.464001612181491</v>
+        <v>70.40656264445029</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3103,35 +3147,35 @@
       </c>
       <c r="N12" s="34">
         <f>LOG((D12+E12)/(F12+E12)+1,V$3)</f>
-        <v>60.169261015230383</v>
+        <v>59.795577968288363</v>
       </c>
       <c r="O12" s="16">
         <f>LOG(I12*H12/J12^2,W$3)</f>
-        <v>58.524709382016859</v>
+        <v>58.559929485859918</v>
       </c>
       <c r="P12" s="11">
         <f>LOG(K12/J12+1,X$3)</f>
-        <v>49.468837444566987</v>
+        <v>51.745353456969511</v>
       </c>
       <c r="Q12" s="28">
         <f>LOG(L12*M12/J12+1,Y$3)</f>
-        <v>129.17548499519631</v>
+        <v>131.01810494855158</v>
       </c>
       <c r="R12" s="16">
         <f>(N12+O12)/2</f>
-        <v>59.346985198623621</v>
+        <v>59.17775372707414</v>
       </c>
       <c r="S12" s="11">
         <f>(N12+O12+P12)/3</f>
-        <v>56.05426928060475</v>
+        <v>56.700286970372595</v>
       </c>
       <c r="T12" s="12">
         <f>(N12+O12+Q12)/3</f>
-        <v>82.623151797481185</v>
+        <v>83.124537467566611</v>
       </c>
       <c r="U12" s="28">
         <f>(N12*2+O12*2+P12+Q12)/6</f>
-        <v>69.338710539042964</v>
+        <v>69.912412218969607</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -3175,42 +3219,42 @@
       </c>
       <c r="N13" s="34">
         <f>LOG((D13+E13)/(F13+E13)+1,V$3)</f>
-        <v>62.515658413733945</v>
+        <v>62.127402993549921</v>
       </c>
       <c r="O13" s="16">
         <f>LOG(I13*H13/J13^2,W$3)</f>
-        <v>69.781493128608133</v>
+        <v>69.823487552164707</v>
       </c>
       <c r="P13" s="11">
         <f>LOG(K13/J13+1,X$3)</f>
-        <v>57.978579821287461</v>
+        <v>60.646707316448861</v>
       </c>
       <c r="Q13" s="28">
         <f>LOG(L13*M13/J13+1,Y$3)</f>
-        <v>76.935767729528123</v>
+        <v>78.03321575343459</v>
       </c>
       <c r="R13" s="16">
         <f>(N13+O13)/2</f>
-        <v>66.148575771171039</v>
+        <v>65.975445272857314</v>
       </c>
       <c r="S13" s="11">
         <f>(N13+O13+P13)/3</f>
-        <v>63.425243787876518</v>
+        <v>64.199199287387827</v>
       </c>
       <c r="T13" s="12">
         <f>(N13+O13+Q13)/3</f>
-        <v>69.744306423956729</v>
+        <v>69.994702099716406</v>
       </c>
       <c r="U13" s="28">
         <f>(N13*2+O13*2+P13+Q13)/6</f>
-        <v>66.58477510591662</v>
+        <v>67.096950693552117</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="21">
@@ -3241,38 +3285,38 @@
       </c>
       <c r="N14" s="34">
         <f>LOG((D14+E14)/(F14+E14)+1,V$3)</f>
-        <v>66.856666785978689</v>
+        <v>66.441451399726105</v>
       </c>
       <c r="O14" s="16">
         <f ca="1">LOG(I14*H14/J14^2,W$3)</f>
-        <v>65.974705821215892</v>
+        <v>66.014409324480994</v>
       </c>
       <c r="P14" s="11">
         <f>LOG(K14/J14+1,X$3)</f>
-        <v>129.25610635059982</v>
+        <v>135.20436814546559</v>
       </c>
       <c r="R14" s="16">
         <f ca="1">(N14+O14)/2</f>
-        <v>66.415686303597283</v>
+        <v>66.22793036210355</v>
       </c>
       <c r="S14" s="11">
         <f ca="1">(N14+O14+P14)/3</f>
-        <v>87.362492985931453</v>
+        <v>89.220076289890883</v>
       </c>
       <c r="T14" s="12">
         <f ca="1">(N14+O14+Q14)/3</f>
-        <v>44.277124202398191</v>
+        <v>44.1519535747357</v>
       </c>
       <c r="U14" s="28">
         <f ca="1">(N14*2+O14*2+P14+Q14)/6</f>
-        <v>65.819808594164826</v>
+        <v>66.686014932313299</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="21">
@@ -3309,42 +3353,42 @@
       </c>
       <c r="N15" s="34">
         <f>LOG((D15+E15)/(F15+E15)+1,V$3)</f>
-        <v>66.44423486057336</v>
+        <v>66.031580895484012</v>
       </c>
       <c r="O15" s="16">
         <f>LOG(I15*H15/J15^2,W$3)</f>
-        <v>57.800874797067465</v>
+        <v>57.835659298076841</v>
       </c>
       <c r="P15" s="11">
         <f>LOG(K15/J15+1,X$3)</f>
-        <v>59.657549101637784</v>
+        <v>62.4029414093255</v>
       </c>
       <c r="Q15" s="28">
         <f>LOG(L15*M15/J15+1,Y$3)</f>
-        <v>75.803908002169308</v>
+        <v>76.885210645873727</v>
       </c>
       <c r="R15" s="16">
         <f>(N15+O15)/2</f>
-        <v>62.122554828820412</v>
+        <v>61.93362009678043</v>
       </c>
       <c r="S15" s="11">
         <f>(N15+O15+P15)/3</f>
-        <v>61.30088625309287</v>
+        <v>62.090060534295453</v>
       </c>
       <c r="T15" s="12">
         <f>(N15+O15+Q15)/3</f>
-        <v>66.683005886603382</v>
+        <v>66.917483613144853</v>
       </c>
       <c r="U15" s="28">
         <f>(N15*2+O15*2+P15+Q15)/6</f>
-        <v>63.991946069848126</v>
+        <v>64.503772073720157</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="21">
@@ -3381,42 +3425,42 @@
       </c>
       <c r="N16" s="34">
         <f>LOG((D16+E16)/(F16+E16)+1,V$3)</f>
-        <v>64.815753531220111</v>
+        <v>64.413213299535045</v>
       </c>
       <c r="O16" s="16">
         <f ca="1">LOG(I16*H16/J16^2,W$3)</f>
-        <v>57.659986976953014</v>
+        <v>57.694686691831762</v>
       </c>
       <c r="P16" s="11">
         <f>LOG(K16/J16+1,X$3)</f>
-        <v>79.951791900452605</v>
+        <v>83.631108898463935</v>
       </c>
       <c r="Q16" s="28">
         <f>LOG(L16*M16/J16+1,Y$3)</f>
-        <v>46.544727915946751</v>
+        <v>47.208663835247584</v>
       </c>
       <c r="R16" s="16">
         <f ca="1">(N16+O16)/2</f>
-        <v>61.237870254086559</v>
+        <v>61.053949995683404</v>
       </c>
       <c r="S16" s="11">
         <f ca="1">(N16+O16+P16)/3</f>
-        <v>67.475844136208579</v>
+        <v>68.579669629943581</v>
       </c>
       <c r="T16" s="12">
         <f ca="1">(N16+O16+Q16)/3</f>
-        <v>56.340156141373292</v>
+        <v>56.438854608871459</v>
       </c>
       <c r="U16" s="28">
         <f ca="1">(N16*2+O16*2+P16+Q16)/6</f>
-        <v>61.908000138790932</v>
+        <v>62.509262119407531</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="21">
@@ -3453,35 +3497,35 @@
       </c>
       <c r="N17" s="34">
         <f>LOG((D17+E17)/(F17+E17)+1,V$3)</f>
-        <v>61.569159156394441</v>
+        <v>61.186781998971881</v>
       </c>
       <c r="O17" s="16">
         <f>LOG(I17*H17/J17^2,W$3)</f>
-        <v>57.586788472779212</v>
+        <v>57.621444136881031</v>
       </c>
       <c r="P17" s="11">
         <f>LOG(K17/J17+1,X$3)</f>
-        <v>77.412188951684101</v>
+        <v>80.974635469678702</v>
       </c>
       <c r="Q17" s="28">
         <f>LOG(L17*M17/J17+1,Y$3)</f>
-        <v>42.46706621864594</v>
+        <v>43.072836451115727</v>
       </c>
       <c r="R17" s="16">
         <f>(N17+O17)/2</f>
-        <v>59.577973814586827</v>
+        <v>59.40411306792646</v>
       </c>
       <c r="S17" s="11">
         <f>(N17+O17+P17)/3</f>
-        <v>65.522712193619256</v>
+        <v>66.594287201843869</v>
       </c>
       <c r="T17" s="12">
         <f>(N17+O17+Q17)/3</f>
-        <v>53.874337949273205</v>
+        <v>53.960354195656215</v>
       </c>
       <c r="U17" s="28">
         <f>(N17*2+O17*2+P17+Q17)/6</f>
-        <v>59.69852507144622</v>
+        <v>60.277320698750039</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3489,73 +3533,61 @@
         <v>17</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C18" s="21">
         <v>2023</v>
       </c>
       <c r="D18" s="23">
-        <v>3581000</v>
+        <v>3158729</v>
       </c>
       <c r="E18" s="7">
-        <v>987439000</v>
-      </c>
-      <c r="F18" s="7">
-        <v>33702000</v>
-      </c>
+        <v>679383671</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
-        <v>1570476000</v>
+        <v>825582486</v>
       </c>
       <c r="H18" s="6" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">G18/INDIRECT("EUR!$B$30")</f>
-        <v>1604463347.0812213</v>
+        <v>843449271.92723453</v>
       </c>
       <c r="I18" s="11">
-        <v>4540</v>
+        <v>3038.9</v>
       </c>
       <c r="J18" s="13">
-        <v>27895</v>
+        <v>18261</v>
       </c>
       <c r="K18" s="14">
-        <v>142.5</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="M18" s="12">
-        <v>12</v>
+        <v>104.12</v>
       </c>
       <c r="N18" s="34">
         <f>LOG((D18+E18)/(F18+E18)+1,V$3)</f>
-        <v>64.128085580354082</v>
+        <v>65.344044822988167</v>
       </c>
       <c r="O18" s="16">
         <f ca="1">LOG(I18*H18/J18^2,W$3)</f>
-        <v>59.570315295877982</v>
+        <v>58.321285072596901</v>
       </c>
       <c r="P18" s="11">
         <f>LOG(K18/J18+1,X$3)</f>
-        <v>85.043814299260077</v>
-      </c>
-      <c r="Q18" s="28">
-        <f>LOG(L18*M18/J18+1,Y$3)</f>
-        <v>10.756514657576648</v>
+        <v>99.26021847711452</v>
       </c>
       <c r="R18" s="16">
         <f ca="1">(N18+O18)/2</f>
-        <v>61.849200438116029</v>
+        <v>61.832664947792537</v>
       </c>
       <c r="S18" s="11">
         <f ca="1">(N18+O18+P18)/3</f>
-        <v>69.580738391830707</v>
+        <v>74.308516124233208</v>
       </c>
       <c r="T18" s="12">
         <f ca="1">(N18+O18+Q18)/3</f>
-        <v>44.818305177936232</v>
+        <v>41.221776631861694</v>
       </c>
       <c r="U18" s="28">
         <f ca="1">(N18*2+O18*2+P18+Q18)/6</f>
-        <v>57.199521784883473</v>
+        <v>57.76514637804744</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3563,61 +3595,73 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C19" s="21">
         <v>2023</v>
       </c>
       <c r="D19" s="23">
-        <v>3158729</v>
+        <v>3581000</v>
       </c>
       <c r="E19" s="7">
-        <v>679383671</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>987439000</v>
+      </c>
+      <c r="F19" s="7">
+        <v>33702000</v>
+      </c>
       <c r="G19" s="7">
-        <v>825582486</v>
+        <v>1570476000</v>
       </c>
       <c r="H19" s="6" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">G19/INDIRECT("EUR!$B$30")</f>
-        <v>843449271.92723453</v>
+        <v>1604463347.0812213</v>
       </c>
       <c r="I19" s="11">
-        <v>3038.9</v>
+        <v>4540</v>
       </c>
       <c r="J19" s="13">
-        <v>18261</v>
+        <v>27895</v>
       </c>
       <c r="K19" s="14">
-        <v>104.12</v>
+        <v>142.5</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="M19" s="12">
+        <v>12</v>
       </c>
       <c r="N19" s="34">
         <f>LOG((D19+E19)/(F19+E19)+1,V$3)</f>
-        <v>65.752402139676704</v>
+        <v>63.729816131637413</v>
       </c>
       <c r="O19" s="16">
         <f ca="1">LOG(I19*H19/J19^2,W$3)</f>
-        <v>58.286208498315617</v>
+        <v>59.60616464417614</v>
       </c>
       <c r="P19" s="11">
         <f>LOG(K19/J19+1,X$3)</f>
-        <v>94.893305089506995</v>
+        <v>88.957462062359369</v>
+      </c>
+      <c r="Q19" s="28">
+        <f>LOG(L19*M19/J19+1,Y$3)</f>
+        <v>10.909950648448651</v>
       </c>
       <c r="R19" s="16">
         <f ca="1">(N19+O19)/2</f>
-        <v>62.01930531899616</v>
+        <v>61.667990387906777</v>
       </c>
       <c r="S19" s="11">
         <f ca="1">(N19+O19+P19)/3</f>
-        <v>72.977305242499767</v>
+        <v>70.764480946057645</v>
       </c>
       <c r="T19" s="12">
         <f ca="1">(N19+O19+Q19)/3</f>
-        <v>41.34620354599744</v>
+        <v>44.748643808087401</v>
       </c>
       <c r="U19" s="28">
         <f ca="1">(N19*2+O19*2+P19+Q19)/6</f>
-        <v>57.161754394248611</v>
+        <v>57.756562377072527</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3663,35 +3707,35 @@
       </c>
       <c r="N20" s="34">
         <f>LOG((D20+E20)/(F20+E20)+1,V$3)</f>
-        <v>29.563045461912818</v>
+        <v>29.379443258417304</v>
       </c>
       <c r="O20" s="16">
         <f ca="1">LOG(I20*H20/J20^2,W$3)</f>
-        <v>55.171817622686781</v>
+        <v>55.205019960065293</v>
       </c>
       <c r="P20" s="11">
         <f>LOG(K20/J20+1,X$3)</f>
-        <v>51.592989334717267</v>
+        <v>53.96725710439771</v>
       </c>
       <c r="Q20" s="28">
         <f>LOG(L20*M20/J20+1,Y$3)</f>
-        <v>121.42357170558387</v>
+        <v>123.15561471700121</v>
       </c>
       <c r="R20" s="16">
         <f ca="1">(N20+O20)/2</f>
-        <v>42.367431542299798</v>
+        <v>42.292231609241298</v>
       </c>
       <c r="S20" s="11">
         <f ca="1">(N20+O20+P20)/3</f>
-        <v>45.442617473105621</v>
+        <v>46.183906774293433</v>
       </c>
       <c r="T20" s="12">
         <f ca="1">(N20+O20+Q20)/3</f>
-        <v>68.719478263394493</v>
+        <v>69.246692645161275</v>
       </c>
       <c r="U20" s="28">
         <f ca="1">(N20*2+O20*2+P20+Q20)/6</f>
-        <v>57.08104786825006</v>
+        <v>57.715299709727354</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3735,35 +3779,35 @@
       </c>
       <c r="N21" s="34">
         <f>LOG((D21+E21)/(F21+E21)+1,V$3)</f>
-        <v>55.087608449261083</v>
+        <v>54.745485161942362</v>
       </c>
       <c r="O21" s="16">
         <f ca="1">LOG(I21*H21/J21^2,W$3)</f>
-        <v>49.982090586608848</v>
+        <v>50.012169752132984</v>
       </c>
       <c r="P21" s="11">
         <f>LOG(K21/J21+1,X$3)</f>
-        <v>67.359427532964006</v>
+        <v>70.459254076025445</v>
       </c>
       <c r="Q21" s="28">
         <f>LOG(L21*M21/J21+1,Y$3)</f>
-        <v>58.02813678314039</v>
+        <v>58.855877454651093</v>
       </c>
       <c r="R21" s="16">
         <f ca="1">(N21+O21)/2</f>
-        <v>52.534849517934965</v>
+        <v>52.378827457037673</v>
       </c>
       <c r="S21" s="11">
         <f ca="1">(N21+O21+P21)/3</f>
-        <v>57.476375522944643</v>
+        <v>58.405636330033595</v>
       </c>
       <c r="T21" s="12">
         <f ca="1">(N21+O21+Q21)/3</f>
-        <v>54.36594527300344</v>
+        <v>54.537844122908815</v>
       </c>
       <c r="U21" s="28">
         <f ca="1">(N21*2+O21*2+P21+Q21)/6</f>
-        <v>55.921160397974042</v>
+        <v>56.471740226471205</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -3807,35 +3851,35 @@
       </c>
       <c r="N22" s="34">
         <f>LOG((D22+E22)/(F22+E22)+1,V$3)</f>
-        <v>56.139066619714434</v>
+        <v>55.790413219074765</v>
       </c>
       <c r="O22" s="16">
         <f>LOG(I22*H22/J22^2,W$3)</f>
-        <v>59.995591737326905</v>
+        <v>60.031697016506023</v>
       </c>
       <c r="P22" s="11">
         <f>LOG(K22/J22+1,X$3)</f>
-        <v>81.424307112924993</v>
+        <v>85.171388073723122</v>
       </c>
       <c r="Q22" s="28">
         <f>LOG(L22*M22/J22+1,Y$3)</f>
-        <v>16.112539610829383</v>
+        <v>16.342376464062376</v>
       </c>
       <c r="R22" s="16">
         <f>(N22+O22)/2</f>
-        <v>58.067329178520666</v>
+        <v>57.911055117790397</v>
       </c>
       <c r="S22" s="11">
         <f>(N22+O22+P22)/3</f>
-        <v>65.852988489988775</v>
+        <v>66.997832769767967</v>
       </c>
       <c r="T22" s="12">
         <f>(N22+O22+Q22)/3</f>
-        <v>44.082399322623566</v>
+        <v>44.054828899881052</v>
       </c>
       <c r="U22" s="28">
         <f>(N22*2+O22*2+P22+Q22)/6</f>
-        <v>54.967693906306174</v>
+        <v>55.526330834824513</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -3879,35 +3923,35 @@
       </c>
       <c r="N23" s="34">
         <f>LOG((D23+E23)/(F23+E23)+1,V$3)</f>
-        <v>56.854812510463546</v>
+        <v>56.501713947945895</v>
       </c>
       <c r="O23" s="16">
         <f ca="1">LOG(I23*H23/J23^2,W$3)</f>
-        <v>53.1079862437605</v>
+        <v>53.139946569751899</v>
       </c>
       <c r="P23" s="11">
         <f>LOG(K23/J23+1,X$3)</f>
-        <v>25.131247265694697</v>
+        <v>26.287767001500303</v>
       </c>
       <c r="Q23" s="28">
         <f>LOG(L23*M23/J23+1,Y$3)</f>
-        <v>84.322205042456304</v>
+        <v>85.525016686847849</v>
       </c>
       <c r="R23" s="16">
         <f ca="1">(N23+O23)/2</f>
-        <v>54.981399377112027</v>
+        <v>54.8208302588489</v>
       </c>
       <c r="S23" s="11">
         <f ca="1">(N23+O23+P23)/3</f>
-        <v>45.031348673306248</v>
+        <v>45.309809173066036</v>
       </c>
       <c r="T23" s="12">
         <f ca="1">(N23+O23+Q23)/3</f>
-        <v>64.761667932226786</v>
+        <v>65.055559068181879</v>
       </c>
       <c r="U23" s="28">
         <f ca="1">(N23*2+O23*2+P23+Q23)/6</f>
-        <v>54.896508302766513</v>
+        <v>55.182684120623954</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3951,35 +3995,35 @@
       </c>
       <c r="N24" s="34">
         <f>LOG((D24+E24)/(F24+E24)+1,V$3)</f>
-        <v>61.601690211841017</v>
+        <v>61.219111019297628</v>
       </c>
       <c r="O24" s="16">
         <f>LOG(I24*H24/J24^2,W$3)</f>
-        <v>54.290171094457811</v>
+        <v>54.322842857953866</v>
       </c>
       <c r="P24" s="11">
         <f>LOG(K24/J24+1,X$3)</f>
-        <v>60.326251029873994</v>
+        <v>63.102416461123788</v>
       </c>
       <c r="Q24" s="28">
         <f>LOG(L24*M24/J24+1,Y$3)</f>
-        <v>28.133353047965798</v>
+        <v>28.534660445285798</v>
       </c>
       <c r="R24" s="16">
         <f>(N24+O24)/2</f>
-        <v>57.945930653149418</v>
+        <v>57.770976938625751</v>
       </c>
       <c r="S24" s="11">
         <f>(N24+O24+P24)/3</f>
-        <v>58.739370778724272</v>
+        <v>59.548123446125096</v>
       </c>
       <c r="T24" s="12">
         <f>(N24+O24+Q24)/3</f>
-        <v>48.008404784754873</v>
+        <v>48.025538107512432</v>
       </c>
       <c r="U24" s="28">
         <f>(N24*2+O24*2+P24+Q24)/6</f>
-        <v>53.373887781739576</v>
+        <v>53.786830776818761</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -4017,31 +4061,31 @@
       </c>
       <c r="N25" s="34">
         <f>LOG((D25+E25)/(F25+E25)+1,V$3)</f>
-        <v>62.063755052308878</v>
+        <v>61.678306191856038</v>
       </c>
       <c r="O25" s="16">
         <f>LOG(I25*H25/J25^2,W$3)</f>
-        <v>63.430912282782984</v>
+        <v>63.469084933976809</v>
       </c>
       <c r="P25" s="11">
         <f>LOG(K25/J25+1,X$3)</f>
-        <v>67.220660306513537</v>
+        <v>70.314100893701934</v>
       </c>
       <c r="R25" s="16">
         <f>(N25+O25)/2</f>
-        <v>62.747333667545931</v>
+        <v>62.573695562916427</v>
       </c>
       <c r="S25" s="11">
         <f>(N25+O25+P25)/3</f>
-        <v>64.238442547201799</v>
+        <v>65.153830673178263</v>
       </c>
       <c r="T25" s="12">
         <f>(N25+O25+Q25)/3</f>
-        <v>41.831555778363956</v>
+        <v>41.715797041944285</v>
       </c>
       <c r="U25" s="28">
         <f>(N25*2+O25*2+P25+Q25)/6</f>
-        <v>53.034999162782874</v>
+        <v>53.434813857561274</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -4079,177 +4123,177 @@
       </c>
       <c r="N26" s="34">
         <f>LOG((D26+E26)/(F26+E26)+1,V$3)</f>
-        <v>63.327121979343708</v>
+        <v>62.933826939716745</v>
       </c>
       <c r="O26" s="16">
         <f ca="1">LOG(I26*H26/J26^2,W$3)</f>
-        <v>57.412782212402035</v>
+        <v>57.447333159733368</v>
       </c>
       <c r="P26" s="11">
         <f>LOG(K26/J26+1,X$3)</f>
-        <v>66.89106676502594</v>
+        <v>69.969339723186835</v>
       </c>
       <c r="R26" s="16">
         <f ca="1">(N26+O26)/2</f>
-        <v>60.369952095872875</v>
+        <v>60.190580049725057</v>
       </c>
       <c r="S26" s="11">
         <f ca="1">(N26+O26+P26)/3</f>
-        <v>62.543656985590566</v>
+        <v>63.450166607545647</v>
       </c>
       <c r="T26" s="12">
         <f ca="1">(N26+O26+Q26)/3</f>
-        <v>40.246634730581917</v>
+        <v>40.127053366483374</v>
       </c>
       <c r="U26" s="28">
         <f ca="1">(N26*2+O26*2+P26+Q26)/6</f>
-        <v>51.395145858086238</v>
+        <v>51.788609987014503</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="37" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="25">
-        <v>1355549.79</v>
-      </c>
-      <c r="E27" s="9">
-        <v>413330999.95999998</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9">
-        <v>1051105117.5700001</v>
-      </c>
-      <c r="H27" s="6">
-        <f>G27</f>
-        <v>1051105117.5700001</v>
+        <v>2023</v>
+      </c>
+      <c r="D27" s="24">
+        <v>29000000</v>
+      </c>
+      <c r="E27" s="8">
+        <v>236700000</v>
+      </c>
+      <c r="F27" s="8">
+        <v>929300000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1968300000</v>
+      </c>
+      <c r="H27" s="6" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">G27/INDIRECT("EUR!$B$48")</f>
+        <v>2297840149.3368449</v>
       </c>
       <c r="I27" s="11">
-        <v>4206</v>
+        <v>7380</v>
       </c>
       <c r="J27" s="13">
-        <v>31252</v>
+        <v>46830</v>
       </c>
       <c r="K27" s="14">
-        <v>73.16</v>
+        <v>219.78</v>
       </c>
       <c r="L27" s="15">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="M27" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N27" s="34">
         <f>LOG((D27+E27)/(F27+E27)+1,V$3)</f>
-        <v>65.687775707265345</v>
+        <v>19.287772924597299</v>
       </c>
       <c r="O27" s="16">
-        <f>LOG(I27*H27/J27^2,W$3)</f>
-        <v>54.836692739565137</v>
+        <f ca="1">LOG(I27*H27/J27^2,W$3)</f>
+        <v>58.360332705251089</v>
       </c>
       <c r="P27" s="11">
         <f>LOG(K27/J27+1,X$3)</f>
-        <v>39.025565347468145</v>
+        <v>81.742461356233264</v>
       </c>
       <c r="Q27" s="28">
         <f>LOG(L27*M27/J27+1,Y$3)</f>
-        <v>12.127049659482415</v>
+        <v>59.406185929131922</v>
       </c>
       <c r="R27" s="16">
-        <f>(N27+O27)/2</f>
-        <v>60.262234223415241</v>
+        <f ca="1">(N27+O27)/2</f>
+        <v>38.824052814924194</v>
       </c>
       <c r="S27" s="11">
-        <f>(N27+O27+P27)/3</f>
-        <v>53.183344598099545</v>
+        <f ca="1">(N27+O27+P27)/3</f>
+        <v>53.130188995360548</v>
       </c>
       <c r="T27" s="12">
-        <f>(N27+O27+Q27)/3</f>
-        <v>44.2171727021043</v>
+        <f ca="1">(N27+O27+Q27)/3</f>
+        <v>45.684763852993434</v>
       </c>
       <c r="U27" s="28">
-        <f>(N27*2+O27*2+P27+Q27)/6</f>
-        <v>48.700258650101915</v>
+        <f ca="1">(N27*2+O27*2+P27+Q27)/6</f>
+        <v>49.407476424176991</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="37" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C28" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D28" s="24">
-        <v>29000000</v>
-      </c>
-      <c r="E28" s="8">
-        <v>236700000</v>
-      </c>
-      <c r="F28" s="8">
-        <v>929300000</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1968300000</v>
-      </c>
-      <c r="H28" s="6" cm="1">
-        <f t="array" aca="1" ref="H28" ca="1">G28/INDIRECT("EUR!$B$48")</f>
-        <v>2297840149.3368449</v>
+        <v>2022</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1355549.79</v>
+      </c>
+      <c r="E28" s="9">
+        <v>413330999.95999998</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>1051105117.5700001</v>
+      </c>
+      <c r="H28" s="6">
+        <f>G28</f>
+        <v>1051105117.5700001</v>
       </c>
       <c r="I28" s="11">
-        <v>7380</v>
+        <v>4206</v>
       </c>
       <c r="J28" s="13">
-        <v>46830</v>
+        <v>31252</v>
       </c>
       <c r="K28" s="14">
-        <v>219.78</v>
+        <v>73.16</v>
       </c>
       <c r="L28" s="15">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="M28" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N28" s="34">
         <f>LOG((D28+E28)/(F28+E28)+1,V$3)</f>
-        <v>19.408308823740406</v>
+        <v>65.279819755023851</v>
       </c>
       <c r="O28" s="16">
-        <f ca="1">LOG(I28*H28/J28^2,W$3)</f>
-        <v>58.325232646281741</v>
+        <f>LOG(I28*H28/J28^2,W$3)</f>
+        <v>54.869693399168426</v>
       </c>
       <c r="P28" s="11">
         <f>LOG(K28/J28+1,X$3)</f>
-        <v>78.146234647193452</v>
+        <v>40.821490398387844</v>
       </c>
       <c r="Q28" s="28">
         <f>LOG(L28*M28/J28+1,Y$3)</f>
-        <v>58.570705797674236</v>
+        <v>12.300035607077067</v>
       </c>
       <c r="R28" s="16">
-        <f ca="1">(N28+O28)/2</f>
-        <v>38.866770735011073</v>
+        <f>(N28+O28)/2</f>
+        <v>60.074756577096139</v>
       </c>
       <c r="S28" s="11">
-        <f ca="1">(N28+O28+P28)/3</f>
-        <v>51.959925372405202</v>
+        <f>(N28+O28+P28)/3</f>
+        <v>53.657001184193376</v>
       </c>
       <c r="T28" s="12">
-        <f ca="1">(N28+O28+Q28)/3</f>
-        <v>45.434749089232128</v>
+        <f>(N28+O28+Q28)/3</f>
+        <v>44.149849587089783</v>
       </c>
       <c r="U28" s="28">
-        <f ca="1">(N28*2+O28*2+P28+Q28)/6</f>
-        <v>48.697337230818668</v>
+        <f>(N28*2+O28*2+P28+Q28)/6</f>
+        <v>48.903425385641576</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -4293,35 +4337,35 @@
       </c>
       <c r="N29" s="34">
         <f>LOG((D29+E29)/(F29+E29)+1,V$3)</f>
-        <v>61.16011693097262</v>
+        <v>60.780280142877267</v>
       </c>
       <c r="O29" s="16">
         <f>LOG(I29*H29/J29^2,W$3)</f>
-        <v>53.163146873713359</v>
+        <v>53.195140395309402</v>
       </c>
       <c r="P29" s="11">
         <f>LOG(K29/J29+1,X$3)</f>
-        <v>50.821367496436991</v>
+        <v>53.160125851279602</v>
       </c>
       <c r="Q29" s="28">
         <f>LOG(L29*M29/J29+1,Y$3)</f>
-        <v>9.8806197064785053</v>
+        <v>10.021561519264033</v>
       </c>
       <c r="R29" s="16">
         <f>(N29+O29)/2</f>
-        <v>57.16163190234299</v>
+        <v>56.987710269093334</v>
       </c>
       <c r="S29" s="11">
         <f>(N29+O29+P29)/3</f>
-        <v>55.048210433707652</v>
+        <v>55.711848796488759</v>
       </c>
       <c r="T29" s="12">
         <f>(N29+O29+Q29)/3</f>
-        <v>41.401294503721495</v>
+        <v>41.332327352483567</v>
       </c>
       <c r="U29" s="28">
         <f>(N29*2+O29*2+P29+Q29)/6</f>
-        <v>48.224752468714577</v>
+        <v>48.522088074486163</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4365,35 +4409,35 @@
       </c>
       <c r="N30" s="34">
         <f>LOG((D30+E30)/(F30+E30)+1,V$3)</f>
-        <v>63.897096086750558</v>
+        <v>63.500261205391453</v>
       </c>
       <c r="O30" s="16">
         <f ca="1">LOG(I30*H30/J30^2,W$3)</f>
-        <v>53.110737480728538</v>
+        <v>53.14269946241123</v>
       </c>
       <c r="P30" s="11">
         <f>LOG(K30/J30+1,X$3)</f>
-        <v>19.842322739034891</v>
+        <v>20.755450432591246</v>
       </c>
       <c r="Q30" s="28">
         <f>LOG(L30*M30/J30+1,Y$3)</f>
-        <v>32.971707157786099</v>
+        <v>33.442031116758521</v>
       </c>
       <c r="R30" s="16">
         <f ca="1">(N30+O30)/2</f>
-        <v>58.503916783739548</v>
+        <v>58.321480333901341</v>
       </c>
       <c r="S30" s="11">
         <f ca="1">(N30+O30+P30)/3</f>
-        <v>45.616718768837991</v>
+        <v>45.799470366797976</v>
       </c>
       <c r="T30" s="12">
         <f ca="1">(N30+O30+Q30)/3</f>
-        <v>49.993180241755063</v>
+        <v>50.028330594853735</v>
       </c>
       <c r="U30" s="28">
         <f ca="1">(N30*2+O30*2+P30+Q30)/6</f>
-        <v>47.804949505296527</v>
+        <v>47.913900480825852</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -4435,179 +4479,179 @@
       </c>
       <c r="N31" s="34">
         <f>LOG((D31+E31)/(F31+E31)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O31" s="16">
         <f>LOG(I31*H31/J31^2,W$3)</f>
-        <v>52.262394243226687</v>
+        <v>52.293845692909564</v>
       </c>
       <c r="P31" s="11">
         <f>LOG(K31/J31+1,X$3)</f>
-        <v>25.127707702979617</v>
+        <v>26.284064550963031</v>
       </c>
       <c r="Q31" s="28">
         <f>LOG(L31*M31/J31+1,Y$3)</f>
-        <v>21.813713804468854</v>
+        <v>22.124874891376258</v>
       </c>
       <c r="R31" s="16">
         <f>(N31+O31)/2</f>
-        <v>58.897632481789771</v>
+        <v>58.709861251604295</v>
       </c>
       <c r="S31" s="11">
         <f>(N31+O31+P31)/3</f>
-        <v>47.640990888853054</v>
+        <v>47.901262351390535</v>
       </c>
       <c r="T31" s="12">
         <f>(N31+O31+Q31)/3</f>
-        <v>46.536326256016132</v>
+        <v>46.514865798194954</v>
       </c>
       <c r="U31" s="28">
         <f>(N31*2+O31*2+P31+Q31)/6</f>
-        <v>47.088658572434589</v>
+        <v>47.208064074792738</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>75</v>
+      <c r="B32" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="21">
         <v>2022</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="9">
-        <v>556300000</v>
+        <v>530802700</v>
       </c>
       <c r="F32" s="9">
-        <v>92100000</v>
+        <v>67751100</v>
       </c>
       <c r="G32" s="9">
-        <v>993400000</v>
+        <v>834083100</v>
       </c>
       <c r="H32" s="6">
         <f>G32</f>
-        <v>993400000</v>
+        <v>834083100</v>
       </c>
       <c r="I32" s="11">
-        <v>3408</v>
+        <v>3750</v>
       </c>
       <c r="J32" s="13">
-        <v>42143</v>
+        <v>37000</v>
       </c>
       <c r="K32" s="14">
-        <v>101</v>
+        <v>120.01</v>
       </c>
       <c r="L32" s="15">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="M32" s="12">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N32" s="34">
         <f>LOG((D32+E32)/(F32+E32)+1,V$3)</f>
-        <v>58.567901474112126</v>
+        <v>59.65192548009766</v>
       </c>
       <c r="O32" s="16">
         <f>LOG(I32*H32/J32^2,W$3)</f>
-        <v>49.202858204031912</v>
+        <v>50.413149338788912</v>
       </c>
       <c r="P32" s="11">
         <f>LOG(K32/J32+1,X$3)</f>
-        <v>39.951877298135038</v>
+        <v>56.534448172502437</v>
       </c>
       <c r="Q32" s="28">
         <f>LOG(L32*M32/J32+1,Y$3)</f>
-        <v>25.467429468435814</v>
+        <v>6.0617875244214448</v>
       </c>
       <c r="R32" s="16">
         <f>(N32+O32)/2</f>
-        <v>53.885379839072016</v>
+        <v>55.032537409443286</v>
       </c>
       <c r="S32" s="11">
         <f>(N32+O32+P32)/3</f>
-        <v>49.240878992093023</v>
+        <v>55.533174330462998</v>
       </c>
       <c r="T32" s="12">
         <f>(N32+O32+Q32)/3</f>
-        <v>44.412729715526616</v>
+        <v>38.708954114436004</v>
       </c>
       <c r="U32" s="28">
         <f>(N32*2+O32*2+P32+Q32)/6</f>
-        <v>46.82680435380982</v>
+        <v>47.121064222449512</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="39" t="s">
-        <v>76</v>
+      <c r="B33" s="57" t="s">
+        <v>75</v>
       </c>
       <c r="C33" s="21">
         <v>2022</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="9">
-        <v>530802700</v>
+        <v>556300000</v>
       </c>
       <c r="F33" s="9">
-        <v>67751100</v>
+        <v>92100000</v>
       </c>
       <c r="G33" s="9">
-        <v>834083100</v>
+        <v>993400000</v>
       </c>
       <c r="H33" s="6">
         <f>G33</f>
-        <v>834083100</v>
+        <v>993400000</v>
       </c>
       <c r="I33" s="11">
-        <v>3750</v>
+        <v>3408</v>
       </c>
       <c r="J33" s="13">
-        <v>37000</v>
+        <v>42143</v>
       </c>
       <c r="K33" s="14">
-        <v>120.01</v>
+        <v>101</v>
       </c>
       <c r="L33" s="15">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="M33" s="12">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N33" s="34">
         <f>LOG((D33+E33)/(F33+E33)+1,V$3)</f>
-        <v>60.024710793439439</v>
+        <v>58.204163719874025</v>
       </c>
       <c r="O33" s="16">
         <f>LOG(I33*H33/J33^2,W$3)</f>
-        <v>50.382829009335708</v>
+        <v>49.232468428390476</v>
       </c>
       <c r="P33" s="11">
         <f>LOG(K33/J33+1,X$3)</f>
-        <v>54.04723786435239</v>
+        <v>41.790430478137736</v>
       </c>
       <c r="Q33" s="28">
         <f>LOG(L33*M33/J33+1,Y$3)</f>
-        <v>5.976535408693735</v>
+        <v>25.830708876296782</v>
       </c>
       <c r="R33" s="16">
         <f>(N33+O33)/2</f>
-        <v>55.203769901387574</v>
+        <v>53.718316074132247</v>
       </c>
       <c r="S33" s="11">
         <f>(N33+O33+P33)/3</f>
-        <v>54.818259222375843</v>
+        <v>49.742354208800748</v>
       </c>
       <c r="T33" s="12">
         <f>(N33+O33+Q33)/3</f>
-        <v>38.794691737156292</v>
+        <v>44.422447008187099</v>
       </c>
       <c r="U33" s="28">
         <f>(N33*2+O33*2+P33+Q33)/6</f>
-        <v>46.806475479766071</v>
+        <v>47.08240060849392</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -4643,38 +4687,38 @@
       </c>
       <c r="N34" s="34">
         <f>LOG((D34+E34)/(F34+E34)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O34" s="16">
         <f ca="1">LOG(I34*H34/J34^2,W$3)</f>
-        <v>46.392024944386307</v>
+        <v>46.419943612471705</v>
       </c>
       <c r="P34" s="11">
         <f>LOG(K34/J34+1,X$3)</f>
-        <v>52.807011107080228</v>
+        <v>55.237147179857274</v>
       </c>
       <c r="R34" s="16">
         <f ca="1">(N34+O34)/2</f>
-        <v>55.962447832369584</v>
+        <v>55.772910211385366</v>
       </c>
       <c r="S34" s="11">
         <f ca="1">(N34+O34+P34)/3</f>
-        <v>54.910635590606468</v>
+        <v>55.594322534209333</v>
       </c>
       <c r="T34" s="12">
         <f ca="1">(N34+O34+Q34)/3</f>
-        <v>37.308298554913058</v>
+        <v>37.181940140923579</v>
       </c>
       <c r="U34" s="28">
         <f ca="1">(N34*2+O34*2+P34+Q34)/6</f>
-        <v>46.109467072759763</v>
+        <v>46.388131337566456</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="21">
@@ -4705,38 +4749,38 @@
       </c>
       <c r="N35" s="34">
         <f>LOG((D35+E35)/(F35+E35)+1,V$3)</f>
-        <v>63.714342563541976</v>
+        <v>63.318642678562078</v>
       </c>
       <c r="O35" s="16">
         <f ca="1">LOG(I35*H35/J35^2,W$3)</f>
-        <v>53.497625389742112</v>
+        <v>53.529820200130402</v>
       </c>
       <c r="P35" s="11">
         <f>LOG(K35/J35+1,X$3)</f>
-        <v>42.225392509222779</v>
+        <v>44.16857102610107</v>
       </c>
       <c r="R35" s="16">
         <f ca="1">(N35+O35)/2</f>
-        <v>58.605983976642044</v>
+        <v>58.424231439346244</v>
       </c>
       <c r="S35" s="11">
         <f ca="1">(N35+O35+P35)/3</f>
-        <v>53.145786820835617</v>
+        <v>53.672344634931186</v>
       </c>
       <c r="T35" s="12">
         <f ca="1">(N35+O35+Q35)/3</f>
-        <v>39.070655984428029</v>
+        <v>38.949487626230827</v>
       </c>
       <c r="U35" s="28">
         <f ca="1">(N35*2+O35*2+P35+Q35)/6</f>
-        <v>46.10822140263182</v>
+        <v>46.310916130581006</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="21">
@@ -4773,35 +4817,35 @@
       </c>
       <c r="N36" s="34">
         <f>LOG((D36+E36)/(F36+E36)+1,V$3)</f>
-        <v>59.839888368865665</v>
+        <v>59.468250900878679</v>
       </c>
       <c r="O36" s="16">
         <f>LOG(I36*H36/J36^2,W$3)</f>
-        <v>47.098759907728912</v>
+        <v>47.127103888115073</v>
       </c>
       <c r="P36" s="11">
         <f>LOG(K36/J36+1,X$3)</f>
-        <v>51.008680079860284</v>
+        <v>53.356058408761626</v>
       </c>
       <c r="Q36" s="28">
         <f>LOG(L36*M36/J36+1,Y$3)</f>
-        <v>7.1562623897471971</v>
+        <v>7.2583426867268024</v>
       </c>
       <c r="R36" s="16">
         <f>(N36+O36)/2</f>
-        <v>53.469324138297289</v>
+        <v>53.297677394496873</v>
       </c>
       <c r="S36" s="11">
         <f>(N36+O36+P36)/3</f>
-        <v>52.649109452151627</v>
+        <v>53.317137732585117</v>
       </c>
       <c r="T36" s="12">
         <f>(N36+O36+Q36)/3</f>
-        <v>38.031636888780589</v>
+        <v>37.95123249190685</v>
       </c>
       <c r="U36" s="28">
         <f>(N36*2+O36*2+P36+Q36)/6</f>
-        <v>45.340373170466108</v>
+        <v>45.63418511224598</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -4845,35 +4889,35 @@
       </c>
       <c r="N37" s="34">
         <f>LOG((D37+E37)/(F37+E37)+1,V$3)</f>
-        <v>60.029023158239326</v>
+        <v>59.65621106282326</v>
       </c>
       <c r="O37" s="16">
         <f>LOG(I37*H37/J37^2,W$3)</f>
-        <v>49.227923368730998</v>
+        <v>49.257548677277299</v>
       </c>
       <c r="P37" s="11">
         <f>LOG(K37/J37+1,X$3)</f>
-        <v>33.414163678336159</v>
+        <v>34.951856548923828</v>
       </c>
       <c r="Q37" s="28">
         <f>LOG(L37*M37/J37+1,Y$3)</f>
-        <v>17.149987025663638</v>
+        <v>17.394622517409204</v>
       </c>
       <c r="R37" s="16">
         <f>(N37+O37)/2</f>
-        <v>54.628473263485162</v>
+        <v>54.45687987005028</v>
       </c>
       <c r="S37" s="11">
         <f>(N37+O37+P37)/3</f>
-        <v>47.557036735102166</v>
+        <v>47.955205429674798</v>
       </c>
       <c r="T37" s="12">
         <f>(N37+O37+Q37)/3</f>
-        <v>42.135644517544655</v>
+        <v>42.102794085836585</v>
       </c>
       <c r="U37" s="28">
         <f>(N37*2+O37*2+P37+Q37)/6</f>
-        <v>44.846340626323411</v>
+        <v>45.028999757755685</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -4917,35 +4961,35 @@
       </c>
       <c r="N38" s="34">
         <f>LOG((D38+E38)/(F38+E38)+1,V$3)</f>
-        <v>61.134684799654913</v>
+        <v>60.755005958593657</v>
       </c>
       <c r="O38" s="16">
         <f>LOG(I38*H38/J38^2,W$3)</f>
-        <v>56.371445525139293</v>
+        <v>56.405369797231259</v>
       </c>
       <c r="P38" s="11">
         <f>LOG(K38/J38+1,X$3)</f>
-        <v>28.045006475310085</v>
+        <v>29.335615060573854</v>
       </c>
       <c r="Q38" s="28">
         <f>LOG(L38*M38/J38+1,Y$3)</f>
-        <v>2.1075069337385313</v>
+        <v>2.1375694051748542</v>
       </c>
       <c r="R38" s="16">
         <f>(N38+O38)/2</f>
-        <v>58.753065162397107</v>
+        <v>58.580187877912458</v>
       </c>
       <c r="S38" s="11">
         <f>(N38+O38+P38)/3</f>
-        <v>48.51704560003477</v>
+        <v>48.831996938799591</v>
       </c>
       <c r="T38" s="12">
         <f>(N38+O38+Q38)/3</f>
-        <v>39.871212419510918</v>
+        <v>39.765981720333258</v>
       </c>
       <c r="U38" s="28">
         <f>(N38*2+O38*2+P38+Q38)/6</f>
-        <v>44.194129009772837</v>
+        <v>44.298989329566432</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -4983,35 +5027,35 @@
       </c>
       <c r="N39" s="34">
         <f>LOG((D39+E39)/(F39+E39)+1,V$3)</f>
-        <v>66.455051771204296</v>
+        <v>66.042330627358652</v>
       </c>
       <c r="O39" s="16">
         <f>LOG(I39*H39/J39^2,W$3)</f>
-        <v>53.315165442092493</v>
+        <v>53.347250448290872</v>
       </c>
       <c r="P39" s="11">
         <f>LOG(K39/J39+1,X$3)</f>
-        <v>24.077610242151501</v>
+        <v>25.185642451682732</v>
       </c>
       <c r="R39" s="16">
         <f>(N39+O39)/2</f>
-        <v>59.885108606648394</v>
+        <v>59.694790537824758</v>
       </c>
       <c r="S39" s="11">
         <f>(N39+O39+P39)/3</f>
-        <v>47.949275818482761</v>
+        <v>48.191741175777416</v>
       </c>
       <c r="T39" s="12">
         <f>(N39+O39+Q39)/3</f>
-        <v>39.923405737765599</v>
+        <v>39.796527025216506</v>
       </c>
       <c r="U39" s="28">
         <f>(N39*2+O39*2+P39+Q39)/6</f>
-        <v>43.936340778124183</v>
+        <v>43.994134100496957</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="58" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -5053,42 +5097,42 @@
       </c>
       <c r="N40" s="34">
         <f>LOG((D40+E40)/(F40+E40)+1,V$3)</f>
-        <v>61.908913705906876</v>
+        <v>61.52442649240033</v>
       </c>
       <c r="O40" s="16">
         <f>LOG(I40*H40/J40^2,W$3)</f>
-        <v>46.248215239609088</v>
+        <v>46.276047363176978</v>
       </c>
       <c r="P40" s="11">
         <f>LOG(K40/J40+1,X$3)</f>
-        <v>31.527266841350514</v>
+        <v>32.978126240907805</v>
       </c>
       <c r="Q40" s="28">
         <f>LOG(L40*M40/J40+1,Y$3)</f>
-        <v>11.78642462555484</v>
+        <v>11.954551737247691</v>
       </c>
       <c r="R40" s="16">
         <f>(N40+O40)/2</f>
-        <v>54.078564472757982</v>
+        <v>53.900236927788654</v>
       </c>
       <c r="S40" s="11">
         <f>(N40+O40+P40)/3</f>
-        <v>46.561465262288827</v>
+        <v>46.926200032161709</v>
       </c>
       <c r="T40" s="12">
         <f>(N40+O40+Q40)/3</f>
-        <v>39.981184523690267</v>
+        <v>39.918341864275</v>
       </c>
       <c r="U40" s="28">
         <f>(N40*2+O40*2+P40+Q40)/6</f>
-        <v>43.271324892989547</v>
+        <v>43.422270948218348</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="57" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="21">
@@ -5125,42 +5169,42 @@
       </c>
       <c r="N41" s="34">
         <f>LOG((D41+E41)/(F41+E41)+1,V$3)</f>
-        <v>59.537584831863846</v>
+        <v>59.167824829295292</v>
       </c>
       <c r="O41" s="16">
         <f>LOG(I41*H41/J41^2,W$3)</f>
-        <v>42.102241883390739</v>
+        <v>42.127578964887029</v>
       </c>
       <c r="P41" s="11">
         <f>LOG(K41/J41+1,X$3)</f>
-        <v>20.89795408869308</v>
+        <v>21.859661085803594</v>
       </c>
       <c r="Q41" s="28">
         <f>LOG(L41*M41/J41+1,Y$3)</f>
-        <v>31.972558046097529</v>
+        <v>32.428629671590095</v>
       </c>
       <c r="R41" s="16">
         <f>(N41+O41)/2</f>
-        <v>50.819913357627293</v>
+        <v>50.64770189709116</v>
       </c>
       <c r="S41" s="11">
         <f>(N41+O41+P41)/3</f>
-        <v>40.845926934649221</v>
+        <v>41.051688293328638</v>
       </c>
       <c r="T41" s="12">
         <f>(N41+O41+Q41)/3</f>
-        <v>44.53746158711737</v>
+        <v>44.574677821924134</v>
       </c>
       <c r="U41" s="28">
         <f>(N41*2+O41*2+P41+Q41)/6</f>
-        <v>42.691694260883288</v>
+        <v>42.813183057626389</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="21">
@@ -5191,31 +5235,31 @@
       </c>
       <c r="N42" s="34">
         <f>LOG((D42+E42)/(F42+E42)+1,V$3)</f>
-        <v>59.336213701390648</v>
+        <v>58.967704320424083</v>
       </c>
       <c r="O42" s="16">
         <f>LOG(I42*H42/J42^2,W$3)</f>
-        <v>50.203284637052214</v>
+        <v>50.233496916905459</v>
       </c>
       <c r="P42" s="11">
         <f>LOG(K42/J42+1,X$3)</f>
-        <v>35.90128625282626</v>
+        <v>37.553434498921369</v>
       </c>
       <c r="R42" s="16">
         <f>(N42+O42)/2</f>
-        <v>54.769749169221427</v>
+        <v>54.600600618664771</v>
       </c>
       <c r="S42" s="11">
         <f>(N42+O42+P42)/3</f>
-        <v>48.480261530423036</v>
+        <v>48.918211912083642</v>
       </c>
       <c r="T42" s="12">
         <f>(N42+O42+Q42)/3</f>
-        <v>36.513166112814282</v>
+        <v>36.400400412443183</v>
       </c>
       <c r="U42" s="28">
         <f>(N42*2+O42*2+P42+Q42)/6</f>
-        <v>42.496713821618663</v>
+        <v>42.659306162263412</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -5251,31 +5295,31 @@
       </c>
       <c r="N43" s="34">
         <f>LOG((D43+E43)/(F43+E43)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O43" s="16">
         <f>LOG(I43*H43/J43^2,W$3)</f>
-        <v>49.135615028893056</v>
+        <v>49.165184786384955</v>
       </c>
       <c r="P43" s="11">
         <f>LOG(K43/J43+1,X$3)</f>
-        <v>24.9816560171903</v>
+        <v>26.131291684355379</v>
       </c>
       <c r="R43" s="16">
         <f>(N43+O43)/2</f>
-        <v>57.334242874622959</v>
+        <v>57.145530798341987</v>
       </c>
       <c r="S43" s="11">
         <f>(N43+O43+P43)/3</f>
-        <v>46.550047255478738</v>
+        <v>46.807451093679788</v>
       </c>
       <c r="T43" s="12">
         <f>(N43+O43+Q43)/3</f>
-        <v>38.22282858308197</v>
+        <v>38.097020532227994</v>
       </c>
       <c r="U43" s="28">
         <f>(N43*2+O43*2+P43+Q43)/6</f>
-        <v>42.386437919280354</v>
+        <v>42.452235812953887</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -5313,31 +5357,31 @@
       </c>
       <c r="N44" s="34">
         <f>LOG((D44+E44)/(F44+E44)+1,V$3)</f>
-        <v>67.867407791289736</v>
+        <v>67.445915166923186</v>
       </c>
       <c r="O44" s="16">
         <f>LOG(I44*H44/J44^2,W$3)</f>
-        <v>50.711784705846881</v>
+        <v>50.742303000465796</v>
       </c>
       <c r="P44" s="11">
         <f>LOG(K44/J44+1,X$3)</f>
-        <v>16.911965053980477</v>
+        <v>17.690240049622343</v>
       </c>
       <c r="R44" s="16">
         <f>(N44+O44)/2</f>
-        <v>59.289596248568309</v>
+        <v>59.094109083694491</v>
       </c>
       <c r="S44" s="11">
         <f>(N44+O44+P44)/3</f>
-        <v>45.163719183705695</v>
+        <v>45.292819405670436</v>
       </c>
       <c r="T44" s="12">
         <f>(N44+O44+Q44)/3</f>
-        <v>39.526397499045537</v>
+        <v>39.396072722462996</v>
       </c>
       <c r="U44" s="28">
         <f>(N44*2+O44*2+P44+Q44)/6</f>
-        <v>42.345058341375619</v>
+        <v>42.344446064066716</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -5381,178 +5425,178 @@
       </c>
       <c r="N45" s="34">
         <f>LOG((D45+E45)/(F45+E45)+1,V$3)</f>
-        <v>60.420800153090831</v>
+        <v>60.045554914593268</v>
       </c>
       <c r="O45" s="16">
         <f>LOG(I45*H45/J45^2,W$3)</f>
-        <v>51.480877177002796</v>
+        <v>51.511858310600068</v>
       </c>
       <c r="P45" s="11">
         <f>LOG(K45/J45+1,X$3)</f>
-        <v>24.585864917764525</v>
+        <v>25.717286597660976</v>
       </c>
       <c r="Q45" s="28">
         <f>LOG(L45*M45/J45+1,Y$3)</f>
-        <v>4.5236843868606682</v>
+        <v>4.5882123513906343</v>
       </c>
       <c r="R45" s="16">
         <f>(N45+O45)/2</f>
-        <v>55.950838665046817</v>
+        <v>55.778706612596665</v>
       </c>
       <c r="S45" s="11">
         <f>(N45+O45+P45)/3</f>
-        <v>45.495847415952717</v>
+        <v>45.75823327428477</v>
       </c>
       <c r="T45" s="12">
         <f>(N45+O45+Q45)/3</f>
-        <v>38.808453905651433</v>
+        <v>38.715208525527991</v>
       </c>
       <c r="U45" s="28">
         <f>(N45*2+O45*2+P45+Q45)/6</f>
-        <v>42.152150660802079</v>
+        <v>42.236720899906381</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>41</v>
+      <c r="A46" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>82</v>
       </c>
       <c r="C46" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="25">
-        <v>1545561</v>
-      </c>
-      <c r="E46" s="9">
-        <v>146972266.58000001</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9">
-        <v>331968251.18000001</v>
-      </c>
-      <c r="H46" s="6">
-        <f>G46</f>
-        <v>331968251.18000001</v>
+        <v>2023</v>
+      </c>
+      <c r="D46" s="24">
+        <v>600000</v>
+      </c>
+      <c r="E46" s="8">
+        <v>127700000</v>
+      </c>
+      <c r="F46" s="8">
+        <v>416400000</v>
+      </c>
+      <c r="G46" s="8">
+        <v>934200000</v>
+      </c>
+      <c r="H46" s="6" cm="1">
+        <f t="array" aca="1" ref="H46" ca="1">G46/INDIRECT("EUR!$B$48")</f>
+        <v>1090607258.8073366</v>
       </c>
       <c r="I46" s="11">
-        <v>2453</v>
+        <v>3335</v>
       </c>
       <c r="J46" s="13">
-        <v>21617</v>
+        <v>31485</v>
       </c>
       <c r="K46" s="14">
-        <v>27.2</v>
-      </c>
-      <c r="N46" s="35">
+        <v>112.44</v>
+      </c>
+      <c r="L46" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M46" s="12">
+        <v>47</v>
+      </c>
+      <c r="N46" s="34">
         <f>LOG((D46+E46)/(F46+E46)+1,V$3)</f>
-        <v>66.028680658617859</v>
+        <v>19.892562058343813</v>
       </c>
       <c r="O46" s="16">
-        <f>LOG(I46*H46/J46^2,W$3)</f>
-        <v>48.618311172728177</v>
+        <f ca="1">LOG(I46*H46/J46^2,W$3)</f>
+        <v>53.500818313262471</v>
       </c>
       <c r="P46" s="11">
         <f>LOG(K46/J46+1,X$3)</f>
-        <v>20.987540979028523</v>
+        <v>62.236279849399523</v>
+      </c>
+      <c r="Q46" s="28">
+        <f>LOG(L46*M46/J46+1,Y$3)</f>
+        <v>43.782082083187476</v>
       </c>
       <c r="R46" s="16">
-        <f>(N46+O46)/2</f>
-        <v>57.323495915673021</v>
+        <f ca="1">(N46+O46)/2</f>
+        <v>36.696690185803142</v>
       </c>
       <c r="S46" s="11">
-        <f>(N46+O46+P46)/3</f>
-        <v>45.21151093679152</v>
+        <f ca="1">(N46+O46+P46)/3</f>
+        <v>45.209886740335264</v>
       </c>
       <c r="T46" s="12">
-        <f>(N46+O46+Q46)/3</f>
-        <v>38.215663943782012</v>
+        <f ca="1">(N46+O46+Q46)/3</f>
+        <v>39.058487484931256</v>
       </c>
       <c r="U46" s="28">
-        <f>(N46*2+O46*2+P46+Q46)/6</f>
-        <v>41.713587440286766</v>
+        <f ca="1">(N46*2+O46*2+P46+Q46)/6</f>
+        <v>42.134187112633263</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>82</v>
+      <c r="A47" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>41</v>
       </c>
       <c r="C47" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="24">
-        <v>600000</v>
-      </c>
-      <c r="E47" s="8">
-        <v>127700000</v>
-      </c>
-      <c r="F47" s="8">
-        <v>416400000</v>
-      </c>
-      <c r="G47" s="8">
-        <v>934200000</v>
-      </c>
-      <c r="H47" s="6" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">G47/INDIRECT("EUR!$B$48")</f>
-        <v>1090607258.8073366</v>
+        <v>2022</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1545561</v>
+      </c>
+      <c r="E47" s="9">
+        <v>146972266.58000001</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9">
+        <v>331968251.18000001</v>
+      </c>
+      <c r="H47" s="6">
+        <f>G47</f>
+        <v>331968251.18000001</v>
       </c>
       <c r="I47" s="11">
-        <v>3335</v>
+        <v>2453</v>
       </c>
       <c r="J47" s="13">
-        <v>31485</v>
+        <v>21617</v>
       </c>
       <c r="K47" s="14">
-        <v>112.44</v>
-      </c>
-      <c r="L47" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M47" s="12">
-        <v>47</v>
-      </c>
-      <c r="N47" s="34">
+        <v>27.2</v>
+      </c>
+      <c r="N47" s="35">
         <f>LOG((D47+E47)/(F47+E47)+1,V$3)</f>
-        <v>20.016877491926333</v>
+        <v>65.61860750568637</v>
       </c>
       <c r="O47" s="16">
-        <f ca="1">LOG(I47*H47/J47^2,W$3)</f>
-        <v>53.468640945679802</v>
+        <f>LOG(I47*H47/J47^2,W$3)</f>
+        <v>48.647569617345141</v>
       </c>
       <c r="P47" s="11">
         <f>LOG(K47/J47+1,X$3)</f>
-        <v>59.498219750006399</v>
-      </c>
-      <c r="Q47" s="28">
-        <f>LOG(L47*M47/J47+1,Y$3)</f>
-        <v>43.166337121240424</v>
+        <v>21.953370692598231</v>
       </c>
       <c r="R47" s="16">
-        <f ca="1">(N47+O47)/2</f>
-        <v>36.742759218803066</v>
+        <f>(N47+O47)/2</f>
+        <v>57.133088561515756</v>
       </c>
       <c r="S47" s="11">
-        <f ca="1">(N47+O47+P47)/3</f>
-        <v>44.327912729204172</v>
+        <f>(N47+O47+P47)/3</f>
+        <v>45.406515938543244</v>
       </c>
       <c r="T47" s="12">
-        <f ca="1">(N47+O47+Q47)/3</f>
-        <v>38.883951852948854</v>
+        <f>(N47+O47+Q47)/3</f>
+        <v>38.08872570767717</v>
       </c>
       <c r="U47" s="28">
-        <f ca="1">(N47*2+O47*2+P47+Q47)/6</f>
-        <v>41.605932291076513</v>
+        <f>(N47*2+O47*2+P47+Q47)/6</f>
+        <v>41.747620823110211</v>
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="57" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="21">
@@ -5591,355 +5635,341 @@
       </c>
       <c r="N48" s="35">
         <f>LOG((D48+E48)/(F48+E48)+1,V$3)</f>
-        <v>59.249937355361205</v>
+        <v>58.881963796296368</v>
       </c>
       <c r="O48" s="16">
         <f>LOG(I48*H48/J48^2,W$3)</f>
-        <v>50.187932945370143</v>
+        <v>50.218135986592721</v>
       </c>
       <c r="P48" s="11">
         <f>LOG(K48/J48+1,X$3)</f>
-        <v>22.756057114341832</v>
+        <v>23.803272514501497</v>
       </c>
       <c r="Q48" s="28">
         <f>LOG(L48*M48/J48+1,Y$3)</f>
-        <v>7.7514163819845594</v>
+        <v>7.8619862357980823</v>
       </c>
       <c r="R48" s="16">
         <f>(N48+O48)/2</f>
-        <v>54.718935150365674</v>
+        <v>54.550049891444544</v>
       </c>
       <c r="S48" s="11">
         <f>(N48+O48+P48)/3</f>
-        <v>44.064642471691059</v>
+        <v>44.301124099130192</v>
       </c>
       <c r="T48" s="12">
         <f>(N48+O48+Q48)/3</f>
-        <v>39.063095560905303</v>
+        <v>38.987362006229056</v>
       </c>
       <c r="U48" s="28">
         <f>(N48*2+O48*2+P48+Q48)/6</f>
-        <v>41.563869016298185</v>
+        <v>41.64424305267962</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>53</v>
+      <c r="A49" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>299</v>
       </c>
       <c r="C49" s="21">
         <v>2022</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="9">
-        <v>170900000</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9">
-        <v>289107937</v>
-      </c>
-      <c r="H49" s="6">
-        <f>G49</f>
-        <v>289107937</v>
+      <c r="D49" s="23"/>
+      <c r="E49" s="7">
+        <v>96570451</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7">
+        <v>141671439</v>
+      </c>
+      <c r="H49" s="6" cm="1">
+        <f t="array" aca="1" ref="H49" ca="1">G49/INDIRECT("EUR!$B$30")</f>
+        <v>144737411.58970472</v>
       </c>
       <c r="I49" s="11">
-        <v>3439.4</v>
+        <v>529</v>
       </c>
       <c r="J49" s="13">
-        <v>22287</v>
+        <v>4409</v>
       </c>
       <c r="K49" s="14">
-        <v>23</v>
+        <v>2.88</v>
       </c>
       <c r="N49" s="34">
         <f>LOG((D49+E49)/(F49+E49)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O49" s="16">
-        <f>LOG(I49*H49/J49^2,W$3)</f>
-        <v>49.52185937595717</v>
+        <f ca="1">LOG(I49*H49/J49^2,W$3)</f>
+        <v>53.963090571239299</v>
       </c>
       <c r="P49" s="11">
         <f>LOG(K49/J49+1,X$3)</f>
-        <v>17.215252113328969</v>
+        <v>11.400171917309637</v>
       </c>
       <c r="R49" s="16">
-        <f>(N49+O49)/2</f>
-        <v>57.527365048155019</v>
+        <f ca="1">(N49+O49)/2</f>
+        <v>59.544483690769155</v>
       </c>
       <c r="S49" s="11">
-        <f>(N49+O49+P49)/3</f>
-        <v>44.089994069879673</v>
+        <f ca="1">(N49+O49+P49)/3</f>
+        <v>43.496379766282651</v>
       </c>
       <c r="T49" s="12">
-        <f>(N49+O49+Q49)/3</f>
-        <v>38.35157669877001</v>
+        <f ca="1">(N49+O49+Q49)/3</f>
+        <v>39.696322460512768</v>
       </c>
       <c r="U49" s="28">
-        <f>(N49*2+O49*2+P49+Q49)/6</f>
-        <v>41.220785384324842</v>
+        <f ca="1">(N49*2+O49*2+P49+Q49)/6</f>
+        <v>41.596351113397709</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>47</v>
+      <c r="A50" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="21">
         <v>2022</v>
       </c>
-      <c r="D50" s="27">
-        <v>1644641233</v>
-      </c>
-      <c r="E50" s="17">
-        <v>21390200000</v>
-      </c>
-      <c r="F50" s="17">
-        <v>727601475</v>
-      </c>
-      <c r="G50" s="17">
-        <v>31234324081</v>
-      </c>
-      <c r="H50" s="6" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">G50/INDIRECT("EUR!$B$68")</f>
-        <v>208064829.12125441</v>
+      <c r="D50" s="25"/>
+      <c r="E50" s="9">
+        <v>170900000</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>289107937</v>
+      </c>
+      <c r="H50" s="6">
+        <f>G50</f>
+        <v>289107937</v>
       </c>
       <c r="I50" s="11">
-        <v>876</v>
+        <v>3439.4</v>
       </c>
       <c r="J50" s="13">
-        <v>14167</v>
+        <v>22287</v>
       </c>
       <c r="K50" s="14">
-        <v>19.309999999999999</v>
+        <v>23</v>
       </c>
       <c r="N50" s="34">
         <f>LOG((D50+E50)/(F50+E50)+1,V$3)</f>
-        <v>67.47280365186684</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O50" s="16">
-        <f ca="1">LOG(I50*H50/J50^2,W$3)</f>
-        <v>44.372444341955116</v>
+        <f>LOG(I50*H50/J50^2,W$3)</f>
+        <v>49.551661574859821</v>
       </c>
       <c r="P50" s="11">
         <f>LOG(K50/J50+1,X$3)</f>
-        <v>22.733679471988051</v>
+        <v>18.007484134901247</v>
       </c>
       <c r="R50" s="16">
-        <f ca="1">(N50+O50)/2</f>
-        <v>55.922623996910978</v>
+        <f>(N50+O50)/2</f>
+        <v>57.33876919257942</v>
       </c>
       <c r="S50" s="11">
-        <f ca="1">(N50+O50+P50)/3</f>
-        <v>44.859642488603335</v>
+        <f>(N50+O50+P50)/3</f>
+        <v>44.228340840020032</v>
       </c>
       <c r="T50" s="12">
-        <f ca="1">(N50+O50+Q50)/3</f>
-        <v>37.281749331273986</v>
+        <f>(N50+O50+Q50)/3</f>
+        <v>38.22584612838628</v>
       </c>
       <c r="U50" s="28">
-        <f ca="1">(N50*2+O50*2+P50+Q50)/6</f>
-        <v>41.070695909938657</v>
+        <f>(N50*2+O50*2+P50+Q50)/6</f>
+        <v>41.227093484203152</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C51" s="21">
         <v>2022</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="9">
-        <v>155350916.22</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9">
-        <v>256352554.86000001</v>
-      </c>
-      <c r="H51" s="6">
-        <f>G51</f>
-        <v>256352554.86000001</v>
+      <c r="D51" s="27">
+        <v>1644641233</v>
+      </c>
+      <c r="E51" s="17">
+        <v>21390200000</v>
+      </c>
+      <c r="F51" s="17">
+        <v>727601475</v>
+      </c>
+      <c r="G51" s="17">
+        <v>31234324081</v>
+      </c>
+      <c r="H51" s="6" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">G51/INDIRECT("EUR!$B$68")</f>
+        <v>208064829.12125441</v>
       </c>
       <c r="I51" s="11">
-        <v>1689</v>
+        <v>876</v>
       </c>
       <c r="J51" s="13">
-        <v>16170</v>
+        <v>14167</v>
       </c>
       <c r="K51" s="14">
-        <v>14.69</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="N51" s="34">
         <f>LOG((D51+E51)/(F51+E51)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>67.05376172865013</v>
       </c>
       <c r="O51" s="16">
-        <f>LOG(I51*H51/J51^2,W$3)</f>
-        <v>48.285969471444275</v>
+        <f ca="1">LOG(I51*H51/J51^2,W$3)</f>
+        <v>44.399147628720591</v>
       </c>
       <c r="P51" s="11">
         <f>LOG(K51/J51+1,X$3)</f>
-        <v>15.155690938266506</v>
+        <v>23.779865071089716</v>
       </c>
       <c r="R51" s="16">
-        <f>(N51+O51)/2</f>
-        <v>56.909420095898568</v>
+        <f ca="1">(N51+O51)/2</f>
+        <v>55.726454678685357</v>
       </c>
       <c r="S51" s="11">
-        <f>(N51+O51+P51)/3</f>
-        <v>42.991510376687877</v>
+        <f ca="1">(N51+O51+P51)/3</f>
+        <v>45.077591476153479</v>
       </c>
       <c r="T51" s="12">
-        <f>(N51+O51+Q51)/3</f>
-        <v>37.93961339726571</v>
+        <f ca="1">(N51+O51+Q51)/3</f>
+        <v>37.150969785790238</v>
       </c>
       <c r="U51" s="28">
-        <f>(N51*2+O51*2+P51+Q51)/6</f>
-        <v>40.465561886976793</v>
+        <f ca="1">(N51*2+O51*2+P51+Q51)/6</f>
+        <v>41.114280630971855</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>291</v>
+      <c r="A52" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="C52" s="21">
         <v>2022</v>
       </c>
-      <c r="D52" s="60">
-        <v>1527000</v>
-      </c>
-      <c r="E52" s="61">
-        <v>9986630000</v>
-      </c>
-      <c r="F52" s="61">
-        <v>888843000</v>
-      </c>
-      <c r="G52" s="61">
-        <v>13836220000</v>
-      </c>
-      <c r="H52" s="6" cm="1">
-        <f t="array" aca="1" ref="H52" ca="1">G52/INDIRECT("EUR!$B$37")</f>
-        <v>546279601.32172608</v>
+      <c r="D52" s="25"/>
+      <c r="E52" s="9">
+        <v>155350916.22</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
+        <v>256352554.86000001</v>
+      </c>
+      <c r="H52" s="6">
+        <f>G52</f>
+        <v>256352554.86000001</v>
       </c>
       <c r="I52" s="11">
-        <v>5097</v>
+        <v>1689</v>
       </c>
       <c r="J52" s="13">
-        <v>51727</v>
+        <v>16170</v>
       </c>
       <c r="K52" s="14">
-        <v>43.38</v>
-      </c>
-      <c r="L52" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M52" s="12">
-        <v>23</v>
+        <v>14.69</v>
       </c>
       <c r="N52" s="34">
         <f>LOG((D52+E52)/(F52+E52)+1,V$3)</f>
-        <v>61.595134291779573</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O52" s="16">
-        <f ca="1">LOG(I52*H52/J52^2,W$3)</f>
-        <v>45.259669759804062</v>
+        <f>LOG(I52*H52/J52^2,W$3)</f>
+        <v>48.315027913201689</v>
       </c>
       <c r="P52" s="11">
         <f>LOG(K52/J52+1,X$3)</f>
-        <v>13.991084353344119</v>
-      </c>
-      <c r="Q52" s="28">
-        <f>LOG(L52*M52/J52+1,Y$3)</f>
-        <v>9.363034112791798</v>
+        <v>15.853143615189618</v>
       </c>
       <c r="R52" s="16">
-        <f ca="1">(N52+O52)/2</f>
-        <v>53.427402025791821</v>
+        <f>(N52+O52)/2</f>
+        <v>56.720452361750354</v>
       </c>
       <c r="S52" s="11">
-        <f ca="1">(N52+O52+P52)/3</f>
-        <v>40.281962801642585</v>
+        <f>(N52+O52+P52)/3</f>
+        <v>43.098016112896772</v>
       </c>
       <c r="T52" s="12">
-        <f ca="1">(N52+O52+Q52)/3</f>
-        <v>38.739279388125148</v>
+        <f>(N52+O52+Q52)/3</f>
+        <v>37.813634907833567</v>
       </c>
       <c r="U52" s="28">
-        <f ca="1">(N52*2+O52*2+P52+Q52)/6</f>
-        <v>39.510621094883867</v>
+        <f>(N52*2+O52*2+P52+Q52)/6</f>
+        <v>40.455825510365173</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>295</v>
+      <c r="A53" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="C53" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="25">
-        <v>339239</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="9">
-        <v>351034175</v>
-      </c>
-      <c r="F53" s="9"/>
+        <v>296960000</v>
+      </c>
+      <c r="F53" s="9">
+        <v>20480000</v>
+      </c>
       <c r="G53" s="9">
-        <v>464664582</v>
+        <v>512000000</v>
       </c>
       <c r="H53" s="6">
         <f>G53</f>
-        <v>464664582</v>
+        <v>512000000</v>
       </c>
       <c r="I53" s="11">
-        <v>4121.8999999999996</v>
+        <v>3106</v>
       </c>
       <c r="J53" s="13">
-        <v>37509</v>
+        <v>34318</v>
       </c>
       <c r="K53" s="14">
-        <v>13.61</v>
-      </c>
-      <c r="N53" s="34">
+        <v>41.16</v>
+      </c>
+      <c r="N53" s="35">
         <f>LOG((D53+E53)/(F53+E53)+1,V$3)</f>
-        <v>65.578543264786234</v>
+        <v>62.045050657220621</v>
       </c>
       <c r="O53" s="16">
         <f>LOG(I53*H53/J53^2,W$3)</f>
-        <v>47.009744439095968</v>
+        <v>46.984923957141127</v>
       </c>
       <c r="P53" s="11">
         <f>LOG(K53/J53+1,X$3)</f>
-        <v>6.0548727765791552</v>
+        <v>20.926370102859536</v>
       </c>
       <c r="R53" s="16">
         <f>(N53+O53)/2</f>
-        <v>56.294143851941101</v>
+        <v>54.514987307180874</v>
       </c>
       <c r="S53" s="11">
         <f>(N53+O53+P53)/3</f>
-        <v>39.547720160153787</v>
+        <v>43.31878157240709</v>
       </c>
       <c r="T53" s="12">
         <f>(N53+O53+Q53)/3</f>
-        <v>37.529429234627401</v>
+        <v>36.343324871453916</v>
       </c>
       <c r="U53" s="28">
         <f>(N53*2+O53*2+P53+Q53)/6</f>
-        <v>38.538574697390594</v>
+        <v>39.83105322193051</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -5947,633 +5977,627 @@
         <v>290</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C54" s="21">
         <v>2022</v>
       </c>
       <c r="D54" s="60">
-        <v>21450000</v>
+        <v>1527000</v>
       </c>
       <c r="E54" s="61">
-        <v>4831049000</v>
+        <v>9986630000</v>
       </c>
       <c r="F54" s="61">
-        <v>304293000</v>
+        <v>888843000</v>
       </c>
       <c r="G54" s="61">
-        <v>8743272000</v>
+        <v>13836220000</v>
       </c>
       <c r="H54" s="6" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">G54/INDIRECT("EUR!$B$37")</f>
-        <v>345200578.07749593</v>
+        <v>546279601.32172608</v>
       </c>
       <c r="I54" s="11">
-        <v>2666.7</v>
+        <v>5097</v>
       </c>
       <c r="J54" s="13">
-        <v>32335</v>
+        <v>51727</v>
       </c>
       <c r="K54" s="14">
-        <v>15.09</v>
+        <v>43.38</v>
       </c>
       <c r="L54" s="15">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M54" s="12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N54" s="34">
         <f>LOG((D54+E54)/(F54+E54)+1,V$3)</f>
-        <v>62.892714883877886</v>
+        <v>61.212595814979451</v>
       </c>
       <c r="O54" s="16">
         <f ca="1">LOG(I54*H54/J54^2,W$3)</f>
-        <v>44.170737536465211</v>
+        <v>45.286906977821459</v>
       </c>
       <c r="P54" s="11">
         <f>LOG(K54/J54+1,X$3)</f>
-        <v>7.7871083713655596</v>
+        <v>14.634942774253107</v>
       </c>
       <c r="Q54" s="28">
         <f>LOG(L54*M54/J54+1,Y$3)</f>
-        <v>8.9952151255023658</v>
+        <v>9.4965928409112852</v>
       </c>
       <c r="R54" s="16">
         <f ca="1">(N54+O54)/2</f>
-        <v>53.531726210171549</v>
+        <v>53.249751396400455</v>
       </c>
       <c r="S54" s="11">
         <f ca="1">(N54+O54+P54)/3</f>
-        <v>38.283520263902886</v>
+        <v>40.378148522351339</v>
       </c>
       <c r="T54" s="12">
         <f ca="1">(N54+O54+Q54)/3</f>
-        <v>38.68622251528182</v>
+        <v>38.6653652112374</v>
       </c>
       <c r="U54" s="28">
         <f ca="1">(N54*2+O54*2+P54+Q54)/6</f>
-        <v>38.48487138959235</v>
+        <v>39.52175686679437</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>43</v>
+      <c r="A55" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>301</v>
       </c>
       <c r="C55" s="21">
         <v>2022</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="25">
+        <v>2800000</v>
+      </c>
       <c r="E55" s="9">
-        <v>117080000</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>338800000</v>
+      </c>
+      <c r="F55" s="9">
+        <v>33940644.689999998</v>
+      </c>
       <c r="G55" s="9">
-        <v>192860000</v>
+        <v>818252566.36000001</v>
       </c>
       <c r="H55" s="6">
         <f>G55</f>
-        <v>192860000</v>
+        <v>818252566.36000001</v>
       </c>
       <c r="I55" s="11">
-        <v>2214</v>
+        <v>2115.35</v>
       </c>
       <c r="J55" s="13">
-        <v>23245</v>
+        <v>50000</v>
       </c>
       <c r="K55" s="14">
-        <v>11.33</v>
+        <v>84.27</v>
       </c>
       <c r="N55" s="35">
         <f>LOG((D55+E55)/(F55+E55)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>61.116732211992726</v>
       </c>
       <c r="O55" s="16">
         <f>LOG(I55*H55/J55^2,W$3)</f>
-        <v>43.466644735709679</v>
+        <v>42.630813697135451</v>
       </c>
       <c r="P55" s="11">
         <f>LOG(K55/J55+1,X$3)</f>
-        <v>8.1330923147367482</v>
+        <v>29.39937393352082</v>
       </c>
       <c r="R55" s="16">
         <f>(N55+O55)/2</f>
-        <v>54.49975772803127</v>
+        <v>51.873772954564089</v>
       </c>
       <c r="S55" s="11">
         <f>(N55+O55+P55)/3</f>
-        <v>39.04420259026643</v>
+        <v>44.382306614216333</v>
       </c>
       <c r="T55" s="12">
         <f>(N55+O55+Q55)/3</f>
-        <v>36.333171818687511</v>
+        <v>34.582515303042726</v>
       </c>
       <c r="U55" s="28">
         <f>(N55*2+O55*2+P55+Q55)/6</f>
-        <v>37.68868720447697</v>
+        <v>39.482410958629529</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="55" t="s">
-        <v>15</v>
+      <c r="A56" s="42" t="s">
+        <v>296</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="C56" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D56" s="24">
-        <v>3448000</v>
-      </c>
-      <c r="E56" s="8">
-        <v>91494000</v>
-      </c>
-      <c r="F56" s="8">
-        <v>361632000</v>
-      </c>
-      <c r="G56" s="8">
-        <v>730044000</v>
-      </c>
-      <c r="H56" s="6" cm="1">
-        <f t="array" aca="1" ref="H56" ca="1">G56/INDIRECT("EUR!$B$48")</f>
-        <v>852270697.54735947</v>
+        <v>2022</v>
+      </c>
+      <c r="D56" s="25">
+        <v>339239</v>
+      </c>
+      <c r="E56" s="9">
+        <v>351034175</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9">
+        <v>464664582</v>
+      </c>
+      <c r="H56" s="6">
+        <f>G56</f>
+        <v>464664582</v>
       </c>
       <c r="I56" s="11">
-        <v>2445</v>
+        <v>4121.8999999999996</v>
       </c>
       <c r="J56" s="13">
-        <v>23795</v>
+        <v>37509</v>
       </c>
       <c r="K56" s="14">
-        <v>63.86</v>
-      </c>
-      <c r="L56" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="M56" s="12">
-        <v>34</v>
+        <v>13.61</v>
       </c>
       <c r="N56" s="34">
         <f>LOG((D56+E56)/(F56+E56)+1,V$3)</f>
-        <v>17.985013309502833</v>
+        <v>65.171265703989832</v>
       </c>
       <c r="O56" s="16">
-        <f ca="1">LOG(I56*H56/J56^2,W$3)</f>
-        <v>53.488563681900757</v>
+        <f>LOG(I56*H56/J56^2,W$3)</f>
+        <v>47.038034850073892</v>
       </c>
       <c r="P56" s="11">
         <f>LOG(K56/J56+1,X$3)</f>
-        <v>44.732404908131976</v>
-      </c>
-      <c r="Q56" s="28">
-        <f>LOG(L56*M56/J56+1,Y$3)</f>
-        <v>31.941529713903453</v>
+        <v>6.333513139704495</v>
       </c>
       <c r="R56" s="16">
-        <f ca="1">(N56+O56)/2</f>
-        <v>35.736788495701795</v>
+        <f>(N56+O56)/2</f>
+        <v>56.104650277031865</v>
       </c>
       <c r="S56" s="11">
-        <f ca="1">(N56+O56+P56)/3</f>
-        <v>38.735327299845189</v>
+        <f>(N56+O56+P56)/3</f>
+        <v>39.514271231256075</v>
       </c>
       <c r="T56" s="12">
-        <f ca="1">(N56+O56+Q56)/3</f>
-        <v>34.471702235102349</v>
+        <f>(N56+O56+Q56)/3</f>
+        <v>37.403100184687908</v>
       </c>
       <c r="U56" s="28">
-        <f ca="1">(N56*2+O56*2+P56+Q56)/6</f>
-        <v>36.603514767473769</v>
+        <f>(N56*2+O56*2+P56+Q56)/6</f>
+        <v>38.458685707971995</v>
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>86</v>
+      <c r="A57" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>292</v>
       </c>
       <c r="C57" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D57" s="24">
-        <v>28900000</v>
-      </c>
-      <c r="E57" s="8">
-        <v>148300000</v>
-      </c>
-      <c r="F57" s="8">
-        <v>607800000</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1230000000</v>
+        <v>2022</v>
+      </c>
+      <c r="D57" s="60">
+        <v>21450000</v>
+      </c>
+      <c r="E57" s="61">
+        <v>4831049000</v>
+      </c>
+      <c r="F57" s="61">
+        <v>304293000</v>
+      </c>
+      <c r="G57" s="61">
+        <v>8743272000</v>
       </c>
       <c r="H57" s="6" cm="1">
-        <f t="array" aca="1" ref="H57" ca="1">G57/INDIRECT("EUR!$B$48")</f>
-        <v>1435931201.3840976</v>
+        <f t="array" aca="1" ref="H57" ca="1">G57/INDIRECT("EUR!$B$37")</f>
+        <v>345200578.07749593</v>
       </c>
       <c r="I57" s="11">
-        <v>4525</v>
+        <v>2666.7</v>
       </c>
       <c r="J57" s="13">
-        <v>41490</v>
+        <v>32335</v>
       </c>
       <c r="K57" s="14">
-        <v>112.24</v>
+        <v>15.09</v>
       </c>
       <c r="L57" s="15">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="M57" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N57" s="34">
         <f>LOG((D57+E57)/(F57+E57)+1,V$3)</f>
-        <v>19.906516527657818</v>
+        <v>62.50211774288401</v>
       </c>
       <c r="O57" s="16">
         <f ca="1">LOG(I57*H57/J57^2,W$3)</f>
-        <v>53.653269732942448</v>
+        <v>44.197319436303523</v>
       </c>
       <c r="P57" s="11">
         <f>LOG(K57/J57+1,X$3)</f>
-        <v>45.089831580272154</v>
+        <v>8.1454648198588604</v>
       </c>
       <c r="Q57" s="28">
         <f>LOG(L57*M57/J57+1,Y$3)</f>
-        <v>26.24789176947441</v>
+        <v>9.1235271103622679</v>
       </c>
       <c r="R57" s="16">
         <f ca="1">(N57+O57)/2</f>
-        <v>36.779893130300131</v>
+        <v>53.349718589593763</v>
       </c>
       <c r="S57" s="11">
         <f ca="1">(N57+O57+P57)/3</f>
-        <v>39.549872613624139</v>
+        <v>38.281633999682128</v>
       </c>
       <c r="T57" s="12">
         <f ca="1">(N57+O57+Q57)/3</f>
-        <v>33.269226010024887</v>
+        <v>38.607654763183263</v>
       </c>
       <c r="U57" s="28">
         <f ca="1">(N57*2+O57*2+P57+Q57)/6</f>
-        <v>36.409549311824513</v>
+        <v>38.444644381432695</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="55" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C58" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D58" s="24">
-        <v>2600000</v>
-      </c>
-      <c r="E58" s="8">
-        <v>94600000</v>
-      </c>
-      <c r="F58" s="8">
-        <v>342500000</v>
-      </c>
-      <c r="G58" s="8">
-        <v>675100000</v>
-      </c>
-      <c r="H58" s="6" cm="1">
-        <f t="array" aca="1" ref="H58" ca="1">G58/INDIRECT("EUR!$B$48")</f>
-        <v>788127767.52390587</v>
+        <v>2022</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="9">
+        <v>117080000</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9">
+        <v>192860000</v>
+      </c>
+      <c r="H58" s="6">
+        <f>G58</f>
+        <v>192860000</v>
       </c>
       <c r="I58" s="11">
-        <v>2745</v>
+        <v>2214</v>
       </c>
       <c r="J58" s="13">
-        <v>28680</v>
+        <v>23245</v>
       </c>
       <c r="K58" s="14">
-        <v>58.62</v>
-      </c>
-      <c r="L58" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M58" s="12">
-        <v>42</v>
-      </c>
-      <c r="N58" s="34">
+        <v>11.33</v>
+      </c>
+      <c r="N58" s="35">
         <f>LOG((D58+E58)/(F58+E58)+1,V$3)</f>
-        <v>18.983997065432209</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O58" s="16">
-        <f ca="1">LOG(I58*H58/J58^2,W$3)</f>
-        <v>51.299987095417123</v>
+        <f>LOG(I58*H58/J58^2,W$3)</f>
+        <v>43.492802913297687</v>
       </c>
       <c r="P58" s="11">
         <f>LOG(K58/J58+1,X$3)</f>
-        <v>34.078806166073718</v>
-      </c>
-      <c r="Q58" s="28">
-        <f>LOG(L58*M58/J58+1,Y$3)</f>
-        <v>42.348173429805179</v>
+        <v>8.5073706653366283</v>
       </c>
       <c r="R58" s="16">
-        <f ca="1">(N58+O58)/2</f>
-        <v>35.141992080424664</v>
+        <f>(N58+O58)/2</f>
+        <v>54.30933986179835</v>
       </c>
       <c r="S58" s="11">
-        <f ca="1">(N58+O58+P58)/3</f>
-        <v>34.787596775641013</v>
+        <f>(N58+O58+P58)/3</f>
+        <v>39.04201679631111</v>
       </c>
       <c r="T58" s="12">
-        <f ca="1">(N58+O58+Q58)/3</f>
-        <v>37.544052530218174</v>
+        <f>(N58+O58+Q58)/3</f>
+        <v>36.206226574532231</v>
       </c>
       <c r="U58" s="28">
-        <f ca="1">(N58*2+O58*2+P58+Q58)/6</f>
-        <v>36.165824652929594</v>
+        <f>(N58*2+O58*2+P58+Q58)/6</f>
+        <v>37.62412168542167</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="9">
-        <v>318235849.14999998</v>
-      </c>
-      <c r="F59" s="9">
-        <v>86177594.299999997</v>
-      </c>
-      <c r="G59" s="9">
-        <v>582806127.85000002</v>
-      </c>
-      <c r="H59" s="6">
-        <f>G59</f>
-        <v>582806127.85000002</v>
+        <v>2023</v>
+      </c>
+      <c r="D59" s="24">
+        <v>3448000</v>
+      </c>
+      <c r="E59" s="8">
+        <v>91494000</v>
+      </c>
+      <c r="F59" s="8">
+        <v>361632000</v>
+      </c>
+      <c r="G59" s="8">
+        <v>730044000</v>
+      </c>
+      <c r="H59" s="6" cm="1">
+        <f t="array" aca="1" ref="H59" ca="1">G59/INDIRECT("EUR!$B$48")</f>
+        <v>852270697.54735947</v>
       </c>
       <c r="I59" s="11">
-        <v>1627</v>
+        <v>2445</v>
       </c>
       <c r="J59" s="13">
-        <v>47959</v>
+        <v>23795</v>
       </c>
       <c r="K59" s="14">
-        <v>18.43</v>
+        <v>63.86</v>
       </c>
       <c r="L59" s="15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M59" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N59" s="34">
         <f>LOG((D59+E59)/(F59+E59)+1,V$3)</f>
-        <v>54.881466563455312</v>
+        <v>17.873316830945676</v>
       </c>
       <c r="O59" s="16">
-        <f>LOG(I59*H59/J59^2,W$3)</f>
-        <v>39.227783058298371</v>
+        <f ca="1">LOG(I59*H59/J59^2,W$3)</f>
+        <v>53.520753038963527</v>
       </c>
       <c r="P59" s="11">
         <f>LOG(K59/J59+1,X$3)</f>
-        <v>6.4125821967601331</v>
+        <v>46.790954114200289</v>
       </c>
       <c r="Q59" s="28">
         <f>LOG(L59*M59/J59+1,Y$3)</f>
-        <v>21.888309644457884</v>
+        <v>32.397158736652763</v>
       </c>
       <c r="R59" s="16">
-        <f>(N59+O59)/2</f>
-        <v>47.054624810876845</v>
+        <f ca="1">(N59+O59)/2</f>
+        <v>35.697034934954601</v>
       </c>
       <c r="S59" s="11">
-        <f>(N59+O59+P59)/3</f>
-        <v>33.507277272837939</v>
+        <f ca="1">(N59+O59+P59)/3</f>
+        <v>39.395007994703164</v>
       </c>
       <c r="T59" s="12">
-        <f>(N59+O59+Q59)/3</f>
-        <v>38.665853088737187</v>
+        <f ca="1">(N59+O59+Q59)/3</f>
+        <v>34.597076202187317</v>
       </c>
       <c r="U59" s="28">
-        <f>(N59*2+O59*2+P59+Q59)/6</f>
-        <v>36.086565180787566</v>
+        <f ca="1">(N59*2+O59*2+P59+Q59)/6</f>
+        <v>36.996042098445244</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>286</v>
+      <c r="A60" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="C60" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="9">
-        <v>243288828.80000001</v>
-      </c>
-      <c r="F60" s="9">
-        <v>47175453.299999997</v>
-      </c>
-      <c r="G60" s="9">
-        <v>360460467.07999998</v>
-      </c>
-      <c r="H60" s="6">
-        <f>G60</f>
-        <v>360460467.07999998</v>
+        <v>2023</v>
+      </c>
+      <c r="D60" s="24">
+        <v>28900000</v>
+      </c>
+      <c r="E60" s="8">
+        <v>148300000</v>
+      </c>
+      <c r="F60" s="8">
+        <v>607800000</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1230000000</v>
+      </c>
+      <c r="H60" s="6" cm="1">
+        <f t="array" aca="1" ref="H60" ca="1">G60/INDIRECT("EUR!$B$48")</f>
+        <v>1435931201.3840976</v>
       </c>
       <c r="I60" s="11">
-        <v>1355</v>
+        <v>4525</v>
       </c>
       <c r="J60" s="13">
-        <v>26339</v>
+        <v>41490</v>
       </c>
       <c r="K60" s="14">
-        <v>10.59</v>
+        <v>112.24</v>
       </c>
       <c r="L60" s="15">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M60" s="12">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N60" s="34">
         <f>LOG((D60+E60)/(F60+E60)+1,V$3)</f>
-        <v>57.525527502050501</v>
+        <v>19.78288649423969</v>
       </c>
       <c r="O60" s="16">
-        <f>LOG(I60*H60/J60^2,W$3)</f>
-        <v>42.714206082467228</v>
+        <f ca="1">LOG(I60*H60/J60^2,W$3)</f>
+        <v>53.685558209920245</v>
       </c>
       <c r="P60" s="11">
         <f>LOG(K60/J60+1,X$3)</f>
-        <v>6.7091970475395497</v>
+        <v>47.164829273598698</v>
       </c>
       <c r="Q60" s="28">
         <f>LOG(L60*M60/J60+1,Y$3)</f>
-        <v>6.496469936162919</v>
+        <v>26.622304059157258</v>
       </c>
       <c r="R60" s="16">
-        <f>(N60+O60)/2</f>
-        <v>50.119866792258861</v>
+        <f ca="1">(N60+O60)/2</f>
+        <v>36.734222352079968</v>
       </c>
       <c r="S60" s="11">
-        <f>(N60+O60+P60)/3</f>
-        <v>35.649643544019092</v>
+        <f ca="1">(N60+O60+P60)/3</f>
+        <v>40.211091325919547</v>
       </c>
       <c r="T60" s="12">
-        <f>(N60+O60+Q60)/3</f>
-        <v>35.578734506893547</v>
+        <f ca="1">(N60+O60+Q60)/3</f>
+        <v>33.363582921105731</v>
       </c>
       <c r="U60" s="28">
-        <f>(N60*2+O60*2+P60+Q60)/6</f>
-        <v>35.614189025456319</v>
+        <f ca="1">(N60*2+O60*2+P60+Q60)/6</f>
+        <v>36.787337123512636</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>280</v>
+      <c r="A61" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>4</v>
       </c>
       <c r="C61" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="9">
-        <v>212140470</v>
-      </c>
-      <c r="F61" s="9">
-        <v>32808958</v>
-      </c>
-      <c r="G61" s="9">
-        <v>330933638</v>
-      </c>
-      <c r="H61" s="6">
-        <f>G61</f>
-        <v>330933638</v>
+        <v>2023</v>
+      </c>
+      <c r="D61" s="24">
+        <v>2600000</v>
+      </c>
+      <c r="E61" s="8">
+        <v>94600000</v>
+      </c>
+      <c r="F61" s="8">
+        <v>342500000</v>
+      </c>
+      <c r="G61" s="8">
+        <v>675100000</v>
+      </c>
+      <c r="H61" s="6" cm="1">
+        <f t="array" aca="1" ref="H61" ca="1">G61/INDIRECT("EUR!$B$48")</f>
+        <v>788127767.52390587</v>
       </c>
       <c r="I61" s="11">
-        <v>1310</v>
+        <v>2745</v>
       </c>
       <c r="J61" s="13">
-        <v>29362</v>
+        <v>28680</v>
       </c>
       <c r="K61" s="14">
-        <v>22.73</v>
+        <v>58.62</v>
+      </c>
+      <c r="L61" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M61" s="12">
+        <v>42</v>
       </c>
       <c r="N61" s="34">
         <f>LOG((D61+E61)/(F61+E61)+1,V$3)</f>
-        <v>58.979191241888188</v>
+        <v>18.866096367520139</v>
       </c>
       <c r="O61" s="16">
-        <f>LOG(I61*H61/J61^2,W$3)</f>
-        <v>40.521832784030892</v>
+        <f ca="1">LOG(I61*H61/J61^2,W$3)</f>
+        <v>51.330859369568103</v>
       </c>
       <c r="P61" s="11">
         <f>LOG(K61/J61+1,X$3)</f>
-        <v>12.915371939038392</v>
+        <v>35.647085348044854</v>
+      </c>
+      <c r="Q61" s="28">
+        <f>LOG(L61*M61/J61+1,Y$3)</f>
+        <v>42.952247719542207</v>
       </c>
       <c r="R61" s="16">
-        <f>(N61+O61)/2</f>
-        <v>49.75051201295954</v>
+        <f ca="1">(N61+O61)/2</f>
+        <v>35.098477868544123</v>
       </c>
       <c r="S61" s="11">
-        <f>(N61+O61+P61)/3</f>
-        <v>37.472131988319155</v>
+        <f ca="1">(N61+O61+P61)/3</f>
+        <v>35.281347028377702</v>
       </c>
       <c r="T61" s="12">
-        <f>(N61+O61+Q61)/3</f>
-        <v>33.167008008639691</v>
+        <f ca="1">(N61+O61+Q61)/3</f>
+        <v>37.716401152210153</v>
       </c>
       <c r="U61" s="28">
-        <f>(N61*2+O61*2+P61+Q61)/6</f>
-        <v>35.319569998479423</v>
+        <f ca="1">(N61*2+O61*2+P61+Q61)/6</f>
+        <v>36.498874090293931</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C62" s="21">
         <v>2022</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="9">
-        <v>196693950</v>
+        <v>318235849.14999998</v>
       </c>
       <c r="F62" s="9">
-        <v>33135497</v>
+        <v>86177594.299999997</v>
       </c>
       <c r="G62" s="9">
-        <v>291296473</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="H62" s="6">
         <f>G62</f>
-        <v>291296473</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="I62" s="11">
-        <v>1294.4680000000001</v>
+        <v>1627</v>
       </c>
       <c r="J62" s="13">
-        <v>19497</v>
+        <v>47959</v>
       </c>
       <c r="K62" s="14">
-        <v>1.74</v>
+        <v>18.43</v>
       </c>
       <c r="L62" s="15">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="M62" s="12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N62" s="34">
         <f>LOG((D62+E62)/(F62+E62)+1,V$3)</f>
-        <v>58.459333075469317</v>
+        <v>54.540623526661371</v>
       </c>
       <c r="O62" s="16">
         <f>LOG(I62*H62/J62^2,W$3)</f>
-        <v>44.947606985242977</v>
+        <v>39.251390293728242</v>
       </c>
       <c r="P62" s="11">
         <f>LOG(K62/J62+1,X$3)</f>
-        <v>1.489440779536674</v>
+        <v>6.7076840589805693</v>
       </c>
       <c r="Q62" s="28">
         <f>LOG(L62*M62/J62+1,Y$3)</f>
-        <v>2.9708204289599354</v>
+        <v>22.200534801557911</v>
       </c>
       <c r="R62" s="16">
         <f>(N62+O62)/2</f>
-        <v>51.703470030356144</v>
+        <v>46.896006910194806</v>
       </c>
       <c r="S62" s="11">
         <f>(N62+O62+P62)/3</f>
-        <v>34.965460280082986</v>
+        <v>33.499899293123399</v>
       </c>
       <c r="T62" s="12">
         <f>(N62+O62+Q62)/3</f>
-        <v>35.459253496557409</v>
+        <v>38.664182873982504</v>
       </c>
       <c r="U62" s="28">
         <f>(N62*2+O62*2+P62+Q62)/6</f>
-        <v>35.212356888320194</v>
+        <v>36.082041083552951</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -6581,269 +6605,267 @@
         <v>14</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C63" s="21">
         <v>2022</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="9">
-        <v>128991623.3</v>
+        <v>243288828.80000001</v>
       </c>
       <c r="F63" s="9">
-        <v>20005825.18</v>
+        <v>47175453.299999997</v>
       </c>
       <c r="G63" s="9">
-        <v>173093242.25999999</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="H63" s="6">
         <f>G63</f>
-        <v>173093242.25999999</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="I63" s="11">
-        <v>644</v>
+        <v>1355</v>
       </c>
       <c r="J63" s="13">
-        <v>17201</v>
+        <v>26339</v>
       </c>
       <c r="K63" s="14">
-        <v>13.5</v>
+        <v>10.59</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="M63" s="12">
+        <v>10</v>
       </c>
       <c r="N63" s="34">
         <f>LOG((D63+E63)/(F63+E63)+1,V$3)</f>
-        <v>58.962580748170311</v>
+        <v>57.168263443439713</v>
       </c>
       <c r="O63" s="16">
         <f>LOG(I63*H63/J63^2,W$3)</f>
-        <v>38.64108735404394</v>
+        <v>42.739911443325639</v>
       </c>
       <c r="P63" s="11">
         <f>LOG(K63/J63+1,X$3)</f>
-        <v>13.09395563350947</v>
+        <v>7.0179488860318644</v>
+      </c>
+      <c r="Q63" s="28">
+        <f>LOG(L63*M63/J63+1,Y$3)</f>
+        <v>6.5891386428543761</v>
       </c>
       <c r="R63" s="16">
         <f>(N63+O63)/2</f>
-        <v>48.801834051107122</v>
+        <v>49.954087443382676</v>
       </c>
       <c r="S63" s="11">
         <f>(N63+O63+P63)/3</f>
-        <v>36.899207911907901</v>
+        <v>35.642041257599068</v>
       </c>
       <c r="T63" s="12">
         <f>(N63+O63+Q63)/3</f>
-        <v>32.534556034071414</v>
+        <v>35.499104509873241</v>
       </c>
       <c r="U63" s="28">
         <f>(N63*2+O63*2+P63+Q63)/6</f>
-        <v>34.716881972989661</v>
+        <v>35.570572883736155</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>98</v>
+      <c r="B64" s="38" t="s">
+        <v>280</v>
       </c>
       <c r="C64" s="21">
         <v>2022</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="9">
-        <v>486789762</v>
+        <v>212140470</v>
       </c>
       <c r="F64" s="9">
-        <v>69227637</v>
+        <v>32808958</v>
       </c>
       <c r="G64" s="9">
-        <v>681246368</v>
+        <v>330933638</v>
       </c>
       <c r="H64" s="6">
         <f>G64</f>
-        <v>681246368</v>
+        <v>330933638</v>
       </c>
       <c r="I64" s="11">
-        <v>2867</v>
+        <v>1310</v>
       </c>
       <c r="J64" s="13">
-        <v>73553</v>
+        <v>29362</v>
       </c>
       <c r="K64" s="14">
-        <v>38.32</v>
+        <v>22.73</v>
       </c>
       <c r="N64" s="34">
         <f>LOG((D64+E64)/(F64+E64)+1,V$3)</f>
-        <v>59.456037843334443</v>
+        <v>58.612899159891931</v>
       </c>
       <c r="O64" s="16">
         <f>LOG(I64*H64/J64^2,W$3)</f>
-        <v>38.363173689847251</v>
+        <v>40.546218777120558</v>
       </c>
       <c r="P64" s="11">
         <f>LOG(K64/J64+1,X$3)</f>
-        <v>8.693069779084901</v>
+        <v>13.509726941989534</v>
       </c>
       <c r="R64" s="16">
         <f>(N64+O64)/2</f>
-        <v>48.909605766590843</v>
+        <v>49.579558968506248</v>
       </c>
       <c r="S64" s="11">
         <f>(N64+O64+P64)/3</f>
-        <v>35.504093770755532</v>
+        <v>37.556281626334005</v>
       </c>
       <c r="T64" s="12">
         <f>(N64+O64+Q64)/3</f>
-        <v>32.606403844393895</v>
+        <v>33.053039312337496</v>
       </c>
       <c r="U64" s="28">
         <f>(N64*2+O64*2+P64+Q64)/6</f>
-        <v>34.055248807574714</v>
+        <v>35.304660469335751</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C65" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D65" s="24">
-        <v>4000000</v>
-      </c>
-      <c r="E65" s="8">
-        <v>74400000</v>
-      </c>
-      <c r="F65" s="8">
-        <v>453800000</v>
-      </c>
-      <c r="G65" s="8">
-        <v>839400000</v>
-      </c>
-      <c r="H65" s="6" cm="1">
-        <f t="array" aca="1" ref="H65" ca="1">G65/INDIRECT("EUR!$B$48")</f>
-        <v>979935488.16407442</v>
+        <v>2022</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="9">
+        <v>196693950</v>
+      </c>
+      <c r="F65" s="9">
+        <v>33135497</v>
+      </c>
+      <c r="G65" s="9">
+        <v>291296473</v>
+      </c>
+      <c r="H65" s="6">
+        <f>G65</f>
+        <v>291296473</v>
       </c>
       <c r="I65" s="11">
-        <v>2745</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="J65" s="13">
-        <v>28825</v>
+        <v>19497</v>
       </c>
       <c r="K65" s="14">
-        <v>58.98</v>
+        <v>1.74</v>
       </c>
       <c r="L65" s="15">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M65" s="12">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N65" s="34">
         <f>LOG((D65+E65)/(F65+E65)+1,V$3)</f>
-        <v>13.084371375292665</v>
+        <v>58.096269588611626</v>
       </c>
       <c r="O65" s="16">
-        <f ca="1">LOG(I65*H65/J65^2,W$3)</f>
-        <v>52.653302182721795</v>
+        <f>LOG(I65*H65/J65^2,W$3)</f>
+        <v>44.974656404235965</v>
       </c>
       <c r="P65" s="11">
         <f>LOG(K65/J65+1,X$3)</f>
-        <v>34.11557370230863</v>
+        <v>1.5579836432726586</v>
       </c>
       <c r="Q65" s="28">
         <f>LOG(L65*M65/J65+1,Y$3)</f>
-        <v>38.310556222085992</v>
+        <v>3.0131976106708511</v>
       </c>
       <c r="R65" s="16">
-        <f ca="1">(N65+O65)/2</f>
-        <v>32.868836779007232</v>
+        <f>(N65+O65)/2</f>
+        <v>51.535462996423796</v>
       </c>
       <c r="S65" s="11">
-        <f ca="1">(N65+O65+P65)/3</f>
-        <v>33.284415753441031</v>
+        <f>(N65+O65+P65)/3</f>
+        <v>34.876303212040085</v>
       </c>
       <c r="T65" s="12">
-        <f ca="1">(N65+O65+Q65)/3</f>
-        <v>34.682743260033483</v>
+        <f>(N65+O65+Q65)/3</f>
+        <v>35.361374534506147</v>
       </c>
       <c r="U65" s="28">
-        <f ca="1">(N65*2+O65*2+P65+Q65)/6</f>
-        <v>33.983579506737264</v>
+        <f>(N65*2+O65*2+P65+Q65)/6</f>
+        <v>35.118838873273113</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>13</v>
+      <c r="B66" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="C66" s="21">
         <v>2022</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="9">
-        <v>644619668.87</v>
+        <v>128991623.3</v>
       </c>
       <c r="F66" s="9">
-        <v>116819770.81999999</v>
+        <v>20005825.18</v>
       </c>
       <c r="G66" s="9">
-        <v>880317964.64999998</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="H66" s="6">
         <f>G66</f>
-        <v>880317964.64999998</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="I66" s="11">
-        <v>3576</v>
+        <v>644</v>
       </c>
       <c r="J66" s="13">
-        <v>122143</v>
+        <v>17201</v>
       </c>
       <c r="K66" s="14">
-        <v>53.85</v>
-      </c>
-      <c r="L66" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="M66" s="12">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="N66" s="34">
         <f>LOG((D66+E66)/(F66+E66)+1,V$3)</f>
-        <v>57.987156557726856</v>
+        <v>58.596391826156392</v>
       </c>
       <c r="O66" s="16">
         <f>LOG(I66*H66/J66^2,W$3)</f>
-        <v>34.864686787459753</v>
+        <v>38.664341516663264</v>
       </c>
       <c r="P66" s="11">
         <f>LOG(K66/J66+1,X$3)</f>
-        <v>7.3566919249413587</v>
-      </c>
-      <c r="Q66" s="28">
-        <f>LOG(L66*M66/J66+1,Y$3)</f>
-        <v>10.343619911119807</v>
+        <v>13.696528914087873</v>
       </c>
       <c r="R66" s="16">
         <f>(N66+O66)/2</f>
-        <v>46.425921672593304</v>
+        <v>48.630366671409831</v>
       </c>
       <c r="S66" s="11">
         <f>(N66+O66+P66)/3</f>
-        <v>33.402845090042653</v>
+        <v>36.985754085635847</v>
       </c>
       <c r="T66" s="12">
         <f>(N66+O66+Q66)/3</f>
-        <v>34.398487752102135</v>
+        <v>32.420244447606557</v>
       </c>
       <c r="U66" s="28">
         <f>(N66*2+O66*2+P66+Q66)/6</f>
-        <v>33.900666421072394</v>
+        <v>34.702999266621198</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -6851,73 +6873,73 @@
         <v>15</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C67" s="21">
         <v>2023</v>
       </c>
       <c r="D67" s="24">
-        <v>2099000</v>
+        <v>4000000</v>
       </c>
       <c r="E67" s="8">
-        <v>48390000</v>
+        <v>74400000</v>
       </c>
       <c r="F67" s="8">
-        <v>150726000</v>
+        <v>453800000</v>
       </c>
       <c r="G67" s="8">
-        <v>316331000</v>
+        <v>839400000</v>
       </c>
       <c r="H67" s="6" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">G67/INDIRECT("EUR!$B$48")</f>
-        <v>369292319.40246582</v>
+        <v>979935488.16407442</v>
       </c>
       <c r="I67" s="11">
-        <v>1300</v>
+        <v>2745</v>
       </c>
       <c r="J67" s="13">
-        <v>15575</v>
+        <v>28825</v>
       </c>
       <c r="K67" s="14">
-        <v>18.079999999999998</v>
+        <v>58.98</v>
       </c>
       <c r="L67" s="15">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="M67" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N67" s="34">
         <f>LOG((D67+E67)/(F67+E67)+1,V$3)</f>
-        <v>21.366185155050481</v>
+        <v>13.003110484260571</v>
       </c>
       <c r="O67" s="16">
         <f ca="1">LOG(I67*H67/J67^2,W$3)</f>
-        <v>49.447129593316539</v>
+        <v>52.684988880360059</v>
       </c>
       <c r="P67" s="11">
         <f>LOG(K67/J67+1,X$3)</f>
-        <v>19.363309300837198</v>
+        <v>35.685544896651578</v>
       </c>
       <c r="Q67" s="28">
         <f>LOG(L67*M67/J67+1,Y$3)</f>
-        <v>41.691889932908786</v>
+        <v>38.857036038450381</v>
       </c>
       <c r="R67" s="16">
         <f ca="1">(N67+O67)/2</f>
-        <v>35.40665737418351</v>
+        <v>32.844049682310313</v>
       </c>
       <c r="S67" s="11">
         <f ca="1">(N67+O67+P67)/3</f>
-        <v>30.058874683068073</v>
+        <v>33.791214753757401</v>
       </c>
       <c r="T67" s="12">
         <f ca="1">(N67+O67+Q67)/3</f>
-        <v>37.501734893758602</v>
+        <v>34.848378467690338</v>
       </c>
       <c r="U67" s="28">
         <f ca="1">(N67*2+O67*2+P67+Q67)/6</f>
-        <v>33.780304788413339</v>
+        <v>34.31979661072387</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -6925,133 +6947,135 @@
         <v>14</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C68" s="21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="9">
-        <v>271160973</v>
+        <v>486789762</v>
       </c>
       <c r="F68" s="9">
-        <v>64849737</v>
+        <v>69227637</v>
       </c>
       <c r="G68" s="9">
-        <v>405512751</v>
+        <v>681246368</v>
       </c>
       <c r="H68" s="6">
         <f>G68</f>
-        <v>405512751</v>
+        <v>681246368</v>
       </c>
       <c r="I68" s="11">
-        <v>1518</v>
+        <v>2867</v>
       </c>
       <c r="J68" s="13">
-        <v>52583</v>
+        <v>73553</v>
       </c>
       <c r="K68" s="14">
-        <v>40.5</v>
-      </c>
-      <c r="L68" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="M68" s="12">
-        <v>20</v>
+        <v>38.32</v>
       </c>
       <c r="N68" s="34">
         <f>LOG((D68+E68)/(F68+E68)+1,V$3)</f>
-        <v>55.93868087797604</v>
+        <v>59.086784290847348</v>
       </c>
       <c r="O68" s="16">
         <f>LOG(I68*H68/J68^2,W$3)</f>
-        <v>35.213973522507466</v>
+        <v>38.386260604338119</v>
       </c>
       <c r="P68" s="11">
         <f>LOG(K68/J68+1,X$3)</f>
-        <v>12.850014854173702</v>
-      </c>
-      <c r="Q68" s="28">
-        <f>LOG(L68*M68/J68+1,Y$3)</f>
-        <v>7.0087018411802582</v>
+        <v>9.0931178410834299</v>
       </c>
       <c r="R68" s="16">
         <f>(N68+O68)/2</f>
-        <v>45.576327200241749</v>
+        <v>48.736522447592733</v>
       </c>
       <c r="S68" s="11">
         <f>(N68+O68+P68)/3</f>
-        <v>34.667556418219071</v>
+        <v>35.522054245422964</v>
       </c>
       <c r="T68" s="12">
         <f>(N68+O68+Q68)/3</f>
-        <v>32.720452080554587</v>
+        <v>32.491014965061822</v>
       </c>
       <c r="U68" s="28">
         <f>(N68*2+O68*2+P68+Q68)/6</f>
-        <v>33.694004249386829</v>
+        <v>34.006534605242393</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>278</v>
+      <c r="A69" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>5</v>
       </c>
       <c r="C69" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="9">
-        <v>420860592.89999998</v>
-      </c>
-      <c r="F69" s="9">
-        <v>89463377.120000005</v>
-      </c>
-      <c r="G69" s="9">
-        <v>640822754.27999997</v>
-      </c>
-      <c r="H69" s="6">
-        <f>G69</f>
-        <v>640822754.27999997</v>
+        <v>2023</v>
+      </c>
+      <c r="D69" s="24">
+        <v>2099000</v>
+      </c>
+      <c r="E69" s="8">
+        <v>48390000</v>
+      </c>
+      <c r="F69" s="8">
+        <v>150726000</v>
+      </c>
+      <c r="G69" s="8">
+        <v>316331000</v>
+      </c>
+      <c r="H69" s="6" cm="1">
+        <f t="array" aca="1" ref="H69" ca="1">G69/INDIRECT("EUR!$B$48")</f>
+        <v>369292319.40246582</v>
       </c>
       <c r="I69" s="11">
-        <v>2538</v>
+        <v>1300</v>
       </c>
       <c r="J69" s="13">
-        <v>59773</v>
+        <v>15575</v>
       </c>
       <c r="K69" s="14">
-        <v>30.47</v>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="L69" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="M69" s="12">
+        <v>26</v>
       </c>
       <c r="N69" s="34">
         <f>LOG((D69+E69)/(F69+E69)+1,V$3)</f>
-        <v>56.85984001995579</v>
+        <v>21.233489804707961</v>
       </c>
       <c r="O69" s="16">
-        <f>LOG(I69*H69/J69^2,W$3)</f>
-        <v>39.873506699352546</v>
+        <f ca="1">LOG(I69*H69/J69^2,W$3)</f>
+        <v>49.476886819920608</v>
       </c>
       <c r="P69" s="11">
         <f>LOG(K69/J69+1,X$3)</f>
-        <v>8.5058533922212582</v>
+        <v>20.254393182196935</v>
+      </c>
+      <c r="Q69" s="28">
+        <f>LOG(L69*M69/J69+1,Y$3)</f>
+        <v>42.286602685768408</v>
       </c>
       <c r="R69" s="16">
-        <f>(N69+O69)/2</f>
-        <v>48.366673359654172</v>
+        <f ca="1">(N69+O69)/2</f>
+        <v>35.355188312314283</v>
       </c>
       <c r="S69" s="11">
-        <f>(N69+O69+P69)/3</f>
-        <v>35.079733370509864</v>
+        <f ca="1">(N69+O69+P69)/3</f>
+        <v>30.3215899356085</v>
       </c>
       <c r="T69" s="12">
-        <f>(N69+O69+Q69)/3</f>
-        <v>32.244448906436112</v>
+        <f ca="1">(N69+O69+Q69)/3</f>
+        <v>37.665659770132322</v>
       </c>
       <c r="U69" s="28">
-        <f>(N69*2+O69*2+P69+Q69)/6</f>
-        <v>33.662091138472995</v>
+        <f ca="1">(N69*2+O69*2+P69+Q69)/6</f>
+        <v>33.993624852870411</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -7097,309 +7121,315 @@
       </c>
       <c r="N70" s="34">
         <f>LOG((D70+E70)/(F70+E70)+1,V$3)</f>
-        <v>20.351387944214085</v>
+        <v>20.224995023174753</v>
       </c>
       <c r="O70" s="16">
         <f ca="1">LOG(I70*H70/J70^2,W$3)</f>
-        <v>53.185284861606483</v>
+        <v>53.217291705818582</v>
       </c>
       <c r="P70" s="11">
         <f>LOG(K70/J70+1,X$3)</f>
-        <v>47.155649738623744</v>
+        <v>49.325714717925415</v>
       </c>
       <c r="Q70" s="28">
         <f>LOG(L70*M70/J70+1,Y$3)</f>
-        <v>7.1467996617672238</v>
+        <v>7.2487449779384381</v>
       </c>
       <c r="R70" s="16">
         <f ca="1">(N70+O70)/2</f>
-        <v>36.768336402910286</v>
+        <v>36.721143364496669</v>
       </c>
       <c r="S70" s="11">
         <f ca="1">(N70+O70+P70)/3</f>
-        <v>40.230774181481443</v>
+        <v>40.92266714897292</v>
       </c>
       <c r="T70" s="12">
         <f ca="1">(N70+O70+Q70)/3</f>
-        <v>26.894490822529264</v>
+        <v>26.897010568977262</v>
       </c>
       <c r="U70" s="28">
         <f ca="1">(N70*2+O70*2+P70+Q70)/6</f>
-        <v>33.56263250200535</v>
+        <v>33.909838858975085</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C71" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D71" s="24">
-        <v>9000000</v>
-      </c>
-      <c r="E71" s="8">
-        <v>113000000</v>
-      </c>
-      <c r="F71" s="8">
-        <v>445000000</v>
-      </c>
-      <c r="G71" s="8">
-        <v>929000000</v>
-      </c>
-      <c r="H71" s="6" cm="1">
-        <f t="array" aca="1" ref="H71" ca="1">G71/INDIRECT("EUR!$B$48")</f>
-        <v>1084536655.3543305</v>
+        <v>2022</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="9">
+        <v>644619668.87</v>
+      </c>
+      <c r="F71" s="9">
+        <v>116819770.81999999</v>
+      </c>
+      <c r="G71" s="9">
+        <v>880317964.64999998</v>
+      </c>
+      <c r="H71" s="6">
+        <f>G71</f>
+        <v>880317964.64999998</v>
       </c>
       <c r="I71" s="11">
-        <v>3665</v>
+        <v>3576</v>
       </c>
       <c r="J71" s="13">
-        <v>37990</v>
+        <v>122143</v>
       </c>
       <c r="K71" s="14">
-        <v>72.36</v>
+        <v>53.85</v>
       </c>
       <c r="L71" s="15">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M71" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N71" s="34">
         <f>LOG((D71+E71)/(F71+E71)+1,V$3)</f>
-        <v>18.694537410253485</v>
+        <v>57.627025537661467</v>
       </c>
       <c r="O71" s="16">
-        <f ca="1">LOG(I71*H71/J71^2,W$3)</f>
-        <v>51.599972860452617</v>
+        <f>LOG(I71*H71/J71^2,W$3)</f>
+        <v>34.885668316493835</v>
       </c>
       <c r="P71" s="11">
         <f>LOG(K71/J71+1,X$3)</f>
-        <v>31.759755599028395</v>
+        <v>7.695240955615632</v>
       </c>
       <c r="Q71" s="28">
         <f>LOG(L71*M71/J71+1,Y$3)</f>
-        <v>27.626023978319019</v>
+        <v>10.491166176874964</v>
       </c>
       <c r="R71" s="16">
-        <f ca="1">(N71+O71)/2</f>
-        <v>35.147255135353049</v>
+        <f>(N71+O71)/2</f>
+        <v>46.256346927077651</v>
       </c>
       <c r="S71" s="11">
-        <f ca="1">(N71+O71+P71)/3</f>
-        <v>34.018088623244829</v>
+        <f>(N71+O71+P71)/3</f>
+        <v>33.402644936590313</v>
       </c>
       <c r="T71" s="12">
-        <f ca="1">(N71+O71+Q71)/3</f>
-        <v>32.640178083008372</v>
+        <f>(N71+O71+Q71)/3</f>
+        <v>34.334620010343421</v>
       </c>
       <c r="U71" s="28">
-        <f ca="1">(N71*2+O71*2+P71+Q71)/6</f>
-        <v>33.329133353126601</v>
+        <f>(N71*2+O71*2+P71+Q71)/6</f>
+        <v>33.868632473466867</v>
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="38" t="s">
-        <v>279</v>
+      <c r="B72" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="C72" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="9">
-        <v>321313102.60000002</v>
+        <v>271160973</v>
       </c>
       <c r="F72" s="9">
-        <v>57047349.450000003</v>
+        <v>64849737</v>
       </c>
       <c r="G72" s="9">
-        <v>459478287.31999999</v>
+        <v>405512751</v>
       </c>
       <c r="H72" s="6">
         <f>G72</f>
-        <v>459478287.31999999</v>
+        <v>405512751</v>
       </c>
       <c r="I72" s="11">
-        <v>1800</v>
+        <v>1518</v>
       </c>
       <c r="J72" s="13">
-        <v>51000</v>
+        <v>52583</v>
       </c>
       <c r="K72" s="14">
-        <v>24.93</v>
+        <v>40.5</v>
+      </c>
+      <c r="L72" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M72" s="12">
+        <v>20</v>
       </c>
       <c r="N72" s="34">
         <f>LOG((D72+E72)/(F72+E72)+1,V$3)</f>
-        <v>58.122457215993506</v>
+        <v>55.591271979151308</v>
       </c>
       <c r="O72" s="16">
         <f>LOG(I72*H72/J72^2,W$3)</f>
-        <v>37.536159760488744</v>
+        <v>35.235165251903226</v>
       </c>
       <c r="P72" s="11">
         <f>LOG(K72/J72+1,X$3)</f>
-        <v>8.1565619580155442</v>
+        <v>13.441362176776883</v>
+      </c>
+      <c r="Q72" s="28">
+        <f>LOG(L72*M72/J72+1,Y$3)</f>
+        <v>7.1086772650012477</v>
       </c>
       <c r="R72" s="16">
         <f>(N72+O72)/2</f>
-        <v>47.829308488241125</v>
+        <v>45.413218615527271</v>
       </c>
       <c r="S72" s="11">
         <f>(N72+O72+P72)/3</f>
-        <v>34.6050596448326</v>
+        <v>34.755933135943806</v>
       </c>
       <c r="T72" s="12">
         <f>(N72+O72+Q72)/3</f>
-        <v>31.886205658827418</v>
+        <v>32.645038165351927</v>
       </c>
       <c r="U72" s="28">
         <f>(N72*2+O72*2+P72+Q72)/6</f>
-        <v>33.245632651830007</v>
+        <v>33.70048565064787</v>
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="54" t="s">
-        <v>7</v>
+      <c r="A73" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>278</v>
       </c>
       <c r="C73" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D73" s="24">
-        <v>8000000</v>
-      </c>
-      <c r="E73" s="8">
-        <v>185900000</v>
-      </c>
-      <c r="F73" s="8">
-        <v>410800000</v>
-      </c>
-      <c r="G73" s="8">
-        <v>952200000</v>
-      </c>
-      <c r="H73" s="6" cm="1">
-        <f t="array" aca="1" ref="H73" ca="1">G73/INDIRECT("EUR!$B$48")</f>
-        <v>1111620886.1446648</v>
+        <v>2022</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="9">
+        <v>420860592.89999998</v>
+      </c>
+      <c r="F73" s="9">
+        <v>89463377.120000005</v>
+      </c>
+      <c r="G73" s="9">
+        <v>640822754.27999997</v>
+      </c>
+      <c r="H73" s="6">
+        <f>G73</f>
+        <v>640822754.27999997</v>
       </c>
       <c r="I73" s="11">
-        <v>3810</v>
+        <v>2538</v>
       </c>
       <c r="J73" s="13">
-        <v>42980</v>
+        <v>59773</v>
       </c>
       <c r="K73" s="14">
-        <v>77.62</v>
-      </c>
-      <c r="L73" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="M73" s="12">
-        <v>28</v>
+        <v>30.47</v>
       </c>
       <c r="N73" s="34">
         <f>LOG((D73+E73)/(F73+E73)+1,V$3)</f>
-        <v>26.602556288159903</v>
+        <v>56.506710233935735</v>
       </c>
       <c r="O73" s="16">
-        <f ca="1">LOG(I73*H73/J73^2,W$3)</f>
-        <v>50.405504784161486</v>
+        <f>LOG(I73*H73/J73^2,W$3)</f>
+        <v>39.897502530538503</v>
       </c>
       <c r="P73" s="11">
         <f>LOG(K73/J73+1,X$3)</f>
-        <v>30.11456025028664</v>
-      </c>
-      <c r="Q73" s="28">
-        <f>LOG(L73*M73/J73+1,Y$3)</f>
-        <v>14.572722025548705</v>
+        <v>8.8972859070491701</v>
       </c>
       <c r="R73" s="16">
-        <f ca="1">(N73+O73)/2</f>
-        <v>38.504030536160698</v>
+        <f>(N73+O73)/2</f>
+        <v>48.202106382237119</v>
       </c>
       <c r="S73" s="11">
-        <f ca="1">(N73+O73+P73)/3</f>
-        <v>35.707540440869344</v>
+        <f>(N73+O73+P73)/3</f>
+        <v>35.100499557174466</v>
       </c>
       <c r="T73" s="12">
-        <f ca="1">(N73+O73+Q73)/3</f>
-        <v>30.526927699290031</v>
+        <f>(N73+O73+Q73)/3</f>
+        <v>32.134737588158082</v>
       </c>
       <c r="U73" s="28">
-        <f ca="1">(N73*2+O73*2+P73+Q73)/6</f>
-        <v>33.117234070079689</v>
+        <f>(N73*2+O73*2+P73+Q73)/6</f>
+        <v>33.617618572666274</v>
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>285</v>
+      <c r="A74" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="C74" s="21">
-        <v>2021</v>
-      </c>
-      <c r="D74" s="25">
-        <v>71722.16</v>
-      </c>
-      <c r="E74" s="9">
-        <v>167965881</v>
-      </c>
-      <c r="F74" s="9">
-        <v>39368427.289999999</v>
-      </c>
-      <c r="G74" s="9">
-        <v>251080695.05000001</v>
-      </c>
-      <c r="H74" s="6">
-        <f>G74</f>
-        <v>251080695.05000001</v>
+        <v>2023</v>
+      </c>
+      <c r="D74" s="24">
+        <v>9000000</v>
+      </c>
+      <c r="E74" s="8">
+        <v>113000000</v>
+      </c>
+      <c r="F74" s="8">
+        <v>445000000</v>
+      </c>
+      <c r="G74" s="8">
+        <v>929000000</v>
+      </c>
+      <c r="H74" s="6" cm="1">
+        <f t="array" aca="1" ref="H74" ca="1">G74/INDIRECT("EUR!$B$48")</f>
+        <v>1084536655.3543305</v>
       </c>
       <c r="I74" s="11">
-        <v>896</v>
+        <v>3665</v>
       </c>
       <c r="J74" s="13">
-        <v>24023</v>
+        <v>37990</v>
       </c>
       <c r="K74" s="14">
-        <v>11.79</v>
+        <v>72.36</v>
+      </c>
+      <c r="L74" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="M74" s="12">
+        <v>38</v>
       </c>
       <c r="N74" s="34">
         <f>LOG((D74+E74)/(F74+E74)+1,V$3)</f>
-        <v>56.119849467473614</v>
+        <v>18.578434410436572</v>
       </c>
       <c r="O74" s="16">
-        <f>LOG(I74*H74/J74^2,W$3)</f>
-        <v>38.863212463844881</v>
+        <f ca="1">LOG(I74*H74/J74^2,W$3)</f>
+        <v>51.631025665697344</v>
       </c>
       <c r="P74" s="11">
         <f>LOG(K74/J74+1,X$3)</f>
-        <v>8.1891943151862261</v>
+        <v>33.221313943757991</v>
+      </c>
+      <c r="Q74" s="28">
+        <f>LOG(L74*M74/J74+1,Y$3)</f>
+        <v>28.020094594862208</v>
       </c>
       <c r="R74" s="16">
-        <f>(N74+O74)/2</f>
-        <v>47.491530965659251</v>
+        <f ca="1">(N74+O74)/2</f>
+        <v>35.104730038066961</v>
       </c>
       <c r="S74" s="11">
-        <f>(N74+O74+P74)/3</f>
-        <v>34.390752082168241</v>
+        <f ca="1">(N74+O74+P74)/3</f>
+        <v>34.476924673297304</v>
       </c>
       <c r="T74" s="12">
-        <f>(N74+O74+Q74)/3</f>
-        <v>31.661020643772833</v>
+        <f ca="1">(N74+O74+Q74)/3</f>
+        <v>32.743184890332039</v>
       </c>
       <c r="U74" s="28">
-        <f>(N74*2+O74*2+P74+Q74)/6</f>
-        <v>33.025886362970539</v>
+        <f ca="1">(N74*2+O74*2+P74+Q74)/6</f>
+        <v>33.610054781814675</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -7407,135 +7437,147 @@
         <v>15</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C75" s="21">
         <v>2023</v>
       </c>
       <c r="D75" s="24">
-        <v>9373000</v>
+        <v>8000000</v>
       </c>
       <c r="E75" s="8">
-        <v>46778000</v>
+        <v>185900000</v>
       </c>
       <c r="F75" s="8">
-        <v>289887000</v>
+        <v>410800000</v>
       </c>
       <c r="G75" s="8">
-        <v>484223000</v>
+        <v>952200000</v>
       </c>
       <c r="H75" s="6" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">G75/INDIRECT("EUR!$B$48")</f>
-        <v>565293426.12017226</v>
+        <v>1111620886.1446648</v>
       </c>
       <c r="I75" s="11">
-        <v>2020</v>
+        <v>3810</v>
       </c>
       <c r="J75" s="13">
-        <v>22230</v>
+        <v>42980</v>
       </c>
       <c r="K75" s="14">
-        <v>72.89</v>
+        <v>77.62</v>
       </c>
       <c r="L75" s="15">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M75" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N75" s="34">
         <f>LOG((D75+E75)/(F75+E75)+1,V$3)</f>
-        <v>14.583681705765533</v>
+        <v>26.437340293772174</v>
       </c>
       <c r="O75" s="16">
         <f ca="1">LOG(I75*H75/J75^2,W$3)</f>
-        <v>50.456467973145777</v>
+        <v>50.435838759870308</v>
       </c>
       <c r="P75" s="11">
         <f>LOG(K75/J75+1,X$3)</f>
-        <v>54.635964717559197</v>
+        <v>31.500408031590574</v>
       </c>
       <c r="Q75" s="28">
         <f>LOG(L75*M75/J75+1,Y$3)</f>
-        <v>12.431264228202302</v>
+        <v>14.780594195565909</v>
       </c>
       <c r="R75" s="16">
         <f ca="1">(N75+O75)/2</f>
-        <v>32.520074839455653</v>
+        <v>38.436589526821237</v>
       </c>
       <c r="S75" s="11">
         <f ca="1">(N75+O75+P75)/3</f>
-        <v>39.892038132156834</v>
+        <v>36.124529028411018</v>
       </c>
       <c r="T75" s="12">
         <f ca="1">(N75+O75+Q75)/3</f>
-        <v>25.823804635704533</v>
+        <v>30.551257749736127</v>
       </c>
       <c r="U75" s="28">
         <f ca="1">(N75*2+O75*2+P75+Q75)/6</f>
-        <v>32.857921383930687</v>
+        <v>33.337893389073571</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>287</v>
+      <c r="A76" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>11</v>
       </c>
       <c r="C76" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="9">
-        <v>178626191</v>
-      </c>
-      <c r="F76" s="9">
-        <v>61887234</v>
-      </c>
-      <c r="G76" s="9">
-        <v>253060701</v>
-      </c>
-      <c r="H76" s="6">
-        <f>G76</f>
-        <v>253060701</v>
+        <v>2023</v>
+      </c>
+      <c r="D76" s="24">
+        <v>9373000</v>
+      </c>
+      <c r="E76" s="8">
+        <v>46778000</v>
+      </c>
+      <c r="F76" s="8">
+        <v>289887000</v>
+      </c>
+      <c r="G76" s="8">
+        <v>484223000</v>
+      </c>
+      <c r="H76" s="6" cm="1">
+        <f t="array" aca="1" ref="H76" ca="1">G76/INDIRECT("EUR!$B$48")</f>
+        <v>565293426.12017226</v>
       </c>
       <c r="I76" s="11">
-        <v>944</v>
+        <v>2020</v>
       </c>
       <c r="J76" s="13">
-        <v>20087</v>
+        <v>22230</v>
       </c>
       <c r="K76" s="14">
-        <v>10.56</v>
+        <v>72.89</v>
+      </c>
+      <c r="L76" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M76" s="12">
+        <v>15</v>
       </c>
       <c r="N76" s="34">
         <f>LOG((D76+E76)/(F76+E76)+1,V$3)</f>
-        <v>52.512371578471694</v>
+        <v>14.493109301792289</v>
       </c>
       <c r="O76" s="16">
-        <f>LOG(I76*H76/J76^2,W$3)</f>
-        <v>41.585722544891659</v>
+        <f ca="1">LOG(I76*H76/J76^2,W$3)</f>
+        <v>50.486832618444026</v>
       </c>
       <c r="P76" s="11">
         <f>LOG(K76/J76+1,X$3)</f>
-        <v>8.7719443660548873</v>
+        <v>57.1502677608025</v>
+      </c>
+      <c r="Q76" s="28">
+        <f>LOG(L76*M76/J76+1,Y$3)</f>
+        <v>12.608589635675472</v>
       </c>
       <c r="R76" s="16">
-        <f>(N76+O76)/2</f>
-        <v>47.049047061681676</v>
+        <f ca="1">(N76+O76)/2</f>
+        <v>32.489970960118157</v>
       </c>
       <c r="S76" s="11">
-        <f>(N76+O76+P76)/3</f>
-        <v>34.290012829806081</v>
+        <f ca="1">(N76+O76+P76)/3</f>
+        <v>40.710069893679609</v>
       </c>
       <c r="T76" s="12">
-        <f>(N76+O76+Q76)/3</f>
-        <v>31.366031374454451</v>
+        <f ca="1">(N76+O76+Q76)/3</f>
+        <v>25.862843851970595</v>
       </c>
       <c r="U76" s="28">
-        <f>(N76*2+O76*2+P76+Q76)/6</f>
-        <v>32.828022102130269</v>
+        <f ca="1">(N76*2+O76*2+P76+Q76)/6</f>
+        <v>33.286456872825106</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -7543,597 +7585,583 @@
         <v>14</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C77" s="21">
         <v>2022</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="9">
-        <v>199030207.40000001</v>
+        <v>321313102.60000002</v>
       </c>
       <c r="F77" s="9">
-        <v>49636756.810000002</v>
+        <v>57047349.450000003</v>
       </c>
       <c r="G77" s="9">
-        <v>307976955.69999999</v>
+        <v>459478287.31999999</v>
       </c>
       <c r="H77" s="6">
         <f>G77</f>
-        <v>307976955.69999999</v>
+        <v>459478287.31999999</v>
       </c>
       <c r="I77" s="11">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="J77" s="13">
-        <v>32841</v>
+        <v>51000</v>
       </c>
       <c r="K77" s="14">
-        <v>22.08</v>
+        <v>24.93</v>
       </c>
       <c r="N77" s="34">
         <f>LOG((D77+E77)/(F77+E77)+1,V$3)</f>
-        <v>55.592081288598912</v>
+        <v>57.76148590702676</v>
       </c>
       <c r="O77" s="16">
         <f>LOG(I77*H77/J77^2,W$3)</f>
-        <v>36.149114861422333</v>
+        <v>37.558748978933295</v>
       </c>
       <c r="P77" s="11">
         <f>LOG(K77/J77+1,X$3)</f>
-        <v>11.217547174511715</v>
+        <v>8.5319203626755051</v>
       </c>
       <c r="R77" s="16">
         <f>(N77+O77)/2</f>
-        <v>45.870598075010619</v>
+        <v>47.660117442980024</v>
       </c>
       <c r="S77" s="11">
         <f>(N77+O77+P77)/3</f>
-        <v>34.319581108177651</v>
+        <v>34.617385082878521</v>
       </c>
       <c r="T77" s="12">
         <f>(N77+O77+Q77)/3</f>
-        <v>30.580398716673745</v>
+        <v>31.773411628653349</v>
       </c>
       <c r="U77" s="28">
         <f>(N77*2+O77*2+P77+Q77)/6</f>
-        <v>32.4499899124257</v>
+        <v>33.195398355765931</v>
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="54" t="s">
-        <v>99</v>
+      <c r="B78" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="C78" s="21">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D78" s="25">
-        <v>75940</v>
+        <v>71722.16</v>
       </c>
       <c r="E78" s="9">
-        <v>566196229.53999996</v>
+        <v>167965881</v>
       </c>
       <c r="F78" s="9">
-        <v>134624131.96000001</v>
+        <v>39368427.289999999</v>
       </c>
       <c r="G78" s="9">
-        <v>879831965</v>
+        <v>251080695.05000001</v>
       </c>
       <c r="H78" s="6">
         <f>G78</f>
-        <v>879831965</v>
+        <v>251080695.05000001</v>
       </c>
       <c r="I78" s="11">
-        <v>3382</v>
+        <v>896</v>
       </c>
       <c r="J78" s="13">
-        <v>96984</v>
+        <v>24023</v>
       </c>
       <c r="K78" s="14">
-        <v>37.11</v>
+        <v>11.79</v>
       </c>
       <c r="N78" s="34">
         <f>LOG((D78+E78)/(F78+E78)+1,V$3)</f>
-        <v>55.99163118410182</v>
+        <v>55.771315415549246</v>
       </c>
       <c r="O78" s="16">
         <f>LOG(I78*H78/J78^2,W$3)</f>
-        <v>37.50279971021282</v>
+        <v>38.88660030110379</v>
       </c>
       <c r="P78" s="11">
         <f>LOG(K78/J78+1,X$3)</f>
-        <v>6.3851183031847798</v>
+        <v>8.5660544346116652</v>
       </c>
       <c r="R78" s="16">
         <f>(N78+O78)/2</f>
-        <v>46.747215447157316</v>
+        <v>47.328957858326518</v>
       </c>
       <c r="S78" s="11">
         <f>(N78+O78+P78)/3</f>
-        <v>33.293183065833141</v>
+        <v>34.407990050421567</v>
       </c>
       <c r="T78" s="12">
         <f>(N78+O78+Q78)/3</f>
-        <v>31.164810298104879</v>
+        <v>31.552638572217678</v>
       </c>
       <c r="U78" s="28">
         <f>(N78*2+O78*2+P78+Q78)/6</f>
-        <v>32.228996681969008</v>
+        <v>32.980314311319624</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="54" t="s">
-        <v>91</v>
+      <c r="A79" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>287</v>
       </c>
       <c r="C79" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D79" s="24">
-        <v>11700000</v>
-      </c>
-      <c r="E79" s="8">
-        <v>111500000</v>
-      </c>
-      <c r="F79" s="8">
-        <v>397500000</v>
-      </c>
-      <c r="G79" s="8">
-        <v>887000000</v>
-      </c>
-      <c r="H79" s="6" cm="1">
-        <f t="array" aca="1" ref="H79" ca="1">G79/INDIRECT("EUR!$B$48")</f>
-        <v>1035504858.233898</v>
+        <v>2022</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="9">
+        <v>178626191</v>
+      </c>
+      <c r="F79" s="9">
+        <v>61887234</v>
+      </c>
+      <c r="G79" s="9">
+        <v>253060701</v>
+      </c>
+      <c r="H79" s="6">
+        <f>G79</f>
+        <v>253060701</v>
       </c>
       <c r="I79" s="11">
-        <v>3345</v>
+        <v>944</v>
       </c>
       <c r="J79" s="13">
-        <v>30860</v>
+        <v>20087</v>
       </c>
       <c r="K79" s="14">
-        <v>48.8</v>
-      </c>
-      <c r="L79" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M79" s="12">
-        <v>28</v>
+        <v>10.56</v>
       </c>
       <c r="N79" s="34">
         <f>LOG((D79+E79)/(F79+E79)+1,V$3)</f>
-        <v>20.493136500435597</v>
+        <v>52.186241878978997</v>
       </c>
       <c r="O79" s="16">
-        <f ca="1">LOG(I79*H79/J79^2,W$3)</f>
-        <v>53.411634526343072</v>
+        <f>LOG(I79*H79/J79^2,W$3)</f>
+        <v>41.610748785634847</v>
       </c>
       <c r="P79" s="11">
         <f>LOG(K79/J79+1,X$3)</f>
-        <v>26.371929489694551</v>
-      </c>
-      <c r="Q79" s="28">
-        <f>LOG(L79*M79/J79+1,Y$3)</f>
-        <v>19.098865201259621</v>
+        <v>9.1756221729490797</v>
       </c>
       <c r="R79" s="16">
-        <f ca="1">(N79+O79)/2</f>
-        <v>36.952385513389331</v>
+        <f>(N79+O79)/2</f>
+        <v>46.898495332306922</v>
       </c>
       <c r="S79" s="11">
-        <f ca="1">(N79+O79+P79)/3</f>
-        <v>33.425566838824402</v>
+        <f>(N79+O79+P79)/3</f>
+        <v>34.32420427918764</v>
       </c>
       <c r="T79" s="12">
-        <f ca="1">(N79+O79+Q79)/3</f>
-        <v>31.001212076012763</v>
+        <f>(N79+O79+Q79)/3</f>
+        <v>31.265663554871281</v>
       </c>
       <c r="U79" s="28">
-        <f ca="1">(N79*2+O79*2+P79+Q79)/6</f>
-        <v>32.213389457418579</v>
+        <f>(N79*2+O79*2+P79+Q79)/6</f>
+        <v>32.794933917029461</v>
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="54" t="s">
-        <v>94</v>
+      <c r="A80" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="C80" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D80" s="24">
-        <v>2900000</v>
-      </c>
-      <c r="E80" s="8">
-        <v>80000000</v>
-      </c>
-      <c r="F80" s="8">
-        <v>382900000</v>
-      </c>
-      <c r="G80" s="8">
-        <v>679800000</v>
+        <v>2022</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="7">
+        <v>18592397.989999998</v>
+      </c>
+      <c r="F80" s="7">
+        <v>15175788.51</v>
+      </c>
+      <c r="G80" s="7">
+        <v>140372577.91</v>
       </c>
       <c r="H80" s="6" cm="1">
-        <f t="array" aca="1" ref="H80" ca="1">G80/INDIRECT("EUR!$B$48")</f>
-        <v>793614659.10643053</v>
+        <f t="array" aca="1" ref="H80" ca="1">G80/INDIRECT("EUR!$B$30")</f>
+        <v>143410441.28779945</v>
       </c>
       <c r="I80" s="11">
-        <v>2505</v>
+        <v>933</v>
       </c>
       <c r="J80" s="13">
-        <v>26045</v>
+        <v>6010</v>
       </c>
       <c r="K80" s="14">
-        <v>61.42</v>
-      </c>
-      <c r="L80" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="M80" s="12">
-        <v>20</v>
+        <v>1.77</v>
       </c>
       <c r="N80" s="34">
         <f>LOG((D80+E80)/(F80+E80)+1,V$3)</f>
-        <v>15.575317439162182</v>
+        <v>41.212729390383664</v>
       </c>
       <c r="O80" s="16">
         <f ca="1">LOG(I80*H80/J80^2,W$3)</f>
-        <v>52.004810960925113</v>
+        <v>53.563205847232737</v>
       </c>
       <c r="P80" s="11">
         <f>LOG(K80/J80+1,X$3)</f>
-        <v>39.312895561970926</v>
-      </c>
-      <c r="Q80" s="28">
-        <f>LOG(L80*M80/J80+1,Y$3)</f>
-        <v>18.185225173094302</v>
+        <v>5.1408586874286319</v>
       </c>
       <c r="R80" s="16">
         <f ca="1">(N80+O80)/2</f>
-        <v>33.790064200043645</v>
+        <v>47.387967618808204</v>
       </c>
       <c r="S80" s="11">
         <f ca="1">(N80+O80+P80)/3</f>
-        <v>35.631007987352739</v>
+        <v>33.305597975015012</v>
       </c>
       <c r="T80" s="12">
         <f ca="1">(N80+O80+Q80)/3</f>
-        <v>28.588451191060528</v>
+        <v>31.591978412538804</v>
       </c>
       <c r="U80" s="28">
         <f ca="1">(N80*2+O80*2+P80+Q80)/6</f>
-        <v>32.10972958920663</v>
+        <v>32.448788193776906</v>
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>293</v>
+      <c r="A81" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="C81" s="36">
-        <v>2022</v>
-      </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="63">
-        <v>5377274805</v>
-      </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63">
-        <v>18406500000</v>
+        <v>2023</v>
+      </c>
+      <c r="D81" s="24">
+        <v>2900000</v>
+      </c>
+      <c r="E81" s="8">
+        <v>80000000</v>
+      </c>
+      <c r="F81" s="8">
+        <v>382900000</v>
+      </c>
+      <c r="G81" s="8">
+        <v>679800000</v>
       </c>
       <c r="H81" s="6" cm="1">
-        <f t="array" aca="1" ref="H81" ca="1">G81/INDIRECT("EUR!$B$61")</f>
-        <v>46850242.289935693</v>
+        <f t="array" aca="1" ref="H81" ca="1">G81/INDIRECT("EUR!$B$48")</f>
+        <v>793614659.10643053</v>
       </c>
       <c r="I81" s="11">
-        <v>1800</v>
+        <v>2505</v>
       </c>
       <c r="J81" s="13">
-        <v>35870</v>
+        <v>26045</v>
       </c>
       <c r="K81" s="14">
-        <v>14.98</v>
+        <v>61.42</v>
+      </c>
+      <c r="L81" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="M81" s="12">
+        <v>20</v>
       </c>
       <c r="N81" s="34">
         <f>LOG((D81+E81)/(F81+E81)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>15.478586450954067</v>
       </c>
       <c r="O81" s="16">
         <f ca="1">LOG(I81*H81/J81^2,W$3)</f>
-        <v>27.247970937623002</v>
+        <v>52.03610739728034</v>
       </c>
       <c r="P81" s="11">
         <f>LOG(K81/J81+1,X$3)</f>
-        <v>6.968686538143011</v>
+        <v>41.122043317687265</v>
+      </c>
+      <c r="Q81" s="28">
+        <f>LOG(L81*M81/J81+1,Y$3)</f>
+        <v>18.444627789321746</v>
       </c>
       <c r="R81" s="16">
         <f ca="1">(N81+O81)/2</f>
-        <v>46.390420828987928</v>
+        <v>33.757346924117201</v>
       </c>
       <c r="S81" s="11">
         <f ca="1">(N81+O81+P81)/3</f>
-        <v>33.249842732039617</v>
+        <v>36.212245721973886</v>
       </c>
       <c r="T81" s="12">
         <f ca="1">(N81+O81+Q81)/3</f>
-        <v>30.926947219325285</v>
+        <v>28.653107212518716</v>
       </c>
       <c r="U81" s="28">
         <f ca="1">(N81*2+O81*2+P81+Q81)/6</f>
-        <v>32.088394975682455</v>
+        <v>32.432676467246303</v>
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>282</v>
+      <c r="A82" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="57" t="s">
+        <v>91</v>
       </c>
       <c r="C82" s="36">
-        <v>2022</v>
-      </c>
-      <c r="D82" s="25">
-        <v>1422000</v>
-      </c>
-      <c r="E82" s="9">
-        <v>171231415.30000001</v>
-      </c>
-      <c r="F82" s="9">
-        <v>37795692.32</v>
-      </c>
-      <c r="G82" s="9">
-        <v>237228536.25</v>
-      </c>
-      <c r="H82" s="6">
-        <f>G82</f>
-        <v>237228536.25</v>
+        <v>2023</v>
+      </c>
+      <c r="D82" s="24">
+        <v>11700000</v>
+      </c>
+      <c r="E82" s="8">
+        <v>111500000</v>
+      </c>
+      <c r="F82" s="8">
+        <v>397500000</v>
+      </c>
+      <c r="G82" s="8">
+        <v>887000000</v>
+      </c>
+      <c r="H82" s="6" cm="1">
+        <f t="array" aca="1" ref="H82" ca="1">G82/INDIRECT("EUR!$B$48")</f>
+        <v>1035504858.233898</v>
       </c>
       <c r="I82" s="11">
-        <v>960</v>
+        <v>3345</v>
       </c>
       <c r="J82" s="13">
-        <v>32000</v>
+        <v>30860</v>
       </c>
       <c r="K82" s="14">
-        <v>14.41</v>
+        <v>48.8</v>
+      </c>
+      <c r="L82" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="M82" s="12">
+        <v>28</v>
       </c>
       <c r="N82" s="34">
         <f>LOG((D82+E82)/(F82+E82)+1,V$3)</f>
-        <v>56.926800423433015</v>
+        <v>20.365863245626251</v>
       </c>
       <c r="O82" s="16">
-        <f>LOG(I82*H82/J82^2,W$3)</f>
-        <v>35.207263078764996</v>
+        <f ca="1">LOG(I82*H82/J82^2,W$3)</f>
+        <v>53.44377758752713</v>
       </c>
       <c r="P82" s="11">
         <f>LOG(K82/J82+1,X$3)</f>
-        <v>7.5141074115132147</v>
+        <v>27.585544421084727</v>
+      </c>
+      <c r="Q82" s="28">
+        <f>LOG(L82*M82/J82+1,Y$3)</f>
+        <v>19.371300409128921</v>
       </c>
       <c r="R82" s="16">
-        <f>(N82+O82)/2</f>
-        <v>46.067031751099009</v>
+        <f ca="1">(N82+O82)/2</f>
+        <v>36.90482041657669</v>
       </c>
       <c r="S82" s="11">
-        <f>(N82+O82+P82)/3</f>
-        <v>33.216056971237073</v>
+        <f ca="1">(N82+O82+P82)/3</f>
+        <v>33.798395084746033</v>
       </c>
       <c r="T82" s="12">
-        <f>(N82+O82+Q82)/3</f>
-        <v>30.711354500732671</v>
+        <f ca="1">(N82+O82+Q82)/3</f>
+        <v>31.060313747427433</v>
       </c>
       <c r="U82" s="28">
-        <f>(N82*2+O82*2+P82+Q82)/6</f>
-        <v>31.963705735984874</v>
+        <f ca="1">(N82*2+O82*2+P82+Q82)/6</f>
+        <v>32.429354416086738</v>
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>93</v>
+      <c r="A83" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>281</v>
       </c>
       <c r="C83" s="36">
-        <v>2023</v>
-      </c>
-      <c r="D83" s="24">
-        <v>3135000</v>
-      </c>
-      <c r="E83" s="8">
-        <v>108240000</v>
-      </c>
-      <c r="F83" s="8">
-        <v>160937000</v>
-      </c>
-      <c r="G83" s="8">
-        <v>460525000</v>
-      </c>
-      <c r="H83" s="6" cm="1">
-        <f t="array" aca="1" ref="H83" ca="1">G83/INDIRECT("EUR!$B$48")</f>
-        <v>537627818.30683863</v>
+        <v>2022</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="9">
+        <v>199030207.40000001</v>
+      </c>
+      <c r="F83" s="9">
+        <v>49636756.810000002</v>
+      </c>
+      <c r="G83" s="9">
+        <v>307976955.69999999</v>
+      </c>
+      <c r="H83" s="6">
+        <f>G83</f>
+        <v>307976955.69999999</v>
       </c>
       <c r="I83" s="11">
-        <v>1915</v>
+        <v>900</v>
       </c>
       <c r="J83" s="13">
-        <v>25295</v>
+        <v>32841</v>
       </c>
       <c r="K83" s="14">
-        <v>24.1</v>
-      </c>
-      <c r="L83" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M83" s="12">
-        <v>17</v>
+        <v>22.08</v>
       </c>
       <c r="N83" s="34">
         <f>LOG((D83+E83)/(F83+E83)+1,V$3)</f>
-        <v>32.736189256228897</v>
+        <v>55.246824957188863</v>
       </c>
       <c r="O83" s="16">
-        <f ca="1">LOG(I83*H83/J83^2,W$3)</f>
-        <v>48.098976710113249</v>
+        <f>LOG(I83*H83/J83^2,W$3)</f>
+        <v>36.170869357817068</v>
       </c>
       <c r="P83" s="11">
         <f>LOG(K83/J83+1,X$3)</f>
-        <v>15.894128300292497</v>
-      </c>
-      <c r="Q83" s="28">
-        <f>LOG(L83*M83/J83+1,Y$3)</f>
-        <v>13.265609189708938</v>
+        <v>11.733769650757946</v>
       </c>
       <c r="R83" s="16">
-        <f ca="1">(N83+O83)/2</f>
-        <v>40.417582983171073</v>
+        <f>(N83+O83)/2</f>
+        <v>45.708847157502966</v>
       </c>
       <c r="S83" s="11">
-        <f ca="1">(N83+O83+P83)/3</f>
-        <v>32.243098088878213</v>
+        <f>(N83+O83+P83)/3</f>
+        <v>34.383821321921296</v>
       </c>
       <c r="T83" s="12">
-        <f ca="1">(N83+O83+Q83)/3</f>
-        <v>31.366925052017027</v>
+        <f>(N83+O83+Q83)/3</f>
+        <v>30.472564771668644</v>
       </c>
       <c r="U83" s="28">
-        <f ca="1">(N83*2+O83*2+P83+Q83)/6</f>
-        <v>31.805011570447618</v>
+        <f>(N83*2+O83*2+P83+Q83)/6</f>
+        <v>32.428193046794966</v>
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="38" t="s">
-        <v>271</v>
+      <c r="B84" s="57" t="s">
+        <v>99</v>
       </c>
       <c r="C84" s="36">
         <v>2022</v>
       </c>
       <c r="D84" s="25">
-        <v>51422.97</v>
+        <v>75940</v>
       </c>
       <c r="E84" s="9">
-        <v>417456877.80000001</v>
+        <v>566196229.53999996</v>
       </c>
       <c r="F84" s="9">
-        <v>92035021.359999999</v>
+        <v>134624131.96000001</v>
       </c>
       <c r="G84" s="9">
-        <v>596878424.63999999</v>
+        <v>879831965</v>
       </c>
       <c r="H84" s="6">
         <f>G84</f>
-        <v>596878424.63999999</v>
+        <v>879831965</v>
       </c>
       <c r="I84" s="11">
-        <v>2377</v>
+        <v>3382</v>
       </c>
       <c r="J84" s="13">
-        <v>81000</v>
+        <v>96984</v>
       </c>
       <c r="K84" s="14">
-        <v>33.51</v>
+        <v>37.11</v>
       </c>
       <c r="N84" s="34">
         <f>LOG((D84+E84)/(F84+E84)+1,V$3)</f>
-        <v>56.588318164581992</v>
+        <v>55.643893435771609</v>
       </c>
       <c r="O84" s="16">
         <f>LOG(I84*H84/J84^2,W$3)</f>
-        <v>35.024364378789613</v>
+        <v>37.525368852616886</v>
       </c>
       <c r="P84" s="11">
         <f>LOG(K84/J84+1,X$3)</f>
-        <v>6.9033636586244027</v>
+        <v>6.6789562991670568</v>
       </c>
       <c r="R84" s="16">
         <f>(N84+O84)/2</f>
-        <v>45.806341271685802</v>
+        <v>46.584631144194248</v>
       </c>
       <c r="S84" s="11">
         <f>(N84+O84+P84)/3</f>
-        <v>32.838682067332002</v>
+        <v>33.282739529185186</v>
       </c>
       <c r="T84" s="12">
         <f>(N84+O84+Q84)/3</f>
-        <v>30.537560847790534</v>
+        <v>31.056420762796165</v>
       </c>
       <c r="U84" s="28">
         <f>(N84*2+O84*2+P84+Q84)/6</f>
-        <v>31.68812145756127</v>
+        <v>32.169580145990672</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>97</v>
+      <c r="A85" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>293</v>
       </c>
       <c r="C85" s="36">
-        <v>2021</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="9">
-        <v>174402468</v>
-      </c>
-      <c r="F85" s="9">
-        <v>32620403</v>
-      </c>
-      <c r="G85" s="9">
-        <v>296151444</v>
-      </c>
-      <c r="H85" s="6">
-        <f>G85</f>
-        <v>296151444</v>
+        <v>2022</v>
+      </c>
+      <c r="D85" s="62"/>
+      <c r="E85" s="63">
+        <v>5377274805</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63">
+        <v>18406500000</v>
+      </c>
+      <c r="H85" s="6" cm="1">
+        <f t="array" aca="1" ref="H85" ca="1">G85/INDIRECT("EUR!$B$61")</f>
+        <v>46850242.289935693</v>
       </c>
       <c r="I85" s="11">
-        <v>1217</v>
+        <v>1800</v>
       </c>
       <c r="J85" s="13">
-        <v>39700</v>
+        <v>35870</v>
       </c>
       <c r="K85" s="14">
-        <v>8.24</v>
+        <v>14.98</v>
       </c>
       <c r="N85" s="34">
         <f>LOG((D85+E85)/(F85+E85)+1,V$3)</f>
-        <v>57.774468837615018</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O85" s="16">
-        <f>LOG(I85*H85/J85^2,W$3)</f>
-        <v>35.388542262294756</v>
+        <f ca="1">LOG(I85*H85/J85^2,W$3)</f>
+        <v>27.264368735682478</v>
       </c>
       <c r="P85" s="11">
         <f>LOG(K85/J85+1,X$3)</f>
-        <v>3.4637999420041781</v>
+        <v>7.2893798737661388</v>
       </c>
       <c r="R85" s="16">
-        <f>(N85+O85)/2</f>
-        <v>46.581505549954883</v>
+        <f ca="1">(N85+O85)/2</f>
+        <v>46.19512277299075</v>
       </c>
       <c r="S85" s="11">
-        <f>(N85+O85+P85)/3</f>
-        <v>32.208937013971315</v>
+        <f ca="1">(N85+O85+P85)/3</f>
+        <v>33.226541806582546</v>
       </c>
       <c r="T85" s="12">
-        <f>(N85+O85+Q85)/3</f>
-        <v>31.054337033303256</v>
+        <f ca="1">(N85+O85+Q85)/3</f>
+        <v>30.796748515327167</v>
       </c>
       <c r="U85" s="28">
-        <f>(N85*2+O85*2+P85+Q85)/6</f>
-        <v>31.631637023637285</v>
+        <f ca="1">(N85*2+O85*2+P85+Q85)/6</f>
+        <v>32.011645160954856</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -8141,61 +8169,63 @@
         <v>14</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C86" s="36">
-        <v>2021</v>
-      </c>
-      <c r="D86" s="25"/>
+        <v>2022</v>
+      </c>
+      <c r="D86" s="25">
+        <v>1422000</v>
+      </c>
       <c r="E86" s="9">
-        <v>147784124.19999999</v>
+        <v>171231415.30000001</v>
       </c>
       <c r="F86" s="9">
-        <v>29747686.010000002</v>
+        <v>37795692.32</v>
       </c>
       <c r="G86" s="9">
-        <v>201622056.19999999</v>
+        <v>237228536.25</v>
       </c>
       <c r="H86" s="6">
         <f>G86</f>
-        <v>201622056.19999999</v>
+        <v>237228536.25</v>
       </c>
       <c r="I86" s="11">
-        <v>893</v>
+        <v>960</v>
       </c>
       <c r="J86" s="13">
-        <v>32549</v>
+        <v>32000</v>
       </c>
       <c r="K86" s="14">
-        <v>10.27</v>
+        <v>14.41</v>
       </c>
       <c r="N86" s="34">
         <f>LOG((D86+E86)/(F86+E86)+1,V$3)</f>
-        <v>57.26025924659352</v>
+        <v>56.573254777766799</v>
       </c>
       <c r="O86" s="16">
         <f>LOG(I86*H86/J86^2,W$3)</f>
-        <v>33.454893504681564</v>
+        <v>35.228450769823311</v>
       </c>
       <c r="P86" s="11">
         <f>LOG(K86/J86+1,X$3)</f>
-        <v>5.2653282273614961</v>
+        <v>7.8599005759551863</v>
       </c>
       <c r="R86" s="16">
         <f>(N86+O86)/2</f>
-        <v>45.357576375637542</v>
+        <v>45.900852773795052</v>
       </c>
       <c r="S86" s="11">
         <f>(N86+O86+P86)/3</f>
-        <v>31.993493659545525</v>
+        <v>33.220535374515094</v>
       </c>
       <c r="T86" s="12">
         <f>(N86+O86+Q86)/3</f>
-        <v>30.238384250425028</v>
+        <v>30.600568515863369</v>
       </c>
       <c r="U86" s="28">
         <f>(N86*2+O86*2+P86+Q86)/6</f>
-        <v>31.115938954985278</v>
+        <v>31.91055194518923</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -8203,355 +8233,335 @@
         <v>15</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" s="21">
         <v>2023</v>
       </c>
       <c r="D87" s="24">
-        <v>655000</v>
+        <v>3135000</v>
       </c>
       <c r="E87" s="8">
-        <v>22578000</v>
+        <v>108240000</v>
       </c>
       <c r="F87" s="8">
-        <v>136722000</v>
+        <v>160937000</v>
       </c>
       <c r="G87" s="8">
-        <v>216104000</v>
+        <v>460525000</v>
       </c>
       <c r="H87" s="6" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">G87/INDIRECT("EUR!$B$48")</f>
-        <v>252284940.11699921</v>
+        <v>537627818.30683863</v>
       </c>
       <c r="I87" s="11">
-        <v>880</v>
+        <v>1915</v>
       </c>
       <c r="J87" s="13">
-        <v>12480</v>
+        <v>25295</v>
       </c>
       <c r="K87" s="14">
-        <v>8.6999999999999993</v>
+        <v>24.1</v>
       </c>
       <c r="L87" s="15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M87" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N87" s="34">
         <f>LOG((D87+E87)/(F87+E87)+1,V$3)</f>
-        <v>12.871379582732711</v>
+        <v>32.532880145561208</v>
       </c>
       <c r="O87" s="16">
         <f ca="1">LOG(I87*H87/J87^2,W$3)</f>
-        <v>47.309427724227355</v>
+        <v>48.127922619838614</v>
       </c>
       <c r="P87" s="11">
         <f>LOG(K87/J87+1,X$3)</f>
-        <v>11.630931465419794</v>
+        <v>16.625563269212911</v>
       </c>
       <c r="Q87" s="28">
         <f>LOG(L87*M87/J87+1,Y$3)</f>
-        <v>53.06168040954735</v>
+        <v>13.454836086649019</v>
       </c>
       <c r="R87" s="16">
         <f ca="1">(N87+O87)/2</f>
-        <v>30.090403653480031</v>
+        <v>40.330401382699911</v>
       </c>
       <c r="S87" s="11">
         <f ca="1">(N87+O87+P87)/3</f>
-        <v>23.93724625745995</v>
+        <v>32.428788678204249</v>
       </c>
       <c r="T87" s="12">
         <f ca="1">(N87+O87+Q87)/3</f>
-        <v>37.747495905502468</v>
+        <v>31.371879617349617</v>
       </c>
       <c r="U87" s="28">
         <f ca="1">(N87*2+O87*2+P87+Q87)/6</f>
-        <v>30.842371081481208</v>
+        <v>31.900334147776928</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>9</v>
+      <c r="A88" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="C88" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D88" s="24">
-        <v>15058000</v>
-      </c>
-      <c r="E88" s="8">
-        <v>107002000</v>
-      </c>
-      <c r="F88" s="8">
-        <v>507211000</v>
-      </c>
-      <c r="G88" s="8">
-        <v>985279000</v>
-      </c>
-      <c r="H88" s="6" cm="1">
-        <f t="array" aca="1" ref="H88" ca="1">G88/INDIRECT("EUR!$B$48")</f>
-        <v>1150238096.0719693</v>
+        <v>2022</v>
+      </c>
+      <c r="D88" s="25">
+        <v>51422.97</v>
+      </c>
+      <c r="E88" s="9">
+        <v>417456877.80000001</v>
+      </c>
+      <c r="F88" s="9">
+        <v>92035021.359999999</v>
+      </c>
+      <c r="G88" s="9">
+        <v>596878424.63999999</v>
+      </c>
+      <c r="H88" s="6">
+        <f>G88</f>
+        <v>596878424.63999999</v>
       </c>
       <c r="I88" s="11">
-        <v>3530</v>
+        <v>2377</v>
       </c>
       <c r="J88" s="13">
-        <v>37190</v>
+        <v>81000</v>
       </c>
       <c r="K88" s="14">
-        <v>74.2</v>
-      </c>
-      <c r="L88" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M88" s="12">
-        <v>18</v>
+        <v>33.51</v>
       </c>
       <c r="N88" s="34">
         <f>LOG((D88+E88)/(F88+E88)+1,V$3)</f>
-        <v>17.136960339579026</v>
+        <v>56.236874673399463</v>
       </c>
       <c r="O88" s="16">
-        <f ca="1">LOG(I88*H88/J88^2,W$3)</f>
-        <v>52.015932143896521</v>
+        <f>LOG(I88*H88/J88^2,W$3)</f>
+        <v>35.045442001617367</v>
       </c>
       <c r="P88" s="11">
         <f>LOG(K88/J88+1,X$3)</f>
-        <v>33.266415324997453</v>
-      </c>
-      <c r="Q88" s="28">
-        <f>LOG(L88*M88/J88+1,Y$3)</f>
-        <v>9.5547758100686035</v>
+        <v>7.2210508880020177</v>
       </c>
       <c r="R88" s="16">
-        <f ca="1">(N88+O88)/2</f>
-        <v>34.57644624173777</v>
+        <f>(N88+O88)/2</f>
+        <v>45.641158337508415</v>
       </c>
       <c r="S88" s="11">
-        <f ca="1">(N88+O88+P88)/3</f>
-        <v>34.139769269490998</v>
+        <f>(N88+O88+P88)/3</f>
+        <v>32.834455854339616</v>
       </c>
       <c r="T88" s="12">
-        <f ca="1">(N88+O88+Q88)/3</f>
-        <v>26.235889431181381</v>
+        <f>(N88+O88+Q88)/3</f>
+        <v>30.427438891672278</v>
       </c>
       <c r="U88" s="28">
-        <f ca="1">(N88*2+O88*2+P88+Q88)/6</f>
-        <v>30.187829350336191</v>
+        <f>(N88*2+O88*2+P88+Q88)/6</f>
+        <v>31.630947373005949</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C89" s="41">
-        <v>2023</v>
-      </c>
-      <c r="D89" s="24">
-        <v>3954000</v>
-      </c>
-      <c r="E89" s="8">
-        <v>50464000</v>
-      </c>
-      <c r="F89" s="8">
-        <v>199319000</v>
-      </c>
-      <c r="G89" s="8">
-        <v>381775000</v>
-      </c>
-      <c r="H89" s="6" cm="1">
-        <f t="array" aca="1" ref="H89" ca="1">G89/INDIRECT("EUR!$B$48")</f>
-        <v>445693198.70602751</v>
+        <v>2021</v>
+      </c>
+      <c r="D89" s="25"/>
+      <c r="E89" s="9">
+        <v>174402468</v>
+      </c>
+      <c r="F89" s="9">
+        <v>32620403</v>
+      </c>
+      <c r="G89" s="9">
+        <v>296151444</v>
+      </c>
+      <c r="H89" s="6">
+        <f>G89</f>
+        <v>296151444</v>
       </c>
       <c r="I89" s="11">
-        <v>1495</v>
+        <v>1217</v>
       </c>
       <c r="J89" s="13">
-        <v>17770</v>
+        <v>39700</v>
       </c>
       <c r="K89" s="14">
-        <v>18.32</v>
-      </c>
-      <c r="L89" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="M89" s="12">
-        <v>25</v>
+        <v>8.24</v>
       </c>
       <c r="N89" s="34">
         <f>LOG((D89+E89)/(F89+E89)+1,V$3)</f>
-        <v>18.634245828172684</v>
+        <v>57.415658721179781</v>
       </c>
       <c r="O89" s="16">
-        <f ca="1">LOG(I89*H89/J89^2,W$3)</f>
-        <v>49.864804251845136</v>
+        <f>LOG(I89*H89/J89^2,W$3)</f>
+        <v>35.409839046960471</v>
       </c>
       <c r="P89" s="11">
         <f>LOG(K89/J89+1,X$3)</f>
-        <v>17.197900485215612</v>
-      </c>
-      <c r="Q89" s="28">
-        <f>LOG(L89*M89/J89+1,Y$3)</f>
-        <v>25.905607939110638</v>
+        <v>3.6232012224682184</v>
       </c>
       <c r="R89" s="16">
-        <f ca="1">(N89+O89)/2</f>
-        <v>34.249525040008912</v>
+        <f>(N89+O89)/2</f>
+        <v>46.412748884070126</v>
       </c>
       <c r="S89" s="11">
-        <f ca="1">(N89+O89+P89)/3</f>
-        <v>28.565650188411144</v>
+        <f>(N89+O89+P89)/3</f>
+        <v>32.149566330202823</v>
       </c>
       <c r="T89" s="12">
-        <f ca="1">(N89+O89+Q89)/3</f>
-        <v>31.468219339709488</v>
+        <f>(N89+O89+Q89)/3</f>
+        <v>30.941832589380084</v>
       </c>
       <c r="U89" s="28">
-        <f ca="1">(N89*2+O89*2+P89+Q89)/6</f>
-        <v>30.01693476406032</v>
+        <f>(N89*2+O89*2+P89+Q89)/6</f>
+        <v>31.545699459791454</v>
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>10</v>
+      <c r="A90" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>288</v>
       </c>
       <c r="C90" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D90" s="24">
-        <v>3189000</v>
-      </c>
-      <c r="E90" s="8">
-        <v>59459000</v>
-      </c>
-      <c r="F90" s="8">
-        <v>256284000</v>
-      </c>
-      <c r="G90" s="8">
-        <v>518675000</v>
-      </c>
-      <c r="H90" s="6" cm="1">
-        <f t="array" aca="1" ref="H90" ca="1">G90/INDIRECT("EUR!$B$48")</f>
-        <v>605513508.84381855</v>
+        <v>2021</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="9">
+        <v>147784124.19999999</v>
+      </c>
+      <c r="F90" s="9">
+        <v>29747686.010000002</v>
+      </c>
+      <c r="G90" s="9">
+        <v>201622056.19999999</v>
+      </c>
+      <c r="H90" s="6">
+        <f>G90</f>
+        <v>201622056.19999999</v>
       </c>
       <c r="I90" s="11">
-        <v>2160</v>
+        <v>893</v>
       </c>
       <c r="J90" s="13">
-        <v>23420</v>
+        <v>32549</v>
       </c>
       <c r="K90" s="14">
-        <v>35.11</v>
-      </c>
-      <c r="L90" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M90" s="12">
-        <v>23</v>
+        <v>10.27</v>
       </c>
       <c r="N90" s="34">
         <f>LOG((D90+E90)/(F90+E90)+1,V$3)</f>
-        <v>17.112403556348621</v>
+        <v>56.904642644645541</v>
       </c>
       <c r="O90" s="16">
-        <f ca="1">LOG(I90*H90/J90^2,W$3)</f>
-        <v>50.661330486599653</v>
+        <f>LOG(I90*H90/J90^2,W$3)</f>
+        <v>33.475026621714271</v>
       </c>
       <c r="P90" s="11">
         <f>LOG(K90/J90+1,X$3)</f>
-        <v>25.002288870483625</v>
-      </c>
-      <c r="Q90" s="28">
-        <f>LOG(L90*M90/J90+1,Y$3)</f>
-        <v>19.379967217433151</v>
+        <v>5.5076343869427715</v>
       </c>
       <c r="R90" s="16">
-        <f ca="1">(N90+O90)/2</f>
-        <v>33.886867021474139</v>
+        <f>(N90+O90)/2</f>
+        <v>45.189834633179906</v>
       </c>
       <c r="S90" s="11">
-        <f ca="1">(N90+O90+P90)/3</f>
-        <v>30.925340971143967</v>
+        <f>(N90+O90+P90)/3</f>
+        <v>31.962434551100859</v>
       </c>
       <c r="T90" s="12">
-        <f ca="1">(N90+O90+Q90)/3</f>
-        <v>29.051233753460476</v>
+        <f>(N90+O90+Q90)/3</f>
+        <v>30.126556422119936</v>
       </c>
       <c r="U90" s="28">
-        <f ca="1">(N90*2+O90*2+P90+Q90)/6</f>
-        <v>29.98828736230222</v>
+        <f>(N90*2+O90*2+P90+Q90)/6</f>
+        <v>31.044495486610401</v>
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="38" t="s">
-        <v>297</v>
+      <c r="A91" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="C91" s="21">
         <v>2023</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="9">
-        <v>9994324.3000000007</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9">
-        <v>21431000.629999999</v>
-      </c>
-      <c r="H91" s="6">
-        <f>G91</f>
-        <v>21431000.629999999</v>
+      <c r="D91" s="24">
+        <v>655000</v>
+      </c>
+      <c r="E91" s="8">
+        <v>22578000</v>
+      </c>
+      <c r="F91" s="8">
+        <v>136722000</v>
+      </c>
+      <c r="G91" s="8">
+        <v>216104000</v>
+      </c>
+      <c r="H91" s="6" cm="1">
+        <f t="array" aca="1" ref="H91" ca="1">G91/INDIRECT("EUR!$B$48")</f>
+        <v>252284940.11699921</v>
       </c>
       <c r="I91" s="11">
-        <v>7900</v>
+        <v>880</v>
       </c>
       <c r="J91" s="13">
-        <v>72480</v>
+        <v>12480</v>
       </c>
       <c r="K91" s="14">
-        <v>10.83</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L91" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="M91" s="12">
+        <v>28</v>
       </c>
       <c r="N91" s="34">
         <f>LOG((D91+E91)/(F91+E91)+1,V$3)</f>
-        <v>65.532870720352861</v>
+        <v>12.791441483782062</v>
       </c>
       <c r="O91" s="16">
-        <f>LOG(I91*H91/J91^2,W$3)</f>
-        <v>22.623619653052423</v>
+        <f ca="1">LOG(I91*H91/J91^2,W$3)</f>
+        <v>47.337898484266958</v>
       </c>
       <c r="P91" s="11">
         <f>LOG(K91/J91+1,X$3)</f>
-        <v>2.4936700534352099</v>
+        <v>12.166177553421251</v>
+      </c>
+      <c r="Q91" s="28">
+        <f>LOG(L91*M91/J91+1,Y$3)</f>
+        <v>53.818577208385221</v>
       </c>
       <c r="R91" s="16">
-        <f>(N91+O91)/2</f>
-        <v>44.078245186702645</v>
+        <f ca="1">(N91+O91)/2</f>
+        <v>30.064669984024512</v>
       </c>
       <c r="S91" s="11">
-        <f>(N91+O91+P91)/3</f>
-        <v>30.216720142280167</v>
+        <f ca="1">(N91+O91+P91)/3</f>
+        <v>24.098505840490091</v>
       </c>
       <c r="T91" s="12">
-        <f>(N91+O91+Q91)/3</f>
-        <v>29.385496791135097</v>
+        <f ca="1">(N91+O91+Q91)/3</f>
+        <v>37.982639058811415</v>
       </c>
       <c r="U91" s="28">
-        <f>(N91*2+O91*2+P91+Q91)/6</f>
-        <v>29.801108466707632</v>
+        <f ca="1">(N91*2+O91*2+P91+Q91)/6</f>
+        <v>31.040572449650753</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -8559,73 +8569,73 @@
         <v>15</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" s="21">
         <v>2023</v>
       </c>
       <c r="D92" s="24">
-        <v>1500000</v>
+        <v>15058000</v>
       </c>
       <c r="E92" s="8">
-        <v>46700000</v>
+        <v>107002000</v>
       </c>
       <c r="F92" s="8">
-        <v>205900000</v>
+        <v>507211000</v>
       </c>
       <c r="G92" s="8">
-        <v>363000000</v>
+        <v>985279000</v>
       </c>
       <c r="H92" s="6" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">G92/INDIRECT("EUR!$B$48")</f>
-        <v>423774817.96945322</v>
+        <v>1150238096.0719693</v>
       </c>
       <c r="I92" s="11">
-        <v>1290</v>
+        <v>3530</v>
       </c>
       <c r="J92" s="13">
-        <v>18890</v>
+        <v>37190</v>
       </c>
       <c r="K92" s="14">
-        <v>34.130000000000003</v>
+        <v>74.2</v>
       </c>
       <c r="L92" s="15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N92" s="34">
         <f>LOG((D92+E92)/(F92+E92)+1,V$3)</f>
-        <v>16.51100205242318</v>
+        <v>17.030530720086151</v>
       </c>
       <c r="O92" s="16">
         <f ca="1">LOG(I92*H92/J92^2,W$3)</f>
-        <v>47.77917194604246</v>
+        <v>52.047235272967065</v>
       </c>
       <c r="P92" s="11">
         <f>LOG(K92/J92+1,X$3)</f>
-        <v>30.128218414161168</v>
+        <v>34.797308935494193</v>
       </c>
       <c r="Q92" s="28">
         <f>LOG(L92*M92/J92+1,Y$3)</f>
-        <v>17.830125889298635</v>
+        <v>9.6910696320590812</v>
       </c>
       <c r="R92" s="16">
         <f ca="1">(N92+O92)/2</f>
-        <v>32.145086999232817</v>
+        <v>34.53888299652661</v>
       </c>
       <c r="S92" s="11">
         <f ca="1">(N92+O92+P92)/3</f>
-        <v>31.472797470875602</v>
+        <v>34.625024976182466</v>
       </c>
       <c r="T92" s="12">
         <f ca="1">(N92+O92+Q92)/3</f>
-        <v>27.373433295921426</v>
+        <v>26.256278541704102</v>
       </c>
       <c r="U92" s="28">
         <f ca="1">(N92*2+O92*2+P92+Q92)/6</f>
-        <v>29.42311538339851</v>
+        <v>30.440651758943286</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -8633,73 +8643,73 @@
         <v>15</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C93" s="56">
         <v>2023</v>
       </c>
       <c r="D93" s="24">
-        <v>1397000</v>
+        <v>3189000</v>
       </c>
       <c r="E93" s="8">
-        <v>90199000</v>
+        <v>59459000</v>
       </c>
       <c r="F93" s="8">
-        <v>310617000</v>
+        <v>256284000</v>
       </c>
       <c r="G93" s="8">
-        <v>636381000</v>
+        <v>518675000</v>
       </c>
       <c r="H93" s="6" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">G93/INDIRECT("EUR!$B$48")</f>
-        <v>742926287.69757187</v>
+        <v>605513508.84381855</v>
       </c>
       <c r="I93" s="11">
-        <v>2940</v>
+        <v>2160</v>
       </c>
       <c r="J93" s="13">
-        <v>33985</v>
+        <v>23420</v>
       </c>
       <c r="K93" s="14">
-        <v>41.21</v>
+        <v>35.11</v>
       </c>
       <c r="L93" s="15">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M93" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N93" s="34">
         <f>LOG((D93+E93)/(F93+E93)+1,V$3)</f>
-        <v>19.458401407918537</v>
+        <v>17.006126447513608</v>
       </c>
       <c r="O93" s="16">
         <f ca="1">LOG(I93*H93/J93^2,W$3)</f>
-        <v>49.151042856313929</v>
+        <v>50.691818417926555</v>
       </c>
       <c r="P93" s="11">
         <f>LOG(K93/J93+1,X$3)</f>
-        <v>20.226154668578349</v>
+        <v>26.15287404492096</v>
       </c>
       <c r="Q93" s="28">
         <f>LOG(L93*M93/J93+1,Y$3)</f>
-        <v>17.111703606093094</v>
+        <v>19.656412196846556</v>
       </c>
       <c r="R93" s="16">
         <f ca="1">(N93+O93)/2</f>
-        <v>34.304722132116233</v>
+        <v>33.848972432720082</v>
       </c>
       <c r="S93" s="11">
         <f ca="1">(N93+O93+P93)/3</f>
-        <v>29.611866310936936</v>
+        <v>31.283606303453709</v>
       </c>
       <c r="T93" s="12">
         <f ca="1">(N93+O93+Q93)/3</f>
-        <v>28.573715956775185</v>
+        <v>29.11811902076224</v>
       </c>
       <c r="U93" s="28">
         <f ca="1">(N93*2+O93*2+P93+Q93)/6</f>
-        <v>29.092791133856064</v>
+        <v>30.200862662107976</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -8707,147 +8717,133 @@
         <v>15</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C94" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D94" s="24">
-        <v>4300000</v>
+        <v>3954000</v>
       </c>
       <c r="E94" s="8">
-        <v>108500000</v>
+        <v>50464000</v>
       </c>
       <c r="F94" s="8">
-        <v>433700000</v>
+        <v>199319000</v>
       </c>
       <c r="G94" s="8">
-        <v>801800000</v>
+        <v>381775000</v>
       </c>
       <c r="H94" s="6" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">G94/INDIRECT("EUR!$B$48")</f>
-        <v>936040355.50387764</v>
+        <v>445693198.70602751</v>
       </c>
       <c r="I94" s="11">
-        <v>3320</v>
+        <v>1495</v>
       </c>
       <c r="J94" s="13">
-        <v>37260</v>
+        <v>17770</v>
       </c>
       <c r="K94" s="14">
-        <v>57.68</v>
+        <v>18.32</v>
       </c>
       <c r="L94" s="15">
         <v>1.4</v>
       </c>
       <c r="M94" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N94" s="34">
         <f>LOG((D94+E94)/(F94+E94)+1,V$3)</f>
-        <v>17.868834325107319</v>
+        <v>18.518517271081453</v>
       </c>
       <c r="O94" s="16">
         <f ca="1">LOG(I94*H94/J94^2,W$3)</f>
-        <v>50.249475502075448</v>
+        <v>49.8948128345858</v>
       </c>
       <c r="P94" s="11">
         <f>LOG(K94/J94+1,X$3)</f>
-        <v>25.817110115846056</v>
+        <v>17.989333998852757</v>
       </c>
       <c r="Q94" s="28">
         <f>LOG(L94*M94/J94+1,Y$3)</f>
-        <v>10.878498240371767</v>
+        <v>26.275137731038107</v>
       </c>
       <c r="R94" s="16">
         <f ca="1">(N94+O94)/2</f>
-        <v>34.059154913591385</v>
+        <v>34.206665052833628</v>
       </c>
       <c r="S94" s="11">
         <f ca="1">(N94+O94+P94)/3</f>
-        <v>31.311806647676274</v>
+        <v>28.800888034840003</v>
       </c>
       <c r="T94" s="12">
         <f ca="1">(N94+O94+Q94)/3</f>
-        <v>26.332269355851512</v>
+        <v>31.562822612235124</v>
       </c>
       <c r="U94" s="28">
         <f ca="1">(N94*2+O94*2+P94+Q94)/6</f>
-        <v>28.82203800176389</v>
+        <v>30.181855323537565</v>
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="54" t="s">
-        <v>16</v>
+      <c r="A95" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>297</v>
       </c>
       <c r="C95" s="21">
         <v>2023</v>
       </c>
-      <c r="D95" s="25">
-        <v>5500000</v>
-      </c>
+      <c r="D95" s="25"/>
       <c r="E95" s="9">
-        <v>12600000</v>
-      </c>
-      <c r="F95" s="9">
-        <v>219892056</v>
-      </c>
+        <v>9994324.3000000007</v>
+      </c>
+      <c r="F95" s="9"/>
       <c r="G95" s="9">
-        <v>291098453</v>
+        <v>21431000.629999999</v>
       </c>
       <c r="H95" s="6">
         <f>G95</f>
-        <v>291098453</v>
+        <v>21431000.629999999</v>
       </c>
       <c r="I95" s="11">
-        <v>689</v>
+        <v>7900</v>
       </c>
       <c r="J95" s="13">
-        <v>15107</v>
+        <v>72480</v>
       </c>
       <c r="K95" s="14">
-        <v>1.68</v>
-      </c>
-      <c r="L95" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="M95" s="12">
-        <v>10</v>
+        <v>10.83</v>
       </c>
       <c r="N95" s="34">
         <f>LOG((D95+E95)/(F95+E95)+1,V$3)</f>
-        <v>7.0879867287732425</v>
+        <v>65.125876810299019</v>
       </c>
       <c r="O95" s="16">
         <f>LOG(I95*H95/J95^2,W$3)</f>
-        <v>44.158778215924244</v>
+        <v>22.637234521744642</v>
       </c>
       <c r="P95" s="11">
         <f>LOG(K95/J95+1,X$3)</f>
-        <v>1.8559576733023273</v>
-      </c>
-      <c r="Q95" s="28">
-        <f>LOG(L95*M95/J95+1,Y$3)</f>
-        <v>12.195206708774048</v>
+        <v>2.6084267386444635</v>
       </c>
       <c r="R95" s="16">
         <f>(N95+O95)/2</f>
-        <v>25.623382472348744</v>
+        <v>43.881555666021832</v>
       </c>
       <c r="S95" s="11">
         <f>(N95+O95+P95)/3</f>
-        <v>17.700907539333272</v>
+        <v>30.123846023562709</v>
       </c>
       <c r="T95" s="12">
         <f>(N95+O95+Q95)/3</f>
-        <v>21.147323884490515</v>
+        <v>29.254370444014555</v>
       </c>
       <c r="U95" s="28">
         <f>(N95*2+O95*2+P95+Q95)/6</f>
-        <v>19.424115711911892</v>
+        <v>29.68910823378863</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -8855,73 +8851,547 @@
         <v>15</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C96" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D96" s="24">
-        <v>5800000</v>
+        <v>1500000</v>
       </c>
       <c r="E96" s="8">
-        <v>113800000</v>
+        <v>46700000</v>
       </c>
       <c r="F96" s="8">
-        <v>432100000</v>
+        <v>205900000</v>
       </c>
       <c r="G96" s="8">
-        <v>554000000</v>
+        <v>363000000</v>
       </c>
       <c r="H96" s="6" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">G96/INDIRECT("EUR!$B$48")</f>
-        <v>646752752.49332523</v>
+        <v>423774817.96945322</v>
       </c>
       <c r="I96" s="11">
-        <v>3255</v>
+        <v>1290</v>
       </c>
       <c r="J96" s="13">
-        <v>151840</v>
+        <v>18890</v>
       </c>
       <c r="K96" s="14">
-        <v>4.3600000000000003</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="L96" s="15">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M96" s="12">
         <v>16</v>
       </c>
       <c r="N96" s="34">
         <f>LOG((D96+E96)/(F96+E96)+1,V$3)</f>
-        <v>18.729423489561832</v>
+        <v>16.40845996613341</v>
       </c>
       <c r="O96" s="16">
         <f ca="1">LOG(I96*H96/J96^2,W$3)</f>
-        <v>29.407912025573232</v>
+        <v>47.807925397622903</v>
       </c>
       <c r="P96" s="11">
         <f>LOG(K96/J96+1,X$3)</f>
-        <v>0.47924238536086494</v>
+        <v>31.514694733154009</v>
       </c>
       <c r="Q96" s="28">
         <f>LOG(L96*M96/J96+1,Y$3)</f>
-        <v>1.9420942749375942</v>
+        <v>18.084463202107486</v>
       </c>
       <c r="R96" s="16">
         <f ca="1">(N96+O96)/2</f>
-        <v>24.068667757567532</v>
+        <v>32.108192681878158</v>
       </c>
       <c r="S96" s="11">
         <f ca="1">(N96+O96+P96)/3</f>
-        <v>16.205525966831974</v>
+        <v>31.910360032303441</v>
       </c>
       <c r="T96" s="12">
         <f ca="1">(N96+O96+Q96)/3</f>
-        <v>16.693143263357552</v>
+        <v>27.433616188621269</v>
       </c>
       <c r="U96" s="28">
         <f ca="1">(N96*2+O96*2+P96+Q96)/6</f>
-        <v>16.449334615094763</v>
+        <v>29.671988110462355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="21">
+        <v>2023</v>
+      </c>
+      <c r="D97" s="24">
+        <v>1397000</v>
+      </c>
+      <c r="E97" s="8">
+        <v>90199000</v>
+      </c>
+      <c r="F97" s="8">
+        <v>310617000</v>
+      </c>
+      <c r="G97" s="8">
+        <v>636381000</v>
+      </c>
+      <c r="H97" s="6" cm="1">
+        <f t="array" aca="1" ref="H97" ca="1">G97/INDIRECT("EUR!$B$48")</f>
+        <v>742926287.69757187</v>
+      </c>
+      <c r="I97" s="11">
+        <v>2940</v>
+      </c>
+      <c r="J97" s="13">
+        <v>33985</v>
+      </c>
+      <c r="K97" s="14">
+        <v>41.21</v>
+      </c>
+      <c r="L97" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="M97" s="12">
+        <v>26</v>
+      </c>
+      <c r="N97" s="34">
+        <f>LOG((D97+E97)/(F97+E97)+1,V$3)</f>
+        <v>19.337554407240045</v>
+      </c>
+      <c r="O97" s="16">
+        <f ca="1">LOG(I97*H97/J97^2,W$3)</f>
+        <v>49.180621898254905</v>
+      </c>
+      <c r="P97" s="11">
+        <f>LOG(K97/J97+1,X$3)</f>
+        <v>21.156945998048045</v>
+      </c>
+      <c r="Q97" s="28">
+        <f>LOG(L97*M97/J97+1,Y$3)</f>
+        <v>17.355793005112275</v>
+      </c>
+      <c r="R97" s="16">
+        <f ca="1">(N97+O97)/2</f>
+        <v>34.259088152747474</v>
+      </c>
+      <c r="S97" s="11">
+        <f ca="1">(N97+O97+P97)/3</f>
+        <v>29.891707434514331</v>
+      </c>
+      <c r="T97" s="12">
+        <f ca="1">(N97+O97+Q97)/3</f>
+        <v>28.624656436869074</v>
+      </c>
+      <c r="U97" s="28">
+        <f ca="1">(N97*2+O97*2+P97+Q97)/6</f>
+        <v>29.258181935691699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="59">
+        <v>2022</v>
+      </c>
+      <c r="D98" s="24">
+        <v>4300000</v>
+      </c>
+      <c r="E98" s="8">
+        <v>108500000</v>
+      </c>
+      <c r="F98" s="8">
+        <v>433700000</v>
+      </c>
+      <c r="G98" s="8">
+        <v>801800000</v>
+      </c>
+      <c r="H98" s="6" cm="1">
+        <f t="array" aca="1" ref="H98" ca="1">G98/INDIRECT("EUR!$B$48")</f>
+        <v>936040355.50387764</v>
+      </c>
+      <c r="I98" s="11">
+        <v>3320</v>
+      </c>
+      <c r="J98" s="13">
+        <v>37260</v>
+      </c>
+      <c r="K98" s="14">
+        <v>57.68</v>
+      </c>
+      <c r="L98" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M98" s="12">
+        <v>22</v>
+      </c>
+      <c r="N98" s="34">
+        <f>LOG((D98+E98)/(F98+E98)+1,V$3)</f>
+        <v>17.757859379707572</v>
+      </c>
+      <c r="O98" s="16">
+        <f ca="1">LOG(I98*H98/J98^2,W$3)</f>
+        <v>50.279715579538973</v>
+      </c>
+      <c r="P98" s="11">
+        <f>LOG(K98/J98+1,X$3)</f>
+        <v>27.005192707003403</v>
+      </c>
+      <c r="Q98" s="28">
+        <f>LOG(L98*M98/J98+1,Y$3)</f>
+        <v>11.033674262517106</v>
+      </c>
+      <c r="R98" s="16">
+        <f ca="1">(N98+O98)/2</f>
+        <v>34.018787479623271</v>
+      </c>
+      <c r="S98" s="11">
+        <f ca="1">(N98+O98+P98)/3</f>
+        <v>31.680922555416647</v>
+      </c>
+      <c r="T98" s="12">
+        <f ca="1">(N98+O98+Q98)/3</f>
+        <v>26.357083073921217</v>
+      </c>
+      <c r="U98" s="28">
+        <f ca="1">(N98*2+O98*2+P98+Q98)/6</f>
+        <v>29.019002814668934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="59">
+        <v>2023</v>
+      </c>
+      <c r="D99" s="25">
+        <v>5500000</v>
+      </c>
+      <c r="E99" s="9">
+        <v>12600000</v>
+      </c>
+      <c r="F99" s="9">
+        <v>219892056</v>
+      </c>
+      <c r="G99" s="9">
+        <v>291098453</v>
+      </c>
+      <c r="H99" s="6">
+        <f>G99</f>
+        <v>291098453</v>
+      </c>
+      <c r="I99" s="11">
+        <v>689</v>
+      </c>
+      <c r="J99" s="13">
+        <v>15107</v>
+      </c>
+      <c r="K99" s="14">
+        <v>1.68</v>
+      </c>
+      <c r="L99" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M99" s="12">
+        <v>10</v>
+      </c>
+      <c r="N99" s="34">
+        <f>LOG((D99+E99)/(F99+E99)+1,V$3)</f>
+        <v>7.0439665690969901</v>
+      </c>
+      <c r="O99" s="16">
+        <f>LOG(I99*H99/J99^2,W$3)</f>
+        <v>44.185352918656989</v>
+      </c>
+      <c r="P99" s="11">
+        <f>LOG(K99/J99+1,X$3)</f>
+        <v>1.9413673489662966</v>
+      </c>
+      <c r="Q99" s="28">
+        <f>LOG(L99*M99/J99+1,Y$3)</f>
+        <v>12.369164880618458</v>
+      </c>
+      <c r="R99" s="16">
+        <f>(N99+O99)/2</f>
+        <v>25.614659743876988</v>
+      </c>
+      <c r="S99" s="11">
+        <f>(N99+O99+P99)/3</f>
+        <v>17.723562278906758</v>
+      </c>
+      <c r="T99" s="12">
+        <f>(N99+O99+Q99)/3</f>
+        <v>21.199494789457479</v>
+      </c>
+      <c r="U99" s="28">
+        <f>(N99*2+O99*2+P99+Q99)/6</f>
+        <v>19.461528534182118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="59">
+        <v>2022</v>
+      </c>
+      <c r="D100" s="24">
+        <v>5800000</v>
+      </c>
+      <c r="E100" s="8">
+        <v>113800000</v>
+      </c>
+      <c r="F100" s="8">
+        <v>432100000</v>
+      </c>
+      <c r="G100" s="8">
+        <v>554000000</v>
+      </c>
+      <c r="H100" s="6" cm="1">
+        <f t="array" aca="1" ref="H100" ca="1">G100/INDIRECT("EUR!$B$48")</f>
+        <v>646752752.49332523</v>
+      </c>
+      <c r="I100" s="11">
+        <v>3255</v>
+      </c>
+      <c r="J100" s="13">
+        <v>151840</v>
+      </c>
+      <c r="K100" s="14">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L100" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="M100" s="12">
+        <v>16</v>
+      </c>
+      <c r="N100" s="34">
+        <f>LOG((D100+E100)/(F100+E100)+1,V$3)</f>
+        <v>18.613103828675932</v>
+      </c>
+      <c r="O100" s="16">
+        <f ca="1">LOG(I100*H100/J100^2,W$3)</f>
+        <v>29.425609673733899</v>
+      </c>
+      <c r="P100" s="11">
+        <f>LOG(K100/J100+1,X$3)</f>
+        <v>0.50129673352133119</v>
+      </c>
+      <c r="Q100" s="28">
+        <f>LOG(L100*M100/J100+1,Y$3)</f>
+        <v>1.9697972223074467</v>
+      </c>
+      <c r="R100" s="16">
+        <f ca="1">(N100+O100)/2</f>
+        <v>24.019356751204917</v>
+      </c>
+      <c r="S100" s="11">
+        <f ca="1">(N100+O100+P100)/3</f>
+        <v>16.180003411977054</v>
+      </c>
+      <c r="T100" s="12">
+        <f ca="1">(N100+O100+Q100)/3</f>
+        <v>16.669503574905761</v>
+      </c>
+      <c r="U100" s="28">
+        <f ca="1">(N100*2+O100*2+P100+Q100)/6</f>
+        <v>16.424753493441408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="59">
+        <v>2021</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H101" s="6" t="str">
+        <f>G101</f>
+        <v>*</v>
+      </c>
+      <c r="I101" s="11">
+        <v>2300.8000000000002</v>
+      </c>
+      <c r="J101" s="13">
+        <v>31632</v>
+      </c>
+      <c r="K101" s="14">
+        <v>38.19</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="M101" s="12">
+        <v>10</v>
+      </c>
+      <c r="P101" s="11">
+        <f>LOG(K101/J101+1,X$3)</f>
+        <v>21.065015709774897</v>
+      </c>
+      <c r="Q101" s="28">
+        <f>LOG(L101*M101/J101+1,Y$3)</f>
+        <v>5.064819345988842</v>
+      </c>
+      <c r="R101" s="16">
+        <f>(N101+O101)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="11">
+        <f>(N101+O101+P101)/3</f>
+        <v>7.0216719032582988</v>
+      </c>
+      <c r="T101" s="12">
+        <f>(N101+O101+Q101)/3</f>
+        <v>1.688273115329614</v>
+      </c>
+      <c r="U101" s="28">
+        <f>(N101*2+O101*2+P101+Q101)/6</f>
+        <v>4.3549725092939564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="59">
+        <v>2024</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H102" s="6" t="str">
+        <f>G102</f>
+        <v>*</v>
+      </c>
+      <c r="I102" s="11">
+        <v>900</v>
+      </c>
+      <c r="J102" s="13">
+        <v>10000</v>
+      </c>
+      <c r="K102" s="14">
+        <v>12.92</v>
+      </c>
+      <c r="P102" s="11">
+        <f>LOG(K102/J102+1,X$3)</f>
+        <v>22.54150590348134</v>
+      </c>
+      <c r="R102" s="16">
+        <f>(N102+O102)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="11">
+        <f>(N102+O102+P102)/3</f>
+        <v>7.5138353011604471</v>
+      </c>
+      <c r="T102" s="12">
+        <f>(N102+O102+Q102)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U102" s="28">
+        <f>(N102*2+O102*2+P102+Q102)/6</f>
+        <v>3.7569176505802235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="21">
+        <v>2022</v>
+      </c>
+      <c r="D103" s="25">
+        <v>2604620</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H103" s="6" t="str">
+        <f>G103</f>
+        <v>*</v>
+      </c>
+      <c r="I103" s="11">
+        <v>5135</v>
+      </c>
+      <c r="J103" s="13">
+        <v>23202</v>
+      </c>
+      <c r="K103" s="14">
+        <v>27.84</v>
+      </c>
+      <c r="P103" s="11">
+        <f>LOG(K103/J103+1,X$3)</f>
+        <v>20.935541582669988</v>
+      </c>
+      <c r="R103" s="16">
+        <f>(N103+O103)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S103" s="11">
+        <f>(N103+O103+P103)/3</f>
+        <v>6.9785138608899961</v>
+      </c>
+      <c r="T103" s="12">
+        <f>(N103+O103+Q103)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U103" s="28">
+        <f>(N103*2+O103*2+P103+Q103)/6</f>
+        <v>3.4892569304449981</v>
       </c>
     </row>
   </sheetData>

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE0840-A57D-463A-8D2D-BA9DA7EFFFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB039A47-7265-4736-98AE-C7D78EDBDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="318">
   <si>
     <t>University of Oxford</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,6 +1190,34 @@
   </si>
   <si>
     <t>Roskilde University (RUC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tallinn University of Technology (TUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Latvia (LU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riga Technical University (RTU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaunas University of Technology (KTU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Luxembourg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,7 +1239,7 @@
     <numFmt numFmtId="186" formatCode="#,##0\ [$kr-40F]"/>
     <numFmt numFmtId="187" formatCode="#,##0\ [$Kč-405]"/>
     <numFmt numFmtId="188" formatCode="#,##0\ [$Ft-40E]"/>
-    <numFmt numFmtId="190" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="189" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1371,7 +1399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,12 +1556,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,10 +1604,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1925,7 +1956,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}" name="表1" displayName="表1" ref="A1:U1048575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:U1048575" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U111">
     <sortCondition descending="1" ref="U1:U1048575"/>
   </sortState>
   <tableColumns count="21">
@@ -2263,11 +2294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
-  <dimension ref="A1:Z106"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -2379,10 +2410,10 @@
       <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" ht="14.6" thickTop="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="19">
@@ -2421,42 +2452,42 @@
       </c>
       <c r="N2" s="32">
         <f>LOG((D2+E2)/(F2+E2)+1,V$3)</f>
-        <v>64.827605278899313</v>
+        <v>64.058824158452282</v>
       </c>
       <c r="O2" s="15">
         <f ca="1">LOG(I2*H2/J2^2,W$3)</f>
-        <v>67.014630656726652</v>
+        <v>67.163118203025746</v>
       </c>
       <c r="P2" s="10">
         <f>LOG(K2/J2+1,X$3)</f>
-        <v>262.70109509049462</v>
+        <v>272.24598708658715</v>
       </c>
       <c r="Q2" s="26">
         <f>LOG(L2*M2/J2+1,Y$3)</f>
-        <v>378.80110742927531</v>
+        <v>382.15463603841505</v>
       </c>
       <c r="R2" s="15">
         <f ca="1">(N2+O2)/2</f>
-        <v>65.921117967812989</v>
+        <v>65.610971180739014</v>
       </c>
       <c r="S2" s="10">
         <f ca="1">(N2+O2+P2)/3</f>
-        <v>131.51444367537354</v>
+        <v>134.48930981602174</v>
       </c>
       <c r="T2" s="11">
         <f ca="1">(N2+O2+Q2)/3</f>
-        <v>170.21444778830042</v>
+        <v>171.12552613329771</v>
       </c>
       <c r="U2" s="26">
         <f ca="1">(N2*2+O2*2+P2+Q2)/6</f>
-        <v>150.86444573183698</v>
-      </c>
-      <c r="V2" s="67" t="s">
+        <v>152.80741797465973</v>
+      </c>
+      <c r="V2" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="35" t="s">
@@ -2499,54 +2530,54 @@
       </c>
       <c r="N3" s="32">
         <f>LOG((D3+E3)/(F3+E3)+1,V$3)</f>
-        <v>63.490325846051832</v>
+        <v>62.737403327450608</v>
       </c>
       <c r="O3" s="15">
         <f ca="1">LOG(I3*H3/J3^2,W$3)</f>
-        <v>54.446236487098311</v>
+        <v>54.566875636817748</v>
       </c>
       <c r="P3" s="10">
         <f>LOG(K3/J3+1,X$3)</f>
-        <v>3.5640836384307302</v>
+        <v>3.6935798378361535</v>
       </c>
       <c r="Q3" s="26">
         <f>LOG(L3*M3/J3+1,Y$3)</f>
-        <v>647.73500878187156</v>
+        <v>653.46941092718998</v>
       </c>
       <c r="R3" s="15">
         <f ca="1">(N3+O3)/2</f>
-        <v>58.968281166575068</v>
+        <v>58.652139482134174</v>
       </c>
       <c r="S3" s="10">
         <f ca="1">(N3+O3+P3)/3</f>
-        <v>40.500215323860289</v>
+        <v>40.332619600701499</v>
       </c>
       <c r="T3" s="11">
         <f ca="1">(N3+O3+Q3)/3</f>
-        <v>255.22385703834058</v>
+        <v>256.92456329715282</v>
       </c>
       <c r="U3" s="26">
         <f ca="1">(N3*2+O3*2+P3+Q3)/6</f>
-        <v>147.86203618110042</v>
+        <v>148.62859144892715</v>
       </c>
       <c r="V3" s="2">
-        <v>1.0107594286911938</v>
+        <v>1.010889254990097</v>
       </c>
       <c r="W3" s="2">
-        <v>1.1657375400395513</v>
+        <v>1.1653423724113168</v>
       </c>
       <c r="X3" s="2">
-        <v>1.000056081057378</v>
+        <v>1.000054114813083</v>
       </c>
       <c r="Y3" s="29">
-        <v>1.0000748901209233</v>
+        <v>1.0000742329118755</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="19">
@@ -2585,42 +2616,42 @@
       </c>
       <c r="N4" s="32">
         <f>LOG((D4+E4)/(F4+E4)+1,V$3)</f>
-        <v>67.881603320363268</v>
+        <v>67.076605282353739</v>
       </c>
       <c r="O4" s="15">
         <f ca="1">LOG(I4*H4/J4^2,W$3)</f>
-        <v>65.701214435269364</v>
+        <v>65.846791781958572</v>
       </c>
       <c r="P4" s="10">
         <f>LOG(K4/J4+1,X$3)</f>
-        <v>245.27293696648641</v>
+        <v>254.18460020908944</v>
       </c>
       <c r="Q4" s="26">
         <f>LOG(L4*M4/J4+1,Y$3)</f>
-        <v>248.49654591020069</v>
+        <v>250.69648740888772</v>
       </c>
       <c r="R4" s="15">
         <f ca="1">(N4+O4)/2</f>
-        <v>66.791408877816309</v>
+        <v>66.461698532156163</v>
       </c>
       <c r="S4" s="10">
         <f ca="1">(N4+O4+P4)/3</f>
-        <v>126.28525157403969</v>
+        <v>129.03599909113393</v>
       </c>
       <c r="T4" s="11">
         <f ca="1">(N4+O4+Q4)/3</f>
-        <v>127.35978788861109</v>
+        <v>127.87329482440002</v>
       </c>
       <c r="U4" s="26">
         <f ca="1">(N4*2+O4*2+P4+Q4)/6</f>
-        <v>126.82251973132539</v>
-      </c>
-      <c r="V4" s="67" t="s">
+        <v>128.45464695776698</v>
+      </c>
+      <c r="V4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="40" t="s">
@@ -2657,54 +2688,54 @@
       </c>
       <c r="N5" s="32">
         <f>LOG((D5+E5)/(F5+E5)+1,V$3)</f>
-        <v>64.788362931744274</v>
+        <v>64.020047180571396</v>
       </c>
       <c r="O5" s="15">
         <f>LOG(I5*H5/J5^2,W$3)</f>
-        <v>68.012906224789134</v>
+        <v>68.163605698367093</v>
       </c>
       <c r="P5" s="10">
         <f>LOG(K5/J5+1,X$3)</f>
-        <v>366.99945469179113</v>
+        <v>380.333887715191</v>
       </c>
       <c r="R5" s="15">
         <f>(N5+O5)/2</f>
-        <v>66.400634578266704</v>
+        <v>66.091826439469244</v>
       </c>
       <c r="S5" s="10">
         <f>(N5+O5+P5)/3</f>
-        <v>166.60024128277485</v>
+        <v>170.83918019804318</v>
       </c>
       <c r="T5" s="11">
         <f>(N5+O5+Q5)/3</f>
-        <v>44.267089718844467</v>
+        <v>44.061217626312832</v>
       </c>
       <c r="U5" s="26">
         <f>(N5*2+O5*2+P5+Q5)/6</f>
-        <v>105.43366550080965</v>
-      </c>
-      <c r="V5" s="70">
+        <v>107.450198912178</v>
+      </c>
+      <c r="V5" s="68">
         <f>AVERAGE(N$1:N$1048575)</f>
-        <v>49.999999449739853</v>
-      </c>
-      <c r="W5" s="70">
+        <v>49.999996981850124</v>
+      </c>
+      <c r="W5" s="68">
         <f ca="1">AVERAGE(O$1:O$1048575)</f>
-        <v>50.000000036029554</v>
-      </c>
-      <c r="X5" s="70">
+        <v>49.999999292683995</v>
+      </c>
+      <c r="X5" s="68">
         <f>AVERAGE(P$1:P$1048575)</f>
-        <v>50.000047548875685</v>
-      </c>
-      <c r="Y5" s="71">
+        <v>50.000020030706217</v>
+      </c>
+      <c r="Y5" s="69">
         <f>AVERAGE(Q$1:Q$1048575)</f>
-        <v>49.999996308621597</v>
+        <v>50.000022762279428</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="19">
@@ -2741,46 +2772,46 @@
       </c>
       <c r="N6" s="32">
         <f>LOG((D6+E6)/(F6+E6)+1,V$3)</f>
-        <v>57.140648566641033</v>
+        <v>56.463025945241647</v>
       </c>
       <c r="O6" s="15">
         <f ca="1">LOG(I6*H6/J6^2,W$3)</f>
-        <v>77.15643931525841</v>
+        <v>77.327398555693293</v>
       </c>
       <c r="P6" s="10">
         <f>LOG(K6/J6+1,X$3)</f>
-        <v>345.24453693611775</v>
+        <v>357.78853419719144</v>
       </c>
       <c r="Q6" s="26">
         <f>LOG(L6*M6/J6+1,Y$3)</f>
-        <v>3.1044236489821158</v>
+        <v>3.1319071312570332</v>
       </c>
       <c r="R6" s="15">
         <f ca="1">(N6+O6)/2</f>
-        <v>67.148543940949722</v>
+        <v>66.895212250467466</v>
       </c>
       <c r="S6" s="10">
         <f ca="1">(N6+O6+P6)/3</f>
-        <v>159.84720827267242</v>
+        <v>163.85965289937545</v>
       </c>
       <c r="T6" s="11">
         <f ca="1">(N6+O6+Q6)/3</f>
-        <v>45.800503843627183</v>
+        <v>45.640777210730654</v>
       </c>
       <c r="U6" s="26">
         <f ca="1">(N6*2+O6*2+P6+Q6)/6</f>
-        <v>102.82385605814979</v>
-      </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="69"/>
+        <v>104.75021505505305</v>
+      </c>
+      <c r="V6" s="71"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="72"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19">
@@ -2819,42 +2850,42 @@
       </c>
       <c r="N7" s="32">
         <f>LOG((D7+E7)/(F7+E7)+1,V$3)</f>
-        <v>42.080254524491451</v>
+        <v>41.581230920536662</v>
       </c>
       <c r="O7" s="15">
         <f ca="1">LOG(I7*H7/J7^2,W$3)</f>
-        <v>67.580200456691543</v>
+        <v>67.729941163248853</v>
       </c>
       <c r="P7" s="10">
         <f>LOG(K7/J7+1,X$3)</f>
-        <v>286.7454767482937</v>
+        <v>297.16398910732181</v>
       </c>
       <c r="Q7" s="26">
         <f>LOG(L7*M7/J7+1,Y$3)</f>
-        <v>90.40893681065242</v>
+        <v>91.209327702257823</v>
       </c>
       <c r="R7" s="15">
         <f ca="1">(N7+O7)/2</f>
-        <v>54.830227490591497</v>
+        <v>54.655586041892761</v>
       </c>
       <c r="S7" s="10">
         <f ca="1">(N7+O7+P7)/3</f>
-        <v>132.13531057649223</v>
+        <v>135.49172039703578</v>
       </c>
       <c r="T7" s="11">
         <f ca="1">(N7+O7+Q7)/3</f>
-        <v>66.689797263945138</v>
+        <v>66.840166595347782</v>
       </c>
       <c r="U7" s="26">
         <f ca="1">(N7*2+O7*2+P7+Q7)/6</f>
-        <v>99.412553920218684</v>
+        <v>101.16594349619179</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="19">
@@ -2893,42 +2924,42 @@
       </c>
       <c r="N8" s="32">
         <f>LOG((D8+E8)/(F8+E8)+1,V$3)</f>
-        <v>41.730998328152545</v>
+        <v>41.236116502515642</v>
       </c>
       <c r="O8" s="15">
         <f ca="1">LOG(I8*H8/J8^2,W$3)</f>
-        <v>67.253602037560356</v>
+        <v>67.402619084262994</v>
       </c>
       <c r="P8" s="10">
         <f>LOG(K8/J8+1,X$3)</f>
-        <v>245.58785067687228</v>
+        <v>254.5109558868287</v>
       </c>
       <c r="Q8" s="26">
         <f>LOG(L8*M8/J8+1,Y$3)</f>
-        <v>87.787434081121489</v>
+        <v>88.564616792418008</v>
       </c>
       <c r="R8" s="15">
         <f ca="1">(N8+O8)/2</f>
-        <v>54.492300182856454</v>
+        <v>54.319367793389318</v>
       </c>
       <c r="S8" s="10">
         <f ca="1">(N8+O8+P8)/3</f>
-        <v>118.19081701419505</v>
+        <v>121.04989715786911</v>
       </c>
       <c r="T8" s="11">
         <f ca="1">(N8+O8+Q8)/3</f>
-        <v>65.590678148944804</v>
+        <v>65.734450793065548</v>
       </c>
       <c r="U8" s="26">
         <f ca="1">(N8*2+O8*2+P8+Q8)/6</f>
-        <v>91.89074758156994</v>
+        <v>93.392173975467315</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="19">
@@ -2967,42 +2998,42 @@
       </c>
       <c r="N9" s="32">
         <f>LOG((D9+E9)/(F9+E9)+1,V$3)</f>
-        <v>29.421552160942493</v>
+        <v>29.072646262933912</v>
       </c>
       <c r="O9" s="15">
         <f ca="1">LOG(I9*H9/J9^2,W$3)</f>
-        <v>61.699611806518895</v>
+        <v>61.836322609443201</v>
       </c>
       <c r="P9" s="10">
         <f>LOG(K9/J9+1,X$3)</f>
-        <v>178.74008243160699</v>
+        <v>185.23436362824481</v>
       </c>
       <c r="Q9" s="26">
         <f>LOG(L9*M9/J9+1,Y$3)</f>
-        <v>118.14501867254432</v>
+        <v>119.19095727297385</v>
       </c>
       <c r="R9" s="15">
         <f ca="1">(N9+O9)/2</f>
-        <v>45.560581983730692</v>
+        <v>45.454484436188558</v>
       </c>
       <c r="S9" s="10">
         <f ca="1">(N9+O9+P9)/3</f>
-        <v>89.95374879968945</v>
+        <v>92.047777500207303</v>
       </c>
       <c r="T9" s="11">
         <f ca="1">(N9+O9+Q9)/3</f>
-        <v>69.755394213335236</v>
+        <v>70.033308715116988</v>
       </c>
       <c r="U9" s="26">
         <f ca="1">(N9*2+O9*2+P9+Q9)/6</f>
-        <v>79.854571506512343</v>
+        <v>81.040543107662145</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="19">
@@ -3039,42 +3070,42 @@
       </c>
       <c r="N10" s="32">
         <f>LOG((D10+E10)/(F10+E10)+1,V$3)</f>
-        <v>63.369510261790438</v>
+        <v>62.618020477590498</v>
       </c>
       <c r="O10" s="15">
         <f ca="1">LOG(I10*H10/J10^2,W$3)</f>
-        <v>66.420951007077406</v>
+        <v>66.568123108769854</v>
       </c>
       <c r="P10" s="10">
         <f>LOG(K10/J10+1,X$3)</f>
-        <v>139.0735810124707</v>
+        <v>144.12663307461222</v>
       </c>
       <c r="Q10" s="26">
         <f>LOG(L10*M10/J10+1,Y$3)</f>
-        <v>47.12369705180636</v>
+        <v>47.540883441001839</v>
       </c>
       <c r="R10" s="15">
         <f ca="1">(N10+O10)/2</f>
-        <v>64.895230634433915</v>
+        <v>64.593071793180172</v>
       </c>
       <c r="S10" s="10">
         <f ca="1">(N10+O10+P10)/3</f>
-        <v>89.621347427112838</v>
+        <v>91.104258886990849</v>
       </c>
       <c r="T10" s="11">
         <f ca="1">(N10+O10+Q10)/3</f>
-        <v>58.971386106891394</v>
+        <v>58.909009009120723</v>
       </c>
       <c r="U10" s="26">
         <f ca="1">(N10*2+O10*2+P10+Q10)/6</f>
-        <v>74.296366767002112</v>
+        <v>75.006633948055779</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="19">
@@ -3111,35 +3142,35 @@
       </c>
       <c r="N11" s="32">
         <f>LOG((D11+E11)/(F11+E11)+1,V$3)</f>
-        <v>63.984584587542962</v>
+        <v>63.22580072657933</v>
       </c>
       <c r="O11" s="15">
         <f ca="1">LOG(I11*H11/J11^2,W$3)</f>
-        <v>60.067811997895141</v>
+        <v>60.200907143353909</v>
       </c>
       <c r="P11" s="10">
         <f>LOG(K11/J11+1,X$3)</f>
-        <v>134.61654953687633</v>
+        <v>139.50766133743241</v>
       </c>
       <c r="Q11" s="26">
         <f>LOG(L11*M11/J11+1,Y$3)</f>
-        <v>41.877001098029794</v>
+        <v>42.247738454634387</v>
       </c>
       <c r="R11" s="15">
         <f ca="1">(N11+O11)/2</f>
-        <v>62.026198292719052</v>
+        <v>61.713353934966619</v>
       </c>
       <c r="S11" s="10">
         <f ca="1">(N11+O11+P11)/3</f>
-        <v>86.22298204077147</v>
+        <v>87.644789735788549</v>
       </c>
       <c r="T11" s="11">
         <f ca="1">(N11+O11+Q11)/3</f>
-        <v>55.30979922782263</v>
+        <v>55.224815441522537</v>
       </c>
       <c r="U11" s="26">
         <f ca="1">(N11*2+O11*2+P11+Q11)/6</f>
-        <v>70.766390634297053</v>
+        <v>71.434802588655543</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3183,176 +3214,176 @@
       </c>
       <c r="N12" s="32">
         <f>LOG((D12+E12)/(F12+E12)+1,V$3)</f>
-        <v>59.46722970250908</v>
+        <v>58.762016494587968</v>
       </c>
       <c r="O12" s="15">
         <f>LOG(I12*H12/J12^2,W$3)</f>
-        <v>58.582288493587235</v>
+        <v>58.712092093036389</v>
       </c>
       <c r="P12" s="10">
         <f>LOG(K12/J12+1,X$3)</f>
-        <v>52.852620644088553</v>
+        <v>54.772949737442723</v>
       </c>
       <c r="Q12" s="26">
         <f>LOG(L12*M12/J12+1,Y$3)</f>
-        <v>131.01810494855158</v>
+        <v>132.17800906351587</v>
       </c>
       <c r="R12" s="15">
         <f>(N12+O12)/2</f>
-        <v>59.024759098048158</v>
+        <v>58.737054293812179</v>
       </c>
       <c r="S12" s="10">
         <f>(N12+O12+P12)/3</f>
-        <v>56.967379613394961</v>
+        <v>57.415686108355693</v>
       </c>
       <c r="T12" s="11">
         <f>(N12+O12+Q12)/3</f>
-        <v>83.022541048215956</v>
+        <v>83.217372550380077</v>
       </c>
       <c r="U12" s="26">
         <f>(N12*2+O12*2+P12+Q12)/6</f>
-        <v>69.994960330805455</v>
+        <v>70.316529329367881</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="19">
         <v>2022</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="8">
-        <v>47868762</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3208628</v>
-      </c>
-      <c r="G13" s="8">
-        <v>76603690</v>
-      </c>
-      <c r="H13" s="5">
-        <f>G13</f>
-        <v>76603690</v>
+      <c r="D13" s="21">
+        <v>14372360</v>
+      </c>
+      <c r="E13" s="6">
+        <v>509643762</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>751869907</v>
+      </c>
+      <c r="H13" s="5" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">G13/INDIRECT("EUR!$B$30")</f>
+        <v>767695175.34455264</v>
       </c>
       <c r="I13" s="10">
-        <v>393</v>
+        <v>5417</v>
       </c>
       <c r="J13" s="12">
-        <v>819</v>
+        <v>12896</v>
       </c>
       <c r="K13" s="13">
-        <v>2.85</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="M13" s="11">
-        <v>4</v>
+        <v>100.26</v>
       </c>
       <c r="N13" s="32">
         <f>LOG((D13+E13)/(F13+E13)+1,V$3)</f>
-        <v>61.78625025745427</v>
+        <v>65.29301656964698</v>
       </c>
       <c r="O13" s="15">
-        <f>LOG(I13*H13/J13^2,W$3)</f>
-        <v>69.850147145361518</v>
+        <f ca="1">LOG(I13*H13/J13^2,W$3)</f>
+        <v>66.182143750660615</v>
       </c>
       <c r="P13" s="10">
         <f>LOG(K13/J13+1,X$3)</f>
-        <v>61.944449133482905</v>
-      </c>
-      <c r="Q13" s="26">
-        <f>LOG(L13*M13/J13+1,Y$3)</f>
-        <v>78.03321575343459</v>
+        <v>143.115112101275</v>
       </c>
       <c r="R13" s="15">
-        <f>(N13+O13)/2</f>
-        <v>65.818198701407894</v>
+        <f ca="1">(N13+O13)/2</f>
+        <v>65.737580160153797</v>
       </c>
       <c r="S13" s="10">
-        <f>(N13+O13+P13)/3</f>
-        <v>64.526948845432898</v>
+        <f ca="1">(N13+O13+P13)/3</f>
+        <v>91.530090807194199</v>
       </c>
       <c r="T13" s="11">
-        <f>(N13+O13+Q13)/3</f>
-        <v>69.88987105208345</v>
+        <f ca="1">(N13+O13+Q13)/3</f>
+        <v>43.825053440102529</v>
       </c>
       <c r="U13" s="26">
-        <f>(N13*2+O13*2+P13+Q13)/6</f>
-        <v>67.208409948758188</v>
+        <f ca="1">(N13*2+O13*2+P13+Q13)/6</f>
+        <v>67.677572123648361</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>35</v>
+      <c r="A14" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="19">
         <v>2022</v>
       </c>
-      <c r="D14" s="21">
-        <v>14372360</v>
-      </c>
-      <c r="E14" s="6">
-        <v>509643762</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>751869907</v>
-      </c>
-      <c r="H14" s="5" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">G14/INDIRECT("EUR!$B$30")</f>
-        <v>767695175.34455264</v>
+      <c r="D14" s="23"/>
+      <c r="E14" s="8">
+        <v>47868762</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3208628</v>
+      </c>
+      <c r="G14" s="8">
+        <v>76603690</v>
+      </c>
+      <c r="H14" s="5">
+        <f>G14</f>
+        <v>76603690</v>
       </c>
       <c r="I14" s="10">
-        <v>5417</v>
+        <v>393</v>
       </c>
       <c r="J14" s="12">
-        <v>12896</v>
+        <v>819</v>
       </c>
       <c r="K14" s="13">
-        <v>100.26</v>
+        <v>2.85</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="11">
+        <v>4</v>
       </c>
       <c r="N14" s="32">
         <f>LOG((D14+E14)/(F14+E14)+1,V$3)</f>
-        <v>66.076609448461269</v>
+        <v>61.053536122838416</v>
       </c>
       <c r="O14" s="15">
-        <f ca="1">LOG(I14*H14/J14^2,W$3)</f>
-        <v>66.035824991239053</v>
+        <f>LOG(I14*H14/J14^2,W$3)</f>
+        <v>70.004917482176097</v>
       </c>
       <c r="P14" s="10">
         <f>LOG(K14/J14+1,X$3)</f>
-        <v>138.09752377009829</v>
+        <v>64.195117622447015</v>
+      </c>
+      <c r="Q14" s="26">
+        <f>LOG(L14*M14/J14+1,Y$3)</f>
+        <v>78.724044307945022</v>
       </c>
       <c r="R14" s="15">
-        <f ca="1">(N14+O14)/2</f>
-        <v>66.056217219850168</v>
+        <f>(N14+O14)/2</f>
+        <v>65.529226802507253</v>
       </c>
       <c r="S14" s="10">
-        <f ca="1">(N14+O14+P14)/3</f>
-        <v>90.069986069932881</v>
+        <f>(N14+O14+P14)/3</f>
+        <v>65.084523742487178</v>
       </c>
       <c r="T14" s="11">
-        <f ca="1">(N14+O14+Q14)/3</f>
-        <v>44.037478146566777</v>
+        <f>(N14+O14+Q14)/3</f>
+        <v>69.927499304319838</v>
       </c>
       <c r="U14" s="26">
-        <f ca="1">(N14*2+O14*2+P14+Q14)/6</f>
-        <v>67.053732108249832</v>
+        <f>(N14*2+O14*2+P14+Q14)/6</f>
+        <v>67.506011523403501</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="19">
@@ -3389,42 +3420,42 @@
       </c>
       <c r="N15" s="32">
         <f>LOG((D15+E15)/(F15+E15)+1,V$3)</f>
-        <v>65.668989616824675</v>
+        <v>64.890230642171019</v>
       </c>
       <c r="O15" s="15">
         <f>LOG(I15*H15/J15^2,W$3)</f>
-        <v>57.85774176922245</v>
+        <v>57.985939955581571</v>
       </c>
       <c r="P15" s="10">
         <f>LOG(K15/J15+1,X$3)</f>
-        <v>63.738263806141639</v>
+        <v>66.054108145650403</v>
       </c>
       <c r="Q15" s="26">
         <f>LOG(L15*M15/J15+1,Y$3)</f>
-        <v>76.885210645873727</v>
+        <v>77.565875903878066</v>
       </c>
       <c r="R15" s="15">
         <f>(N15+O15)/2</f>
-        <v>61.763365693023559</v>
+        <v>61.438085298876295</v>
       </c>
       <c r="S15" s="10">
         <f>(N15+O15+P15)/3</f>
-        <v>62.421665064062921</v>
+        <v>62.976759581134331</v>
       </c>
       <c r="T15" s="11">
         <f>(N15+O15+Q15)/3</f>
-        <v>66.803980677306939</v>
+        <v>66.814015500543562</v>
       </c>
       <c r="U15" s="26">
         <f>(N15*2+O15*2+P15+Q15)/6</f>
-        <v>64.612822870684923</v>
+        <v>64.895387540838939</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="19">
@@ -3461,42 +3492,42 @@
       </c>
       <c r="N16" s="32">
         <f>LOG((D16+E16)/(F16+E16)+1,V$3)</f>
-        <v>64.059508768216872</v>
+        <v>63.299836392317061</v>
       </c>
       <c r="O16" s="15">
         <f ca="1">LOG(I16*H16/J16^2,W$3)</f>
-        <v>57.71644960852251</v>
+        <v>57.844334727032894</v>
       </c>
       <c r="P16" s="10">
         <f>LOG(K16/J16+1,X$3)</f>
-        <v>85.420679874776908</v>
+        <v>88.524325725041365</v>
       </c>
       <c r="Q16" s="26">
         <f>LOG(L16*M16/J16+1,Y$3)</f>
-        <v>47.208663835247584</v>
+        <v>47.626602435916332</v>
       </c>
       <c r="R16" s="15">
         <f ca="1">(N16+O16)/2</f>
-        <v>60.887979188369691</v>
+        <v>60.572085559674974</v>
       </c>
       <c r="S16" s="10">
         <f ca="1">(N16+O16+P16)/3</f>
-        <v>69.065546083838754</v>
+        <v>69.889498948130438</v>
       </c>
       <c r="T16" s="11">
         <f ca="1">(N16+O16+Q16)/3</f>
-        <v>56.328207403995656</v>
+        <v>56.256924518422096</v>
       </c>
       <c r="U16" s="26">
         <f ca="1">(N16*2+O16*2+P16+Q16)/6</f>
-        <v>62.696876743917215</v>
+        <v>63.07321173327626</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="19">
@@ -3533,42 +3564,42 @@
       </c>
       <c r="N17" s="32">
         <f>LOG((D17+E17)/(F17+E17)+1,V$3)</f>
-        <v>60.850794381816783</v>
+        <v>60.129173682059545</v>
       </c>
       <c r="O17" s="15">
         <f>LOG(I17*H17/J17^2,W$3)</f>
-        <v>57.643444817654164</v>
+        <v>57.771168175931628</v>
       </c>
       <c r="P17" s="10">
         <f>LOG(K17/J17+1,X$3)</f>
-        <v>82.707362194969349</v>
+        <v>85.712423286019416</v>
       </c>
       <c r="Q17" s="26">
         <f>LOG(L17*M17/J17+1,Y$3)</f>
-        <v>43.072836451115727</v>
+        <v>43.454160545693732</v>
       </c>
       <c r="R17" s="15">
         <f>(N17+O17)/2</f>
-        <v>59.24711959973547</v>
+        <v>58.95017092899559</v>
       </c>
       <c r="S17" s="10">
         <f>(N17+O17+P17)/3</f>
-        <v>67.067200464813425</v>
+        <v>67.870921714670203</v>
       </c>
       <c r="T17" s="11">
         <f>(N17+O17+Q17)/3</f>
-        <v>53.855691883528891</v>
+        <v>53.784834134561635</v>
       </c>
       <c r="U17" s="26">
         <f>(N17*2+O17*2+P17+Q17)/6</f>
-        <v>60.461446174171158</v>
+        <v>60.827877924615926</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="65" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="19">
@@ -3599,31 +3630,31 @@
       </c>
       <c r="N18" s="32">
         <f>LOG((D18+E18)/(F18+E18)+1,V$3)</f>
-        <v>64.985228928474868</v>
+        <v>64.214578572145854</v>
       </c>
       <c r="O18" s="15">
         <f ca="1">LOG(I18*H18/J18^2,W$3)</f>
-        <v>58.339763395917146</v>
+        <v>58.469029620821125</v>
       </c>
       <c r="P18" s="10">
         <f>LOG(K18/J18+1,X$3)</f>
-        <v>101.38422721535561</v>
+        <v>105.0678871504028</v>
       </c>
       <c r="R18" s="15">
         <f ca="1">(N18+O18)/2</f>
-        <v>61.662496162196007</v>
+        <v>61.341804096483486</v>
       </c>
       <c r="S18" s="10">
         <f ca="1">(N18+O18+P18)/3</f>
-        <v>74.903073179915864</v>
+        <v>75.91716511445658</v>
       </c>
       <c r="T18" s="11">
         <f ca="1">(N18+O18+Q18)/3</f>
-        <v>41.108330774797338</v>
+        <v>40.894536064322324</v>
       </c>
       <c r="U18" s="26">
         <f ca="1">(N18*2+O18*2+P18+Q18)/6</f>
-        <v>58.005701977356608</v>
+        <v>58.405850589389452</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3669,35 +3700,35 @@
       </c>
       <c r="N19" s="32">
         <f>LOG((D19+E19)/(F19+E19)+1,V$3)</f>
-        <v>63.379864256996228</v>
+        <v>62.628251686276542</v>
       </c>
       <c r="O19" s="15">
         <f ca="1">LOG(I19*H19/J19^2,W$3)</f>
-        <v>59.625133552654553</v>
+        <v>59.757247834151393</v>
       </c>
       <c r="P19" s="10">
         <f>LOG(K19/J19+1,X$3)</f>
-        <v>90.861008414070895</v>
+        <v>94.162321306084579</v>
       </c>
       <c r="Q19" s="26">
         <f>LOG(L19*M19/J19+1,Y$3)</f>
-        <v>10.909950648448651</v>
+        <v>11.006536510808376</v>
       </c>
       <c r="R19" s="15">
         <f ca="1">(N19+O19)/2</f>
-        <v>61.502498904825387</v>
+        <v>61.192749760213971</v>
       </c>
       <c r="S19" s="10">
         <f ca="1">(N19+O19+P19)/3</f>
-        <v>71.288668741240556</v>
+        <v>72.182606942170835</v>
       </c>
       <c r="T19" s="11">
         <f ca="1">(N19+O19+Q19)/3</f>
-        <v>44.638316152699808</v>
+        <v>44.464012010412112</v>
       </c>
       <c r="U19" s="26">
         <f ca="1">(N19*2+O19*2+P19+Q19)/6</f>
-        <v>57.963492446970186</v>
+        <v>58.323309476291477</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3743,42 +3774,42 @@
       </c>
       <c r="N20" s="32">
         <f>LOG((D20+E20)/(F20+E20)+1,V$3)</f>
-        <v>29.218115455070741</v>
+        <v>28.871622083300128</v>
       </c>
       <c r="O20" s="15">
         <f ca="1">LOG(I20*H20/J20^2,W$3)</f>
-        <v>55.220299786811026</v>
+        <v>55.342654065882485</v>
       </c>
       <c r="P20" s="10">
         <f>LOG(K20/J20+1,X$3)</f>
-        <v>55.122069449436744</v>
+        <v>57.124855921700004</v>
       </c>
       <c r="Q20" s="26">
         <f>LOG(L20*M20/J20+1,Y$3)</f>
-        <v>123.15561471700121</v>
+        <v>124.24591215602538</v>
       </c>
       <c r="R20" s="15">
         <f ca="1">(N20+O20)/2</f>
-        <v>42.219207620940885</v>
+        <v>42.107138074591305</v>
       </c>
       <c r="S20" s="10">
         <f ca="1">(N20+O20+P20)/3</f>
-        <v>46.520161563772838</v>
+        <v>47.113044023627538</v>
       </c>
       <c r="T20" s="11">
         <f ca="1">(N20+O20+Q20)/3</f>
-        <v>69.198009986294323</v>
+        <v>69.486729435069336</v>
       </c>
       <c r="U20" s="26">
         <f ca="1">(N20*2+O20*2+P20+Q20)/6</f>
-        <v>57.859085775033577</v>
+        <v>58.29988672934843</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="19">
@@ -3815,42 +3846,42 @@
       </c>
       <c r="N21" s="32">
         <f>LOG((D21+E21)/(F21+E21)+1,V$3)</f>
-        <v>54.44486786342403</v>
+        <v>53.79921411239372</v>
       </c>
       <c r="O21" s="15">
         <f ca="1">LOG(I21*H21/J21^2,W$3)</f>
-        <v>50.041377197803428</v>
+        <v>50.152256288543946</v>
       </c>
       <c r="P21" s="10">
         <f>LOG(K21/J21+1,X$3)</f>
-        <v>71.966968582838973</v>
+        <v>74.581791875344692</v>
       </c>
       <c r="Q21" s="26">
         <f>LOG(L21*M21/J21+1,Y$3)</f>
-        <v>58.855877454651093</v>
+        <v>59.376928911442434</v>
       </c>
       <c r="R21" s="15">
         <f ca="1">(N21+O21)/2</f>
-        <v>52.243122530613732</v>
+        <v>51.975735200468833</v>
       </c>
       <c r="S21" s="10">
         <f ca="1">(N21+O21+P21)/3</f>
-        <v>58.817737881355477</v>
+        <v>59.511087425427455</v>
       </c>
       <c r="T21" s="11">
         <f ca="1">(N21+O21+Q21)/3</f>
-        <v>54.447374171959517</v>
+        <v>54.442799770793364</v>
       </c>
       <c r="U21" s="26">
         <f ca="1">(N21*2+O21*2+P21+Q21)/6</f>
-        <v>56.63255602665749</v>
+        <v>56.976943598110402</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="19">
@@ -3887,42 +3918,42 @@
       </c>
       <c r="N22" s="32">
         <f>LOG((D22+E22)/(F22+E22)+1,V$3)</f>
-        <v>55.48405803278812</v>
+        <v>54.826080677032252</v>
       </c>
       <c r="O22" s="15">
         <f>LOG(I22*H22/J22^2,W$3)</f>
-        <v>60.054617965852451</v>
+        <v>60.187683876658667</v>
       </c>
       <c r="P22" s="10">
         <f>LOG(K22/J22+1,X$3)</f>
-        <v>86.993918542547547</v>
+        <v>90.154725910021412</v>
       </c>
       <c r="Q22" s="26">
         <f>LOG(L22*M22/J22+1,Y$3)</f>
-        <v>16.342376464062376</v>
+        <v>16.487055626659064</v>
       </c>
       <c r="R22" s="15">
         <f>(N22+O22)/2</f>
-        <v>57.769337999320285</v>
+        <v>57.50688227684546</v>
       </c>
       <c r="S22" s="10">
         <f>(N22+O22+P22)/3</f>
-        <v>67.510864847062706</v>
+        <v>68.389496821237444</v>
       </c>
       <c r="T22" s="11">
         <f>(N22+O22+Q22)/3</f>
-        <v>43.960350820900977</v>
+        <v>43.83360672678333</v>
       </c>
       <c r="U22" s="26">
         <f>(N22*2+O22*2+P22+Q22)/6</f>
-        <v>55.735607833981845</v>
+        <v>56.111551774010387</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="19">
@@ -3959,42 +3990,42 @@
       </c>
       <c r="N23" s="32">
         <f>LOG((D23+E23)/(F23+E23)+1,V$3)</f>
-        <v>56.19145288151379</v>
+        <v>55.525086633370769</v>
       </c>
       <c r="O23" s="15">
         <f ca="1">LOG(I23*H23/J23^2,W$3)</f>
-        <v>53.156446584890411</v>
+        <v>53.274227884973982</v>
       </c>
       <c r="P23" s="10">
         <f>LOG(K23/J23+1,X$3)</f>
-        <v>26.850282858070834</v>
+        <v>27.825851878278144</v>
       </c>
       <c r="Q23" s="26">
         <f>LOG(L23*M23/J23+1,Y$3)</f>
-        <v>85.525016686847849</v>
+        <v>86.282170202588418</v>
       </c>
       <c r="R23" s="15">
         <f ca="1">(N23+O23)/2</f>
-        <v>54.6739497332021</v>
+        <v>54.399657259172372</v>
       </c>
       <c r="S23" s="10">
         <f ca="1">(N23+O23+P23)/3</f>
-        <v>45.39939410815834</v>
+        <v>45.541722132207632</v>
       </c>
       <c r="T23" s="11">
         <f ca="1">(N23+O23+Q23)/3</f>
-        <v>64.957638717750683</v>
+        <v>65.027161573644392</v>
       </c>
       <c r="U23" s="26">
         <f ca="1">(N23*2+O23*2+P23+Q23)/6</f>
-        <v>55.178516412954515</v>
+        <v>55.284441852926001</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="19">
@@ -4031,42 +4062,42 @@
       </c>
       <c r="N24" s="32">
         <f>LOG((D24+E24)/(F24+E24)+1,V$3)</f>
-        <v>60.882945877681372</v>
+        <v>60.160943898021713</v>
       </c>
       <c r="O24" s="15">
         <f>LOG(I24*H24/J24^2,W$3)</f>
-        <v>54.343584086194653</v>
+        <v>54.463995784043021</v>
       </c>
       <c r="P24" s="10">
         <f>LOG(K24/J24+1,X$3)</f>
-        <v>64.452706496990032</v>
+        <v>66.7945091535709</v>
       </c>
       <c r="Q24" s="26">
         <f>LOG(L24*M24/J24+1,Y$3)</f>
-        <v>28.534660445285798</v>
+        <v>28.787277975379002</v>
       </c>
       <c r="R24" s="15">
         <f>(N24+O24)/2</f>
-        <v>57.613264981938016</v>
+        <v>57.312469841032367</v>
       </c>
       <c r="S24" s="10">
         <f>(N24+O24+P24)/3</f>
-        <v>59.893078820288686</v>
+        <v>60.473149611878547</v>
       </c>
       <c r="T24" s="11">
         <f>(N24+O24+Q24)/3</f>
-        <v>47.92039680305394</v>
+        <v>47.804072552481244</v>
       </c>
       <c r="U24" s="26">
         <f>(N24*2+O24*2+P24+Q24)/6</f>
-        <v>53.906737811671313</v>
+        <v>54.138611082179899</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="19">
@@ -4097,38 +4128,38 @@
       </c>
       <c r="N25" s="32">
         <f>LOG((D25+E25)/(F25+E25)+1,V$3)</f>
-        <v>61.339619527015373</v>
+        <v>60.612201921122058</v>
       </c>
       <c r="O25" s="15">
         <f>LOG(I25*H25/J25^2,W$3)</f>
-        <v>63.493318326553336</v>
+        <v>63.634003531445252</v>
       </c>
       <c r="P25" s="10">
         <f>LOG(K25/J25+1,X$3)</f>
-        <v>71.818709356297873</v>
+        <v>74.428145848629526</v>
       </c>
       <c r="R25" s="15">
         <f>(N25+O25)/2</f>
-        <v>62.416468926784354</v>
+        <v>62.123102726283655</v>
       </c>
       <c r="S25" s="10">
         <f>(N25+O25+P25)/3</f>
-        <v>65.550549069955522</v>
+        <v>66.224783767065617</v>
       </c>
       <c r="T25" s="11">
         <f>(N25+O25+Q25)/3</f>
-        <v>41.610979284522905</v>
+        <v>41.415401817522437</v>
       </c>
       <c r="U25" s="26">
         <f>(N25*2+O25*2+P25+Q25)/6</f>
-        <v>53.580764177239217</v>
+        <v>53.82009279229402</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="19">
@@ -4159,470 +4190,470 @@
       </c>
       <c r="N26" s="32">
         <f>LOG((D26+E26)/(F26+E26)+1,V$3)</f>
-        <v>62.58824598479282</v>
+        <v>61.846021099761238</v>
       </c>
       <c r="O26" s="15">
         <f ca="1">LOG(I26*H26/J26^2,W$3)</f>
-        <v>57.465477795876318</v>
+        <v>57.592806824048147</v>
       </c>
       <c r="P26" s="10">
         <f>LOG(K26/J26+1,X$3)</f>
-        <v>71.466570852244573</v>
+        <v>74.063212864265068</v>
       </c>
       <c r="R26" s="15">
         <f ca="1">(N26+O26)/2</f>
-        <v>60.026861890334573</v>
+        <v>59.719413961904692</v>
       </c>
       <c r="S26" s="10">
         <f ca="1">(N26+O26+P26)/3</f>
-        <v>63.840098210971234</v>
+        <v>64.500680262691489</v>
       </c>
       <c r="T26" s="11">
         <f ca="1">(N26+O26+Q26)/3</f>
-        <v>40.017907926889713</v>
+        <v>39.812942641269792</v>
       </c>
       <c r="U26" s="26">
         <f ca="1">(N26*2+O26*2+P26+Q26)/6</f>
-        <v>51.929003068930477</v>
+        <v>52.156811451980637</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>84</v>
+      <c r="A27" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>316</v>
       </c>
       <c r="C27" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D27" s="22">
-        <v>29000000</v>
-      </c>
-      <c r="E27" s="7">
-        <v>236700000</v>
-      </c>
-      <c r="F27" s="7">
-        <v>929300000</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1968300000</v>
-      </c>
-      <c r="H27" s="5" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">G27/INDIRECT("EUR!$B$48")</f>
-        <v>2295797860.614522</v>
+        <v>2022</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="8">
+        <v>236100000</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>328700000</v>
+      </c>
+      <c r="H27" s="5">
+        <f>G27</f>
+        <v>328700000</v>
       </c>
       <c r="I27" s="10">
-        <v>7380</v>
+        <v>1240</v>
       </c>
       <c r="J27" s="12">
-        <v>46830</v>
+        <v>7267</v>
       </c>
       <c r="K27" s="13">
-        <v>219.78</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L27" s="14">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="M27" s="11">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="N27" s="32">
         <f>LOG((D27+E27)/(F27+E27)+1,V$3)</f>
-        <v>19.181860296845883</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O27" s="15">
-        <f ca="1">LOG(I27*H27/J27^2,W$3)</f>
-        <v>58.376817274944273</v>
+        <f>LOG(I27*H27/J27^2,W$3)</f>
+        <v>58.49968552188048</v>
       </c>
       <c r="P27" s="10">
         <f>LOG(K27/J27+1,X$3)</f>
-        <v>83.491618318304674</v>
+        <v>44.930390816152773</v>
       </c>
       <c r="Q27" s="26">
         <f>LOG(L27*M27/J27+1,Y$3)</f>
-        <v>59.406185929131922</v>
+        <v>21.67209757058005</v>
       </c>
       <c r="R27" s="15">
-        <f ca="1">(N27+O27)/2</f>
-        <v>38.779338785895078</v>
+        <f>(N27+O27)/2</f>
+        <v>61.249933548429958</v>
       </c>
       <c r="S27" s="10">
-        <f ca="1">(N27+O27+P27)/3</f>
-        <v>53.683431963364946</v>
+        <f>(N27+O27+P27)/3</f>
+        <v>55.810085971004234</v>
       </c>
       <c r="T27" s="11">
-        <f ca="1">(N27+O27+Q27)/3</f>
-        <v>45.654954500307362</v>
+        <f>(N27+O27+Q27)/3</f>
+        <v>48.057321555813324</v>
       </c>
       <c r="U27" s="26">
-        <f ca="1">(N27*2+O27*2+P27+Q27)/6</f>
-        <v>49.669193231836154</v>
+        <f>(N27*2+O27*2+P27+Q27)/6</f>
+        <v>51.933703763408772</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="35" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C28" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="23">
-        <v>1355549.79</v>
-      </c>
-      <c r="E28" s="8">
-        <v>413330999.95999998</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>1051105117.5700001</v>
-      </c>
-      <c r="H28" s="5">
-        <f>G28</f>
-        <v>1051105117.5700001</v>
+        <v>2023</v>
+      </c>
+      <c r="D28" s="22">
+        <v>29000000</v>
+      </c>
+      <c r="E28" s="7">
+        <v>236700000</v>
+      </c>
+      <c r="F28" s="7">
+        <v>929300000</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1968300000</v>
+      </c>
+      <c r="H28" s="5" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">G28/INDIRECT("EUR!$B$48")</f>
+        <v>2295797860.614522</v>
       </c>
       <c r="I28" s="10">
-        <v>4206</v>
+        <v>7380</v>
       </c>
       <c r="J28" s="12">
-        <v>31252</v>
+        <v>46830</v>
       </c>
       <c r="K28" s="13">
-        <v>73.16</v>
+        <v>219.78</v>
       </c>
       <c r="L28" s="14">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="M28" s="11">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N28" s="32">
         <f>LOG((D28+E28)/(F28+E28)+1,V$3)</f>
-        <v>64.921356531902006</v>
+        <v>18.954385411913375</v>
       </c>
       <c r="O28" s="15">
-        <f>LOG(I28*H28/J28^2,W$3)</f>
-        <v>54.890643422665363</v>
+        <f ca="1">LOG(I28*H28/J28^2,W$3)</f>
+        <v>58.506165601913487</v>
       </c>
       <c r="P28" s="10">
         <f>LOG(K28/J28+1,X$3)</f>
-        <v>41.695004517583456</v>
+        <v>86.525174303873285</v>
       </c>
       <c r="Q28" s="26">
         <f>LOG(L28*M28/J28+1,Y$3)</f>
-        <v>12.300035607077067</v>
+        <v>59.93210927034184</v>
       </c>
       <c r="R28" s="15">
-        <f>(N28+O28)/2</f>
-        <v>59.905999977283685</v>
+        <f ca="1">(N28+O28)/2</f>
+        <v>38.730275506913429</v>
       </c>
       <c r="S28" s="10">
-        <f>(N28+O28+P28)/3</f>
-        <v>53.835668157383601</v>
+        <f ca="1">(N28+O28+P28)/3</f>
+        <v>54.661908439233379</v>
       </c>
       <c r="T28" s="11">
-        <f>(N28+O28+Q28)/3</f>
-        <v>44.037345187214811</v>
+        <f ca="1">(N28+O28+Q28)/3</f>
+        <v>45.797553428056233</v>
       </c>
       <c r="U28" s="26">
-        <f>(N28*2+O28*2+P28+Q28)/6</f>
-        <v>48.93650667229921</v>
+        <f ca="1">(N28*2+O28*2+P28+Q28)/6</f>
+        <v>50.229730933644809</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>74</v>
+      <c r="A29" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="19">
         <v>2022</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="23">
+        <v>1355549.79</v>
+      </c>
       <c r="E29" s="8">
-        <v>644000000</v>
-      </c>
-      <c r="F29" s="8">
-        <v>64000000</v>
-      </c>
+        <v>413330999.95999998</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8">
-        <v>1066000000</v>
+        <v>1051105117.5700001</v>
       </c>
       <c r="H29" s="5">
         <f>G29</f>
-        <v>1066000000</v>
+        <v>1051105117.5700001</v>
       </c>
       <c r="I29" s="10">
-        <v>5244</v>
+        <v>4206</v>
       </c>
       <c r="J29" s="12">
-        <v>39959</v>
+        <v>31252</v>
       </c>
       <c r="K29" s="13">
-        <v>121.86</v>
+        <v>73.16</v>
       </c>
       <c r="L29" s="14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M29" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N29" s="32">
         <f>LOG((D29+E29)/(F29+E29)+1,V$3)</f>
-        <v>60.446524700475209</v>
+        <v>64.151463629012653</v>
       </c>
       <c r="O29" s="15">
         <f>LOG(I29*H29/J29^2,W$3)</f>
-        <v>53.215451050830971</v>
+        <v>55.012267266246035</v>
       </c>
       <c r="P29" s="10">
         <f>LOG(K29/J29+1,X$3)</f>
-        <v>54.297666888025823</v>
+        <v>43.209936591847672</v>
       </c>
       <c r="Q29" s="26">
         <f>LOG(L29*M29/J29+1,Y$3)</f>
-        <v>10.021561519264033</v>
+        <v>12.4089279004014</v>
       </c>
       <c r="R29" s="15">
         <f>(N29+O29)/2</f>
-        <v>56.830987875653094</v>
+        <v>59.58186544762934</v>
       </c>
       <c r="S29" s="10">
         <f>(N29+O29+P29)/3</f>
-        <v>55.986547546444001</v>
+        <v>54.124555829035451</v>
       </c>
       <c r="T29" s="11">
         <f>(N29+O29+Q29)/3</f>
-        <v>41.227845756856738</v>
+        <v>43.857552931886694</v>
       </c>
       <c r="U29" s="26">
         <f>(N29*2+O29*2+P29+Q29)/6</f>
-        <v>48.607196651650376</v>
+        <v>48.991054380461073</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="19">
         <v>2022</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="4">
-        <v>2186629000</v>
-      </c>
-      <c r="F30" s="4">
-        <v>77679000</v>
-      </c>
-      <c r="G30" s="4">
-        <v>3027319000</v>
-      </c>
-      <c r="H30" s="5" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">G30/INDIRECT("EUR!$B$39")</f>
-        <v>405798024.22521114</v>
+      <c r="D30" s="23"/>
+      <c r="E30" s="8">
+        <v>644000000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>64000000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1066000000</v>
+      </c>
+      <c r="H30" s="5">
+        <f>G30</f>
+        <v>1066000000</v>
       </c>
       <c r="I30" s="10">
-        <v>1914</v>
+        <v>5244</v>
       </c>
       <c r="J30" s="12">
-        <v>14955</v>
+        <v>39959</v>
       </c>
       <c r="K30" s="13">
-        <v>17.79</v>
+        <v>121.86</v>
       </c>
       <c r="L30" s="14">
         <v>1.5</v>
       </c>
       <c r="M30" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N30" s="32">
         <f>LOG((D30+E30)/(F30+E30)+1,V$3)</f>
-        <v>63.151569858108559</v>
+        <v>59.729698175934651</v>
       </c>
       <c r="O30" s="15">
-        <f ca="1">LOG(I30*H30/J30^2,W$3)</f>
-        <v>53.162724366120557</v>
+        <f>LOG(I30*H30/J30^2,W$3)</f>
+        <v>53.333363089952904</v>
       </c>
       <c r="P30" s="10">
         <f>LOG(K30/J30+1,X$3)</f>
-        <v>21.199583628763062</v>
+        <v>56.270499798781245</v>
       </c>
       <c r="Q30" s="26">
         <f>LOG(L30*M30/J30+1,Y$3)</f>
-        <v>33.442031116758521</v>
+        <v>10.110282467022563</v>
       </c>
       <c r="R30" s="15">
-        <f ca="1">(N30+O30)/2</f>
-        <v>58.157147112114558</v>
+        <f>(N30+O30)/2</f>
+        <v>56.531530632943777</v>
       </c>
       <c r="S30" s="10">
-        <f ca="1">(N30+O30+P30)/3</f>
-        <v>45.837959284330729</v>
+        <f>(N30+O30+P30)/3</f>
+        <v>56.444520354889598</v>
       </c>
       <c r="T30" s="11">
-        <f ca="1">(N30+O30+Q30)/3</f>
-        <v>49.918775113662548</v>
+        <f>(N30+O30+Q30)/3</f>
+        <v>41.057781244303371</v>
       </c>
       <c r="U30" s="26">
-        <f ca="1">(N30*2+O30*2+P30+Q30)/6</f>
-        <v>47.878367198996635</v>
+        <f>(N30*2+O30*2+P30+Q30)/6</f>
+        <v>48.751150799596481</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="19">
         <v>2022</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="8">
-        <v>530802700</v>
-      </c>
-      <c r="F31" s="8">
-        <v>67751100</v>
-      </c>
-      <c r="G31" s="8">
-        <v>834083100</v>
-      </c>
-      <c r="H31" s="5">
-        <f>G31</f>
-        <v>834083100</v>
+      <c r="D31" s="20"/>
+      <c r="E31" s="4">
+        <v>2186629000</v>
+      </c>
+      <c r="F31" s="4">
+        <v>77679000</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3027319000</v>
+      </c>
+      <c r="H31" s="5" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">G31/INDIRECT("EUR!$B$39")</f>
+        <v>405798024.22521114</v>
       </c>
       <c r="I31" s="10">
-        <v>3750</v>
+        <v>1914</v>
       </c>
       <c r="J31" s="12">
-        <v>37000</v>
+        <v>14955</v>
       </c>
       <c r="K31" s="13">
-        <v>120.01</v>
+        <v>17.79</v>
       </c>
       <c r="L31" s="14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M31" s="11">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N31" s="32">
         <f>LOG((D31+E31)/(F31+E31)+1,V$3)</f>
-        <v>59.324366035949929</v>
+        <v>62.402664597384572</v>
       </c>
       <c r="O31" s="15">
-        <f>LOG(I31*H31/J31^2,W$3)</f>
-        <v>50.432397790853678</v>
+        <f ca="1">LOG(I31*H31/J31^2,W$3)</f>
+        <v>53.280519576186499</v>
       </c>
       <c r="P31" s="10">
         <f>LOG(K31/J31+1,X$3)</f>
-        <v>57.744194269905179</v>
+        <v>21.969842070316076</v>
       </c>
       <c r="Q31" s="26">
         <f>LOG(L31*M31/J31+1,Y$3)</f>
-        <v>6.0617875244214448</v>
+        <v>33.738093630563952</v>
       </c>
       <c r="R31" s="15">
-        <f>(N31+O31)/2</f>
-        <v>54.878381913401803</v>
+        <f ca="1">(N31+O31)/2</f>
+        <v>57.841592086785539</v>
       </c>
       <c r="S31" s="10">
-        <f>(N31+O31+P31)/3</f>
-        <v>55.833652698902931</v>
+        <f ca="1">(N31+O31+P31)/3</f>
+        <v>45.884342081295721</v>
       </c>
       <c r="T31" s="11">
-        <f>(N31+O31+Q31)/3</f>
-        <v>38.606183783741685</v>
+        <f ca="1">(N31+O31+Q31)/3</f>
+        <v>49.807092601378343</v>
       </c>
       <c r="U31" s="26">
-        <f>(N31*2+O31*2+P31+Q31)/6</f>
-        <v>47.219918241322311</v>
+        <f ca="1">(N31*2+O31*2+P31+Q31)/6</f>
+        <v>47.845717341337036</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>52</v>
+      <c r="A32" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="19">
         <v>2022</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="8">
-        <v>195000000</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>530802700</v>
+      </c>
+      <c r="F32" s="8">
+        <v>67751100</v>
+      </c>
       <c r="G32" s="8">
-        <v>345200000</v>
+        <v>834083100</v>
       </c>
       <c r="H32" s="5">
         <f>G32</f>
-        <v>345200000</v>
+        <v>834083100</v>
       </c>
       <c r="I32" s="10">
-        <v>2105</v>
+        <v>3750</v>
       </c>
       <c r="J32" s="12">
-        <v>15438</v>
+        <v>37000</v>
       </c>
       <c r="K32" s="13">
-        <v>23.26</v>
+        <v>120.01</v>
       </c>
       <c r="L32" s="14">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="M32" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N32" s="32">
         <f>LOG((D32+E32)/(F32+E32)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>58.620847027423906</v>
       </c>
       <c r="O32" s="15">
         <f>LOG(I32*H32/J32^2,W$3)</f>
-        <v>52.313812221390805</v>
+        <v>50.544143284763855</v>
       </c>
       <c r="P32" s="10">
         <f>LOG(K32/J32+1,X$3)</f>
-        <v>26.846501181057793</v>
+        <v>59.842252131132476</v>
       </c>
       <c r="Q32" s="26">
         <f>LOG(L32*M32/J32+1,Y$3)</f>
-        <v>22.124874891376258</v>
+        <v>6.1154525678623992</v>
       </c>
       <c r="R32" s="15">
         <f>(N32+O32)/2</f>
-        <v>58.541035568472935</v>
+        <v>54.582495156093884</v>
       </c>
       <c r="S32" s="10">
         <f>(N32+O32+P32)/3</f>
-        <v>47.976190772667884</v>
+        <v>56.33574748110675</v>
       </c>
       <c r="T32" s="11">
         <f>(N32+O32+Q32)/3</f>
-        <v>46.402315342774045</v>
+        <v>38.426814293350056</v>
       </c>
       <c r="U32" s="26">
         <f>(N32*2+O32*2+P32+Q32)/6</f>
-        <v>47.189253057720968</v>
+        <v>47.381280887228399</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="19">
@@ -4659,846 +4690,854 @@
       </c>
       <c r="N33" s="32">
         <f>LOG((D33+E33)/(F33+E33)+1,V$3)</f>
-        <v>57.884554195760231</v>
+        <v>57.198109705951531</v>
       </c>
       <c r="O33" s="15">
         <f>LOG(I33*H33/J33^2,W$3)</f>
-        <v>49.251266079816801</v>
+        <v>49.36039448328107</v>
       </c>
       <c r="P33" s="10">
         <f>LOG(K33/J33+1,X$3)</f>
-        <v>42.684678353794851</v>
+        <v>44.235568899700546</v>
       </c>
       <c r="Q33" s="26">
         <f>LOG(L33*M33/J33+1,Y$3)</f>
-        <v>25.830708876296782</v>
+        <v>26.059388305981908</v>
       </c>
       <c r="R33" s="15">
         <f>(N33+O33)/2</f>
-        <v>53.567910137788516</v>
+        <v>53.279252094616297</v>
       </c>
       <c r="S33" s="10">
         <f>(N33+O33+P33)/3</f>
-        <v>49.940166209790625</v>
+        <v>50.264691029644382</v>
       </c>
       <c r="T33" s="11">
         <f>(N33+O33+Q33)/3</f>
-        <v>44.322176383957945</v>
+        <v>44.205964165071499</v>
       </c>
       <c r="U33" s="26">
         <f>(N33*2+O33*2+P33+Q33)/6</f>
-        <v>47.131171296874292</v>
+        <v>47.23532759735793</v>
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>38</v>
+      <c r="A34" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="C34" s="19">
         <v>2022</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="6">
-        <v>110565000</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6">
-        <v>236734000</v>
-      </c>
-      <c r="H34" s="5" cm="1">
-        <f t="array" aca="1" ref="H34" ca="1">G34/INDIRECT("EUR!$B$30")</f>
-        <v>241716749.06523067</v>
+      <c r="D34" s="23"/>
+      <c r="E34" s="8">
+        <v>195000000</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <v>345200000</v>
+      </c>
+      <c r="H34" s="5">
+        <f>G34</f>
+        <v>345200000</v>
       </c>
       <c r="I34" s="10">
-        <v>549.79</v>
+        <v>2105</v>
       </c>
       <c r="J34" s="12">
-        <v>10363</v>
+        <v>15438</v>
       </c>
       <c r="K34" s="13">
-        <v>32.840000000000003</v>
+        <v>23.26</v>
+      </c>
+      <c r="L34" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M34" s="11">
+        <v>16</v>
       </c>
       <c r="N34" s="32">
         <f>LOG((D34+E34)/(F34+E34)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O34" s="15">
-        <f ca="1">LOG(I34*H34/J34^2,W$3)</f>
-        <v>46.433877835619548</v>
+        <f>LOG(I34*H34/J34^2,W$3)</f>
+        <v>52.429726455912167</v>
       </c>
       <c r="P34" s="10">
         <f>LOG(K34/J34+1,X$3)</f>
-        <v>56.419133126347774</v>
+        <v>27.821932799102232</v>
+      </c>
+      <c r="Q34" s="26">
+        <f>LOG(L34*M34/J34+1,Y$3)</f>
+        <v>22.320746549263955</v>
       </c>
       <c r="R34" s="15">
-        <f ca="1">(N34+O34)/2</f>
-        <v>55.601068375587303</v>
+        <f>(N34+O34)/2</f>
+        <v>58.214954015445798</v>
       </c>
       <c r="S34" s="10">
-        <f ca="1">(N34+O34+P34)/3</f>
-        <v>55.873756625840791</v>
+        <f>(N34+O34+P34)/3</f>
+        <v>48.083946943331277</v>
       </c>
       <c r="T34" s="11">
-        <f ca="1">(N34+O34+Q34)/3</f>
-        <v>37.0673789170582</v>
+        <f>(N34+O34+Q34)/3</f>
+        <v>46.250218193385187</v>
       </c>
       <c r="U34" s="26">
-        <f ca="1">(N34*2+O34*2+P34+Q34)/6</f>
-        <v>46.470567771449502</v>
+        <f>(N34*2+O34*2+P34+Q34)/6</f>
+        <v>47.167082568358232</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>21</v>
+      <c r="A35" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="19">
         <v>2022</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="4">
-        <v>2219200000</v>
-      </c>
-      <c r="F35" s="4">
-        <v>87905000</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3337000000</v>
+      <c r="D35" s="21"/>
+      <c r="E35" s="6">
+        <v>110565000</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <v>236734000</v>
       </c>
       <c r="H35" s="5" cm="1">
-        <f t="array" aca="1" ref="H35" ca="1">G35/INDIRECT("EUR!$B$39")</f>
-        <v>447309321.16487551</v>
+        <f t="array" aca="1" ref="H35" ca="1">G35/INDIRECT("EUR!$B$30")</f>
+        <v>241716749.06523067</v>
       </c>
       <c r="I35" s="10">
-        <v>2267</v>
+        <v>549.79</v>
       </c>
       <c r="J35" s="12">
-        <v>16588</v>
+        <v>10363</v>
       </c>
       <c r="K35" s="13">
-        <v>42.02</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="N35" s="32">
         <f>LOG((D35+E35)/(F35+E35)+1,V$3)</f>
-        <v>62.970948631252597</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O35" s="15">
         <f ca="1">LOG(I35*H35/J35^2,W$3)</f>
-        <v>53.549992912002104</v>
+        <v>46.536763616193063</v>
       </c>
       <c r="P35" s="10">
         <f>LOG(K35/J35+1,X$3)</f>
-        <v>45.113707277606409</v>
+        <v>58.46904666789068</v>
       </c>
       <c r="R35" s="15">
         <f ca="1">(N35+O35)/2</f>
-        <v>58.260470771627354</v>
+        <v>55.268472595586246</v>
       </c>
       <c r="S35" s="10">
         <f ca="1">(N35+O35+P35)/3</f>
-        <v>53.878216273620374</v>
+        <v>56.335330619687717</v>
       </c>
       <c r="T35" s="11">
         <f ca="1">(N35+O35+Q35)/3</f>
-        <v>38.840313847751567</v>
+        <v>36.845648397057495</v>
       </c>
       <c r="U35" s="26">
         <f ca="1">(N35*2+O35*2+P35+Q35)/6</f>
-        <v>46.359265060685971</v>
+        <v>46.590489508372606</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>22</v>
+      <c r="A36" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="C36" s="19">
         <v>2022</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="8">
-        <v>498700000</v>
-      </c>
-      <c r="F36" s="8">
-        <v>66000000</v>
-      </c>
-      <c r="G36" s="8">
-        <v>812600000</v>
-      </c>
-      <c r="H36" s="5">
-        <f>G36</f>
-        <v>812600000</v>
+      <c r="D36" s="20"/>
+      <c r="E36" s="4">
+        <v>2219200000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>87905000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3337000000</v>
+      </c>
+      <c r="H36" s="5" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">G36/INDIRECT("EUR!$B$39")</f>
+        <v>447309321.16487551</v>
       </c>
       <c r="I36" s="10">
-        <v>1903</v>
+        <v>2267</v>
       </c>
       <c r="J36" s="12">
-        <v>33474</v>
+        <v>16588</v>
       </c>
       <c r="K36" s="13">
-        <v>102.46</v>
-      </c>
-      <c r="L36" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="M36" s="11">
-        <v>14</v>
+        <v>42.02</v>
       </c>
       <c r="N36" s="32">
         <f>LOG((D36+E36)/(F36+E36)+1,V$3)</f>
-        <v>59.141700046857572</v>
+        <v>62.224185331326971</v>
       </c>
       <c r="O36" s="15">
-        <f>LOG(I36*H36/J36^2,W$3)</f>
-        <v>47.14509768163996</v>
+        <f ca="1">LOG(I36*H36/J36^2,W$3)</f>
+        <v>53.668646211645992</v>
       </c>
       <c r="P36" s="10">
         <f>LOG(K36/J36+1,X$3)</f>
-        <v>54.497792086533451</v>
-      </c>
-      <c r="Q36" s="26">
-        <f>LOG(L36*M36/J36+1,Y$3)</f>
-        <v>7.2583426867268024</v>
+        <v>46.752853332021424</v>
       </c>
       <c r="R36" s="15">
-        <f>(N36+O36)/2</f>
-        <v>53.143398864248766</v>
+        <f ca="1">(N36+O36)/2</f>
+        <v>57.946415771486485</v>
       </c>
       <c r="S36" s="10">
-        <f>(N36+O36+P36)/3</f>
-        <v>53.594863271676992</v>
+        <f ca="1">(N36+O36+P36)/3</f>
+        <v>54.215228291664801</v>
       </c>
       <c r="T36" s="11">
-        <f>(N36+O36+Q36)/3</f>
-        <v>37.84838013840811</v>
+        <f ca="1">(N36+O36+Q36)/3</f>
+        <v>38.630943847657655</v>
       </c>
       <c r="U36" s="26">
-        <f>(N36*2+O36*2+P36+Q36)/6</f>
-        <v>45.721621705042558</v>
+        <f ca="1">(N36*2+O36*2+P36+Q36)/6</f>
+        <v>46.423086069661224</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>19</v>
+      <c r="B37" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="C37" s="19">
         <v>2022</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="8">
-        <v>473310000</v>
+        <v>498700000</v>
       </c>
       <c r="F37" s="8">
-        <v>60361000</v>
+        <v>66000000</v>
       </c>
       <c r="G37" s="8">
-        <v>690144000</v>
+        <v>812600000</v>
       </c>
       <c r="H37" s="5">
         <f>G37</f>
-        <v>690144000</v>
+        <v>812600000</v>
       </c>
       <c r="I37" s="10">
-        <v>2797</v>
+        <v>1903</v>
       </c>
       <c r="J37" s="12">
-        <v>31761</v>
+        <v>33474</v>
       </c>
       <c r="K37" s="13">
-        <v>63.65</v>
+        <v>102.46</v>
       </c>
       <c r="L37" s="14">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="M37" s="11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N37" s="32">
         <f>LOG((D37+E37)/(F37+E37)+1,V$3)</f>
-        <v>59.328628085770532</v>
+        <v>58.440347247667184</v>
       </c>
       <c r="O37" s="15">
         <f>LOG(I37*H37/J37^2,W$3)</f>
-        <v>49.276355904696686</v>
+        <v>47.249559346296998</v>
       </c>
       <c r="P37" s="10">
         <f>LOG(K37/J37+1,X$3)</f>
-        <v>35.69976996143339</v>
+        <v>56.477896277999726</v>
       </c>
       <c r="Q37" s="26">
         <f>LOG(L37*M37/J37+1,Y$3)</f>
-        <v>17.394622517409204</v>
+        <v>7.3226008406167651</v>
       </c>
       <c r="R37" s="15">
         <f>(N37+O37)/2</f>
-        <v>54.302491995233609</v>
+        <v>52.844953296982091</v>
       </c>
       <c r="S37" s="10">
         <f>(N37+O37+P37)/3</f>
-        <v>48.101584650633534</v>
+        <v>54.055934290654641</v>
       </c>
       <c r="T37" s="11">
         <f>(N37+O37+Q37)/3</f>
-        <v>41.999868835958807</v>
+        <v>37.670835811526985</v>
       </c>
       <c r="U37" s="26">
         <f>(N37*2+O37*2+P37+Q37)/6</f>
-        <v>45.050726743296174</v>
+        <v>45.863385051090809</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>77</v>
+      <c r="B38" s="65" t="s">
+        <v>19</v>
       </c>
       <c r="C38" s="19">
         <v>2022</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="8">
-        <v>285000000</v>
+        <v>473310000</v>
       </c>
       <c r="F38" s="8">
-        <v>28500000</v>
+        <v>60361000</v>
       </c>
       <c r="G38" s="8">
-        <v>432200000</v>
+        <v>690144000</v>
       </c>
       <c r="H38" s="5">
         <f>G38</f>
-        <v>432200000</v>
+        <v>690144000</v>
       </c>
       <c r="I38" s="10">
-        <v>2068.83</v>
+        <v>2797</v>
       </c>
       <c r="J38" s="12">
-        <v>12493</v>
+        <v>31761</v>
       </c>
       <c r="K38" s="13">
-        <v>21.01</v>
+        <v>63.65</v>
       </c>
       <c r="L38" s="14">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="M38" s="11">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N38" s="32">
         <f>LOG((D38+E38)/(F38+E38)+1,V$3)</f>
-        <v>60.421389301280072</v>
+        <v>58.625058534217004</v>
       </c>
       <c r="O38" s="15">
         <f>LOG(I38*H38/J38^2,W$3)</f>
-        <v>56.42690616365504</v>
+        <v>49.385539900894912</v>
       </c>
       <c r="P38" s="10">
         <f>LOG(K38/J38+1,X$3)</f>
-        <v>29.963349954636186</v>
+        <v>36.996873227979918</v>
       </c>
       <c r="Q38" s="26">
         <f>LOG(L38*M38/J38+1,Y$3)</f>
-        <v>2.1375694051748542</v>
+        <v>17.548617220997048</v>
       </c>
       <c r="R38" s="15">
         <f>(N38+O38)/2</f>
-        <v>58.42414773246756</v>
+        <v>54.005299217555958</v>
       </c>
       <c r="S38" s="10">
         <f>(N38+O38+P38)/3</f>
-        <v>48.937215139857102</v>
+        <v>48.335823887697281</v>
       </c>
       <c r="T38" s="11">
         <f>(N38+O38+Q38)/3</f>
-        <v>39.661954956703326</v>
+        <v>41.853071885369651</v>
       </c>
       <c r="U38" s="26">
         <f>(N38*2+O38*2+P38+Q38)/6</f>
-        <v>44.299585048280221</v>
+        <v>45.094447886533466</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>55</v>
+      <c r="A39" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="19">
         <v>2022</v>
       </c>
-      <c r="D39" s="23">
-        <v>4010236</v>
-      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="8">
-        <v>204568000</v>
-      </c>
-      <c r="F39" s="8"/>
+        <v>285000000</v>
+      </c>
+      <c r="F39" s="8">
+        <v>28500000</v>
+      </c>
       <c r="G39" s="8">
-        <v>316932680.41000003</v>
+        <v>432200000</v>
       </c>
       <c r="H39" s="5">
         <f>G39</f>
-        <v>316932680.41000003</v>
+        <v>432200000</v>
       </c>
       <c r="I39" s="10">
-        <v>2280</v>
+        <v>2068.83</v>
       </c>
       <c r="J39" s="12">
-        <v>14200</v>
+        <v>12493</v>
       </c>
       <c r="K39" s="13">
-        <v>20.5</v>
+        <v>21.01</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>2</v>
       </c>
       <c r="N39" s="32">
         <f>LOG((D39+E39)/(F39+E39)+1,V$3)</f>
-        <v>65.679680319989515</v>
+        <v>59.704860853774335</v>
       </c>
       <c r="O39" s="15">
         <f>LOG(I39*H39/J39^2,W$3)</f>
-        <v>53.367619181577894</v>
+        <v>56.551933978616965</v>
       </c>
       <c r="P39" s="10">
         <f>LOG(K39/J39+1,X$3)</f>
-        <v>25.724574618731339</v>
+        <v>31.052028093033773</v>
+      </c>
+      <c r="Q39" s="26">
+        <f>LOG(L39*M39/J39+1,Y$3)</f>
+        <v>2.1564933206906347</v>
       </c>
       <c r="R39" s="15">
         <f>(N39+O39)/2</f>
-        <v>59.523649750783704</v>
+        <v>58.128397416195654</v>
       </c>
       <c r="S39" s="10">
         <f>(N39+O39+P39)/3</f>
-        <v>48.257291373432913</v>
+        <v>49.102940975141699</v>
       </c>
       <c r="T39" s="11">
         <f>(N39+O39+Q39)/3</f>
-        <v>39.682433167189139</v>
+        <v>39.47109605102731</v>
       </c>
       <c r="U39" s="26">
         <f>(N39*2+O39*2+P39+Q39)/6</f>
-        <v>43.969862270311033</v>
+        <v>44.287018513084497</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>79</v>
+      <c r="A40" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="C40" s="19">
         <v>2022</v>
       </c>
       <c r="D40" s="23">
-        <v>16962080</v>
+        <v>4010236</v>
       </c>
       <c r="E40" s="8">
-        <v>447679492</v>
-      </c>
-      <c r="F40" s="8">
-        <v>54750430</v>
-      </c>
+        <v>204568000</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8">
-        <v>1199200318</v>
+        <v>316932680.41000003</v>
       </c>
       <c r="H40" s="5">
         <f>G40</f>
-        <v>1199200318</v>
+        <v>316932680.41000003</v>
       </c>
       <c r="I40" s="10">
-        <v>4353</v>
+        <v>2280</v>
       </c>
       <c r="J40" s="12">
-        <v>65651</v>
+        <v>14200</v>
       </c>
       <c r="K40" s="13">
-        <v>124.13</v>
-      </c>
-      <c r="L40" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="M40" s="11">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="N40" s="32">
         <f>LOG((D40+E40)/(F40+E40)+1,V$3)</f>
-        <v>61.186584808646423</v>
+        <v>64.900794565845516</v>
       </c>
       <c r="O40" s="15">
         <f>LOG(I40*H40/J40^2,W$3)</f>
-        <v>46.293716211306879</v>
+        <v>53.485868386959467</v>
       </c>
       <c r="P40" s="10">
         <f>LOG(K40/J40+1,X$3)</f>
-        <v>33.68380500508114</v>
-      </c>
-      <c r="Q40" s="26">
-        <f>LOG(L40*M40/J40+1,Y$3)</f>
-        <v>11.954551737247691</v>
+        <v>26.659242539687785</v>
       </c>
       <c r="R40" s="15">
         <f>(N40+O40)/2</f>
-        <v>53.740150509976651</v>
+        <v>59.193331476402491</v>
       </c>
       <c r="S40" s="10">
         <f>(N40+O40+P40)/3</f>
-        <v>47.054702008344812</v>
+        <v>48.348635164164257</v>
       </c>
       <c r="T40" s="11">
         <f>(N40+O40+Q40)/3</f>
-        <v>39.811617585733664</v>
+        <v>39.462220984268328</v>
       </c>
       <c r="U40" s="26">
         <f>(N40*2+O40*2+P40+Q40)/6</f>
-        <v>43.433159797039245</v>
+        <v>43.905428074216296</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>78</v>
+      <c r="A41" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D41" s="23"/>
+        <v>2022</v>
+      </c>
+      <c r="D41" s="23">
+        <v>16962080</v>
+      </c>
       <c r="E41" s="8">
-        <v>147241458</v>
+        <v>447679492</v>
       </c>
       <c r="F41" s="8">
-        <v>20629278</v>
+        <v>54750430</v>
       </c>
       <c r="G41" s="8">
-        <v>209455095</v>
+        <v>1199200318</v>
       </c>
       <c r="H41" s="5">
         <f>G41</f>
-        <v>209455095</v>
+        <v>1199200318</v>
       </c>
       <c r="I41" s="10">
-        <v>824</v>
+        <v>4353</v>
       </c>
       <c r="J41" s="12">
-        <v>16410</v>
+        <v>65651</v>
       </c>
       <c r="K41" s="13">
-        <v>20.56</v>
+        <v>124.13</v>
       </c>
       <c r="L41" s="14">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="M41" s="11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N41" s="32">
         <f>LOG((D41+E41)/(F41+E41)+1,V$3)</f>
-        <v>58.8429236688293</v>
+        <v>60.460982019168881</v>
       </c>
       <c r="O41" s="15">
         <f>LOG(I41*H41/J41^2,W$3)</f>
-        <v>42.143663869221427</v>
+        <v>46.396291429015605</v>
       </c>
       <c r="P41" s="10">
         <f>LOG(K41/J41+1,X$3)</f>
-        <v>22.327422610748659</v>
+        <v>34.907660888438571</v>
       </c>
       <c r="Q41" s="26">
         <f>LOG(L41*M41/J41+1,Y$3)</f>
-        <v>32.428629671590095</v>
+        <v>12.060385459678892</v>
       </c>
       <c r="R41" s="15">
         <f>(N41+O41)/2</f>
-        <v>50.493293769025364</v>
+        <v>53.428636724092243</v>
       </c>
       <c r="S41" s="10">
         <f>(N41+O41+P41)/3</f>
-        <v>41.104670049599797</v>
+        <v>47.254978112207688</v>
       </c>
       <c r="T41" s="11">
         <f>(N41+O41+Q41)/3</f>
-        <v>44.471739069880272</v>
+        <v>39.639219635954461</v>
       </c>
       <c r="U41" s="26">
         <f>(N41*2+O41*2+P41+Q41)/6</f>
-        <v>42.788204559740031</v>
+        <v>43.447098874081071</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>45</v>
+      <c r="A42" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>78</v>
       </c>
       <c r="C42" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="8">
-        <v>406000000</v>
+        <v>147241458</v>
       </c>
       <c r="F42" s="8">
-        <v>59000000</v>
+        <v>20629278</v>
       </c>
       <c r="G42" s="8">
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="H42" s="5">
         <f>G42</f>
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="I42" s="10">
-        <v>3049</v>
+        <v>824</v>
       </c>
       <c r="J42" s="12">
-        <v>33334</v>
+        <v>16410</v>
       </c>
       <c r="K42" s="13">
-        <v>71.78</v>
+        <v>20.56</v>
+      </c>
+      <c r="L42" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="M42" s="11">
+        <v>21</v>
       </c>
       <c r="N42" s="32">
         <f>LOG((D42+E42)/(F42+E42)+1,V$3)</f>
-        <v>58.64390205764029</v>
+        <v>58.145114015150391</v>
       </c>
       <c r="O42" s="15">
         <f>LOG(I42*H42/J42^2,W$3)</f>
-        <v>50.25267677513952</v>
+        <v>42.237043615982238</v>
       </c>
       <c r="P42" s="10">
         <f>LOG(K42/J42+1,X$3)</f>
-        <v>38.357017487659839</v>
+        <v>23.138659569229162</v>
+      </c>
+      <c r="Q42" s="26">
+        <f>LOG(L42*M42/J42+1,Y$3)</f>
+        <v>32.715720535967201</v>
       </c>
       <c r="R42" s="15">
         <f>(N42+O42)/2</f>
-        <v>54.448289416389905</v>
+        <v>50.191078815566314</v>
       </c>
       <c r="S42" s="10">
         <f>(N42+O42+P42)/3</f>
-        <v>49.084532106813214</v>
+        <v>41.173605733453932</v>
       </c>
       <c r="T42" s="11">
         <f>(N42+O42+Q42)/3</f>
-        <v>36.298859610926606</v>
+        <v>44.365959389033272</v>
       </c>
       <c r="U42" s="26">
         <f>(N42*2+O42*2+P42+Q42)/6</f>
-        <v>42.691695858869906</v>
+        <v>42.769782561243602</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>54</v>
+      <c r="A43" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="C43" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="8">
-        <v>145400000</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8">
-        <v>222200000</v>
-      </c>
-      <c r="H43" s="5">
-        <f>G43</f>
-        <v>222200000</v>
+        <v>2023</v>
+      </c>
+      <c r="D43" s="22">
+        <v>600000</v>
+      </c>
+      <c r="E43" s="7">
+        <v>127700000</v>
+      </c>
+      <c r="F43" s="7">
+        <v>416400000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>934200000</v>
+      </c>
+      <c r="H43" s="5" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">G43/INDIRECT("EUR!$B$48")</f>
+        <v>1089637942.0749309</v>
       </c>
       <c r="I43" s="10">
-        <v>1746</v>
+        <v>3335</v>
       </c>
       <c r="J43" s="12">
-        <v>14340</v>
+        <v>31485</v>
       </c>
       <c r="K43" s="13">
-        <v>21.48</v>
+        <v>112.44</v>
+      </c>
+      <c r="L43" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M43" s="11">
+        <v>47</v>
       </c>
       <c r="N43" s="32">
         <f>LOG((D43+E43)/(F43+E43)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>19.548720816979746</v>
       </c>
       <c r="O43" s="15">
-        <f>LOG(I43*H43/J43^2,W$3)</f>
-        <v>49.183956747966967</v>
+        <f ca="1">LOG(I43*H43/J43^2,W$3)</f>
+        <v>53.634024207365478</v>
       </c>
       <c r="P43" s="10">
         <f>LOG(K43/J43+1,X$3)</f>
-        <v>26.690459221266394</v>
+        <v>65.877695296280649</v>
+      </c>
+      <c r="Q43" s="26">
+        <f>LOG(L43*M43/J43+1,Y$3)</f>
+        <v>44.169685133849327</v>
       </c>
       <c r="R43" s="15">
-        <f>(N43+O43)/2</f>
-        <v>56.976107831761013</v>
+        <f ca="1">(N43+O43)/2</f>
+        <v>36.591372512172612</v>
       </c>
       <c r="S43" s="10">
-        <f>(N43+O43+P43)/3</f>
-        <v>46.880891628262809</v>
+        <f ca="1">(N43+O43+P43)/3</f>
+        <v>46.353480106875288</v>
       </c>
       <c r="T43" s="11">
-        <f>(N43+O43+Q43)/3</f>
-        <v>37.984071887840678</v>
+        <f ca="1">(N43+O43+Q43)/3</f>
+        <v>39.117476719398184</v>
       </c>
       <c r="U43" s="26">
-        <f>(N43*2+O43*2+P43+Q43)/6</f>
-        <v>42.432481758051743</v>
+        <f ca="1">(N43*2+O43*2+P43+Q43)/6</f>
+        <v>42.73547841313674</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>82</v>
+      <c r="A44" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D44" s="22">
-        <v>600000</v>
-      </c>
-      <c r="E44" s="7">
-        <v>127700000</v>
-      </c>
-      <c r="F44" s="7">
-        <v>416400000</v>
-      </c>
-      <c r="G44" s="7">
-        <v>934200000</v>
-      </c>
-      <c r="H44" s="5" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">G44/INDIRECT("EUR!$B$48")</f>
-        <v>1089637942.0749309</v>
+        <v>2022</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="8">
+        <v>406000000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>59000000</v>
+      </c>
+      <c r="G44" s="8">
+        <v>810000000</v>
+      </c>
+      <c r="H44" s="5">
+        <f>G44</f>
+        <v>810000000</v>
       </c>
       <c r="I44" s="10">
-        <v>3335</v>
+        <v>3049</v>
       </c>
       <c r="J44" s="12">
-        <v>31485</v>
+        <v>33334</v>
       </c>
       <c r="K44" s="13">
-        <v>112.44</v>
-      </c>
-      <c r="L44" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M44" s="11">
-        <v>47</v>
+        <v>71.78</v>
       </c>
       <c r="N44" s="32">
         <f>LOG((D44+E44)/(F44+E44)+1,V$3)</f>
-        <v>19.783328424759272</v>
+        <v>57.948452572235134</v>
       </c>
       <c r="O44" s="15">
-        <f ca="1">LOG(I44*H44/J44^2,W$3)</f>
-        <v>53.515447451762434</v>
+        <f>LOG(I44*H44/J44^2,W$3)</f>
+        <v>50.364024052535179</v>
       </c>
       <c r="P44" s="10">
         <f>LOG(K44/J44+1,X$3)</f>
-        <v>63.568035957373638</v>
-      </c>
-      <c r="Q44" s="26">
-        <f>LOG(L44*M44/J44+1,Y$3)</f>
-        <v>43.782082083187476</v>
+        <v>39.750668279582989</v>
       </c>
       <c r="R44" s="15">
-        <f ca="1">(N44+O44)/2</f>
-        <v>36.649387938260851</v>
+        <f>(N44+O44)/2</f>
+        <v>54.156238312385156</v>
       </c>
       <c r="S44" s="10">
-        <f ca="1">(N44+O44+P44)/3</f>
-        <v>45.62227061129844</v>
+        <f>(N44+O44+P44)/3</f>
+        <v>49.354381634784431</v>
       </c>
       <c r="T44" s="11">
-        <f ca="1">(N44+O44+Q44)/3</f>
-        <v>39.026952653236393</v>
+        <f>(N44+O44+Q44)/3</f>
+        <v>36.104158874923435</v>
       </c>
       <c r="U44" s="26">
-        <f ca="1">(N44*2+O44*2+P44+Q44)/6</f>
-        <v>42.32461163226742</v>
+        <f>(N44*2+O44*2+P44+Q44)/6</f>
+        <v>42.729270254853937</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C45" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D45" s="23">
-        <v>5160000</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="8">
-        <v>103200000</v>
+        <v>145400000</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8">
-        <v>516000000</v>
+        <v>222200000</v>
       </c>
       <c r="H45" s="5">
         <f>G45</f>
-        <v>516000000</v>
+        <v>222200000</v>
       </c>
       <c r="I45" s="10">
-        <v>3567.69</v>
+        <v>1746</v>
       </c>
       <c r="J45" s="12">
-        <v>27678</v>
+        <v>14340</v>
       </c>
       <c r="K45" s="13">
-        <v>28.06</v>
+        <v>21.48</v>
       </c>
       <c r="N45" s="32">
         <f>LOG((D45+E45)/(F45+E45)+1,V$3)</f>
-        <v>67.075557524578784</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O45" s="15">
         <f>LOG(I45*H45/J45^2,W$3)</f>
-        <v>50.761677128045022</v>
+        <v>49.2929360109013</v>
       </c>
       <c r="P45" s="10">
         <f>LOG(K45/J45+1,X$3)</f>
-        <v>18.068782682546765</v>
+        <v>27.66022126396112</v>
       </c>
       <c r="R45" s="15">
         <f>(N45+O45)/2</f>
-        <v>58.918617326311903</v>
+        <v>56.646558792940368</v>
       </c>
       <c r="S45" s="10">
         <f>(N45+O45+P45)/3</f>
-        <v>45.302005778390189</v>
+        <v>46.984446283280619</v>
       </c>
       <c r="T45" s="11">
         <f>(N45+O45+Q45)/3</f>
-        <v>39.279078217541269</v>
+        <v>37.764372528626915</v>
       </c>
       <c r="U45" s="26">
         <f>(N45*2+O45*2+P45+Q45)/6</f>
-        <v>42.290541997965725</v>
+        <v>42.374409405953763</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="53" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="19">
@@ -5535,362 +5574,360 @@
       </c>
       <c r="N46" s="32">
         <f>LOG((D46+E46)/(F46+E46)+1,V$3)</f>
-        <v>59.715833980473072</v>
+        <v>59.007672610661068</v>
       </c>
       <c r="O46" s="15">
         <f>LOG(I46*H46/J46^2,W$3)</f>
-        <v>51.531526265259977</v>
+        <v>51.645707151093269</v>
       </c>
       <c r="P46" s="10">
         <f>LOG(K46/J46+1,X$3)</f>
-        <v>26.267595092799702</v>
+        <v>27.221992934466467</v>
       </c>
       <c r="Q46" s="26">
         <f>LOG(L46*M46/J46+1,Y$3)</f>
-        <v>4.5882123513906343</v>
+        <v>4.6288318244687847</v>
       </c>
       <c r="R46" s="15">
         <f>(N46+O46)/2</f>
-        <v>55.623680122866524</v>
+        <v>55.326689880877169</v>
       </c>
       <c r="S46" s="10">
         <f>(N46+O46+P46)/3</f>
-        <v>45.838318446177588</v>
+        <v>45.958457565406938</v>
       </c>
       <c r="T46" s="11">
         <f>(N46+O46+Q46)/3</f>
-        <v>38.611857532374565</v>
+        <v>38.427403862074378</v>
       </c>
       <c r="U46" s="26">
         <f>(N46*2+O46*2+P46+Q46)/6</f>
-        <v>42.225087989276069</v>
+        <v>42.192930713740658</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="62" t="s">
-        <v>41</v>
+      <c r="B47" s="65" t="s">
+        <v>40</v>
       </c>
       <c r="C47" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D47" s="23">
-        <v>1545561</v>
+        <v>5160000</v>
       </c>
       <c r="E47" s="8">
-        <v>146972266.58000001</v>
+        <v>103200000</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
-        <v>331968251.18000001</v>
+        <v>516000000</v>
       </c>
       <c r="H47" s="5">
         <f>G47</f>
-        <v>331968251.18000001</v>
+        <v>516000000</v>
       </c>
       <c r="I47" s="10">
-        <v>2453</v>
+        <v>3567.69</v>
       </c>
       <c r="J47" s="12">
-        <v>21617</v>
+        <v>27678</v>
       </c>
       <c r="K47" s="13">
-        <v>27.2</v>
-      </c>
-      <c r="N47" s="33">
+        <v>28.06</v>
+      </c>
+      <c r="N47" s="32">
         <f>LOG((D47+E47)/(F47+E47)+1,V$3)</f>
-        <v>65.258283938134767</v>
+        <v>66.280118266156279</v>
       </c>
       <c r="O47" s="15">
         <f>LOG(I47*H47/J47^2,W$3)</f>
-        <v>48.6661439461488</v>
+        <v>50.874152222049197</v>
       </c>
       <c r="P47" s="10">
         <f>LOG(K47/J47+1,X$3)</f>
-        <v>22.423137452135187</v>
+        <v>18.725287670264329</v>
       </c>
       <c r="R47" s="15">
         <f>(N47+O47)/2</f>
-        <v>56.962213942141787</v>
+        <v>58.577135244102735</v>
       </c>
       <c r="S47" s="10">
         <f>(N47+O47+P47)/3</f>
-        <v>45.44918844547292</v>
+        <v>45.293186052823266</v>
       </c>
       <c r="T47" s="11">
         <f>(N47+O47+Q47)/3</f>
-        <v>37.974809294761194</v>
+        <v>39.051423496068487</v>
       </c>
       <c r="U47" s="26">
         <f>(N47*2+O47*2+P47+Q47)/6</f>
-        <v>41.711998870117057</v>
+        <v>42.172304774445877</v>
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>81</v>
+      <c r="A48" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="19">
         <v>2022</v>
       </c>
       <c r="D48" s="23">
-        <v>2272000</v>
+        <v>1545561</v>
       </c>
       <c r="E48" s="8">
-        <v>44663000</v>
-      </c>
-      <c r="F48" s="8">
-        <v>9198000</v>
-      </c>
+        <v>146972266.58000001</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8">
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="H48" s="5">
         <f>G48</f>
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="I48" s="10">
-        <v>1847</v>
+        <v>2453</v>
       </c>
       <c r="J48" s="12">
-        <v>14263</v>
+        <v>21617</v>
       </c>
       <c r="K48" s="13">
-        <v>19.46</v>
-      </c>
-      <c r="L48" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="M48" s="11">
-        <v>7</v>
+        <v>27.2</v>
       </c>
       <c r="N48" s="33">
         <f>LOG((D48+E48)/(F48+E48)+1,V$3)</f>
-        <v>58.55863235014084</v>
+        <v>64.48439546225211</v>
       </c>
       <c r="O48" s="15">
         <f>LOG(I48*H48/J48^2,W$3)</f>
-        <v>50.237309979806746</v>
+        <v>48.773975866306927</v>
       </c>
       <c r="P48" s="10">
         <f>LOG(K48/J48+1,X$3)</f>
-        <v>24.312624192295676</v>
-      </c>
-      <c r="Q48" s="26">
-        <f>LOG(L48*M48/J48+1,Y$3)</f>
-        <v>7.8619862357980823</v>
+        <v>23.23785208101955</v>
       </c>
       <c r="R48" s="15">
         <f>(N48+O48)/2</f>
-        <v>54.397971164973796</v>
+        <v>56.629185664279518</v>
       </c>
       <c r="S48" s="10">
         <f>(N48+O48+P48)/3</f>
-        <v>44.369522174081091</v>
+        <v>45.498741136526199</v>
       </c>
       <c r="T48" s="11">
         <f>(N48+O48+Q48)/3</f>
-        <v>38.885976188581893</v>
+        <v>37.752790442853012</v>
       </c>
       <c r="U48" s="26">
         <f>(N48*2+O48*2+P48+Q48)/6</f>
-        <v>41.627749181331488</v>
+        <v>41.625765789689602</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>299</v>
+      <c r="A49" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="C49" s="19">
         <v>2022</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="6">
-        <v>96570451</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6">
-        <v>141671439</v>
-      </c>
-      <c r="H49" s="5" cm="1">
-        <f t="array" aca="1" ref="H49" ca="1">G49/INDIRECT("EUR!$B$30")</f>
-        <v>144653322.59190962</v>
+      <c r="D49" s="23">
+        <v>2272000</v>
+      </c>
+      <c r="E49" s="8">
+        <v>44663000</v>
+      </c>
+      <c r="F49" s="8">
+        <v>9198000</v>
+      </c>
+      <c r="G49" s="8">
+        <v>244230000</v>
+      </c>
+      <c r="H49" s="5">
+        <f>G49</f>
+        <v>244230000</v>
       </c>
       <c r="I49" s="10">
-        <v>529</v>
+        <v>1847</v>
       </c>
       <c r="J49" s="12">
-        <v>4409</v>
+        <v>14263</v>
       </c>
       <c r="K49" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="N49" s="32">
+        <v>19.46</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="M49" s="11">
+        <v>7</v>
+      </c>
+      <c r="N49" s="33">
         <f>LOG((D49+E49)/(F49+E49)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>57.864194065766327</v>
       </c>
       <c r="O49" s="15">
-        <f ca="1">LOG(I49*H49/J49^2,W$3)</f>
-        <v>53.97990487437734</v>
+        <f>LOG(I49*H49/J49^2,W$3)</f>
+        <v>50.348623208253528</v>
       </c>
       <c r="P49" s="10">
         <f>LOG(K49/J49+1,X$3)</f>
-        <v>11.644117227337329</v>
+        <v>25.195990787996806</v>
+      </c>
+      <c r="Q49" s="26">
+        <f>LOG(L49*M49/J49+1,Y$3)</f>
+        <v>7.9315884498606026</v>
       </c>
       <c r="R49" s="15">
-        <f ca="1">(N49+O49)/2</f>
-        <v>59.374081894966203</v>
+        <f>(N49+O49)/2</f>
+        <v>54.106408637009928</v>
       </c>
       <c r="S49" s="10">
-        <f ca="1">(N49+O49+P49)/3</f>
-        <v>43.464093672423246</v>
+        <f>(N49+O49+P49)/3</f>
+        <v>44.469602687338885</v>
       </c>
       <c r="T49" s="11">
-        <f ca="1">(N49+O49+Q49)/3</f>
-        <v>39.582721263310802</v>
+        <f>(N49+O49+Q49)/3</f>
+        <v>38.714801907960151</v>
       </c>
       <c r="U49" s="26">
-        <f ca="1">(N49*2+O49*2+P49+Q49)/6</f>
-        <v>41.523407467867024</v>
+        <f>(N49*2+O49*2+P49+Q49)/6</f>
+        <v>41.592202297649521</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>53</v>
+      <c r="A50" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="C50" s="19">
         <v>2022</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="8">
-        <v>170900000</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
-        <v>289107937</v>
-      </c>
-      <c r="H50" s="5">
-        <f>G50</f>
-        <v>289107937</v>
+      <c r="D50" s="21"/>
+      <c r="E50" s="6">
+        <v>96570451</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>141671439</v>
+      </c>
+      <c r="H50" s="5" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">G50/INDIRECT("EUR!$B$30")</f>
+        <v>144653322.59190962</v>
       </c>
       <c r="I50" s="10">
-        <v>3439.4</v>
+        <v>529</v>
       </c>
       <c r="J50" s="12">
-        <v>22287</v>
+        <v>4409</v>
       </c>
       <c r="K50" s="13">
-        <v>23</v>
+        <v>2.88</v>
       </c>
       <c r="N50" s="32">
         <f>LOG((D50+E50)/(F50+E50)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O50" s="15">
-        <f>LOG(I50*H50/J50^2,W$3)</f>
-        <v>49.570581098735296</v>
+        <f ca="1">LOG(I50*H50/J50^2,W$3)</f>
+        <v>54.099510750671911</v>
       </c>
       <c r="P50" s="10">
         <f>LOG(K50/J50+1,X$3)</f>
-        <v>18.392815280077865</v>
+        <v>12.067190611506092</v>
       </c>
       <c r="R50" s="15">
-        <f>(N50+O50)/2</f>
-        <v>57.169420007145177</v>
+        <f ca="1">(N50+O50)/2</f>
+        <v>59.049846162825673</v>
       </c>
       <c r="S50" s="10">
-        <f>(N50+O50+P50)/3</f>
-        <v>44.243885098122739</v>
+        <f ca="1">(N50+O50+P50)/3</f>
+        <v>43.388960979052477</v>
       </c>
       <c r="T50" s="11">
-        <f>(N50+O50+Q50)/3</f>
-        <v>38.112946671430116</v>
+        <f ca="1">(N50+O50+Q50)/3</f>
+        <v>39.366564108550449</v>
       </c>
       <c r="U50" s="26">
-        <f>(N50*2+O50*2+P50+Q50)/6</f>
-        <v>41.178415884776427</v>
+        <f ca="1">(N50*2+O50*2+P50+Q50)/6</f>
+        <v>41.37776254380146</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>309</v>
+      <c r="A51" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="19">
         <v>2022</v>
       </c>
-      <c r="D51" s="23">
-        <v>787395.16</v>
-      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="8">
-        <v>78111453.140000001</v>
-      </c>
-      <c r="F51" s="8">
-        <v>4919089.51</v>
-      </c>
+        <v>170900000</v>
+      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8">
-        <v>138761857.59</v>
+        <v>289107937</v>
       </c>
       <c r="H51" s="5">
         <f>G51</f>
-        <v>138761857.59</v>
+        <v>289107937</v>
       </c>
       <c r="I51" s="10">
-        <v>1314</v>
+        <v>3439.4</v>
       </c>
       <c r="J51" s="12">
-        <v>6753</v>
+        <v>22287</v>
       </c>
       <c r="K51" s="13">
-        <v>5.15</v>
+        <v>23</v>
       </c>
       <c r="N51" s="32">
         <f>LOG((D51+E51)/(F51+E51)+1,V$3)</f>
-        <v>62.413986665734114</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O51" s="15">
         <f>LOG(I51*H51/J51^2,W$3)</f>
-        <v>54.081526547295525</v>
+        <v>49.680417023873424</v>
       </c>
       <c r="P51" s="10">
         <f>LOG(K51/J51+1,X$3)</f>
-        <v>13.593801199427411</v>
+        <v>19.061093557684394</v>
       </c>
       <c r="R51" s="15">
         <f>(N51+O51)/2</f>
-        <v>58.24775660651482</v>
+        <v>56.840299299426434</v>
       </c>
       <c r="S51" s="10">
         <f>(N51+O51+P51)/3</f>
-        <v>43.36310480415235</v>
+        <v>44.247230718845749</v>
       </c>
       <c r="T51" s="11">
         <f>(N51+O51+Q51)/3</f>
-        <v>38.831837737676544</v>
+        <v>37.893532866284289</v>
       </c>
       <c r="U51" s="26">
         <f>(N51*2+O51*2+P51+Q51)/6</f>
-        <v>41.097471270914447</v>
+        <v>41.070381792565023</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="19">
@@ -5923,353 +5960,345 @@
       </c>
       <c r="N52" s="32">
         <f>LOG((D52+E52)/(F52+E52)+1,V$3)</f>
-        <v>66.685557471317665</v>
+        <v>65.89474316667264</v>
       </c>
       <c r="O52" s="15">
         <f ca="1">LOG(I52*H52/J52^2,W$3)</f>
-        <v>44.406676972761275</v>
+        <v>44.50507098670068</v>
       </c>
       <c r="P52" s="10">
         <f>LOG(K52/J52+1,X$3)</f>
-        <v>24.288715867311105</v>
+        <v>25.17121378608606</v>
       </c>
       <c r="R52" s="15">
         <f ca="1">(N52+O52)/2</f>
-        <v>55.54611722203947</v>
+        <v>55.199907076686657</v>
       </c>
       <c r="S52" s="10">
         <f ca="1">(N52+O52+P52)/3</f>
-        <v>45.126983437130015</v>
+        <v>45.190342646486464</v>
       </c>
       <c r="T52" s="11">
         <f ca="1">(N52+O52+Q52)/3</f>
-        <v>37.03074481469298</v>
+        <v>36.799938051124435</v>
       </c>
       <c r="U52" s="26">
         <f ca="1">(N52*2+O52*2+P52+Q52)/6</f>
-        <v>41.078864125911501</v>
+        <v>40.99514034880545</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>56</v>
+      <c r="A53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="C53" s="19">
         <v>2022</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="23">
+        <v>787395.16</v>
+      </c>
       <c r="E53" s="8">
-        <v>155350916.22</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>78111453.140000001</v>
+      </c>
+      <c r="F53" s="8">
+        <v>4919089.51</v>
+      </c>
       <c r="G53" s="8">
-        <v>256352554.86000001</v>
+        <v>138761857.59</v>
       </c>
       <c r="H53" s="5">
         <f>G53</f>
-        <v>256352554.86000001</v>
+        <v>138761857.59</v>
       </c>
       <c r="I53" s="10">
-        <v>1689</v>
+        <v>1314</v>
       </c>
       <c r="J53" s="12">
-        <v>16170</v>
+        <v>6753</v>
       </c>
       <c r="K53" s="13">
-        <v>14.69</v>
+        <v>5.15</v>
       </c>
       <c r="N53" s="32">
         <f>LOG((D53+E53)/(F53+E53)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>61.673828296563762</v>
       </c>
       <c r="O53" s="15">
         <f>LOG(I53*H53/J53^2,W$3)</f>
-        <v>48.33347527288845</v>
+        <v>54.201357591627506</v>
       </c>
       <c r="P53" s="10">
         <f>LOG(K53/J53+1,X$3)</f>
-        <v>16.192375344515472</v>
+        <v>14.087713736107897</v>
       </c>
       <c r="R53" s="15">
         <f>(N53+O53)/2</f>
-        <v>56.550867094221758</v>
+        <v>57.937592944095634</v>
       </c>
       <c r="S53" s="10">
         <f>(N53+O53+P53)/3</f>
-        <v>43.098036510986333</v>
+        <v>43.320966541433052</v>
       </c>
       <c r="T53" s="11">
         <f>(N53+O53+Q53)/3</f>
-        <v>37.700578062814508</v>
+        <v>38.62506196273042</v>
       </c>
       <c r="U53" s="26">
         <f>(N53*2+O53*2+P53+Q53)/6</f>
-        <v>40.399307286900417</v>
+        <v>40.97301425208174</v>
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="63" t="s">
-        <v>39</v>
+      <c r="A54" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C54" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D54" s="23"/>
+        <v>2022</v>
+      </c>
+      <c r="D54" s="23">
+        <v>13059331</v>
+      </c>
       <c r="E54" s="8">
-        <v>296960000</v>
+        <v>51775598</v>
       </c>
       <c r="F54" s="8">
-        <v>20480000</v>
+        <v>5408741</v>
       </c>
       <c r="G54" s="8">
-        <v>512000000</v>
+        <v>127845362</v>
       </c>
       <c r="H54" s="5">
         <f>G54</f>
-        <v>512000000</v>
+        <v>127845362</v>
       </c>
       <c r="I54" s="10">
-        <v>3106</v>
+        <v>859.21199999999999</v>
       </c>
       <c r="J54" s="12">
-        <v>34318</v>
+        <v>8846</v>
       </c>
       <c r="K54" s="13">
-        <v>41.16</v>
-      </c>
-      <c r="N54" s="33">
+        <v>3.85</v>
+      </c>
+      <c r="N54" s="32">
         <f>LOG((D54+E54)/(F54+E54)+1,V$3)</f>
-        <v>61.704350132605072</v>
+        <v>69.978885500431858</v>
       </c>
       <c r="O54" s="15">
         <f>LOG(I54*H54/J54^2,W$3)</f>
-        <v>47.002863464361319</v>
+        <v>47.360780788833722</v>
       </c>
       <c r="P54" s="10">
         <f>LOG(K54/J54+1,X$3)</f>
-        <v>21.37416070457364</v>
+        <v>8.0410894193625797</v>
       </c>
       <c r="R54" s="15">
         <f>(N54+O54)/2</f>
-        <v>54.353606798483199</v>
+        <v>58.66983314463279</v>
       </c>
       <c r="S54" s="10">
         <f>(N54+O54+P54)/3</f>
-        <v>43.360458100513348</v>
+        <v>41.793585236209388</v>
       </c>
       <c r="T54" s="11">
         <f>(N54+O54+Q54)/3</f>
-        <v>36.235737865655466</v>
+        <v>39.113222096421858</v>
       </c>
       <c r="U54" s="26">
         <f>(N54*2+O54*2+P54+Q54)/6</f>
-        <v>39.798097983084403</v>
+        <v>40.453403666315623</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>301</v>
+      <c r="A55" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>56</v>
       </c>
       <c r="C55" s="19">
         <v>2022</v>
       </c>
-      <c r="D55" s="23">
-        <v>2800000</v>
-      </c>
+      <c r="D55" s="23"/>
       <c r="E55" s="8">
-        <v>338800000</v>
-      </c>
-      <c r="F55" s="8">
-        <v>33940644.689999998</v>
-      </c>
+        <v>155350916.22</v>
+      </c>
+      <c r="F55" s="8"/>
       <c r="G55" s="8">
-        <v>818252566.36000001</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="H55" s="5">
         <f>G55</f>
-        <v>818252566.36000001</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="I55" s="10">
-        <v>2115.35</v>
+        <v>1689</v>
       </c>
       <c r="J55" s="12">
-        <v>50000</v>
+        <v>16170</v>
       </c>
       <c r="K55" s="13">
-        <v>84.27</v>
-      </c>
-      <c r="N55" s="33">
+        <v>14.69</v>
+      </c>
+      <c r="N55" s="32">
         <f>LOG((D55+E55)/(F55+E55)+1,V$3)</f>
-        <v>60.781129250808092</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O55" s="15">
         <f>LOG(I55*H55/J55^2,W$3)</f>
-        <v>42.647090743594433</v>
+        <v>48.440570083037329</v>
       </c>
       <c r="P55" s="10">
         <f>LOG(K55/J55+1,X$3)</f>
-        <v>30.028473164730077</v>
+        <v>16.780703587952566</v>
       </c>
       <c r="R55" s="15">
         <f>(N55+O55)/2</f>
-        <v>51.714109997201263</v>
+        <v>56.220375829008383</v>
       </c>
       <c r="S55" s="10">
         <f>(N55+O55+P55)/3</f>
-        <v>44.48556438637754</v>
+        <v>43.07381841532311</v>
       </c>
       <c r="T55" s="11">
         <f>(N55+O55+Q55)/3</f>
-        <v>34.476073331467511</v>
+        <v>37.480250552672253</v>
       </c>
       <c r="U55" s="26">
         <f>(N55*2+O55*2+P55+Q55)/6</f>
-        <v>39.480818858922525</v>
+        <v>40.277034483997681</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="40" t="s">
-        <v>290</v>
+      <c r="A56" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C56" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D56" s="58">
-        <v>1527000</v>
-      </c>
-      <c r="E56" s="59">
-        <v>9986630000</v>
-      </c>
-      <c r="F56" s="59">
-        <v>888843000</v>
-      </c>
-      <c r="G56" s="59">
-        <v>13836220000</v>
-      </c>
-      <c r="H56" s="5" cm="1">
-        <f t="array" aca="1" ref="H56" ca="1">G56/INDIRECT("EUR!$B$37")</f>
-        <v>546832541.83651006</v>
+        <v>2021</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="8">
+        <v>296960000</v>
+      </c>
+      <c r="F56" s="8">
+        <v>20480000</v>
+      </c>
+      <c r="G56" s="8">
+        <v>512000000</v>
+      </c>
+      <c r="H56" s="5">
+        <f>G56</f>
+        <v>512000000</v>
       </c>
       <c r="I56" s="10">
-        <v>5097</v>
+        <v>3106</v>
       </c>
       <c r="J56" s="12">
-        <v>51727</v>
+        <v>34318</v>
       </c>
       <c r="K56" s="13">
-        <v>43.38</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M56" s="11">
-        <v>23</v>
-      </c>
-      <c r="N56" s="32">
+        <v>41.16</v>
+      </c>
+      <c r="N56" s="33">
         <f>LOG((D56+E56)/(F56+E56)+1,V$3)</f>
-        <v>60.876466449521097</v>
+        <v>60.97260723963042</v>
       </c>
       <c r="O56" s="15">
-        <f ca="1">LOG(I56*H56/J56^2,W$3)</f>
-        <v>45.310795191968836</v>
+        <f>LOG(I56*H56/J56^2,W$3)</f>
+        <v>47.107009973809461</v>
       </c>
       <c r="P56" s="10">
         <f>LOG(K56/J56+1,X$3)</f>
-        <v>14.948106968459859</v>
-      </c>
-      <c r="Q56" s="26">
-        <f>LOG(L56*M56/J56+1,Y$3)</f>
-        <v>9.4965928409112852</v>
+        <v>22.150762170060499</v>
       </c>
       <c r="R56" s="15">
-        <f ca="1">(N56+O56)/2</f>
-        <v>53.093630820744963</v>
+        <f>(N56+O56)/2</f>
+        <v>54.039808606719944</v>
       </c>
       <c r="S56" s="10">
-        <f ca="1">(N56+O56+P56)/3</f>
-        <v>40.378456203316595</v>
+        <f>(N56+O56+P56)/3</f>
+        <v>43.41012646116679</v>
       </c>
       <c r="T56" s="11">
-        <f ca="1">(N56+O56+Q56)/3</f>
-        <v>38.56128482746707</v>
+        <f>(N56+O56+Q56)/3</f>
+        <v>36.02653907114663</v>
       </c>
       <c r="U56" s="26">
-        <f ca="1">(N56*2+O56*2+P56+Q56)/6</f>
-        <v>39.469870515391833</v>
+        <f>(N56*2+O56*2+P56+Q56)/6</f>
+        <v>39.718332766156713</v>
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>295</v>
+      <c r="A57" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>301</v>
       </c>
       <c r="C57" s="19">
         <v>2022</v>
       </c>
       <c r="D57" s="23">
-        <v>339239</v>
+        <v>2800000</v>
       </c>
       <c r="E57" s="8">
-        <v>351034175</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>338800000</v>
+      </c>
+      <c r="F57" s="8">
+        <v>33940644.689999998</v>
+      </c>
       <c r="G57" s="8">
-        <v>464664582</v>
+        <v>818252566.36000001</v>
       </c>
       <c r="H57" s="5">
         <f>G57</f>
-        <v>464664582</v>
+        <v>818252566.36000001</v>
       </c>
       <c r="I57" s="10">
-        <v>4121.8999999999996</v>
+        <v>2115.35</v>
       </c>
       <c r="J57" s="12">
-        <v>37509</v>
+        <v>50000</v>
       </c>
       <c r="K57" s="13">
-        <v>13.61</v>
-      </c>
-      <c r="N57" s="32">
+        <v>84.27</v>
+      </c>
+      <c r="N57" s="33">
         <f>LOG((D57+E57)/(F57+E57)+1,V$3)</f>
-        <v>64.813398570672817</v>
+        <v>60.060334699683715</v>
       </c>
       <c r="O57" s="15">
         <f>LOG(I57*H57/J57^2,W$3)</f>
-        <v>47.055994635782724</v>
+        <v>42.741585957538817</v>
       </c>
       <c r="P57" s="10">
         <f>LOG(K57/J57+1,X$3)</f>
-        <v>6.4690401157568269</v>
+        <v>31.119517467633258</v>
       </c>
       <c r="R57" s="15">
         <f>(N57+O57)/2</f>
-        <v>55.934696603227771</v>
+        <v>51.400960328611262</v>
       </c>
       <c r="S57" s="10">
         <f>(N57+O57+P57)/3</f>
-        <v>39.446144440737456</v>
+        <v>44.64047937495193</v>
       </c>
       <c r="T57" s="11">
         <f>(N57+O57+Q57)/3</f>
-        <v>37.28979773548518</v>
+        <v>34.267306885740844</v>
       </c>
       <c r="U57" s="26">
         <f>(N57*2+O57*2+P57+Q57)/6</f>
-        <v>38.367971088111318</v>
+        <v>39.453893130346387</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -6277,334 +6306,348 @@
         <v>290</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C58" s="19">
         <v>2022</v>
       </c>
-      <c r="D58" s="58">
-        <v>21450000</v>
-      </c>
-      <c r="E58" s="59">
-        <v>4831049000</v>
-      </c>
-      <c r="F58" s="59">
-        <v>304293000</v>
-      </c>
-      <c r="G58" s="59">
-        <v>8743272000</v>
+      <c r="D58" s="56">
+        <v>1527000</v>
+      </c>
+      <c r="E58" s="57">
+        <v>9986630000</v>
+      </c>
+      <c r="F58" s="57">
+        <v>888843000</v>
+      </c>
+      <c r="G58" s="57">
+        <v>13836220000</v>
       </c>
       <c r="H58" s="5" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">G58/INDIRECT("EUR!$B$37")</f>
-        <v>345549987.76602185</v>
+        <v>546832541.83651006</v>
       </c>
       <c r="I58" s="10">
-        <v>2666.7</v>
+        <v>5097</v>
       </c>
       <c r="J58" s="12">
-        <v>32335</v>
+        <v>51727</v>
       </c>
       <c r="K58" s="13">
-        <v>15.09</v>
+        <v>43.38</v>
       </c>
       <c r="L58" s="14">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M58" s="11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N58" s="32">
         <f>LOG((D58+E58)/(F58+E58)+1,V$3)</f>
-        <v>62.158907380751678</v>
+        <v>60.154541308455421</v>
       </c>
       <c r="O58" s="15">
         <f ca="1">LOG(I58*H58/J58^2,W$3)</f>
-        <v>44.2207916305466</v>
+        <v>45.411192504212195</v>
       </c>
       <c r="P58" s="10">
         <f>LOG(K58/J58+1,X$3)</f>
-        <v>8.3197646422837366</v>
+        <v>15.491226389073002</v>
       </c>
       <c r="Q58" s="26">
         <f>LOG(L58*M58/J58+1,Y$3)</f>
-        <v>9.1235271103622679</v>
+        <v>9.5806662376272502</v>
       </c>
       <c r="R58" s="15">
         <f ca="1">(N58+O58)/2</f>
-        <v>53.189849505649136</v>
+        <v>52.782866906333808</v>
       </c>
       <c r="S58" s="10">
         <f ca="1">(N58+O58+P58)/3</f>
-        <v>38.233154551193998</v>
+        <v>40.352320067246872</v>
       </c>
       <c r="T58" s="11">
         <f ca="1">(N58+O58+Q58)/3</f>
-        <v>38.501075373886842</v>
+        <v>38.382133350098293</v>
       </c>
       <c r="U58" s="26">
         <f ca="1">(N58*2+O58*2+P58+Q58)/6</f>
-        <v>38.36711496254042</v>
+        <v>39.367226708672582</v>
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="63" t="s">
-        <v>39</v>
+      <c r="A59" s="40" t="s">
+        <v>290</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C59" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f>G59</f>
-        <v>*</v>
+        <v>2022</v>
+      </c>
+      <c r="D59" s="56">
+        <v>21450000</v>
+      </c>
+      <c r="E59" s="57">
+        <v>4831049000</v>
+      </c>
+      <c r="F59" s="57">
+        <v>304293000</v>
+      </c>
+      <c r="G59" s="57">
+        <v>8743272000</v>
+      </c>
+      <c r="H59" s="5" cm="1">
+        <f t="array" aca="1" ref="H59" ca="1">G59/INDIRECT("EUR!$B$37")</f>
+        <v>345549987.76602185</v>
       </c>
       <c r="I59" s="10">
-        <v>2300.8000000000002</v>
+        <v>2666.7</v>
       </c>
       <c r="J59" s="12">
-        <v>31632</v>
+        <v>32335</v>
       </c>
       <c r="K59" s="13">
-        <v>38.19</v>
+        <v>15.09</v>
       </c>
       <c r="L59" s="14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M59" s="11">
-        <v>10</v>
-      </c>
-      <c r="N59" s="65">
-        <v>50</v>
-      </c>
-      <c r="O59" s="66">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="N59" s="32">
+        <f>LOG((D59+E59)/(F59+E59)+1,V$3)</f>
+        <v>61.421773959636525</v>
+      </c>
+      <c r="O59" s="15">
+        <f ca="1">LOG(I59*H59/J59^2,W$3)</f>
+        <v>44.318773769376229</v>
       </c>
       <c r="P59" s="10">
         <f>LOG(K59/J59+1,X$3)</f>
-        <v>21.51577310407847</v>
+        <v>8.6220521333813753</v>
       </c>
       <c r="Q59" s="26">
         <f>LOG(L59*M59/J59+1,Y$3)</f>
-        <v>5.064819345988842</v>
+        <v>9.204297753797027</v>
       </c>
       <c r="R59" s="15">
-        <f>(N59+O59)/2</f>
-        <v>50</v>
+        <f ca="1">(N59+O59)/2</f>
+        <v>52.870273864506373</v>
       </c>
       <c r="S59" s="10">
-        <f>(N59+O59+P59)/3</f>
-        <v>40.50525770135949</v>
+        <f ca="1">(N59+O59+P59)/3</f>
+        <v>38.12086662079804</v>
       </c>
       <c r="T59" s="11">
-        <f>(N59+O59+Q59)/3</f>
-        <v>35.021606448662943</v>
+        <f ca="1">(N59+O59+Q59)/3</f>
+        <v>38.31494849426992</v>
       </c>
       <c r="U59" s="26">
-        <f>(N59*2+O59*2+P59+Q59)/6</f>
-        <v>37.763432075011217</v>
+        <f ca="1">(N59*2+O59*2+P59+Q59)/6</f>
+        <v>38.217907557533984</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="62" t="s">
-        <v>43</v>
+      <c r="A60" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>295</v>
       </c>
       <c r="C60" s="19">
         <v>2022</v>
       </c>
-      <c r="D60" s="23"/>
+      <c r="D60" s="23">
+        <v>339239</v>
+      </c>
       <c r="E60" s="8">
-        <v>117080000</v>
+        <v>351034175</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8">
-        <v>192860000</v>
+        <v>464664582</v>
       </c>
       <c r="H60" s="5">
         <f>G60</f>
-        <v>192860000</v>
+        <v>464664582</v>
       </c>
       <c r="I60" s="10">
-        <v>2214</v>
+        <v>4121.8999999999996</v>
       </c>
       <c r="J60" s="12">
-        <v>23245</v>
+        <v>37509</v>
       </c>
       <c r="K60" s="13">
-        <v>11.33</v>
-      </c>
-      <c r="N60" s="33">
+        <v>13.61</v>
+      </c>
+      <c r="N60" s="32">
         <f>LOG((D60+E60)/(F60+E60)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>64.044785925507583</v>
       </c>
       <c r="O60" s="15">
         <f>LOG(I60*H60/J60^2,W$3)</f>
-        <v>43.509409079407497</v>
+        <v>47.160258870527556</v>
       </c>
       <c r="P60" s="10">
         <f>LOG(K60/J60+1,X$3)</f>
-        <v>8.6894146897188325</v>
+        <v>6.7040840130881971</v>
       </c>
       <c r="R60" s="15">
         <f>(N60+O60)/2</f>
-        <v>54.138833997481285</v>
+        <v>55.60252239801757</v>
       </c>
       <c r="S60" s="10">
         <f>(N60+O60+P60)/3</f>
-        <v>38.989027561560469</v>
+        <v>39.303042936374446</v>
       </c>
       <c r="T60" s="11">
         <f>(N60+O60+Q60)/3</f>
-        <v>36.092555998320854</v>
+        <v>37.068348265345044</v>
       </c>
       <c r="U60" s="26">
         <f>(N60*2+O60*2+P60+Q60)/6</f>
-        <v>37.540791779940662</v>
+        <v>38.185695600859745</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="40" t="s">
-        <v>20</v>
+      <c r="A61" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C61" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="4">
-        <v>634700000</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4">
-        <v>787500000</v>
-      </c>
-      <c r="H61" s="5" cm="1">
-        <f t="array" aca="1" ref="H61" ca="1">G61/INDIRECT("EUR!$B$39")</f>
-        <v>105560710.34382363</v>
+        <v>2021</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>G61</f>
+        <v>*</v>
       </c>
       <c r="I61" s="10">
-        <v>538</v>
+        <v>2300.8000000000002</v>
       </c>
       <c r="J61" s="12">
-        <v>8045</v>
+        <v>31632</v>
       </c>
       <c r="K61" s="13">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="N61" s="32">
-        <f>LOG((D61+E61)/(F61+E61)+1,V$3)</f>
-        <v>64.768258915555066</v>
-      </c>
-      <c r="O61" s="15">
-        <f ca="1">LOG(I61*H61/J61^2,W$3)</f>
-        <v>44.192160893921631</v>
+        <v>38.19</v>
+      </c>
+      <c r="L61" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="M61" s="11">
+        <v>10</v>
+      </c>
+      <c r="N61" s="63">
+        <v>50</v>
+      </c>
+      <c r="O61" s="64">
+        <v>50</v>
       </c>
       <c r="P61" s="10">
         <f>LOG(K61/J61+1,X$3)</f>
-        <v>5.5625754806426819</v>
+        <v>22.297519866192719</v>
+      </c>
+      <c r="Q61" s="26">
+        <f>LOG(L61*M61/J61+1,Y$3)</f>
+        <v>5.1096582238162229</v>
       </c>
       <c r="R61" s="15">
-        <f ca="1">(N61+O61)/2</f>
-        <v>54.480209904738345</v>
+        <f>(N61+O61)/2</f>
+        <v>50</v>
       </c>
       <c r="S61" s="10">
-        <f ca="1">(N61+O61+P61)/3</f>
-        <v>38.174331763373125</v>
+        <f>(N61+O61+P61)/3</f>
+        <v>40.765839955397574</v>
       </c>
       <c r="T61" s="11">
-        <f ca="1">(N61+O61+Q61)/3</f>
-        <v>36.320139936492232</v>
+        <f>(N61+O61+Q61)/3</f>
+        <v>35.036552741272075</v>
       </c>
       <c r="U61" s="26">
-        <f ca="1">(N61*2+O61*2+P61+Q61)/6</f>
-        <v>37.247235849932679</v>
+        <f>(N61*2+O61*2+P61+Q61)/6</f>
+        <v>37.901196348334821</v>
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="63" t="s">
-        <v>39</v>
+      <c r="A62" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C62" s="19">
-        <v>2024</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" s="5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="8">
+        <v>53158584</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8">
+        <v>82284663</v>
+      </c>
+      <c r="H62" s="5">
         <f>G62</f>
-        <v>*</v>
+        <v>82284663</v>
       </c>
       <c r="I62" s="10">
-        <v>900</v>
+        <v>908.75</v>
       </c>
       <c r="J62" s="12">
-        <v>10000</v>
+        <v>7298</v>
       </c>
       <c r="K62" s="13">
-        <v>12.92</v>
-      </c>
-      <c r="N62" s="65">
-        <v>50</v>
-      </c>
-      <c r="O62" s="66">
-        <v>50</v>
+        <v>1.03</v>
+      </c>
+      <c r="N62" s="32">
+        <f>LOG((D62+E62)/(F62+E62)+1,V$3)</f>
+        <v>64.000181574979436</v>
+      </c>
+      <c r="O62" s="15">
+        <f>LOG(I62*H62/J62^2,W$3)</f>
+        <v>47.361746269151119</v>
       </c>
       <c r="P62" s="10">
         <f>LOG(K62/J62+1,X$3)</f>
-        <v>23.023857808873792</v>
+        <v>2.6079442810403517</v>
       </c>
       <c r="R62" s="15">
         <f>(N62+O62)/2</f>
-        <v>50</v>
+        <v>55.680963922065274</v>
       </c>
       <c r="S62" s="10">
         <f>(N62+O62+P62)/3</f>
-        <v>41.007952602957936</v>
+        <v>37.989957375056967</v>
       </c>
       <c r="T62" s="11">
         <f>(N62+O62+Q62)/3</f>
-        <v>33.333333333333336</v>
+        <v>37.120642614710185</v>
       </c>
       <c r="U62" s="26">
         <f>(N62*2+O62*2+P62+Q62)/6</f>
-        <v>37.170642968145636</v>
+        <v>37.555299994883576</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="65" t="s">
         <v>85</v>
       </c>
       <c r="C63" s="19">
@@ -6643,1218 +6686,1194 @@
       </c>
       <c r="N63" s="32">
         <f>LOG((D63+E63)/(F63+E63)+1,V$3)</f>
-        <v>17.775171235826967</v>
+        <v>17.564378071402231</v>
       </c>
       <c r="O63" s="15">
         <f ca="1">LOG(I63*H63/J63^2,W$3)</f>
-        <v>53.535389788823167</v>
+        <v>53.654010731623373</v>
       </c>
       <c r="P63" s="10">
         <f>LOG(K63/J63+1,X$3)</f>
-        <v>47.792205138366761</v>
+        <v>49.528670820566028</v>
       </c>
       <c r="Q63" s="26">
         <f>LOG(L63*M63/J63+1,Y$3)</f>
-        <v>32.397158736652763</v>
+        <v>32.683970988643054</v>
       </c>
       <c r="R63" s="15">
         <f ca="1">(N63+O63)/2</f>
-        <v>35.655280512325064</v>
+        <v>35.609194401512802</v>
       </c>
       <c r="S63" s="10">
         <f ca="1">(N63+O63+P63)/3</f>
-        <v>39.700922054338967</v>
+        <v>40.249019874530546</v>
       </c>
       <c r="T63" s="11">
         <f ca="1">(N63+O63+Q63)/3</f>
-        <v>34.569239920434292</v>
+        <v>34.634119930556217</v>
       </c>
       <c r="U63" s="26">
         <f ca="1">(N63*2+O63*2+P63+Q63)/6</f>
-        <v>37.13508098738663</v>
+        <v>37.441569902543385</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>308</v>
+      <c r="A64" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="C64" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H64" s="5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="8">
+        <v>117080000</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8">
+        <v>192860000</v>
+      </c>
+      <c r="H64" s="5">
         <f>G64</f>
-        <v>*</v>
+        <v>192860000</v>
       </c>
       <c r="I64" s="10">
-        <v>830</v>
+        <v>2214</v>
       </c>
       <c r="J64" s="12">
-        <v>6499</v>
+        <v>23245</v>
       </c>
       <c r="K64" s="13">
-        <v>7.92</v>
-      </c>
-      <c r="N64" s="65">
-        <v>50</v>
-      </c>
-      <c r="O64" s="66">
-        <v>50</v>
+        <v>11.33</v>
+      </c>
+      <c r="N64" s="33">
+        <f>LOG((D64+E64)/(F64+E64)+1,V$3)</f>
+        <v>64.000181574979436</v>
+      </c>
+      <c r="O64" s="15">
+        <f>LOG(I64*H64/J64^2,W$3)</f>
+        <v>43.605814973640037</v>
       </c>
       <c r="P64" s="10">
         <f>LOG(K64/J64+1,X$3)</f>
-        <v>21.717515330705965</v>
+        <v>9.0051329195726346</v>
       </c>
       <c r="R64" s="15">
         <f>(N64+O64)/2</f>
-        <v>50</v>
+        <v>53.802998274309736</v>
       </c>
       <c r="S64" s="10">
         <f>(N64+O64+P64)/3</f>
-        <v>40.572505110235319</v>
+        <v>38.870376489397366</v>
       </c>
       <c r="T64" s="11">
         <f>(N64+O64+Q64)/3</f>
-        <v>33.333333333333336</v>
+        <v>35.868665516206491</v>
       </c>
       <c r="U64" s="26">
         <f>(N64*2+O64*2+P64+Q64)/6</f>
-        <v>36.952919221784327</v>
+        <v>37.369521002801932</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>86</v>
+      <c r="A65" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="C65" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D65" s="22">
-        <v>28900000</v>
-      </c>
-      <c r="E65" s="7">
-        <v>148300000</v>
-      </c>
-      <c r="F65" s="7">
-        <v>607800000</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1230000000</v>
-      </c>
-      <c r="H65" s="5" cm="1">
-        <f t="array" aca="1" ref="H65" ca="1">G65/INDIRECT("EUR!$B$48")</f>
-        <v>1434654965.4808018</v>
+        <v>2024</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f>G65</f>
+        <v>*</v>
       </c>
       <c r="I65" s="10">
-        <v>4525</v>
+        <v>900</v>
       </c>
       <c r="J65" s="12">
-        <v>41490</v>
+        <v>10000</v>
       </c>
       <c r="K65" s="13">
-        <v>112.24</v>
-      </c>
-      <c r="L65" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M65" s="11">
-        <v>36</v>
-      </c>
-      <c r="N65" s="32">
-        <f>LOG((D65+E65)/(F65+E65)+1,V$3)</f>
-        <v>19.674255108889813</v>
-      </c>
-      <c r="O65" s="15">
-        <f ca="1">LOG(I65*H65/J65^2,W$3)</f>
-        <v>53.7002578847206</v>
+        <v>12.92</v>
+      </c>
+      <c r="N65" s="63">
+        <v>50</v>
+      </c>
+      <c r="O65" s="64">
+        <v>50</v>
       </c>
       <c r="P65" s="10">
         <f>LOG(K65/J65+1,X$3)</f>
-        <v>48.17408062375435</v>
-      </c>
-      <c r="Q65" s="26">
-        <f>LOG(L65*M65/J65+1,Y$3)</f>
-        <v>26.622304059157258</v>
+        <v>23.860398806327151</v>
       </c>
       <c r="R65" s="15">
-        <f ca="1">(N65+O65)/2</f>
-        <v>36.687256496805205</v>
+        <f>(N65+O65)/2</f>
+        <v>50</v>
       </c>
       <c r="S65" s="10">
-        <f ca="1">(N65+O65+P65)/3</f>
-        <v>40.516197872454917</v>
+        <f>(N65+O65+P65)/3</f>
+        <v>41.286799602109049</v>
       </c>
       <c r="T65" s="11">
-        <f ca="1">(N65+O65+Q65)/3</f>
-        <v>33.332272350922558</v>
+        <f>(N65+O65+Q65)/3</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="U65" s="26">
-        <f ca="1">(N65*2+O65*2+P65+Q65)/6</f>
-        <v>36.924235111688738</v>
+        <f>(N65*2+O65*2+P65+Q65)/6</f>
+        <v>37.310066467721192</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>304</v>
+      <c r="A66" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>86</v>
       </c>
       <c r="C66" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="23">
-        <v>2604620</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f>G66</f>
-        <v>*</v>
+        <v>2023</v>
+      </c>
+      <c r="D66" s="22">
+        <v>28900000</v>
+      </c>
+      <c r="E66" s="7">
+        <v>148300000</v>
+      </c>
+      <c r="F66" s="7">
+        <v>607800000</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1230000000</v>
+      </c>
+      <c r="H66" s="5" cm="1">
+        <f t="array" aca="1" ref="H66" ca="1">G66/INDIRECT("EUR!$B$48")</f>
+        <v>1434654965.4808018</v>
       </c>
       <c r="I66" s="10">
-        <v>5135</v>
+        <v>4525</v>
       </c>
       <c r="J66" s="12">
-        <v>23202</v>
+        <v>41490</v>
       </c>
       <c r="K66" s="13">
-        <v>27.84</v>
-      </c>
-      <c r="N66" s="65">
-        <v>50</v>
-      </c>
-      <c r="O66" s="66">
-        <v>50</v>
+        <v>112.24</v>
+      </c>
+      <c r="L66" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M66" s="11">
+        <v>36</v>
+      </c>
+      <c r="N66" s="32">
+        <f>LOG((D66+E66)/(F66+E66)+1,V$3)</f>
+        <v>19.440940985662493</v>
+      </c>
+      <c r="O66" s="15">
+        <f ca="1">LOG(I66*H66/J66^2,W$3)</f>
+        <v>53.819244133705183</v>
       </c>
       <c r="P66" s="10">
         <f>LOG(K66/J66+1,X$3)</f>
-        <v>21.383528439274105</v>
+        <v>49.924421239602914</v>
+      </c>
+      <c r="Q66" s="26">
+        <f>LOG(L66*M66/J66+1,Y$3)</f>
+        <v>26.857991486022215</v>
       </c>
       <c r="R66" s="15">
-        <f>(N66+O66)/2</f>
+        <f ca="1">(N66+O66)/2</f>
+        <v>36.630092559683838</v>
+      </c>
+      <c r="S66" s="10">
+        <f ca="1">(N66+O66+P66)/3</f>
+        <v>41.061535452990199</v>
+      </c>
+      <c r="T66" s="11">
+        <f ca="1">(N66+O66+Q66)/3</f>
+        <v>33.372725535129966</v>
+      </c>
+      <c r="U66" s="26">
+        <f ca="1">(N66*2+O66*2+P66+Q66)/6</f>
+        <v>37.217130494060079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="19">
+        <v>2021</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>G67</f>
+        <v>*</v>
+      </c>
+      <c r="I67" s="10">
+        <v>830</v>
+      </c>
+      <c r="J67" s="12">
+        <v>6499</v>
+      </c>
+      <c r="K67" s="13">
+        <v>7.92</v>
+      </c>
+      <c r="N67" s="63">
         <v>50</v>
       </c>
-      <c r="S66" s="10">
-        <f>(N66+O66+P66)/3</f>
-        <v>40.461176146424698</v>
-      </c>
-      <c r="T66" s="11">
-        <f>(N66+O66+Q66)/3</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="U66" s="26">
-        <f>(N66*2+O66*2+P66+Q66)/6</f>
-        <v>36.897254739879017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D67" s="22">
-        <v>2600000</v>
-      </c>
-      <c r="E67" s="7">
-        <v>94600000</v>
-      </c>
-      <c r="F67" s="7">
-        <v>342500000</v>
-      </c>
-      <c r="G67" s="7">
-        <v>675100000</v>
-      </c>
-      <c r="H67" s="5" cm="1">
-        <f t="array" aca="1" ref="H67" ca="1">G67/INDIRECT("EUR!$B$48")</f>
-        <v>787427290.4033246</v>
-      </c>
-      <c r="I67" s="10">
-        <v>2745</v>
-      </c>
-      <c r="J67" s="12">
-        <v>28680</v>
-      </c>
-      <c r="K67" s="13">
-        <v>58.62</v>
-      </c>
-      <c r="L67" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M67" s="11">
-        <v>42</v>
-      </c>
-      <c r="N67" s="32">
-        <f>LOG((D67+E67)/(F67+E67)+1,V$3)</f>
-        <v>18.762499241532243</v>
-      </c>
-      <c r="O67" s="15">
-        <f ca="1">LOG(I67*H67/J67^2,W$3)</f>
-        <v>51.344659987111569</v>
+      <c r="O67" s="64">
+        <v>50</v>
       </c>
       <c r="P67" s="10">
         <f>LOG(K67/J67+1,X$3)</f>
-        <v>36.409875536639191</v>
-      </c>
-      <c r="Q67" s="26">
-        <f>LOG(L67*M67/J67+1,Y$3)</f>
-        <v>42.952247719542207</v>
+        <v>22.506592126079298</v>
       </c>
       <c r="R67" s="15">
-        <f ca="1">(N67+O67)/2</f>
-        <v>35.053579614321905</v>
+        <f>(N67+O67)/2</f>
+        <v>50</v>
       </c>
       <c r="S67" s="10">
-        <f ca="1">(N67+O67+P67)/3</f>
-        <v>35.505678255094331</v>
+        <f>(N67+O67+P67)/3</f>
+        <v>40.835530708693099</v>
       </c>
       <c r="T67" s="11">
-        <f ca="1">(N67+O67+Q67)/3</f>
-        <v>37.686468982728677</v>
+        <f>(N67+O67+Q67)/3</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="U67" s="26">
-        <f ca="1">(N67*2+O67*2+P67+Q67)/6</f>
-        <v>36.596073618911504</v>
+        <f>(N67*2+O67*2+P67+Q67)/6</f>
+        <v>37.084432021013214</v>
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>83</v>
+      <c r="A68" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="C68" s="19">
         <v>2022</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="8">
-        <v>318235849.14999998</v>
-      </c>
-      <c r="F68" s="8">
-        <v>86177594.299999997</v>
-      </c>
-      <c r="G68" s="8">
-        <v>582806127.85000002</v>
-      </c>
-      <c r="H68" s="5">
-        <f>G68</f>
-        <v>582806127.85000002</v>
+      <c r="D68" s="20"/>
+      <c r="E68" s="4">
+        <v>634700000</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
+        <v>787500000</v>
+      </c>
+      <c r="H68" s="5" cm="1">
+        <f t="array" aca="1" ref="H68" ca="1">G68/INDIRECT("EUR!$B$39")</f>
+        <v>105560710.34382363</v>
       </c>
       <c r="I68" s="10">
-        <v>1627</v>
+        <v>538</v>
       </c>
       <c r="J68" s="12">
-        <v>47959</v>
+        <v>8045</v>
       </c>
       <c r="K68" s="13">
-        <v>18.43</v>
-      </c>
-      <c r="L68" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="M68" s="11">
-        <v>38</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="N68" s="32">
         <f>LOG((D68+E68)/(F68+E68)+1,V$3)</f>
-        <v>54.241131160202478</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O68" s="15">
-        <f>LOG(I68*H68/J68^2,W$3)</f>
-        <v>39.266377028626849</v>
+        <f ca="1">LOG(I68*H68/J68^2,W$3)</f>
+        <v>44.290079594248525</v>
       </c>
       <c r="P68" s="10">
         <f>LOG(K68/J68+1,X$3)</f>
-        <v>6.8512176898069006</v>
-      </c>
-      <c r="Q68" s="26">
-        <f>LOG(L68*M68/J68+1,Y$3)</f>
-        <v>22.200534801557911</v>
+        <v>5.7646842010671513</v>
       </c>
       <c r="R68" s="15">
-        <f>(N68+O68)/2</f>
-        <v>46.75375409441466</v>
+        <f ca="1">(N68+O68)/2</f>
+        <v>54.14513058461398</v>
       </c>
       <c r="S68" s="10">
-        <f>(N68+O68+P68)/3</f>
-        <v>33.452908626212071</v>
+        <f ca="1">(N68+O68+P68)/3</f>
+        <v>38.018315123431705</v>
       </c>
       <c r="T68" s="11">
-        <f>(N68+O68+Q68)/3</f>
-        <v>38.569347663462409</v>
+        <f ca="1">(N68+O68+Q68)/3</f>
+        <v>36.096753723075985</v>
       </c>
       <c r="U68" s="26">
-        <f>(N68*2+O68*2+P68+Q68)/6</f>
-        <v>36.011128144837244</v>
+        <f ca="1">(N68*2+O68*2+P68+Q68)/6</f>
+        <v>37.057534423253848</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="40" t="s">
-        <v>14</v>
+      <c r="A69" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C69" s="19">
         <v>2022</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="8">
-        <v>243288828.80000001</v>
-      </c>
-      <c r="F69" s="8">
-        <v>47175453.299999997</v>
-      </c>
-      <c r="G69" s="8">
-        <v>360460467.07999998</v>
-      </c>
-      <c r="H69" s="5">
+      <c r="D69" s="23">
+        <v>2604620</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" s="5" t="str">
         <f>G69</f>
-        <v>360460467.07999998</v>
+        <v>*</v>
       </c>
       <c r="I69" s="10">
-        <v>1355</v>
+        <v>5135</v>
       </c>
       <c r="J69" s="12">
-        <v>26339</v>
+        <v>23202</v>
       </c>
       <c r="K69" s="13">
-        <v>10.59</v>
-      </c>
-      <c r="L69" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="M69" s="11">
-        <v>10</v>
-      </c>
-      <c r="N69" s="32">
-        <f>LOG((D69+E69)/(F69+E69)+1,V$3)</f>
-        <v>56.854342233927845</v>
-      </c>
-      <c r="O69" s="15">
-        <f>LOG(I69*H69/J69^2,W$3)</f>
-        <v>42.756230144844174</v>
+        <v>27.84</v>
+      </c>
+      <c r="N69" s="63">
+        <v>50</v>
+      </c>
+      <c r="O69" s="64">
+        <v>50</v>
       </c>
       <c r="P69" s="10">
         <f>LOG(K69/J69+1,X$3)</f>
-        <v>7.168121684229944</v>
-      </c>
-      <c r="Q69" s="26">
-        <f>LOG(L69*M69/J69+1,Y$3)</f>
-        <v>6.5891386428543761</v>
+        <v>22.16047026883875</v>
       </c>
       <c r="R69" s="15">
         <f>(N69+O69)/2</f>
-        <v>49.80528618938601</v>
+        <v>50</v>
       </c>
       <c r="S69" s="10">
         <f>(N69+O69+P69)/3</f>
-        <v>35.592898021000657</v>
+        <v>40.720156756279586</v>
       </c>
       <c r="T69" s="11">
         <f>(N69+O69+Q69)/3</f>
-        <v>35.399903673875464</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="U69" s="26">
         <f>(N69*2+O69*2+P69+Q69)/6</f>
-        <v>35.496400847438061</v>
+        <v>37.026745044806461</v>
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>280</v>
+      <c r="A70" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>4</v>
       </c>
       <c r="C70" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="8">
-        <v>212140470</v>
-      </c>
-      <c r="F70" s="8">
-        <v>32808958</v>
-      </c>
-      <c r="G70" s="8">
-        <v>330933638</v>
-      </c>
-      <c r="H70" s="5">
-        <f>G70</f>
-        <v>330933638</v>
+        <v>2023</v>
+      </c>
+      <c r="D70" s="22">
+        <v>2600000</v>
+      </c>
+      <c r="E70" s="7">
+        <v>94600000</v>
+      </c>
+      <c r="F70" s="7">
+        <v>342500000</v>
+      </c>
+      <c r="G70" s="7">
+        <v>675100000</v>
+      </c>
+      <c r="H70" s="5" cm="1">
+        <f t="array" aca="1" ref="H70" ca="1">G70/INDIRECT("EUR!$B$48")</f>
+        <v>787427290.4033246</v>
       </c>
       <c r="I70" s="10">
-        <v>1310</v>
+        <v>2745</v>
       </c>
       <c r="J70" s="12">
-        <v>29362</v>
+        <v>28680</v>
       </c>
       <c r="K70" s="13">
-        <v>22.73</v>
+        <v>58.62</v>
+      </c>
+      <c r="L70" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M70" s="11">
+        <v>42</v>
       </c>
       <c r="N70" s="32">
         <f>LOG((D70+E70)/(F70+E70)+1,V$3)</f>
-        <v>58.291045196014323</v>
+        <v>18.539997498220327</v>
       </c>
       <c r="O70" s="15">
-        <f>LOG(I70*H70/J70^2,W$3)</f>
-        <v>40.561699895812311</v>
+        <f ca="1">LOG(I70*H70/J70^2,W$3)</f>
+        <v>51.458426824328065</v>
       </c>
       <c r="P70" s="10">
         <f>LOG(K70/J70+1,X$3)</f>
-        <v>13.798813330436811</v>
+        <v>37.732779536977205</v>
+      </c>
+      <c r="Q70" s="26">
+        <f>LOG(L70*M70/J70+1,Y$3)</f>
+        <v>43.332504241313956</v>
       </c>
       <c r="R70" s="15">
-        <f>(N70+O70)/2</f>
-        <v>49.426372545913317</v>
+        <f ca="1">(N70+O70)/2</f>
+        <v>34.999212161274194</v>
       </c>
       <c r="S70" s="10">
-        <f>(N70+O70+P70)/3</f>
-        <v>37.550519474087814</v>
+        <f ca="1">(N70+O70+P70)/3</f>
+        <v>35.910401286508531</v>
       </c>
       <c r="T70" s="11">
-        <f>(N70+O70+Q70)/3</f>
-        <v>32.950915030608876</v>
+        <f ca="1">(N70+O70+Q70)/3</f>
+        <v>37.776976187954112</v>
       </c>
       <c r="U70" s="26">
-        <f>(N70*2+O70*2+P70+Q70)/6</f>
-        <v>35.250717252348345</v>
+        <f ca="1">(N70*2+O70*2+P70+Q70)/6</f>
+        <v>36.843688737231325</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>23</v>
+      <c r="A71" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="C71" s="19">
         <v>2022</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="8">
-        <v>196693950</v>
+        <v>318235849.14999998</v>
       </c>
       <c r="F71" s="8">
-        <v>33135497</v>
+        <v>86177594.299999997</v>
       </c>
       <c r="G71" s="8">
-        <v>291296473</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="H71" s="5">
         <f>G71</f>
-        <v>291296473</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="I71" s="10">
-        <v>1294.4680000000001</v>
+        <v>1627</v>
       </c>
       <c r="J71" s="12">
-        <v>19497</v>
+        <v>47959</v>
       </c>
       <c r="K71" s="13">
-        <v>1.74</v>
+        <v>18.43</v>
       </c>
       <c r="L71" s="14">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="M71" s="11">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N71" s="32">
         <f>LOG((D71+E71)/(F71+E71)+1,V$3)</f>
-        <v>57.777252530564581</v>
+        <v>53.597893493034974</v>
       </c>
       <c r="O71" s="15">
         <f>LOG(I71*H71/J71^2,W$3)</f>
-        <v>44.99182836292691</v>
+        <v>39.353381432290611</v>
       </c>
       <c r="P71" s="10">
         <f>LOG(K71/J71+1,X$3)</f>
-        <v>1.5913219828725333</v>
+        <v>7.1001474967740119</v>
       </c>
       <c r="Q71" s="26">
         <f>LOG(L71*M71/J71+1,Y$3)</f>
-        <v>3.0131976106708511</v>
+        <v>22.397076277110823</v>
       </c>
       <c r="R71" s="15">
         <f>(N71+O71)/2</f>
-        <v>51.384540446745746</v>
+        <v>46.475637462662789</v>
       </c>
       <c r="S71" s="10">
         <f>(N71+O71+P71)/3</f>
-        <v>34.786800958788007</v>
+        <v>33.350474140699866</v>
       </c>
       <c r="T71" s="11">
         <f>(N71+O71+Q71)/3</f>
-        <v>35.260759501387447</v>
+        <v>38.449450400812133</v>
       </c>
       <c r="U71" s="26">
         <f>(N71*2+O71*2+P71+Q71)/6</f>
-        <v>35.023780230087731</v>
+        <v>35.899962270755999</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="40" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C72" s="19">
         <v>2022</v>
       </c>
-      <c r="D72" s="23"/>
+      <c r="D72" s="23">
+        <v>7500</v>
+      </c>
       <c r="E72" s="8">
-        <v>128991623.3</v>
-      </c>
-      <c r="F72" s="8">
-        <v>20005825.18</v>
-      </c>
+        <v>59146671</v>
+      </c>
+      <c r="F72" s="8"/>
       <c r="G72" s="8">
-        <v>173093242.25999999</v>
+        <v>85680826</v>
       </c>
       <c r="H72" s="5">
         <f>G72</f>
-        <v>173093242.25999999</v>
+        <v>85680826</v>
       </c>
       <c r="I72" s="10">
-        <v>644</v>
+        <v>1377</v>
       </c>
       <c r="J72" s="12">
-        <v>17201</v>
+        <v>13039</v>
       </c>
       <c r="K72" s="13">
-        <v>13.5</v>
+        <v>1.27</v>
       </c>
       <c r="N72" s="32">
         <f>LOG((D72+E72)/(F72+E72)+1,V$3)</f>
-        <v>58.274628507015215</v>
+        <v>64.006035443175435</v>
       </c>
       <c r="O72" s="15">
         <f>LOG(I72*H72/J72^2,W$3)</f>
-        <v>38.679104108051824</v>
+        <v>42.756625216662918</v>
       </c>
       <c r="P72" s="10">
         <f>LOG(K72/J72+1,X$3)</f>
-        <v>13.989612563745583</v>
+        <v>1.7998398956013075</v>
       </c>
       <c r="R72" s="15">
         <f>(N72+O72)/2</f>
-        <v>48.47686630753352</v>
+        <v>53.38133032991918</v>
       </c>
       <c r="S72" s="10">
         <f>(N72+O72+P72)/3</f>
-        <v>36.981115059604207</v>
+        <v>36.187500185146554</v>
       </c>
       <c r="T72" s="11">
         <f>(N72+O72+Q72)/3</f>
-        <v>32.317910871689016</v>
+        <v>35.587553553279456</v>
       </c>
       <c r="U72" s="26">
         <f>(N72*2+O72*2+P72+Q72)/6</f>
-        <v>34.649512965646615</v>
+        <v>35.887526869213005</v>
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>88</v>
+      <c r="A73" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="C73" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D73" s="22">
-        <v>4000000</v>
-      </c>
-      <c r="E73" s="7">
-        <v>74400000</v>
-      </c>
-      <c r="F73" s="7">
-        <v>453800000</v>
-      </c>
-      <c r="G73" s="7">
-        <v>839400000</v>
-      </c>
-      <c r="H73" s="5" cm="1">
-        <f t="array" aca="1" ref="H73" ca="1">G73/INDIRECT("EUR!$B$48")</f>
-        <v>979064534.97933745</v>
+        <v>2022</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="8">
+        <v>243288828.80000001</v>
+      </c>
+      <c r="F73" s="8">
+        <v>47175453.299999997</v>
+      </c>
+      <c r="G73" s="8">
+        <v>360460467.07999998</v>
+      </c>
+      <c r="H73" s="5">
+        <f>G73</f>
+        <v>360460467.07999998</v>
       </c>
       <c r="I73" s="10">
-        <v>2745</v>
+        <v>1355</v>
       </c>
       <c r="J73" s="12">
-        <v>28825</v>
+        <v>26339</v>
       </c>
       <c r="K73" s="13">
-        <v>58.98</v>
+        <v>10.59</v>
       </c>
       <c r="L73" s="14">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="M73" s="11">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N73" s="32">
         <f>LOG((D73+E73)/(F73+E73)+1,V$3)</f>
-        <v>12.931708067521534</v>
+        <v>56.18011487759042</v>
       </c>
       <c r="O73" s="15">
-        <f ca="1">LOG(I73*H73/J73^2,W$3)</f>
-        <v>52.699306523666053</v>
+        <f>LOG(I73*H73/J73^2,W$3)</f>
+        <v>42.850967184218881</v>
       </c>
       <c r="P73" s="10">
         <f>LOG(K73/J73+1,X$3)</f>
-        <v>36.449158057616543</v>
+        <v>7.4285657728518624</v>
       </c>
       <c r="Q73" s="26">
         <f>LOG(L73*M73/J73+1,Y$3)</f>
-        <v>38.857036038450381</v>
+        <v>6.647472329095053</v>
       </c>
       <c r="R73" s="15">
-        <f ca="1">(N73+O73)/2</f>
-        <v>32.81550729559379</v>
+        <f>(N73+O73)/2</f>
+        <v>49.51554103090465</v>
       </c>
       <c r="S73" s="10">
-        <f ca="1">(N73+O73+P73)/3</f>
-        <v>34.026724216268043</v>
+        <f>(N73+O73+P73)/3</f>
+        <v>35.486549278220387</v>
       </c>
       <c r="T73" s="11">
-        <f ca="1">(N73+O73+Q73)/3</f>
-        <v>34.829350209879323</v>
+        <f>(N73+O73+Q73)/3</f>
+        <v>35.22618479696812</v>
       </c>
       <c r="U73" s="26">
-        <f ca="1">(N73*2+O73*2+P73+Q73)/6</f>
-        <v>34.428037213073686</v>
+        <f>(N73*2+O73*2+P73+Q73)/6</f>
+        <v>35.356367037594254</v>
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>90</v>
+      <c r="A74" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="C74" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D74" s="22">
-        <v>18564000</v>
-      </c>
-      <c r="E74" s="7">
-        <v>184180000</v>
-      </c>
-      <c r="F74" s="7">
-        <v>659945000</v>
-      </c>
-      <c r="G74" s="7">
-        <v>1344665000</v>
-      </c>
-      <c r="H74" s="5" cm="1">
-        <f t="array" aca="1" ref="H74" ca="1">G74/INDIRECT("EUR!$B$48")</f>
-        <v>1568398633.4619856</v>
+        <v>2022</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="8">
+        <v>212140470</v>
+      </c>
+      <c r="F74" s="8">
+        <v>32808958</v>
+      </c>
+      <c r="G74" s="8">
+        <v>330933638</v>
+      </c>
+      <c r="H74" s="5">
+        <f>G74</f>
+        <v>330933638</v>
       </c>
       <c r="I74" s="10">
-        <v>4820</v>
+        <v>1310</v>
       </c>
       <c r="J74" s="12">
-        <v>46410</v>
+        <v>29362</v>
       </c>
       <c r="K74" s="13">
-        <v>131.31</v>
-      </c>
-      <c r="L74" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="M74" s="11">
-        <v>18</v>
+        <v>22.73</v>
       </c>
       <c r="N74" s="32">
         <f>LOG((D74+E74)/(F74+E74)+1,V$3)</f>
-        <v>20.113935940431613</v>
+        <v>57.599780188691788</v>
       </c>
       <c r="O74" s="15">
-        <f ca="1">LOG(I74*H74/J74^2,W$3)</f>
-        <v>53.231812589857462</v>
+        <f>LOG(I74*H74/J74^2,W$3)</f>
+        <v>40.651574408769058</v>
       </c>
       <c r="P74" s="10">
         <f>LOG(K74/J74+1,X$3)</f>
-        <v>50.38120553477281</v>
-      </c>
-      <c r="Q74" s="26">
-        <f>LOG(L74*M74/J74+1,Y$3)</f>
-        <v>7.2487449779384381</v>
+        <v>14.300174707967008</v>
       </c>
       <c r="R74" s="15">
-        <f ca="1">(N74+O74)/2</f>
-        <v>36.672874265144536</v>
+        <f>(N74+O74)/2</f>
+        <v>49.125677298730423</v>
       </c>
       <c r="S74" s="10">
-        <f ca="1">(N74+O74+P74)/3</f>
-        <v>41.242318021687289</v>
+        <f>(N74+O74+P74)/3</f>
+        <v>37.517176435142616</v>
       </c>
       <c r="T74" s="11">
-        <f ca="1">(N74+O74+Q74)/3</f>
-        <v>26.864831169409172</v>
+        <f>(N74+O74+Q74)/3</f>
+        <v>32.750451532486949</v>
       </c>
       <c r="U74" s="26">
-        <f ca="1">(N74*2+O74*2+P74+Q74)/6</f>
-        <v>34.053574595548234</v>
+        <f>(N74*2+O74*2+P74+Q74)/6</f>
+        <v>35.133813983814782</v>
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>5</v>
+      <c r="A75" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>23</v>
       </c>
       <c r="C75" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D75" s="22">
-        <v>2099000</v>
-      </c>
-      <c r="E75" s="7">
-        <v>48390000</v>
-      </c>
-      <c r="F75" s="7">
-        <v>150726000</v>
-      </c>
-      <c r="G75" s="7">
-        <v>316331000</v>
-      </c>
-      <c r="H75" s="5" cm="1">
-        <f t="array" aca="1" ref="H75" ca="1">G75/INDIRECT("EUR!$B$48")</f>
-        <v>368964097.46789229</v>
+        <v>2022</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="8">
+        <v>196693950</v>
+      </c>
+      <c r="F75" s="8">
+        <v>33135497</v>
+      </c>
+      <c r="G75" s="8">
+        <v>291296473</v>
+      </c>
+      <c r="H75" s="5">
+        <f>G75</f>
+        <v>291296473</v>
       </c>
       <c r="I75" s="10">
-        <v>1300</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="J75" s="12">
-        <v>15575</v>
+        <v>19497</v>
       </c>
       <c r="K75" s="13">
-        <v>18.079999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="L75" s="14">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M75" s="11">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N75" s="32">
         <f>LOG((D75+E75)/(F75+E75)+1,V$3)</f>
-        <v>21.116892895861032</v>
+        <v>57.092080515561022</v>
       </c>
       <c r="O75" s="15">
-        <f ca="1">LOG(I75*H75/J75^2,W$3)</f>
-        <v>49.489979564573382</v>
+        <f>LOG(I75*H75/J75^2,W$3)</f>
+        <v>45.091518924997487</v>
       </c>
       <c r="P75" s="10">
         <f>LOG(K75/J75+1,X$3)</f>
-        <v>20.687804560559716</v>
+        <v>1.6491405330856335</v>
       </c>
       <c r="Q75" s="26">
         <f>LOG(L75*M75/J75+1,Y$3)</f>
-        <v>42.286602685768408</v>
+        <v>3.03987346824939</v>
       </c>
       <c r="R75" s="15">
-        <f ca="1">(N75+O75)/2</f>
-        <v>35.303436230217208</v>
+        <f>(N75+O75)/2</f>
+        <v>51.091799720279255</v>
       </c>
       <c r="S75" s="10">
-        <f ca="1">(N75+O75+P75)/3</f>
-        <v>30.431559006998043</v>
+        <f>(N75+O75+P75)/3</f>
+        <v>34.610913324548044</v>
       </c>
       <c r="T75" s="11">
-        <f ca="1">(N75+O75+Q75)/3</f>
-        <v>37.631158382067611</v>
+        <f>(N75+O75+Q75)/3</f>
+        <v>35.074490969602635</v>
       </c>
       <c r="U75" s="26">
-        <f ca="1">(N75*2+O75*2+P75+Q75)/6</f>
-        <v>34.031358694532827</v>
+        <f>(N75*2+O75*2+P75+Q75)/6</f>
+        <v>34.842702147075343</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="55" t="s">
-        <v>98</v>
+      <c r="A76" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="C76" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="8">
-        <v>486789762</v>
-      </c>
-      <c r="F76" s="8">
-        <v>69227637</v>
-      </c>
-      <c r="G76" s="8">
-        <v>681246368</v>
-      </c>
-      <c r="H76" s="5">
-        <f>G76</f>
-        <v>681246368</v>
+        <v>2023</v>
+      </c>
+      <c r="D76" s="22">
+        <v>4000000</v>
+      </c>
+      <c r="E76" s="7">
+        <v>74400000</v>
+      </c>
+      <c r="F76" s="7">
+        <v>453800000</v>
+      </c>
+      <c r="G76" s="7">
+        <v>839400000</v>
+      </c>
+      <c r="H76" s="5" cm="1">
+        <f t="array" aca="1" ref="H76" ca="1">G76/INDIRECT("EUR!$B$48")</f>
+        <v>979064534.97933745</v>
       </c>
       <c r="I76" s="10">
-        <v>2867</v>
+        <v>2745</v>
       </c>
       <c r="J76" s="12">
-        <v>73553</v>
+        <v>28825</v>
       </c>
       <c r="K76" s="13">
-        <v>38.32</v>
+        <v>58.98</v>
+      </c>
+      <c r="L76" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M76" s="11">
+        <v>35</v>
       </c>
       <c r="N76" s="32">
         <f>LOG((D76+E76)/(F76+E76)+1,V$3)</f>
-        <v>58.762328138543523</v>
+        <v>12.778352826730631</v>
       </c>
       <c r="O76" s="15">
-        <f>LOG(I76*H76/J76^2,W$3)</f>
-        <v>38.400917020508885</v>
+        <f ca="1">LOG(I76*H76/J76^2,W$3)</f>
+        <v>52.816074916488311</v>
       </c>
       <c r="P76" s="10">
         <f>LOG(K76/J76+1,X$3)</f>
-        <v>9.2876959112170354</v>
+        <v>37.77348933567464</v>
+      </c>
+      <c r="Q76" s="26">
+        <f>LOG(L76*M76/J76+1,Y$3)</f>
+        <v>39.201037625208272</v>
       </c>
       <c r="R76" s="15">
-        <f>(N76+O76)/2</f>
-        <v>48.581622579526204</v>
+        <f ca="1">(N76+O76)/2</f>
+        <v>32.797213871609472</v>
       </c>
       <c r="S76" s="10">
-        <f>(N76+O76+P76)/3</f>
-        <v>35.483647023423146</v>
+        <f ca="1">(N76+O76+P76)/3</f>
+        <v>34.455972359631197</v>
       </c>
       <c r="T76" s="11">
-        <f>(N76+O76+Q76)/3</f>
-        <v>32.3877483863508</v>
+        <f ca="1">(N76+O76+Q76)/3</f>
+        <v>34.931821789475741</v>
       </c>
       <c r="U76" s="26">
-        <f>(N76*2+O76*2+P76+Q76)/6</f>
-        <v>33.935697704886977</v>
+        <f ca="1">(N76*2+O76*2+P76+Q76)/6</f>
+        <v>34.693897074553469</v>
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="63" t="s">
+      <c r="A77" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="62" t="s">
-        <v>13</v>
+      <c r="B77" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="C77" s="19">
         <v>2022</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="8">
-        <v>644619668.87</v>
+        <v>128991623.3</v>
       </c>
       <c r="F77" s="8">
-        <v>116819770.81999999</v>
+        <v>20005825.18</v>
       </c>
       <c r="G77" s="8">
-        <v>880317964.64999998</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="H77" s="5">
         <f>G77</f>
-        <v>880317964.64999998</v>
+        <v>173093242.25999999</v>
       </c>
       <c r="I77" s="10">
-        <v>3576</v>
+        <v>644</v>
       </c>
       <c r="J77" s="12">
-        <v>122143</v>
+        <v>17201</v>
       </c>
       <c r="K77" s="13">
-        <v>53.85</v>
-      </c>
-      <c r="L77" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="M77" s="11">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="N77" s="32">
         <f>LOG((D77+E77)/(F77+E77)+1,V$3)</f>
-        <v>57.310585183036174</v>
+        <v>57.583558182814301</v>
       </c>
       <c r="O77" s="15">
         <f>LOG(I77*H77/J77^2,W$3)</f>
-        <v>34.898988157113685</v>
+        <v>38.76480726280726</v>
       </c>
       <c r="P77" s="10">
         <f>LOG(K77/J77+1,X$3)</f>
-        <v>7.8599067127876934</v>
-      </c>
-      <c r="Q77" s="26">
-        <f>LOG(L77*M77/J77+1,Y$3)</f>
-        <v>10.491166176874964</v>
+        <v>14.497906375547673</v>
       </c>
       <c r="R77" s="15">
         <f>(N77+O77)/2</f>
-        <v>46.10478667007493</v>
+        <v>48.174182722810784</v>
       </c>
       <c r="S77" s="10">
         <f>(N77+O77+P77)/3</f>
-        <v>33.356493350979186</v>
+        <v>36.948757273723082</v>
       </c>
       <c r="T77" s="11">
         <f>(N77+O77+Q77)/3</f>
-        <v>34.233579839008279</v>
+        <v>32.116121815207187</v>
       </c>
       <c r="U77" s="26">
         <f>(N77*2+O77*2+P77+Q77)/6</f>
-        <v>33.795036594993732</v>
+        <v>34.532439544465134</v>
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="62" t="s">
-        <v>89</v>
+      <c r="B78" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="C78" s="19">
         <v>2023</v>
       </c>
       <c r="D78" s="22">
-        <v>9000000</v>
+        <v>18564000</v>
       </c>
       <c r="E78" s="7">
-        <v>113000000</v>
+        <v>184180000</v>
       </c>
       <c r="F78" s="7">
-        <v>445000000</v>
+        <v>659945000</v>
       </c>
       <c r="G78" s="7">
-        <v>929000000</v>
+        <v>1344665000</v>
       </c>
       <c r="H78" s="5" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">G78/INDIRECT("EUR!$B$48")</f>
-        <v>1083572734.0907845</v>
+        <v>1568398633.4619856</v>
       </c>
       <c r="I78" s="10">
-        <v>3665</v>
+        <v>4820</v>
       </c>
       <c r="J78" s="12">
-        <v>37990</v>
+        <v>46410</v>
       </c>
       <c r="K78" s="13">
-        <v>72.36</v>
+        <v>131.31</v>
       </c>
       <c r="L78" s="14">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M78" s="11">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N78" s="32">
         <f>LOG((D78+E78)/(F78+E78)+1,V$3)</f>
-        <v>18.476416887956965</v>
+        <v>19.875407706319624</v>
       </c>
       <c r="O78" s="15">
         <f ca="1">LOG(I78*H78/J78^2,W$3)</f>
-        <v>51.644940890969913</v>
+        <v>53.349760882029813</v>
       </c>
       <c r="P78" s="10">
         <f>LOG(K78/J78+1,X$3)</f>
-        <v>33.932196532925992</v>
+        <v>52.211739074409145</v>
       </c>
       <c r="Q78" s="26">
         <f>LOG(L78*M78/J78+1,Y$3)</f>
-        <v>28.020094594862208</v>
+        <v>7.3129181632515596</v>
       </c>
       <c r="R78" s="15">
         <f ca="1">(N78+O78)/2</f>
-        <v>35.060678889463439</v>
+        <v>36.612584294174717</v>
       </c>
       <c r="S78" s="10">
         <f ca="1">(N78+O78+P78)/3</f>
-        <v>34.684518103950957</v>
+        <v>41.812302554252859</v>
       </c>
       <c r="T78" s="11">
         <f ca="1">(N78+O78+Q78)/3</f>
-        <v>32.7138174579297</v>
+        <v>26.846028917200329</v>
       </c>
       <c r="U78" s="26">
         <f ca="1">(N78*2+O78*2+P78+Q78)/6</f>
-        <v>33.699167780940321</v>
+        <v>34.329165735726598</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="62" t="s">
-        <v>87</v>
+      <c r="A79" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>5</v>
       </c>
       <c r="C79" s="19">
         <v>2023</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="8">
-        <v>271160973</v>
-      </c>
-      <c r="F79" s="8">
-        <v>64849737</v>
-      </c>
-      <c r="G79" s="8">
-        <v>405512751</v>
-      </c>
-      <c r="H79" s="5">
-        <f>G79</f>
-        <v>405512751</v>
+      <c r="D79" s="22">
+        <v>2099000</v>
+      </c>
+      <c r="E79" s="7">
+        <v>48390000</v>
+      </c>
+      <c r="F79" s="7">
+        <v>150726000</v>
+      </c>
+      <c r="G79" s="7">
+        <v>316331000</v>
+      </c>
+      <c r="H79" s="5" cm="1">
+        <f t="array" aca="1" ref="H79" ca="1">G79/INDIRECT("EUR!$B$48")</f>
+        <v>368964097.46789229</v>
       </c>
       <c r="I79" s="10">
-        <v>1518</v>
+        <v>1300</v>
       </c>
       <c r="J79" s="12">
-        <v>52583</v>
+        <v>15575</v>
       </c>
       <c r="K79" s="13">
-        <v>40.5</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="L79" s="14">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M79" s="11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N79" s="32">
         <f>LOG((D79+E79)/(F79+E79)+1,V$3)</f>
-        <v>55.286010313205054</v>
+        <v>20.866470741425474</v>
       </c>
       <c r="O79" s="15">
-        <f>LOG(I79*H79/J79^2,W$3)</f>
-        <v>35.248618535386619</v>
+        <f ca="1">LOG(I79*H79/J79^2,W$3)</f>
+        <v>49.599636897008416</v>
       </c>
       <c r="P79" s="10">
         <f>LOG(K79/J79+1,X$3)</f>
-        <v>13.728985669404191</v>
+        <v>21.439468195988383</v>
       </c>
       <c r="Q79" s="26">
         <f>LOG(L79*M79/J79+1,Y$3)</f>
-        <v>7.1086772650012477</v>
+        <v>42.660966247829869</v>
       </c>
       <c r="R79" s="15">
-        <f>(N79+O79)/2</f>
-        <v>45.267314424295833</v>
+        <f ca="1">(N79+O79)/2</f>
+        <v>35.233053819216948</v>
       </c>
       <c r="S79" s="10">
-        <f>(N79+O79+P79)/3</f>
-        <v>34.754538172665285</v>
+        <f ca="1">(N79+O79+P79)/3</f>
+        <v>30.635191944807428</v>
       </c>
       <c r="T79" s="11">
-        <f>(N79+O79+Q79)/3</f>
-        <v>32.547768704530974</v>
+        <f ca="1">(N79+O79+Q79)/3</f>
+        <v>37.709024628754584</v>
       </c>
       <c r="U79" s="26">
-        <f>(N79*2+O79*2+P79+Q79)/6</f>
-        <v>33.651153438598129</v>
+        <f ca="1">(N79*2+O79*2+P79+Q79)/6</f>
+        <v>34.172108286781004</v>
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>278</v>
+      <c r="A80" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="C80" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="8">
-        <v>420860592.89999998</v>
-      </c>
-      <c r="F80" s="8">
-        <v>89463377.120000005</v>
-      </c>
-      <c r="G80" s="8">
-        <v>640822754.27999997</v>
-      </c>
-      <c r="H80" s="5">
-        <f>G80</f>
-        <v>640822754.27999997</v>
+        <v>2023</v>
+      </c>
+      <c r="D80" s="22">
+        <v>9000000</v>
+      </c>
+      <c r="E80" s="7">
+        <v>113000000</v>
+      </c>
+      <c r="F80" s="7">
+        <v>445000000</v>
+      </c>
+      <c r="G80" s="7">
+        <v>929000000</v>
+      </c>
+      <c r="H80" s="5" cm="1">
+        <f t="array" aca="1" ref="H80" ca="1">G80/INDIRECT("EUR!$B$48")</f>
+        <v>1083572734.0907845</v>
       </c>
       <c r="I80" s="10">
-        <v>2538</v>
+        <v>3665</v>
       </c>
       <c r="J80" s="12">
-        <v>59773</v>
+        <v>37990</v>
       </c>
       <c r="K80" s="13">
-        <v>30.47</v>
+        <v>72.36</v>
+      </c>
+      <c r="L80" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="M80" s="11">
+        <v>38</v>
       </c>
       <c r="N80" s="32">
         <f>LOG((D80+E80)/(F80+E80)+1,V$3)</f>
-        <v>56.19642173199928</v>
+        <v>18.257307753571073</v>
       </c>
       <c r="O80" s="15">
-        <f>LOG(I80*H80/J80^2,W$3)</f>
-        <v>39.912735960209837</v>
+        <f ca="1">LOG(I80*H80/J80^2,W$3)</f>
+        <v>51.759373075054363</v>
       </c>
       <c r="P80" s="10">
         <f>LOG(K80/J80+1,X$3)</f>
-        <v>9.0876734893368187</v>
+        <v>35.165077389343416</v>
+      </c>
+      <c r="Q80" s="26">
+        <f>LOG(L80*M80/J80+1,Y$3)</f>
+        <v>28.268156670214552</v>
       </c>
       <c r="R80" s="15">
-        <f>(N80+O80)/2</f>
-        <v>48.054578846104562</v>
+        <f ca="1">(N80+O80)/2</f>
+        <v>35.00834041431272</v>
       </c>
       <c r="S80" s="10">
-        <f>(N80+O80+P80)/3</f>
-        <v>35.065610393848651</v>
+        <f ca="1">(N80+O80+P80)/3</f>
+        <v>35.060586072656285</v>
       </c>
       <c r="T80" s="11">
-        <f>(N80+O80+Q80)/3</f>
-        <v>32.036385897403044</v>
+        <f ca="1">(N80+O80+Q80)/3</f>
+        <v>32.761612499613328</v>
       </c>
       <c r="U80" s="26">
-        <f>(N80*2+O80*2+P80+Q80)/6</f>
-        <v>33.550998145625847</v>
+        <f ca="1">(N80*2+O80*2+P80+Q80)/6</f>
+        <v>33.911099286134807</v>
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="34">
@@ -7893,507 +7912,513 @@
       </c>
       <c r="N81" s="32">
         <f>LOG((D81+E81)/(F81+E81)+1,V$3)</f>
-        <v>14.413525033746302</v>
+        <v>14.242597141571922</v>
       </c>
       <c r="O81" s="15">
         <f ca="1">LOG(I81*H81/J81^2,W$3)</f>
-        <v>50.500310974659378</v>
+        <v>50.612206947083358</v>
       </c>
       <c r="P81" s="10">
         <f>LOG(K81/J81+1,X$3)</f>
-        <v>58.373191405129852</v>
+        <v>60.494103033751998</v>
       </c>
       <c r="Q81" s="26">
         <f>LOG(L81*M81/J81+1,Y$3)</f>
-        <v>12.608589635675472</v>
+        <v>12.720213559774043</v>
       </c>
       <c r="R81" s="15">
         <f ca="1">(N81+O81)/2</f>
-        <v>32.456918004202841</v>
+        <v>32.427402044327643</v>
       </c>
       <c r="S81" s="10">
         <f ca="1">(N81+O81+P81)/3</f>
-        <v>41.095675804511842</v>
+        <v>41.782969040802428</v>
       </c>
       <c r="T81" s="11">
         <f ca="1">(N81+O81+Q81)/3</f>
-        <v>25.840808548027052</v>
+        <v>25.858339216143108</v>
       </c>
       <c r="U81" s="26">
         <f ca="1">(N81*2+O81*2+P81+Q81)/6</f>
-        <v>33.468242176269449</v>
+        <v>33.820654128472768</v>
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="62" t="s">
-        <v>7</v>
+      <c r="A82" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="C82" s="34">
-        <v>2023</v>
-      </c>
-      <c r="D82" s="22">
-        <v>8000000</v>
-      </c>
-      <c r="E82" s="7">
-        <v>185900000</v>
-      </c>
-      <c r="F82" s="7">
-        <v>410800000</v>
-      </c>
-      <c r="G82" s="7">
-        <v>952200000</v>
-      </c>
-      <c r="H82" s="5" cm="1">
-        <f t="array" aca="1" ref="H82" ca="1">G82/INDIRECT("EUR!$B$48")</f>
-        <v>1110632892.7892842</v>
+        <v>2022</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="8">
+        <v>486789762</v>
+      </c>
+      <c r="F82" s="8">
+        <v>69227637</v>
+      </c>
+      <c r="G82" s="8">
+        <v>681246368</v>
+      </c>
+      <c r="H82" s="5">
+        <f>G82</f>
+        <v>681246368</v>
       </c>
       <c r="I82" s="10">
-        <v>3810</v>
+        <v>2867</v>
       </c>
       <c r="J82" s="12">
-        <v>42980</v>
+        <v>73553</v>
       </c>
       <c r="K82" s="13">
-        <v>77.62</v>
-      </c>
-      <c r="L82" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="M82" s="11">
-        <v>28</v>
+        <v>38.32</v>
       </c>
       <c r="N82" s="32">
         <f>LOG((D82+E82)/(F82+E82)+1,V$3)</f>
-        <v>26.292168106593373</v>
+        <v>58.065474255509066</v>
       </c>
       <c r="O82" s="15">
-        <f ca="1">LOG(I82*H82/J82^2,W$3)</f>
-        <v>50.449297645910612</v>
+        <f>LOG(I82*H82/J82^2,W$3)</f>
+        <v>38.486003782729789</v>
       </c>
       <c r="P82" s="10">
         <f>LOG(K82/J82+1,X$3)</f>
-        <v>32.174466007119655</v>
-      </c>
-      <c r="Q82" s="26">
-        <f>LOG(L82*M82/J82+1,Y$3)</f>
-        <v>14.780594195565909</v>
+        <v>9.6251518869318637</v>
       </c>
       <c r="R82" s="15">
-        <f ca="1">(N82+O82)/2</f>
-        <v>38.370732876251992</v>
+        <f>(N82+O82)/2</f>
+        <v>48.275739019119428</v>
       </c>
       <c r="S82" s="10">
-        <f ca="1">(N82+O82+P82)/3</f>
-        <v>36.305310586541218</v>
+        <f>(N82+O82+P82)/3</f>
+        <v>35.392209975056907</v>
       </c>
       <c r="T82" s="11">
-        <f ca="1">(N82+O82+Q82)/3</f>
-        <v>30.507353316023298</v>
+        <f>(N82+O82+Q82)/3</f>
+        <v>32.183826012746287</v>
       </c>
       <c r="U82" s="26">
-        <f ca="1">(N82*2+O82*2+P82+Q82)/6</f>
-        <v>33.406331951282255</v>
+        <f>(N82*2+O82*2+P82+Q82)/6</f>
+        <v>33.788017993901597</v>
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="36" t="s">
-        <v>279</v>
+      <c r="B83" s="65" t="s">
+        <v>13</v>
       </c>
       <c r="C83" s="34">
         <v>2022</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="8">
-        <v>321313102.60000002</v>
+        <v>644619668.87</v>
       </c>
       <c r="F83" s="8">
-        <v>57047349.450000003</v>
+        <v>116819770.81999999</v>
       </c>
       <c r="G83" s="8">
-        <v>459478287.31999999</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="H83" s="5">
         <f>G83</f>
-        <v>459478287.31999999</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="I83" s="10">
-        <v>1800</v>
+        <v>3576</v>
       </c>
       <c r="J83" s="12">
-        <v>51000</v>
+        <v>122143</v>
       </c>
       <c r="K83" s="13">
-        <v>24.93</v>
+        <v>53.85</v>
+      </c>
+      <c r="L83" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M83" s="11">
+        <v>40</v>
       </c>
       <c r="N83" s="32">
         <f>LOG((D83+E83)/(F83+E83)+1,V$3)</f>
-        <v>57.444307206346508</v>
+        <v>56.630947308076287</v>
       </c>
       <c r="O83" s="15">
         <f>LOG(I83*H83/J83^2,W$3)</f>
-        <v>37.573089439484072</v>
+        <v>34.976315526808754</v>
       </c>
       <c r="P83" s="10">
         <f>LOG(K83/J83+1,X$3)</f>
-        <v>8.7144897110240382</v>
+        <v>8.1454858827073231</v>
+      </c>
+      <c r="Q83" s="26">
+        <f>LOG(L83*M83/J83+1,Y$3)</f>
+        <v>10.584044537648918</v>
       </c>
       <c r="R83" s="15">
         <f>(N83+O83)/2</f>
-        <v>47.508698322915293</v>
+        <v>45.803631417442517</v>
       </c>
       <c r="S83" s="10">
         <f>(N83+O83+P83)/3</f>
-        <v>34.577295452284879</v>
+        <v>33.250916239197451</v>
       </c>
       <c r="T83" s="11">
         <f>(N83+O83+Q83)/3</f>
-        <v>31.672465548610194</v>
+        <v>34.063769124177988</v>
       </c>
       <c r="U83" s="26">
         <f>(N83*2+O83*2+P83+Q83)/6</f>
-        <v>33.124880500447539</v>
+        <v>33.657342681687716</v>
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>285</v>
+      <c r="A84" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>7</v>
       </c>
       <c r="C84" s="34">
-        <v>2021</v>
-      </c>
-      <c r="D84" s="23">
-        <v>71722.16</v>
-      </c>
-      <c r="E84" s="8">
-        <v>167965881</v>
-      </c>
-      <c r="F84" s="8">
-        <v>39368427.289999999</v>
-      </c>
-      <c r="G84" s="8">
-        <v>251080695.05000001</v>
-      </c>
-      <c r="H84" s="5">
-        <f>G84</f>
-        <v>251080695.05000001</v>
+        <v>2023</v>
+      </c>
+      <c r="D84" s="22">
+        <v>8000000</v>
+      </c>
+      <c r="E84" s="7">
+        <v>185900000</v>
+      </c>
+      <c r="F84" s="7">
+        <v>410800000</v>
+      </c>
+      <c r="G84" s="7">
+        <v>952200000</v>
+      </c>
+      <c r="H84" s="5" cm="1">
+        <f t="array" aca="1" ref="H84" ca="1">G84/INDIRECT("EUR!$B$48")</f>
+        <v>1110632892.7892842</v>
       </c>
       <c r="I84" s="10">
-        <v>896</v>
+        <v>3810</v>
       </c>
       <c r="J84" s="12">
-        <v>24023</v>
+        <v>42980</v>
       </c>
       <c r="K84" s="13">
-        <v>11.79</v>
+        <v>77.62</v>
+      </c>
+      <c r="L84" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="M84" s="11">
+        <v>28</v>
       </c>
       <c r="N84" s="32">
         <f>LOG((D84+E84)/(F84+E84)+1,V$3)</f>
-        <v>55.465065098734243</v>
+        <v>25.980373117884334</v>
       </c>
       <c r="O84" s="15">
-        <f>LOG(I84*H84/J84^2,W$3)</f>
-        <v>38.901447754033718</v>
+        <f ca="1">LOG(I84*H84/J84^2,W$3)</f>
+        <v>50.561080585643971</v>
       </c>
       <c r="P84" s="10">
         <f>LOG(K84/J84+1,X$3)</f>
-        <v>8.7493541970996844</v>
+        <v>33.343482082077841</v>
+      </c>
+      <c r="Q84" s="26">
+        <f>LOG(L84*M84/J84+1,Y$3)</f>
+        <v>14.911446889823594</v>
       </c>
       <c r="R84" s="15">
-        <f>(N84+O84)/2</f>
-        <v>47.183256426383977</v>
+        <f ca="1">(N84+O84)/2</f>
+        <v>38.270726851764152</v>
       </c>
       <c r="S84" s="10">
-        <f>(N84+O84+P84)/3</f>
-        <v>34.371955683289208</v>
+        <f ca="1">(N84+O84+P84)/3</f>
+        <v>36.628311928535382</v>
       </c>
       <c r="T84" s="11">
-        <f>(N84+O84+Q84)/3</f>
-        <v>31.455504284255984</v>
+        <f ca="1">(N84+O84+Q84)/3</f>
+        <v>30.484300197783966</v>
       </c>
       <c r="U84" s="26">
-        <f>(N84*2+O84*2+P84+Q84)/6</f>
-        <v>32.913729983772598</v>
+        <f ca="1">(N84*2+O84*2+P84+Q84)/6</f>
+        <v>33.556306063159674</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>287</v>
+      <c r="B85" s="65" t="s">
+        <v>87</v>
       </c>
       <c r="C85" s="34">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="8">
-        <v>178626191</v>
+        <v>271160973</v>
       </c>
       <c r="F85" s="8">
-        <v>61887234</v>
+        <v>64849737</v>
       </c>
       <c r="G85" s="8">
-        <v>253060701</v>
+        <v>405512751</v>
       </c>
       <c r="H85" s="5">
         <f>G85</f>
-        <v>253060701</v>
+        <v>405512751</v>
       </c>
       <c r="I85" s="10">
-        <v>944</v>
+        <v>1518</v>
       </c>
       <c r="J85" s="12">
-        <v>20087</v>
+        <v>52583</v>
       </c>
       <c r="K85" s="13">
-        <v>10.56</v>
+        <v>40.5</v>
+      </c>
+      <c r="L85" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M85" s="11">
+        <v>20</v>
       </c>
       <c r="N85" s="32">
         <f>LOG((D85+E85)/(F85+E85)+1,V$3)</f>
-        <v>51.899677845304332</v>
+        <v>54.630381576484368</v>
       </c>
       <c r="O85" s="15">
         <f>LOG(I85*H85/J85^2,W$3)</f>
-        <v>41.626636356911078</v>
+        <v>35.326720597958044</v>
       </c>
       <c r="P85" s="10">
         <f>LOG(K85/J85+1,X$3)</f>
-        <v>9.3719657028460635</v>
+        <v>14.227809952512811</v>
+      </c>
+      <c r="Q85" s="26">
+        <f>LOG(L85*M85/J85+1,Y$3)</f>
+        <v>7.171610429962425</v>
       </c>
       <c r="R85" s="15">
         <f>(N85+O85)/2</f>
-        <v>46.763157101107709</v>
+        <v>44.978551087221206</v>
       </c>
       <c r="S85" s="10">
         <f>(N85+O85+P85)/3</f>
-        <v>34.299426635020495</v>
+        <v>34.728304042318406</v>
       </c>
       <c r="T85" s="11">
         <f>(N85+O85+Q85)/3</f>
-        <v>31.175438067405139</v>
+        <v>32.376237534801611</v>
       </c>
       <c r="U85" s="26">
         <f>(N85*2+O85*2+P85+Q85)/6</f>
-        <v>32.737432351212817</v>
+        <v>33.552270788560008</v>
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="62" t="s">
-        <v>94</v>
+      <c r="A86" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="C86" s="34">
-        <v>2023</v>
-      </c>
-      <c r="D86" s="22">
-        <v>2900000</v>
-      </c>
-      <c r="E86" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="F86" s="7">
-        <v>382900000</v>
-      </c>
-      <c r="G86" s="7">
-        <v>679800000</v>
-      </c>
-      <c r="H86" s="5" cm="1">
-        <f t="array" aca="1" ref="H86" ca="1">G86/INDIRECT("EUR!$B$48")</f>
-        <v>792909305.3120724</v>
+        <v>2022</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="8">
+        <v>420860592.89999998</v>
+      </c>
+      <c r="F86" s="8">
+        <v>89463377.120000005</v>
+      </c>
+      <c r="G86" s="8">
+        <v>640822754.27999997</v>
+      </c>
+      <c r="H86" s="5">
+        <f>G86</f>
+        <v>640822754.27999997</v>
       </c>
       <c r="I86" s="10">
-        <v>2505</v>
+        <v>2538</v>
       </c>
       <c r="J86" s="12">
-        <v>26045</v>
+        <v>59773</v>
       </c>
       <c r="K86" s="13">
-        <v>61.42</v>
-      </c>
-      <c r="L86" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="M86" s="11">
-        <v>20</v>
+        <v>30.47</v>
       </c>
       <c r="N86" s="32">
         <f>LOG((D86+E86)/(F86+E86)+1,V$3)</f>
-        <v>15.393590750760637</v>
+        <v>55.529996558982702</v>
       </c>
       <c r="O86" s="15">
-        <f ca="1">LOG(I86*H86/J86^2,W$3)</f>
-        <v>52.050177288476277</v>
+        <f>LOG(I86*H86/J86^2,W$3)</f>
+        <v>40.001172532503624</v>
       </c>
       <c r="P86" s="10">
         <f>LOG(K86/J86+1,X$3)</f>
-        <v>42.001988785077451</v>
-      </c>
-      <c r="Q86" s="26">
-        <f>LOG(L86*M86/J86+1,Y$3)</f>
-        <v>18.444627789321746</v>
+        <v>9.4178619185917221</v>
       </c>
       <c r="R86" s="15">
-        <f ca="1">(N86+O86)/2</f>
-        <v>33.721884019618457</v>
+        <f>(N86+O86)/2</f>
+        <v>47.765584545743167</v>
       </c>
       <c r="S86" s="10">
-        <f ca="1">(N86+O86+P86)/3</f>
-        <v>36.481918941438124</v>
+        <f>(N86+O86+P86)/3</f>
+        <v>34.983010336692686</v>
       </c>
       <c r="T86" s="11">
-        <f ca="1">(N86+O86+Q86)/3</f>
-        <v>28.62946527618622</v>
+        <f>(N86+O86+Q86)/3</f>
+        <v>31.843723030495443</v>
       </c>
       <c r="U86" s="26">
-        <f ca="1">(N86*2+O86*2+P86+Q86)/6</f>
-        <v>32.555692108812174</v>
+        <f>(N86*2+O86*2+P86+Q86)/6</f>
+        <v>33.413366683594063</v>
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>91</v>
+      <c r="A87" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="C87" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D87" s="22">
-        <v>11700000</v>
-      </c>
-      <c r="E87" s="7">
-        <v>111500000</v>
-      </c>
-      <c r="F87" s="7">
-        <v>397500000</v>
-      </c>
-      <c r="G87" s="7">
-        <v>887000000</v>
-      </c>
-      <c r="H87" s="5" cm="1">
-        <f t="array" aca="1" ref="H87" ca="1">G87/INDIRECT("EUR!$B$48")</f>
-        <v>1034584515.7572937</v>
+        <v>2022</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="8">
+        <v>321313102.60000002</v>
+      </c>
+      <c r="F87" s="8">
+        <v>57047349.450000003</v>
+      </c>
+      <c r="G87" s="8">
+        <v>459478287.31999999</v>
+      </c>
+      <c r="H87" s="5">
+        <f>G87</f>
+        <v>459478287.31999999</v>
       </c>
       <c r="I87" s="10">
-        <v>3345</v>
+        <v>1800</v>
       </c>
       <c r="J87" s="12">
-        <v>30860</v>
+        <v>51000</v>
       </c>
       <c r="K87" s="13">
-        <v>48.8</v>
-      </c>
-      <c r="L87" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M87" s="11">
-        <v>28</v>
+        <v>24.93</v>
       </c>
       <c r="N87" s="32">
         <f>LOG((D87+E87)/(F87+E87)+1,V$3)</f>
-        <v>20.254030630155157</v>
+        <v>56.763083541406147</v>
       </c>
       <c r="O87" s="15">
-        <f ca="1">LOG(I87*H87/J87^2,W$3)</f>
-        <v>53.458384947072794</v>
+        <f>LOG(I87*H87/J87^2,W$3)</f>
+        <v>37.656341944244176</v>
       </c>
       <c r="P87" s="10">
         <f>LOG(K87/J87+1,X$3)</f>
-        <v>28.175830623336342</v>
-      </c>
-      <c r="Q87" s="26">
-        <f>LOG(L87*M87/J87+1,Y$3)</f>
-        <v>19.371300409128921</v>
+        <v>9.0311190081502311</v>
       </c>
       <c r="R87" s="15">
-        <f ca="1">(N87+O87)/2</f>
-        <v>36.856207788613972</v>
+        <f>(N87+O87)/2</f>
+        <v>47.209712742825161</v>
       </c>
       <c r="S87" s="10">
-        <f ca="1">(N87+O87+P87)/3</f>
-        <v>33.96274873352143</v>
+        <f>(N87+O87+P87)/3</f>
+        <v>34.483514831266852</v>
       </c>
       <c r="T87" s="11">
-        <f ca="1">(N87+O87+Q87)/3</f>
-        <v>31.027905328785621</v>
+        <f>(N87+O87+Q87)/3</f>
+        <v>31.473141828550109</v>
       </c>
       <c r="U87" s="26">
-        <f ca="1">(N87*2+O87*2+P87+Q87)/6</f>
-        <v>32.495327031153522</v>
+        <f>(N87*2+O87*2+P87+Q87)/6</f>
+        <v>32.978328329908479</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>300</v>
+      <c r="A88" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="C88" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="6">
-        <v>18592397.989999998</v>
-      </c>
-      <c r="F88" s="6">
-        <v>15175788.51</v>
-      </c>
-      <c r="G88" s="6">
-        <v>140372577.91</v>
+        <v>2023</v>
+      </c>
+      <c r="D88" s="22">
+        <v>2900000</v>
+      </c>
+      <c r="E88" s="7">
+        <v>80000000</v>
+      </c>
+      <c r="F88" s="7">
+        <v>382900000</v>
+      </c>
+      <c r="G88" s="7">
+        <v>679800000</v>
       </c>
       <c r="H88" s="5" cm="1">
-        <f t="array" aca="1" ref="H88" ca="1">G88/INDIRECT("EUR!$B$30")</f>
-        <v>143327123.22822666</v>
+        <f t="array" aca="1" ref="H88" ca="1">G88/INDIRECT("EUR!$B$48")</f>
+        <v>792909305.3120724</v>
       </c>
       <c r="I88" s="10">
-        <v>933</v>
+        <v>2505</v>
       </c>
       <c r="J88" s="12">
-        <v>6010</v>
+        <v>26045</v>
       </c>
       <c r="K88" s="13">
-        <v>1.77</v>
+        <v>61.42</v>
+      </c>
+      <c r="L88" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="M88" s="11">
+        <v>20</v>
       </c>
       <c r="N88" s="32">
         <f>LOG((D88+E88)/(F88+E88)+1,V$3)</f>
-        <v>40.986422886070926</v>
+        <v>15.211040402121972</v>
       </c>
       <c r="O88" s="15">
         <f ca="1">LOG(I88*H88/J88^2,W$3)</f>
-        <v>53.57986746873825</v>
+        <v>52.165507374373327</v>
       </c>
       <c r="P88" s="10">
         <f>LOG(K88/J88+1,X$3)</f>
-        <v>5.2508647799165153</v>
+        <v>43.528074721021305</v>
+      </c>
+      <c r="Q88" s="26">
+        <f>LOG(L88*M88/J88+1,Y$3)</f>
+        <v>18.60791819624848</v>
       </c>
       <c r="R88" s="15">
         <f ca="1">(N88+O88)/2</f>
-        <v>47.283145177404592</v>
+        <v>33.68827388824765</v>
       </c>
       <c r="S88" s="10">
         <f ca="1">(N88+O88+P88)/3</f>
-        <v>33.272385044908567</v>
+        <v>36.968207499172202</v>
       </c>
       <c r="T88" s="11">
         <f ca="1">(N88+O88+Q88)/3</f>
-        <v>31.522096784936394</v>
+        <v>28.661488657581259</v>
       </c>
       <c r="U88" s="26">
         <f ca="1">(N88*2+O88*2+P88+Q88)/6</f>
-        <v>32.397240914922484</v>
+        <v>32.814848078376734</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -8401,259 +8426,261 @@
         <v>14</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C89" s="39">
-        <v>2022</v>
-      </c>
-      <c r="D89" s="23"/>
+        <v>2021</v>
+      </c>
+      <c r="D89" s="23">
+        <v>71722.16</v>
+      </c>
       <c r="E89" s="8">
-        <v>199030207.40000001</v>
+        <v>167965881</v>
       </c>
       <c r="F89" s="8">
-        <v>49636756.810000002</v>
+        <v>39368427.289999999</v>
       </c>
       <c r="G89" s="8">
-        <v>307976955.69999999</v>
+        <v>251080695.05000001</v>
       </c>
       <c r="H89" s="5">
         <f>G89</f>
-        <v>307976955.69999999</v>
+        <v>251080695.05000001</v>
       </c>
       <c r="I89" s="10">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="J89" s="12">
-        <v>32841</v>
+        <v>24023</v>
       </c>
       <c r="K89" s="13">
-        <v>22.08</v>
+        <v>11.79</v>
       </c>
       <c r="N89" s="32">
         <f>LOG((D89+E89)/(F89+E89)+1,V$3)</f>
-        <v>54.943454711748224</v>
+        <v>54.807312977414533</v>
       </c>
       <c r="O89" s="15">
         <f>LOG(I89*H89/J89^2,W$3)</f>
-        <v>36.184679906336775</v>
+        <v>38.987643566319363</v>
       </c>
       <c r="P89" s="10">
         <f>LOG(K89/J89+1,X$3)</f>
-        <v>11.984853414758163</v>
+        <v>9.0672502485725861</v>
       </c>
       <c r="R89" s="15">
         <f>(N89+O89)/2</f>
-        <v>45.5640673090425</v>
+        <v>46.897478271866945</v>
       </c>
       <c r="S89" s="10">
         <f>(N89+O89+P89)/3</f>
-        <v>34.370996010947721</v>
+        <v>34.287402264102163</v>
       </c>
       <c r="T89" s="11">
         <f>(N89+O89+Q89)/3</f>
-        <v>30.376044872695001</v>
+        <v>31.264985514577962</v>
       </c>
       <c r="U89" s="26">
         <f>(N89*2+O89*2+P89+Q89)/6</f>
-        <v>32.373520441821363</v>
+        <v>32.776193889340057</v>
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>99</v>
+      <c r="A90" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D90" s="23">
-        <v>75940</v>
-      </c>
-      <c r="E90" s="8">
-        <v>566196229.53999996</v>
-      </c>
-      <c r="F90" s="8">
-        <v>134624131.96000001</v>
-      </c>
-      <c r="G90" s="8">
-        <v>879831965</v>
-      </c>
-      <c r="H90" s="5">
-        <f>G90</f>
-        <v>879831965</v>
+        <v>2023</v>
+      </c>
+      <c r="D90" s="22">
+        <v>11700000</v>
+      </c>
+      <c r="E90" s="7">
+        <v>111500000</v>
+      </c>
+      <c r="F90" s="7">
+        <v>397500000</v>
+      </c>
+      <c r="G90" s="7">
+        <v>887000000</v>
+      </c>
+      <c r="H90" s="5" cm="1">
+        <f t="array" aca="1" ref="H90" ca="1">G90/INDIRECT("EUR!$B$48")</f>
+        <v>1034584515.7572937</v>
       </c>
       <c r="I90" s="10">
-        <v>3382</v>
+        <v>3345</v>
       </c>
       <c r="J90" s="12">
-        <v>96984</v>
+        <v>30860</v>
       </c>
       <c r="K90" s="13">
-        <v>37.11</v>
+        <v>48.8</v>
+      </c>
+      <c r="L90" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M90" s="11">
+        <v>28</v>
       </c>
       <c r="N90" s="32">
         <f>LOG((D90+E90)/(F90+E90)+1,V$3)</f>
-        <v>55.338342815949318</v>
+        <v>20.013841033540711</v>
       </c>
       <c r="O90" s="15">
-        <f>LOG(I90*H90/J90^2,W$3)</f>
-        <v>37.539696568164231</v>
+        <f ca="1">LOG(I90*H90/J90^2,W$3)</f>
+        <v>53.576835266534594</v>
       </c>
       <c r="P90" s="10">
         <f>LOG(K90/J90+1,X$3)</f>
-        <v>6.8218752022221807</v>
+        <v>29.199561643975219</v>
+      </c>
+      <c r="Q90" s="26">
+        <f>LOG(L90*M90/J90+1,Y$3)</f>
+        <v>19.542794654642403</v>
       </c>
       <c r="R90" s="15">
-        <f>(N90+O90)/2</f>
-        <v>46.439019692056775</v>
+        <f ca="1">(N90+O90)/2</f>
+        <v>36.795338150037651</v>
       </c>
       <c r="S90" s="10">
-        <f>(N90+O90+P90)/3</f>
-        <v>33.233304862111908</v>
+        <f ca="1">(N90+O90+P90)/3</f>
+        <v>34.263412648016839</v>
       </c>
       <c r="T90" s="11">
-        <f>(N90+O90+Q90)/3</f>
-        <v>30.959346461371183</v>
+        <f ca="1">(N90+O90+Q90)/3</f>
+        <v>31.044490318239237</v>
       </c>
       <c r="U90" s="26">
-        <f>(N90*2+O90*2+P90+Q90)/6</f>
-        <v>32.096325661741545</v>
+        <f ca="1">(N90*2+O90*2+P90+Q90)/6</f>
+        <v>32.653951483128033</v>
       </c>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="40" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C91" s="19">
         <v>2022</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="61">
-        <v>5377274805</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61">
-        <v>18406500000</v>
-      </c>
-      <c r="H91" s="5" cm="1">
-        <f t="array" aca="1" ref="H91" ca="1">G91/INDIRECT("EUR!$B$61")</f>
-        <v>46960721.446900383</v>
+      <c r="D91" s="23"/>
+      <c r="E91" s="8">
+        <v>178626191</v>
+      </c>
+      <c r="F91" s="8">
+        <v>61887234</v>
+      </c>
+      <c r="G91" s="8">
+        <v>253060701</v>
+      </c>
+      <c r="H91" s="5">
+        <f>G91</f>
+        <v>253060701</v>
       </c>
       <c r="I91" s="10">
-        <v>1800</v>
+        <v>944</v>
       </c>
       <c r="J91" s="12">
-        <v>35870</v>
+        <v>20087</v>
       </c>
       <c r="K91" s="13">
-        <v>14.98</v>
+        <v>10.56</v>
       </c>
       <c r="N91" s="32">
         <f>LOG((D91+E91)/(F91+E91)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>51.284207131661603</v>
       </c>
       <c r="O91" s="15">
-        <f ca="1">LOG(I91*H91/J91^2,W$3)</f>
-        <v>27.290137620873139</v>
+        <f>LOG(I91*H91/J91^2,W$3)</f>
+        <v>41.718870500899484</v>
       </c>
       <c r="P91" s="10">
         <f>LOG(K91/J91+1,X$3)</f>
-        <v>7.4453608577472261</v>
+        <v>9.7124835084301395</v>
       </c>
       <c r="R91" s="15">
-        <f ca="1">(N91+O91)/2</f>
-        <v>46.029198268214103</v>
+        <f>(N91+O91)/2</f>
+        <v>46.501538816280544</v>
       </c>
       <c r="S91" s="10">
-        <f ca="1">(N91+O91+P91)/3</f>
-        <v>33.167919131391812</v>
+        <f>(N91+O91+P91)/3</f>
+        <v>34.238520380330407</v>
       </c>
       <c r="T91" s="11">
-        <f ca="1">(N91+O91+Q91)/3</f>
-        <v>30.686132178809402</v>
+        <f>(N91+O91+Q91)/3</f>
+        <v>31.001025877520362</v>
       </c>
       <c r="U91" s="26">
-        <f ca="1">(N91*2+O91*2+P91+Q91)/6</f>
-        <v>31.927025655100607</v>
+        <f>(N91*2+O91*2+P91+Q91)/6</f>
+        <v>32.619773128925381</v>
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>93</v>
+      <c r="A92" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>300</v>
       </c>
       <c r="C92" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D92" s="22">
-        <v>3135000</v>
-      </c>
-      <c r="E92" s="7">
-        <v>108240000</v>
-      </c>
-      <c r="F92" s="7">
-        <v>160937000</v>
-      </c>
-      <c r="G92" s="7">
-        <v>460525000</v>
+        <v>2022</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="6">
+        <v>18592397.989999998</v>
+      </c>
+      <c r="F92" s="6">
+        <v>15175788.51</v>
+      </c>
+      <c r="G92" s="6">
+        <v>140372577.91</v>
       </c>
       <c r="H92" s="5" cm="1">
-        <f t="array" aca="1" ref="H92" ca="1">G92/INDIRECT("EUR!$B$48")</f>
-        <v>537149982.09597254</v>
+        <f t="array" aca="1" ref="H92" ca="1">G92/INDIRECT("EUR!$B$30")</f>
+        <v>143327123.22822666</v>
       </c>
       <c r="I92" s="10">
-        <v>1915</v>
+        <v>933</v>
       </c>
       <c r="J92" s="12">
-        <v>25295</v>
+        <v>6010</v>
       </c>
       <c r="K92" s="13">
-        <v>24.1</v>
-      </c>
-      <c r="L92" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M92" s="11">
-        <v>17</v>
+        <v>1.77</v>
       </c>
       <c r="N92" s="32">
         <f>LOG((D92+E92)/(F92+E92)+1,V$3)</f>
-        <v>32.35423625349506</v>
+        <v>40.500370872057609</v>
       </c>
       <c r="O92" s="15">
         <f ca="1">LOG(I92*H92/J92^2,W$3)</f>
-        <v>48.14050031091741</v>
+        <v>53.69858696287703</v>
       </c>
       <c r="P92" s="10">
         <f>LOG(K92/J92+1,X$3)</f>
-        <v>16.981323534541463</v>
-      </c>
-      <c r="Q92" s="26">
-        <f>LOG(L92*M92/J92+1,Y$3)</f>
-        <v>13.454836086649019</v>
+        <v>5.4416479100482134</v>
       </c>
       <c r="R92" s="15">
         <f ca="1">(N92+O92)/2</f>
-        <v>40.247368282206239</v>
+        <v>47.099478917467323</v>
       </c>
       <c r="S92" s="10">
         <f ca="1">(N92+O92+P92)/3</f>
-        <v>32.492020032984648</v>
+        <v>33.213535248327624</v>
       </c>
       <c r="T92" s="11">
         <f ca="1">(N92+O92+Q92)/3</f>
-        <v>31.3165242170205</v>
+        <v>31.399652611644882</v>
       </c>
       <c r="U92" s="26">
         <f ca="1">(N92*2+O92*2+P92+Q92)/6</f>
-        <v>31.904272125002574</v>
+        <v>32.306593929986249</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -8661,263 +8688,259 @@
         <v>14</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93" s="54">
+        <v>281</v>
+      </c>
+      <c r="C93" s="52">
         <v>2022</v>
       </c>
-      <c r="D93" s="23">
-        <v>1422000</v>
-      </c>
+      <c r="D93" s="23"/>
       <c r="E93" s="8">
-        <v>171231415.30000001</v>
+        <v>199030207.40000001</v>
       </c>
       <c r="F93" s="8">
-        <v>37795692.32</v>
+        <v>49636756.810000002</v>
       </c>
       <c r="G93" s="8">
-        <v>237228536.25</v>
+        <v>307976955.69999999</v>
       </c>
       <c r="H93" s="5">
         <f>G93</f>
-        <v>237228536.25</v>
+        <v>307976955.69999999</v>
       </c>
       <c r="I93" s="10">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="J93" s="12">
-        <v>32000</v>
+        <v>32841</v>
       </c>
       <c r="K93" s="13">
-        <v>14.41</v>
+        <v>22.08</v>
       </c>
       <c r="N93" s="32">
         <f>LOG((D93+E93)/(F93+E93)+1,V$3)</f>
-        <v>56.262600867780002</v>
+        <v>54.291888291967531</v>
       </c>
       <c r="O93" s="15">
         <f>LOG(I93*H93/J93^2,W$3)</f>
-        <v>35.241901489622663</v>
+        <v>36.264856045192673</v>
       </c>
       <c r="P93" s="10">
         <f>LOG(K93/J93+1,X$3)</f>
-        <v>8.0280897836878289</v>
+        <v>12.420306991354261</v>
       </c>
       <c r="R93" s="15">
         <f>(N93+O93)/2</f>
-        <v>45.752251178701329</v>
+        <v>45.278372168580105</v>
       </c>
       <c r="S93" s="10">
         <f>(N93+O93+P93)/3</f>
-        <v>33.177530713696832</v>
+        <v>34.325683776171495</v>
       </c>
       <c r="T93" s="11">
         <f>(N93+O93+Q93)/3</f>
-        <v>30.501500785800886</v>
+        <v>30.185581445720072</v>
       </c>
       <c r="U93" s="26">
         <f>(N93*2+O93*2+P93+Q93)/6</f>
-        <v>31.839515749748855</v>
+        <v>32.255632610945781</v>
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>271</v>
+      <c r="B94" s="65" t="s">
+        <v>99</v>
       </c>
       <c r="C94" s="19">
         <v>2022</v>
       </c>
       <c r="D94" s="23">
-        <v>51422.97</v>
+        <v>75940</v>
       </c>
       <c r="E94" s="8">
-        <v>417456877.80000001</v>
+        <v>566196229.53999996</v>
       </c>
       <c r="F94" s="8">
-        <v>92035021.359999999</v>
+        <v>134624131.96000001</v>
       </c>
       <c r="G94" s="8">
-        <v>596878424.63999999</v>
+        <v>879831965</v>
       </c>
       <c r="H94" s="5">
         <f>G94</f>
-        <v>596878424.63999999</v>
+        <v>879831965</v>
       </c>
       <c r="I94" s="10">
-        <v>2377</v>
+        <v>3382</v>
       </c>
       <c r="J94" s="12">
-        <v>81000</v>
+        <v>96984</v>
       </c>
       <c r="K94" s="13">
-        <v>33.51</v>
+        <v>37.11</v>
       </c>
       <c r="N94" s="32">
         <f>LOG((D94+E94)/(F94+E94)+1,V$3)</f>
-        <v>55.928067887023886</v>
+        <v>54.68209347570761</v>
       </c>
       <c r="O94" s="15">
         <f>LOG(I94*H94/J94^2,W$3)</f>
-        <v>35.058822846085612</v>
+        <v>37.622875082730289</v>
       </c>
       <c r="P94" s="10">
         <f>LOG(K94/J94+1,X$3)</f>
-        <v>7.3755697417856823</v>
+        <v>7.069738889252501</v>
       </c>
       <c r="R94" s="15">
         <f>(N94+O94)/2</f>
-        <v>45.493445366554752</v>
+        <v>46.152484279218953</v>
       </c>
       <c r="S94" s="10">
         <f>(N94+O94+P94)/3</f>
-        <v>32.787486824965065</v>
+        <v>33.124902482563471</v>
       </c>
       <c r="T94" s="11">
         <f>(N94+O94+Q94)/3</f>
-        <v>30.328963577703167</v>
+        <v>30.768322852812634</v>
       </c>
       <c r="U94" s="26">
         <f>(N94*2+O94*2+P94+Q94)/6</f>
-        <v>31.558225201334114</v>
+        <v>31.946612667688054</v>
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="62" t="s">
-        <v>97</v>
+      <c r="A95" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="C95" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="8">
-        <v>174402468</v>
-      </c>
-      <c r="F95" s="8">
-        <v>32620403</v>
-      </c>
-      <c r="G95" s="8">
-        <v>296151444</v>
-      </c>
-      <c r="H95" s="5">
-        <f>G95</f>
-        <v>296151444</v>
+        <v>2023</v>
+      </c>
+      <c r="D95" s="22">
+        <v>3135000</v>
+      </c>
+      <c r="E95" s="7">
+        <v>108240000</v>
+      </c>
+      <c r="F95" s="7">
+        <v>160937000</v>
+      </c>
+      <c r="G95" s="7">
+        <v>460525000</v>
+      </c>
+      <c r="H95" s="5" cm="1">
+        <f t="array" aca="1" ref="H95" ca="1">G95/INDIRECT("EUR!$B$48")</f>
+        <v>537149982.09597254</v>
       </c>
       <c r="I95" s="10">
-        <v>1217</v>
+        <v>1915</v>
       </c>
       <c r="J95" s="12">
-        <v>39700</v>
+        <v>25295</v>
       </c>
       <c r="K95" s="13">
-        <v>8.24</v>
+        <v>24.1</v>
+      </c>
+      <c r="L95" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="M95" s="11">
+        <v>17</v>
       </c>
       <c r="N95" s="32">
         <f>LOG((D95+E95)/(F95+E95)+1,V$3)</f>
-        <v>57.10037901973309</v>
+        <v>31.970552082358999</v>
       </c>
       <c r="O95" s="15">
-        <f>LOG(I95*H95/J95^2,W$3)</f>
-        <v>35.423359023364569</v>
+        <f ca="1">LOG(I95*H95/J95^2,W$3)</f>
+        <v>48.247167537144399</v>
       </c>
       <c r="P95" s="10">
         <f>LOG(K95/J95+1,X$3)</f>
-        <v>3.7007318905948718</v>
+        <v>17.598317152448036</v>
+      </c>
+      <c r="Q95" s="26">
+        <f>LOG(L95*M95/J95+1,Y$3)</f>
+        <v>13.573951835951014</v>
       </c>
       <c r="R95" s="15">
-        <f>(N95+O95)/2</f>
-        <v>46.261869021548833</v>
+        <f ca="1">(N95+O95)/2</f>
+        <v>40.108859809751699</v>
       </c>
       <c r="S95" s="10">
-        <f>(N95+O95+P95)/3</f>
-        <v>32.074823311230844</v>
+        <f ca="1">(N95+O95+P95)/3</f>
+        <v>32.605345590650479</v>
       </c>
       <c r="T95" s="11">
-        <f>(N95+O95+Q95)/3</f>
-        <v>30.84124601436589</v>
+        <f ca="1">(N95+O95+Q95)/3</f>
+        <v>31.263890485151467</v>
       </c>
       <c r="U95" s="26">
-        <f>(N95*2+O95*2+P95+Q95)/6</f>
-        <v>31.458034662798369</v>
+        <f ca="1">(N95*2+O95*2+P95+Q95)/6</f>
+        <v>31.934618037900975</v>
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="62" t="s">
-        <v>92</v>
+      <c r="A96" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="C96" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D96" s="22">
-        <v>655000</v>
-      </c>
-      <c r="E96" s="7">
-        <v>22578000</v>
-      </c>
-      <c r="F96" s="7">
-        <v>136722000</v>
-      </c>
-      <c r="G96" s="7">
-        <v>216104000</v>
+        <v>2022</v>
+      </c>
+      <c r="D96" s="58"/>
+      <c r="E96" s="59">
+        <v>5377274805</v>
+      </c>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59">
+        <v>18406500000</v>
       </c>
       <c r="H96" s="5" cm="1">
-        <f t="array" aca="1" ref="H96" ca="1">G96/INDIRECT("EUR!$B$48")</f>
-        <v>252060712.73192129</v>
+        <f t="array" aca="1" ref="H96" ca="1">G96/INDIRECT("EUR!$B$61")</f>
+        <v>46960721.446900383</v>
       </c>
       <c r="I96" s="10">
-        <v>880</v>
+        <v>1800</v>
       </c>
       <c r="J96" s="12">
-        <v>12480</v>
+        <v>35870</v>
       </c>
       <c r="K96" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L96" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="M96" s="11">
-        <v>28</v>
+        <v>14.98</v>
       </c>
       <c r="N96" s="32">
         <f>LOG((D96+E96)/(F96+E96)+1,V$3)</f>
-        <v>12.721201379568262</v>
+        <v>64.000181574979436</v>
       </c>
       <c r="O96" s="15">
         <f ca="1">LOG(I96*H96/J96^2,W$3)</f>
-        <v>47.350174532978571</v>
+        <v>27.350605693796577</v>
       </c>
       <c r="P96" s="10">
         <f>LOG(K96/J96+1,X$3)</f>
-        <v>12.426514149803186</v>
-      </c>
-      <c r="Q96" s="26">
-        <f>LOG(L96*M96/J96+1,Y$3)</f>
-        <v>53.818577208385221</v>
+        <v>7.7158780599486549</v>
       </c>
       <c r="R96" s="15">
         <f ca="1">(N96+O96)/2</f>
-        <v>30.035687956273417</v>
+        <v>45.675393634388008</v>
       </c>
       <c r="S96" s="10">
         <f ca="1">(N96+O96+P96)/3</f>
-        <v>24.165963354116673</v>
+        <v>33.022221776241558</v>
       </c>
       <c r="T96" s="11">
         <f ca="1">(N96+O96+Q96)/3</f>
-        <v>37.963317706977357</v>
+        <v>30.450262422925338</v>
       </c>
       <c r="U96" s="26">
         <f ca="1">(N96*2+O96*2+P96+Q96)/6</f>
-        <v>31.064640530547013</v>
+        <v>31.73624209958345</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -8925,713 +8948,1039 @@
         <v>14</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C97" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D97" s="23"/>
+        <v>2022</v>
+      </c>
+      <c r="D97" s="23">
+        <v>1422000</v>
+      </c>
       <c r="E97" s="8">
-        <v>147784124.19999999</v>
+        <v>171231415.30000001</v>
       </c>
       <c r="F97" s="8">
-        <v>29747686.010000002</v>
+        <v>37795692.32</v>
       </c>
       <c r="G97" s="8">
-        <v>201622056.19999999</v>
+        <v>237228536.25</v>
       </c>
       <c r="H97" s="5">
         <f>G97</f>
-        <v>201622056.19999999</v>
+        <v>237228536.25</v>
       </c>
       <c r="I97" s="10">
-        <v>893</v>
+        <v>960</v>
       </c>
       <c r="J97" s="12">
-        <v>32549</v>
+        <v>32000</v>
       </c>
       <c r="K97" s="13">
-        <v>10.27</v>
+        <v>14.41</v>
       </c>
       <c r="N97" s="32">
         <f>LOG((D97+E97)/(F97+E97)+1,V$3)</f>
-        <v>56.592169024320846</v>
+        <v>55.595390886039787</v>
       </c>
       <c r="O97" s="15">
         <f>LOG(I97*H97/J97^2,W$3)</f>
-        <v>33.487807859422013</v>
+        <v>35.319988668912117</v>
       </c>
       <c r="P97" s="10">
         <f>LOG(K97/J97+1,X$3)</f>
-        <v>5.625488888417606</v>
+        <v>8.31977965994753</v>
       </c>
       <c r="R97" s="15">
         <f>(N97+O97)/2</f>
-        <v>45.039988441871429</v>
+        <v>45.457689777475949</v>
       </c>
       <c r="S97" s="10">
         <f>(N97+O97+P97)/3</f>
-        <v>31.90182192405349</v>
+        <v>33.078386404966473</v>
       </c>
       <c r="T97" s="11">
         <f>(N97+O97+Q97)/3</f>
-        <v>30.02665896124762</v>
+        <v>30.305126518317298</v>
       </c>
       <c r="U97" s="26">
         <f>(N97*2+O97*2+P97+Q97)/6</f>
-        <v>30.964240442650553</v>
+        <v>31.691756461641887</v>
       </c>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="57">
-        <v>2023</v>
-      </c>
-      <c r="D98" s="22">
-        <v>15058000</v>
-      </c>
-      <c r="E98" s="7">
-        <v>107002000</v>
-      </c>
-      <c r="F98" s="7">
-        <v>507211000</v>
-      </c>
-      <c r="G98" s="7">
-        <v>985279000</v>
-      </c>
-      <c r="H98" s="5" cm="1">
-        <f t="array" aca="1" ref="H98" ca="1">G98/INDIRECT("EUR!$B$48")</f>
-        <v>1149215780.2715113</v>
+      <c r="A98" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="55">
+        <v>2022</v>
+      </c>
+      <c r="D98" s="23">
+        <v>51422.97</v>
+      </c>
+      <c r="E98" s="8">
+        <v>417456877.80000001</v>
+      </c>
+      <c r="F98" s="8">
+        <v>92035021.359999999</v>
+      </c>
+      <c r="G98" s="8">
+        <v>596878424.63999999</v>
+      </c>
+      <c r="H98" s="5">
+        <f>G98</f>
+        <v>596878424.63999999</v>
       </c>
       <c r="I98" s="10">
-        <v>3530</v>
+        <v>2377</v>
       </c>
       <c r="J98" s="12">
-        <v>37190</v>
+        <v>81000</v>
       </c>
       <c r="K98" s="13">
-        <v>74.2</v>
-      </c>
-      <c r="L98" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M98" s="11">
-        <v>18</v>
+        <v>33.51</v>
       </c>
       <c r="N98" s="32">
         <f>LOG((D98+E98)/(F98+E98)+1,V$3)</f>
-        <v>16.937013014977477</v>
+        <v>55.264825083134305</v>
       </c>
       <c r="O98" s="15">
-        <f ca="1">LOG(I98*H98/J98^2,W$3)</f>
-        <v>52.061309412943025</v>
+        <f>LOG(I98*H98/J98^2,W$3)</f>
+        <v>35.13650436920279</v>
       </c>
       <c r="P98" s="10">
         <f>LOG(K98/J98+1,X$3)</f>
-        <v>35.541915278097648</v>
-      </c>
-      <c r="Q98" s="26">
-        <f>LOG(L98*M98/J98+1,Y$3)</f>
-        <v>9.6910696320590812</v>
+        <v>7.643551177381684</v>
       </c>
       <c r="R98" s="15">
-        <f ca="1">(N98+O98)/2</f>
-        <v>34.499161213960249</v>
+        <f>(N98+O98)/2</f>
+        <v>45.200664726168547</v>
       </c>
       <c r="S98" s="10">
-        <f ca="1">(N98+O98+P98)/3</f>
-        <v>34.846745902006049</v>
+        <f>(N98+O98+P98)/3</f>
+        <v>32.681626876572928</v>
       </c>
       <c r="T98" s="11">
-        <f ca="1">(N98+O98+Q98)/3</f>
-        <v>26.229797353326529</v>
+        <f>(N98+O98+Q98)/3</f>
+        <v>30.133776484112364</v>
       </c>
       <c r="U98" s="26">
-        <f ca="1">(N98*2+O98*2+P98+Q98)/6</f>
-        <v>30.538271627666287</v>
+        <f>(N98*2+O98*2+P98+Q98)/6</f>
+        <v>31.407701680342644</v>
       </c>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="57">
-        <v>2023</v>
-      </c>
-      <c r="D99" s="22">
-        <v>3189000</v>
-      </c>
-      <c r="E99" s="7">
-        <v>59459000</v>
-      </c>
-      <c r="F99" s="7">
-        <v>256284000</v>
-      </c>
-      <c r="G99" s="7">
-        <v>518675000</v>
-      </c>
-      <c r="H99" s="5" cm="1">
-        <f t="array" aca="1" ref="H99" ca="1">G99/INDIRECT("EUR!$B$48")</f>
-        <v>604975336.76484132</v>
+      <c r="A99" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="55">
+        <v>2021</v>
+      </c>
+      <c r="D99" s="23"/>
+      <c r="E99" s="8">
+        <v>174402468</v>
+      </c>
+      <c r="F99" s="8">
+        <v>32620403</v>
+      </c>
+      <c r="G99" s="8">
+        <v>296151444</v>
+      </c>
+      <c r="H99" s="5">
+        <f>G99</f>
+        <v>296151444</v>
       </c>
       <c r="I99" s="10">
-        <v>2160</v>
+        <v>1217</v>
       </c>
       <c r="J99" s="12">
-        <v>23420</v>
+        <v>39700</v>
       </c>
       <c r="K99" s="13">
-        <v>35.11</v>
-      </c>
-      <c r="L99" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M99" s="11">
-        <v>23</v>
+        <v>8.24</v>
       </c>
       <c r="N99" s="32">
         <f>LOG((D99+E99)/(F99+E99)+1,V$3)</f>
-        <v>16.912742750651852</v>
+        <v>56.423233949020002</v>
       </c>
       <c r="O99" s="15">
-        <f ca="1">LOG(I99*H99/J99^2,W$3)</f>
-        <v>50.705375040613788</v>
+        <f>LOG(I99*H99/J99^2,W$3)</f>
+        <v>35.501848266855212</v>
       </c>
       <c r="P99" s="10">
         <f>LOG(K99/J99+1,X$3)</f>
-        <v>26.712503409572601</v>
-      </c>
-      <c r="Q99" s="26">
-        <f>LOG(L99*M99/J99+1,Y$3)</f>
-        <v>19.656412196846556</v>
+        <v>3.8351930209912086</v>
       </c>
       <c r="R99" s="15">
-        <f ca="1">(N99+O99)/2</f>
-        <v>33.809058895632816</v>
+        <f>(N99+O99)/2</f>
+        <v>45.962541107937611</v>
       </c>
       <c r="S99" s="10">
-        <f ca="1">(N99+O99+P99)/3</f>
-        <v>31.443540400279414</v>
+        <f>(N99+O99+P99)/3</f>
+        <v>31.920091745622145</v>
       </c>
       <c r="T99" s="11">
-        <f ca="1">(N99+O99+Q99)/3</f>
-        <v>29.091509996037399</v>
+        <f>(N99+O99+Q99)/3</f>
+        <v>30.641694071958408</v>
       </c>
       <c r="U99" s="26">
-        <f ca="1">(N99*2+O99*2+P99+Q99)/6</f>
-        <v>30.267525198158406</v>
+        <f>(N99*2+O99*2+P99+Q99)/6</f>
+        <v>31.280892908790275</v>
       </c>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="57">
+      <c r="B100" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="55">
         <v>2023</v>
       </c>
       <c r="D100" s="22">
-        <v>3954000</v>
+        <v>655000</v>
       </c>
       <c r="E100" s="7">
-        <v>50464000</v>
+        <v>22578000</v>
       </c>
       <c r="F100" s="7">
-        <v>199319000</v>
+        <v>136722000</v>
       </c>
       <c r="G100" s="7">
-        <v>381775000</v>
+        <v>216104000</v>
       </c>
       <c r="H100" s="5" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">G100/INDIRECT("EUR!$B$48")</f>
-        <v>445297072.72067732</v>
+        <v>252060712.73192129</v>
       </c>
       <c r="I100" s="10">
-        <v>1495</v>
+        <v>880</v>
       </c>
       <c r="J100" s="12">
-        <v>17770</v>
+        <v>12480</v>
       </c>
       <c r="K100" s="13">
-        <v>18.32</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L100" s="14">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M100" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N100" s="32">
         <f>LOG((D100+E100)/(F100+E100)+1,V$3)</f>
-        <v>18.416828764383052</v>
+        <v>12.570342506902175</v>
       </c>
       <c r="O100" s="15">
         <f ca="1">LOG(I100*H100/J100^2,W$3)</f>
-        <v>49.908065149290543</v>
+        <v>47.455090596296913</v>
       </c>
       <c r="P100" s="10">
         <f>LOG(K100/J100+1,X$3)</f>
-        <v>18.374276760363102</v>
+        <v>12.878014876920172</v>
       </c>
       <c r="Q100" s="26">
         <f>LOG(L100*M100/J100+1,Y$3)</f>
-        <v>26.275137731038107</v>
+        <v>54.295033414113746</v>
       </c>
       <c r="R100" s="15">
         <f ca="1">(N100+O100)/2</f>
-        <v>34.162446956836796</v>
+        <v>30.012716551599546</v>
       </c>
       <c r="S100" s="10">
         <f ca="1">(N100+O100+P100)/3</f>
-        <v>28.89972355801223</v>
+        <v>24.301149326706422</v>
       </c>
       <c r="T100" s="11">
         <f ca="1">(N100+O100+Q100)/3</f>
-        <v>31.533343881570563</v>
+        <v>38.10682217243761</v>
       </c>
       <c r="U100" s="26">
         <f ca="1">(N100*2+O100*2+P100+Q100)/6</f>
-        <v>30.2165337197914</v>
+        <v>31.203985749572013</v>
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="57">
-        <v>2023</v>
-      </c>
-      <c r="D101" s="22">
-        <v>1500000</v>
-      </c>
-      <c r="E101" s="7">
-        <v>46700000</v>
-      </c>
-      <c r="F101" s="7">
-        <v>205900000</v>
-      </c>
-      <c r="G101" s="7">
-        <v>363000000</v>
-      </c>
-      <c r="H101" s="5" cm="1">
-        <f t="array" aca="1" ref="H101" ca="1">G101/INDIRECT("EUR!$B$48")</f>
-        <v>423398172.73945618</v>
+      <c r="A101" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="55">
+        <v>2021</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="8">
+        <v>147784124.19999999</v>
+      </c>
+      <c r="F101" s="8">
+        <v>29747686.010000002</v>
+      </c>
+      <c r="G101" s="8">
+        <v>201622056.19999999</v>
+      </c>
+      <c r="H101" s="5">
+        <f>G101</f>
+        <v>201622056.19999999</v>
       </c>
       <c r="I101" s="10">
-        <v>1290</v>
+        <v>893</v>
       </c>
       <c r="J101" s="12">
-        <v>18890</v>
+        <v>32549</v>
       </c>
       <c r="K101" s="13">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="L101" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M101" s="11">
-        <v>16</v>
+        <v>10.27</v>
       </c>
       <c r="N101" s="32">
         <f>LOG((D101+E101)/(F101+E101)+1,V$3)</f>
-        <v>16.31835816334047</v>
+        <v>55.92105074185659</v>
       </c>
       <c r="O101" s="15">
-        <f ca="1">LOG(I101*H101/J101^2,W$3)</f>
-        <v>47.820380909245074</v>
+        <f>LOG(I101*H101/J101^2,W$3)</f>
+        <v>33.562008408932641</v>
       </c>
       <c r="P101" s="10">
         <f>LOG(K101/J101+1,X$3)</f>
-        <v>32.189058421076503</v>
-      </c>
-      <c r="Q101" s="26">
-        <f>LOG(L101*M101/J101+1,Y$3)</f>
-        <v>18.084463202107486</v>
+        <v>5.8298834831438606</v>
       </c>
       <c r="R101" s="15">
-        <f ca="1">(N101+O101)/2</f>
-        <v>32.069369536292768</v>
+        <f>(N101+O101)/2</f>
+        <v>44.741529575394615</v>
       </c>
       <c r="S101" s="10">
-        <f ca="1">(N101+O101+P101)/3</f>
-        <v>32.109265831220682</v>
+        <f>(N101+O101+P101)/3</f>
+        <v>31.770980877977696</v>
       </c>
       <c r="T101" s="11">
-        <f ca="1">(N101+O101+Q101)/3</f>
-        <v>27.40773409156434</v>
+        <f>(N101+O101+Q101)/3</f>
+        <v>29.827686383596411</v>
       </c>
       <c r="U101" s="26">
-        <f ca="1">(N101*2+O101*2+P101+Q101)/6</f>
-        <v>29.758499961392513</v>
+        <f>(N101*2+O101*2+P101+Q101)/6</f>
+        <v>30.799333630787057</v>
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C102" s="57">
+      <c r="A102" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="55">
         <v>2023</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="8">
-        <v>9994324.3000000007</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8">
-        <v>21431000.629999999</v>
-      </c>
-      <c r="H102" s="5">
-        <f>G102</f>
-        <v>21431000.629999999</v>
+      <c r="D102" s="22">
+        <v>15058000</v>
+      </c>
+      <c r="E102" s="7">
+        <v>107002000</v>
+      </c>
+      <c r="F102" s="7">
+        <v>507211000</v>
+      </c>
+      <c r="G102" s="7">
+        <v>985279000</v>
+      </c>
+      <c r="H102" s="5" cm="1">
+        <f t="array" aca="1" ref="H102" ca="1">G102/INDIRECT("EUR!$B$48")</f>
+        <v>1149215780.2715113</v>
       </c>
       <c r="I102" s="10">
-        <v>7900</v>
+        <v>3530</v>
       </c>
       <c r="J102" s="12">
-        <v>72480</v>
+        <v>37190</v>
       </c>
       <c r="K102" s="13">
-        <v>10.83</v>
+        <v>74.2</v>
+      </c>
+      <c r="L102" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="M102" s="11">
+        <v>18</v>
       </c>
       <c r="N102" s="32">
         <f>LOG((D102+E102)/(F102+E102)+1,V$3)</f>
-        <v>64.768258915555066</v>
+        <v>16.736159446707259</v>
       </c>
       <c r="O102" s="15">
-        <f>LOG(I102*H102/J102^2,W$3)</f>
-        <v>22.645877737439069</v>
+        <f ca="1">LOG(I102*H102/J102^2,W$3)</f>
+        <v>52.176664164824658</v>
       </c>
       <c r="P102" s="10">
         <f>LOG(K102/J102+1,X$3)</f>
-        <v>2.6642428679150223</v>
+        <v>36.833283106415422</v>
+      </c>
+      <c r="Q102" s="26">
+        <f>LOG(L102*M102/J102+1,Y$3)</f>
+        <v>9.7768647330418403</v>
       </c>
       <c r="R102" s="15">
-        <f>(N102+O102)/2</f>
-        <v>43.707068326497065</v>
+        <f ca="1">(N102+O102)/2</f>
+        <v>34.45641180576596</v>
       </c>
       <c r="S102" s="10">
-        <f>(N102+O102+P102)/3</f>
-        <v>30.026126506969717</v>
+        <f ca="1">(N102+O102+P102)/3</f>
+        <v>35.248702239315783</v>
       </c>
       <c r="T102" s="11">
-        <f>(N102+O102+Q102)/3</f>
-        <v>29.138045550998044</v>
+        <f ca="1">(N102+O102+Q102)/3</f>
+        <v>26.229896114857922</v>
       </c>
       <c r="U102" s="26">
-        <f>(N102*2+O102*2+P102+Q102)/6</f>
-        <v>29.582086028983881</v>
+        <f ca="1">(N102*2+O102*2+P102+Q102)/6</f>
+        <v>30.739299177086849</v>
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="62" t="s">
-        <v>6</v>
+      <c r="A103" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>312</v>
       </c>
       <c r="C103" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D103" s="22">
-        <v>1397000</v>
-      </c>
-      <c r="E103" s="7">
-        <v>90199000</v>
-      </c>
-      <c r="F103" s="7">
-        <v>310617000</v>
-      </c>
-      <c r="G103" s="7">
-        <v>636381000</v>
-      </c>
-      <c r="H103" s="5" cm="1">
-        <f t="array" aca="1" ref="H103" ca="1">G103/INDIRECT("EUR!$B$48")</f>
-        <v>742265985.03060007</v>
+        <v>2022</v>
+      </c>
+      <c r="D103" s="23"/>
+      <c r="E103" s="8">
+        <v>34000000</v>
+      </c>
+      <c r="F103" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="G103" s="8">
+        <v>114000000</v>
+      </c>
+      <c r="H103" s="5">
+        <f>G103</f>
+        <v>114000000</v>
       </c>
       <c r="I103" s="10">
-        <v>2940</v>
+        <v>1432</v>
       </c>
       <c r="J103" s="12">
-        <v>33985</v>
+        <v>15250</v>
       </c>
       <c r="K103" s="13">
-        <v>41.21</v>
-      </c>
-      <c r="L103" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="M103" s="11">
-        <v>26</v>
+        <v>1.54</v>
       </c>
       <c r="N103" s="32">
         <f>LOG((D103+E103)/(F103+E103)+1,V$3)</f>
-        <v>19.231368420420132</v>
+        <v>47.901654814091273</v>
       </c>
       <c r="O103" s="15">
-        <f ca="1">LOG(I103*H103/J103^2,W$3)</f>
-        <v>49.193601524778423</v>
+        <f>LOG(I103*H103/J103^2,W$3)</f>
+        <v>42.831552268980474</v>
       </c>
       <c r="P103" s="10">
         <f>LOG(K103/J103+1,X$3)</f>
-        <v>21.609670552394149</v>
-      </c>
-      <c r="Q103" s="26">
-        <f>LOG(L103*M103/J103+1,Y$3)</f>
-        <v>17.355793005112275</v>
+        <v>1.8660554198550772</v>
       </c>
       <c r="R103" s="15">
-        <f ca="1">(N103+O103)/2</f>
-        <v>34.212484972599277</v>
+        <f>(N103+O103)/2</f>
+        <v>45.366603541535873</v>
       </c>
       <c r="S103" s="10">
-        <f ca="1">(N103+O103+P103)/3</f>
-        <v>30.0115468325309</v>
+        <f>(N103+O103+P103)/3</f>
+        <v>30.86642083430894</v>
       </c>
       <c r="T103" s="11">
-        <f ca="1">(N103+O103+Q103)/3</f>
-        <v>28.593587650103611</v>
+        <f>(N103+O103+Q103)/3</f>
+        <v>30.244402361023916</v>
       </c>
       <c r="U103" s="26">
-        <f ca="1">(N103*2+O103*2+P103+Q103)/6</f>
-        <v>29.302567241317252</v>
+        <f>(N103*2+O103*2+P103+Q103)/6</f>
+        <v>30.555411597666431</v>
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="63" t="s">
+      <c r="A104" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="64">
-        <v>2022</v>
+      <c r="B104" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="62">
+        <v>2023</v>
       </c>
       <c r="D104" s="22">
-        <v>4300000</v>
+        <v>3189000</v>
       </c>
       <c r="E104" s="7">
-        <v>108500000</v>
+        <v>59459000</v>
       </c>
       <c r="F104" s="7">
-        <v>433700000</v>
+        <v>256284000</v>
       </c>
       <c r="G104" s="7">
-        <v>801800000</v>
+        <v>518675000</v>
       </c>
       <c r="H104" s="5" cm="1">
         <f t="array" aca="1" ref="H104" ca="1">G104/INDIRECT("EUR!$B$48")</f>
-        <v>935208415.70935524</v>
+        <v>604975336.76484132</v>
       </c>
       <c r="I104" s="10">
-        <v>3320</v>
+        <v>2160</v>
       </c>
       <c r="J104" s="12">
-        <v>37260</v>
+        <v>23420</v>
       </c>
       <c r="K104" s="13">
-        <v>57.68</v>
+        <v>35.11</v>
       </c>
       <c r="L104" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M104" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N104" s="32">
         <f>LOG((D104+E104)/(F104+E104)+1,V$3)</f>
-        <v>17.660347782204969</v>
+        <v>16.712176999908152</v>
       </c>
       <c r="O104" s="15">
         <f ca="1">LOG(I104*H104/J104^2,W$3)</f>
-        <v>50.293114855545141</v>
+        <v>50.817725383369883</v>
       </c>
       <c r="P104" s="10">
         <f>LOG(K104/J104+1,X$3)</f>
-        <v>27.583060317689597</v>
+        <v>27.683066398287181</v>
       </c>
       <c r="Q104" s="26">
         <f>LOG(L104*M104/J104+1,Y$3)</f>
-        <v>11.033674262517106</v>
+        <v>19.830430538826921</v>
       </c>
       <c r="R104" s="15">
         <f ca="1">(N104+O104)/2</f>
-        <v>33.976731318875053</v>
+        <v>33.764951191639014</v>
       </c>
       <c r="S104" s="10">
         <f ca="1">(N104+O104+P104)/3</f>
-        <v>31.845507651813236</v>
+        <v>31.737656260521735</v>
       </c>
       <c r="T104" s="11">
         <f ca="1">(N104+O104+Q104)/3</f>
-        <v>26.329045633422407</v>
+        <v>29.120110974034983</v>
       </c>
       <c r="U104" s="26">
         <f ca="1">(N104*2+O104*2+P104+Q104)/6</f>
-        <v>29.08727664261782</v>
+        <v>30.428883617278359</v>
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="64">
+      <c r="A105" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="62">
         <v>2023</v>
       </c>
-      <c r="D105" s="23">
-        <v>5500000</v>
-      </c>
-      <c r="E105" s="8">
-        <v>12600000</v>
-      </c>
-      <c r="F105" s="8">
-        <v>219892056</v>
-      </c>
-      <c r="G105" s="8">
-        <v>291098453</v>
-      </c>
-      <c r="H105" s="5">
-        <f>G105</f>
-        <v>291098453</v>
+      <c r="D105" s="22">
+        <v>3954000</v>
+      </c>
+      <c r="E105" s="7">
+        <v>50464000</v>
+      </c>
+      <c r="F105" s="7">
+        <v>199319000</v>
+      </c>
+      <c r="G105" s="7">
+        <v>381775000</v>
+      </c>
+      <c r="H105" s="5" cm="1">
+        <f t="array" aca="1" ref="H105" ca="1">G105/INDIRECT("EUR!$B$48")</f>
+        <v>445297072.72067732</v>
       </c>
       <c r="I105" s="10">
-        <v>689</v>
+        <v>1495</v>
       </c>
       <c r="J105" s="12">
-        <v>15107</v>
+        <v>17770</v>
       </c>
       <c r="K105" s="13">
-        <v>1.68</v>
+        <v>18.32</v>
       </c>
       <c r="L105" s="14">
         <v>1.4</v>
       </c>
       <c r="M105" s="11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N105" s="32">
         <f>LOG((D105+E105)/(F105+E105)+1,V$3)</f>
-        <v>7.0052868826426371</v>
+        <v>18.198426276867874</v>
       </c>
       <c r="O105" s="15">
-        <f>LOG(I105*H105/J105^2,W$3)</f>
-        <v>44.202223510135092</v>
+        <f ca="1">LOG(I105*H105/J105^2,W$3)</f>
+        <v>50.018648854101428</v>
       </c>
       <c r="P105" s="10">
         <f>LOG(K105/J105+1,X$3)</f>
-        <v>1.9829094821250206</v>
+        <v>19.041881465716784</v>
       </c>
       <c r="Q105" s="26">
         <f>LOG(L105*M105/J105+1,Y$3)</f>
-        <v>12.369164880618458</v>
+        <v>26.507751692196006</v>
       </c>
       <c r="R105" s="15">
-        <f>(N105+O105)/2</f>
-        <v>25.603755196388864</v>
+        <f ca="1">(N105+O105)/2</f>
+        <v>34.108537565484653</v>
       </c>
       <c r="S105" s="10">
-        <f>(N105+O105+P105)/3</f>
-        <v>17.730139958300917</v>
+        <f ca="1">(N105+O105+P105)/3</f>
+        <v>29.086318865562031</v>
       </c>
       <c r="T105" s="11">
-        <f>(N105+O105+Q105)/3</f>
-        <v>21.192225091132062</v>
+        <f ca="1">(N105+O105+Q105)/3</f>
+        <v>31.574942274388437</v>
       </c>
       <c r="U105" s="26">
-        <f>(N105*2+O105*2+P105+Q105)/6</f>
-        <v>19.461182524716488</v>
+        <f ca="1">(N105*2+O105*2+P105+Q105)/6</f>
+        <v>30.330630569975231</v>
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="63" t="s">
+      <c r="A106" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="62" t="s">
-        <v>96</v>
+      <c r="B106" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="C106" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D106" s="22">
-        <v>5800000</v>
+        <v>1500000</v>
       </c>
       <c r="E106" s="7">
-        <v>113800000</v>
+        <v>46700000</v>
       </c>
       <c r="F106" s="7">
-        <v>432100000</v>
+        <v>205900000</v>
       </c>
       <c r="G106" s="7">
-        <v>554000000</v>
+        <v>363000000</v>
       </c>
       <c r="H106" s="5" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">G106/INDIRECT("EUR!$B$48")</f>
-        <v>646177927.54175949</v>
+        <v>423398172.73945618</v>
       </c>
       <c r="I106" s="10">
-        <v>3255</v>
+        <v>1290</v>
       </c>
       <c r="J106" s="12">
-        <v>151840</v>
+        <v>18890</v>
       </c>
       <c r="K106" s="13">
-        <v>4.3600000000000003</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="L106" s="14">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M106" s="11">
         <v>16</v>
       </c>
       <c r="N106" s="32">
         <f>LOG((D106+E106)/(F106+E106)+1,V$3)</f>
-        <v>18.51089593018958</v>
+        <v>16.124841132768431</v>
       </c>
       <c r="O106" s="15">
         <f ca="1">LOG(I106*H106/J106^2,W$3)</f>
-        <v>29.431046557722386</v>
+        <v>47.926338831488565</v>
       </c>
       <c r="P106" s="10">
         <f>LOG(K106/J106+1,X$3)</f>
-        <v>0.51202367588340658</v>
+        <v>33.358604691826727</v>
       </c>
       <c r="Q106" s="26">
         <f>LOG(L106*M106/J106+1,Y$3)</f>
-        <v>1.9697972223074467</v>
+        <v>18.244565069656872</v>
       </c>
       <c r="R106" s="15">
         <f ca="1">(N106+O106)/2</f>
-        <v>23.970971243955983</v>
+        <v>32.025589982128494</v>
       </c>
       <c r="S106" s="10">
         <f ca="1">(N106+O106+P106)/3</f>
-        <v>16.151322054598456</v>
+        <v>32.469928218694569</v>
       </c>
       <c r="T106" s="11">
         <f ca="1">(N106+O106+Q106)/3</f>
-        <v>16.637246570073138</v>
+        <v>27.431915011304621</v>
       </c>
       <c r="U106" s="26">
         <f ca="1">(N106*2+O106*2+P106+Q106)/6</f>
-        <v>16.394284312335799</v>
+        <v>29.95092161499959</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="67">
+        <v>2023</v>
+      </c>
+      <c r="D107" s="22">
+        <v>1397000</v>
+      </c>
+      <c r="E107" s="7">
+        <v>90199000</v>
+      </c>
+      <c r="F107" s="7">
+        <v>310617000</v>
+      </c>
+      <c r="G107" s="7">
+        <v>636381000</v>
+      </c>
+      <c r="H107" s="5" cm="1">
+        <f t="array" aca="1" ref="H107" ca="1">G107/INDIRECT("EUR!$B$48")</f>
+        <v>742265985.03060007</v>
+      </c>
+      <c r="I107" s="10">
+        <v>2940</v>
+      </c>
+      <c r="J107" s="12">
+        <v>33985</v>
+      </c>
+      <c r="K107" s="13">
+        <v>41.21</v>
+      </c>
+      <c r="L107" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="M107" s="11">
+        <v>26</v>
+      </c>
+      <c r="N107" s="32">
+        <f>LOG((D107+E107)/(F107+E107)+1,V$3)</f>
+        <v>19.003306425867443</v>
+      </c>
+      <c r="O107" s="15">
+        <f ca="1">LOG(I107*H107/J107^2,W$3)</f>
+        <v>49.302602158109472</v>
+      </c>
+      <c r="P107" s="10">
+        <f>LOG(K107/J107+1,X$3)</f>
+        <v>22.394828952372237</v>
+      </c>
+      <c r="Q107" s="26">
+        <f>LOG(L107*M107/J107+1,Y$3)</f>
+        <v>17.509443950781222</v>
+      </c>
+      <c r="R107" s="15">
+        <f ca="1">(N107+O107)/2</f>
+        <v>34.152954291988458</v>
+      </c>
+      <c r="S107" s="10">
+        <f ca="1">(N107+O107+P107)/3</f>
+        <v>30.233579178783049</v>
+      </c>
+      <c r="T107" s="11">
+        <f ca="1">(N107+O107+Q107)/3</f>
+        <v>28.605117511586045</v>
+      </c>
+      <c r="U107" s="26">
+        <f ca="1">(N107*2+O107*2+P107+Q107)/6</f>
+        <v>29.419348345184549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" s="19">
+        <v>2023</v>
+      </c>
+      <c r="D108" s="23"/>
+      <c r="E108" s="8">
+        <v>9994324.3000000007</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8">
+        <v>21431000.629999999</v>
+      </c>
+      <c r="H108" s="5">
+        <f>G108</f>
+        <v>21431000.629999999</v>
+      </c>
+      <c r="I108" s="10">
+        <v>7900</v>
+      </c>
+      <c r="J108" s="12">
+        <v>72480</v>
+      </c>
+      <c r="K108" s="13">
+        <v>10.83</v>
+      </c>
+      <c r="N108" s="32">
+        <f>LOG((D108+E108)/(F108+E108)+1,V$3)</f>
+        <v>64.000181574979436</v>
+      </c>
+      <c r="O108" s="15">
+        <f>LOG(I108*H108/J108^2,W$3)</f>
+        <v>22.696055299951446</v>
+      </c>
+      <c r="P108" s="10">
+        <f>LOG(K108/J108+1,X$3)</f>
+        <v>2.761044559650828</v>
+      </c>
+      <c r="R108" s="15">
+        <f>(N108+O108)/2</f>
+        <v>43.348118437465445</v>
+      </c>
+      <c r="S108" s="10">
+        <f>(N108+O108+P108)/3</f>
+        <v>29.819093811527239</v>
+      </c>
+      <c r="T108" s="11">
+        <f>(N108+O108+Q108)/3</f>
+        <v>28.898745624976964</v>
+      </c>
+      <c r="U108" s="26">
+        <f>(N108*2+O108*2+P108+Q108)/6</f>
+        <v>29.3589197182521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="19">
+        <v>2022</v>
+      </c>
+      <c r="D109" s="22">
+        <v>4300000</v>
+      </c>
+      <c r="E109" s="7">
+        <v>108500000</v>
+      </c>
+      <c r="F109" s="7">
+        <v>433700000</v>
+      </c>
+      <c r="G109" s="7">
+        <v>801800000</v>
+      </c>
+      <c r="H109" s="5" cm="1">
+        <f t="array" aca="1" ref="H109" ca="1">G109/INDIRECT("EUR!$B$48")</f>
+        <v>935208415.70935524</v>
+      </c>
+      <c r="I109" s="10">
+        <v>3320</v>
+      </c>
+      <c r="J109" s="12">
+        <v>37260</v>
+      </c>
+      <c r="K109" s="13">
+        <v>57.68</v>
+      </c>
+      <c r="L109" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M109" s="11">
+        <v>22</v>
+      </c>
+      <c r="N109" s="32">
+        <f>LOG((D109+E109)/(F109+E109)+1,V$3)</f>
+        <v>17.450916292377794</v>
+      </c>
+      <c r="O109" s="15">
+        <f ca="1">LOG(I109*H109/J109^2,W$3)</f>
+        <v>50.404551733544096</v>
+      </c>
+      <c r="P109" s="10">
+        <f>LOG(K109/J109+1,X$3)</f>
+        <v>28.585253824204518</v>
+      </c>
+      <c r="Q109" s="26">
+        <f>LOG(L109*M109/J109+1,Y$3)</f>
+        <v>11.13135545081772</v>
+      </c>
+      <c r="R109" s="15">
+        <f ca="1">(N109+O109)/2</f>
+        <v>33.927734012960947</v>
+      </c>
+      <c r="S109" s="10">
+        <f ca="1">(N109+O109+P109)/3</f>
+        <v>32.146907283375469</v>
+      </c>
+      <c r="T109" s="11">
+        <f ca="1">(N109+O109+Q109)/3</f>
+        <v>26.328941158913207</v>
+      </c>
+      <c r="U109" s="26">
+        <f ca="1">(N109*2+O109*2+P109+Q109)/6</f>
+        <v>29.23792422114434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="19">
+        <v>2023</v>
+      </c>
+      <c r="D110" s="23">
+        <v>5500000</v>
+      </c>
+      <c r="E110" s="8">
+        <v>12600000</v>
+      </c>
+      <c r="F110" s="8">
+        <v>219892056</v>
+      </c>
+      <c r="G110" s="8">
+        <v>291098453</v>
+      </c>
+      <c r="H110" s="5">
+        <f>G110</f>
+        <v>291098453</v>
+      </c>
+      <c r="I110" s="10">
+        <v>689</v>
+      </c>
+      <c r="J110" s="12">
+        <v>15107</v>
+      </c>
+      <c r="K110" s="13">
+        <v>1.68</v>
+      </c>
+      <c r="L110" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M110" s="11">
+        <v>10</v>
+      </c>
+      <c r="N110" s="32">
+        <f>LOG((D110+E110)/(F110+E110)+1,V$3)</f>
+        <v>6.922212206730709</v>
+      </c>
+      <c r="O110" s="15">
+        <f>LOG(I110*H110/J110^2,W$3)</f>
+        <v>44.300164506685604</v>
+      </c>
+      <c r="P110" s="10">
+        <f>LOG(K110/J110+1,X$3)</f>
+        <v>2.0549558389869564</v>
+      </c>
+      <c r="Q110" s="26">
+        <f>LOG(L110*M110/J110+1,Y$3)</f>
+        <v>12.478669175840365</v>
+      </c>
+      <c r="R110" s="15">
+        <f>(N110+O110)/2</f>
+        <v>25.611188356708155</v>
+      </c>
+      <c r="S110" s="10">
+        <f>(N110+O110+P110)/3</f>
+        <v>17.75911085080109</v>
+      </c>
+      <c r="T110" s="11">
+        <f>(N110+O110+Q110)/3</f>
+        <v>21.233681963085559</v>
+      </c>
+      <c r="U110" s="26">
+        <f>(N110*2+O110*2+P110+Q110)/6</f>
+        <v>19.496396406943322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="19">
+        <v>2022</v>
+      </c>
+      <c r="D111" s="22">
+        <v>5800000</v>
+      </c>
+      <c r="E111" s="7">
+        <v>113800000</v>
+      </c>
+      <c r="F111" s="7">
+        <v>432100000</v>
+      </c>
+      <c r="G111" s="7">
+        <v>554000000</v>
+      </c>
+      <c r="H111" s="5" cm="1">
+        <f t="array" aca="1" ref="H111" ca="1">G111/INDIRECT("EUR!$B$48")</f>
+        <v>646177927.54175949</v>
+      </c>
+      <c r="I111" s="10">
+        <v>3255</v>
+      </c>
+      <c r="J111" s="12">
+        <v>151840</v>
+      </c>
+      <c r="K111" s="13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L111" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M111" s="11">
+        <v>16</v>
+      </c>
+      <c r="N111" s="32">
+        <f>LOG((D111+E111)/(F111+E111)+1,V$3)</f>
+        <v>18.2913779138682</v>
+      </c>
+      <c r="O111" s="15">
+        <f ca="1">LOG(I111*H111/J111^2,W$3)</f>
+        <v>29.496258345738593</v>
+      </c>
+      <c r="P111" s="10">
+        <f>LOG(K111/J111+1,X$3)</f>
+        <v>0.53062736949978029</v>
+      </c>
+      <c r="Q111" s="26">
+        <f>LOG(L111*M111/J111+1,Y$3)</f>
+        <v>1.9872358496230897</v>
+      </c>
+      <c r="R111" s="15">
+        <f ca="1">(N111+O111)/2</f>
+        <v>23.893818129803396</v>
+      </c>
+      <c r="S111" s="10">
+        <f ca="1">(N111+O111+P111)/3</f>
+        <v>16.106087876368857</v>
+      </c>
+      <c r="T111" s="11">
+        <f ca="1">(N111+O111+Q111)/3</f>
+        <v>16.591624036409961</v>
+      </c>
+      <c r="U111" s="26">
+        <f ca="1">(N111*2+O111*2+P111+Q111)/6</f>
+        <v>16.348855956389411</v>
       </c>
     </row>
   </sheetData>

--- a/Clare EU UniRanks.xlsx
+++ b/Clare EU UniRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_video_\_product_\润欧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB039A47-7265-4736-98AE-C7D78EDBDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E79F08-DAD5-49DD-99C3-246075DA79AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A1035668-96FD-4567-8AB6-476E54D5DE6A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ranking!$A$1:$U$1</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">EUR!$A$1:$B$163</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Ranking!$Y$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Ranking!$X$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -33,7 +33,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Ranking!$Y$5</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Ranking!$X$5</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="320">
   <si>
     <t>University of Oxford</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1218,6 +1218,14 @@
   </si>
   <si>
     <t>LU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Åbo Akademi University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lappeenranta University of Technology (LUT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1399,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,9 +1588,6 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,6 +1613,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1956,7 +1967,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}" name="表1" displayName="表1" ref="A1:U1048575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:U1048575" xr:uid="{1DDBCB1E-2FB9-4114-B8CF-95FD6E1F7F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U111">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U116">
     <sortCondition descending="1" ref="U1:U1048575"/>
   </sortState>
   <tableColumns count="21">
@@ -2294,16 +2305,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EADB2E-31B7-43C5-A48F-1390AF0B99DF}">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="12.78515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.92578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.640625" style="22" bestFit="1" customWidth="1"/>
@@ -2410,10 +2421,10 @@
       <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" ht="14.6" thickTop="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="19">
@@ -2452,15 +2463,15 @@
       </c>
       <c r="N2" s="32">
         <f>LOG((D2+E2)/(F2+E2)+1,V$3)</f>
-        <v>64.058824158452282</v>
+        <v>63.654035139360758</v>
       </c>
       <c r="O2" s="15">
         <f ca="1">LOG(I2*H2/J2^2,W$3)</f>
-        <v>67.163118203025746</v>
+        <v>67.184344087241158</v>
       </c>
       <c r="P2" s="10">
         <f>LOG(K2/J2+1,X$3)</f>
-        <v>272.24598708658715</v>
+        <v>276.22118087936224</v>
       </c>
       <c r="Q2" s="26">
         <f>LOG(L2*M2/J2+1,Y$3)</f>
@@ -2468,26 +2479,26 @@
       </c>
       <c r="R2" s="15">
         <f ca="1">(N2+O2)/2</f>
-        <v>65.610971180739014</v>
+        <v>65.419189613300958</v>
       </c>
       <c r="S2" s="10">
         <f ca="1">(N2+O2+P2)/3</f>
-        <v>134.48930981602174</v>
+        <v>135.68652003532137</v>
       </c>
       <c r="T2" s="11">
         <f ca="1">(N2+O2+Q2)/3</f>
-        <v>171.12552613329771</v>
+        <v>170.99767175500565</v>
       </c>
       <c r="U2" s="26">
         <f ca="1">(N2*2+O2*2+P2+Q2)/6</f>
-        <v>152.80741797465973</v>
-      </c>
-      <c r="V2" s="70" t="s">
+        <v>153.34209589516351</v>
+      </c>
+      <c r="V2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="35" t="s">
@@ -2530,15 +2541,15 @@
       </c>
       <c r="N3" s="32">
         <f>LOG((D3+E3)/(F3+E3)+1,V$3)</f>
-        <v>62.737403327450608</v>
+        <v>62.340964393597382</v>
       </c>
       <c r="O3" s="15">
         <f ca="1">LOG(I3*H3/J3^2,W$3)</f>
-        <v>54.566875636817748</v>
+        <v>54.584120669735405</v>
       </c>
       <c r="P3" s="10">
         <f>LOG(K3/J3+1,X$3)</f>
-        <v>3.6935798378361535</v>
+        <v>3.7475115626031954</v>
       </c>
       <c r="Q3" s="26">
         <f>LOG(L3*M3/J3+1,Y$3)</f>
@@ -2546,28 +2557,28 @@
       </c>
       <c r="R3" s="15">
         <f ca="1">(N3+O3)/2</f>
-        <v>58.652139482134174</v>
+        <v>58.462542531666394</v>
       </c>
       <c r="S3" s="10">
         <f ca="1">(N3+O3+P3)/3</f>
-        <v>40.332619600701499</v>
+        <v>40.224198875311991</v>
       </c>
       <c r="T3" s="11">
         <f ca="1">(N3+O3+Q3)/3</f>
-        <v>256.92456329715282</v>
+        <v>256.79816533017424</v>
       </c>
       <c r="U3" s="26">
         <f ca="1">(N3*2+O3*2+P3+Q3)/6</f>
-        <v>148.62859144892715</v>
+        <v>148.51118210274311</v>
       </c>
       <c r="V3" s="2">
-        <v>1.010889254990097</v>
+        <v>1.010958880048743</v>
       </c>
       <c r="W3" s="2">
-        <v>1.1653423724113168</v>
+        <v>1.1652860378981438</v>
       </c>
       <c r="X3" s="2">
-        <v>1.000054114813083</v>
+        <v>1.0000533360074715</v>
       </c>
       <c r="Y3" s="29">
         <v>1.0000742329118755</v>
@@ -2616,15 +2627,15 @@
       </c>
       <c r="N4" s="32">
         <f>LOG((D4+E4)/(F4+E4)+1,V$3)</f>
-        <v>67.076605282353739</v>
+        <v>66.652746842662864</v>
       </c>
       <c r="O4" s="15">
         <f ca="1">LOG(I4*H4/J4^2,W$3)</f>
-        <v>65.846791781958572</v>
+        <v>65.867601661185674</v>
       </c>
       <c r="P4" s="10">
         <f>LOG(K4/J4+1,X$3)</f>
-        <v>254.18460020908944</v>
+        <v>257.89607105860767</v>
       </c>
       <c r="Q4" s="26">
         <f>LOG(L4*M4/J4+1,Y$3)</f>
@@ -2632,26 +2643,26 @@
       </c>
       <c r="R4" s="15">
         <f ca="1">(N4+O4)/2</f>
-        <v>66.461698532156163</v>
+        <v>66.260174251924269</v>
       </c>
       <c r="S4" s="10">
         <f ca="1">(N4+O4+P4)/3</f>
-        <v>129.03599909113393</v>
+        <v>130.13880652081875</v>
       </c>
       <c r="T4" s="11">
         <f ca="1">(N4+O4+Q4)/3</f>
-        <v>127.87329482440002</v>
+        <v>127.73894530424542</v>
       </c>
       <c r="U4" s="26">
         <f ca="1">(N4*2+O4*2+P4+Q4)/6</f>
-        <v>128.45464695776698</v>
-      </c>
-      <c r="V4" s="70" t="s">
+        <v>128.93887591253207</v>
+      </c>
+      <c r="V4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="40" t="s">
@@ -2688,45 +2699,45 @@
       </c>
       <c r="N5" s="32">
         <f>LOG((D5+E5)/(F5+E5)+1,V$3)</f>
-        <v>64.020047180571396</v>
+        <v>63.615503193995629</v>
       </c>
       <c r="O5" s="15">
         <f>LOG(I5*H5/J5^2,W$3)</f>
-        <v>68.163605698367093</v>
+        <v>68.18514777147162</v>
       </c>
       <c r="P5" s="10">
         <f>LOG(K5/J5+1,X$3)</f>
-        <v>380.333887715191</v>
+        <v>385.88732461175243</v>
       </c>
       <c r="R5" s="15">
         <f>(N5+O5)/2</f>
-        <v>66.091826439469244</v>
+        <v>65.900325482733621</v>
       </c>
       <c r="S5" s="10">
         <f>(N5+O5+P5)/3</f>
-        <v>170.83918019804318</v>
+        <v>172.56265852573992</v>
       </c>
       <c r="T5" s="11">
         <f>(N5+O5+Q5)/3</f>
-        <v>44.061217626312832</v>
+        <v>43.933550321822416</v>
       </c>
       <c r="U5" s="26">
         <f>(N5*2+O5*2+P5+Q5)/6</f>
-        <v>107.450198912178</v>
-      </c>
-      <c r="V5" s="68">
+        <v>108.24810442378116</v>
+      </c>
+      <c r="V5" s="67">
         <f>AVERAGE(N$1:N$1048575)</f>
-        <v>49.999996981850124</v>
-      </c>
-      <c r="W5" s="68">
+        <v>49.99999028677523</v>
+      </c>
+      <c r="W5" s="67">
         <f ca="1">AVERAGE(O$1:O$1048575)</f>
-        <v>49.999999292683995</v>
-      </c>
-      <c r="X5" s="68">
+        <v>50.000003065447423</v>
+      </c>
+      <c r="X5" s="67">
         <f>AVERAGE(P$1:P$1048575)</f>
-        <v>50.000020030706217</v>
-      </c>
-      <c r="Y5" s="69">
+        <v>49.999989060075038</v>
+      </c>
+      <c r="Y5" s="68">
         <f>AVERAGE(Q$1:Q$1048575)</f>
         <v>50.000022762279428</v>
       </c>
@@ -2735,7 +2746,7 @@
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="69" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="19">
@@ -2772,15 +2783,15 @@
       </c>
       <c r="N6" s="32">
         <f>LOG((D6+E6)/(F6+E6)+1,V$3)</f>
-        <v>56.463025945241647</v>
+        <v>56.106234930302321</v>
       </c>
       <c r="O6" s="15">
         <f ca="1">LOG(I6*H6/J6^2,W$3)</f>
-        <v>77.327398555693293</v>
+        <v>77.351836706457235</v>
       </c>
       <c r="P6" s="10">
         <f>LOG(K6/J6+1,X$3)</f>
-        <v>357.78853419719144</v>
+        <v>363.01277561021334</v>
       </c>
       <c r="Q6" s="26">
         <f>LOG(L6*M6/J6+1,Y$3)</f>
@@ -2788,30 +2799,30 @@
       </c>
       <c r="R6" s="15">
         <f ca="1">(N6+O6)/2</f>
-        <v>66.895212250467466</v>
+        <v>66.729035818379771</v>
       </c>
       <c r="S6" s="10">
         <f ca="1">(N6+O6+P6)/3</f>
-        <v>163.85965289937545</v>
+        <v>165.49028241565762</v>
       </c>
       <c r="T6" s="11">
         <f ca="1">(N6+O6+Q6)/3</f>
-        <v>45.640777210730654</v>
+        <v>45.529992922672193</v>
       </c>
       <c r="U6" s="26">
         <f ca="1">(N6*2+O6*2+P6+Q6)/6</f>
-        <v>104.75021505505305</v>
-      </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="72"/>
+        <v>105.51013766916491</v>
+      </c>
+      <c r="V6" s="72"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="73"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="69" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19">
@@ -2850,15 +2861,15 @@
       </c>
       <c r="N7" s="32">
         <f>LOG((D7+E7)/(F7+E7)+1,V$3)</f>
-        <v>41.581230920536662</v>
+        <v>41.318478272512579</v>
       </c>
       <c r="O7" s="15">
         <f ca="1">LOG(I7*H7/J7^2,W$3)</f>
-        <v>67.729941163248853</v>
+        <v>67.751346183258519</v>
       </c>
       <c r="P7" s="10">
         <f>LOG(K7/J7+1,X$3)</f>
-        <v>297.16398910732181</v>
+        <v>301.50302255856599</v>
       </c>
       <c r="Q7" s="26">
         <f>LOG(L7*M7/J7+1,Y$3)</f>
@@ -2866,26 +2877,26 @@
       </c>
       <c r="R7" s="15">
         <f ca="1">(N7+O7)/2</f>
-        <v>54.655586041892761</v>
+        <v>54.534912227885549</v>
       </c>
       <c r="S7" s="10">
         <f ca="1">(N7+O7+P7)/3</f>
-        <v>135.49172039703578</v>
+        <v>136.8576156714457</v>
       </c>
       <c r="T7" s="11">
         <f ca="1">(N7+O7+Q7)/3</f>
-        <v>66.840166595347782</v>
+        <v>66.75971738600964</v>
       </c>
       <c r="U7" s="26">
         <f ca="1">(N7*2+O7*2+P7+Q7)/6</f>
-        <v>101.16594349619179</v>
+        <v>101.80866652872767</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="19">
@@ -2924,15 +2935,15 @@
       </c>
       <c r="N8" s="32">
         <f>LOG((D8+E8)/(F8+E8)+1,V$3)</f>
-        <v>41.236116502515642</v>
+        <v>40.975544639552481</v>
       </c>
       <c r="O8" s="15">
         <f ca="1">LOG(I8*H8/J8^2,W$3)</f>
-        <v>67.402619084262994</v>
+        <v>67.423920659097149</v>
       </c>
       <c r="P8" s="10">
         <f>LOG(K8/J8+1,X$3)</f>
-        <v>254.5109558868287</v>
+        <v>258.22719201159771</v>
       </c>
       <c r="Q8" s="26">
         <f>LOG(L8*M8/J8+1,Y$3)</f>
@@ -2940,26 +2951,26 @@
       </c>
       <c r="R8" s="15">
         <f ca="1">(N8+O8)/2</f>
-        <v>54.319367793389318</v>
+        <v>54.199732649324815</v>
       </c>
       <c r="S8" s="10">
         <f ca="1">(N8+O8+P8)/3</f>
-        <v>121.04989715786911</v>
+        <v>122.20888577008243</v>
       </c>
       <c r="T8" s="11">
         <f ca="1">(N8+O8+Q8)/3</f>
-        <v>65.734450793065548</v>
+        <v>65.654694030355884</v>
       </c>
       <c r="U8" s="26">
         <f ca="1">(N8*2+O8*2+P8+Q8)/6</f>
-        <v>93.392173975467315</v>
+        <v>93.931789900219158</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="19">
@@ -2998,15 +3009,15 @@
       </c>
       <c r="N9" s="32">
         <f>LOG((D9+E9)/(F9+E9)+1,V$3)</f>
-        <v>29.072646262933912</v>
+        <v>28.888935617011679</v>
       </c>
       <c r="O9" s="15">
         <f ca="1">LOG(I9*H9/J9^2,W$3)</f>
-        <v>61.836322609443201</v>
+        <v>61.855865040752704</v>
       </c>
       <c r="P9" s="10">
         <f>LOG(K9/J9+1,X$3)</f>
-        <v>185.23436362824481</v>
+        <v>187.93905911479186</v>
       </c>
       <c r="Q9" s="26">
         <f>LOG(L9*M9/J9+1,Y$3)</f>
@@ -3014,26 +3025,26 @@
       </c>
       <c r="R9" s="15">
         <f ca="1">(N9+O9)/2</f>
-        <v>45.454484436188558</v>
+        <v>45.372400328882193</v>
       </c>
       <c r="S9" s="10">
         <f ca="1">(N9+O9+P9)/3</f>
-        <v>92.047777500207303</v>
+        <v>92.89461992418542</v>
       </c>
       <c r="T9" s="11">
         <f ca="1">(N9+O9+Q9)/3</f>
-        <v>70.033308715116988</v>
+        <v>69.978585976912754</v>
       </c>
       <c r="U9" s="26">
         <f ca="1">(N9*2+O9*2+P9+Q9)/6</f>
-        <v>81.040543107662145</v>
+        <v>81.436602950549073</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="69" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="19">
@@ -3070,15 +3081,15 @@
       </c>
       <c r="N10" s="32">
         <f>LOG((D10+E10)/(F10+E10)+1,V$3)</f>
-        <v>62.618020477590498</v>
+        <v>62.222335926405478</v>
       </c>
       <c r="O10" s="15">
         <f ca="1">LOG(I10*H10/J10^2,W$3)</f>
-        <v>66.568123108769854</v>
+        <v>66.589160953815579</v>
       </c>
       <c r="P10" s="10">
         <f>LOG(K10/J10+1,X$3)</f>
-        <v>144.12663307461222</v>
+        <v>146.23109493758744</v>
       </c>
       <c r="Q10" s="26">
         <f>LOG(L10*M10/J10+1,Y$3)</f>
@@ -3086,26 +3097,26 @@
       </c>
       <c r="R10" s="15">
         <f ca="1">(N10+O10)/2</f>
-        <v>64.593071793180172</v>
+        <v>64.405748440110528</v>
       </c>
       <c r="S10" s="10">
         <f ca="1">(N10+O10+P10)/3</f>
-        <v>91.104258886990849</v>
+        <v>91.6808639392695</v>
       </c>
       <c r="T10" s="11">
         <f ca="1">(N10+O10+Q10)/3</f>
-        <v>58.909009009120723</v>
+        <v>58.784126773740958</v>
       </c>
       <c r="U10" s="26">
         <f ca="1">(N10*2+O10*2+P10+Q10)/6</f>
-        <v>75.006633948055779</v>
+        <v>75.232495356505225</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="19">
@@ -3142,15 +3153,15 @@
       </c>
       <c r="N11" s="32">
         <f>LOG((D11+E11)/(F11+E11)+1,V$3)</f>
-        <v>63.22580072657933</v>
+        <v>62.826275599579141</v>
       </c>
       <c r="O11" s="15">
         <f ca="1">LOG(I11*H11/J11^2,W$3)</f>
-        <v>60.200907143353909</v>
+        <v>60.219932726425036</v>
       </c>
       <c r="P11" s="10">
         <f>LOG(K11/J11+1,X$3)</f>
-        <v>139.50766133743241</v>
+        <v>141.54467938617503</v>
       </c>
       <c r="Q11" s="26">
         <f>LOG(L11*M11/J11+1,Y$3)</f>
@@ -3158,19 +3169,19 @@
       </c>
       <c r="R11" s="15">
         <f ca="1">(N11+O11)/2</f>
-        <v>61.713353934966619</v>
+        <v>61.523104163002088</v>
       </c>
       <c r="S11" s="10">
         <f ca="1">(N11+O11+P11)/3</f>
-        <v>87.644789735788549</v>
+        <v>88.196962570726399</v>
       </c>
       <c r="T11" s="11">
         <f ca="1">(N11+O11+Q11)/3</f>
-        <v>55.224815441522537</v>
+        <v>55.097982260212859</v>
       </c>
       <c r="U11" s="26">
         <f ca="1">(N11*2+O11*2+P11+Q11)/6</f>
-        <v>71.434802588655543</v>
+        <v>71.647472415469622</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3214,15 +3225,15 @@
       </c>
       <c r="N12" s="32">
         <f>LOG((D12+E12)/(F12+E12)+1,V$3)</f>
-        <v>58.762016494587968</v>
+        <v>58.390698111380559</v>
       </c>
       <c r="O12" s="15">
         <f>LOG(I12*H12/J12^2,W$3)</f>
-        <v>58.712092093036389</v>
+        <v>58.730647158705672</v>
       </c>
       <c r="P12" s="10">
         <f>LOG(K12/J12+1,X$3)</f>
-        <v>54.772949737442723</v>
+        <v>55.572715758379566</v>
       </c>
       <c r="Q12" s="26">
         <f>LOG(L12*M12/J12+1,Y$3)</f>
@@ -3230,26 +3241,26 @@
       </c>
       <c r="R12" s="15">
         <f>(N12+O12)/2</f>
-        <v>58.737054293812179</v>
+        <v>58.560672635043119</v>
       </c>
       <c r="S12" s="10">
         <f>(N12+O12+P12)/3</f>
-        <v>57.415686108355693</v>
+        <v>57.564687009488601</v>
       </c>
       <c r="T12" s="11">
         <f>(N12+O12+Q12)/3</f>
-        <v>83.217372550380077</v>
+        <v>83.09978477786737</v>
       </c>
       <c r="U12" s="26">
         <f>(N12*2+O12*2+P12+Q12)/6</f>
-        <v>70.316529329367881</v>
+        <v>70.332235893677989</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="19">
@@ -3280,31 +3291,31 @@
       </c>
       <c r="N13" s="32">
         <f>LOG((D13+E13)/(F13+E13)+1,V$3)</f>
-        <v>65.29301656964698</v>
+        <v>64.880428663484693</v>
       </c>
       <c r="O13" s="15">
         <f ca="1">LOG(I13*H13/J13^2,W$3)</f>
-        <v>66.182143750660615</v>
+        <v>66.203059612787982</v>
       </c>
       <c r="P13" s="10">
         <f>LOG(K13/J13+1,X$3)</f>
-        <v>143.115112101275</v>
+        <v>145.20480426300503</v>
       </c>
       <c r="R13" s="15">
         <f ca="1">(N13+O13)/2</f>
-        <v>65.737580160153797</v>
+        <v>65.541744138136337</v>
       </c>
       <c r="S13" s="10">
         <f ca="1">(N13+O13+P13)/3</f>
-        <v>91.530090807194199</v>
+        <v>92.096097513092559</v>
       </c>
       <c r="T13" s="11">
         <f ca="1">(N13+O13+Q13)/3</f>
-        <v>43.825053440102529</v>
+        <v>43.694496092090894</v>
       </c>
       <c r="U13" s="26">
         <f ca="1">(N13*2+O13*2+P13+Q13)/6</f>
-        <v>67.677572123648361</v>
+        <v>67.89529680259173</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -3348,15 +3359,15 @@
       </c>
       <c r="N14" s="32">
         <f>LOG((D14+E14)/(F14+E14)+1,V$3)</f>
-        <v>61.053536122838416</v>
+        <v>60.667737580266014</v>
       </c>
       <c r="O14" s="15">
         <f>LOG(I14*H14/J14^2,W$3)</f>
-        <v>70.004917482176097</v>
+        <v>70.027041473925465</v>
       </c>
       <c r="P14" s="10">
         <f>LOG(K14/J14+1,X$3)</f>
-        <v>64.195117622447015</v>
+        <v>65.13246122052935</v>
       </c>
       <c r="Q14" s="26">
         <f>LOG(L14*M14/J14+1,Y$3)</f>
@@ -3364,19 +3375,19 @@
       </c>
       <c r="R14" s="15">
         <f>(N14+O14)/2</f>
-        <v>65.529226802507253</v>
+        <v>65.347389527095743</v>
       </c>
       <c r="S14" s="10">
         <f>(N14+O14+P14)/3</f>
-        <v>65.084523742487178</v>
+        <v>65.275746758240288</v>
       </c>
       <c r="T14" s="11">
         <f>(N14+O14+Q14)/3</f>
-        <v>69.927499304319838</v>
+        <v>69.806274454045493</v>
       </c>
       <c r="U14" s="26">
         <f>(N14*2+O14*2+P14+Q14)/6</f>
-        <v>67.506011523403501</v>
+        <v>67.541010606142891</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3420,15 +3431,15 @@
       </c>
       <c r="N15" s="32">
         <f>LOG((D15+E15)/(F15+E15)+1,V$3)</f>
-        <v>64.890230642171019</v>
+        <v>64.480187948516587</v>
       </c>
       <c r="O15" s="15">
         <f>LOG(I15*H15/J15^2,W$3)</f>
-        <v>57.985939955581571</v>
+        <v>58.004265531888166</v>
       </c>
       <c r="P15" s="10">
         <f>LOG(K15/J15+1,X$3)</f>
-        <v>66.054108145650403</v>
+        <v>67.018595752971393</v>
       </c>
       <c r="Q15" s="26">
         <f>LOG(L15*M15/J15+1,Y$3)</f>
@@ -3436,19 +3447,19 @@
       </c>
       <c r="R15" s="15">
         <f>(N15+O15)/2</f>
-        <v>61.438085298876295</v>
+        <v>61.242226740202376</v>
       </c>
       <c r="S15" s="10">
         <f>(N15+O15+P15)/3</f>
-        <v>62.976759581134331</v>
+        <v>63.167683077792049</v>
       </c>
       <c r="T15" s="11">
         <f>(N15+O15+Q15)/3</f>
-        <v>66.814015500543562</v>
+        <v>66.683443128094268</v>
       </c>
       <c r="U15" s="26">
         <f>(N15*2+O15*2+P15+Q15)/6</f>
-        <v>64.895387540838939</v>
+        <v>64.925563102943158</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -3492,15 +3503,15 @@
       </c>
       <c r="N16" s="32">
         <f>LOG((D16+E16)/(F16+E16)+1,V$3)</f>
-        <v>63.299836392317061</v>
+        <v>62.899843432431936</v>
       </c>
       <c r="O16" s="15">
         <f ca="1">LOG(I16*H16/J16^2,W$3)</f>
-        <v>57.844334727032894</v>
+        <v>57.862615551156061</v>
       </c>
       <c r="P16" s="10">
         <f>LOG(K16/J16+1,X$3)</f>
-        <v>88.524325725041365</v>
+        <v>89.81691172014682</v>
       </c>
       <c r="Q16" s="26">
         <f>LOG(L16*M16/J16+1,Y$3)</f>
@@ -3508,19 +3519,19 @@
       </c>
       <c r="R16" s="15">
         <f ca="1">(N16+O16)/2</f>
-        <v>60.572085559674974</v>
+        <v>60.381229491794002</v>
       </c>
       <c r="S16" s="10">
         <f ca="1">(N16+O16+P16)/3</f>
-        <v>69.889498948130438</v>
+        <v>70.193123567911599</v>
       </c>
       <c r="T16" s="11">
         <f ca="1">(N16+O16+Q16)/3</f>
-        <v>56.256924518422096</v>
+        <v>56.129687139834779</v>
       </c>
       <c r="U16" s="26">
         <f ca="1">(N16*2+O16*2+P16+Q16)/6</f>
-        <v>63.07321173327626</v>
+        <v>63.161405353873192</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3564,15 +3575,15 @@
       </c>
       <c r="N17" s="32">
         <f>LOG((D17+E17)/(F17+E17)+1,V$3)</f>
-        <v>60.129173682059545</v>
+        <v>59.749216204642543</v>
       </c>
       <c r="O17" s="15">
         <f>LOG(I17*H17/J17^2,W$3)</f>
-        <v>57.771168175931628</v>
+        <v>57.789425876876727</v>
       </c>
       <c r="P17" s="10">
         <f>LOG(K17/J17+1,X$3)</f>
-        <v>85.712423286019416</v>
+        <v>86.963951349505351</v>
       </c>
       <c r="Q17" s="26">
         <f>LOG(L17*M17/J17+1,Y$3)</f>
@@ -3580,26 +3591,26 @@
       </c>
       <c r="R17" s="15">
         <f>(N17+O17)/2</f>
-        <v>58.95017092899559</v>
+        <v>58.769321040759635</v>
       </c>
       <c r="S17" s="10">
         <f>(N17+O17+P17)/3</f>
-        <v>67.870921714670203</v>
+        <v>68.167531143674879</v>
       </c>
       <c r="T17" s="11">
         <f>(N17+O17+Q17)/3</f>
-        <v>53.784834134561635</v>
+        <v>53.664267542404332</v>
       </c>
       <c r="U17" s="26">
         <f>(N17*2+O17*2+P17+Q17)/6</f>
-        <v>60.827877924615926</v>
+        <v>60.915899343039605</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="19">
@@ -3630,38 +3641,38 @@
       </c>
       <c r="N18" s="32">
         <f>LOG((D18+E18)/(F18+E18)+1,V$3)</f>
-        <v>64.214578572145854</v>
+        <v>63.808805337730888</v>
       </c>
       <c r="O18" s="15">
         <f ca="1">LOG(I18*H18/J18^2,W$3)</f>
-        <v>58.469029620821125</v>
+        <v>58.487507870284873</v>
       </c>
       <c r="P18" s="10">
         <f>LOG(K18/J18+1,X$3)</f>
-        <v>105.0678871504028</v>
+        <v>106.60203359380816</v>
       </c>
       <c r="R18" s="15">
         <f ca="1">(N18+O18)/2</f>
-        <v>61.341804096483486</v>
+        <v>61.14815660400788</v>
       </c>
       <c r="S18" s="10">
         <f ca="1">(N18+O18+P18)/3</f>
-        <v>75.91716511445658</v>
+        <v>76.299448933941306</v>
       </c>
       <c r="T18" s="11">
         <f ca="1">(N18+O18+Q18)/3</f>
-        <v>40.894536064322324</v>
+        <v>40.765437736005254</v>
       </c>
       <c r="U18" s="26">
         <f ca="1">(N18*2+O18*2+P18+Q18)/6</f>
-        <v>58.405850589389452</v>
+        <v>58.532443334973287</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="69" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="19">
@@ -3700,15 +3711,15 @@
       </c>
       <c r="N19" s="32">
         <f>LOG((D19+E19)/(F19+E19)+1,V$3)</f>
-        <v>62.628251686276542</v>
+        <v>62.232502483874732</v>
       </c>
       <c r="O19" s="15">
         <f ca="1">LOG(I19*H19/J19^2,W$3)</f>
-        <v>59.757247834151393</v>
+        <v>59.77613320543098</v>
       </c>
       <c r="P19" s="10">
         <f>LOG(K19/J19+1,X$3)</f>
-        <v>94.162321306084579</v>
+        <v>95.537230369666815</v>
       </c>
       <c r="Q19" s="26">
         <f>LOG(L19*M19/J19+1,Y$3)</f>
@@ -3716,19 +3727,19 @@
       </c>
       <c r="R19" s="15">
         <f ca="1">(N19+O19)/2</f>
-        <v>61.192749760213971</v>
+        <v>61.00431784465286</v>
       </c>
       <c r="S19" s="10">
         <f ca="1">(N19+O19+P19)/3</f>
-        <v>72.182606942170835</v>
+        <v>72.515288686324183</v>
       </c>
       <c r="T19" s="11">
         <f ca="1">(N19+O19+Q19)/3</f>
-        <v>44.464012010412112</v>
+        <v>44.338390733371369</v>
       </c>
       <c r="U19" s="26">
         <f ca="1">(N19*2+O19*2+P19+Q19)/6</f>
-        <v>58.323309476291477</v>
+        <v>58.426839709847769</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3774,15 +3785,15 @@
       </c>
       <c r="N20" s="32">
         <f>LOG((D20+E20)/(F20+E20)+1,V$3)</f>
-        <v>28.871622083300128</v>
+        <v>28.689181713277534</v>
       </c>
       <c r="O20" s="15">
         <f ca="1">LOG(I20*H20/J20^2,W$3)</f>
-        <v>55.342654065882485</v>
+        <v>55.360144271799143</v>
       </c>
       <c r="P20" s="10">
         <f>LOG(K20/J20+1,X$3)</f>
-        <v>57.124855921700004</v>
+        <v>57.958963249059394</v>
       </c>
       <c r="Q20" s="26">
         <f>LOG(L20*M20/J20+1,Y$3)</f>
@@ -3790,26 +3801,26 @@
       </c>
       <c r="R20" s="15">
         <f ca="1">(N20+O20)/2</f>
-        <v>42.107138074591305</v>
+        <v>42.024662992538339</v>
       </c>
       <c r="S20" s="10">
         <f ca="1">(N20+O20+P20)/3</f>
-        <v>47.113044023627538</v>
+        <v>47.336096411378691</v>
       </c>
       <c r="T20" s="11">
         <f ca="1">(N20+O20+Q20)/3</f>
-        <v>69.486729435069336</v>
+        <v>69.431746047034025</v>
       </c>
       <c r="U20" s="26">
         <f ca="1">(N20*2+O20*2+P20+Q20)/6</f>
-        <v>58.29988672934843</v>
+        <v>58.383921229206351</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="19">
@@ -3846,15 +3857,15 @@
       </c>
       <c r="N21" s="32">
         <f>LOG((D21+E21)/(F21+E21)+1,V$3)</f>
-        <v>53.79921411239372</v>
+        <v>53.459255778869142</v>
       </c>
       <c r="O21" s="15">
         <f ca="1">LOG(I21*H21/J21^2,W$3)</f>
-        <v>50.152256288543946</v>
+        <v>50.168106148014495</v>
       </c>
       <c r="P21" s="10">
         <f>LOG(K21/J21+1,X$3)</f>
-        <v>74.581791875344692</v>
+        <v>75.670796269090332</v>
       </c>
       <c r="Q21" s="26">
         <f>LOG(L21*M21/J21+1,Y$3)</f>
@@ -3862,26 +3873,26 @@
       </c>
       <c r="R21" s="15">
         <f ca="1">(N21+O21)/2</f>
-        <v>51.975735200468833</v>
+        <v>51.813680963441819</v>
       </c>
       <c r="S21" s="10">
         <f ca="1">(N21+O21+P21)/3</f>
-        <v>59.511087425427455</v>
+        <v>59.766052731991323</v>
       </c>
       <c r="T21" s="11">
         <f ca="1">(N21+O21+Q21)/3</f>
-        <v>54.442799770793364</v>
+        <v>54.334763612775362</v>
       </c>
       <c r="U21" s="26">
         <f ca="1">(N21*2+O21*2+P21+Q21)/6</f>
-        <v>56.976943598110402</v>
+        <v>57.050408172383335</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="69" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="19">
@@ -3918,15 +3929,15 @@
       </c>
       <c r="N22" s="32">
         <f>LOG((D22+E22)/(F22+E22)+1,V$3)</f>
-        <v>54.826080677032252</v>
+        <v>54.47963355269863</v>
       </c>
       <c r="O22" s="15">
         <f>LOG(I22*H22/J22^2,W$3)</f>
-        <v>60.187683876658667</v>
+        <v>60.206705280717031</v>
       </c>
       <c r="P22" s="10">
         <f>LOG(K22/J22+1,X$3)</f>
-        <v>90.154725910021412</v>
+        <v>91.471118157569478</v>
       </c>
       <c r="Q22" s="26">
         <f>LOG(L22*M22/J22+1,Y$3)</f>
@@ -3934,26 +3945,26 @@
       </c>
       <c r="R22" s="15">
         <f>(N22+O22)/2</f>
-        <v>57.50688227684546</v>
+        <v>57.343169416707831</v>
       </c>
       <c r="S22" s="10">
         <f>(N22+O22+P22)/3</f>
-        <v>68.389496821237444</v>
+        <v>68.719152330328384</v>
       </c>
       <c r="T22" s="11">
         <f>(N22+O22+Q22)/3</f>
-        <v>43.83360672678333</v>
+        <v>43.724464820024906</v>
       </c>
       <c r="U22" s="26">
         <f>(N22*2+O22*2+P22+Q22)/6</f>
-        <v>56.111551774010387</v>
+        <v>56.221808575176645</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="69" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="19">
@@ -3990,15 +4001,15 @@
       </c>
       <c r="N23" s="32">
         <f>LOG((D23+E23)/(F23+E23)+1,V$3)</f>
-        <v>55.525086633370769</v>
+        <v>55.17422247611276</v>
       </c>
       <c r="O23" s="15">
         <f ca="1">LOG(I23*H23/J23^2,W$3)</f>
-        <v>53.274227884973982</v>
+        <v>53.291064396187373</v>
       </c>
       <c r="P23" s="10">
         <f>LOG(K23/J23+1,X$3)</f>
-        <v>27.825851878278144</v>
+        <v>28.232150442488127</v>
       </c>
       <c r="Q23" s="26">
         <f>LOG(L23*M23/J23+1,Y$3)</f>
@@ -4006,26 +4017,26 @@
       </c>
       <c r="R23" s="15">
         <f ca="1">(N23+O23)/2</f>
-        <v>54.399657259172372</v>
+        <v>54.23264343615007</v>
       </c>
       <c r="S23" s="10">
         <f ca="1">(N23+O23+P23)/3</f>
-        <v>45.541722132207632</v>
+        <v>45.565812438262753</v>
       </c>
       <c r="T23" s="11">
         <f ca="1">(N23+O23+Q23)/3</f>
-        <v>65.027161573644392</v>
+        <v>64.915819024962857</v>
       </c>
       <c r="U23" s="26">
         <f ca="1">(N23*2+O23*2+P23+Q23)/6</f>
-        <v>55.284441852926001</v>
+        <v>55.240815731612805</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="69" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="19">
@@ -4062,15 +4073,15 @@
       </c>
       <c r="N24" s="32">
         <f>LOG((D24+E24)/(F24+E24)+1,V$3)</f>
-        <v>60.160943898021713</v>
+        <v>59.780785663960721</v>
       </c>
       <c r="O24" s="15">
         <f>LOG(I24*H24/J24^2,W$3)</f>
-        <v>54.463995784043021</v>
+        <v>54.481208303344552</v>
       </c>
       <c r="P24" s="10">
         <f>LOG(K24/J24+1,X$3)</f>
-        <v>66.7945091535709</v>
+        <v>67.769807709924947</v>
       </c>
       <c r="Q24" s="26">
         <f>LOG(L24*M24/J24+1,Y$3)</f>
@@ -4078,19 +4089,19 @@
       </c>
       <c r="R24" s="15">
         <f>(N24+O24)/2</f>
-        <v>57.312469841032367</v>
+        <v>57.130996983652636</v>
       </c>
       <c r="S24" s="10">
         <f>(N24+O24+P24)/3</f>
-        <v>60.473149611878547</v>
+        <v>60.677267225743407</v>
       </c>
       <c r="T24" s="11">
         <f>(N24+O24+Q24)/3</f>
-        <v>47.804072552481244</v>
+        <v>47.683090647561421</v>
       </c>
       <c r="U24" s="26">
         <f>(N24*2+O24*2+P24+Q24)/6</f>
-        <v>54.138611082179899</v>
+        <v>54.180178936652425</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -4128,38 +4139,38 @@
       </c>
       <c r="N25" s="32">
         <f>LOG((D25+E25)/(F25+E25)+1,V$3)</f>
-        <v>60.612201921122058</v>
+        <v>60.229192178390285</v>
       </c>
       <c r="O25" s="15">
         <f>LOG(I25*H25/J25^2,W$3)</f>
-        <v>63.634003531445252</v>
+        <v>63.65411409252787</v>
       </c>
       <c r="P25" s="10">
         <f>LOG(K25/J25+1,X$3)</f>
-        <v>74.428145848629526</v>
+        <v>75.514906783295316</v>
       </c>
       <c r="R25" s="15">
         <f>(N25+O25)/2</f>
-        <v>62.123102726283655</v>
+        <v>61.941653135459077</v>
       </c>
       <c r="S25" s="10">
         <f>(N25+O25+P25)/3</f>
-        <v>66.224783767065617</v>
+        <v>66.466071018071162</v>
       </c>
       <c r="T25" s="11">
         <f>(N25+O25+Q25)/3</f>
-        <v>41.415401817522437</v>
+        <v>41.294435423639385</v>
       </c>
       <c r="U25" s="26">
         <f>(N25*2+O25*2+P25+Q25)/6</f>
-        <v>53.82009279229402</v>
+        <v>53.880253220855273</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="19">
@@ -4190,31 +4201,31 @@
       </c>
       <c r="N26" s="32">
         <f>LOG((D26+E26)/(F26+E26)+1,V$3)</f>
-        <v>61.846021099761238</v>
+        <v>61.455214828422847</v>
       </c>
       <c r="O26" s="15">
         <f ca="1">LOG(I26*H26/J26^2,W$3)</f>
-        <v>57.592806824048147</v>
+        <v>57.611008156594856</v>
       </c>
       <c r="P26" s="10">
         <f>LOG(K26/J26+1,X$3)</f>
-        <v>74.063212864265068</v>
+        <v>75.144645237985856</v>
       </c>
       <c r="R26" s="15">
         <f ca="1">(N26+O26)/2</f>
-        <v>59.719413961904692</v>
+        <v>59.533111492508851</v>
       </c>
       <c r="S26" s="10">
         <f ca="1">(N26+O26+P26)/3</f>
-        <v>64.500680262691489</v>
+        <v>64.736956074334515</v>
       </c>
       <c r="T26" s="11">
         <f ca="1">(N26+O26+Q26)/3</f>
-        <v>39.812942641269792</v>
+        <v>39.688740995005901</v>
       </c>
       <c r="U26" s="26">
         <f ca="1">(N26*2+O26*2+P26+Q26)/6</f>
-        <v>52.156811451980637</v>
+        <v>52.212848534670208</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -4256,15 +4267,15 @@
       </c>
       <c r="N27" s="32">
         <f>LOG((D27+E27)/(F27+E27)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O27" s="15">
         <f>LOG(I27*H27/J27^2,W$3)</f>
-        <v>58.49968552188048</v>
+        <v>58.518173459676511</v>
       </c>
       <c r="P27" s="10">
         <f>LOG(K27/J27+1,X$3)</f>
-        <v>44.930390816152773</v>
+        <v>45.586440929473717</v>
       </c>
       <c r="Q27" s="26">
         <f>LOG(L27*M27/J27+1,Y$3)</f>
@@ -4272,19 +4283,19 @@
       </c>
       <c r="R27" s="15">
         <f>(N27+O27)/2</f>
-        <v>61.249933548429958</v>
+        <v>61.05696828962396</v>
       </c>
       <c r="S27" s="10">
         <f>(N27+O27+P27)/3</f>
-        <v>55.810085971004234</v>
+        <v>55.900125836240541</v>
       </c>
       <c r="T27" s="11">
         <f>(N27+O27+Q27)/3</f>
-        <v>48.057321555813324</v>
+        <v>47.928678049942654</v>
       </c>
       <c r="U27" s="26">
         <f>(N27*2+O27*2+P27+Q27)/6</f>
-        <v>51.933703763408772</v>
+        <v>51.914401943091598</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -4330,15 +4341,15 @@
       </c>
       <c r="N28" s="32">
         <f>LOG((D28+E28)/(F28+E28)+1,V$3)</f>
-        <v>18.954385411913375</v>
+        <v>18.834612263105761</v>
       </c>
       <c r="O28" s="15">
         <f ca="1">LOG(I28*H28/J28^2,W$3)</f>
-        <v>58.506165601913487</v>
+        <v>58.524655587640474</v>
       </c>
       <c r="P28" s="10">
         <f>LOG(K28/J28+1,X$3)</f>
-        <v>86.525174303873285</v>
+        <v>87.788569733471093</v>
       </c>
       <c r="Q28" s="26">
         <f>LOG(L28*M28/J28+1,Y$3)</f>
@@ -4346,19 +4357,19 @@
       </c>
       <c r="R28" s="15">
         <f ca="1">(N28+O28)/2</f>
-        <v>38.730275506913429</v>
+        <v>38.679633925373118</v>
       </c>
       <c r="S28" s="10">
         <f ca="1">(N28+O28+P28)/3</f>
-        <v>54.661908439233379</v>
+        <v>55.049279194739107</v>
       </c>
       <c r="T28" s="11">
         <f ca="1">(N28+O28+Q28)/3</f>
-        <v>45.797553428056233</v>
+        <v>45.763792373696027</v>
       </c>
       <c r="U28" s="26">
         <f ca="1">(N28*2+O28*2+P28+Q28)/6</f>
-        <v>50.229730933644809</v>
+        <v>50.406535784217567</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -4402,15 +4413,15 @@
       </c>
       <c r="N29" s="32">
         <f>LOG((D29+E29)/(F29+E29)+1,V$3)</f>
-        <v>64.151463629012653</v>
+        <v>63.746089219213296</v>
       </c>
       <c r="O29" s="15">
         <f>LOG(I29*H29/J29^2,W$3)</f>
-        <v>55.012267266246035</v>
+        <v>55.029653058428742</v>
       </c>
       <c r="P29" s="10">
         <f>LOG(K29/J29+1,X$3)</f>
-        <v>43.209936591847672</v>
+        <v>43.840865530651413</v>
       </c>
       <c r="Q29" s="26">
         <f>LOG(L29*M29/J29+1,Y$3)</f>
@@ -4418,19 +4429,19 @@
       </c>
       <c r="R29" s="15">
         <f>(N29+O29)/2</f>
-        <v>59.58186544762934</v>
+        <v>59.387871138821019</v>
       </c>
       <c r="S29" s="10">
         <f>(N29+O29+P29)/3</f>
-        <v>54.124555829035451</v>
+        <v>54.205535936097817</v>
       </c>
       <c r="T29" s="11">
         <f>(N29+O29+Q29)/3</f>
-        <v>43.857552931886694</v>
+        <v>43.728223392681144</v>
       </c>
       <c r="U29" s="26">
         <f>(N29*2+O29*2+P29+Q29)/6</f>
-        <v>48.991054380461073</v>
+        <v>48.966879664389488</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4474,15 +4485,15 @@
       </c>
       <c r="N30" s="32">
         <f>LOG((D30+E30)/(F30+E30)+1,V$3)</f>
-        <v>59.729698175934651</v>
+        <v>59.352264992405331</v>
       </c>
       <c r="O30" s="15">
         <f>LOG(I30*H30/J30^2,W$3)</f>
-        <v>53.333363089952904</v>
+        <v>53.350218289950369</v>
       </c>
       <c r="P30" s="10">
         <f>LOG(K30/J30+1,X$3)</f>
-        <v>56.270499798781245</v>
+        <v>57.092132264002203</v>
       </c>
       <c r="Q30" s="26">
         <f>LOG(L30*M30/J30+1,Y$3)</f>
@@ -4490,26 +4501,26 @@
       </c>
       <c r="R30" s="15">
         <f>(N30+O30)/2</f>
-        <v>56.531530632943777</v>
+        <v>56.35124164117785</v>
       </c>
       <c r="S30" s="10">
         <f>(N30+O30+P30)/3</f>
-        <v>56.444520354889598</v>
+        <v>56.598205182119301</v>
       </c>
       <c r="T30" s="11">
         <f>(N30+O30+Q30)/3</f>
-        <v>41.057781244303371</v>
+        <v>40.937588583126086</v>
       </c>
       <c r="U30" s="26">
         <f>(N30*2+O30*2+P30+Q30)/6</f>
-        <v>48.751150799596481</v>
+        <v>48.767896882622694</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="69" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="19">
@@ -4546,15 +4557,15 @@
       </c>
       <c r="N31" s="32">
         <f>LOG((D31+E31)/(F31+E31)+1,V$3)</f>
-        <v>62.402664597384572</v>
+        <v>62.008340884408021</v>
       </c>
       <c r="O31" s="15">
         <f ca="1">LOG(I31*H31/J31^2,W$3)</f>
-        <v>53.280519576186499</v>
+        <v>53.297358075793412</v>
       </c>
       <c r="P31" s="10">
         <f>LOG(K31/J31+1,X$3)</f>
-        <v>21.969842070316076</v>
+        <v>22.290634236109845</v>
       </c>
       <c r="Q31" s="26">
         <f>LOG(L31*M31/J31+1,Y$3)</f>
@@ -4562,19 +4573,19 @@
       </c>
       <c r="R31" s="15">
         <f ca="1">(N31+O31)/2</f>
-        <v>57.841592086785539</v>
+        <v>57.652849480100713</v>
       </c>
       <c r="S31" s="10">
         <f ca="1">(N31+O31+P31)/3</f>
-        <v>45.884342081295721</v>
+        <v>45.865444398770421</v>
       </c>
       <c r="T31" s="11">
         <f ca="1">(N31+O31+Q31)/3</f>
-        <v>49.807092601378343</v>
+        <v>49.681264196921795</v>
       </c>
       <c r="U31" s="26">
         <f ca="1">(N31*2+O31*2+P31+Q31)/6</f>
-        <v>47.845717341337036</v>
+        <v>47.773354297846105</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -4618,15 +4629,15 @@
       </c>
       <c r="N32" s="32">
         <f>LOG((D32+E32)/(F32+E32)+1,V$3)</f>
-        <v>58.620847027423906</v>
+        <v>58.250420696964724</v>
       </c>
       <c r="O32" s="15">
         <f>LOG(I32*H32/J32^2,W$3)</f>
-        <v>50.544143284763855</v>
+        <v>50.560116994172134</v>
       </c>
       <c r="P32" s="10">
         <f>LOG(K32/J32+1,X$3)</f>
-        <v>59.842252131132476</v>
+        <v>60.716037459478564</v>
       </c>
       <c r="Q32" s="26">
         <f>LOG(L32*M32/J32+1,Y$3)</f>
@@ -4634,26 +4645,26 @@
       </c>
       <c r="R32" s="15">
         <f>(N32+O32)/2</f>
-        <v>54.582495156093884</v>
+        <v>54.405268845568429</v>
       </c>
       <c r="S32" s="10">
         <f>(N32+O32+P32)/3</f>
-        <v>56.33574748110675</v>
+        <v>56.508858383538474</v>
       </c>
       <c r="T32" s="11">
         <f>(N32+O32+Q32)/3</f>
-        <v>38.426814293350056</v>
+        <v>38.308663419666424</v>
       </c>
       <c r="U32" s="26">
         <f>(N32*2+O32*2+P32+Q32)/6</f>
-        <v>47.381280887228399</v>
+        <v>47.408760901602449</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="69" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="19">
@@ -4690,15 +4701,15 @@
       </c>
       <c r="N33" s="32">
         <f>LOG((D33+E33)/(F33+E33)+1,V$3)</f>
-        <v>57.198109705951531</v>
+        <v>56.836673681704639</v>
       </c>
       <c r="O33" s="15">
         <f>LOG(I33*H33/J33^2,W$3)</f>
-        <v>49.36039448328107</v>
+        <v>49.375994086845658</v>
       </c>
       <c r="P33" s="10">
         <f>LOG(K33/J33+1,X$3)</f>
-        <v>44.235568899700546</v>
+        <v>44.881473586090053</v>
       </c>
       <c r="Q33" s="26">
         <f>LOG(L33*M33/J33+1,Y$3)</f>
@@ -4706,19 +4717,19 @@
       </c>
       <c r="R33" s="15">
         <f>(N33+O33)/2</f>
-        <v>53.279252094616297</v>
+        <v>53.106333884275145</v>
       </c>
       <c r="S33" s="10">
         <f>(N33+O33+P33)/3</f>
-        <v>50.264691029644382</v>
+        <v>50.364713784880109</v>
       </c>
       <c r="T33" s="11">
         <f>(N33+O33+Q33)/3</f>
-        <v>44.205964165071499</v>
+        <v>44.090685358177403</v>
       </c>
       <c r="U33" s="26">
         <f>(N33*2+O33*2+P33+Q33)/6</f>
-        <v>47.23532759735793</v>
+        <v>47.227699571528753</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -4760,15 +4771,15 @@
       </c>
       <c r="N34" s="32">
         <f>LOG((D34+E34)/(F34+E34)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O34" s="15">
         <f>LOG(I34*H34/J34^2,W$3)</f>
-        <v>52.429726455912167</v>
+        <v>52.446296075265373</v>
       </c>
       <c r="P34" s="10">
         <f>LOG(K34/J34+1,X$3)</f>
-        <v>27.821932799102232</v>
+        <v>28.228174138963823</v>
       </c>
       <c r="Q34" s="26">
         <f>LOG(L34*M34/J34+1,Y$3)</f>
@@ -4776,26 +4787,26 @@
       </c>
       <c r="R34" s="15">
         <f>(N34+O34)/2</f>
-        <v>58.214954015445798</v>
+        <v>58.021029597418391</v>
       </c>
       <c r="S34" s="10">
         <f>(N34+O34+P34)/3</f>
-        <v>48.083946943331277</v>
+        <v>48.090077777933537</v>
       </c>
       <c r="T34" s="11">
         <f>(N34+O34+Q34)/3</f>
-        <v>46.250218193385187</v>
+        <v>46.120935248033582</v>
       </c>
       <c r="U34" s="26">
         <f>(N34*2+O34*2+P34+Q34)/6</f>
-        <v>47.167082568358232</v>
+        <v>47.10550651298356</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="69" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="19">
@@ -4824,31 +4835,31 @@
       </c>
       <c r="N35" s="32">
         <f>LOG((D35+E35)/(F35+E35)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O35" s="15">
         <f ca="1">LOG(I35*H35/J35^2,W$3)</f>
-        <v>46.536763616193063</v>
+        <v>46.551470854074587</v>
       </c>
       <c r="P35" s="10">
         <f>LOG(K35/J35+1,X$3)</f>
-        <v>58.46904666789068</v>
+        <v>59.322781166866974</v>
       </c>
       <c r="R35" s="15">
         <f ca="1">(N35+O35)/2</f>
-        <v>55.268472595586246</v>
+        <v>55.073616986822998</v>
       </c>
       <c r="S35" s="10">
         <f ca="1">(N35+O35+P35)/3</f>
-        <v>56.335330619687717</v>
+        <v>56.490005046837659</v>
       </c>
       <c r="T35" s="11">
         <f ca="1">(N35+O35+Q35)/3</f>
-        <v>36.845648397057495</v>
+        <v>36.715744657881999</v>
       </c>
       <c r="U35" s="26">
         <f ca="1">(N35*2+O35*2+P35+Q35)/6</f>
-        <v>46.590489508372606</v>
+        <v>46.602874852359832</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -4886,38 +4897,38 @@
       </c>
       <c r="N36" s="32">
         <f>LOG((D36+E36)/(F36+E36)+1,V$3)</f>
-        <v>62.224185331326971</v>
+        <v>61.830989432480393</v>
       </c>
       <c r="O36" s="15">
         <f ca="1">LOG(I36*H36/J36^2,W$3)</f>
-        <v>53.668646211645992</v>
+        <v>53.68560737278569</v>
       </c>
       <c r="P36" s="10">
         <f>LOG(K36/J36+1,X$3)</f>
-        <v>46.752853332021424</v>
+        <v>47.435514091685306</v>
       </c>
       <c r="R36" s="15">
         <f ca="1">(N36+O36)/2</f>
-        <v>57.946415771486485</v>
+        <v>57.758298402633045</v>
       </c>
       <c r="S36" s="10">
         <f ca="1">(N36+O36+P36)/3</f>
-        <v>54.215228291664801</v>
+        <v>54.317370298983803</v>
       </c>
       <c r="T36" s="11">
         <f ca="1">(N36+O36+Q36)/3</f>
-        <v>38.630943847657655</v>
+        <v>38.50553226842203</v>
       </c>
       <c r="U36" s="26">
         <f ca="1">(N36*2+O36*2+P36+Q36)/6</f>
-        <v>46.423086069661224</v>
+        <v>46.411451283702917</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="19">
@@ -4954,15 +4965,15 @@
       </c>
       <c r="N37" s="32">
         <f>LOG((D37+E37)/(F37+E37)+1,V$3)</f>
-        <v>58.440347247667184</v>
+        <v>58.071061499005339</v>
       </c>
       <c r="O37" s="15">
         <f>LOG(I37*H37/J37^2,W$3)</f>
-        <v>47.249559346296998</v>
+        <v>47.264491852451364</v>
       </c>
       <c r="P37" s="10">
         <f>LOG(K37/J37+1,X$3)</f>
-        <v>56.477896277999726</v>
+        <v>57.302557038350599</v>
       </c>
       <c r="Q37" s="26">
         <f>LOG(L37*M37/J37+1,Y$3)</f>
@@ -4970,26 +4981,26 @@
       </c>
       <c r="R37" s="15">
         <f>(N37+O37)/2</f>
-        <v>52.844953296982091</v>
+        <v>52.667776675728348</v>
       </c>
       <c r="S37" s="10">
         <f>(N37+O37+P37)/3</f>
-        <v>54.055934290654641</v>
+        <v>54.212703463269101</v>
       </c>
       <c r="T37" s="11">
         <f>(N37+O37+Q37)/3</f>
-        <v>37.670835811526985</v>
+        <v>37.552718064024482</v>
       </c>
       <c r="U37" s="26">
         <f>(N37*2+O37*2+P37+Q37)/6</f>
-        <v>45.863385051090809</v>
+        <v>45.882710763646791</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="64" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="19">
@@ -5026,15 +5037,15 @@
       </c>
       <c r="N38" s="32">
         <f>LOG((D38+E38)/(F38+E38)+1,V$3)</f>
-        <v>58.625058534217004</v>
+        <v>58.254605591160328</v>
       </c>
       <c r="O38" s="15">
         <f>LOG(I38*H38/J38^2,W$3)</f>
-        <v>49.385539900894912</v>
+        <v>49.401147451287123</v>
       </c>
       <c r="P38" s="10">
         <f>LOG(K38/J38+1,X$3)</f>
-        <v>36.996873227979918</v>
+        <v>37.537082258723778</v>
       </c>
       <c r="Q38" s="26">
         <f>LOG(L38*M38/J38+1,Y$3)</f>
@@ -5042,26 +5053,26 @@
       </c>
       <c r="R38" s="15">
         <f>(N38+O38)/2</f>
-        <v>54.005299217555958</v>
+        <v>53.827876521223729</v>
       </c>
       <c r="S38" s="10">
         <f>(N38+O38+P38)/3</f>
-        <v>48.335823887697281</v>
+        <v>48.397611767057079</v>
       </c>
       <c r="T38" s="11">
         <f>(N38+O38+Q38)/3</f>
-        <v>41.853071885369651</v>
+        <v>41.734790087814837</v>
       </c>
       <c r="U38" s="26">
         <f>(N38*2+O38*2+P38+Q38)/6</f>
-        <v>45.094447886533466</v>
+        <v>45.066200927435965</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="69" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="19">
@@ -5098,15 +5109,15 @@
       </c>
       <c r="N39" s="32">
         <f>LOG((D39+E39)/(F39+E39)+1,V$3)</f>
-        <v>59.704860853774335</v>
+        <v>59.327584617791373</v>
       </c>
       <c r="O39" s="15">
         <f>LOG(I39*H39/J39^2,W$3)</f>
-        <v>56.551933978616965</v>
+        <v>56.569806359097555</v>
       </c>
       <c r="P39" s="10">
         <f>LOG(K39/J39+1,X$3)</f>
-        <v>31.052028093033773</v>
+        <v>31.505433598288278</v>
       </c>
       <c r="Q39" s="26">
         <f>LOG(L39*M39/J39+1,Y$3)</f>
@@ -5114,26 +5125,26 @@
       </c>
       <c r="R39" s="15">
         <f>(N39+O39)/2</f>
-        <v>58.128397416195654</v>
+        <v>57.948695488444464</v>
       </c>
       <c r="S39" s="10">
         <f>(N39+O39+P39)/3</f>
-        <v>49.102940975141699</v>
+        <v>49.134274858392395</v>
       </c>
       <c r="T39" s="11">
         <f>(N39+O39+Q39)/3</f>
-        <v>39.47109605102731</v>
+        <v>39.351294765859855</v>
       </c>
       <c r="U39" s="26">
         <f>(N39*2+O39*2+P39+Q39)/6</f>
-        <v>44.287018513084497</v>
+        <v>44.242784812126125</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="19">
@@ -5164,35 +5175,35 @@
       </c>
       <c r="N40" s="32">
         <f>LOG((D40+E40)/(F40+E40)+1,V$3)</f>
-        <v>64.900794565845516</v>
+        <v>64.490685118541478</v>
       </c>
       <c r="O40" s="15">
         <f>LOG(I40*H40/J40^2,W$3)</f>
-        <v>53.485868386959467</v>
+        <v>53.502771783941576</v>
       </c>
       <c r="P40" s="10">
         <f>LOG(K40/J40+1,X$3)</f>
-        <v>26.659242539687785</v>
+        <v>27.04850688329828</v>
       </c>
       <c r="R40" s="15">
         <f>(N40+O40)/2</f>
-        <v>59.193331476402491</v>
+        <v>58.996728451241523</v>
       </c>
       <c r="S40" s="10">
         <f>(N40+O40+P40)/3</f>
-        <v>48.348635164164257</v>
+        <v>48.347321261927107</v>
       </c>
       <c r="T40" s="11">
         <f>(N40+O40+Q40)/3</f>
-        <v>39.462220984268328</v>
+        <v>39.331152300827682</v>
       </c>
       <c r="U40" s="26">
         <f>(N40*2+O40*2+P40+Q40)/6</f>
-        <v>43.905428074216296</v>
+        <v>43.839236781377394</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="70" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -5234,15 +5245,15 @@
       </c>
       <c r="N41" s="32">
         <f>LOG((D41+E41)/(F41+E41)+1,V$3)</f>
-        <v>60.460982019168881</v>
+        <v>60.078927838088177</v>
       </c>
       <c r="O41" s="15">
         <f>LOG(I41*H41/J41^2,W$3)</f>
-        <v>46.396291429015605</v>
+        <v>46.410954272794235</v>
       </c>
       <c r="P41" s="10">
         <f>LOG(K41/J41+1,X$3)</f>
-        <v>34.907660888438571</v>
+        <v>35.417364331155923</v>
       </c>
       <c r="Q41" s="26">
         <f>LOG(L41*M41/J41+1,Y$3)</f>
@@ -5250,1129 +5261,1117 @@
       </c>
       <c r="R41" s="15">
         <f>(N41+O41)/2</f>
-        <v>53.428636724092243</v>
+        <v>53.244941055441203</v>
       </c>
       <c r="S41" s="10">
         <f>(N41+O41+P41)/3</f>
-        <v>47.254978112207688</v>
+        <v>47.30241548067945</v>
       </c>
       <c r="T41" s="11">
         <f>(N41+O41+Q41)/3</f>
-        <v>39.639219635954461</v>
+        <v>39.51675585685377</v>
       </c>
       <c r="U41" s="26">
         <f>(N41*2+O41*2+P41+Q41)/6</f>
-        <v>43.447098874081071</v>
+        <v>43.409585668766603</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>78</v>
+      <c r="A42" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="19">
         <v>2023</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="8">
-        <v>147241458</v>
-      </c>
-      <c r="F42" s="8">
-        <v>20629278</v>
-      </c>
-      <c r="G42" s="8">
-        <v>209455095</v>
-      </c>
-      <c r="H42" s="5">
-        <f>G42</f>
-        <v>209455095</v>
+      <c r="D42" s="22">
+        <v>600000</v>
+      </c>
+      <c r="E42" s="7">
+        <v>127700000</v>
+      </c>
+      <c r="F42" s="7">
+        <v>416400000</v>
+      </c>
+      <c r="G42" s="7">
+        <v>934200000</v>
+      </c>
+      <c r="H42" s="5" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">G42/INDIRECT("EUR!$B$48")</f>
+        <v>1089637942.0749309</v>
       </c>
       <c r="I42" s="10">
-        <v>824</v>
+        <v>3335</v>
       </c>
       <c r="J42" s="12">
-        <v>16410</v>
+        <v>31485</v>
       </c>
       <c r="K42" s="13">
-        <v>20.56</v>
+        <v>112.44</v>
       </c>
       <c r="L42" s="14">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M42" s="11">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N42" s="32">
         <f>LOG((D42+E42)/(F42+E42)+1,V$3)</f>
-        <v>58.145114015150391</v>
+        <v>19.425192050600486</v>
       </c>
       <c r="O42" s="15">
-        <f>LOG(I42*H42/J42^2,W$3)</f>
-        <v>42.237043615982238</v>
+        <f ca="1">LOG(I42*H42/J42^2,W$3)</f>
+        <v>53.650974426746153</v>
       </c>
       <c r="P42" s="10">
         <f>LOG(K42/J42+1,X$3)</f>
-        <v>23.138659569229162</v>
+        <v>66.839607015261507</v>
       </c>
       <c r="Q42" s="26">
         <f>LOG(L42*M42/J42+1,Y$3)</f>
-        <v>32.715720535967201</v>
+        <v>44.169685133849327</v>
       </c>
       <c r="R42" s="15">
-        <f>(N42+O42)/2</f>
-        <v>50.191078815566314</v>
+        <f ca="1">(N42+O42)/2</f>
+        <v>36.538083238673323</v>
       </c>
       <c r="S42" s="10">
-        <f>(N42+O42+P42)/3</f>
-        <v>41.173605733453932</v>
+        <f ca="1">(N42+O42+P42)/3</f>
+        <v>46.638591164202715</v>
       </c>
       <c r="T42" s="11">
-        <f>(N42+O42+Q42)/3</f>
-        <v>44.365959389033272</v>
+        <f ca="1">(N42+O42+Q42)/3</f>
+        <v>39.081950537065325</v>
       </c>
       <c r="U42" s="26">
-        <f>(N42*2+O42*2+P42+Q42)/6</f>
-        <v>42.769782561243602</v>
+        <f ca="1">(N42*2+O42*2+P42+Q42)/6</f>
+        <v>42.860270850634016</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>82</v>
+      <c r="A43" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D43" s="22">
-        <v>600000</v>
-      </c>
-      <c r="E43" s="7">
-        <v>127700000</v>
-      </c>
-      <c r="F43" s="7">
-        <v>416400000</v>
-      </c>
-      <c r="G43" s="7">
-        <v>934200000</v>
-      </c>
-      <c r="H43" s="5" cm="1">
-        <f t="array" aca="1" ref="H43" ca="1">G43/INDIRECT("EUR!$B$48")</f>
-        <v>1089637942.0749309</v>
+        <v>2022</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="8">
+        <v>406000000</v>
+      </c>
+      <c r="F43" s="8">
+        <v>59000000</v>
+      </c>
+      <c r="G43" s="8">
+        <v>810000000</v>
+      </c>
+      <c r="H43" s="5">
+        <f>G43</f>
+        <v>810000000</v>
       </c>
       <c r="I43" s="10">
-        <v>3335</v>
+        <v>3049</v>
       </c>
       <c r="J43" s="12">
-        <v>31485</v>
+        <v>33334</v>
       </c>
       <c r="K43" s="13">
-        <v>112.44</v>
-      </c>
-      <c r="L43" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M43" s="11">
-        <v>47</v>
+        <v>71.78</v>
       </c>
       <c r="N43" s="32">
         <f>LOG((D43+E43)/(F43+E43)+1,V$3)</f>
-        <v>19.548720816979746</v>
+        <v>57.582275116080687</v>
       </c>
       <c r="O43" s="15">
-        <f ca="1">LOG(I43*H43/J43^2,W$3)</f>
-        <v>53.634024207365478</v>
+        <f>LOG(I43*H43/J43^2,W$3)</f>
+        <v>50.379940837993672</v>
       </c>
       <c r="P43" s="10">
         <f>LOG(K43/J43+1,X$3)</f>
-        <v>65.877695296280649</v>
-      </c>
-      <c r="Q43" s="26">
-        <f>LOG(L43*M43/J43+1,Y$3)</f>
-        <v>44.169685133849327</v>
+        <v>40.331086788206967</v>
       </c>
       <c r="R43" s="15">
-        <f ca="1">(N43+O43)/2</f>
-        <v>36.591372512172612</v>
+        <f>(N43+O43)/2</f>
+        <v>53.981107977037183</v>
       </c>
       <c r="S43" s="10">
-        <f ca="1">(N43+O43+P43)/3</f>
-        <v>46.353480106875288</v>
+        <f>(N43+O43+P43)/3</f>
+        <v>49.431100914093776</v>
       </c>
       <c r="T43" s="11">
-        <f ca="1">(N43+O43+Q43)/3</f>
-        <v>39.117476719398184</v>
+        <f>(N43+O43+Q43)/3</f>
+        <v>35.987405318024791</v>
       </c>
       <c r="U43" s="26">
-        <f ca="1">(N43*2+O43*2+P43+Q43)/6</f>
-        <v>42.73547841313674</v>
+        <f>(N43*2+O43*2+P43+Q43)/6</f>
+        <v>42.70925311605928</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>45</v>
+      <c r="A44" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="8">
-        <v>406000000</v>
+        <v>147241458</v>
       </c>
       <c r="F44" s="8">
-        <v>59000000</v>
+        <v>20629278</v>
       </c>
       <c r="G44" s="8">
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="H44" s="5">
         <f>G44</f>
-        <v>810000000</v>
+        <v>209455095</v>
       </c>
       <c r="I44" s="10">
-        <v>3049</v>
+        <v>824</v>
       </c>
       <c r="J44" s="12">
-        <v>33334</v>
+        <v>16410</v>
       </c>
       <c r="K44" s="13">
-        <v>71.78</v>
+        <v>20.56</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="M44" s="11">
+        <v>21</v>
       </c>
       <c r="N44" s="32">
         <f>LOG((D44+E44)/(F44+E44)+1,V$3)</f>
-        <v>57.948452572235134</v>
+        <v>57.777693851318794</v>
       </c>
       <c r="O44" s="15">
         <f>LOG(I44*H44/J44^2,W$3)</f>
-        <v>50.364024052535179</v>
+        <v>42.25039199261186</v>
       </c>
       <c r="P44" s="10">
         <f>LOG(K44/J44+1,X$3)</f>
-        <v>39.750668279582989</v>
+        <v>23.476518198026806</v>
+      </c>
+      <c r="Q44" s="26">
+        <f>LOG(L44*M44/J44+1,Y$3)</f>
+        <v>32.715720535967201</v>
       </c>
       <c r="R44" s="15">
         <f>(N44+O44)/2</f>
-        <v>54.156238312385156</v>
+        <v>50.014042921965327</v>
       </c>
       <c r="S44" s="10">
         <f>(N44+O44+P44)/3</f>
-        <v>49.354381634784431</v>
+        <v>41.168201347319155</v>
       </c>
       <c r="T44" s="11">
         <f>(N44+O44+Q44)/3</f>
-        <v>36.104158874923435</v>
+        <v>44.247935459965952</v>
       </c>
       <c r="U44" s="26">
         <f>(N44*2+O44*2+P44+Q44)/6</f>
-        <v>42.729270254853937</v>
+        <v>42.708068403642557</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
+      <c r="B45" s="36" t="s">
+        <v>318</v>
       </c>
       <c r="C45" s="19">
         <v>2022</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="23">
+        <v>6866583.4000000004</v>
+      </c>
       <c r="E45" s="8">
-        <v>145400000</v>
+        <v>80722168.060000002</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8">
-        <v>222200000</v>
+        <v>135345844</v>
       </c>
       <c r="H45" s="5">
         <f>G45</f>
-        <v>222200000</v>
+        <v>135345844</v>
       </c>
       <c r="I45" s="10">
-        <v>1746</v>
+        <v>604</v>
       </c>
       <c r="J45" s="12">
-        <v>14340</v>
+        <v>4950</v>
       </c>
       <c r="K45" s="13">
-        <v>21.48</v>
+        <v>4.04</v>
       </c>
       <c r="N45" s="32">
         <f>LOG((D45+E45)/(F45+E45)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>67.41735648167473</v>
       </c>
       <c r="O45" s="15">
         <f>LOG(I45*H45/J45^2,W$3)</f>
-        <v>49.2929360109013</v>
+        <v>53.03532442879353</v>
       </c>
       <c r="P45" s="10">
         <f>LOG(K45/J45+1,X$3)</f>
-        <v>27.66022126396112</v>
+        <v>15.296429792689452</v>
       </c>
       <c r="R45" s="15">
         <f>(N45+O45)/2</f>
-        <v>56.646558792940368</v>
+        <v>60.22634045523413</v>
       </c>
       <c r="S45" s="10">
         <f>(N45+O45+P45)/3</f>
-        <v>46.984446283280619</v>
+        <v>45.249703567719244</v>
       </c>
       <c r="T45" s="11">
         <f>(N45+O45+Q45)/3</f>
-        <v>37.764372528626915</v>
+        <v>40.150893636822751</v>
       </c>
       <c r="U45" s="26">
         <f>(N45*2+O45*2+P45+Q45)/6</f>
-        <v>42.374409405953763</v>
+        <v>42.700298602270998</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>80</v>
+      <c r="A46" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>54</v>
       </c>
       <c r="C46" s="19">
         <v>2022</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="8">
-        <v>350370000</v>
-      </c>
-      <c r="F46" s="8">
-        <v>41223000</v>
-      </c>
+        <v>145400000</v>
+      </c>
+      <c r="F46" s="8"/>
       <c r="G46" s="8">
-        <v>558679000</v>
+        <v>222200000</v>
       </c>
       <c r="H46" s="5">
         <f>G46</f>
-        <v>558679000</v>
+        <v>222200000</v>
       </c>
       <c r="I46" s="10">
-        <v>2430</v>
+        <v>1746</v>
       </c>
       <c r="J46" s="12">
-        <v>22406</v>
+        <v>14340</v>
       </c>
       <c r="K46" s="13">
-        <v>33.03</v>
-      </c>
-      <c r="L46" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M46" s="11">
-        <v>7</v>
+        <v>21.48</v>
       </c>
       <c r="N46" s="32">
         <f>LOG((D46+E46)/(F46+E46)+1,V$3)</f>
-        <v>59.007672610661068</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O46" s="15">
         <f>LOG(I46*H46/J46^2,W$3)</f>
-        <v>51.645707151093269</v>
+        <v>49.308514295239469</v>
       </c>
       <c r="P46" s="10">
         <f>LOG(K46/J46+1,X$3)</f>
-        <v>27.221992934466467</v>
-      </c>
-      <c r="Q46" s="26">
-        <f>LOG(L46*M46/J46+1,Y$3)</f>
-        <v>4.6288318244687847</v>
+        <v>28.064101376398966</v>
       </c>
       <c r="R46" s="15">
         <f>(N46+O46)/2</f>
-        <v>55.326689880877169</v>
+        <v>56.452138707405439</v>
       </c>
       <c r="S46" s="10">
         <f>(N46+O46+P46)/3</f>
-        <v>45.958457565406938</v>
+        <v>46.989459597069946</v>
       </c>
       <c r="T46" s="11">
         <f>(N46+O46+Q46)/3</f>
-        <v>38.427403862074378</v>
+        <v>37.63475913827029</v>
       </c>
       <c r="U46" s="26">
         <f>(N46*2+O46*2+P46+Q46)/6</f>
-        <v>42.192930713740658</v>
+        <v>42.312109367670125</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>40</v>
+      <c r="A47" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="C47" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="23">
-        <v>5160000</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="8">
-        <v>103200000</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>350370000</v>
+      </c>
+      <c r="F47" s="8">
+        <v>41223000</v>
+      </c>
       <c r="G47" s="8">
-        <v>516000000</v>
+        <v>558679000</v>
       </c>
       <c r="H47" s="5">
         <f>G47</f>
-        <v>516000000</v>
+        <v>558679000</v>
       </c>
       <c r="I47" s="10">
-        <v>3567.69</v>
+        <v>2430</v>
       </c>
       <c r="J47" s="12">
-        <v>27678</v>
+        <v>22406</v>
       </c>
       <c r="K47" s="13">
-        <v>28.06</v>
+        <v>33.03</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M47" s="11">
+        <v>7</v>
       </c>
       <c r="N47" s="32">
         <f>LOG((D47+E47)/(F47+E47)+1,V$3)</f>
-        <v>66.280118266156279</v>
+        <v>58.634801921435468</v>
       </c>
       <c r="O47" s="15">
         <f>LOG(I47*H47/J47^2,W$3)</f>
-        <v>50.874152222049197</v>
+        <v>51.662028993043762</v>
       </c>
       <c r="P47" s="10">
         <f>LOG(K47/J47+1,X$3)</f>
-        <v>18.725287670264329</v>
+        <v>27.619474265589417</v>
+      </c>
+      <c r="Q47" s="26">
+        <f>LOG(L47*M47/J47+1,Y$3)</f>
+        <v>4.6288318244687847</v>
       </c>
       <c r="R47" s="15">
         <f>(N47+O47)/2</f>
-        <v>58.577135244102735</v>
+        <v>55.148415457239615</v>
       </c>
       <c r="S47" s="10">
         <f>(N47+O47+P47)/3</f>
-        <v>45.293186052823266</v>
+        <v>45.972101726689552</v>
       </c>
       <c r="T47" s="11">
         <f>(N47+O47+Q47)/3</f>
-        <v>39.051423496068487</v>
+        <v>38.308554246316007</v>
       </c>
       <c r="U47" s="26">
         <f>(N47*2+O47*2+P47+Q47)/6</f>
-        <v>42.172304774445877</v>
+        <v>42.140327986502776</v>
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="65" t="s">
-        <v>41</v>
+      <c r="B48" s="64" t="s">
+        <v>40</v>
       </c>
       <c r="C48" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D48" s="23">
-        <v>1545561</v>
+        <v>5160000</v>
       </c>
       <c r="E48" s="8">
-        <v>146972266.58000001</v>
+        <v>103200000</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
-        <v>331968251.18000001</v>
+        <v>516000000</v>
       </c>
       <c r="H48" s="5">
         <f>G48</f>
-        <v>331968251.18000001</v>
+        <v>516000000</v>
       </c>
       <c r="I48" s="10">
-        <v>2453</v>
+        <v>3567.69</v>
       </c>
       <c r="J48" s="12">
-        <v>21617</v>
+        <v>27678</v>
       </c>
       <c r="K48" s="13">
-        <v>27.2</v>
-      </c>
-      <c r="N48" s="33">
+        <v>28.06</v>
+      </c>
+      <c r="N48" s="32">
         <f>LOG((D48+E48)/(F48+E48)+1,V$3)</f>
-        <v>64.48439546225211</v>
+        <v>65.861292844199355</v>
       </c>
       <c r="O48" s="15">
         <f>LOG(I48*H48/J48^2,W$3)</f>
-        <v>48.773975866306927</v>
+        <v>50.89023022577377</v>
       </c>
       <c r="P48" s="10">
         <f>LOG(K48/J48+1,X$3)</f>
-        <v>23.23785208101955</v>
+        <v>18.998704546345181</v>
       </c>
       <c r="R48" s="15">
         <f>(N48+O48)/2</f>
-        <v>56.629185664279518</v>
+        <v>58.375761534986566</v>
       </c>
       <c r="S48" s="10">
         <f>(N48+O48+P48)/3</f>
-        <v>45.498741136526199</v>
+        <v>45.250075872106102</v>
       </c>
       <c r="T48" s="11">
         <f>(N48+O48+Q48)/3</f>
-        <v>37.752790442853012</v>
+        <v>38.917174356657711</v>
       </c>
       <c r="U48" s="26">
         <f>(N48*2+O48*2+P48+Q48)/6</f>
-        <v>41.625765789689602</v>
+        <v>42.08362511438191</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>81</v>
+      <c r="A49" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="19">
         <v>2022</v>
       </c>
       <c r="D49" s="23">
-        <v>2272000</v>
+        <v>1545561</v>
       </c>
       <c r="E49" s="8">
-        <v>44663000</v>
-      </c>
-      <c r="F49" s="8">
-        <v>9198000</v>
-      </c>
+        <v>146972266.58000001</v>
+      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="8">
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="H49" s="5">
         <f>G49</f>
-        <v>244230000</v>
+        <v>331968251.18000001</v>
       </c>
       <c r="I49" s="10">
-        <v>1847</v>
+        <v>2453</v>
       </c>
       <c r="J49" s="12">
-        <v>14263</v>
+        <v>21617</v>
       </c>
       <c r="K49" s="13">
-        <v>19.46</v>
-      </c>
-      <c r="L49" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="M49" s="11">
-        <v>7</v>
+        <v>27.2</v>
       </c>
       <c r="N49" s="33">
         <f>LOG((D49+E49)/(F49+E49)+1,V$3)</f>
-        <v>57.864194065766327</v>
+        <v>64.076917249394043</v>
       </c>
       <c r="O49" s="15">
         <f>LOG(I49*H49/J49^2,W$3)</f>
-        <v>50.348623208253528</v>
+        <v>48.789390141167331</v>
       </c>
       <c r="P49" s="10">
         <f>LOG(K49/J49+1,X$3)</f>
-        <v>25.195990787996806</v>
-      </c>
-      <c r="Q49" s="26">
-        <f>LOG(L49*M49/J49+1,Y$3)</f>
-        <v>7.9315884498606026</v>
+        <v>23.577159067096499</v>
       </c>
       <c r="R49" s="15">
         <f>(N49+O49)/2</f>
-        <v>54.106408637009928</v>
+        <v>56.433153695280687</v>
       </c>
       <c r="S49" s="10">
         <f>(N49+O49+P49)/3</f>
-        <v>44.469602687338885</v>
+        <v>45.481155485885957</v>
       </c>
       <c r="T49" s="11">
         <f>(N49+O49+Q49)/3</f>
-        <v>38.714801907960151</v>
+        <v>37.622102463520456</v>
       </c>
       <c r="U49" s="26">
         <f>(N49*2+O49*2+P49+Q49)/6</f>
-        <v>41.592202297649521</v>
+        <v>41.551628974703206</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>299</v>
+      <c r="A50" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="C50" s="19">
         <v>2022</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="6">
-        <v>96570451</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>141671439</v>
-      </c>
-      <c r="H50" s="5" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">G50/INDIRECT("EUR!$B$30")</f>
-        <v>144653322.59190962</v>
+      <c r="D50" s="23">
+        <v>2272000</v>
+      </c>
+      <c r="E50" s="8">
+        <v>44663000</v>
+      </c>
+      <c r="F50" s="8">
+        <v>9198000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>244230000</v>
+      </c>
+      <c r="H50" s="5">
+        <f>G50</f>
+        <v>244230000</v>
       </c>
       <c r="I50" s="10">
-        <v>529</v>
+        <v>1847</v>
       </c>
       <c r="J50" s="12">
-        <v>4409</v>
+        <v>14263</v>
       </c>
       <c r="K50" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="N50" s="32">
+        <v>19.46</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="M50" s="11">
+        <v>7</v>
+      </c>
+      <c r="N50" s="33">
         <f>LOG((D50+E50)/(F50+E50)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>57.49854904083633</v>
       </c>
       <c r="O50" s="15">
-        <f ca="1">LOG(I50*H50/J50^2,W$3)</f>
-        <v>54.099510750671911</v>
+        <f>LOG(I50*H50/J50^2,W$3)</f>
+        <v>50.364535126508919</v>
       </c>
       <c r="P50" s="10">
         <f>LOG(K50/J50+1,X$3)</f>
-        <v>12.067190611506092</v>
+        <v>25.563889493337161</v>
+      </c>
+      <c r="Q50" s="26">
+        <f>LOG(L50*M50/J50+1,Y$3)</f>
+        <v>7.9315884498606026</v>
       </c>
       <c r="R50" s="15">
-        <f ca="1">(N50+O50)/2</f>
-        <v>59.049846162825673</v>
+        <f>(N50+O50)/2</f>
+        <v>53.931542083672625</v>
       </c>
       <c r="S50" s="10">
-        <f ca="1">(N50+O50+P50)/3</f>
-        <v>43.388960979052477</v>
+        <f>(N50+O50+P50)/3</f>
+        <v>44.47565788689414</v>
       </c>
       <c r="T50" s="11">
-        <f ca="1">(N50+O50+Q50)/3</f>
-        <v>39.366564108550449</v>
+        <f>(N50+O50+Q50)/3</f>
+        <v>38.598224205735285</v>
       </c>
       <c r="U50" s="26">
-        <f ca="1">(N50*2+O50*2+P50+Q50)/6</f>
-        <v>41.37776254380146</v>
+        <f>(N50*2+O50*2+P50+Q50)/6</f>
+        <v>41.536941046314716</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>53</v>
+      <c r="A51" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="C51" s="19">
         <v>2022</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="8">
-        <v>170900000</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8">
-        <v>289107937</v>
-      </c>
-      <c r="H51" s="5">
-        <f>G51</f>
-        <v>289107937</v>
+      <c r="D51" s="21"/>
+      <c r="E51" s="6">
+        <v>96570451</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6">
+        <v>141671439</v>
+      </c>
+      <c r="H51" s="5" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">G51/INDIRECT("EUR!$B$30")</f>
+        <v>144653322.59190962</v>
       </c>
       <c r="I51" s="10">
-        <v>3439.4</v>
+        <v>529</v>
       </c>
       <c r="J51" s="12">
-        <v>22287</v>
+        <v>4409</v>
       </c>
       <c r="K51" s="13">
-        <v>23</v>
+        <v>2.88</v>
       </c>
       <c r="N51" s="32">
         <f>LOG((D51+E51)/(F51+E51)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O51" s="15">
-        <f>LOG(I51*H51/J51^2,W$3)</f>
-        <v>49.680417023873424</v>
+        <f ca="1">LOG(I51*H51/J51^2,W$3)</f>
+        <v>54.116608080010202</v>
       </c>
       <c r="P51" s="10">
         <f>LOG(K51/J51+1,X$3)</f>
-        <v>19.061093557684394</v>
+        <v>12.243389429819016</v>
       </c>
       <c r="R51" s="15">
-        <f>(N51+O51)/2</f>
-        <v>56.840299299426434</v>
+        <f ca="1">(N51+O51)/2</f>
+        <v>58.856185599790805</v>
       </c>
       <c r="S51" s="10">
-        <f>(N51+O51+P51)/3</f>
-        <v>44.247230718845749</v>
+        <f ca="1">(N51+O51+P51)/3</f>
+        <v>43.318586876466874</v>
       </c>
       <c r="T51" s="11">
-        <f>(N51+O51+Q51)/3</f>
-        <v>37.893532866284289</v>
+        <f ca="1">(N51+O51+Q51)/3</f>
+        <v>39.237457066527206</v>
       </c>
       <c r="U51" s="26">
-        <f>(N51*2+O51*2+P51+Q51)/6</f>
-        <v>41.070381792565023</v>
+        <f ca="1">(N51*2+O51*2+P51+Q51)/6</f>
+        <v>41.27802197149704</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>53</v>
       </c>
       <c r="C52" s="19">
         <v>2022</v>
       </c>
-      <c r="D52" s="25">
-        <v>1644641233</v>
-      </c>
-      <c r="E52" s="16">
-        <v>21390200000</v>
-      </c>
-      <c r="F52" s="16">
-        <v>727601475</v>
-      </c>
-      <c r="G52" s="16">
-        <v>31234324081</v>
-      </c>
-      <c r="H52" s="5" cm="1">
-        <f t="array" aca="1" ref="H52" ca="1">G52/INDIRECT("EUR!$B$68")</f>
-        <v>207764385.15969706</v>
+      <c r="D52" s="23"/>
+      <c r="E52" s="8">
+        <v>170900000</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <v>289107937</v>
+      </c>
+      <c r="H52" s="5">
+        <f>G52</f>
+        <v>289107937</v>
       </c>
       <c r="I52" s="10">
-        <v>876</v>
+        <v>3439.4</v>
       </c>
       <c r="J52" s="12">
-        <v>14167</v>
+        <v>22287</v>
       </c>
       <c r="K52" s="13">
-        <v>19.309999999999999</v>
+        <v>23</v>
       </c>
       <c r="N52" s="32">
         <f>LOG((D52+E52)/(F52+E52)+1,V$3)</f>
-        <v>65.89474316667264</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O52" s="15">
-        <f ca="1">LOG(I52*H52/J52^2,W$3)</f>
-        <v>44.50507098670068</v>
+        <f>LOG(I52*H52/J52^2,W$3)</f>
+        <v>49.696117765705189</v>
       </c>
       <c r="P52" s="10">
         <f>LOG(K52/J52+1,X$3)</f>
-        <v>25.17121378608606</v>
+        <v>19.339413696044826</v>
       </c>
       <c r="R52" s="15">
-        <f ca="1">(N52+O52)/2</f>
-        <v>55.199907076686657</v>
+        <f>(N52+O52)/2</f>
+        <v>56.645940442638299</v>
       </c>
       <c r="S52" s="10">
-        <f ca="1">(N52+O52+P52)/3</f>
-        <v>45.190342646486464</v>
+        <f>(N52+O52+P52)/3</f>
+        <v>44.21043152710714</v>
       </c>
       <c r="T52" s="11">
-        <f ca="1">(N52+O52+Q52)/3</f>
-        <v>36.799938051124435</v>
+        <f>(N52+O52+Q52)/3</f>
+        <v>37.763960295092197</v>
       </c>
       <c r="U52" s="26">
-        <f ca="1">(N52*2+O52*2+P52+Q52)/6</f>
-        <v>40.99514034880545</v>
+        <f>(N52*2+O52*2+P52+Q52)/6</f>
+        <v>40.987195911099668</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>309</v>
+      <c r="A53" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="69" t="s">
+        <v>47</v>
       </c>
       <c r="C53" s="19">
         <v>2022</v>
       </c>
-      <c r="D53" s="23">
-        <v>787395.16</v>
-      </c>
-      <c r="E53" s="8">
-        <v>78111453.140000001</v>
-      </c>
-      <c r="F53" s="8">
-        <v>4919089.51</v>
-      </c>
-      <c r="G53" s="8">
-        <v>138761857.59</v>
-      </c>
-      <c r="H53" s="5">
-        <f>G53</f>
-        <v>138761857.59</v>
+      <c r="D53" s="25">
+        <v>1644641233</v>
+      </c>
+      <c r="E53" s="16">
+        <v>21390200000</v>
+      </c>
+      <c r="F53" s="16">
+        <v>727601475</v>
+      </c>
+      <c r="G53" s="16">
+        <v>31234324081</v>
+      </c>
+      <c r="H53" s="5" cm="1">
+        <f t="array" aca="1" ref="H53" ca="1">G53/INDIRECT("EUR!$B$68")</f>
+        <v>207764385.15969706</v>
       </c>
       <c r="I53" s="10">
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="J53" s="12">
-        <v>6753</v>
+        <v>14167</v>
       </c>
       <c r="K53" s="13">
-        <v>5.15</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="N53" s="32">
         <f>LOG((D53+E53)/(F53+E53)+1,V$3)</f>
-        <v>61.673828296563762</v>
+        <v>65.478352937845656</v>
       </c>
       <c r="O53" s="15">
-        <f>LOG(I53*H53/J53^2,W$3)</f>
-        <v>54.201357591627506</v>
+        <f ca="1">LOG(I53*H53/J53^2,W$3)</f>
+        <v>44.519136138960384</v>
       </c>
       <c r="P53" s="10">
         <f>LOG(K53/J53+1,X$3)</f>
-        <v>14.087713736107897</v>
+        <v>25.538750710577954</v>
       </c>
       <c r="R53" s="15">
-        <f>(N53+O53)/2</f>
-        <v>57.937592944095634</v>
+        <f ca="1">(N53+O53)/2</f>
+        <v>54.998744538403017</v>
       </c>
       <c r="S53" s="10">
-        <f>(N53+O53+P53)/3</f>
-        <v>43.320966541433052</v>
+        <f ca="1">(N53+O53+P53)/3</f>
+        <v>45.178746595794657</v>
       </c>
       <c r="T53" s="11">
-        <f>(N53+O53+Q53)/3</f>
-        <v>38.62506196273042</v>
+        <f ca="1">(N53+O53+Q53)/3</f>
+        <v>36.66582969226868</v>
       </c>
       <c r="U53" s="26">
-        <f>(N53*2+O53*2+P53+Q53)/6</f>
-        <v>40.97301425208174</v>
+        <f ca="1">(N53*2+O53*2+P53+Q53)/6</f>
+        <v>40.922288144031668</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C54" s="19">
         <v>2022</v>
       </c>
       <c r="D54" s="23">
-        <v>13059331</v>
+        <v>787395.16</v>
       </c>
       <c r="E54" s="8">
-        <v>51775598</v>
+        <v>78111453.140000001</v>
       </c>
       <c r="F54" s="8">
-        <v>5408741</v>
+        <v>4919089.51</v>
       </c>
       <c r="G54" s="8">
-        <v>127845362</v>
+        <v>138761857.59</v>
       </c>
       <c r="H54" s="5">
         <f>G54</f>
-        <v>127845362</v>
+        <v>138761857.59</v>
       </c>
       <c r="I54" s="10">
-        <v>859.21199999999999</v>
+        <v>1314</v>
       </c>
       <c r="J54" s="12">
-        <v>8846</v>
+        <v>6753</v>
       </c>
       <c r="K54" s="13">
-        <v>3.85</v>
+        <v>5.15</v>
       </c>
       <c r="N54" s="32">
         <f>LOG((D54+E54)/(F54+E54)+1,V$3)</f>
-        <v>69.978885500431858</v>
+        <v>61.284110115068053</v>
       </c>
       <c r="O54" s="15">
         <f>LOG(I54*H54/J54^2,W$3)</f>
-        <v>47.360780788833722</v>
+        <v>54.218487108114218</v>
       </c>
       <c r="P54" s="10">
         <f>LOG(K54/J54+1,X$3)</f>
-        <v>8.0410894193625797</v>
+        <v>14.293415178386116</v>
       </c>
       <c r="R54" s="15">
         <f>(N54+O54)/2</f>
-        <v>58.66983314463279</v>
+        <v>57.751298611591139</v>
       </c>
       <c r="S54" s="10">
         <f>(N54+O54+P54)/3</f>
-        <v>41.793585236209388</v>
+        <v>43.265337467189461</v>
       </c>
       <c r="T54" s="11">
         <f>(N54+O54+Q54)/3</f>
-        <v>39.113222096421858</v>
+        <v>38.500865741060757</v>
       </c>
       <c r="U54" s="26">
         <f>(N54*2+O54*2+P54+Q54)/6</f>
-        <v>40.453403666315623</v>
+        <v>40.883101604125109</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>56</v>
+      <c r="A55" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="C55" s="19">
         <v>2022</v>
       </c>
-      <c r="D55" s="23"/>
+      <c r="D55" s="23">
+        <v>13059331</v>
+      </c>
       <c r="E55" s="8">
-        <v>155350916.22</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>51775598</v>
+      </c>
+      <c r="F55" s="8">
+        <v>5408741</v>
+      </c>
       <c r="G55" s="8">
-        <v>256352554.86000001</v>
+        <v>127845362</v>
       </c>
       <c r="H55" s="5">
         <f>G55</f>
-        <v>256352554.86000001</v>
+        <v>127845362</v>
       </c>
       <c r="I55" s="10">
-        <v>1689</v>
+        <v>859.21199999999999</v>
       </c>
       <c r="J55" s="12">
-        <v>16170</v>
+        <v>8846</v>
       </c>
       <c r="K55" s="13">
-        <v>14.69</v>
+        <v>3.85</v>
       </c>
       <c r="N55" s="32">
         <f>LOG((D55+E55)/(F55+E55)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>69.536687492726145</v>
       </c>
       <c r="O55" s="15">
         <f>LOG(I55*H55/J55^2,W$3)</f>
-        <v>48.440570083037329</v>
+        <v>47.375748444837072</v>
       </c>
       <c r="P55" s="10">
         <f>LOG(K55/J55+1,X$3)</f>
-        <v>16.780703587952566</v>
+        <v>8.1585012096668859</v>
       </c>
       <c r="R55" s="15">
         <f>(N55+O55)/2</f>
-        <v>56.220375829008383</v>
+        <v>58.456217968781608</v>
       </c>
       <c r="S55" s="10">
         <f>(N55+O55+P55)/3</f>
-        <v>43.07381841532311</v>
+        <v>41.690312382410035</v>
       </c>
       <c r="T55" s="11">
         <f>(N55+O55+Q55)/3</f>
-        <v>37.480250552672253</v>
+        <v>38.970811979187737</v>
       </c>
       <c r="U55" s="26">
         <f>(N55*2+O55*2+P55+Q55)/6</f>
-        <v>40.277034483997681</v>
+        <v>40.330562180798886</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>302</v>
+      <c r="A56" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="C56" s="19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="8">
-        <v>296960000</v>
-      </c>
-      <c r="F56" s="8">
-        <v>20480000</v>
-      </c>
+        <v>155350916.22</v>
+      </c>
+      <c r="F56" s="8"/>
       <c r="G56" s="8">
-        <v>512000000</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="H56" s="5">
         <f>G56</f>
-        <v>512000000</v>
+        <v>256352554.86000001</v>
       </c>
       <c r="I56" s="10">
-        <v>3106</v>
+        <v>1689</v>
       </c>
       <c r="J56" s="12">
-        <v>34318</v>
+        <v>16170</v>
       </c>
       <c r="K56" s="13">
-        <v>41.16</v>
-      </c>
-      <c r="N56" s="33">
+        <v>14.69</v>
+      </c>
+      <c r="N56" s="32">
         <f>LOG((D56+E56)/(F56+E56)+1,V$3)</f>
-        <v>60.97260723963042</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O56" s="15">
         <f>LOG(I56*H56/J56^2,W$3)</f>
-        <v>47.107009973809461</v>
+        <v>48.455878990059816</v>
       </c>
       <c r="P56" s="10">
         <f>LOG(K56/J56+1,X$3)</f>
-        <v>22.150762170060499</v>
+        <v>17.025726662323947</v>
       </c>
       <c r="R56" s="15">
         <f>(N56+O56)/2</f>
-        <v>54.039808606719944</v>
+        <v>56.025821054815609</v>
       </c>
       <c r="S56" s="10">
         <f>(N56+O56+P56)/3</f>
-        <v>43.41012646116679</v>
+        <v>43.025789590651719</v>
       </c>
       <c r="T56" s="11">
         <f>(N56+O56+Q56)/3</f>
-        <v>36.02653907114663</v>
+        <v>37.35054736987707</v>
       </c>
       <c r="U56" s="26">
         <f>(N56*2+O56*2+P56+Q56)/6</f>
-        <v>39.718332766156713</v>
+        <v>40.188168480264402</v>
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="70" t="s">
         <v>39</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C57" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D57" s="23">
-        <v>2800000</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="8">
-        <v>338800000</v>
+        <v>296960000</v>
       </c>
       <c r="F57" s="8">
-        <v>33940644.689999998</v>
+        <v>20480000</v>
       </c>
       <c r="G57" s="8">
-        <v>818252566.36000001</v>
+        <v>512000000</v>
       </c>
       <c r="H57" s="5">
         <f>G57</f>
-        <v>818252566.36000001</v>
+        <v>512000000</v>
       </c>
       <c r="I57" s="10">
-        <v>2115.35</v>
+        <v>3106</v>
       </c>
       <c r="J57" s="12">
-        <v>50000</v>
+        <v>34318</v>
       </c>
       <c r="K57" s="13">
-        <v>84.27</v>
+        <v>41.16</v>
       </c>
       <c r="N57" s="33">
         <f>LOG((D57+E57)/(F57+E57)+1,V$3)</f>
-        <v>60.060334699683715</v>
+        <v>60.587320088325029</v>
       </c>
       <c r="O57" s="15">
         <f>LOG(I57*H57/J57^2,W$3)</f>
-        <v>42.741585957538817</v>
+        <v>47.121897429398039</v>
       </c>
       <c r="P57" s="10">
         <f>LOG(K57/J57+1,X$3)</f>
-        <v>31.119517467633258</v>
+        <v>22.4741960367116</v>
       </c>
       <c r="R57" s="15">
         <f>(N57+O57)/2</f>
-        <v>51.400960328611262</v>
+        <v>53.854608758861531</v>
       </c>
       <c r="S57" s="10">
         <f>(N57+O57+P57)/3</f>
-        <v>44.64047937495193</v>
+        <v>43.39447118481155</v>
       </c>
       <c r="T57" s="11">
         <f>(N57+O57+Q57)/3</f>
-        <v>34.267306885740844</v>
+        <v>35.903072505907687</v>
       </c>
       <c r="U57" s="26">
         <f>(N57*2+O57*2+P57+Q57)/6</f>
-        <v>39.453893130346387</v>
+        <v>39.648771845359619</v>
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="40" t="s">
-        <v>290</v>
+      <c r="A58" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C58" s="19">
         <v>2022</v>
       </c>
-      <c r="D58" s="56">
-        <v>1527000</v>
-      </c>
-      <c r="E58" s="57">
-        <v>9986630000</v>
-      </c>
-      <c r="F58" s="57">
-        <v>888843000</v>
-      </c>
-      <c r="G58" s="57">
-        <v>13836220000</v>
-      </c>
-      <c r="H58" s="5" cm="1">
-        <f t="array" aca="1" ref="H58" ca="1">G58/INDIRECT("EUR!$B$37")</f>
-        <v>546832541.83651006</v>
+      <c r="D58" s="23">
+        <v>2800000</v>
+      </c>
+      <c r="E58" s="8">
+        <v>338800000</v>
+      </c>
+      <c r="F58" s="8">
+        <v>33940644.689999998</v>
+      </c>
+      <c r="G58" s="8">
+        <v>818252566.36000001</v>
+      </c>
+      <c r="H58" s="5">
+        <f>G58</f>
+        <v>818252566.36000001</v>
       </c>
       <c r="I58" s="10">
-        <v>5097</v>
+        <v>2115.35</v>
       </c>
       <c r="J58" s="12">
-        <v>51727</v>
+        <v>50000</v>
       </c>
       <c r="K58" s="13">
-        <v>43.38</v>
-      </c>
-      <c r="L58" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M58" s="11">
-        <v>23</v>
-      </c>
-      <c r="N58" s="32">
+        <v>84.27</v>
+      </c>
+      <c r="N58" s="33">
         <f>LOG((D58+E58)/(F58+E58)+1,V$3)</f>
-        <v>60.154541308455421</v>
+        <v>59.680812217203275</v>
       </c>
       <c r="O58" s="15">
-        <f ca="1">LOG(I58*H58/J58^2,W$3)</f>
-        <v>45.411192504212195</v>
+        <f>LOG(I58*H58/J58^2,W$3)</f>
+        <v>42.755093787118369</v>
       </c>
       <c r="P58" s="10">
         <f>LOG(K58/J58+1,X$3)</f>
-        <v>15.491226389073002</v>
-      </c>
-      <c r="Q58" s="26">
-        <f>LOG(L58*M58/J58+1,Y$3)</f>
-        <v>9.5806662376272502</v>
+        <v>31.573908417506644</v>
       </c>
       <c r="R58" s="15">
-        <f ca="1">(N58+O58)/2</f>
-        <v>52.782866906333808</v>
+        <f>(N58+O58)/2</f>
+        <v>51.217953002160826</v>
       </c>
       <c r="S58" s="10">
-        <f ca="1">(N58+O58+P58)/3</f>
-        <v>40.352320067246872</v>
+        <f>(N58+O58+P58)/3</f>
+        <v>44.669938140609439</v>
       </c>
       <c r="T58" s="11">
-        <f ca="1">(N58+O58+Q58)/3</f>
-        <v>38.382133350098293</v>
+        <f>(N58+O58+Q58)/3</f>
+        <v>34.145302001440548</v>
       </c>
       <c r="U58" s="26">
-        <f ca="1">(N58*2+O58*2+P58+Q58)/6</f>
-        <v>39.367226708672582</v>
+        <f>(N58*2+O58*2+P58+Q58)/6</f>
+        <v>39.407620071024986</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -6380,673 +6379,687 @@
         <v>290</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C59" s="19">
         <v>2022</v>
       </c>
       <c r="D59" s="56">
-        <v>21450000</v>
+        <v>1527000</v>
       </c>
       <c r="E59" s="57">
-        <v>4831049000</v>
+        <v>9986630000</v>
       </c>
       <c r="F59" s="57">
-        <v>304293000</v>
+        <v>888843000</v>
       </c>
       <c r="G59" s="57">
-        <v>8743272000</v>
+        <v>13836220000</v>
       </c>
       <c r="H59" s="5" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">G59/INDIRECT("EUR!$B$37")</f>
-        <v>345549987.76602185</v>
+        <v>546832541.83651006</v>
       </c>
       <c r="I59" s="10">
-        <v>2666.7</v>
+        <v>5097</v>
       </c>
       <c r="J59" s="12">
-        <v>32335</v>
+        <v>51727</v>
       </c>
       <c r="K59" s="13">
-        <v>15.09</v>
+        <v>43.38</v>
       </c>
       <c r="L59" s="14">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M59" s="11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N59" s="32">
         <f>LOG((D59+E59)/(F59+E59)+1,V$3)</f>
-        <v>61.421773959636525</v>
+        <v>59.774423532488754</v>
       </c>
       <c r="O59" s="15">
         <f ca="1">LOG(I59*H59/J59^2,W$3)</f>
-        <v>44.318773769376229</v>
+        <v>45.425544022425868</v>
       </c>
       <c r="P59" s="10">
         <f>LOG(K59/J59+1,X$3)</f>
-        <v>8.6220521333813753</v>
+        <v>15.717421190485194</v>
       </c>
       <c r="Q59" s="26">
         <f>LOG(L59*M59/J59+1,Y$3)</f>
-        <v>9.204297753797027</v>
+        <v>9.5806662376272502</v>
       </c>
       <c r="R59" s="15">
         <f ca="1">(N59+O59)/2</f>
-        <v>52.870273864506373</v>
+        <v>52.599983777457311</v>
       </c>
       <c r="S59" s="10">
         <f ca="1">(N59+O59+P59)/3</f>
-        <v>38.12086662079804</v>
+        <v>40.305796248466606</v>
       </c>
       <c r="T59" s="11">
         <f ca="1">(N59+O59+Q59)/3</f>
-        <v>38.31494849426992</v>
+        <v>38.260211264180626</v>
       </c>
       <c r="U59" s="26">
         <f ca="1">(N59*2+O59*2+P59+Q59)/6</f>
-        <v>38.217907557533984</v>
+        <v>39.283003756323616</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="65" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="C60" s="19">
         <v>2022</v>
       </c>
-      <c r="D60" s="23">
-        <v>339239</v>
-      </c>
-      <c r="E60" s="8">
-        <v>351034175</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8">
-        <v>464664582</v>
-      </c>
-      <c r="H60" s="5">
-        <f>G60</f>
-        <v>464664582</v>
+      <c r="D60" s="56">
+        <v>21450000</v>
+      </c>
+      <c r="E60" s="57">
+        <v>4831049000</v>
+      </c>
+      <c r="F60" s="57">
+        <v>304293000</v>
+      </c>
+      <c r="G60" s="57">
+        <v>8743272000</v>
+      </c>
+      <c r="H60" s="5" cm="1">
+        <f t="array" aca="1" ref="H60" ca="1">G60/INDIRECT("EUR!$B$37")</f>
+        <v>345549987.76602185</v>
       </c>
       <c r="I60" s="10">
-        <v>4121.8999999999996</v>
+        <v>2666.7</v>
       </c>
       <c r="J60" s="12">
-        <v>37509</v>
+        <v>32335</v>
       </c>
       <c r="K60" s="13">
-        <v>13.61</v>
+        <v>15.09</v>
+      </c>
+      <c r="L60" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="M60" s="11">
+        <v>17</v>
       </c>
       <c r="N60" s="32">
         <f>LOG((D60+E60)/(F60+E60)+1,V$3)</f>
-        <v>64.044785925507583</v>
+        <v>61.033648514647346</v>
       </c>
       <c r="O60" s="15">
-        <f>LOG(I60*H60/J60^2,W$3)</f>
-        <v>47.160258870527556</v>
+        <f ca="1">LOG(I60*H60/J60^2,W$3)</f>
+        <v>44.332780045227715</v>
       </c>
       <c r="P60" s="10">
         <f>LOG(K60/J60+1,X$3)</f>
-        <v>6.7040840130881971</v>
+        <v>8.7479468379769649</v>
+      </c>
+      <c r="Q60" s="26">
+        <f>LOG(L60*M60/J60+1,Y$3)</f>
+        <v>9.204297753797027</v>
       </c>
       <c r="R60" s="15">
-        <f>(N60+O60)/2</f>
-        <v>55.60252239801757</v>
+        <f ca="1">(N60+O60)/2</f>
+        <v>52.68321427993753</v>
       </c>
       <c r="S60" s="10">
-        <f>(N60+O60+P60)/3</f>
-        <v>39.303042936374446</v>
+        <f ca="1">(N60+O60+P60)/3</f>
+        <v>38.038125132617346</v>
       </c>
       <c r="T60" s="11">
-        <f>(N60+O60+Q60)/3</f>
-        <v>37.068348265345044</v>
+        <f ca="1">(N60+O60+Q60)/3</f>
+        <v>38.190242104557363</v>
       </c>
       <c r="U60" s="26">
-        <f>(N60*2+O60*2+P60+Q60)/6</f>
-        <v>38.185695600859745</v>
+        <f ca="1">(N60*2+O60*2+P60+Q60)/6</f>
+        <v>38.114183618587354</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>303</v>
+      <c r="A61" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="69" t="s">
+        <v>295</v>
       </c>
       <c r="C61" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H61" s="5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="23">
+        <v>339239</v>
+      </c>
+      <c r="E61" s="8">
+        <v>351034175</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
+        <v>464664582</v>
+      </c>
+      <c r="H61" s="5">
         <f>G61</f>
-        <v>*</v>
+        <v>464664582</v>
       </c>
       <c r="I61" s="10">
-        <v>2300.8000000000002</v>
+        <v>4121.8999999999996</v>
       </c>
       <c r="J61" s="12">
-        <v>31632</v>
+        <v>37509</v>
       </c>
       <c r="K61" s="13">
-        <v>38.19</v>
-      </c>
-      <c r="L61" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="M61" s="11">
-        <v>10</v>
-      </c>
-      <c r="N61" s="63">
-        <v>50</v>
-      </c>
-      <c r="O61" s="64">
-        <v>50</v>
+        <v>13.61</v>
+      </c>
+      <c r="N61" s="32">
+        <f>LOG((D61+E61)/(F61+E61)+1,V$3)</f>
+        <v>63.64008561429695</v>
+      </c>
+      <c r="O61" s="15">
+        <f>LOG(I61*H61/J61^2,W$3)</f>
+        <v>47.175163154621821</v>
       </c>
       <c r="P61" s="10">
         <f>LOG(K61/J61+1,X$3)</f>
-        <v>22.297519866192719</v>
-      </c>
-      <c r="Q61" s="26">
-        <f>LOG(L61*M61/J61+1,Y$3)</f>
-        <v>5.1096582238162229</v>
+        <v>6.8019735483583528</v>
       </c>
       <c r="R61" s="15">
         <f>(N61+O61)/2</f>
-        <v>50</v>
+        <v>55.407624384459382</v>
       </c>
       <c r="S61" s="10">
         <f>(N61+O61+P61)/3</f>
-        <v>40.765839955397574</v>
+        <v>39.205740772425706</v>
       </c>
       <c r="T61" s="11">
         <f>(N61+O61+Q61)/3</f>
-        <v>35.036552741272075</v>
+        <v>36.938416256306255</v>
       </c>
       <c r="U61" s="26">
         <f>(N61*2+O61*2+P61+Q61)/6</f>
-        <v>37.901196348334821</v>
+        <v>38.072078514365977</v>
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="40" t="s">
-        <v>44</v>
+      <c r="A62" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C62" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="8">
-        <v>53158584</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8">
-        <v>82284663</v>
-      </c>
-      <c r="H62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H62" s="5" t="str">
         <f>G62</f>
-        <v>82284663</v>
+        <v>*</v>
       </c>
       <c r="I62" s="10">
-        <v>908.75</v>
+        <v>2300.8000000000002</v>
       </c>
       <c r="J62" s="12">
-        <v>7298</v>
+        <v>31632</v>
       </c>
       <c r="K62" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="N62" s="32">
-        <f>LOG((D62+E62)/(F62+E62)+1,V$3)</f>
-        <v>64.000181574979436</v>
-      </c>
-      <c r="O62" s="15">
-        <f>LOG(I62*H62/J62^2,W$3)</f>
-        <v>47.361746269151119</v>
+        <v>38.19</v>
+      </c>
+      <c r="L62" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="M62" s="11">
+        <v>10</v>
+      </c>
+      <c r="N62" s="62">
+        <v>50</v>
+      </c>
+      <c r="O62" s="63">
+        <v>50</v>
       </c>
       <c r="P62" s="10">
         <f>LOG(K62/J62+1,X$3)</f>
-        <v>2.6079442810403517</v>
+        <v>22.623096612116168</v>
+      </c>
+      <c r="Q62" s="26">
+        <f>LOG(L62*M62/J62+1,Y$3)</f>
+        <v>5.1096582238162229</v>
       </c>
       <c r="R62" s="15">
         <f>(N62+O62)/2</f>
-        <v>55.680963922065274</v>
+        <v>50</v>
       </c>
       <c r="S62" s="10">
         <f>(N62+O62+P62)/3</f>
-        <v>37.989957375056967</v>
+        <v>40.874365537372057</v>
       </c>
       <c r="T62" s="11">
         <f>(N62+O62+Q62)/3</f>
-        <v>37.120642614710185</v>
+        <v>35.036552741272075</v>
       </c>
       <c r="U62" s="26">
         <f>(N62*2+O62*2+P62+Q62)/6</f>
-        <v>37.555299994883576</v>
+        <v>37.955459139322066</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>85</v>
+      <c r="A63" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>319</v>
       </c>
       <c r="C63" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D63" s="22">
-        <v>3448000</v>
-      </c>
-      <c r="E63" s="7">
-        <v>91494000</v>
-      </c>
-      <c r="F63" s="7">
-        <v>361632000</v>
-      </c>
-      <c r="G63" s="7">
-        <v>730044000</v>
-      </c>
-      <c r="H63" s="5" cm="1">
-        <f t="array" aca="1" ref="H63" ca="1">G63/INDIRECT("EUR!$B$48")</f>
-        <v>851513211.07273698</v>
+        <v>2022</v>
+      </c>
+      <c r="D63" s="23">
+        <v>3082276</v>
+      </c>
+      <c r="E63" s="8">
+        <v>56319000</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8">
+        <v>107036020.98999999</v>
+      </c>
+      <c r="H63" s="5">
+        <f>G63</f>
+        <v>107036020.98999999</v>
       </c>
       <c r="I63" s="10">
-        <v>2445</v>
+        <v>788</v>
       </c>
       <c r="J63" s="12">
-        <v>23795</v>
+        <v>9092</v>
       </c>
       <c r="K63" s="13">
-        <v>63.86</v>
-      </c>
-      <c r="L63" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="M63" s="11">
-        <v>34</v>
+        <v>2.13</v>
       </c>
       <c r="N63" s="32">
         <f>LOG((D63+E63)/(F63+E63)+1,V$3)</f>
-        <v>17.564378071402231</v>
+        <v>66.072693857142639</v>
       </c>
       <c r="O63" s="15">
-        <f ca="1">LOG(I63*H63/J63^2,W$3)</f>
-        <v>53.654010731623373</v>
+        <f>LOG(I63*H63/J63^2,W$3)</f>
+        <v>45.290112165451255</v>
       </c>
       <c r="P63" s="10">
         <f>LOG(K63/J63+1,X$3)</f>
-        <v>49.528670820566028</v>
-      </c>
-      <c r="Q63" s="26">
-        <f>LOG(L63*M63/J63+1,Y$3)</f>
-        <v>32.683970988643054</v>
+        <v>4.3919803502665733</v>
       </c>
       <c r="R63" s="15">
-        <f ca="1">(N63+O63)/2</f>
-        <v>35.609194401512802</v>
+        <f>(N63+O63)/2</f>
+        <v>55.68140301129695</v>
       </c>
       <c r="S63" s="10">
-        <f ca="1">(N63+O63+P63)/3</f>
-        <v>40.249019874530546</v>
+        <f>(N63+O63+P63)/3</f>
+        <v>38.584928790953491</v>
       </c>
       <c r="T63" s="11">
-        <f ca="1">(N63+O63+Q63)/3</f>
-        <v>34.634119930556217</v>
+        <f>(N63+O63+Q63)/3</f>
+        <v>37.120935340864634</v>
       </c>
       <c r="U63" s="26">
-        <f ca="1">(N63*2+O63*2+P63+Q63)/6</f>
-        <v>37.441569902543385</v>
+        <f>(N63*2+O63*2+P63+Q63)/6</f>
+        <v>37.852932065909066</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>43</v>
+      <c r="A64" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C64" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="8">
-        <v>117080000</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8">
-        <v>192860000</v>
-      </c>
-      <c r="H64" s="5">
-        <f>G64</f>
-        <v>192860000</v>
+        <v>2023</v>
+      </c>
+      <c r="D64" s="22">
+        <v>3448000</v>
+      </c>
+      <c r="E64" s="7">
+        <v>91494000</v>
+      </c>
+      <c r="F64" s="7">
+        <v>361632000</v>
+      </c>
+      <c r="G64" s="7">
+        <v>730044000</v>
+      </c>
+      <c r="H64" s="5" cm="1">
+        <f t="array" aca="1" ref="H64" ca="1">G64/INDIRECT("EUR!$B$48")</f>
+        <v>851513211.07273698</v>
       </c>
       <c r="I64" s="10">
-        <v>2214</v>
+        <v>2445</v>
       </c>
       <c r="J64" s="12">
-        <v>23245</v>
+        <v>23795</v>
       </c>
       <c r="K64" s="13">
-        <v>11.33</v>
-      </c>
-      <c r="N64" s="33">
+        <v>63.86</v>
+      </c>
+      <c r="L64" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="M64" s="11">
+        <v>34</v>
+      </c>
+      <c r="N64" s="32">
         <f>LOG((D64+E64)/(F64+E64)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>17.453388407388278</v>
       </c>
       <c r="O64" s="15">
-        <f>LOG(I64*H64/J64^2,W$3)</f>
-        <v>43.605814973640037</v>
+        <f ca="1">LOG(I64*H64/J64^2,W$3)</f>
+        <v>53.670967267441718</v>
       </c>
       <c r="P64" s="10">
         <f>LOG(K64/J64+1,X$3)</f>
-        <v>9.0051329195726346</v>
+        <v>50.251862618238675</v>
+      </c>
+      <c r="Q64" s="26">
+        <f>LOG(L64*M64/J64+1,Y$3)</f>
+        <v>32.683970988643054</v>
       </c>
       <c r="R64" s="15">
-        <f>(N64+O64)/2</f>
-        <v>53.802998274309736</v>
+        <f ca="1">(N64+O64)/2</f>
+        <v>35.562177837415</v>
       </c>
       <c r="S64" s="10">
-        <f>(N64+O64+P64)/3</f>
-        <v>38.870376489397366</v>
+        <f ca="1">(N64+O64+P64)/3</f>
+        <v>40.458739431022892</v>
       </c>
       <c r="T64" s="11">
-        <f>(N64+O64+Q64)/3</f>
-        <v>35.868665516206491</v>
+        <f ca="1">(N64+O64+Q64)/3</f>
+        <v>34.602775554491018</v>
       </c>
       <c r="U64" s="26">
-        <f>(N64*2+O64*2+P64+Q64)/6</f>
-        <v>37.369521002801932</v>
+        <f ca="1">(N64*2+O64*2+P64+Q64)/6</f>
+        <v>37.530757492756955</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="66" t="s">
-        <v>39</v>
+      <c r="A65" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C65" s="19">
-        <v>2024</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H65" s="5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="8">
+        <v>53158584</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <v>82284663</v>
+      </c>
+      <c r="H65" s="5">
         <f>G65</f>
-        <v>*</v>
+        <v>82284663</v>
       </c>
       <c r="I65" s="10">
-        <v>900</v>
+        <v>908.75</v>
       </c>
       <c r="J65" s="12">
-        <v>10000</v>
+        <v>7298</v>
       </c>
       <c r="K65" s="13">
-        <v>12.92</v>
-      </c>
-      <c r="N65" s="63">
-        <v>50</v>
-      </c>
-      <c r="O65" s="64">
-        <v>50</v>
+        <v>1.03</v>
+      </c>
+      <c r="N65" s="32">
+        <f>LOG((D65+E65)/(F65+E65)+1,V$3)</f>
+        <v>63.595763119571409</v>
+      </c>
+      <c r="O65" s="15">
+        <f>LOG(I65*H65/J65^2,W$3)</f>
+        <v>47.376714230279873</v>
       </c>
       <c r="P65" s="10">
         <f>LOG(K65/J65+1,X$3)</f>
-        <v>23.860398806327151</v>
+        <v>2.6460241221018754</v>
       </c>
       <c r="R65" s="15">
         <f>(N65+O65)/2</f>
-        <v>50</v>
+        <v>55.486238674925644</v>
       </c>
       <c r="S65" s="10">
         <f>(N65+O65+P65)/3</f>
-        <v>41.286799602109049</v>
+        <v>37.872833823984386</v>
       </c>
       <c r="T65" s="11">
         <f>(N65+O65+Q65)/3</f>
-        <v>33.333333333333336</v>
+        <v>36.990825783283761</v>
       </c>
       <c r="U65" s="26">
         <f>(N65*2+O65*2+P65+Q65)/6</f>
-        <v>37.310066467721192</v>
+        <v>37.431829803634074</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>86</v>
+      <c r="A66" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="C66" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D66" s="22">
-        <v>28900000</v>
-      </c>
-      <c r="E66" s="7">
-        <v>148300000</v>
-      </c>
-      <c r="F66" s="7">
-        <v>607800000</v>
-      </c>
-      <c r="G66" s="7">
-        <v>1230000000</v>
-      </c>
-      <c r="H66" s="5" cm="1">
-        <f t="array" aca="1" ref="H66" ca="1">G66/INDIRECT("EUR!$B$48")</f>
-        <v>1434654965.4808018</v>
+        <v>2024</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f>G66</f>
+        <v>*</v>
       </c>
       <c r="I66" s="10">
-        <v>4525</v>
+        <v>900</v>
       </c>
       <c r="J66" s="12">
-        <v>41490</v>
+        <v>10000</v>
       </c>
       <c r="K66" s="13">
-        <v>112.24</v>
-      </c>
-      <c r="L66" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M66" s="11">
-        <v>36</v>
-      </c>
-      <c r="N66" s="32">
-        <f>LOG((D66+E66)/(F66+E66)+1,V$3)</f>
-        <v>19.440940985662493</v>
-      </c>
-      <c r="O66" s="15">
-        <f ca="1">LOG(I66*H66/J66^2,W$3)</f>
-        <v>53.819244133705183</v>
+        <v>12.92</v>
+      </c>
+      <c r="N66" s="62">
+        <v>50</v>
+      </c>
+      <c r="O66" s="63">
+        <v>50</v>
       </c>
       <c r="P66" s="10">
         <f>LOG(K66/J66+1,X$3)</f>
-        <v>49.924421239602914</v>
-      </c>
-      <c r="Q66" s="26">
-        <f>LOG(L66*M66/J66+1,Y$3)</f>
-        <v>26.857991486022215</v>
+        <v>24.208795894721636</v>
       </c>
       <c r="R66" s="15">
-        <f ca="1">(N66+O66)/2</f>
-        <v>36.630092559683838</v>
+        <f>(N66+O66)/2</f>
+        <v>50</v>
       </c>
       <c r="S66" s="10">
-        <f ca="1">(N66+O66+P66)/3</f>
-        <v>41.061535452990199</v>
+        <f>(N66+O66+P66)/3</f>
+        <v>41.402931964907211</v>
       </c>
       <c r="T66" s="11">
-        <f ca="1">(N66+O66+Q66)/3</f>
-        <v>33.372725535129966</v>
+        <f>(N66+O66+Q66)/3</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="U66" s="26">
-        <f ca="1">(N66*2+O66*2+P66+Q66)/6</f>
-        <v>37.217130494060079</v>
+        <f>(N66*2+O66*2+P66+Q66)/6</f>
+        <v>37.368132649120277</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>308</v>
+      <c r="A67" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="69" t="s">
+        <v>86</v>
       </c>
       <c r="C67" s="19">
-        <v>2021</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f>G67</f>
-        <v>*</v>
+        <v>2023</v>
+      </c>
+      <c r="D67" s="22">
+        <v>28900000</v>
+      </c>
+      <c r="E67" s="7">
+        <v>148300000</v>
+      </c>
+      <c r="F67" s="7">
+        <v>607800000</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1230000000</v>
+      </c>
+      <c r="H67" s="5" cm="1">
+        <f t="array" aca="1" ref="H67" ca="1">G67/INDIRECT("EUR!$B$48")</f>
+        <v>1434654965.4808018</v>
       </c>
       <c r="I67" s="10">
-        <v>830</v>
+        <v>4525</v>
       </c>
       <c r="J67" s="12">
-        <v>6499</v>
+        <v>41490</v>
       </c>
       <c r="K67" s="13">
-        <v>7.92</v>
-      </c>
-      <c r="N67" s="63">
-        <v>50</v>
-      </c>
-      <c r="O67" s="64">
-        <v>50</v>
+        <v>112.24</v>
+      </c>
+      <c r="L67" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M67" s="11">
+        <v>36</v>
+      </c>
+      <c r="N67" s="32">
+        <f>LOG((D67+E67)/(F67+E67)+1,V$3)</f>
+        <v>19.318093282240135</v>
+      </c>
+      <c r="O67" s="15">
+        <f ca="1">LOG(I67*H67/J67^2,W$3)</f>
+        <v>53.836252889032615</v>
       </c>
       <c r="P67" s="10">
         <f>LOG(K67/J67+1,X$3)</f>
-        <v>22.506592126079298</v>
+        <v>50.653391578315158</v>
+      </c>
+      <c r="Q67" s="26">
+        <f>LOG(L67*M67/J67+1,Y$3)</f>
+        <v>26.857991486022215</v>
       </c>
       <c r="R67" s="15">
-        <f>(N67+O67)/2</f>
-        <v>50</v>
+        <f ca="1">(N67+O67)/2</f>
+        <v>36.577173085636375</v>
       </c>
       <c r="S67" s="10">
-        <f>(N67+O67+P67)/3</f>
-        <v>40.835530708693099</v>
+        <f ca="1">(N67+O67+P67)/3</f>
+        <v>41.269245916529307</v>
       </c>
       <c r="T67" s="11">
-        <f>(N67+O67+Q67)/3</f>
-        <v>33.333333333333336</v>
+        <f ca="1">(N67+O67+Q67)/3</f>
+        <v>33.337445885764986</v>
       </c>
       <c r="U67" s="26">
-        <f>(N67*2+O67*2+P67+Q67)/6</f>
-        <v>37.084432021013214</v>
+        <f ca="1">(N67*2+O67*2+P67+Q67)/6</f>
+        <v>37.303345901147146</v>
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>310</v>
+      <c r="A68" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="69" t="s">
+        <v>43</v>
       </c>
       <c r="C68" s="19">
         <v>2022</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="4">
-        <v>634700000</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4">
-        <v>787500000</v>
-      </c>
-      <c r="H68" s="5" cm="1">
-        <f t="array" aca="1" ref="H68" ca="1">G68/INDIRECT("EUR!$B$39")</f>
-        <v>105560710.34382363</v>
+      <c r="D68" s="23"/>
+      <c r="E68" s="8">
+        <v>117080000</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
+        <v>192860000</v>
+      </c>
+      <c r="H68" s="5">
+        <f>G68</f>
+        <v>192860000</v>
       </c>
       <c r="I68" s="10">
-        <v>538</v>
+        <v>2214</v>
       </c>
       <c r="J68" s="12">
-        <v>8045</v>
+        <v>23245</v>
       </c>
       <c r="K68" s="13">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="N68" s="32">
+        <v>11.33</v>
+      </c>
+      <c r="N68" s="33">
         <f>LOG((D68+E68)/(F68+E68)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O68" s="15">
-        <f ca="1">LOG(I68*H68/J68^2,W$3)</f>
-        <v>44.290079594248525</v>
+        <f>LOG(I68*H68/J68^2,W$3)</f>
+        <v>43.619595929684259</v>
       </c>
       <c r="P68" s="10">
         <f>LOG(K68/J68+1,X$3)</f>
-        <v>5.7646842010671513</v>
+        <v>9.1366211698424706</v>
       </c>
       <c r="R68" s="15">
-        <f ca="1">(N68+O68)/2</f>
-        <v>54.14513058461398</v>
+        <f>(N68+O68)/2</f>
+        <v>53.607679524627834</v>
       </c>
       <c r="S68" s="10">
-        <f ca="1">(N68+O68+P68)/3</f>
-        <v>38.018315123431705</v>
+        <f>(N68+O68+P68)/3</f>
+        <v>38.783993406366044</v>
       </c>
       <c r="T68" s="11">
-        <f ca="1">(N68+O68+Q68)/3</f>
-        <v>36.096753723075985</v>
+        <f>(N68+O68+Q68)/3</f>
+        <v>35.738453016418553</v>
       </c>
       <c r="U68" s="26">
-        <f ca="1">(N68*2+O68*2+P68+Q68)/6</f>
-        <v>37.057534423253848</v>
+        <f>(N68*2+O68*2+P68+Q68)/6</f>
+        <v>37.261223211392299</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="70" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C69" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D69" s="23">
-        <v>2604620</v>
+        <v>2021</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>307</v>
@@ -7062,23 +7075,23 @@
         <v>*</v>
       </c>
       <c r="I69" s="10">
-        <v>5135</v>
+        <v>830</v>
       </c>
       <c r="J69" s="12">
-        <v>23202</v>
+        <v>6499</v>
       </c>
       <c r="K69" s="13">
-        <v>27.84</v>
-      </c>
-      <c r="N69" s="63">
+        <v>7.92</v>
+      </c>
+      <c r="N69" s="62">
         <v>50</v>
       </c>
-      <c r="O69" s="64">
+      <c r="O69" s="63">
         <v>50</v>
       </c>
       <c r="P69" s="10">
         <f>LOG(K69/J69+1,X$3)</f>
-        <v>22.16047026883875</v>
+        <v>22.835221636007226</v>
       </c>
       <c r="R69" s="15">
         <f>(N69+O69)/2</f>
@@ -7086,7 +7099,7 @@
       </c>
       <c r="S69" s="10">
         <f>(N69+O69+P69)/3</f>
-        <v>40.720156756279586</v>
+        <v>40.945073878669071</v>
       </c>
       <c r="T69" s="11">
         <f>(N69+O69+Q69)/3</f>
@@ -7094,1593 +7107,1591 @@
       </c>
       <c r="U69" s="26">
         <f>(N69*2+O69*2+P69+Q69)/6</f>
-        <v>37.026745044806461</v>
+        <v>37.139203606001203</v>
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>4</v>
+      <c r="A70" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>304</v>
       </c>
       <c r="C70" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D70" s="22">
-        <v>2600000</v>
-      </c>
-      <c r="E70" s="7">
-        <v>94600000</v>
-      </c>
-      <c r="F70" s="7">
-        <v>342500000</v>
-      </c>
-      <c r="G70" s="7">
-        <v>675100000</v>
-      </c>
-      <c r="H70" s="5" cm="1">
-        <f t="array" aca="1" ref="H70" ca="1">G70/INDIRECT("EUR!$B$48")</f>
-        <v>787427290.4033246</v>
+        <v>2022</v>
+      </c>
+      <c r="D70" s="23">
+        <v>2604620</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f>G70</f>
+        <v>*</v>
       </c>
       <c r="I70" s="10">
-        <v>2745</v>
+        <v>5135</v>
       </c>
       <c r="J70" s="12">
-        <v>28680</v>
+        <v>23202</v>
       </c>
       <c r="K70" s="13">
-        <v>58.62</v>
-      </c>
-      <c r="L70" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M70" s="11">
-        <v>42</v>
-      </c>
-      <c r="N70" s="32">
-        <f>LOG((D70+E70)/(F70+E70)+1,V$3)</f>
-        <v>18.539997498220327</v>
-      </c>
-      <c r="O70" s="15">
-        <f ca="1">LOG(I70*H70/J70^2,W$3)</f>
-        <v>51.458426824328065</v>
+        <v>27.84</v>
+      </c>
+      <c r="N70" s="62">
+        <v>50</v>
+      </c>
+      <c r="O70" s="63">
+        <v>50</v>
       </c>
       <c r="P70" s="10">
         <f>LOG(K70/J70+1,X$3)</f>
-        <v>37.732779536977205</v>
-      </c>
-      <c r="Q70" s="26">
-        <f>LOG(L70*M70/J70+1,Y$3)</f>
-        <v>43.332504241313956</v>
+        <v>22.484045888080647</v>
       </c>
       <c r="R70" s="15">
-        <f ca="1">(N70+O70)/2</f>
-        <v>34.999212161274194</v>
+        <f>(N70+O70)/2</f>
+        <v>50</v>
       </c>
       <c r="S70" s="10">
-        <f ca="1">(N70+O70+P70)/3</f>
-        <v>35.910401286508531</v>
+        <f>(N70+O70+P70)/3</f>
+        <v>40.828015296026884</v>
       </c>
       <c r="T70" s="11">
-        <f ca="1">(N70+O70+Q70)/3</f>
-        <v>37.776976187954112</v>
+        <f>(N70+O70+Q70)/3</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="U70" s="26">
-        <f ca="1">(N70*2+O70*2+P70+Q70)/6</f>
-        <v>36.843688737231325</v>
+        <f>(N70*2+O70*2+P70+Q70)/6</f>
+        <v>37.08067431468011</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="65" t="s">
-        <v>83</v>
+      <c r="A71" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="C71" s="19">
         <v>2022</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="8">
-        <v>318235849.14999998</v>
-      </c>
-      <c r="F71" s="8">
-        <v>86177594.299999997</v>
-      </c>
-      <c r="G71" s="8">
-        <v>582806127.85000002</v>
-      </c>
-      <c r="H71" s="5">
-        <f>G71</f>
-        <v>582806127.85000002</v>
+      <c r="D71" s="20"/>
+      <c r="E71" s="4">
+        <v>634700000</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4">
+        <v>787500000</v>
+      </c>
+      <c r="H71" s="5" cm="1">
+        <f t="array" aca="1" ref="H71" ca="1">G71/INDIRECT("EUR!$B$39")</f>
+        <v>105560710.34382363</v>
       </c>
       <c r="I71" s="10">
-        <v>1627</v>
+        <v>538</v>
       </c>
       <c r="J71" s="12">
-        <v>47959</v>
+        <v>8045</v>
       </c>
       <c r="K71" s="13">
-        <v>18.43</v>
-      </c>
-      <c r="L71" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="M71" s="11">
-        <v>38</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="N71" s="32">
         <f>LOG((D71+E71)/(F71+E71)+1,V$3)</f>
-        <v>53.597893493034974</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O71" s="15">
-        <f>LOG(I71*H71/J71^2,W$3)</f>
-        <v>39.353381432290611</v>
+        <f ca="1">LOG(I71*H71/J71^2,W$3)</f>
+        <v>44.304076801741431</v>
       </c>
       <c r="P71" s="10">
         <f>LOG(K71/J71+1,X$3)</f>
-        <v>7.1001474967740119</v>
-      </c>
-      <c r="Q71" s="26">
-        <f>LOG(L71*M71/J71+1,Y$3)</f>
-        <v>22.397076277110823</v>
+        <v>5.8488571106428671</v>
       </c>
       <c r="R71" s="15">
-        <f>(N71+O71)/2</f>
-        <v>46.475637462662789</v>
+        <f ca="1">(N71+O71)/2</f>
+        <v>53.949919960656416</v>
       </c>
       <c r="S71" s="10">
-        <f>(N71+O71+P71)/3</f>
-        <v>33.350474140699866</v>
+        <f ca="1">(N71+O71+P71)/3</f>
+        <v>37.916232343985236</v>
       </c>
       <c r="T71" s="11">
-        <f>(N71+O71+Q71)/3</f>
-        <v>38.449450400812133</v>
+        <f ca="1">(N71+O71+Q71)/3</f>
+        <v>35.966613307104275</v>
       </c>
       <c r="U71" s="26">
-        <f>(N71*2+O71*2+P71+Q71)/6</f>
-        <v>35.899962270755999</v>
+        <f ca="1">(N71*2+O71*2+P71+Q71)/6</f>
+        <v>36.941422825544755</v>
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>314</v>
+      <c r="A72" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="69" t="s">
+        <v>4</v>
       </c>
       <c r="C72" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D72" s="23">
-        <v>7500</v>
-      </c>
-      <c r="E72" s="8">
-        <v>59146671</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8">
-        <v>85680826</v>
-      </c>
-      <c r="H72" s="5">
-        <f>G72</f>
-        <v>85680826</v>
+        <v>2023</v>
+      </c>
+      <c r="D72" s="22">
+        <v>2600000</v>
+      </c>
+      <c r="E72" s="7">
+        <v>94600000</v>
+      </c>
+      <c r="F72" s="7">
+        <v>342500000</v>
+      </c>
+      <c r="G72" s="7">
+        <v>675100000</v>
+      </c>
+      <c r="H72" s="5" cm="1">
+        <f t="array" aca="1" ref="H72" ca="1">G72/INDIRECT("EUR!$B$48")</f>
+        <v>787427290.4033246</v>
       </c>
       <c r="I72" s="10">
-        <v>1377</v>
+        <v>2745</v>
       </c>
       <c r="J72" s="12">
-        <v>13039</v>
+        <v>28680</v>
       </c>
       <c r="K72" s="13">
-        <v>1.27</v>
+        <v>58.62</v>
+      </c>
+      <c r="L72" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M72" s="11">
+        <v>42</v>
       </c>
       <c r="N72" s="32">
         <f>LOG((D72+E72)/(F72+E72)+1,V$3)</f>
-        <v>64.006035443175435</v>
+        <v>18.422842875108596</v>
       </c>
       <c r="O72" s="15">
-        <f>LOG(I72*H72/J72^2,W$3)</f>
-        <v>42.756625216662918</v>
+        <f ca="1">LOG(I72*H72/J72^2,W$3)</f>
+        <v>51.47468947917352</v>
       </c>
       <c r="P72" s="10">
         <f>LOG(K72/J72+1,X$3)</f>
-        <v>1.7998398956013075</v>
+        <v>38.283733887506664</v>
+      </c>
+      <c r="Q72" s="26">
+        <f>LOG(L72*M72/J72+1,Y$3)</f>
+        <v>43.332504241313956</v>
       </c>
       <c r="R72" s="15">
-        <f>(N72+O72)/2</f>
-        <v>53.38133032991918</v>
+        <f ca="1">(N72+O72)/2</f>
+        <v>34.94876617714106</v>
       </c>
       <c r="S72" s="10">
-        <f>(N72+O72+P72)/3</f>
-        <v>36.187500185146554</v>
+        <f ca="1">(N72+O72+P72)/3</f>
+        <v>36.060422080596261</v>
       </c>
       <c r="T72" s="11">
-        <f>(N72+O72+Q72)/3</f>
-        <v>35.587553553279456</v>
+        <f ca="1">(N72+O72+Q72)/3</f>
+        <v>37.743345531865359</v>
       </c>
       <c r="U72" s="26">
-        <f>(N72*2+O72*2+P72+Q72)/6</f>
-        <v>35.887526869213005</v>
+        <f ca="1">(N72*2+O72*2+P72+Q72)/6</f>
+        <v>36.901883806230806</v>
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>286</v>
+      <c r="B73" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="C73" s="19">
         <v>2022</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="8">
-        <v>243288828.80000001</v>
+        <v>318235849.14999998</v>
       </c>
       <c r="F73" s="8">
-        <v>47175453.299999997</v>
+        <v>86177594.299999997</v>
       </c>
       <c r="G73" s="8">
-        <v>360460467.07999998</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="H73" s="5">
         <f>G73</f>
-        <v>360460467.07999998</v>
+        <v>582806127.85000002</v>
       </c>
       <c r="I73" s="10">
-        <v>1355</v>
+        <v>1627</v>
       </c>
       <c r="J73" s="12">
-        <v>26339</v>
+        <v>47959</v>
       </c>
       <c r="K73" s="13">
-        <v>10.59</v>
+        <v>18.43</v>
       </c>
       <c r="L73" s="14">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="M73" s="11">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N73" s="32">
         <f>LOG((D73+E73)/(F73+E73)+1,V$3)</f>
-        <v>56.18011487759042</v>
+        <v>53.25920730861872</v>
       </c>
       <c r="O73" s="15">
         <f>LOG(I73*H73/J73^2,W$3)</f>
-        <v>42.850967184218881</v>
+        <v>39.36581847125062</v>
       </c>
       <c r="P73" s="10">
         <f>LOG(K73/J73+1,X$3)</f>
-        <v>7.4285657728518624</v>
+        <v>7.2038201442903436</v>
       </c>
       <c r="Q73" s="26">
         <f>LOG(L73*M73/J73+1,Y$3)</f>
-        <v>6.647472329095053</v>
+        <v>22.397076277110823</v>
       </c>
       <c r="R73" s="15">
         <f>(N73+O73)/2</f>
-        <v>49.51554103090465</v>
+        <v>46.312512889934666</v>
       </c>
       <c r="S73" s="10">
         <f>(N73+O73+P73)/3</f>
-        <v>35.486549278220387</v>
+        <v>33.276281974719893</v>
       </c>
       <c r="T73" s="11">
         <f>(N73+O73+Q73)/3</f>
-        <v>35.22618479696812</v>
+        <v>38.340700685660053</v>
       </c>
       <c r="U73" s="26">
         <f>(N73*2+O73*2+P73+Q73)/6</f>
-        <v>35.356367037594254</v>
+        <v>35.808491330189973</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="40" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C74" s="19">
         <v>2022</v>
       </c>
-      <c r="D74" s="23"/>
+      <c r="D74" s="23">
+        <v>7500</v>
+      </c>
       <c r="E74" s="8">
-        <v>212140470</v>
-      </c>
-      <c r="F74" s="8">
-        <v>32808958</v>
-      </c>
+        <v>59146671</v>
+      </c>
+      <c r="F74" s="8"/>
       <c r="G74" s="8">
-        <v>330933638</v>
+        <v>85680826</v>
       </c>
       <c r="H74" s="5">
         <f>G74</f>
-        <v>330933638</v>
+        <v>85680826</v>
       </c>
       <c r="I74" s="10">
-        <v>1310</v>
+        <v>1377</v>
       </c>
       <c r="J74" s="12">
-        <v>29362</v>
+        <v>13039</v>
       </c>
       <c r="K74" s="13">
-        <v>22.73</v>
+        <v>1.27</v>
       </c>
       <c r="N74" s="32">
         <f>LOG((D74+E74)/(F74+E74)+1,V$3)</f>
-        <v>57.599780188691788</v>
+        <v>63.601579997054642</v>
       </c>
       <c r="O74" s="15">
         <f>LOG(I74*H74/J74^2,W$3)</f>
-        <v>40.651574408769058</v>
+        <v>42.770137799172069</v>
       </c>
       <c r="P74" s="10">
         <f>LOG(K74/J74+1,X$3)</f>
-        <v>14.300174707967008</v>
+        <v>1.8261202182519687</v>
       </c>
       <c r="R74" s="15">
         <f>(N74+O74)/2</f>
-        <v>49.125677298730423</v>
+        <v>53.185858898113352</v>
       </c>
       <c r="S74" s="10">
         <f>(N74+O74+P74)/3</f>
-        <v>37.517176435142616</v>
+        <v>36.065946004826223</v>
       </c>
       <c r="T74" s="11">
         <f>(N74+O74+Q74)/3</f>
-        <v>32.750451532486949</v>
+        <v>35.457239265408901</v>
       </c>
       <c r="U74" s="26">
         <f>(N74*2+O74*2+P74+Q74)/6</f>
-        <v>35.133813983814782</v>
+        <v>35.761592635117559</v>
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>23</v>
+      <c r="A75" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="C75" s="19">
         <v>2022</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="8">
-        <v>196693950</v>
+        <v>243288828.80000001</v>
       </c>
       <c r="F75" s="8">
-        <v>33135497</v>
+        <v>47175453.299999997</v>
       </c>
       <c r="G75" s="8">
-        <v>291296473</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="H75" s="5">
         <f>G75</f>
-        <v>291296473</v>
+        <v>360460467.07999998</v>
       </c>
       <c r="I75" s="10">
-        <v>1294.4680000000001</v>
+        <v>1355</v>
       </c>
       <c r="J75" s="12">
-        <v>19497</v>
+        <v>26339</v>
       </c>
       <c r="K75" s="13">
-        <v>1.74</v>
+        <v>10.59</v>
       </c>
       <c r="L75" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="M75" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N75" s="32">
         <f>LOG((D75+E75)/(F75+E75)+1,V$3)</f>
-        <v>57.092080515561022</v>
+        <v>55.82511158346972</v>
       </c>
       <c r="O75" s="15">
         <f>LOG(I75*H75/J75^2,W$3)</f>
-        <v>45.091518924997487</v>
+        <v>42.864509582075108</v>
       </c>
       <c r="P75" s="10">
         <f>LOG(K75/J75+1,X$3)</f>
-        <v>1.6491405330856335</v>
+        <v>7.5370338126032435</v>
       </c>
       <c r="Q75" s="26">
         <f>LOG(L75*M75/J75+1,Y$3)</f>
-        <v>3.03987346824939</v>
+        <v>6.647472329095053</v>
       </c>
       <c r="R75" s="15">
         <f>(N75+O75)/2</f>
-        <v>51.091799720279255</v>
+        <v>49.344810582772411</v>
       </c>
       <c r="S75" s="10">
         <f>(N75+O75+P75)/3</f>
-        <v>34.610913324548044</v>
+        <v>35.408884992716018</v>
       </c>
       <c r="T75" s="11">
         <f>(N75+O75+Q75)/3</f>
-        <v>35.074490969602635</v>
+        <v>35.112364498213289</v>
       </c>
       <c r="U75" s="26">
         <f>(N75*2+O75*2+P75+Q75)/6</f>
-        <v>34.842702147075343</v>
+        <v>35.260624745464661</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="65" t="s">
-        <v>88</v>
+      <c r="A76" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="C76" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D76" s="22">
-        <v>4000000</v>
-      </c>
-      <c r="E76" s="7">
-        <v>74400000</v>
-      </c>
-      <c r="F76" s="7">
-        <v>453800000</v>
-      </c>
-      <c r="G76" s="7">
-        <v>839400000</v>
-      </c>
-      <c r="H76" s="5" cm="1">
-        <f t="array" aca="1" ref="H76" ca="1">G76/INDIRECT("EUR!$B$48")</f>
-        <v>979064534.97933745</v>
+        <v>2022</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="8">
+        <v>212140470</v>
+      </c>
+      <c r="F76" s="8">
+        <v>32808958</v>
+      </c>
+      <c r="G76" s="8">
+        <v>330933638</v>
+      </c>
+      <c r="H76" s="5">
+        <f>G76</f>
+        <v>330933638</v>
       </c>
       <c r="I76" s="10">
-        <v>2745</v>
+        <v>1310</v>
       </c>
       <c r="J76" s="12">
-        <v>28825</v>
+        <v>29362</v>
       </c>
       <c r="K76" s="13">
-        <v>58.98</v>
-      </c>
-      <c r="L76" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="M76" s="11">
-        <v>35</v>
+        <v>22.73</v>
       </c>
       <c r="N76" s="32">
         <f>LOG((D76+E76)/(F76+E76)+1,V$3)</f>
-        <v>12.778352826730631</v>
+        <v>57.235806000455121</v>
       </c>
       <c r="O76" s="15">
-        <f ca="1">LOG(I76*H76/J76^2,W$3)</f>
-        <v>52.816074916488311</v>
+        <f>LOG(I76*H76/J76^2,W$3)</f>
+        <v>40.664421721917414</v>
       </c>
       <c r="P76" s="10">
         <f>LOG(K76/J76+1,X$3)</f>
-        <v>37.77348933567464</v>
-      </c>
-      <c r="Q76" s="26">
-        <f>LOG(L76*M76/J76+1,Y$3)</f>
-        <v>39.201037625208272</v>
+        <v>14.508978394453045</v>
       </c>
       <c r="R76" s="15">
-        <f ca="1">(N76+O76)/2</f>
-        <v>32.797213871609472</v>
+        <f>(N76+O76)/2</f>
+        <v>48.950113861186267</v>
       </c>
       <c r="S76" s="10">
-        <f ca="1">(N76+O76+P76)/3</f>
-        <v>34.455972359631197</v>
+        <f>(N76+O76+P76)/3</f>
+        <v>37.469735372275188</v>
       </c>
       <c r="T76" s="11">
-        <f ca="1">(N76+O76+Q76)/3</f>
-        <v>34.931821789475741</v>
+        <f>(N76+O76+Q76)/3</f>
+        <v>32.633409240790847</v>
       </c>
       <c r="U76" s="26">
-        <f ca="1">(N76*2+O76*2+P76+Q76)/6</f>
-        <v>34.693897074553469</v>
+        <f>(N76*2+O76*2+P76+Q76)/6</f>
+        <v>35.051572306533018</v>
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>283</v>
+      <c r="A77" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="C77" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="8">
-        <v>128991623.3</v>
-      </c>
-      <c r="F77" s="8">
-        <v>20005825.18</v>
-      </c>
-      <c r="G77" s="8">
-        <v>173093242.25999999</v>
-      </c>
-      <c r="H77" s="5">
-        <f>G77</f>
-        <v>173093242.25999999</v>
+        <v>2023</v>
+      </c>
+      <c r="D77" s="22">
+        <v>4000000</v>
+      </c>
+      <c r="E77" s="7">
+        <v>74400000</v>
+      </c>
+      <c r="F77" s="7">
+        <v>453800000</v>
+      </c>
+      <c r="G77" s="7">
+        <v>839400000</v>
+      </c>
+      <c r="H77" s="5" cm="1">
+        <f t="array" aca="1" ref="H77" ca="1">G77/INDIRECT("EUR!$B$48")</f>
+        <v>979064534.97933745</v>
       </c>
       <c r="I77" s="10">
-        <v>644</v>
+        <v>2745</v>
       </c>
       <c r="J77" s="12">
-        <v>17201</v>
+        <v>28825</v>
       </c>
       <c r="K77" s="13">
-        <v>13.5</v>
+        <v>58.98</v>
+      </c>
+      <c r="L77" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M77" s="11">
+        <v>35</v>
       </c>
       <c r="N77" s="32">
         <f>LOG((D77+E77)/(F77+E77)+1,V$3)</f>
-        <v>57.583558182814301</v>
+        <v>12.69760615405454</v>
       </c>
       <c r="O77" s="15">
-        <f>LOG(I77*H77/J77^2,W$3)</f>
-        <v>38.76480726280726</v>
+        <f ca="1">LOG(I77*H77/J77^2,W$3)</f>
+        <v>52.832766635409115</v>
       </c>
       <c r="P77" s="10">
         <f>LOG(K77/J77+1,X$3)</f>
-        <v>14.497906375547673</v>
+        <v>38.325038109434423</v>
+      </c>
+      <c r="Q77" s="26">
+        <f>LOG(L77*M77/J77+1,Y$3)</f>
+        <v>39.201037625208272</v>
       </c>
       <c r="R77" s="15">
-        <f>(N77+O77)/2</f>
-        <v>48.174182722810784</v>
+        <f ca="1">(N77+O77)/2</f>
+        <v>32.765186394731828</v>
       </c>
       <c r="S77" s="10">
-        <f>(N77+O77+P77)/3</f>
-        <v>36.948757273723082</v>
+        <f ca="1">(N77+O77+P77)/3</f>
+        <v>34.618470299632691</v>
       </c>
       <c r="T77" s="11">
-        <f>(N77+O77+Q77)/3</f>
-        <v>32.116121815207187</v>
+        <f ca="1">(N77+O77+Q77)/3</f>
+        <v>34.910470138223978</v>
       </c>
       <c r="U77" s="26">
-        <f>(N77*2+O77*2+P77+Q77)/6</f>
-        <v>34.532439544465134</v>
+        <f ca="1">(N77*2+O77*2+P77+Q77)/6</f>
+        <v>34.764470218928331</v>
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="60" t="s">
-        <v>90</v>
+      <c r="A78" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="69" t="s">
+        <v>23</v>
       </c>
       <c r="C78" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D78" s="22">
-        <v>18564000</v>
-      </c>
-      <c r="E78" s="7">
-        <v>184180000</v>
-      </c>
-      <c r="F78" s="7">
-        <v>659945000</v>
-      </c>
-      <c r="G78" s="7">
-        <v>1344665000</v>
-      </c>
-      <c r="H78" s="5" cm="1">
-        <f t="array" aca="1" ref="H78" ca="1">G78/INDIRECT("EUR!$B$48")</f>
-        <v>1568398633.4619856</v>
+        <v>2022</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="8">
+        <v>196693950</v>
+      </c>
+      <c r="F78" s="8">
+        <v>33135497</v>
+      </c>
+      <c r="G78" s="8">
+        <v>291296473</v>
+      </c>
+      <c r="H78" s="5">
+        <f>G78</f>
+        <v>291296473</v>
       </c>
       <c r="I78" s="10">
-        <v>4820</v>
+        <v>1294.4680000000001</v>
       </c>
       <c r="J78" s="12">
-        <v>46410</v>
+        <v>19497</v>
       </c>
       <c r="K78" s="13">
-        <v>131.31</v>
+        <v>1.74</v>
       </c>
       <c r="L78" s="14">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M78" s="11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N78" s="32">
         <f>LOG((D78+E78)/(F78+E78)+1,V$3)</f>
-        <v>19.875407706319624</v>
+        <v>56.731314491935237</v>
       </c>
       <c r="O78" s="15">
-        <f ca="1">LOG(I78*H78/J78^2,W$3)</f>
-        <v>53.349760882029813</v>
+        <f>LOG(I78*H78/J78^2,W$3)</f>
+        <v>45.10576941522794</v>
       </c>
       <c r="P78" s="10">
         <f>LOG(K78/J78+1,X$3)</f>
-        <v>52.211739074409145</v>
+        <v>1.6732204223089437</v>
       </c>
       <c r="Q78" s="26">
         <f>LOG(L78*M78/J78+1,Y$3)</f>
-        <v>7.3129181632515596</v>
+        <v>3.03987346824939</v>
       </c>
       <c r="R78" s="15">
-        <f ca="1">(N78+O78)/2</f>
-        <v>36.612584294174717</v>
+        <f>(N78+O78)/2</f>
+        <v>50.918541953581588</v>
       </c>
       <c r="S78" s="10">
-        <f ca="1">(N78+O78+P78)/3</f>
-        <v>41.812302554252859</v>
+        <f>(N78+O78+P78)/3</f>
+        <v>34.503434776490707</v>
       </c>
       <c r="T78" s="11">
-        <f ca="1">(N78+O78+Q78)/3</f>
-        <v>26.846028917200329</v>
+        <f>(N78+O78+Q78)/3</f>
+        <v>34.958985791804189</v>
       </c>
       <c r="U78" s="26">
-        <f ca="1">(N78*2+O78*2+P78+Q78)/6</f>
-        <v>34.329165735726598</v>
+        <f>(N78*2+O78*2+P78+Q78)/6</f>
+        <v>34.731210284147444</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>5</v>
+      <c r="A79" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="C79" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D79" s="22">
-        <v>2099000</v>
-      </c>
-      <c r="E79" s="7">
-        <v>48390000</v>
-      </c>
-      <c r="F79" s="7">
-        <v>150726000</v>
-      </c>
-      <c r="G79" s="7">
-        <v>316331000</v>
-      </c>
-      <c r="H79" s="5" cm="1">
-        <f t="array" aca="1" ref="H79" ca="1">G79/INDIRECT("EUR!$B$48")</f>
-        <v>368964097.46789229</v>
+        <v>2022</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="8">
+        <v>128991623.3</v>
+      </c>
+      <c r="F79" s="8">
+        <v>20005825.18</v>
+      </c>
+      <c r="G79" s="8">
+        <v>173093242.25999999</v>
+      </c>
+      <c r="H79" s="5">
+        <f>G79</f>
+        <v>173093242.25999999</v>
       </c>
       <c r="I79" s="10">
-        <v>1300</v>
+        <v>644</v>
       </c>
       <c r="J79" s="12">
-        <v>15575</v>
+        <v>17201</v>
       </c>
       <c r="K79" s="13">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="L79" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="M79" s="11">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="N79" s="32">
         <f>LOG((D79+E79)/(F79+E79)+1,V$3)</f>
-        <v>20.866470741425474</v>
+        <v>57.219686501764315</v>
       </c>
       <c r="O79" s="15">
-        <f ca="1">LOG(I79*H79/J79^2,W$3)</f>
-        <v>49.599636897008416</v>
+        <f>LOG(I79*H79/J79^2,W$3)</f>
+        <v>38.777058291833427</v>
       </c>
       <c r="P79" s="10">
         <f>LOG(K79/J79+1,X$3)</f>
-        <v>21.439468195988383</v>
-      </c>
-      <c r="Q79" s="26">
-        <f>LOG(L79*M79/J79+1,Y$3)</f>
-        <v>42.660966247829869</v>
+        <v>14.709597236629058</v>
       </c>
       <c r="R79" s="15">
-        <f ca="1">(N79+O79)/2</f>
-        <v>35.233053819216948</v>
+        <f>(N79+O79)/2</f>
+        <v>47.998372396798871</v>
       </c>
       <c r="S79" s="10">
-        <f ca="1">(N79+O79+P79)/3</f>
-        <v>30.635191944807428</v>
+        <f>(N79+O79+P79)/3</f>
+        <v>36.9021140100756</v>
       </c>
       <c r="T79" s="11">
-        <f ca="1">(N79+O79+Q79)/3</f>
-        <v>37.709024628754584</v>
+        <f>(N79+O79+Q79)/3</f>
+        <v>31.998914931199248</v>
       </c>
       <c r="U79" s="26">
-        <f ca="1">(N79*2+O79*2+P79+Q79)/6</f>
-        <v>34.172108286781004</v>
+        <f>(N79*2+O79*2+P79+Q79)/6</f>
+        <v>34.450514470637422</v>
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="65" t="s">
-        <v>89</v>
+      <c r="B80" s="69" t="s">
+        <v>90</v>
       </c>
       <c r="C80" s="19">
         <v>2023</v>
       </c>
       <c r="D80" s="22">
-        <v>9000000</v>
+        <v>18564000</v>
       </c>
       <c r="E80" s="7">
-        <v>113000000</v>
+        <v>184180000</v>
       </c>
       <c r="F80" s="7">
-        <v>445000000</v>
+        <v>659945000</v>
       </c>
       <c r="G80" s="7">
-        <v>929000000</v>
+        <v>1344665000</v>
       </c>
       <c r="H80" s="5" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">G80/INDIRECT("EUR!$B$48")</f>
-        <v>1083572734.0907845</v>
+        <v>1568398633.4619856</v>
       </c>
       <c r="I80" s="10">
-        <v>3665</v>
+        <v>4820</v>
       </c>
       <c r="J80" s="12">
-        <v>37990</v>
+        <v>46410</v>
       </c>
       <c r="K80" s="13">
-        <v>72.36</v>
+        <v>131.31</v>
       </c>
       <c r="L80" s="14">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M80" s="11">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N80" s="32">
         <f>LOG((D80+E80)/(F80+E80)+1,V$3)</f>
-        <v>18.257307753571073</v>
+        <v>19.749814598809802</v>
       </c>
       <c r="O80" s="15">
         <f ca="1">LOG(I80*H80/J80^2,W$3)</f>
-        <v>51.759373075054363</v>
+        <v>53.366621264300605</v>
       </c>
       <c r="P80" s="10">
         <f>LOG(K80/J80+1,X$3)</f>
-        <v>35.165077389343416</v>
+        <v>52.974107634179951</v>
       </c>
       <c r="Q80" s="26">
         <f>LOG(L80*M80/J80+1,Y$3)</f>
-        <v>28.268156670214552</v>
+        <v>7.3129181632515596</v>
       </c>
       <c r="R80" s="15">
         <f ca="1">(N80+O80)/2</f>
-        <v>35.00834041431272</v>
+        <v>36.558217931555205</v>
       </c>
       <c r="S80" s="10">
         <f ca="1">(N80+O80+P80)/3</f>
-        <v>35.060586072656285</v>
+        <v>42.030181165763452</v>
       </c>
       <c r="T80" s="11">
         <f ca="1">(N80+O80+Q80)/3</f>
-        <v>32.761612499613328</v>
+        <v>26.809784675453994</v>
       </c>
       <c r="U80" s="26">
         <f ca="1">(N80*2+O80*2+P80+Q80)/6</f>
-        <v>33.911099286134807</v>
+        <v>34.419982920608724</v>
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="65" t="s">
-        <v>11</v>
+      <c r="B81" s="64" t="s">
+        <v>5</v>
       </c>
       <c r="C81" s="34">
         <v>2023</v>
       </c>
       <c r="D81" s="22">
-        <v>9373000</v>
+        <v>2099000</v>
       </c>
       <c r="E81" s="7">
-        <v>46778000</v>
+        <v>48390000</v>
       </c>
       <c r="F81" s="7">
-        <v>289887000</v>
+        <v>150726000</v>
       </c>
       <c r="G81" s="7">
-        <v>484223000</v>
+        <v>316331000</v>
       </c>
       <c r="H81" s="5" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">G81/INDIRECT("EUR!$B$48")</f>
-        <v>564791001.09756935</v>
+        <v>368964097.46789229</v>
       </c>
       <c r="I81" s="10">
-        <v>2020</v>
+        <v>1300</v>
       </c>
       <c r="J81" s="12">
-        <v>22230</v>
+        <v>15575</v>
       </c>
       <c r="K81" s="13">
-        <v>72.89</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="L81" s="14">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M81" s="11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N81" s="32">
         <f>LOG((D81+E81)/(F81+E81)+1,V$3)</f>
-        <v>14.242597141571922</v>
+        <v>20.734615086341471</v>
       </c>
       <c r="O81" s="15">
         <f ca="1">LOG(I81*H81/J81^2,W$3)</f>
-        <v>50.612206947083358</v>
+        <v>49.615312109507038</v>
       </c>
       <c r="P81" s="10">
         <f>LOG(K81/J81+1,X$3)</f>
-        <v>60.494103033751998</v>
+        <v>21.752516119320987</v>
       </c>
       <c r="Q81" s="26">
         <f>LOG(L81*M81/J81+1,Y$3)</f>
-        <v>12.720213559774043</v>
+        <v>42.660966247829869</v>
       </c>
       <c r="R81" s="15">
         <f ca="1">(N81+O81)/2</f>
-        <v>32.427402044327643</v>
+        <v>35.174963597924254</v>
       </c>
       <c r="S81" s="10">
         <f ca="1">(N81+O81+P81)/3</f>
-        <v>41.782969040802428</v>
+        <v>30.70081443838983</v>
       </c>
       <c r="T81" s="11">
         <f ca="1">(N81+O81+Q81)/3</f>
-        <v>25.858339216143108</v>
+        <v>37.670297814559461</v>
       </c>
       <c r="U81" s="26">
         <f ca="1">(N81*2+O81*2+P81+Q81)/6</f>
-        <v>33.820654128472768</v>
+        <v>34.185556126474644</v>
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="65" t="s">
-        <v>98</v>
+      <c r="A82" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="C82" s="34">
-        <v>2022</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="8">
-        <v>486789762</v>
-      </c>
-      <c r="F82" s="8">
-        <v>69227637</v>
-      </c>
-      <c r="G82" s="8">
-        <v>681246368</v>
-      </c>
-      <c r="H82" s="5">
-        <f>G82</f>
-        <v>681246368</v>
+        <v>2023</v>
+      </c>
+      <c r="D82" s="22">
+        <v>9000000</v>
+      </c>
+      <c r="E82" s="7">
+        <v>113000000</v>
+      </c>
+      <c r="F82" s="7">
+        <v>445000000</v>
+      </c>
+      <c r="G82" s="7">
+        <v>929000000</v>
+      </c>
+      <c r="H82" s="5" cm="1">
+        <f t="array" aca="1" ref="H82" ca="1">G82/INDIRECT("EUR!$B$48")</f>
+        <v>1083572734.0907845</v>
       </c>
       <c r="I82" s="10">
-        <v>2867</v>
+        <v>3665</v>
       </c>
       <c r="J82" s="12">
-        <v>73553</v>
+        <v>37990</v>
       </c>
       <c r="K82" s="13">
-        <v>38.32</v>
+        <v>72.36</v>
+      </c>
+      <c r="L82" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="M82" s="11">
+        <v>38</v>
       </c>
       <c r="N82" s="32">
         <f>LOG((D82+E82)/(F82+E82)+1,V$3)</f>
-        <v>58.065474255509066</v>
+        <v>18.141939452733393</v>
       </c>
       <c r="O82" s="15">
-        <f>LOG(I82*H82/J82^2,W$3)</f>
-        <v>38.486003782729789</v>
+        <f ca="1">LOG(I82*H82/J82^2,W$3)</f>
+        <v>51.775730839395081</v>
       </c>
       <c r="P82" s="10">
         <f>LOG(K82/J82+1,X$3)</f>
-        <v>9.6251518869318637</v>
+        <v>35.678539493437214</v>
+      </c>
+      <c r="Q82" s="26">
+        <f>LOG(L82*M82/J82+1,Y$3)</f>
+        <v>28.268156670214552</v>
       </c>
       <c r="R82" s="15">
-        <f>(N82+O82)/2</f>
-        <v>48.275739019119428</v>
+        <f ca="1">(N82+O82)/2</f>
+        <v>34.958835146064239</v>
       </c>
       <c r="S82" s="10">
-        <f>(N82+O82+P82)/3</f>
-        <v>35.392209975056907</v>
+        <f ca="1">(N82+O82+P82)/3</f>
+        <v>35.198736595188564</v>
       </c>
       <c r="T82" s="11">
-        <f>(N82+O82+Q82)/3</f>
-        <v>32.183826012746287</v>
+        <f ca="1">(N82+O82+Q82)/3</f>
+        <v>32.728608987447679</v>
       </c>
       <c r="U82" s="26">
-        <f>(N82*2+O82*2+P82+Q82)/6</f>
-        <v>33.788017993901597</v>
+        <f ca="1">(N82*2+O82*2+P82+Q82)/6</f>
+        <v>33.963672791318125</v>
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>13</v>
+      <c r="A83" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>11</v>
       </c>
       <c r="C83" s="34">
-        <v>2022</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="8">
-        <v>644619668.87</v>
-      </c>
-      <c r="F83" s="8">
-        <v>116819770.81999999</v>
-      </c>
-      <c r="G83" s="8">
-        <v>880317964.64999998</v>
-      </c>
-      <c r="H83" s="5">
-        <f>G83</f>
-        <v>880317964.64999998</v>
+        <v>2023</v>
+      </c>
+      <c r="D83" s="22">
+        <v>9373000</v>
+      </c>
+      <c r="E83" s="7">
+        <v>46778000</v>
+      </c>
+      <c r="F83" s="7">
+        <v>289887000</v>
+      </c>
+      <c r="G83" s="7">
+        <v>484223000</v>
+      </c>
+      <c r="H83" s="5" cm="1">
+        <f t="array" aca="1" ref="H83" ca="1">G83/INDIRECT("EUR!$B$48")</f>
+        <v>564791001.09756935</v>
       </c>
       <c r="I83" s="10">
-        <v>3576</v>
+        <v>2020</v>
       </c>
       <c r="J83" s="12">
-        <v>122143</v>
+        <v>22230</v>
       </c>
       <c r="K83" s="13">
-        <v>53.85</v>
+        <v>72.89</v>
       </c>
       <c r="L83" s="14">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="M83" s="11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N83" s="32">
         <f>LOG((D83+E83)/(F83+E83)+1,V$3)</f>
-        <v>56.630947308076287</v>
+        <v>14.152597879144125</v>
       </c>
       <c r="O83" s="15">
-        <f>LOG(I83*H83/J83^2,W$3)</f>
-        <v>34.976315526808754</v>
+        <f ca="1">LOG(I83*H83/J83^2,W$3)</f>
+        <v>50.628202166979158</v>
       </c>
       <c r="P83" s="10">
         <f>LOG(K83/J83+1,X$3)</f>
-        <v>8.1454858827073231</v>
+        <v>61.377406348716136</v>
       </c>
       <c r="Q83" s="26">
         <f>LOG(L83*M83/J83+1,Y$3)</f>
-        <v>10.584044537648918</v>
+        <v>12.720213559774043</v>
       </c>
       <c r="R83" s="15">
-        <f>(N83+O83)/2</f>
-        <v>45.803631417442517</v>
+        <f ca="1">(N83+O83)/2</f>
+        <v>32.390400023061645</v>
       </c>
       <c r="S83" s="10">
-        <f>(N83+O83+P83)/3</f>
-        <v>33.250916239197451</v>
+        <f ca="1">(N83+O83+P83)/3</f>
+        <v>42.052735464946473</v>
       </c>
       <c r="T83" s="11">
-        <f>(N83+O83+Q83)/3</f>
-        <v>34.063769124177988</v>
+        <f ca="1">(N83+O83+Q83)/3</f>
+        <v>25.833671201965775</v>
       </c>
       <c r="U83" s="26">
-        <f>(N83*2+O83*2+P83+Q83)/6</f>
-        <v>33.657342681687716</v>
+        <f ca="1">(N83*2+O83*2+P83+Q83)/6</f>
+        <v>33.943203333456125</v>
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="65" t="s">
-        <v>7</v>
+      <c r="A84" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="C84" s="34">
-        <v>2023</v>
-      </c>
-      <c r="D84" s="22">
-        <v>8000000</v>
-      </c>
-      <c r="E84" s="7">
-        <v>185900000</v>
-      </c>
-      <c r="F84" s="7">
-        <v>410800000</v>
-      </c>
-      <c r="G84" s="7">
-        <v>952200000</v>
-      </c>
-      <c r="H84" s="5" cm="1">
-        <f t="array" aca="1" ref="H84" ca="1">G84/INDIRECT("EUR!$B$48")</f>
-        <v>1110632892.7892842</v>
+        <v>2022</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="8">
+        <v>486789762</v>
+      </c>
+      <c r="F84" s="8">
+        <v>69227637</v>
+      </c>
+      <c r="G84" s="8">
+        <v>681246368</v>
+      </c>
+      <c r="H84" s="5">
+        <f>G84</f>
+        <v>681246368</v>
       </c>
       <c r="I84" s="10">
-        <v>3810</v>
+        <v>2867</v>
       </c>
       <c r="J84" s="12">
-        <v>42980</v>
+        <v>73553</v>
       </c>
       <c r="K84" s="13">
-        <v>77.62</v>
-      </c>
-      <c r="L84" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="M84" s="11">
-        <v>28</v>
+        <v>38.32</v>
       </c>
       <c r="N84" s="32">
         <f>LOG((D84+E84)/(F84+E84)+1,V$3)</f>
-        <v>25.980373117884334</v>
+        <v>57.698557336946322</v>
       </c>
       <c r="O84" s="15">
-        <f ca="1">LOG(I84*H84/J84^2,W$3)</f>
-        <v>50.561080585643971</v>
+        <f>LOG(I84*H84/J84^2,W$3)</f>
+        <v>38.498166700147301</v>
       </c>
       <c r="P84" s="10">
         <f>LOG(K84/J84+1,X$3)</f>
-        <v>33.343482082077841</v>
-      </c>
-      <c r="Q84" s="26">
-        <f>LOG(L84*M84/J84+1,Y$3)</f>
-        <v>14.911446889823594</v>
+        <v>9.7656933305171467</v>
       </c>
       <c r="R84" s="15">
-        <f ca="1">(N84+O84)/2</f>
-        <v>38.270726851764152</v>
+        <f>(N84+O84)/2</f>
+        <v>48.098362018546808</v>
       </c>
       <c r="S84" s="10">
-        <f ca="1">(N84+O84+P84)/3</f>
-        <v>36.628311928535382</v>
+        <f>(N84+O84+P84)/3</f>
+        <v>35.32080578920359</v>
       </c>
       <c r="T84" s="11">
-        <f ca="1">(N84+O84+Q84)/3</f>
-        <v>30.484300197783966</v>
+        <f>(N84+O84+Q84)/3</f>
+        <v>32.065574679031208</v>
       </c>
       <c r="U84" s="26">
-        <f ca="1">(N84*2+O84*2+P84+Q84)/6</f>
-        <v>33.556306063159674</v>
+        <f>(N84*2+O84*2+P84+Q84)/6</f>
+        <v>33.693190234117395</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>87</v>
+      <c r="A85" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="C85" s="34">
         <v>2023</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="8">
-        <v>271160973</v>
-      </c>
-      <c r="F85" s="8">
-        <v>64849737</v>
-      </c>
-      <c r="G85" s="8">
-        <v>405512751</v>
-      </c>
-      <c r="H85" s="5">
-        <f>G85</f>
-        <v>405512751</v>
+      <c r="D85" s="22">
+        <v>8000000</v>
+      </c>
+      <c r="E85" s="7">
+        <v>185900000</v>
+      </c>
+      <c r="F85" s="7">
+        <v>410800000</v>
+      </c>
+      <c r="G85" s="7">
+        <v>952200000</v>
+      </c>
+      <c r="H85" s="5" cm="1">
+        <f t="array" aca="1" ref="H85" ca="1">G85/INDIRECT("EUR!$B$48")</f>
+        <v>1110632892.7892842</v>
       </c>
       <c r="I85" s="10">
-        <v>1518</v>
+        <v>3810</v>
       </c>
       <c r="J85" s="12">
-        <v>52583</v>
+        <v>42980</v>
       </c>
       <c r="K85" s="13">
-        <v>40.5</v>
+        <v>77.62</v>
       </c>
       <c r="L85" s="14">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M85" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N85" s="32">
         <f>LOG((D85+E85)/(F85+E85)+1,V$3)</f>
-        <v>54.630381576484368</v>
+        <v>25.816202609165547</v>
       </c>
       <c r="O85" s="15">
-        <f>LOG(I85*H85/J85^2,W$3)</f>
-        <v>35.326720597958044</v>
+        <f ca="1">LOG(I85*H85/J85^2,W$3)</f>
+        <v>50.577059647829145</v>
       </c>
       <c r="P85" s="10">
         <f>LOG(K85/J85+1,X$3)</f>
-        <v>14.227809952512811</v>
+        <v>33.830346202356047</v>
       </c>
       <c r="Q85" s="26">
         <f>LOG(L85*M85/J85+1,Y$3)</f>
-        <v>7.171610429962425</v>
+        <v>14.911446889823594</v>
       </c>
       <c r="R85" s="15">
-        <f>(N85+O85)/2</f>
-        <v>44.978551087221206</v>
+        <f ca="1">(N85+O85)/2</f>
+        <v>38.196631128497344</v>
       </c>
       <c r="S85" s="10">
-        <f>(N85+O85+P85)/3</f>
-        <v>34.728304042318406</v>
+        <f ca="1">(N85+O85+P85)/3</f>
+        <v>36.741202819783581</v>
       </c>
       <c r="T85" s="11">
-        <f>(N85+O85+Q85)/3</f>
-        <v>32.376237534801611</v>
+        <f ca="1">(N85+O85+Q85)/3</f>
+        <v>30.434903048939429</v>
       </c>
       <c r="U85" s="26">
-        <f>(N85*2+O85*2+P85+Q85)/6</f>
-        <v>33.552270788560008</v>
+        <f ca="1">(N85*2+O85*2+P85+Q85)/6</f>
+        <v>33.588052934361507</v>
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>278</v>
+      <c r="B86" s="69" t="s">
+        <v>13</v>
       </c>
       <c r="C86" s="34">
         <v>2022</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="8">
-        <v>420860592.89999998</v>
+        <v>644619668.87</v>
       </c>
       <c r="F86" s="8">
-        <v>89463377.120000005</v>
+        <v>116819770.81999999</v>
       </c>
       <c r="G86" s="8">
-        <v>640822754.27999997</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="H86" s="5">
         <f>G86</f>
-        <v>640822754.27999997</v>
+        <v>880317964.64999998</v>
       </c>
       <c r="I86" s="10">
-        <v>2538</v>
+        <v>3576</v>
       </c>
       <c r="J86" s="12">
-        <v>59773</v>
+        <v>122143</v>
       </c>
       <c r="K86" s="13">
-        <v>30.47</v>
+        <v>53.85</v>
+      </c>
+      <c r="L86" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M86" s="11">
+        <v>40</v>
       </c>
       <c r="N86" s="32">
         <f>LOG((D86+E86)/(F86+E86)+1,V$3)</f>
-        <v>55.529996558982702</v>
+        <v>56.273095194613234</v>
       </c>
       <c r="O86" s="15">
         <f>LOG(I86*H86/J86^2,W$3)</f>
-        <v>40.001172532503624</v>
+        <v>34.987369260517326</v>
       </c>
       <c r="P86" s="10">
         <f>LOG(K86/J86+1,X$3)</f>
-        <v>9.4178619185917221</v>
+        <v>8.2644220156751036</v>
+      </c>
+      <c r="Q86" s="26">
+        <f>LOG(L86*M86/J86+1,Y$3)</f>
+        <v>10.584044537648918</v>
       </c>
       <c r="R86" s="15">
         <f>(N86+O86)/2</f>
-        <v>47.765584545743167</v>
+        <v>45.63023222756528</v>
       </c>
       <c r="S86" s="10">
         <f>(N86+O86+P86)/3</f>
-        <v>34.983010336692686</v>
+        <v>33.174962156935223</v>
       </c>
       <c r="T86" s="11">
         <f>(N86+O86+Q86)/3</f>
-        <v>31.843723030495443</v>
+        <v>33.948169664259829</v>
       </c>
       <c r="U86" s="26">
         <f>(N86*2+O86*2+P86+Q86)/6</f>
-        <v>33.413366683594063</v>
+        <v>33.561565910597523</v>
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="36" t="s">
-        <v>279</v>
+      <c r="B87" s="69" t="s">
+        <v>87</v>
       </c>
       <c r="C87" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="8">
-        <v>321313102.60000002</v>
+        <v>271160973</v>
       </c>
       <c r="F87" s="8">
-        <v>57047349.450000003</v>
+        <v>64849737</v>
       </c>
       <c r="G87" s="8">
-        <v>459478287.31999999</v>
+        <v>405512751</v>
       </c>
       <c r="H87" s="5">
         <f>G87</f>
-        <v>459478287.31999999</v>
+        <v>405512751</v>
       </c>
       <c r="I87" s="10">
-        <v>1800</v>
+        <v>1518</v>
       </c>
       <c r="J87" s="12">
-        <v>51000</v>
+        <v>52583</v>
       </c>
       <c r="K87" s="13">
-        <v>24.93</v>
+        <v>40.5</v>
+      </c>
+      <c r="L87" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M87" s="11">
+        <v>20</v>
       </c>
       <c r="N87" s="32">
         <f>LOG((D87+E87)/(F87+E87)+1,V$3)</f>
-        <v>56.763083541406147</v>
+        <v>54.285171078766808</v>
       </c>
       <c r="O87" s="15">
         <f>LOG(I87*H87/J87^2,W$3)</f>
-        <v>37.656341944244176</v>
+        <v>35.337885071871469</v>
       </c>
       <c r="P87" s="10">
         <f>LOG(K87/J87+1,X$3)</f>
-        <v>9.0311190081502311</v>
+        <v>14.435557006613646</v>
+      </c>
+      <c r="Q87" s="26">
+        <f>LOG(L87*M87/J87+1,Y$3)</f>
+        <v>7.171610429962425</v>
       </c>
       <c r="R87" s="15">
         <f>(N87+O87)/2</f>
-        <v>47.209712742825161</v>
+        <v>44.811528075319139</v>
       </c>
       <c r="S87" s="10">
         <f>(N87+O87+P87)/3</f>
-        <v>34.483514831266852</v>
+        <v>34.686204385750642</v>
       </c>
       <c r="T87" s="11">
         <f>(N87+O87+Q87)/3</f>
-        <v>31.473141828550109</v>
+        <v>32.264888860200237</v>
       </c>
       <c r="U87" s="26">
         <f>(N87*2+O87*2+P87+Q87)/6</f>
-        <v>32.978328329908479</v>
+        <v>33.475546622975436</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="65" t="s">
-        <v>94</v>
+      <c r="A88" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="C88" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D88" s="22">
-        <v>2900000</v>
-      </c>
-      <c r="E88" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="F88" s="7">
-        <v>382900000</v>
-      </c>
-      <c r="G88" s="7">
-        <v>679800000</v>
-      </c>
-      <c r="H88" s="5" cm="1">
-        <f t="array" aca="1" ref="H88" ca="1">G88/INDIRECT("EUR!$B$48")</f>
-        <v>792909305.3120724</v>
+        <v>2022</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="8">
+        <v>420860592.89999998</v>
+      </c>
+      <c r="F88" s="8">
+        <v>89463377.120000005</v>
+      </c>
+      <c r="G88" s="8">
+        <v>640822754.27999997</v>
+      </c>
+      <c r="H88" s="5">
+        <f>G88</f>
+        <v>640822754.27999997</v>
       </c>
       <c r="I88" s="10">
-        <v>2505</v>
+        <v>2538</v>
       </c>
       <c r="J88" s="12">
-        <v>26045</v>
+        <v>59773</v>
       </c>
       <c r="K88" s="13">
-        <v>61.42</v>
-      </c>
-      <c r="L88" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="M88" s="11">
-        <v>20</v>
+        <v>30.47</v>
       </c>
       <c r="N88" s="32">
         <f>LOG((D88+E88)/(F88+E88)+1,V$3)</f>
-        <v>15.211040402121972</v>
+        <v>55.179101375804407</v>
       </c>
       <c r="O88" s="15">
-        <f ca="1">LOG(I88*H88/J88^2,W$3)</f>
-        <v>52.165507374373327</v>
+        <f>LOG(I88*H88/J88^2,W$3)</f>
+        <v>40.013814296009734</v>
       </c>
       <c r="P88" s="10">
         <f>LOG(K88/J88+1,X$3)</f>
-        <v>43.528074721021305</v>
-      </c>
-      <c r="Q88" s="26">
-        <f>LOG(L88*M88/J88+1,Y$3)</f>
-        <v>18.60791819624848</v>
+        <v>9.5553766222633367</v>
       </c>
       <c r="R88" s="15">
-        <f ca="1">(N88+O88)/2</f>
-        <v>33.68827388824765</v>
+        <f>(N88+O88)/2</f>
+        <v>47.596457835907074</v>
       </c>
       <c r="S88" s="10">
-        <f ca="1">(N88+O88+P88)/3</f>
-        <v>36.968207499172202</v>
+        <f>(N88+O88+P88)/3</f>
+        <v>34.916097431359162</v>
       </c>
       <c r="T88" s="11">
-        <f ca="1">(N88+O88+Q88)/3</f>
-        <v>28.661488657581259</v>
+        <f>(N88+O88+Q88)/3</f>
+        <v>31.730971890604717</v>
       </c>
       <c r="U88" s="26">
-        <f ca="1">(N88*2+O88*2+P88+Q88)/6</f>
-        <v>32.814848078376734</v>
+        <f>(N88*2+O88*2+P88+Q88)/6</f>
+        <v>33.323534660981942</v>
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>285</v>
+      <c r="A89" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="C89" s="39">
-        <v>2021</v>
-      </c>
-      <c r="D89" s="23">
-        <v>71722.16</v>
-      </c>
-      <c r="E89" s="8">
-        <v>167965881</v>
-      </c>
-      <c r="F89" s="8">
-        <v>39368427.289999999</v>
-      </c>
-      <c r="G89" s="8">
-        <v>251080695.05000001</v>
-      </c>
-      <c r="H89" s="5">
-        <f>G89</f>
-        <v>251080695.05000001</v>
+        <v>2023</v>
+      </c>
+      <c r="D89" s="22">
+        <v>2900000</v>
+      </c>
+      <c r="E89" s="7">
+        <v>80000000</v>
+      </c>
+      <c r="F89" s="7">
+        <v>382900000</v>
+      </c>
+      <c r="G89" s="7">
+        <v>679800000</v>
+      </c>
+      <c r="H89" s="5" cm="1">
+        <f t="array" aca="1" ref="H89" ca="1">G89/INDIRECT("EUR!$B$48")</f>
+        <v>792909305.3120724</v>
       </c>
       <c r="I89" s="10">
-        <v>896</v>
+        <v>2505</v>
       </c>
       <c r="J89" s="12">
-        <v>24023</v>
+        <v>26045</v>
       </c>
       <c r="K89" s="13">
-        <v>11.79</v>
+        <v>61.42</v>
+      </c>
+      <c r="L89" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="M89" s="11">
+        <v>20</v>
       </c>
       <c r="N89" s="32">
         <f>LOG((D89+E89)/(F89+E89)+1,V$3)</f>
-        <v>54.807312977414533</v>
+        <v>15.114921526937716</v>
       </c>
       <c r="O89" s="15">
-        <f>LOG(I89*H89/J89^2,W$3)</f>
-        <v>38.987643566319363</v>
+        <f ca="1">LOG(I89*H89/J89^2,W$3)</f>
+        <v>52.1819934912957</v>
       </c>
       <c r="P89" s="10">
         <f>LOG(K89/J89+1,X$3)</f>
-        <v>9.0672502485725861</v>
+        <v>44.163648946721175</v>
+      </c>
+      <c r="Q89" s="26">
+        <f>LOG(L89*M89/J89+1,Y$3)</f>
+        <v>18.60791819624848</v>
       </c>
       <c r="R89" s="15">
-        <f>(N89+O89)/2</f>
-        <v>46.897478271866945</v>
+        <f ca="1">(N89+O89)/2</f>
+        <v>33.64845750911671</v>
       </c>
       <c r="S89" s="10">
-        <f>(N89+O89+P89)/3</f>
-        <v>34.287402264102163</v>
+        <f ca="1">(N89+O89+P89)/3</f>
+        <v>37.153521321651532</v>
       </c>
       <c r="T89" s="11">
-        <f>(N89+O89+Q89)/3</f>
-        <v>31.264985514577962</v>
+        <f ca="1">(N89+O89+Q89)/3</f>
+        <v>28.634944404827298</v>
       </c>
       <c r="U89" s="26">
-        <f>(N89*2+O89*2+P89+Q89)/6</f>
-        <v>32.776193889340057</v>
+        <f ca="1">(N89*2+O89*2+P89+Q89)/6</f>
+        <v>32.894232863239417</v>
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="65" t="s">
-        <v>91</v>
+      <c r="A90" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="C90" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D90" s="22">
-        <v>11700000</v>
-      </c>
-      <c r="E90" s="7">
-        <v>111500000</v>
-      </c>
-      <c r="F90" s="7">
-        <v>397500000</v>
-      </c>
-      <c r="G90" s="7">
-        <v>887000000</v>
-      </c>
-      <c r="H90" s="5" cm="1">
-        <f t="array" aca="1" ref="H90" ca="1">G90/INDIRECT("EUR!$B$48")</f>
-        <v>1034584515.7572937</v>
+        <v>2022</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="8">
+        <v>321313102.60000002</v>
+      </c>
+      <c r="F90" s="8">
+        <v>57047349.450000003</v>
+      </c>
+      <c r="G90" s="8">
+        <v>459478287.31999999</v>
+      </c>
+      <c r="H90" s="5">
+        <f>G90</f>
+        <v>459478287.31999999</v>
       </c>
       <c r="I90" s="10">
-        <v>3345</v>
+        <v>1800</v>
       </c>
       <c r="J90" s="12">
-        <v>30860</v>
+        <v>51000</v>
       </c>
       <c r="K90" s="13">
-        <v>48.8</v>
-      </c>
-      <c r="L90" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M90" s="11">
-        <v>28</v>
+        <v>24.93</v>
       </c>
       <c r="N90" s="32">
         <f>LOG((D90+E90)/(F90+E90)+1,V$3)</f>
-        <v>20.013841033540711</v>
+        <v>56.404396456384085</v>
       </c>
       <c r="O90" s="15">
-        <f ca="1">LOG(I90*H90/J90^2,W$3)</f>
-        <v>53.576835266534594</v>
+        <f>LOG(I90*H90/J90^2,W$3)</f>
+        <v>37.668242659628895</v>
       </c>
       <c r="P90" s="10">
         <f>LOG(K90/J90+1,X$3)</f>
-        <v>29.199561643975219</v>
-      </c>
-      <c r="Q90" s="26">
-        <f>LOG(L90*M90/J90+1,Y$3)</f>
-        <v>19.542794654642403</v>
+        <v>9.1629866937209048</v>
       </c>
       <c r="R90" s="15">
-        <f ca="1">(N90+O90)/2</f>
-        <v>36.795338150037651</v>
+        <f>(N90+O90)/2</f>
+        <v>47.03631955800649</v>
       </c>
       <c r="S90" s="10">
-        <f ca="1">(N90+O90+P90)/3</f>
-        <v>34.263412648016839</v>
+        <f>(N90+O90+P90)/3</f>
+        <v>34.411875269911299</v>
       </c>
       <c r="T90" s="11">
-        <f ca="1">(N90+O90+Q90)/3</f>
-        <v>31.044490318239237</v>
+        <f>(N90+O90+Q90)/3</f>
+        <v>31.357546372004325</v>
       </c>
       <c r="U90" s="26">
-        <f ca="1">(N90*2+O90*2+P90+Q90)/6</f>
-        <v>32.653951483128033</v>
+        <f>(N90*2+O90*2+P90+Q90)/6</f>
+        <v>32.884710820957814</v>
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>287</v>
+      <c r="A91" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="C91" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="8">
-        <v>178626191</v>
-      </c>
-      <c r="F91" s="8">
-        <v>61887234</v>
-      </c>
-      <c r="G91" s="8">
-        <v>253060701</v>
-      </c>
-      <c r="H91" s="5">
-        <f>G91</f>
-        <v>253060701</v>
+        <v>2023</v>
+      </c>
+      <c r="D91" s="22">
+        <v>11700000</v>
+      </c>
+      <c r="E91" s="7">
+        <v>111500000</v>
+      </c>
+      <c r="F91" s="7">
+        <v>397500000</v>
+      </c>
+      <c r="G91" s="7">
+        <v>887000000</v>
+      </c>
+      <c r="H91" s="5" cm="1">
+        <f t="array" aca="1" ref="H91" ca="1">G91/INDIRECT("EUR!$B$48")</f>
+        <v>1034584515.7572937</v>
       </c>
       <c r="I91" s="10">
-        <v>944</v>
+        <v>3345</v>
       </c>
       <c r="J91" s="12">
-        <v>20087</v>
+        <v>30860</v>
       </c>
       <c r="K91" s="13">
-        <v>10.56</v>
+        <v>48.8</v>
+      </c>
+      <c r="L91" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M91" s="11">
+        <v>28</v>
       </c>
       <c r="N91" s="32">
         <f>LOG((D91+E91)/(F91+E91)+1,V$3)</f>
-        <v>51.284207131661603</v>
+        <v>19.887373163006878</v>
       </c>
       <c r="O91" s="15">
-        <f>LOG(I91*H91/J91^2,W$3)</f>
-        <v>41.718870500899484</v>
+        <f ca="1">LOG(I91*H91/J91^2,W$3)</f>
+        <v>53.59376741221844</v>
       </c>
       <c r="P91" s="10">
         <f>LOG(K91/J91+1,X$3)</f>
-        <v>9.7124835084301395</v>
+        <v>29.625918401116202</v>
+      </c>
+      <c r="Q91" s="26">
+        <f>LOG(L91*M91/J91+1,Y$3)</f>
+        <v>19.542794654642403</v>
       </c>
       <c r="R91" s="15">
-        <f>(N91+O91)/2</f>
-        <v>46.501538816280544</v>
+        <f ca="1">(N91+O91)/2</f>
+        <v>36.740570287612655</v>
       </c>
       <c r="S91" s="10">
-        <f>(N91+O91+P91)/3</f>
-        <v>34.238520380330407</v>
+        <f ca="1">(N91+O91+P91)/3</f>
+        <v>34.369019658780502</v>
       </c>
       <c r="T91" s="11">
-        <f>(N91+O91+Q91)/3</f>
-        <v>31.001025877520362</v>
+        <f ca="1">(N91+O91+Q91)/3</f>
+        <v>31.007978409955907</v>
       </c>
       <c r="U91" s="26">
-        <f>(N91*2+O91*2+P91+Q91)/6</f>
-        <v>32.619773128925381</v>
+        <f ca="1">(N91*2+O91*2+P91+Q91)/6</f>
+        <v>32.688499034368199</v>
       </c>
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C92" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="6">
-        <v>18592397.989999998</v>
-      </c>
-      <c r="F92" s="6">
-        <v>15175788.51</v>
-      </c>
-      <c r="G92" s="6">
-        <v>140372577.91</v>
-      </c>
-      <c r="H92" s="5" cm="1">
-        <f t="array" aca="1" ref="H92" ca="1">G92/INDIRECT("EUR!$B$30")</f>
-        <v>143327123.22822666</v>
+        <v>2021</v>
+      </c>
+      <c r="D92" s="23">
+        <v>71722.16</v>
+      </c>
+      <c r="E92" s="8">
+        <v>167965881</v>
+      </c>
+      <c r="F92" s="8">
+        <v>39368427.289999999</v>
+      </c>
+      <c r="G92" s="8">
+        <v>251080695.05000001</v>
+      </c>
+      <c r="H92" s="5">
+        <f>G92</f>
+        <v>251080695.05000001</v>
       </c>
       <c r="I92" s="10">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="J92" s="12">
-        <v>6010</v>
+        <v>24023</v>
       </c>
       <c r="K92" s="13">
-        <v>1.77</v>
+        <v>11.79</v>
       </c>
       <c r="N92" s="32">
         <f>LOG((D92+E92)/(F92+E92)+1,V$3)</f>
-        <v>40.500370872057609</v>
+        <v>54.460984446558371</v>
       </c>
       <c r="O92" s="15">
-        <f ca="1">LOG(I92*H92/J92^2,W$3)</f>
-        <v>53.69858696287703</v>
+        <f>LOG(I92*H92/J92^2,W$3)</f>
+        <v>38.999965019377406</v>
       </c>
       <c r="P92" s="10">
         <f>LOG(K92/J92+1,X$3)</f>
-        <v>5.4416479100482134</v>
+        <v>9.1996455036556295</v>
       </c>
       <c r="R92" s="15">
-        <f ca="1">(N92+O92)/2</f>
-        <v>47.099478917467323</v>
+        <f>(N92+O92)/2</f>
+        <v>46.730474732967892</v>
       </c>
       <c r="S92" s="10">
-        <f ca="1">(N92+O92+P92)/3</f>
-        <v>33.213535248327624</v>
+        <f>(N92+O92+P92)/3</f>
+        <v>34.220198323197138</v>
       </c>
       <c r="T92" s="11">
-        <f ca="1">(N92+O92+Q92)/3</f>
-        <v>31.399652611644882</v>
+        <f>(N92+O92+Q92)/3</f>
+        <v>31.153649821978593</v>
       </c>
       <c r="U92" s="26">
-        <f ca="1">(N92*2+O92*2+P92+Q92)/6</f>
-        <v>32.306593929986249</v>
+        <f>(N92*2+O92*2+P92+Q92)/6</f>
+        <v>32.686924072587864</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -8688,1299 +8699,1423 @@
         <v>14</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C93" s="52">
         <v>2022</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="8">
-        <v>199030207.40000001</v>
+        <v>178626191</v>
       </c>
       <c r="F93" s="8">
-        <v>49636756.810000002</v>
+        <v>61887234</v>
       </c>
       <c r="G93" s="8">
-        <v>307976955.69999999</v>
+        <v>253060701</v>
       </c>
       <c r="H93" s="5">
         <f>G93</f>
-        <v>307976955.69999999</v>
+        <v>253060701</v>
       </c>
       <c r="I93" s="10">
-        <v>900</v>
+        <v>944</v>
       </c>
       <c r="J93" s="12">
-        <v>32841</v>
+        <v>20087</v>
       </c>
       <c r="K93" s="13">
-        <v>22.08</v>
+        <v>10.56</v>
       </c>
       <c r="N93" s="32">
         <f>LOG((D93+E93)/(F93+E93)+1,V$3)</f>
-        <v>54.291888291967531</v>
+        <v>50.960141178649991</v>
       </c>
       <c r="O93" s="15">
         <f>LOG(I93*H93/J93^2,W$3)</f>
-        <v>36.264856045192673</v>
+        <v>41.732055116780082</v>
       </c>
       <c r="P93" s="10">
         <f>LOG(K93/J93+1,X$3)</f>
-        <v>12.420306991354261</v>
+        <v>9.8543001227659914</v>
       </c>
       <c r="R93" s="15">
         <f>(N93+O93)/2</f>
-        <v>45.278372168580105</v>
+        <v>46.34609814771504</v>
       </c>
       <c r="S93" s="10">
         <f>(N93+O93+P93)/3</f>
-        <v>34.325683776171495</v>
+        <v>34.182165472732024</v>
       </c>
       <c r="T93" s="11">
         <f>(N93+O93+Q93)/3</f>
-        <v>30.185581445720072</v>
+        <v>30.897398765143361</v>
       </c>
       <c r="U93" s="26">
         <f>(N93*2+O93*2+P93+Q93)/6</f>
-        <v>32.255632610945781</v>
+        <v>32.539782118937694</v>
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="65" t="s">
-        <v>99</v>
+      <c r="A94" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>300</v>
       </c>
       <c r="C94" s="19">
         <v>2022</v>
       </c>
-      <c r="D94" s="23">
-        <v>75940</v>
-      </c>
-      <c r="E94" s="8">
-        <v>566196229.53999996</v>
-      </c>
-      <c r="F94" s="8">
-        <v>134624131.96000001</v>
-      </c>
-      <c r="G94" s="8">
-        <v>879831965</v>
-      </c>
-      <c r="H94" s="5">
-        <f>G94</f>
-        <v>879831965</v>
+      <c r="D94" s="21"/>
+      <c r="E94" s="6">
+        <v>18592397.989999998</v>
+      </c>
+      <c r="F94" s="6">
+        <v>15175788.51</v>
+      </c>
+      <c r="G94" s="6">
+        <v>140372577.91</v>
+      </c>
+      <c r="H94" s="5" cm="1">
+        <f t="array" aca="1" ref="H94" ca="1">G94/INDIRECT("EUR!$B$30")</f>
+        <v>143327123.22822666</v>
       </c>
       <c r="I94" s="10">
-        <v>3382</v>
+        <v>933</v>
       </c>
       <c r="J94" s="12">
-        <v>96984</v>
+        <v>6010</v>
       </c>
       <c r="K94" s="13">
-        <v>37.11</v>
+        <v>1.77</v>
       </c>
       <c r="N94" s="32">
         <f>LOG((D94+E94)/(F94+E94)+1,V$3)</f>
-        <v>54.68209347570761</v>
+        <v>40.244448200770478</v>
       </c>
       <c r="O94" s="15">
-        <f>LOG(I94*H94/J94^2,W$3)</f>
-        <v>37.622875082730289</v>
+        <f ca="1">LOG(I94*H94/J94^2,W$3)</f>
+        <v>53.715557586336757</v>
       </c>
       <c r="P94" s="10">
         <f>LOG(K94/J94+1,X$3)</f>
-        <v>7.069738889252501</v>
+        <v>5.5211040123253472</v>
       </c>
       <c r="R94" s="15">
-        <f>(N94+O94)/2</f>
-        <v>46.152484279218953</v>
+        <f ca="1">(N94+O94)/2</f>
+        <v>46.980002893553618</v>
       </c>
       <c r="S94" s="10">
-        <f>(N94+O94+P94)/3</f>
-        <v>33.124902482563471</v>
+        <f ca="1">(N94+O94+P94)/3</f>
+        <v>33.160369933144196</v>
       </c>
       <c r="T94" s="11">
-        <f>(N94+O94+Q94)/3</f>
-        <v>30.768322852812634</v>
+        <f ca="1">(N94+O94+Q94)/3</f>
+        <v>31.320001929035744</v>
       </c>
       <c r="U94" s="26">
-        <f>(N94*2+O94*2+P94+Q94)/6</f>
-        <v>31.946612667688054</v>
+        <f ca="1">(N94*2+O94*2+P94+Q94)/6</f>
+        <v>32.240185931089968</v>
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="65" t="s">
-        <v>93</v>
+      <c r="A95" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="C95" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D95" s="22">
-        <v>3135000</v>
-      </c>
-      <c r="E95" s="7">
-        <v>108240000</v>
-      </c>
-      <c r="F95" s="7">
-        <v>160937000</v>
-      </c>
-      <c r="G95" s="7">
-        <v>460525000</v>
-      </c>
-      <c r="H95" s="5" cm="1">
-        <f t="array" aca="1" ref="H95" ca="1">G95/INDIRECT("EUR!$B$48")</f>
-        <v>537149982.09597254</v>
+        <v>2022</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="8">
+        <v>199030207.40000001</v>
+      </c>
+      <c r="F95" s="8">
+        <v>49636756.810000002</v>
+      </c>
+      <c r="G95" s="8">
+        <v>307976955.69999999</v>
+      </c>
+      <c r="H95" s="5">
+        <f>G95</f>
+        <v>307976955.69999999</v>
       </c>
       <c r="I95" s="10">
-        <v>1915</v>
+        <v>900</v>
       </c>
       <c r="J95" s="12">
-        <v>25295</v>
+        <v>32841</v>
       </c>
       <c r="K95" s="13">
-        <v>24.1</v>
-      </c>
-      <c r="L95" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M95" s="11">
-        <v>17</v>
+        <v>22.08</v>
       </c>
       <c r="N95" s="32">
         <f>LOG((D95+E95)/(F95+E95)+1,V$3)</f>
-        <v>31.970552082358999</v>
+        <v>53.948816740232957</v>
       </c>
       <c r="O95" s="15">
-        <f ca="1">LOG(I95*H95/J95^2,W$3)</f>
-        <v>48.247167537144399</v>
+        <f>LOG(I95*H95/J95^2,W$3)</f>
+        <v>36.276317002576704</v>
       </c>
       <c r="P95" s="10">
         <f>LOG(K95/J95+1,X$3)</f>
-        <v>17.598317152448036</v>
-      </c>
-      <c r="Q95" s="26">
-        <f>LOG(L95*M95/J95+1,Y$3)</f>
-        <v>13.573951835951014</v>
+        <v>12.601661830721239</v>
       </c>
       <c r="R95" s="15">
-        <f ca="1">(N95+O95)/2</f>
-        <v>40.108859809751699</v>
+        <f>(N95+O95)/2</f>
+        <v>45.11256687140483</v>
       </c>
       <c r="S95" s="10">
-        <f ca="1">(N95+O95+P95)/3</f>
-        <v>32.605345590650479</v>
+        <f>(N95+O95+P95)/3</f>
+        <v>34.275598524510301</v>
       </c>
       <c r="T95" s="11">
-        <f ca="1">(N95+O95+Q95)/3</f>
-        <v>31.263890485151467</v>
+        <f>(N95+O95+Q95)/3</f>
+        <v>30.075044580936552</v>
       </c>
       <c r="U95" s="26">
-        <f ca="1">(N95*2+O95*2+P95+Q95)/6</f>
-        <v>31.934618037900975</v>
+        <f>(N95*2+O95*2+P95+Q95)/6</f>
+        <v>32.175321552723425</v>
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>293</v>
+      <c r="A96" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="69" t="s">
+        <v>93</v>
       </c>
       <c r="C96" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D96" s="58"/>
-      <c r="E96" s="59">
-        <v>5377274805</v>
-      </c>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59">
-        <v>18406500000</v>
+        <v>2023</v>
+      </c>
+      <c r="D96" s="22">
+        <v>3135000</v>
+      </c>
+      <c r="E96" s="7">
+        <v>108240000</v>
+      </c>
+      <c r="F96" s="7">
+        <v>160937000</v>
+      </c>
+      <c r="G96" s="7">
+        <v>460525000</v>
       </c>
       <c r="H96" s="5" cm="1">
-        <f t="array" aca="1" ref="H96" ca="1">G96/INDIRECT("EUR!$B$61")</f>
-        <v>46960721.446900383</v>
+        <f t="array" aca="1" ref="H96" ca="1">G96/INDIRECT("EUR!$B$48")</f>
+        <v>537149982.09597254</v>
       </c>
       <c r="I96" s="10">
-        <v>1800</v>
+        <v>1915</v>
       </c>
       <c r="J96" s="12">
-        <v>35870</v>
+        <v>25295</v>
       </c>
       <c r="K96" s="13">
-        <v>14.98</v>
+        <v>24.1</v>
+      </c>
+      <c r="L96" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="M96" s="11">
+        <v>17</v>
       </c>
       <c r="N96" s="32">
         <f>LOG((D96+E96)/(F96+E96)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>31.768529510336418</v>
       </c>
       <c r="O96" s="15">
         <f ca="1">LOG(I96*H96/J96^2,W$3)</f>
-        <v>27.350605693796577</v>
+        <v>48.262415322227412</v>
       </c>
       <c r="P96" s="10">
         <f>LOG(K96/J96+1,X$3)</f>
-        <v>7.7158780599486549</v>
+        <v>17.855278593299133</v>
+      </c>
+      <c r="Q96" s="26">
+        <f>LOG(L96*M96/J96+1,Y$3)</f>
+        <v>13.573951835951014</v>
       </c>
       <c r="R96" s="15">
         <f ca="1">(N96+O96)/2</f>
-        <v>45.675393634388008</v>
+        <v>40.015472416281916</v>
       </c>
       <c r="S96" s="10">
         <f ca="1">(N96+O96+P96)/3</f>
-        <v>33.022221776241558</v>
+        <v>32.628741141954322</v>
       </c>
       <c r="T96" s="11">
         <f ca="1">(N96+O96+Q96)/3</f>
-        <v>30.450262422925338</v>
+        <v>31.201632222838281</v>
       </c>
       <c r="U96" s="26">
         <f ca="1">(N96*2+O96*2+P96+Q96)/6</f>
-        <v>31.73624209958345</v>
+        <v>31.9151866823963</v>
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="36" t="s">
-        <v>282</v>
+      <c r="B97" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="C97" s="19">
         <v>2022</v>
       </c>
       <c r="D97" s="23">
-        <v>1422000</v>
+        <v>75940</v>
       </c>
       <c r="E97" s="8">
-        <v>171231415.30000001</v>
+        <v>566196229.53999996</v>
       </c>
       <c r="F97" s="8">
-        <v>37795692.32</v>
+        <v>134624131.96000001</v>
       </c>
       <c r="G97" s="8">
-        <v>237228536.25</v>
+        <v>879831965</v>
       </c>
       <c r="H97" s="5">
         <f>G97</f>
-        <v>237228536.25</v>
+        <v>879831965</v>
       </c>
       <c r="I97" s="10">
-        <v>960</v>
+        <v>3382</v>
       </c>
       <c r="J97" s="12">
-        <v>32000</v>
+        <v>96984</v>
       </c>
       <c r="K97" s="13">
-        <v>14.41</v>
+        <v>37.11</v>
       </c>
       <c r="N97" s="32">
         <f>LOG((D97+E97)/(F97+E97)+1,V$3)</f>
-        <v>55.595390886039787</v>
+        <v>54.336556209441973</v>
       </c>
       <c r="O97" s="15">
         <f>LOG(I97*H97/J97^2,W$3)</f>
-        <v>35.319988668912117</v>
+        <v>37.634765221421326</v>
       </c>
       <c r="P97" s="10">
         <f>LOG(K97/J97+1,X$3)</f>
-        <v>8.31977965994753</v>
+        <v>7.1729675261549017</v>
       </c>
       <c r="R97" s="15">
         <f>(N97+O97)/2</f>
-        <v>45.457689777475949</v>
+        <v>45.985660715431649</v>
       </c>
       <c r="S97" s="10">
         <f>(N97+O97+P97)/3</f>
-        <v>33.078386404966473</v>
+        <v>33.048096319006071</v>
       </c>
       <c r="T97" s="11">
         <f>(N97+O97+Q97)/3</f>
-        <v>30.305126518317298</v>
+        <v>30.657107143621101</v>
       </c>
       <c r="U97" s="26">
         <f>(N97*2+O97*2+P97+Q97)/6</f>
-        <v>31.691756461641887</v>
+        <v>31.852601731313584</v>
       </c>
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="40" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C98" s="55">
         <v>2022</v>
       </c>
-      <c r="D98" s="23">
-        <v>51422.97</v>
-      </c>
-      <c r="E98" s="8">
-        <v>417456877.80000001</v>
-      </c>
-      <c r="F98" s="8">
-        <v>92035021.359999999</v>
-      </c>
-      <c r="G98" s="8">
-        <v>596878424.63999999</v>
-      </c>
-      <c r="H98" s="5">
-        <f>G98</f>
-        <v>596878424.63999999</v>
+      <c r="D98" s="58"/>
+      <c r="E98" s="59">
+        <v>5377274805</v>
+      </c>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59">
+        <v>18406500000</v>
+      </c>
+      <c r="H98" s="5" cm="1">
+        <f t="array" aca="1" ref="H98" ca="1">G98/INDIRECT("EUR!$B$61")</f>
+        <v>46960721.446900383</v>
       </c>
       <c r="I98" s="10">
-        <v>2377</v>
+        <v>1800</v>
       </c>
       <c r="J98" s="12">
-        <v>81000</v>
+        <v>35870</v>
       </c>
       <c r="K98" s="13">
-        <v>33.51</v>
+        <v>14.98</v>
       </c>
       <c r="N98" s="32">
         <f>LOG((D98+E98)/(F98+E98)+1,V$3)</f>
-        <v>55.264825083134305</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O98" s="15">
-        <f>LOG(I98*H98/J98^2,W$3)</f>
-        <v>35.13650436920279</v>
+        <f ca="1">LOG(I98*H98/J98^2,W$3)</f>
+        <v>27.359249437643058</v>
       </c>
       <c r="P98" s="10">
         <f>LOG(K98/J98+1,X$3)</f>
-        <v>7.643551177381684</v>
+        <v>7.828541283741048</v>
       </c>
       <c r="R98" s="15">
-        <f>(N98+O98)/2</f>
-        <v>45.200664726168547</v>
+        <f ca="1">(N98+O98)/2</f>
+        <v>45.477506278607237</v>
       </c>
       <c r="S98" s="10">
-        <f>(N98+O98+P98)/3</f>
-        <v>32.681626876572928</v>
+        <f ca="1">(N98+O98+P98)/3</f>
+        <v>32.927851280318507</v>
       </c>
       <c r="T98" s="11">
-        <f>(N98+O98+Q98)/3</f>
-        <v>30.133776484112364</v>
+        <f ca="1">(N98+O98+Q98)/3</f>
+        <v>30.318337519071491</v>
       </c>
       <c r="U98" s="26">
-        <f>(N98*2+O98*2+P98+Q98)/6</f>
-        <v>31.407701680342644</v>
+        <f ca="1">(N98*2+O98*2+P98+Q98)/6</f>
+        <v>31.623094399695002</v>
       </c>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="53" t="s">
-        <v>97</v>
+      <c r="B99" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="C99" s="55">
-        <v>2021</v>
-      </c>
-      <c r="D99" s="23"/>
+        <v>2022</v>
+      </c>
+      <c r="D99" s="23">
+        <v>1422000</v>
+      </c>
       <c r="E99" s="8">
-        <v>174402468</v>
+        <v>171231415.30000001</v>
       </c>
       <c r="F99" s="8">
-        <v>32620403</v>
+        <v>37795692.32</v>
       </c>
       <c r="G99" s="8">
-        <v>296151444</v>
+        <v>237228536.25</v>
       </c>
       <c r="H99" s="5">
         <f>G99</f>
-        <v>296151444</v>
+        <v>237228536.25</v>
       </c>
       <c r="I99" s="10">
-        <v>1217</v>
+        <v>960</v>
       </c>
       <c r="J99" s="12">
-        <v>39700</v>
+        <v>32000</v>
       </c>
       <c r="K99" s="13">
-        <v>8.24</v>
+        <v>14.41</v>
       </c>
       <c r="N99" s="32">
         <f>LOG((D99+E99)/(F99+E99)+1,V$3)</f>
-        <v>56.423233949020002</v>
+        <v>55.244082474772284</v>
       </c>
       <c r="O99" s="15">
         <f>LOG(I99*H99/J99^2,W$3)</f>
-        <v>35.501848266855212</v>
+        <v>35.331151015301536</v>
       </c>
       <c r="P99" s="10">
         <f>LOG(K99/J99+1,X$3)</f>
-        <v>3.8351930209912086</v>
+        <v>8.4412607396703354</v>
       </c>
       <c r="R99" s="15">
         <f>(N99+O99)/2</f>
-        <v>45.962541107937611</v>
+        <v>45.287616745036914</v>
       </c>
       <c r="S99" s="10">
         <f>(N99+O99+P99)/3</f>
-        <v>31.920091745622145</v>
+        <v>33.005498076581389</v>
       </c>
       <c r="T99" s="11">
         <f>(N99+O99+Q99)/3</f>
-        <v>30.641694071958408</v>
+        <v>30.191744496691275</v>
       </c>
       <c r="U99" s="26">
         <f>(N99*2+O99*2+P99+Q99)/6</f>
-        <v>31.280892908790275</v>
+        <v>31.59862128663633</v>
       </c>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="53" t="s">
-        <v>92</v>
+      <c r="A100" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="C100" s="55">
-        <v>2023</v>
-      </c>
-      <c r="D100" s="22">
-        <v>655000</v>
-      </c>
-      <c r="E100" s="7">
-        <v>22578000</v>
-      </c>
-      <c r="F100" s="7">
-        <v>136722000</v>
-      </c>
-      <c r="G100" s="7">
-        <v>216104000</v>
-      </c>
-      <c r="H100" s="5" cm="1">
-        <f t="array" aca="1" ref="H100" ca="1">G100/INDIRECT("EUR!$B$48")</f>
-        <v>252060712.73192129</v>
+        <v>2022</v>
+      </c>
+      <c r="D100" s="23">
+        <v>51422.97</v>
+      </c>
+      <c r="E100" s="8">
+        <v>417456877.80000001</v>
+      </c>
+      <c r="F100" s="8">
+        <v>92035021.359999999</v>
+      </c>
+      <c r="G100" s="8">
+        <v>596878424.63999999</v>
+      </c>
+      <c r="H100" s="5">
+        <f>G100</f>
+        <v>596878424.63999999</v>
       </c>
       <c r="I100" s="10">
-        <v>880</v>
+        <v>2377</v>
       </c>
       <c r="J100" s="12">
-        <v>12480</v>
+        <v>81000</v>
       </c>
       <c r="K100" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L100" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="M100" s="11">
-        <v>28</v>
+        <v>33.51</v>
       </c>
       <c r="N100" s="32">
         <f>LOG((D100+E100)/(F100+E100)+1,V$3)</f>
-        <v>12.570342506902175</v>
+        <v>54.915605523931468</v>
       </c>
       <c r="O100" s="15">
-        <f ca="1">LOG(I100*H100/J100^2,W$3)</f>
-        <v>47.455090596296913</v>
+        <f>LOG(I100*H100/J100^2,W$3)</f>
+        <v>35.147608728163917</v>
       </c>
       <c r="P100" s="10">
         <f>LOG(K100/J100+1,X$3)</f>
-        <v>12.878014876920172</v>
-      </c>
-      <c r="Q100" s="26">
-        <f>LOG(L100*M100/J100+1,Y$3)</f>
-        <v>54.295033414113746</v>
+        <v>7.7551583217890041</v>
       </c>
       <c r="R100" s="15">
-        <f ca="1">(N100+O100)/2</f>
-        <v>30.012716551599546</v>
+        <f>(N100+O100)/2</f>
+        <v>45.031607126047689</v>
       </c>
       <c r="S100" s="10">
-        <f ca="1">(N100+O100+P100)/3</f>
-        <v>24.301149326706422</v>
+        <f>(N100+O100+P100)/3</f>
+        <v>32.606124191294789</v>
       </c>
       <c r="T100" s="11">
-        <f ca="1">(N100+O100+Q100)/3</f>
-        <v>38.10682217243761</v>
+        <f>(N100+O100+Q100)/3</f>
+        <v>30.021071417365125</v>
       </c>
       <c r="U100" s="26">
-        <f ca="1">(N100*2+O100*2+P100+Q100)/6</f>
-        <v>31.203985749572013</v>
+        <f>(N100*2+O100*2+P100+Q100)/6</f>
+        <v>31.313597804329959</v>
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>288</v>
+      <c r="A101" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="C101" s="55">
-        <v>2021</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="8">
-        <v>147784124.19999999</v>
-      </c>
-      <c r="F101" s="8">
-        <v>29747686.010000002</v>
-      </c>
-      <c r="G101" s="8">
-        <v>201622056.19999999</v>
-      </c>
-      <c r="H101" s="5">
-        <f>G101</f>
-        <v>201622056.19999999</v>
+        <v>2023</v>
+      </c>
+      <c r="D101" s="22">
+        <v>655000</v>
+      </c>
+      <c r="E101" s="7">
+        <v>22578000</v>
+      </c>
+      <c r="F101" s="7">
+        <v>136722000</v>
+      </c>
+      <c r="G101" s="7">
+        <v>216104000</v>
+      </c>
+      <c r="H101" s="5" cm="1">
+        <f t="array" aca="1" ref="H101" ca="1">G101/INDIRECT("EUR!$B$48")</f>
+        <v>252060712.73192129</v>
       </c>
       <c r="I101" s="10">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J101" s="12">
-        <v>32549</v>
+        <v>12480</v>
       </c>
       <c r="K101" s="13">
-        <v>10.27</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L101" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="M101" s="11">
+        <v>28</v>
       </c>
       <c r="N101" s="32">
         <f>LOG((D101+E101)/(F101+E101)+1,V$3)</f>
-        <v>55.92105074185659</v>
+        <v>12.490910255688396</v>
       </c>
       <c r="O101" s="15">
-        <f>LOG(I101*H101/J101^2,W$3)</f>
-        <v>33.562008408932641</v>
+        <f ca="1">LOG(I101*H101/J101^2,W$3)</f>
+        <v>47.470088057483622</v>
       </c>
       <c r="P101" s="10">
         <f>LOG(K101/J101+1,X$3)</f>
-        <v>5.8298834831438606</v>
+        <v>13.066052927911596</v>
+      </c>
+      <c r="Q101" s="26">
+        <f>LOG(L101*M101/J101+1,Y$3)</f>
+        <v>54.295033414113746</v>
       </c>
       <c r="R101" s="15">
-        <f>(N101+O101)/2</f>
-        <v>44.741529575394615</v>
+        <f ca="1">(N101+O101)/2</f>
+        <v>29.98049915658601</v>
       </c>
       <c r="S101" s="10">
-        <f>(N101+O101+P101)/3</f>
-        <v>31.770980877977696</v>
+        <f ca="1">(N101+O101+P101)/3</f>
+        <v>24.342350413694536</v>
       </c>
       <c r="T101" s="11">
-        <f>(N101+O101+Q101)/3</f>
-        <v>29.827686383596411</v>
+        <f ca="1">(N101+O101+Q101)/3</f>
+        <v>38.085343909095258</v>
       </c>
       <c r="U101" s="26">
-        <f>(N101*2+O101*2+P101+Q101)/6</f>
-        <v>30.799333630787057</v>
+        <f ca="1">(N101*2+O101*2+P101+Q101)/6</f>
+        <v>31.213847161394899</v>
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="65" t="s">
-        <v>9</v>
+      <c r="A102" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="69" t="s">
+        <v>97</v>
       </c>
       <c r="C102" s="55">
-        <v>2023</v>
-      </c>
-      <c r="D102" s="22">
-        <v>15058000</v>
-      </c>
-      <c r="E102" s="7">
-        <v>107002000</v>
-      </c>
-      <c r="F102" s="7">
-        <v>507211000</v>
-      </c>
-      <c r="G102" s="7">
-        <v>985279000</v>
-      </c>
-      <c r="H102" s="5" cm="1">
-        <f t="array" aca="1" ref="H102" ca="1">G102/INDIRECT("EUR!$B$48")</f>
-        <v>1149215780.2715113</v>
+        <v>2021</v>
+      </c>
+      <c r="D102" s="23"/>
+      <c r="E102" s="8">
+        <v>174402468</v>
+      </c>
+      <c r="F102" s="8">
+        <v>32620403</v>
+      </c>
+      <c r="G102" s="8">
+        <v>296151444</v>
+      </c>
+      <c r="H102" s="5">
+        <f>G102</f>
+        <v>296151444</v>
       </c>
       <c r="I102" s="10">
-        <v>3530</v>
+        <v>1217</v>
       </c>
       <c r="J102" s="12">
-        <v>37190</v>
+        <v>39700</v>
       </c>
       <c r="K102" s="13">
-        <v>74.2</v>
-      </c>
-      <c r="L102" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M102" s="11">
-        <v>18</v>
+        <v>8.24</v>
       </c>
       <c r="N102" s="32">
         <f>LOG((D102+E102)/(F102+E102)+1,V$3)</f>
-        <v>16.736159446707259</v>
+        <v>56.066694380518065</v>
       </c>
       <c r="O102" s="15">
-        <f ca="1">LOG(I102*H102/J102^2,W$3)</f>
-        <v>52.176664164824658</v>
+        <f>LOG(I102*H102/J102^2,W$3)</f>
+        <v>35.513068087210591</v>
       </c>
       <c r="P102" s="10">
         <f>LOG(K102/J102+1,X$3)</f>
-        <v>36.833283106415422</v>
-      </c>
-      <c r="Q102" s="26">
-        <f>LOG(L102*M102/J102+1,Y$3)</f>
-        <v>9.7768647330418403</v>
+        <v>3.8911925075375047</v>
       </c>
       <c r="R102" s="15">
-        <f ca="1">(N102+O102)/2</f>
-        <v>34.45641180576596</v>
+        <f>(N102+O102)/2</f>
+        <v>45.789881233864328</v>
       </c>
       <c r="S102" s="10">
-        <f ca="1">(N102+O102+P102)/3</f>
-        <v>35.248702239315783</v>
+        <f>(N102+O102+P102)/3</f>
+        <v>31.823651658422055</v>
       </c>
       <c r="T102" s="11">
-        <f ca="1">(N102+O102+Q102)/3</f>
-        <v>26.229896114857922</v>
+        <f>(N102+O102+Q102)/3</f>
+        <v>30.526587489242885</v>
       </c>
       <c r="U102" s="26">
-        <f ca="1">(N102*2+O102*2+P102+Q102)/6</f>
-        <v>30.739299177086849</v>
+        <f>(N102*2+O102*2+P102+Q102)/6</f>
+        <v>31.175119573832472</v>
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>312</v>
+      <c r="A103" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="69" t="s">
+        <v>9</v>
       </c>
       <c r="C103" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="8">
-        <v>34000000</v>
-      </c>
-      <c r="F103" s="8">
-        <v>16000000</v>
-      </c>
-      <c r="G103" s="8">
-        <v>114000000</v>
-      </c>
-      <c r="H103" s="5">
-        <f>G103</f>
-        <v>114000000</v>
+        <v>2023</v>
+      </c>
+      <c r="D103" s="22">
+        <v>15058000</v>
+      </c>
+      <c r="E103" s="7">
+        <v>107002000</v>
+      </c>
+      <c r="F103" s="7">
+        <v>507211000</v>
+      </c>
+      <c r="G103" s="7">
+        <v>985279000</v>
+      </c>
+      <c r="H103" s="5" cm="1">
+        <f t="array" aca="1" ref="H103" ca="1">G103/INDIRECT("EUR!$B$48")</f>
+        <v>1149215780.2715113</v>
       </c>
       <c r="I103" s="10">
-        <v>1432</v>
+        <v>3530</v>
       </c>
       <c r="J103" s="12">
-        <v>15250</v>
+        <v>37190</v>
       </c>
       <c r="K103" s="13">
-        <v>1.54</v>
+        <v>74.2</v>
+      </c>
+      <c r="L103" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="M103" s="11">
+        <v>18</v>
       </c>
       <c r="N103" s="32">
         <f>LOG((D103+E103)/(F103+E103)+1,V$3)</f>
-        <v>47.901654814091273</v>
+        <v>16.630403313109881</v>
       </c>
       <c r="O103" s="15">
-        <f>LOG(I103*H103/J103^2,W$3)</f>
-        <v>42.831552268980474</v>
+        <f ca="1">LOG(I103*H103/J103^2,W$3)</f>
+        <v>52.193153807681334</v>
       </c>
       <c r="P103" s="10">
         <f>LOG(K103/J103+1,X$3)</f>
-        <v>1.8660554198550772</v>
+        <v>37.371103479597203</v>
+      </c>
+      <c r="Q103" s="26">
+        <f>LOG(L103*M103/J103+1,Y$3)</f>
+        <v>9.7768647330418403</v>
       </c>
       <c r="R103" s="15">
-        <f>(N103+O103)/2</f>
-        <v>45.366603541535873</v>
+        <f ca="1">(N103+O103)/2</f>
+        <v>34.411778560395604</v>
       </c>
       <c r="S103" s="10">
-        <f>(N103+O103+P103)/3</f>
-        <v>30.86642083430894</v>
+        <f ca="1">(N103+O103+P103)/3</f>
+        <v>35.398220200129465</v>
       </c>
       <c r="T103" s="11">
-        <f>(N103+O103+Q103)/3</f>
-        <v>30.244402361023916</v>
+        <f ca="1">(N103+O103+Q103)/3</f>
+        <v>26.200140617944346</v>
       </c>
       <c r="U103" s="26">
-        <f>(N103*2+O103*2+P103+Q103)/6</f>
-        <v>30.555411597666431</v>
+        <f ca="1">(N103*2+O103*2+P103+Q103)/6</f>
+        <v>30.799180409036907</v>
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D104" s="22">
-        <v>3189000</v>
-      </c>
-      <c r="E104" s="7">
-        <v>59459000</v>
-      </c>
-      <c r="F104" s="7">
-        <v>256284000</v>
-      </c>
-      <c r="G104" s="7">
-        <v>518675000</v>
-      </c>
-      <c r="H104" s="5" cm="1">
-        <f t="array" aca="1" ref="H104" ca="1">G104/INDIRECT("EUR!$B$48")</f>
-        <v>604975336.76484132</v>
+      <c r="A104" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="61">
+        <v>2021</v>
+      </c>
+      <c r="D104" s="23"/>
+      <c r="E104" s="8">
+        <v>147784124.19999999</v>
+      </c>
+      <c r="F104" s="8">
+        <v>29747686.010000002</v>
+      </c>
+      <c r="G104" s="8">
+        <v>201622056.19999999</v>
+      </c>
+      <c r="H104" s="5">
+        <f>G104</f>
+        <v>201622056.19999999</v>
       </c>
       <c r="I104" s="10">
-        <v>2160</v>
+        <v>893</v>
       </c>
       <c r="J104" s="12">
-        <v>23420</v>
+        <v>32549</v>
       </c>
       <c r="K104" s="13">
-        <v>35.11</v>
-      </c>
-      <c r="L104" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="M104" s="11">
-        <v>23</v>
+        <v>10.27</v>
       </c>
       <c r="N104" s="32">
         <f>LOG((D104+E104)/(F104+E104)+1,V$3)</f>
-        <v>16.712176999908152</v>
+        <v>55.567684479304347</v>
       </c>
       <c r="O104" s="15">
-        <f ca="1">LOG(I104*H104/J104^2,W$3)</f>
-        <v>50.817725383369883</v>
+        <f>LOG(I104*H104/J104^2,W$3)</f>
+        <v>33.572615172340669</v>
       </c>
       <c r="P104" s="10">
         <f>LOG(K104/J104+1,X$3)</f>
-        <v>27.683066398287181</v>
-      </c>
-      <c r="Q104" s="26">
-        <f>LOG(L104*M104/J104+1,Y$3)</f>
-        <v>19.830430538826921</v>
+        <v>5.9150083986028514</v>
       </c>
       <c r="R104" s="15">
-        <f ca="1">(N104+O104)/2</f>
-        <v>33.764951191639014</v>
+        <f>(N104+O104)/2</f>
+        <v>44.570149825822512</v>
       </c>
       <c r="S104" s="10">
-        <f ca="1">(N104+O104+P104)/3</f>
-        <v>31.737656260521735</v>
+        <f>(N104+O104+P104)/3</f>
+        <v>31.685102683415959</v>
       </c>
       <c r="T104" s="11">
-        <f ca="1">(N104+O104+Q104)/3</f>
-        <v>29.120110974034983</v>
+        <f>(N104+O104+Q104)/3</f>
+        <v>29.713433217215009</v>
       </c>
       <c r="U104" s="26">
-        <f ca="1">(N104*2+O104*2+P104+Q104)/6</f>
-        <v>30.428883617278359</v>
+        <f>(N104*2+O104*2+P104+Q104)/6</f>
+        <v>30.699267950315484</v>
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="62">
+      <c r="B105" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="61">
         <v>2023</v>
       </c>
       <c r="D105" s="22">
-        <v>3954000</v>
+        <v>3189000</v>
       </c>
       <c r="E105" s="7">
-        <v>50464000</v>
+        <v>59459000</v>
       </c>
       <c r="F105" s="7">
-        <v>199319000</v>
+        <v>256284000</v>
       </c>
       <c r="G105" s="7">
-        <v>381775000</v>
+        <v>518675000</v>
       </c>
       <c r="H105" s="5" cm="1">
         <f t="array" aca="1" ref="H105" ca="1">G105/INDIRECT("EUR!$B$48")</f>
-        <v>445297072.72067732</v>
+        <v>604975336.76484132</v>
       </c>
       <c r="I105" s="10">
-        <v>1495</v>
+        <v>2160</v>
       </c>
       <c r="J105" s="12">
-        <v>17770</v>
+        <v>23420</v>
       </c>
       <c r="K105" s="13">
-        <v>18.32</v>
+        <v>35.11</v>
       </c>
       <c r="L105" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M105" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N105" s="32">
         <f>LOG((D105+E105)/(F105+E105)+1,V$3)</f>
-        <v>18.198426276867874</v>
+        <v>16.606572411882254</v>
       </c>
       <c r="O105" s="15">
         <f ca="1">LOG(I105*H105/J105^2,W$3)</f>
-        <v>50.018648854101428</v>
+        <v>50.833785554248443</v>
       </c>
       <c r="P105" s="10">
         <f>LOG(K105/J105+1,X$3)</f>
-        <v>19.041881465716784</v>
+        <v>28.087280083451443</v>
       </c>
       <c r="Q105" s="26">
         <f>LOG(L105*M105/J105+1,Y$3)</f>
-        <v>26.507751692196006</v>
+        <v>19.830430538826921</v>
       </c>
       <c r="R105" s="15">
         <f ca="1">(N105+O105)/2</f>
-        <v>34.108537565484653</v>
+        <v>33.720178983065352</v>
       </c>
       <c r="S105" s="10">
         <f ca="1">(N105+O105+P105)/3</f>
-        <v>29.086318865562031</v>
+        <v>31.842546016527383</v>
       </c>
       <c r="T105" s="11">
         <f ca="1">(N105+O105+Q105)/3</f>
-        <v>31.574942274388437</v>
+        <v>29.090262834985875</v>
       </c>
       <c r="U105" s="26">
         <f ca="1">(N105*2+O105*2+P105+Q105)/6</f>
-        <v>30.330630569975231</v>
+        <v>30.466404425756632</v>
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="60" t="s">
-        <v>8</v>
+      <c r="A106" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>312</v>
       </c>
       <c r="C106" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D106" s="22">
-        <v>1500000</v>
-      </c>
-      <c r="E106" s="7">
-        <v>46700000</v>
-      </c>
-      <c r="F106" s="7">
-        <v>205900000</v>
-      </c>
-      <c r="G106" s="7">
-        <v>363000000</v>
-      </c>
-      <c r="H106" s="5" cm="1">
-        <f t="array" aca="1" ref="H106" ca="1">G106/INDIRECT("EUR!$B$48")</f>
-        <v>423398172.73945618</v>
+        <v>2022</v>
+      </c>
+      <c r="D106" s="23"/>
+      <c r="E106" s="8">
+        <v>34000000</v>
+      </c>
+      <c r="F106" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="G106" s="8">
+        <v>114000000</v>
+      </c>
+      <c r="H106" s="5">
+        <f>G106</f>
+        <v>114000000</v>
       </c>
       <c r="I106" s="10">
-        <v>1290</v>
+        <v>1432</v>
       </c>
       <c r="J106" s="12">
-        <v>18890</v>
+        <v>15250</v>
       </c>
       <c r="K106" s="13">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="L106" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M106" s="11">
-        <v>16</v>
+        <v>1.54</v>
       </c>
       <c r="N106" s="32">
         <f>LOG((D106+E106)/(F106+E106)+1,V$3)</f>
-        <v>16.124841132768431</v>
+        <v>47.598963278306996</v>
       </c>
       <c r="O106" s="15">
-        <f ca="1">LOG(I106*H106/J106^2,W$3)</f>
-        <v>47.926338831488565</v>
+        <f>LOG(I106*H106/J106^2,W$3)</f>
+        <v>42.845088531047395</v>
       </c>
       <c r="P106" s="10">
         <f>LOG(K106/J106+1,X$3)</f>
-        <v>33.358604691826727</v>
-      </c>
-      <c r="Q106" s="26">
-        <f>LOG(L106*M106/J106+1,Y$3)</f>
-        <v>18.244565069656872</v>
+        <v>1.8933025870268119</v>
       </c>
       <c r="R106" s="15">
-        <f ca="1">(N106+O106)/2</f>
-        <v>32.025589982128494</v>
+        <f>(N106+O106)/2</f>
+        <v>45.222025904677196</v>
       </c>
       <c r="S106" s="10">
-        <f ca="1">(N106+O106+P106)/3</f>
-        <v>32.469928218694569</v>
+        <f>(N106+O106+P106)/3</f>
+        <v>30.779118132127067</v>
       </c>
       <c r="T106" s="11">
-        <f ca="1">(N106+O106+Q106)/3</f>
-        <v>27.431915011304621</v>
+        <f>(N106+O106+Q106)/3</f>
+        <v>30.148017269784798</v>
       </c>
       <c r="U106" s="26">
-        <f ca="1">(N106*2+O106*2+P106+Q106)/6</f>
-        <v>29.95092161499959</v>
+        <f>(N106*2+O106*2+P106+Q106)/6</f>
+        <v>30.463567700955934</v>
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="67">
+      <c r="B107" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="66">
         <v>2023</v>
       </c>
       <c r="D107" s="22">
-        <v>1397000</v>
+        <v>3954000</v>
       </c>
       <c r="E107" s="7">
-        <v>90199000</v>
+        <v>50464000</v>
       </c>
       <c r="F107" s="7">
-        <v>310617000</v>
+        <v>199319000</v>
       </c>
       <c r="G107" s="7">
-        <v>636381000</v>
+        <v>381775000</v>
       </c>
       <c r="H107" s="5" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">G107/INDIRECT("EUR!$B$48")</f>
-        <v>742265985.03060007</v>
+        <v>445297072.72067732</v>
       </c>
       <c r="I107" s="10">
-        <v>2940</v>
+        <v>1495</v>
       </c>
       <c r="J107" s="12">
-        <v>33985</v>
+        <v>17770</v>
       </c>
       <c r="K107" s="13">
-        <v>41.21</v>
+        <v>18.32</v>
       </c>
       <c r="L107" s="14">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="M107" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N107" s="32">
         <f>LOG((D107+E107)/(F107+E107)+1,V$3)</f>
-        <v>19.003306425867443</v>
+        <v>18.083430049284903</v>
       </c>
       <c r="O107" s="15">
         <f ca="1">LOG(I107*H107/J107^2,W$3)</f>
-        <v>49.302602158109472</v>
+        <v>50.034456488970001</v>
       </c>
       <c r="P107" s="10">
         <f>LOG(K107/J107+1,X$3)</f>
-        <v>22.394828952372237</v>
+        <v>19.319921079138897</v>
       </c>
       <c r="Q107" s="26">
         <f>LOG(L107*M107/J107+1,Y$3)</f>
-        <v>17.509443950781222</v>
+        <v>26.507751692196006</v>
       </c>
       <c r="R107" s="15">
         <f ca="1">(N107+O107)/2</f>
-        <v>34.152954291988458</v>
+        <v>34.058943269127454</v>
       </c>
       <c r="S107" s="10">
         <f ca="1">(N107+O107+P107)/3</f>
-        <v>30.233579178783049</v>
+        <v>29.145935872464602</v>
       </c>
       <c r="T107" s="11">
         <f ca="1">(N107+O107+Q107)/3</f>
-        <v>28.605117511586045</v>
+        <v>31.541879410150305</v>
       </c>
       <c r="U107" s="26">
         <f ca="1">(N107*2+O107*2+P107+Q107)/6</f>
-        <v>29.419348345184549</v>
+        <v>30.343907641307453</v>
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>297</v>
+      <c r="A108" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="69" t="s">
+        <v>8</v>
       </c>
       <c r="C108" s="19">
         <v>2023</v>
       </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="8">
-        <v>9994324.3000000007</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8">
-        <v>21431000.629999999</v>
-      </c>
-      <c r="H108" s="5">
-        <f>G108</f>
-        <v>21431000.629999999</v>
+      <c r="D108" s="22">
+        <v>1500000</v>
+      </c>
+      <c r="E108" s="7">
+        <v>46700000</v>
+      </c>
+      <c r="F108" s="7">
+        <v>205900000</v>
+      </c>
+      <c r="G108" s="7">
+        <v>363000000</v>
+      </c>
+      <c r="H108" s="5" cm="1">
+        <f t="array" aca="1" ref="H108" ca="1">G108/INDIRECT("EUR!$B$48")</f>
+        <v>423398172.73945618</v>
       </c>
       <c r="I108" s="10">
-        <v>7900</v>
+        <v>1290</v>
       </c>
       <c r="J108" s="12">
-        <v>72480</v>
+        <v>18890</v>
       </c>
       <c r="K108" s="13">
-        <v>10.83</v>
+        <v>34.130000000000003</v>
+      </c>
+      <c r="L108" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M108" s="11">
+        <v>16</v>
       </c>
       <c r="N108" s="32">
         <f>LOG((D108+E108)/(F108+E108)+1,V$3)</f>
-        <v>64.000181574979436</v>
+        <v>16.022947932090958</v>
       </c>
       <c r="O108" s="15">
-        <f>LOG(I108*H108/J108^2,W$3)</f>
-        <v>22.696055299951446</v>
+        <f ca="1">LOG(I108*H108/J108^2,W$3)</f>
+        <v>47.941485223528176</v>
       </c>
       <c r="P108" s="10">
         <f>LOG(K108/J108+1,X$3)</f>
-        <v>2.761044559650828</v>
+        <v>33.845689624558581</v>
+      </c>
+      <c r="Q108" s="26">
+        <f>LOG(L108*M108/J108+1,Y$3)</f>
+        <v>18.244565069656872</v>
       </c>
       <c r="R108" s="15">
-        <f>(N108+O108)/2</f>
-        <v>43.348118437465445</v>
+        <f ca="1">(N108+O108)/2</f>
+        <v>31.982216577809567</v>
       </c>
       <c r="S108" s="10">
-        <f>(N108+O108+P108)/3</f>
-        <v>29.819093811527239</v>
+        <f ca="1">(N108+O108+P108)/3</f>
+        <v>32.60337426005924</v>
       </c>
       <c r="T108" s="11">
-        <f>(N108+O108+Q108)/3</f>
-        <v>28.898745624976964</v>
+        <f ca="1">(N108+O108+Q108)/3</f>
+        <v>27.402999408425334</v>
       </c>
       <c r="U108" s="26">
-        <f>(N108*2+O108*2+P108+Q108)/6</f>
-        <v>29.3589197182521</v>
+        <f ca="1">(N108*2+O108*2+P108+Q108)/6</f>
+        <v>30.003186834242285</v>
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="66" t="s">
+      <c r="A109" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="65" t="s">
-        <v>95</v>
+      <c r="B109" s="69" t="s">
+        <v>6</v>
       </c>
       <c r="C109" s="19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D109" s="22">
-        <v>4300000</v>
+        <v>1397000</v>
       </c>
       <c r="E109" s="7">
-        <v>108500000</v>
+        <v>90199000</v>
       </c>
       <c r="F109" s="7">
-        <v>433700000</v>
+        <v>310617000</v>
       </c>
       <c r="G109" s="7">
-        <v>801800000</v>
+        <v>636381000</v>
       </c>
       <c r="H109" s="5" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">G109/INDIRECT("EUR!$B$48")</f>
-        <v>935208415.70935524</v>
+        <v>742265985.03060007</v>
       </c>
       <c r="I109" s="10">
-        <v>3320</v>
+        <v>2940</v>
       </c>
       <c r="J109" s="12">
-        <v>37260</v>
+        <v>33985</v>
       </c>
       <c r="K109" s="13">
-        <v>57.68</v>
+        <v>41.21</v>
       </c>
       <c r="L109" s="14">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M109" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N109" s="32">
         <f>LOG((D109+E109)/(F109+E109)+1,V$3)</f>
-        <v>17.450916292377794</v>
+        <v>18.883224144172804</v>
       </c>
       <c r="O109" s="15">
         <f ca="1">LOG(I109*H109/J109^2,W$3)</f>
-        <v>50.404551733544096</v>
+        <v>49.318183497286775</v>
       </c>
       <c r="P109" s="10">
         <f>LOG(K109/J109+1,X$3)</f>
-        <v>28.585253824204518</v>
+        <v>22.721826554777358</v>
       </c>
       <c r="Q109" s="26">
         <f>LOG(L109*M109/J109+1,Y$3)</f>
-        <v>11.13135545081772</v>
+        <v>17.509443950781222</v>
       </c>
       <c r="R109" s="15">
         <f ca="1">(N109+O109)/2</f>
-        <v>33.927734012960947</v>
+        <v>34.100703820729791</v>
       </c>
       <c r="S109" s="10">
         <f ca="1">(N109+O109+P109)/3</f>
-        <v>32.146907283375469</v>
+        <v>30.307744732078977</v>
       </c>
       <c r="T109" s="11">
         <f ca="1">(N109+O109+Q109)/3</f>
-        <v>26.328941158913207</v>
+        <v>28.570283864080267</v>
       </c>
       <c r="U109" s="26">
         <f ca="1">(N109*2+O109*2+P109+Q109)/6</f>
-        <v>29.23792422114434</v>
+        <v>29.439014298079623</v>
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="65" t="s">
-        <v>16</v>
+      <c r="A110" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>95</v>
       </c>
       <c r="C110" s="19">
-        <v>2023</v>
-      </c>
-      <c r="D110" s="23">
-        <v>5500000</v>
-      </c>
-      <c r="E110" s="8">
-        <v>12600000</v>
-      </c>
-      <c r="F110" s="8">
-        <v>219892056</v>
-      </c>
-      <c r="G110" s="8">
-        <v>291098453</v>
-      </c>
-      <c r="H110" s="5">
-        <f>G110</f>
-        <v>291098453</v>
+        <v>2022</v>
+      </c>
+      <c r="D110" s="22">
+        <v>4300000</v>
+      </c>
+      <c r="E110" s="7">
+        <v>108500000</v>
+      </c>
+      <c r="F110" s="7">
+        <v>433700000</v>
+      </c>
+      <c r="G110" s="7">
+        <v>801800000</v>
+      </c>
+      <c r="H110" s="5" cm="1">
+        <f t="array" aca="1" ref="H110" ca="1">G110/INDIRECT("EUR!$B$48")</f>
+        <v>935208415.70935524</v>
       </c>
       <c r="I110" s="10">
-        <v>689</v>
+        <v>3320</v>
       </c>
       <c r="J110" s="12">
-        <v>15107</v>
+        <v>37260</v>
       </c>
       <c r="K110" s="13">
-        <v>1.68</v>
+        <v>57.68</v>
       </c>
       <c r="L110" s="14">
         <v>1.4</v>
       </c>
       <c r="M110" s="11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N110" s="32">
         <f>LOG((D110+E110)/(F110+E110)+1,V$3)</f>
-        <v>6.922212206730709</v>
+        <v>17.340643595664424</v>
       </c>
       <c r="O110" s="15">
-        <f>LOG(I110*H110/J110^2,W$3)</f>
-        <v>44.300164506685604</v>
+        <f ca="1">LOG(I110*H110/J110^2,W$3)</f>
+        <v>50.420481327161106</v>
       </c>
       <c r="P110" s="10">
         <f>LOG(K110/J110+1,X$3)</f>
-        <v>2.0549558389869564</v>
+        <v>29.002640779225963</v>
       </c>
       <c r="Q110" s="26">
         <f>LOG(L110*M110/J110+1,Y$3)</f>
-        <v>12.478669175840365</v>
+        <v>11.13135545081772</v>
       </c>
       <c r="R110" s="15">
-        <f>(N110+O110)/2</f>
-        <v>25.611188356708155</v>
+        <f ca="1">(N110+O110)/2</f>
+        <v>33.880562461412765</v>
       </c>
       <c r="S110" s="10">
-        <f>(N110+O110+P110)/3</f>
-        <v>17.75911085080109</v>
+        <f ca="1">(N110+O110+P110)/3</f>
+        <v>32.254588567350503</v>
       </c>
       <c r="T110" s="11">
-        <f>(N110+O110+Q110)/3</f>
-        <v>21.233681963085559</v>
+        <f ca="1">(N110+O110+Q110)/3</f>
+        <v>26.297493457881085</v>
       </c>
       <c r="U110" s="26">
-        <f>(N110*2+O110*2+P110+Q110)/6</f>
-        <v>19.496396406943322</v>
+        <f ca="1">(N110*2+O110*2+P110+Q110)/6</f>
+        <v>29.276041012615792</v>
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="65" t="s">
-        <v>96</v>
+      <c r="A111" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="C111" s="19">
-        <v>2022</v>
-      </c>
-      <c r="D111" s="22">
-        <v>5800000</v>
-      </c>
-      <c r="E111" s="7">
-        <v>113800000</v>
-      </c>
-      <c r="F111" s="7">
-        <v>432100000</v>
-      </c>
-      <c r="G111" s="7">
-        <v>554000000</v>
-      </c>
-      <c r="H111" s="5" cm="1">
-        <f t="array" aca="1" ref="H111" ca="1">G111/INDIRECT("EUR!$B$48")</f>
-        <v>646177927.54175949</v>
+        <v>2023</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="8">
+        <v>9994324.3000000007</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8">
+        <v>21431000.629999999</v>
+      </c>
+      <c r="H111" s="5">
+        <f>G111</f>
+        <v>21431000.629999999</v>
       </c>
       <c r="I111" s="10">
-        <v>3255</v>
+        <v>7900</v>
       </c>
       <c r="J111" s="12">
-        <v>151840</v>
+        <v>72480</v>
       </c>
       <c r="K111" s="13">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="L111" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="M111" s="11">
-        <v>16</v>
+        <v>10.83</v>
       </c>
       <c r="N111" s="32">
         <f>LOG((D111+E111)/(F111+E111)+1,V$3)</f>
-        <v>18.2913779138682</v>
+        <v>63.595763119571409</v>
       </c>
       <c r="O111" s="15">
-        <f ca="1">LOG(I111*H111/J111^2,W$3)</f>
-        <v>29.496258345738593</v>
+        <f>LOG(I111*H111/J111^2,W$3)</f>
+        <v>22.703228043785153</v>
       </c>
       <c r="P111" s="10">
         <f>LOG(K111/J111+1,X$3)</f>
-        <v>0.53062736949978029</v>
-      </c>
-      <c r="Q111" s="26">
-        <f>LOG(L111*M111/J111+1,Y$3)</f>
+        <v>2.8013598910632562</v>
+      </c>
+      <c r="R111" s="15">
+        <f>(N111+O111)/2</f>
+        <v>43.149495581678281</v>
+      </c>
+      <c r="S111" s="10">
+        <f>(N111+O111+P111)/3</f>
+        <v>29.700117018139938</v>
+      </c>
+      <c r="T111" s="11">
+        <f>(N111+O111+Q111)/3</f>
+        <v>28.766330387785519</v>
+      </c>
+      <c r="U111" s="26">
+        <f>(N111*2+O111*2+P111+Q111)/6</f>
+        <v>29.233223702962729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="19">
+        <v>2023</v>
+      </c>
+      <c r="D112" s="23">
+        <v>5500000</v>
+      </c>
+      <c r="E112" s="8">
+        <v>12600000</v>
+      </c>
+      <c r="F112" s="8">
+        <v>219892056</v>
+      </c>
+      <c r="G112" s="8">
+        <v>291098453</v>
+      </c>
+      <c r="H112" s="5">
+        <f>G112</f>
+        <v>291098453</v>
+      </c>
+      <c r="I112" s="10">
+        <v>689</v>
+      </c>
+      <c r="J112" s="12">
+        <v>15107</v>
+      </c>
+      <c r="K112" s="13">
+        <v>1.68</v>
+      </c>
+      <c r="L112" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M112" s="11">
+        <v>10</v>
+      </c>
+      <c r="N112" s="32">
+        <f>LOG((D112+E112)/(F112+E112)+1,V$3)</f>
+        <v>6.878470606320203</v>
+      </c>
+      <c r="O112" s="15">
+        <f>LOG(I112*H112/J112^2,W$3)</f>
+        <v>44.314164901362041</v>
+      </c>
+      <c r="P112" s="10">
+        <f>LOG(K112/J112+1,X$3)</f>
+        <v>2.0849612314740447</v>
+      </c>
+      <c r="Q112" s="26">
+        <f>LOG(L112*M112/J112+1,Y$3)</f>
+        <v>12.478669175840365</v>
+      </c>
+      <c r="R112" s="15">
+        <f>(N112+O112)/2</f>
+        <v>25.59631775384112</v>
+      </c>
+      <c r="S112" s="10">
+        <f>(N112+O112+P112)/3</f>
+        <v>17.759198913052096</v>
+      </c>
+      <c r="T112" s="11">
+        <f>(N112+O112+Q112)/3</f>
+        <v>21.223768227840868</v>
+      </c>
+      <c r="U112" s="26">
+        <f>(N112*2+O112*2+P112+Q112)/6</f>
+        <v>19.49148357044648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="19">
+        <v>2022</v>
+      </c>
+      <c r="D113" s="22">
+        <v>5800000</v>
+      </c>
+      <c r="E113" s="7">
+        <v>113800000</v>
+      </c>
+      <c r="F113" s="7">
+        <v>432100000</v>
+      </c>
+      <c r="G113" s="7">
+        <v>554000000</v>
+      </c>
+      <c r="H113" s="5" cm="1">
+        <f t="array" aca="1" ref="H113" ca="1">G113/INDIRECT("EUR!$B$48")</f>
+        <v>646177927.54175949</v>
+      </c>
+      <c r="I113" s="10">
+        <v>3255</v>
+      </c>
+      <c r="J113" s="12">
+        <v>151840</v>
+      </c>
+      <c r="K113" s="13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L113" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M113" s="11">
+        <v>16</v>
+      </c>
+      <c r="N113" s="32">
+        <f>LOG((D113+E113)/(F113+E113)+1,V$3)</f>
+        <v>18.175794322991276</v>
+      </c>
+      <c r="O113" s="15">
+        <f ca="1">LOG(I113*H113/J113^2,W$3)</f>
+        <v>29.505580190542489</v>
+      </c>
+      <c r="P113" s="10">
+        <f>LOG(K113/J113+1,X$3)</f>
+        <v>0.53837531336512445</v>
+      </c>
+      <c r="Q113" s="26">
+        <f>LOG(L113*M113/J113+1,Y$3)</f>
         <v>1.9872358496230897</v>
       </c>
-      <c r="R111" s="15">
-        <f ca="1">(N111+O111)/2</f>
-        <v>23.893818129803396</v>
-      </c>
-      <c r="S111" s="10">
-        <f ca="1">(N111+O111+P111)/3</f>
-        <v>16.106087876368857</v>
-      </c>
-      <c r="T111" s="11">
-        <f ca="1">(N111+O111+Q111)/3</f>
-        <v>16.591624036409961</v>
-      </c>
-      <c r="U111" s="26">
-        <f ca="1">(N111*2+O111*2+P111+Q111)/6</f>
-        <v>16.348855956389411</v>
+      <c r="R113" s="15">
+        <f ca="1">(N113+O113)/2</f>
+        <v>23.840687256766884</v>
+      </c>
+      <c r="S113" s="10">
+        <f ca="1">(N113+O113+P113)/3</f>
+        <v>16.073249942299629</v>
+      </c>
+      <c r="T113" s="11">
+        <f ca="1">(N113+O113+Q113)/3</f>
+        <v>16.556203454385621</v>
+      </c>
+      <c r="U113" s="26">
+        <f ca="1">(N113*2+O113*2+P113+Q113)/6</f>
+        <v>16.314726698342625</v>
       </c>
     </row>
   </sheetData>
